--- a/results/dwave_pegasus/spreadsheet75_annealing5.xlsx
+++ b/results/dwave_pegasus/spreadsheet75_annealing5.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,31 +432,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{0: [215, 212, 3466, 3465, 214, 213], 1: [305, 304, 303, 3331, 302], 4: [3709, 3708, 139, 3707, 3705, 3706], 5: [123, 754, 3645, 3646, 3648, 3647], 6: [858, 859, 469, 3765, 3768, 3767, 3766], 8: [573, 3975, 574, 575, 3977, 3976], 10: [530, 3795, 3798, 3796, 529, 3797], 11: [3603, 783, 844, 3723, 3720, 3721, 3722], 12: [290, 286, 287, 289, 288], 14: [256, 3916, 257, 258, 259, 3915], 16: [500, 499, 3542, 3540, 3541, 498], 17: [3931, 3930, 197, 198, 199, 200], 18: [3826, 380, 377, 378, 379], 19: [3827, 3420, 3421, 3422, 619, 618, 617], 20: [4006, 482, 425, 421, 3391, 424, 423, 422], 21: [3932, 515, 514, 3481, 3482, 513, 512], 22: [724, 3694, 3693, 3691, 3692], 23: [3467, 451, 3495, 3496, 454, 453, 452, 3497], 25: [3631, 407, 410, 408, 409], 26: [3679, 3678, 3675, 3676, 559, 3677], 29: [3377, 3450, 572, 271, 154, 153, 3376, 3375, 152], 30: [331, 335, 334, 332, 333], 31: [3256, 3961, 316, 320, 319, 317, 318], 32: [485, 3632, 483, 3735, 3736, 484], 33: [3390, 272, 273, 275, 274], 36: [34, 3889, 3888, 3887, 3886, 3885, 35], 37: [436, 3451, 437, 440, 439, 438], 38: [3873, 665, 664, 663, 3360, 3361, 3362, 662], 39: [784, 3783, 3780, 3781, 3782], 40: [648, 649, 3750, 3753, 3752, 3751], 41: [3525, 3526, 3527, 3528, 739, 738, 723], 42: [590, 589, 588, 528, 3600, 3601, 3602], 43: [3300, 545, 544, 543, 542, 3302, 227, 3301], 44: [3902, 3901, 168, 169, 170, 3900], 45: [3615, 3616, 799, 798, 3618, 3617], 46: [242, 245, 3872, 243, 3871, 244], 47: [3286, 392, 395, 394, 393], 48: [3510, 694, 693, 3511, 3512, 3513], 49: [3555, 3556, 709, 708, 3557, 3558], 2: [108, 109, 560, 3810, 3811, 3812, 3813], 3: [3859, 3858, 3855, 3856, 3857], 7: [228, 229, 3630, 94, 3436, 3435, 92, 93], 9: [769, 770, 3844, 3843, 3840, 3841, 3842], 15: [3437, 604, 603, 3405, 3406, 3407, 3452, 602], 24: [336, 4051, 3316, 366, 362, 365, 363, 364], 27: [679, 678, 3663, 3660, 3661, 3662], 28: [558, 634, 633, 3570, 3571, 3572], 34: [346, 347, 348, 349, 350, 4021], 35: [814, 3585, 3586, 813, 3587, 3588], 13: [3690, 3480, 3946, 182, 3945, 183, 184, 185]}</t>
+          <t>{0: [5041], 1: [386], 2: [5056]}</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.4809663865546218</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02914594766162653</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{0: [215, 212, 3466, 3465, 214, 213], 1: [305, 304, 303, 3331, 302], 4: [3709, 3708, 139, 3707, 3705, 3706], 5: [123, 754, 3645, 3646, 3648, 3647], 6: [858, 859, 469, 3765, 3768, 3767, 3766], 8: [573, 3975, 574, 575, 3977, 3976], 10: [530, 3795, 3798, 3796, 529, 3797], 11: [3603, 783, 844, 3723, 3720, 3721, 3722], 12: [290, 286, 287, 289, 288], 14: [256, 3916, 257, 258, 259, 3915], 16: [500, 499, 3542, 3540, 3541, 498], 17: [3931, 3930, 197, 198, 199, 200], 18: [3826, 380, 377, 378, 379], 19: [3827, 3420, 3421, 3422, 619, 618, 617], 20: [4006, 482, 425, 421, 3391, 424, 423, 422], 21: [3932, 515, 514, 3481, 3482, 513, 512], 22: [724, 3694, 3693, 3691, 3692], 23: [3467, 451, 3495, 3496, 454, 453, 452, 3497], 25: [3631, 407, 410, 408, 409], 26: [3679, 3678, 3675, 3676, 559, 3677], 29: [3377, 3450, 572, 271, 154, 153, 3376, 3375, 152], 30: [331, 335, 334, 332, 333], 31: [3256, 3961, 316, 320, 319, 317, 318], 32: [485, 3632, 483, 3735, 3736, 484], 33: [3390, 272, 273, 275, 274], 36: [34, 3889, 3888, 3887, 3886, 3885, 35], 37: [436, 3451, 437, 440, 439, 438], 38: [3873, 665, 664, 663, 3360, 3361, 3362, 662], 39: [784, 3783, 3780, 3781, 3782], 40: [648, 649, 3750, 3753, 3752, 3751], 41: [3525, 3526, 3527, 3528, 739, 738, 723], 42: [590, 589, 588, 528, 3600, 3601, 3602], 43: [3300, 545, 544, 543, 542, 3302, 227, 3301], 44: [3902, 3901, 168, 169, 170, 3900], 45: [3615, 3616, 799, 798, 3618, 3617], 46: [242, 245, 3872, 243, 3871, 244], 47: [3286, 392, 395, 394, 393], 48: [3510, 694, 693, 3511, 3512, 3513], 49: [3555, 3556, 709, 708, 3557, 3558], 2: [108, 109, 560, 3810, 3811, 3812, 3813], 3: [3859, 3858, 3855, 3856, 3857], 7: [228, 229, 3630, 94, 3436, 3435, 92, 93], 9: [769, 770, 3844, 3843, 3840, 3841, 3842], 15: [3437, 604, 603, 3405, 3406, 3407, 3452, 602], 24: [336, 4051, 3316, 366, 362, 365, 363, 364], 27: [679, 678, 3663, 3660, 3661, 3662], 28: [558, 634, 633, 3570, 3571, 3572], 34: [346, 347, 348, 349, 350, 4021], 35: [814, 3585, 3586, 813, 3587, 3588], 13: [3690, 3480, 3946, 182, 3945, 183, 184, 185]}</t>
+          <t>{0: [5041], 1: [386], 2: [5056]}</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.4809663865546218</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02914594766162653</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -473,30 +473,3884 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>{0: [1127], 1: [1112], 's_0_1': [3410], 2: [1067, 3425], 's_0_2': [3380], 's_1_2': [3365]}</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{0: [1127], 1: [1112], 's_0_1': [3410], 2: [1067, 3425], 's_0_2': [3380], 's_1_2': [3365]}</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{0: [2424], 2: [2423], 1: [2422], 3: [2407]}</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{0: [2424], 2: [2423], 1: [2422], 3: [2407]}</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{0: [35], 2: [50], 's_0_2': [3840], 1: [3870], 's_2_1': [3885], 3: [125], 's_1_3': [140]}</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{0: [35], 2: [50], 's_0_2': [3840], 1: [3870], 's_2_1': [3885], 3: [125], 's_1_3': [140]}</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.447</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{0: [2224], 1: [3791], 2: [2239], 3: [3806], 4: [2194]}</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{0: [2224], 1: [3791], 2: [2239], 3: [3806], 4: [2194]}</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{0: [2274, 4752], 1: [2200], 's_0_1': [4826], 2: [4782], 's_0_2': [2350], 3: [2215], 's_0_3': [4811], 's_1_2': [4856, 2290], 's_1_3': [4841], 's_2_3': [4797], 4: [4886], 's_3_4': [4871]}</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0001754385964912281</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.003819568606504778</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>{0: [2274, 4752], 1: [2200], 's_0_1': [4826], 2: [4782], 's_0_2': [2350], 3: [2215], 's_0_3': [4811], 's_1_2': [4856, 2290], 's_1_3': [4841], 's_2_3': [4797], 4: [4886], 's_3_4': [4871]}</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0001754385964912281</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.003819568606504778</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.053</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{0: [1624], 3: [3773], 4: [1639], 5: [3758], 1: [1669], 2: [1654]}</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{0: [1624], 3: [3773], 4: [1639], 5: [3758], 1: [1669], 2: [1654]}</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{0: [659], 3: [674, 5643], 's_0_3': [5552], 4: [644], 's_0_4': [5717], 5: [5628, 704], 's_0_5': [5598], 1: [719], 's_3_1': [5613], 2: [5493], 's_3_2': [689], 's_3_4': [5567], 's_3_5': [5658], 's_4_5': [5583], 's_5_1': [5538], 's_1_2': [5508]}</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0002185314685314685</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.003689235798980361</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{0: [659], 3: [674, 5643], 's_0_3': [5552], 4: [644], 's_0_4': [5717], 5: [5628, 704], 's_0_5': [5598], 1: [719], 's_3_1': [5613], 2: [5493], 's_3_2': [689], 's_3_4': [5567], 's_3_5': [5658], 's_4_5': [5583], 's_5_1': [5538], 's_1_2': [5508]}</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0002185314685314685</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.003689235798980361</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>{0: [4947], 1: [2305], 3: [4917, 2290], 5: [2335], 6: [2320], 4: [4782], 2: [4797]}</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{0: [4947], 1: [2305], 3: [4917, 2290], 5: [2335], 6: [2320], 4: [4782], 2: [4797]}</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>{0: [4570, 1883], 1: [4509, 4510], 's_0_1': [1958], 3: [4629, 1898], 's_0_3': [4644], 5: [4615], 's_0_5': [2004], 6: [4600], 's_0_6': [1989], 's_1_3': [4525], 4: [4554, 1868], 's_1_4': [1763], 2: [4479], 's_3_2': [4494], 's_3_4': [4585], 's_3_5': [1913], 's_5_4': [1839], 's_5_6': [1959], 's_4_2': [1793]}</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0001115075825156111</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.002419997146990489</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{0: [4570, 1883], 1: [4509, 4510], 's_0_1': [1958], 3: [4629, 1898], 's_0_3': [4644], 5: [4615], 's_0_5': [2004], 6: [4600], 's_0_6': [1989], 's_1_3': [4525], 4: [4554, 1868], 's_1_4': [1763], 2: [4479], 's_3_2': [4494], 's_3_4': [4585], 's_3_5': [1913], 's_5_4': [1839], 's_5_6': [1959], 's_4_2': [1793]}</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0001115075825156111</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.002419997146990489</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>{0: [2553], 1: [3628], 3: [3553, 2568], 4: [2598, 3583], 5: [3613], 7: [3568, 2538], 2: [2493], 6: [2508]}</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.00992063492063492</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.03378846501175873</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{0: [2553], 1: [3628], 3: [3553, 2568], 4: [2598, 3583], 5: [3613], 7: [3568, 2538], 2: [2493], 6: [2508]}</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0.00992063492063492</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.03378846501175873</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.705</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>{0: [3261, 1336], 1: [1276, 3231], 's_0_1': [1321], 3: [3202, 1231, 3201], 's_0_3': [3276], 4: [3262, 1381], 's_0_4': [3307], 5: [3172, 1291], 's_0_5': [3246], 7: [1306, 3217, 3216], 's_0_7': [1246], 2: [3186, 1350], 's_1_2': [1261], 's_1_3': [3171], 's_1_4': [1366], 6: [3021, 1395, 1396], 's_1_6': [1275], 's_1_7': [3096], 's_3_2': [3187], 's_3_4': [1411], 's_3_5': [1456], 's_3_6': [1230], 's_3_7': [1561], 's_4_2': [1351], 's_4_5': [1441], 's_4_6': [1380], 's_4_7': [1486], 's_5_2': [1320], 's_5_6': [1290], 's_5_7': [1426], 's_7_2': [3127], 's_7_6': [1305], 's_2_6': [3097]}</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{0: [3261, 1336], 1: [1276, 3231], 's_0_1': [1321], 3: [3202, 1231, 3201], 's_0_3': [3276], 4: [3262, 1381], 's_0_4': [3307], 5: [3172, 1291], 's_0_5': [3246], 7: [1306, 3217, 3216], 's_0_7': [1246], 2: [3186, 1350], 's_1_2': [1261], 's_1_3': [3171], 's_1_4': [1366], 6: [3021, 1395, 1396], 's_1_6': [1275], 's_1_7': [3096], 's_3_2': [3187], 's_3_4': [1411], 's_3_5': [1456], 's_3_6': [1230], 's_3_7': [1561], 's_4_2': [1351], 's_4_5': [1441], 's_4_6': [1380], 's_4_7': [1486], 's_5_2': [1320], 's_5_6': [1290], 's_5_7': [1426], 's_7_2': [3127], 's_7_6': [1305], 's_2_6': [3097]}</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>{0: [753], 2: [827, 3484], 3: [3558, 768], 7: [3529], 8: [3543, 843], 1: [918], 5: [3514], 6: [782], 4: [797]}</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.002415458937198068</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.01620339114130282</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>{0: [753], 2: [827, 3484], 3: [3558, 768], 7: [3529], 8: [3543, 843], 1: [918], 5: [3514], 6: [782], 4: [797]}</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0.002415458937198068</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01620339114130282</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.914</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>{0: [360, 3256, 361], 2: [270, 3166], 's_0_2': [346], 3: [3060, 3061], 's_0_3': [375], 7: [3136, 226], 's_0_7': [3255], 8: [3121, 330], 's_0_8': [3031], 1: [240], 's_2_1': [3195], 's_2_3': [255], 5: [3045, 300], 's_2_5': [3076], 6: [285, 286], 's_2_6': [271], 's_2_7': [3180], 's_2_8': [376], 4: [3091, 315], 's_3_4': [420], 's_3_5': [165], 's_7_1': [3105], 's_7_4': [3090], 's_7_5': [225], 's_7_6': [3210], 's_7_8': [211], 's_8_4': [2971], 's_8_5': [3046], 's_8_6': [331, 3286], 's_1_5': [301, 3151], 's_5_4': [3015], 's_6_4': [3030]}</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0001564064064064064</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.002205274866368189</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{0: [360, 3256, 361], 2: [270, 3166], 's_0_2': [346], 3: [3060, 3061], 's_0_3': [375], 7: [3136, 226], 's_0_7': [3255], 8: [3121, 330], 's_0_8': [3031], 1: [240], 's_2_1': [3195], 's_2_3': [255], 5: [3045, 300], 's_2_5': [3076], 6: [285, 286], 's_2_6': [271], 's_2_7': [3180], 's_2_8': [376], 4: [3091, 315], 's_3_4': [420], 's_3_5': [165], 's_7_1': [3105], 's_7_4': [3090], 's_7_5': [225], 's_7_6': [3210], 's_7_8': [211], 's_8_4': [2971], 's_8_5': [3046], 's_8_6': [331, 3286], 's_1_5': [301, 3151], 's_5_4': [3015], 's_6_4': [3030]}</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0001564064064064064</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.002205274866368189</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>{0: [1954, 3805], 1: [2000, 3865], 2: [1924, 3850], 3: [3820], 4: [1939, 3759], 5: [1894], 6: [3835], 7: [1909], 9: [3790, 2059], 8: [3895, 1985]}</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.005194805194805195</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02219221752030527</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{0: [1954, 3805], 1: [2000, 3865], 2: [1924, 3850], 3: [3820], 4: [1939, 3759], 5: [1894], 6: [3835], 7: [1909], 9: [3790, 2059], 8: [3895, 1985]}</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0.005194805194805195</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.02219221752030527</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>{0: [2305, 4856], 1: [4886, 2425, 4887], 's_0_1': [4857], 2: [5037, 2260, 2261, 5036], 's_0_2': [2259, 4826], 3: [2290, 2291, 2381, 5052], 's_0_3': [4811], 4: [4962, 2275], 's_0_4': [4902], 5: [2365, 2410, 4872], 's_0_5': [4797], 6: [4871, 2245, 4977], 's_0_6': [2215], 7: [4931, 2320, 4932], 's_0_7': [2140], 9: [4946, 2335, 4947], 's_0_9': [2155], 's_1_2': [2426], 's_1_3': [5007], 's_1_4': [4963], 's_1_5': [2350], 's_1_6': [4978], 's_1_7': [4842], 8: [2396, 2351, 4917], 's_1_8': [2395], 's_2_3': [4991], 's_2_4': [5006], 's_2_5': [2411], 's_2_6': [2246], 's_2_7': [2171], 's_2_8': [5067], 's_2_9': [2186], 's_3_4': [2306], 's_3_5': [2380], 's_3_6': [4841, 2185], 's_3_7': [4782], 's_3_8': [2366], 's_3_9': [2336], 's_4_5': [2274, 4737], 's_4_6': [2216], 's_4_7': [2321], 's_4_9': [2201], 's_5_6': [2200, 4752], 's_5_8': [4948], 's_5_9': [4812], 's_6_7': [2125], 's_6_9': [2095], 's_7_8': [4933], 's_7_9': [4827]}</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0001428571428571428</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.001701482803844466</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>{0: [2305, 4856], 1: [4886, 2425, 4887], 's_0_1': [4857], 2: [5037, 2260, 2261, 5036], 's_0_2': [2259, 4826], 3: [2290, 2291, 2381, 5052], 's_0_3': [4811], 4: [4962, 2275], 's_0_4': [4902], 5: [2365, 2410, 4872], 's_0_5': [4797], 6: [4871, 2245, 4977], 's_0_6': [2215], 7: [4931, 2320, 4932], 's_0_7': [2140], 9: [4946, 2335, 4947], 's_0_9': [2155], 's_1_2': [2426], 's_1_3': [5007], 's_1_4': [4963], 's_1_5': [2350], 's_1_6': [4978], 's_1_7': [4842], 8: [2396, 2351, 4917], 's_1_8': [2395], 's_2_3': [4991], 's_2_4': [5006], 's_2_5': [2411], 's_2_6': [2246], 's_2_7': [2171], 's_2_8': [5067], 's_2_9': [2186], 's_3_4': [2306], 's_3_5': [2380], 's_3_6': [4841, 2185], 's_3_7': [4782], 's_3_8': [2366], 's_3_9': [2336], 's_4_5': [2274, 4737], 's_4_6': [2216], 's_4_7': [2321], 's_4_9': [2201], 's_5_6': [2200, 4752], 's_5_8': [4948], 's_5_9': [4812], 's_6_7': [2125], 's_6_9': [2095], 's_7_8': [4933], 's_7_9': [4827]}</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0001428571428571428</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.001701482803844466</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>{0: [2494, 3718], 1: [2584, 3838], 2: [2539, 2540], 3: [2434, 3823], 4: [3793], 5: [2479], 6: [3703, 2509], 7: [2464, 3853], 8: [2524, 2525], 9: [3808], 10: [2449, 3868]}</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.006628787878787879</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0236363332847513</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{0: [2494, 3718], 1: [2584, 3838], 2: [2539, 2540], 3: [2434, 3823], 4: [3793], 5: [2479], 6: [3703, 2509], 7: [2464, 3853], 8: [2524, 2525], 9: [3808], 10: [2449, 3868]}</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0.006628787878787879</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0236363332847513</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.834</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>{0: [337, 562, 4277, 4276], 1: [4126, 4382, 457, 456], 's_0_1': [4381], 2: [4156, 426], 's_0_2': [336], 3: [4067, 4127, 4202, 516], 's_0_3': [561], 4: [4173, 4172, 501], 's_0_4': [577], 5: [547, 397, 4232], 's_0_5': [4336], 6: [367, 621, 4262, 4261], 's_0_6': [4306], 7: [290, 291, 4186, 4187], 's_0_7': [4275], 8: [4247, 4248, 4142, 606], 's_0_8': [682], 9: [381, 471, 4111], 's_0_9': [382], 10: [4052, 532, 531, 4112], 's_0_10': [4292], 's_1_2': [427], 's_1_3': [455], 's_1_4': [486], 's_1_5': [548], 's_1_7': [4125], 's_1_8': [487], 's_1_9': [351], 's_1_10': [4352], 's_2_3': [425], 's_2_7': [306], 's_2_8': [441], 's_2_9': [4141], 's_3_4': [4217], 's_3_5': [546], 's_3_6': [636], 's_3_7': [4201], 's_3_8': [576], 's_3_9': [4066], 's_3_10': [4082], 's_4_5': [4171], 's_4_6': [502], 's_4_7': [4188], 's_4_8': [727], 's_4_9': [4096], 's_4_10': [666], 's_5_6': [4291], 's_5_7': [4231], 's_5_9': [396], 's_5_10': [517], 's_6_7': [4260], 's_6_8': [4218], 's_6_9': [366], 's_6_10': [4157], 's_7_8': [4246], 's_7_9': [4036], 's_7_10': [4051], 's_8_10': [651], 's_9_10': [470]}</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0002203389830508475</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.001919898374213658</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>{0: [337, 562, 4277, 4276], 1: [4126, 4382, 457, 456], 's_0_1': [4381], 2: [4156, 426], 's_0_2': [336], 3: [4067, 4127, 4202, 516], 's_0_3': [561], 4: [4173, 4172, 501], 's_0_4': [577], 5: [547, 397, 4232], 's_0_5': [4336], 6: [367, 621, 4262, 4261], 's_0_6': [4306], 7: [290, 291, 4186, 4187], 's_0_7': [4275], 8: [4247, 4248, 4142, 606], 's_0_8': [682], 9: [381, 471, 4111], 's_0_9': [382], 10: [4052, 532, 531, 4112], 's_0_10': [4292], 's_1_2': [427], 's_1_3': [455], 's_1_4': [486], 's_1_5': [548], 's_1_7': [4125], 's_1_8': [487], 's_1_9': [351], 's_1_10': [4352], 's_2_3': [425], 's_2_7': [306], 's_2_8': [441], 's_2_9': [4141], 's_3_4': [4217], 's_3_5': [546], 's_3_6': [636], 's_3_7': [4201], 's_3_8': [576], 's_3_9': [4066], 's_3_10': [4082], 's_4_5': [4171], 's_4_6': [502], 's_4_7': [4188], 's_4_8': [727], 's_4_9': [4096], 's_4_10': [666], 's_5_6': [4291], 's_5_7': [4231], 's_5_9': [396], 's_5_10': [517], 's_6_7': [4260], 's_6_8': [4218], 's_6_9': [366], 's_6_10': [4157], 's_7_8': [4246], 's_7_9': [4036], 's_7_10': [4051], 's_8_10': [651], 's_9_10': [470]}</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0002203389830508475</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.001919898374213658</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>{0: [2088], 1: [3640, 3641], 2: [2043, 3580], 5: [2118, 3671], 6: [2073], 7: [3745, 2014, 3655], 8: [1953, 3595], 9: [3701, 2179], 10: [2164, 2058, 3716], 11: [3611, 3610], 3: [2148, 3686], 4: [2133, 3656]}</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.01157407407407407</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.02881921203238133</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{0: [2088], 1: [3640, 3641], 2: [2043, 3580], 5: [2118, 3671], 6: [2073], 7: [3745, 2014, 3655], 8: [1953, 3595], 9: [3701, 2179], 10: [2164, 2058, 3716], 11: [3611, 3610], 3: [2148, 3686], 4: [2133, 3656]}</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0.01157407407407407</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.02881921203238133</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.388</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>{0: [1514, 5663, 1603, 1604], 1: [5498, 1634], 's_0_1': [5513], 2: [1738, 1739, 5722, 5723], 's_0_2': [5707], 5: [5649, 1709, 5572, 5573], 's_0_5': [5648], 6: [1663, 1664, 5556, 5557, 5558], 's_0_6': [5378], 7: [5467, 1649, 5468], 's_0_7': [5438], 8: [1559, 5587, 5588], 's_0_8': [5693], 9: [1754, 5603, 1859, 5604], 's_0_9': [5602], 10: [5409, 1619, 1618, 5408], 's_0_10': [5423], 11: [1694, 5632, 5634, 5633], 's_0_11': [5617], 3: [1768, 5527, 1769, 5528], 's_1_3': [1574], 4: [1784, 5544, 5543], 's_1_4': [5499], 's_1_6': [1484], 's_1_7': [1558], 's_1_8': [1409, 5497], 's_1_9': [1589], 's_1_10': [1633], 's_2_3': [5484], 's_2_5': [1544], 's_2_6': [5469], 's_2_8': [5589], 's_2_10': [1723], 's_2_11': [5679], 's_5_3': [1708], 's_5_4': [1799], 's_5_6': [1499], 's_5_7': [1454], 's_5_8': [1364, 5571], 's_5_9': [5574], 's_5_11': [5694], 's_6_3': [5334], 's_6_4': [5559], 's_6_7': [1319], 's_6_8': [1379], 's_6_9': [1724], 's_6_10': [1678], 's_6_11': [1394], 's_7_3': [1513], 's_7_4': [1528, 5542], 's_7_8': [1469], 's_7_10': [1573], 's_8_10': [5618], 's_8_11': [1424], 's_9_3': [1753], 's_9_4': [5514], 's_9_10': [1858], 's_10_3': [5363], 's_10_4': [1783], 's_10_11': [1693], 's_11_3': [5619], 's_11_4': [5635, 1949], 's_3_4': [5664]}</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0002698412698412698</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.002051921160394737</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>{0: [1514, 5663, 1603, 1604], 1: [5498, 1634], 's_0_1': [5513], 2: [1738, 1739, 5722, 5723], 's_0_2': [5707], 5: [5649, 1709, 5572, 5573], 's_0_5': [5648], 6: [1663, 1664, 5556, 5557, 5558], 's_0_6': [5378], 7: [5467, 1649, 5468], 's_0_7': [5438], 8: [1559, 5587, 5588], 's_0_8': [5693], 9: [1754, 5603, 1859, 5604], 's_0_9': [5602], 10: [5409, 1619, 1618, 5408], 's_0_10': [5423], 11: [1694, 5632, 5634, 5633], 's_0_11': [5617], 3: [1768, 5527, 1769, 5528], 's_1_3': [1574], 4: [1784, 5544, 5543], 's_1_4': [5499], 's_1_6': [1484], 's_1_7': [1558], 's_1_8': [1409, 5497], 's_1_9': [1589], 's_1_10': [1633], 's_2_3': [5484], 's_2_5': [1544], 's_2_6': [5469], 's_2_8': [5589], 's_2_10': [1723], 's_2_11': [5679], 's_5_3': [1708], 's_5_4': [1799], 's_5_6': [1499], 's_5_7': [1454], 's_5_8': [1364, 5571], 's_5_9': [5574], 's_5_11': [5694], 's_6_3': [5334], 's_6_4': [5559], 's_6_7': [1319], 's_6_8': [1379], 's_6_9': [1724], 's_6_10': [1678], 's_6_11': [1394], 's_7_3': [1513], 's_7_4': [1528, 5542], 's_7_8': [1469], 's_7_10': [1573], 's_8_10': [5618], 's_8_11': [1424], 's_9_3': [1753], 's_9_4': [5514], 's_9_10': [1858], 's_10_3': [5363], 's_10_4': [1783], 's_10_11': [1693], 's_11_3': [5619], 's_11_4': [5635, 1949], 's_3_4': [5664]}</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0002698412698412698</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.002051921160394737</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>{0: [3216, 1246], 2: [1171, 3261], 3: [1291, 3246], 4: [3171, 1216], 5: [3291], 6: [3230, 1306, 3231], 7: [3186, 1231], 8: [1336, 3276], 9: [1186, 3321], 10: [1261], 12: [1277, 1276], 11: [3306, 1201], 1: [3200, 3201]}</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0113960113960114</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.02926301792617398</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>{0: [3216, 1246], 2: [1171, 3261], 3: [1291, 3246], 4: [3171, 1216], 5: [3291], 6: [3230, 1306, 3231], 7: [3186, 1231], 8: [1336, 3276], 9: [1186, 3321], 10: [1261], 12: [1277, 1276], 11: [3306, 1201], 1: [3200, 3201]}</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0113960113960114</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.02926301792617398</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.789</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>{0: [667, 4442, 668], 2: [4502, 4501, 292, 4503, 293], 's_0_2': [4518], 3: [4517, 593, 4383, 743], 's_0_3': [4353], 4: [713, 413, 4427, 4428], 's_0_4': [607], 5: [458, 4441, 457], 's_0_5': [4291, 4292], 6: [367, 4487, 4486, 368], 's_0_6': [683], 7: [4531, 533, 4532], 's_0_7': [4533], 8: [518, 517, 4247], 's_0_8': [4248], 9: [4455, 4457, 4456], 's_0_9': [652], 10: [4578, 623], 's_0_10': [4593, 669], 12: [4397, 4472, 548], 's_0_12': [4398], 's_2_3': [473], 's_2_4': [4351], 's_2_5': [4440], 's_2_6': [4336], 's_2_7': [278], 's_2_8': [397, 4321], 's_2_9': [323], 's_2_10': [653], 11: [427, 488, 4412], 's_2_11': [398], 's_2_12': [4396], 1: [502, 4547, 503], 's_3_1': [4352], 's_3_4': [4443], 's_3_6': [4488], 's_3_7': [594], 's_3_9': [637], 's_3_10': [744], 's_3_11': [4413], 's_3_12': [4382], 's_4_1': [4548], 's_4_5': [472], 's_4_6': [4426], 's_4_7': [414], 's_4_8': [412], 's_4_9': [4458], 's_4_10': [4563], 's_5_7': [4562], 's_5_9': [353], 's_5_11': [4306], 's_5_12': [4471], 's_6_1': [4276], 's_6_7': [428], 's_6_8': [441, 4186], 's_6_9': [383], 's_6_11': [4411], 's_7_1': [4546], 's_7_9': [338], 's_7_10': [579], 's_7_11': [4577], 's_7_12': [532], 's_8_9': [562, 563], 's_8_11': [426], 's_8_12': [547], 's_9_11': [442], 's_9_12': [578], 's_10_1': [564, 4622], 's_10_12': [608], 's_12_1': [549], 's_12_11': [4367, 4366], 's_11_1': [487]}</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.000361111111111111</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.002210210592725845</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>{0: [667, 4442, 668], 2: [4502, 4501, 292, 4503, 293], 's_0_2': [4518], 3: [4517, 593, 4383, 743], 's_0_3': [4353], 4: [713, 413, 4427, 4428], 's_0_4': [607], 5: [458, 4441, 457], 's_0_5': [4291, 4292], 6: [367, 4487, 4486, 368], 's_0_6': [683], 7: [4531, 533, 4532], 's_0_7': [4533], 8: [518, 517, 4247], 's_0_8': [4248], 9: [4455, 4457, 4456], 's_0_9': [652], 10: [4578, 623], 's_0_10': [4593, 669], 12: [4397, 4472, 548], 's_0_12': [4398], 's_2_3': [473], 's_2_4': [4351], 's_2_5': [4440], 's_2_6': [4336], 's_2_7': [278], 's_2_8': [397, 4321], 's_2_9': [323], 's_2_10': [653], 11: [427, 488, 4412], 's_2_11': [398], 's_2_12': [4396], 1: [502, 4547, 503], 's_3_1': [4352], 's_3_4': [4443], 's_3_6': [4488], 's_3_7': [594], 's_3_9': [637], 's_3_10': [744], 's_3_11': [4413], 's_3_12': [4382], 's_4_1': [4548], 's_4_5': [472], 's_4_6': [4426], 's_4_7': [414], 's_4_8': [412], 's_4_9': [4458], 's_4_10': [4563], 's_5_7': [4562], 's_5_9': [353], 's_5_11': [4306], 's_5_12': [4471], 's_6_1': [4276], 's_6_7': [428], 's_6_8': [441, 4186], 's_6_9': [383], 's_6_11': [4411], 's_7_1': [4546], 's_7_9': [338], 's_7_10': [579], 's_7_11': [4577], 's_7_12': [532], 's_8_9': [562, 563], 's_8_11': [426], 's_8_12': [547], 's_9_11': [442], 's_9_12': [578], 's_10_1': [564, 4622], 's_10_12': [608], 's_12_1': [549], 's_12_11': [4367, 4366], 's_11_1': [487]}</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0.000361111111111111</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.002210210592725845</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>{0: [5461, 253], 2: [5550, 328, 329], 6: [5476, 268], 7: [224], 8: [164, 5535], 9: [134, 5506, 5505], 11: [239], 1: [5596, 5595], 3: [179, 5565], 4: [5430, 194], 5: [5445, 209], 12: [5520, 314], 13: [149, 5491, 5490], 10: [5581, 5580]}</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0284640171858217</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.04195236272704039</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>{0: [5461, 253], 2: [5550, 328, 329], 6: [5476, 268], 7: [224], 8: [164, 5535], 9: [134, 5506, 5505], 11: [239], 1: [5596, 5595], 3: [179, 5565], 4: [5430, 194], 5: [5445, 209], 12: [5520, 314], 13: [149, 5491, 5490], 10: [5581, 5580]}</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0284640171858217</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.04195236272704039</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.148</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>{0: [4065, 4067, 4066], 2: [3991, 3990, 245], 's_0_2': [4051], 6: [4020, 186, 306, 4080], 's_0_6': [80], 7: [3826, 3825, 216, 215], 's_0_7': [231], 8: [4141, 4140, 156, 155], 's_0_8': [4050], 9: [276, 395, 396, 4156], 's_0_9': [275], 11: [259, 260, 261, 4202, 4201], 's_0_11': [516], 1: [336, 334, 335], 's_2_1': [350], 3: [485, 320, 3930, 3931], 's_2_3': [3992], 4: [469, 470, 3946, 185, 3945], 's_2_4': [440], 5: [426, 3976, 424, 425], 's_2_5': [3975], 's_2_6': [110], 's_2_7': [3960], 's_2_8': [246], 's_2_11': [244], 12: [4005, 290, 4006], 's_2_12': [95], 's_6_7': [4155], 's_6_9': [4171], 's_6_11': [321], 's_6_12': [140], 13: [304, 3811, 201, 200, 3810], 's_6_13': [4110], 's_7_1': [349], 's_7_3': [3871], 's_7_4': [3827], 's_7_5': [439], 's_7_9': [410], 10: [3855, 366, 365, 3856], 's_7_10': [274], 's_7_11': [217], 's_7_12': [4095], 's_7_13': [380], 's_8_1': [351], 's_8_3': [3900], 's_8_4': [3885], 's_8_5': [441], 's_8_9': [291], 's_8_10': [154], 's_8_11': [4200], 's_8_12': [381], 's_8_13': [3915], 's_9_1': [3961], 's_9_3': [4037], 's_9_4': [3842], 's_9_5': [3887], 's_9_10': [4081], 's_9_11': [4275], 's_9_13': [4125], 's_11_1': [3841], 's_11_3': [486], 's_11_4': [471], 's_11_5': [4217], 's_11_10': [367], 's_11_13': [3765], 's_1_3': [3886], 's_1_4': [3751], 's_1_5': [4096], 's_1_10': [4111], 's_1_12': [4036], 's_1_13': [3781], 's_3_4': [455], 's_3_5': [3872], 's_3_10': [3901], 's_3_12': [4007], 's_3_13': [319], 's_4_5': [3916], 's_4_10': [3840], 's_4_12': [305], 's_4_13': [3870], 's_5_10': [3857], 's_5_13': [3796], 's_12_10': [4021], 's_12_13': [289], 's_13_10': [109]}</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0003058823529411765</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.001872178384426598</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>{0: [4065, 4067, 4066], 2: [3991, 3990, 245], 's_0_2': [4051], 6: [4020, 186, 306, 4080], 's_0_6': [80], 7: [3826, 3825, 216, 215], 's_0_7': [231], 8: [4141, 4140, 156, 155], 's_0_8': [4050], 9: [276, 395, 396, 4156], 's_0_9': [275], 11: [259, 260, 261, 4202, 4201], 's_0_11': [516], 1: [336, 334, 335], 's_2_1': [350], 3: [485, 320, 3930, 3931], 's_2_3': [3992], 4: [469, 470, 3946, 185, 3945], 's_2_4': [440], 5: [426, 3976, 424, 425], 's_2_5': [3975], 's_2_6': [110], 's_2_7': [3960], 's_2_8': [246], 's_2_11': [244], 12: [4005, 290, 4006], 's_2_12': [95], 's_6_7': [4155], 's_6_9': [4171], 's_6_11': [321], 's_6_12': [140], 13: [304, 3811, 201, 200, 3810], 's_6_13': [4110], 's_7_1': [349], 's_7_3': [3871], 's_7_4': [3827], 's_7_5': [439], 's_7_9': [410], 10: [3855, 366, 365, 3856], 's_7_10': [274], 's_7_11': [217], 's_7_12': [4095], 's_7_13': [380], 's_8_1': [351], 's_8_3': [3900], 's_8_4': [3885], 's_8_5': [441], 's_8_9': [291], 's_8_10': [154], 's_8_11': [4200], 's_8_12': [381], 's_8_13': [3915], 's_9_1': [3961], 's_9_3': [4037], 's_9_4': [3842], 's_9_5': [3887], 's_9_10': [4081], 's_9_11': [4275], 's_9_13': [4125], 's_11_1': [3841], 's_11_3': [486], 's_11_4': [471], 's_11_5': [4217], 's_11_10': [367], 's_11_13': [3765], 's_1_3': [3886], 's_1_4': [3751], 's_1_5': [4096], 's_1_10': [4111], 's_1_12': [4036], 's_1_13': [3781], 's_3_4': [455], 's_3_5': [3872], 's_3_10': [3901], 's_3_12': [4007], 's_3_13': [319], 's_4_5': [3916], 's_4_10': [3840], 's_4_12': [305], 's_4_13': [3870], 's_5_10': [3857], 's_5_13': [3796], 's_12_10': [4021], 's_12_13': [289], 's_13_10': [109]}</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0003058823529411765</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.001872178384426598</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>{0: [4248, 4188, 742], 1: [4368, 697], 2: [4308, 712], 3: [4234, 4233], 4: [4249], 7: [787, 786], 8: [757, 4204], 9: [4323], 10: [727, 4263], 11: [802, 801], 12: [4339, 682, 4338], 14: [4292, 4293], 5: [4219, 773, 772], 13: [862, 4278], 6: [4384, 847]}</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.02745098039215686</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.03728584885962263</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>{0: [4248, 4188, 742], 1: [4368, 697], 2: [4308, 712], 3: [4234, 4233], 4: [4249], 7: [787, 786], 8: [757, 4204], 9: [4323], 10: [727, 4263], 11: [802, 801], 12: [4339, 682, 4338], 14: [4292, 4293], 5: [4219, 773, 772], 13: [862, 4278], 6: [4384, 847]}</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0.02745098039215686</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.03728584885962263</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.551</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>{0: [5095, 1813, 1812, 5094], 1: [1947, 5215, 5214], 's_0_1': [1827], 2: [2023, 2022, 1722, 5244, 5245], 's_0_2': [1721], 3: [5065, 1782, 5064, 1781], 's_0_3': [1751], 4: [1797, 5019, 1796], 's_0_4': [1916], 7: [5379, 1828, 5291, 5290, 5289], 's_0_7': [5364], 8: [5348, 1707, 1992, 5125, 5124, 1706], 's_0_8': [5093], 9: [5425, 2007, 2008], 's_0_9': [5080], 10: [2081, 1932, 5170, 5169], 's_0_10': [5096], 11: [5199, 1843, 4960, 1842, 1841], 's_0_11': [5424], 12: [5050, 5110, 1902, 1900, 1901], 's_0_12': [5109], 14: [5274, 5276, 1993, 5275], 's_0_14': [5259], 's_1_2': [5213], 's_1_3': [5184], 5: [5020, 5140, 2096, 2142, 5141], 's_1_5': [5216], 's_1_7': [2097], 's_1_10': [2082], 's_1_11': [1872], 's_1_12': [1917], 13: [5410, 1856, 1857, 1858, 5409], 's_1_13': [1948], 's_1_14': [2127], 's_2_3': [5304], 's_2_5': [5306], 6: [1962, 1767, 5230, 5229], 's_2_6': [1737], 's_2_7': [5380], 's_2_8': [5243], 's_2_9': [5395], 's_2_10': [5111], 's_2_11': [1887], 's_2_13': [1723], 's_2_14': [2052], 's_3_4': [1826], 's_3_6': [5139], 's_3_7': [1783], 's_3_8': [5063], 's_3_10': [2066], 's_3_11': [4959], 's_3_12': [2051], 's_3_13': [5079], 's_4_5': [5034, 5035], 's_4_6': [5154], 's_4_7': [1798], 's_4_8': [1946], 's_4_11': [5049], 's_4_13': [5004], 's_7_5': [2157], 's_7_6': [2067], 's_7_8': [1663], 's_7_9': [1903], 's_7_10': [5305], 's_7_11': [5394], 's_7_14': [2173], 's_8_5': [5126], 's_8_9': [5200], 's_8_10': [5168], 's_8_11': [1976], 's_8_12': [1991], 's_8_13': [1753], 's_8_14': [5273], 's_9_5': [2143, 5426], 's_9_10': [5185], 's_9_12': [2006], 's_10_5': [5156], 's_10_6': [1977], 's_10_11': [1931], 's_10_12': [5051], 's_10_13': [1933], 's_10_14': [5260], 's_11_5': [4961, 2187, 2186], 's_11_6': [5198], 's_11_12': [4975], 's_11_13': [4899], 's_11_14': [5320], 's_12_5': [2021], 's_12_6': [1961], 's_12_13': [4945], 's_12_14': [5335], 's_14_5': [2112], 's_14_6': [1752], 's_14_13': [2038], 's_5_6': [5231], 's_5_13': [5155], 's_13_6': [1768]}</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0002783505154639176</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.001670961978462693</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>{0: [5095, 1813, 1812, 5094], 1: [1947, 5215, 5214], 's_0_1': [1827], 2: [2023, 2022, 1722, 5244, 5245], 's_0_2': [1721], 3: [5065, 1782, 5064, 1781], 's_0_3': [1751], 4: [1797, 5019, 1796], 's_0_4': [1916], 7: [5379, 1828, 5291, 5290, 5289], 's_0_7': [5364], 8: [5348, 1707, 1992, 5125, 5124, 1706], 's_0_8': [5093], 9: [5425, 2007, 2008], 's_0_9': [5080], 10: [2081, 1932, 5170, 5169], 's_0_10': [5096], 11: [5199, 1843, 4960, 1842, 1841], 's_0_11': [5424], 12: [5050, 5110, 1902, 1900, 1901], 's_0_12': [5109], 14: [5274, 5276, 1993, 5275], 's_0_14': [5259], 's_1_2': [5213], 's_1_3': [5184], 5: [5020, 5140, 2096, 2142, 5141], 's_1_5': [5216], 's_1_7': [2097], 's_1_10': [2082], 's_1_11': [1872], 's_1_12': [1917], 13: [5410, 1856, 1857, 1858, 5409], 's_1_13': [1948], 's_1_14': [2127], 's_2_3': [5304], 's_2_5': [5306], 6: [1962, 1767, 5230, 5229], 's_2_6': [1737], 's_2_7': [5380], 's_2_8': [5243], 's_2_9': [5395], 's_2_10': [5111], 's_2_11': [1887], 's_2_13': [1723], 's_2_14': [2052], 's_3_4': [1826], 's_3_6': [5139], 's_3_7': [1783], 's_3_8': [5063], 's_3_10': [2066], 's_3_11': [4959], 's_3_12': [2051], 's_3_13': [5079], 's_4_5': [5034, 5035], 's_4_6': [5154], 's_4_7': [1798], 's_4_8': [1946], 's_4_11': [5049], 's_4_13': [5004], 's_7_5': [2157], 's_7_6': [2067], 's_7_8': [1663], 's_7_9': [1903], 's_7_10': [5305], 's_7_11': [5394], 's_7_14': [2173], 's_8_5': [5126], 's_8_9': [5200], 's_8_10': [5168], 's_8_11': [1976], 's_8_12': [1991], 's_8_13': [1753], 's_8_14': [5273], 's_9_5': [2143, 5426], 's_9_10': [5185], 's_9_12': [2006], 's_10_5': [5156], 's_10_6': [1977], 's_10_11': [1931], 's_10_12': [5051], 's_10_13': [1933], 's_10_14': [5260], 's_11_5': [4961, 2187, 2186], 's_11_6': [5198], 's_11_12': [4975], 's_11_13': [4899], 's_11_14': [5320], 's_12_5': [2021], 's_12_6': [1961], 's_12_13': [4945], 's_12_14': [5335], 's_14_5': [2112], 's_14_6': [1752], 's_14_13': [2038], 's_5_6': [5231], 's_5_13': [5155], 's_13_6': [1768]}</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0002783505154639176</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.001670961978462693</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>{0: [419, 5581], 1: [314, 5626], 2: [284, 5701, 5700], 4: [5612, 329, 5611], 7: [5551, 359], 9: [5686, 434, 5687], 12: [5717, 449, 5715, 5716], 13: [5565, 5566], 14: [5597, 5596], 15: [299, 5641], 3: [509, 5627, 614, 5702], 5: [5521, 5520, 254, 253], 6: [5657, 344, 5656], 11: [5550, 269], 8: [5671, 479, 5672], 10: [5642, 464]}</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.06903765690376569</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.06397129851613489</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>{0: [419, 5581], 1: [314, 5626], 2: [284, 5701, 5700], 4: [5612, 329, 5611], 7: [5551, 359], 9: [5686, 434, 5687], 12: [5717, 449, 5715, 5716], 13: [5565, 5566], 14: [5597, 5596], 15: [299, 5641], 3: [509, 5627, 614, 5702], 5: [5521, 5520, 254, 253], 6: [5657, 344, 5656], 11: [5550, 269], 8: [5671, 479, 5672], 10: [5642, 464]}</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0.06903765690376569</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.06397129851613489</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.681</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>{0: [915, 1036, 1035, 3004], 1: [2945, 3291, 3290, 1080, 1081, 1082], 's_0_1': [2944], 2: [1290, 975, 3051, 3049, 3050], 's_0_2': [900], 4: [1095, 3244, 3245, 1097, 1096], 's_0_4': [2990], 7: [3231, 3230, 946, 931, 3229], 's_0_7': [930], 9: [961, 886, 3215, 3214], 's_0_9': [3199], 12: [751, 3154, 1261, 3156, 3155], 's_0_12': [3003, 750, 3018], 13: [3124, 1171, 3125, 1170, 3126], 's_0_13': [1020], 14: [1022, 1021, 1291, 3260, 3261], 's_0_14': [1037], 15: [765, 3171, 766, 3170, 3169], 's_0_15': [2959], 's_1_2': [945], 3: [1005, 1006, 3378, 3379], 's_1_3': [3110], 's_1_4': [2915], 5: [1111, 3095, 856, 855, 3094], 's_1_5': [3289], 6: [3322, 3080, 1140, 1141, 3321], 's_1_6': [1127], 's_1_7': [1336], 's_1_9': [1201], 11: [1050, 3139, 960, 3140], 's_1_11': [3065], 's_1_12': [1216], 's_1_13': [3276], 's_1_14': [1292], 's_1_15': [1231], 's_2_3': [3034], 's_2_4': [3035], 's_2_5': [885], 's_2_6': [1110], 8: [1067, 2976, 2975, 1066, 1065], 's_2_8': [1215, 2991], 10: [736, 3185, 3184, 3183], 's_2_10': [1185], 's_2_11': [3064], 's_2_12': [1260], 's_2_13': [1230], 's_2_14': [1350, 3172], 's_2_15': [3048], 's_4_3': [811], 's_4_5': [3259], 's_4_6': [3200], 's_4_7': [901], 's_4_8': [3365], 's_4_9': [3335], 's_4_11': [3020], 's_4_12': [3246], 's_4_13': [1126], 's_4_14': [3425], 's_4_15': [3243], 's_7_3': [932], 's_7_6': [1396], 's_7_8': [1051], 's_7_9': [991], 's_7_10': [3228], 's_7_11': [3109], 's_7_12': [1246], 's_7_13': [1276], 's_7_14': [1321], 's_7_15': [871], 's_9_5': [3319], 's_9_6': [3320], 's_9_8': [3305], 's_9_10': [916], 's_9_12': [3216], 's_9_13': [1186], 's_9_14': [3364], 's_9_15': [3213], 's_12_3': [752], 's_12_5': [3198], 's_12_6': [1262], 's_12_10': [841], 's_12_11': [825], 's_12_13': [3111], 's_12_14': [3096], 's_12_15': [3108], 's_13_5': [810], 's_13_6': [3081], 's_13_8': [1245], 's_13_10': [3123], 's_13_11': [870], 's_13_15': [780], 's_14_3': [3350], 's_14_6': [3262, 1411], 's_14_8': [3485], 's_14_10': [3186], 's_15_5': [3093], 's_15_6': [1155], 's_15_10': [3168], 's_15_11': [795], 's_3_5': [857], 's_3_10': [721, 722], 's_5_6': [1112], 's_5_8': [2974], 's_5_11': [840], 's_6_8': [1125], 's_6_10': [990], 's_6_11': [3079], 's_11_8': [3005]}</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0002592592592592593</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.001527525231651947</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>{0: [915, 1036, 1035, 3004], 1: [2945, 3291, 3290, 1080, 1081, 1082], 's_0_1': [2944], 2: [1290, 975, 3051, 3049, 3050], 's_0_2': [900], 4: [1095, 3244, 3245, 1097, 1096], 's_0_4': [2990], 7: [3231, 3230, 946, 931, 3229], 's_0_7': [930], 9: [961, 886, 3215, 3214], 's_0_9': [3199], 12: [751, 3154, 1261, 3156, 3155], 's_0_12': [3003, 750, 3018], 13: [3124, 1171, 3125, 1170, 3126], 's_0_13': [1020], 14: [1022, 1021, 1291, 3260, 3261], 's_0_14': [1037], 15: [765, 3171, 766, 3170, 3169], 's_0_15': [2959], 's_1_2': [945], 3: [1005, 1006, 3378, 3379], 's_1_3': [3110], 's_1_4': [2915], 5: [1111, 3095, 856, 855, 3094], 's_1_5': [3289], 6: [3322, 3080, 1140, 1141, 3321], 's_1_6': [1127], 's_1_7': [1336], 's_1_9': [1201], 11: [1050, 3139, 960, 3140], 's_1_11': [3065], 's_1_12': [1216], 's_1_13': [3276], 's_1_14': [1292], 's_1_15': [1231], 's_2_3': [3034], 's_2_4': [3035], 's_2_5': [885], 's_2_6': [1110], 8: [1067, 2976, 2975, 1066, 1065], 's_2_8': [1215, 2991], 10: [736, 3185, 3184, 3183], 's_2_10': [1185], 's_2_11': [3064], 's_2_12': [1260], 's_2_13': [1230], 's_2_14': [1350, 3172], 's_2_15': [3048], 's_4_3': [811], 's_4_5': [3259], 's_4_6': [3200], 's_4_7': [901], 's_4_8': [3365], 's_4_9': [3335], 's_4_11': [3020], 's_4_12': [3246], 's_4_13': [1126], 's_4_14': [3425], 's_4_15': [3243], 's_7_3': [932], 's_7_6': [1396], 's_7_8': [1051], 's_7_9': [991], 's_7_10': [3228], 's_7_11': [3109], 's_7_12': [1246], 's_7_13': [1276], 's_7_14': [1321], 's_7_15': [871], 's_9_5': [3319], 's_9_6': [3320], 's_9_8': [3305], 's_9_10': [916], 's_9_12': [3216], 's_9_13': [1186], 's_9_14': [3364], 's_9_15': [3213], 's_12_3': [752], 's_12_5': [3198], 's_12_6': [1262], 's_12_10': [841], 's_12_11': [825], 's_12_13': [3111], 's_12_14': [3096], 's_12_15': [3108], 's_13_5': [810], 's_13_6': [3081], 's_13_8': [1245], 's_13_10': [3123], 's_13_11': [870], 's_13_15': [780], 's_14_3': [3350], 's_14_6': [3262, 1411], 's_14_8': [3485], 's_14_10': [3186], 's_15_5': [3093], 's_15_6': [1155], 's_15_10': [3168], 's_15_11': [795], 's_3_5': [857], 's_3_10': [721, 722], 's_5_6': [1112], 's_5_8': [2974], 's_5_11': [840], 's_6_8': [1125], 's_6_10': [990], 's_6_11': [3079], 's_11_8': [3005]}</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0002592592592592593</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.001527525231651947</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>{0: [3573, 693], 1: [3708, 3709, 813], 3: [648, 3603], 4: [3558, 708, 709], 6: [633, 3618], 7: [3723, 783], 11: [3783, 738, 739], 12: [724, 723], 13: [3649, 3648, 663], 16: [768, 769], 2: [3587, 3588], 8: [753, 754], 10: [828, 3678, 3679], 14: [798, 3738], 15: [3663, 3664], 5: [3528, 678, 3633], 9: [3529, 858]}</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0120223271790468</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.02476233723537349</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>{0: [3573, 693], 1: [3708, 3709, 813], 3: [648, 3603], 4: [3558, 708, 709], 6: [633, 3618], 7: [3723, 783], 11: [3783, 738, 739], 12: [724, 723], 13: [3649, 3648, 663], 16: [768, 769], 2: [3587, 3588], 8: [753, 754], 10: [828, 3678, 3679], 14: [798, 3738], 15: [3663, 3664], 5: [3528, 678, 3633], 9: [3529, 858]}</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0.0120223271790468</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.02476233723537349</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.537</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>{0: [3301, 212, 211, 3121, 3122], 1: [556, 451, 3317, 558, 557], 's_0_1': [450], 3: [3195, 586, 3196, 3031, 3107, 465], 's_0_3': [525], 4: [376, 3240, 286, 3241], 's_0_4': [226], 6: [630, 3362, 346, 631, 347, 3361], 's_0_6': [3123], 7: [3061, 483, 482, 435, 436, 3332], 's_0_7': [3302], 11: [3420, 3422, 361, 362, 3421], 's_0_11': [3435], 12: [406, 3527, 408, 407], 's_0_12': [3137], 13: [3482, 331, 3481, 3345, 3346, 332], 's_0_13': [213], 16: [182, 181, 3211, 3210], 's_0_16': [3300], 2: [3255, 3256, 617, 616, 3257], 's_1_2': [3542], 's_1_3': [3182], 's_1_6': [3316], 's_1_7': [3602], 8: [541, 3165, 3166, 3167], 's_1_8': [3197], 10: [3287, 497, 496, 3180, 3181], 's_1_10': [3152], 's_1_11': [3226], 's_1_12': [543], 14: [600, 601, 528, 527, 3377], 's_1_14': [3587], 15: [3555, 3556, 3242, 466, 467], 's_1_15': [3557], 's_1_16': [481], 's_3_2': [615], 's_3_4': [375], 5: [301, 302, 3407, 3406, 3405], 's_3_5': [316], 's_3_6': [3138], 's_3_7': [3062], 's_3_8': [285], 's_3_10': [495], 's_3_11': [360], 's_3_12': [405], 's_3_13': [330], 's_3_14': [3046, 3047], 's_3_15': [571], 's_4_2': [136], 's_4_5': [3375], 's_4_6': [3331], 's_4_7': [391, 390], 's_4_8': [121], 9: [165, 167, 166], 's_4_9': [3360], 's_4_10': [196], 's_4_11': [3136], 's_4_12': [3271], 's_4_13': [256], 's_4_15': [287], 's_6_2': [3348], 's_6_5': [677], 's_6_7': [345], 's_6_8': [3227], 's_6_10': [3288], 's_6_11': [587], 's_6_13': [3496], 's_6_14': [3153], 's_6_15': [348], 's_7_2': [3467], 's_7_5': [392], 's_7_8': [420], 's_7_10': [3286], 's_7_11': [542], 's_7_12': [3512], 's_7_13': [3347], 's_7_14': [3617], 's_7_15': [3541], 's_7_16': [421], 's_11_2': [602], 's_11_5': [377], 's_11_8': [3151], 's_11_12': [422], 's_11_13': [227], 's_11_14': [572], 's_11_15': [363], 's_11_16': [197], 's_12_2': [3528], 's_12_5': [452], 's_12_10': [498], 's_12_13': [393], 's_12_14': [513], 's_13_2': [91], 's_13_5': [317], 's_13_9': [152], 's_13_14': [3497], 's_13_16': [3330], 's_16_2': [271], 's_16_5': [3225], 's_16_8': [3212], 's_16_9': [3270], 's_16_15': [183], 's_2_9': [151], 's_2_10': [3272], 's_2_14': [3333], 's_8_5': [512, 511], 's_8_9': [3150], 's_8_10': [240], 's_8_15': [526], 's_10_5': [3391], 's_10_9': [255, 3090], 's_10_14': [3452], 's_10_15': [3376], 's_14_5': [662], 's_14_15': [3437], 's_15_5': [242], 's_5_9': [3390]}</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.000264957264957265</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.001481347243534789</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>{0: [3301, 212, 211, 3121, 3122], 1: [556, 451, 3317, 558, 557], 's_0_1': [450], 3: [3195, 586, 3196, 3031, 3107, 465], 's_0_3': [525], 4: [376, 3240, 286, 3241], 's_0_4': [226], 6: [630, 3362, 346, 631, 347, 3361], 's_0_6': [3123], 7: [3061, 483, 482, 435, 436, 3332], 's_0_7': [3302], 11: [3420, 3422, 361, 362, 3421], 's_0_11': [3435], 12: [406, 3527, 408, 407], 's_0_12': [3137], 13: [3482, 331, 3481, 3345, 3346, 332], 's_0_13': [213], 16: [182, 181, 3211, 3210], 's_0_16': [3300], 2: [3255, 3256, 617, 616, 3257], 's_1_2': [3542], 's_1_3': [3182], 's_1_6': [3316], 's_1_7': [3602], 8: [541, 3165, 3166, 3167], 's_1_8': [3197], 10: [3287, 497, 496, 3180, 3181], 's_1_10': [3152], 's_1_11': [3226], 's_1_12': [543], 14: [600, 601, 528, 527, 3377], 's_1_14': [3587], 15: [3555, 3556, 3242, 466, 467], 's_1_15': [3557], 's_1_16': [481], 's_3_2': [615], 's_3_4': [375], 5: [301, 302, 3407, 3406, 3405], 's_3_5': [316], 's_3_6': [3138], 's_3_7': [3062], 's_3_8': [285], 's_3_10': [495], 's_3_11': [360], 's_3_12': [405], 's_3_13': [330], 's_3_14': [3046, 3047], 's_3_15': [571], 's_4_2': [136], 's_4_5': [3375], 's_4_6': [3331], 's_4_7': [391, 390], 's_4_8': [121], 9: [165, 167, 166], 's_4_9': [3360], 's_4_10': [196], 's_4_11': [3136], 's_4_12': [3271], 's_4_13': [256], 's_4_15': [287], 's_6_2': [3348], 's_6_5': [677], 's_6_7': [345], 's_6_8': [3227], 's_6_10': [3288], 's_6_11': [587], 's_6_13': [3496], 's_6_14': [3153], 's_6_15': [348], 's_7_2': [3467], 's_7_5': [392], 's_7_8': [420], 's_7_10': [3286], 's_7_11': [542], 's_7_12': [3512], 's_7_13': [3347], 's_7_14': [3617], 's_7_15': [3541], 's_7_16': [421], 's_11_2': [602], 's_11_5': [377], 's_11_8': [3151], 's_11_12': [422], 's_11_13': [227], 's_11_14': [572], 's_11_15': [363], 's_11_16': [197], 's_12_2': [3528], 's_12_5': [452], 's_12_10': [498], 's_12_13': [393], 's_12_14': [513], 's_13_2': [91], 's_13_5': [317], 's_13_9': [152], 's_13_14': [3497], 's_13_16': [3330], 's_16_2': [271], 's_16_5': [3225], 's_16_8': [3212], 's_16_9': [3270], 's_16_15': [183], 's_2_9': [151], 's_2_10': [3272], 's_2_14': [3333], 's_8_5': [512, 511], 's_8_9': [3150], 's_8_10': [240], 's_8_15': [526], 's_10_5': [3391], 's_10_9': [255, 3090], 's_10_14': [3452], 's_10_15': [3376], 's_14_5': [662], 's_14_15': [3437], 's_15_5': [242], 's_5_9': [3390]}</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0.000264957264957265</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.001481347243534789</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>{0: [5340, 194, 193], 1: [314, 5355, 313], 2: [239, 238], 3: [208, 209], 4: [5595, 133, 134], 5: [374, 5431, 5430], 6: [179, 178], 8: [5385, 164, 163], 9: [5506, 5505, 118], 11: [253, 5520], 12: [223, 224], 13: [148, 5401, 5400], 14: [5445], 15: [5535, 268], 16: [5370, 328], 17: [5475, 5476], 7: [5416, 103, 5415], 10: [5460, 5461]}</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.03147353361945637</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.03513997792454084</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>{0: [5340, 194, 193], 1: [314, 5355, 313], 2: [239, 238], 3: [208, 209], 4: [5595, 133, 134], 5: [374, 5431, 5430], 6: [179, 178], 8: [5385, 164, 163], 9: [5506, 5505, 118], 11: [253, 5520], 12: [223, 224], 13: [148, 5401, 5400], 14: [5445], 15: [5535, 268], 16: [5370, 328], 17: [5475, 5476], 7: [5416, 103, 5415], 10: [5460, 5461]}</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0.03147353361945637</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.03513997792454084</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.486</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>{0: [4517, 4728, 684, 683, 4519, 4518], 1: [4742, 910, 668, 669, 4744, 4743], 's_0_1': [4563], 2: [4819, 4818, 729, 4533, 731, 730], 's_0_2': [713], 3: [549, 4652, 4368, 743, 4653, 744], 's_0_3': [728], 4: [564, 4666, 4667, 835, 834, 4668], 's_0_4': [563], 5: [880, 4864, 4863, 533, 534, 535, 4862], 's_0_5': [503, 4412], 6: [565, 4758, 519, 4759, 4757], 's_0_6': [518], 8: [4712, 848, 4713, 849, 4714], 's_0_8': [654], 9: [5012, 5013, 759, 760, 761], 's_0_9': [758], 11: [4908, 4593, 714, 715], 's_0_11': [653], 12: [938, 745, 939, 4803, 4804, 940], 's_0_12': [953], 13: [4700, 4698, 954, 865, 864, 4699], 's_0_13': [863], 14: [4832, 4833, 4579, 774, 775], 's_0_14': [803], 15: [4398, 596, 4773, 595, 593, 594], 's_0_15': [578], 16: [4623, 4622, 607, 608], 's_0_16': [4487], 17: [4682, 4683, 984, 4684, 878, 879], 's_0_17': [893], 's_1_3': [667], 's_1_5': [4472], 's_1_6': [400], 7: [4848, 700, 699, 698, 4458], 's_1_7': [4503], 's_1_8': [459], 's_1_9': [4969, 911], 's_1_11': [4608], 's_1_12': [4745], 's_1_13': [4879], 's_1_16': [4428], 's_1_17': [909], 's_2_4': [4998], 's_2_5': [4817], 's_2_8': [4534], 's_2_9': [5028], 10: [819, 818, 817, 4774, 4293], 's_2_10': [4775, 1045], 's_2_11': [4788], 's_2_12': [1030], 's_2_13': [1014], 's_2_14': [850], 's_2_15': [4968], 's_2_16': [638], 's_2_17': [969], 's_3_4': [4651], 's_3_5': [4562], 's_3_8': [4488], 's_3_9': [4548], 's_3_10': [802], 's_3_11': [4592], 's_3_13': [4697], 's_3_14': [4578], 's_3_15': [4442, 637], 's_3_16': [579], 's_3_17': [4654], 's_4_5': [4532], 's_4_6': [624], 's_4_7': [820], 's_4_8': [489], 's_4_9': [4954], 's_4_10': [4729], 's_4_13': [4939], 's_4_14': [833], 's_4_17': [4669], 's_5_7': [790], 's_5_9': [536], 's_5_10': [895], 's_5_11': [655], 's_5_12': [4834], 's_5_13': [955], 's_5_14': [625], 's_5_15': [4877], 's_5_16': [4547], 's_5_17': [985], 's_6_8': [504], 's_6_9': [566], 's_6_10': [804], 's_6_13': [894], 's_6_14': [4847], 's_6_15': [4772], 's_6_16': [609], 's_6_17': [4760], 's_8_7': [4473], 's_8_9': [4609], 's_8_10': [847], 's_8_12': [925], 's_8_13': [4549], 's_8_14': [580], 's_8_15': [4727], 's_8_17': [4429], 's_9_7': [701], 's_9_10': [4789], 's_9_11': [716], 's_9_12': [746], 's_9_13': [866], 's_9_15': [581], 's_9_17': [4564], 's_11_7': [4938], 's_11_12': [4878], 's_11_13': [4909], 's_11_14': [776], 's_11_15': [4907], 's_11_16': [623], 's_11_17': [4594], 's_12_7': [4849], 's_12_10': [4354], 's_12_13': [4595], 's_12_14': [4580], 's_12_15': [4802], 's_12_17': [4444], 's_13_14': [924], 's_13_16': [4624, 4639], 's_13_17': [4685], 's_14_7': [805], 's_14_15': [670], 's_15_7': [832, 4399], 's_15_10': [697], 's_15_16': [4367], 's_16_7': [4413], 's_16_10': [4292], 's_17_7': [4459], 's_17_10': [4504], 's_7_10': [773, 772]}</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0005185185185185185</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.00197515431495902</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>{0: [4517, 4728, 684, 683, 4519, 4518], 1: [4742, 910, 668, 669, 4744, 4743], 's_0_1': [4563], 2: [4819, 4818, 729, 4533, 731, 730], 's_0_2': [713], 3: [549, 4652, 4368, 743, 4653, 744], 's_0_3': [728], 4: [564, 4666, 4667, 835, 834, 4668], 's_0_4': [563], 5: [880, 4864, 4863, 533, 534, 535, 4862], 's_0_5': [503, 4412], 6: [565, 4758, 519, 4759, 4757], 's_0_6': [518], 8: [4712, 848, 4713, 849, 4714], 's_0_8': [654], 9: [5012, 5013, 759, 760, 761], 's_0_9': [758], 11: [4908, 4593, 714, 715], 's_0_11': [653], 12: [938, 745, 939, 4803, 4804, 940], 's_0_12': [953], 13: [4700, 4698, 954, 865, 864, 4699], 's_0_13': [863], 14: [4832, 4833, 4579, 774, 775], 's_0_14': [803], 15: [4398, 596, 4773, 595, 593, 594], 's_0_15': [578], 16: [4623, 4622, 607, 608], 's_0_16': [4487], 17: [4682, 4683, 984, 4684, 878, 879], 's_0_17': [893], 's_1_3': [667], 's_1_5': [4472], 's_1_6': [400], 7: [4848, 700, 699, 698, 4458], 's_1_7': [4503], 's_1_8': [459], 's_1_9': [4969, 911], 's_1_11': [4608], 's_1_12': [4745], 's_1_13': [4879], 's_1_16': [4428], 's_1_17': [909], 's_2_4': [4998], 's_2_5': [4817], 's_2_8': [4534], 's_2_9': [5028], 10: [819, 818, 817, 4774, 4293], 's_2_10': [4775, 1045], 's_2_11': [4788], 's_2_12': [1030], 's_2_13': [1014], 's_2_14': [850], 's_2_15': [4968], 's_2_16': [638], 's_2_17': [969], 's_3_4': [4651], 's_3_5': [4562], 's_3_8': [4488], 's_3_9': [4548], 's_3_10': [802], 's_3_11': [4592], 's_3_13': [4697], 's_3_14': [4578], 's_3_15': [4442, 637], 's_3_16': [579], 's_3_17': [4654], 's_4_5': [4532], 's_4_6': [624], 's_4_7': [820], 's_4_8': [489], 's_4_9': [4954], 's_4_10': [4729], 's_4_13': [4939], 's_4_14': [833], 's_4_17': [4669], 's_5_7': [790], 's_5_9': [536], 's_5_10': [895], 's_5_11': [655], 's_5_12': [4834], 's_5_13': [955], 's_5_14': [625], 's_5_15': [4877], 's_5_16': [4547], 's_5_17': [985], 's_6_8': [504], 's_6_9': [566], 's_6_10': [804], 's_6_13': [894], 's_6_14': [4847], 's_6_15': [4772], 's_6_16': [609], 's_6_17': [4760], 's_8_7': [4473], 's_8_9': [4609], 's_8_10': [847], 's_8_12': [925], 's_8_13': [4549], 's_8_14': [580], 's_8_15': [4727], 's_8_17': [4429], 's_9_7': [701], 's_9_10': [4789], 's_9_11': [716], 's_9_12': [746], 's_9_13': [866], 's_9_15': [581], 's_9_17': [4564], 's_11_7': [4938], 's_11_12': [4878], 's_11_13': [4909], 's_11_14': [776], 's_11_15': [4907], 's_11_16': [623], 's_11_17': [4594], 's_12_7': [4849], 's_12_10': [4354], 's_12_13': [4595], 's_12_14': [4580], 's_12_15': [4802], 's_12_17': [4444], 's_13_14': [924], 's_13_16': [4624, 4639], 's_13_17': [4685], 's_14_7': [805], 's_14_15': [670], 's_15_7': [832, 4399], 's_15_10': [697], 's_15_16': [4367], 's_16_7': [4413], 's_16_10': [4292], 's_17_7': [4459], 's_17_10': [4504], 's_7_10': [773, 772]}</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0005185185185185185</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.00197515431495902</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>{0: [2552, 3568, 2553], 1: [2492, 3479, 3478], 2: [2507, 3494, 3493], 3: [2626, 2627], 4: [3449, 2658, 2657], 5: [3373, 3374, 2687], 6: [3403, 2747, 3404], 8: [2611, 2612], 10: [3509, 2597], 11: [2762, 3463, 3464], 12: [3343, 3344], 17: [3314, 2582, 2581], 7: [3389, 3388], 9: [3419, 2522, 3418], 13: [3359, 2642], 15: [2702, 2703, 3524], 16: [2462, 3434, 3433], 18: [2718, 2717, 3329], 14: [3583, 2567, 2568]}</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.04095344744840825</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.04232887666021665</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>{0: [2552, 3568, 2553], 1: [2492, 3479, 3478], 2: [2507, 3494, 3493], 3: [2626, 2627], 4: [3449, 2658, 2657], 5: [3373, 3374, 2687], 6: [3403, 2747, 3404], 8: [2611, 2612], 10: [3509, 2597], 11: [2762, 3463, 3464], 12: [3343, 3344], 17: [3314, 2582, 2581], 7: [3389, 3388], 9: [3419, 2522, 3418], 13: [3359, 2642], 15: [2702, 2703, 3524], 16: [2462, 3434, 3433], 18: [2718, 2717, 3329], 14: [3583, 2567, 2568]}</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0.04095344744840825</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.04232887666021665</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>{0: [2422, 2421, 4151, 4152], 1: [4256, 2123, 4377, 4376, 2121, 2122], 's_0_1': [2076], 2: [4301, 2347, 2438, 2437, 2542, 4303, 4302], 's_0_2': [2346], 3: [4332, 2018, 2017, 4211, 2287, 2286, 4212], 's_0_3': [4167], 4: [2288, 4421, 2257, 4423, 4422], 's_0_4': [2256], 5: [4181, 4438, 4437, 2226, 2227], 's_0_5': [2091], 6: [2317, 2587, 2316, 2318, 2586, 4468, 4467], 's_0_6': [2331], 8: [4571, 4572, 2407, 2408, 4573], 's_0_8': [2423], 10: [2167, 2168, 4453, 4452, 4451], 's_0_10': [2166], 11: [2468, 4273, 2152, 4271, 2467, 4272], 's_0_11': [2151], 12: [2062, 2212, 1987, 4347, 4346, 4345], 's_0_12': [2211], 17: [2451, 2512, 4259, 4257, 4258], 's_0_17': [2271], 's_1_3': [4495], 's_1_4': [2108], 7: [2482, 2498, 2497, 2303, 2302, 4392, 4393], 's_1_7': [2348], 9: [2240, 2198, 4408, 4407, 4409, 2241, 2242], 's_1_9': [3971, 2120], 's_1_10': [4511], 's_1_11': [4241], 's_1_12': [4465], 13: [2048, 4630, 2272, 2273, 4631], 's_1_13': [2124], 15: [4360, 4497, 2393, 4362, 2106, 2107, 4361], 's_1_15': [4090], 16: [2362, 4315, 4316, 4318, 4317], 's_1_16': [4300], 's_1_17': [4378], 18: [4120, 4123, 4122, 4121, 2481, 2181, 2182], 's_1_18': [2046], 's_2_3': [2392], 's_2_4': [2543], 's_2_5': [4182], 's_2_7': [4558], 's_2_8': [4603], 's_2_9': [2632], 's_2_10': [2602], 's_2_11': [2662], 's_2_12': [4348], 's_2_13': [4617, 4618], 14: [4228, 2377, 4527, 2378], 's_2_14': [4287], 's_2_15': [2453], 's_2_16': [2137], 's_2_17': [4363], 's_2_18': [4183], 's_3_4': [2033], 's_3_5': [4136], 's_3_6': [4062], 's_3_7': [2301], 's_3_8': [2019], 's_3_9': [4331], 's_3_10': [4436], 's_3_11': [4333], 's_3_12': [2061], 's_3_15': [4375], 's_3_16': [2032], 's_3_18': [4106], 's_4_5': [4466], 's_4_6': [4424], 's_4_7': [4587], 's_4_8': [2138], 's_4_9': [4481], 's_4_11': [2527, 2528], 's_4_12': [2077], 's_4_13': [2289], 's_4_14': [2258], 's_4_15': [2092], 's_5_6': [4439], 's_5_7': [2513], 's_5_8': [2483], 's_5_9': [2225], 's_5_10': [4196], 's_5_11': [4286], 's_5_12': [4180], 's_5_13': [2228], 's_5_14': [2333], 's_5_15': [2213], 's_5_16': [2363], 's_5_17': [2452], 's_6_7': [4557], 's_6_8': [4542], 's_6_9': [2558], 's_6_10': [2663], 's_6_11': [2601], 's_6_14': [4229], 's_6_16': [4197], 's_6_17': [4244], 's_6_18': [4138], 's_8_7': [4588], 's_8_9': [2199], 's_8_11': [4482], 's_8_15': [2394], 's_10_11': [2153], 's_10_13': [2169], 's_10_14': [4526], 's_10_16': [2617], 's_10_18': [4226], 's_11_9': [2647], 's_11_15': [4270], 's_11_16': [2557], 's_11_17': [2436], 's_11_18': [2631], 's_12_9': [4227], 's_12_13': [2063], 's_12_15': [1942], 's_12_16': [1957], 's_12_17': [2197], 's_12_18': [1986], 's_17_7': [4288], 's_17_9': [2692], 's_17_14': [2406], 's_17_16': [2572], 's_17_18': [4198], 's_7_9': [4394], 's_7_13': [2304], 's_7_14': [4528], 's_7_15': [4498], 's_7_18': [2496], 's_9_13': [2243], 's_9_15': [4166], 's_9_18': [4091], 's_13_15': [4496], 's_13_16': [2047], 's_15_14': [4512], 's_15_16': [1972], 's_15_18': [4076], 's_16_18': [2361], 's_18_14': [2511]}</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0001928571428571428</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.00115773794222058</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>{0: [2422, 2421, 4151, 4152], 1: [4256, 2123, 4377, 4376, 2121, 2122], 's_0_1': [2076], 2: [4301, 2347, 2438, 2437, 2542, 4303, 4302], 's_0_2': [2346], 3: [4332, 2018, 2017, 4211, 2287, 2286, 4212], 's_0_3': [4167], 4: [2288, 4421, 2257, 4423, 4422], 's_0_4': [2256], 5: [4181, 4438, 4437, 2226, 2227], 's_0_5': [2091], 6: [2317, 2587, 2316, 2318, 2586, 4468, 4467], 's_0_6': [2331], 8: [4571, 4572, 2407, 2408, 4573], 's_0_8': [2423], 10: [2167, 2168, 4453, 4452, 4451], 's_0_10': [2166], 11: [2468, 4273, 2152, 4271, 2467, 4272], 's_0_11': [2151], 12: [2062, 2212, 1987, 4347, 4346, 4345], 's_0_12': [2211], 17: [2451, 2512, 4259, 4257, 4258], 's_0_17': [2271], 's_1_3': [4495], 's_1_4': [2108], 7: [2482, 2498, 2497, 2303, 2302, 4392, 4393], 's_1_7': [2348], 9: [2240, 2198, 4408, 4407, 4409, 2241, 2242], 's_1_9': [3971, 2120], 's_1_10': [4511], 's_1_11': [4241], 's_1_12': [4465], 13: [2048, 4630, 2272, 2273, 4631], 's_1_13': [2124], 15: [4360, 4497, 2393, 4362, 2106, 2107, 4361], 's_1_15': [4090], 16: [2362, 4315, 4316, 4318, 4317], 's_1_16': [4300], 's_1_17': [4378], 18: [4120, 4123, 4122, 4121, 2481, 2181, 2182], 's_1_18': [2046], 's_2_3': [2392], 's_2_4': [2543], 's_2_5': [4182], 's_2_7': [4558], 's_2_8': [4603], 's_2_9': [2632], 's_2_10': [2602], 's_2_11': [2662], 's_2_12': [4348], 's_2_13': [4617, 4618], 14: [4228, 2377, 4527, 2378], 's_2_14': [4287], 's_2_15': [2453], 's_2_16': [2137], 's_2_17': [4363], 's_2_18': [4183], 's_3_4': [2033], 's_3_5': [4136], 's_3_6': [4062], 's_3_7': [2301], 's_3_8': [2019], 's_3_9': [4331], 's_3_10': [4436], 's_3_11': [4333], 's_3_12': [2061], 's_3_15': [4375], 's_3_16': [2032], 's_3_18': [4106], 's_4_5': [4466], 's_4_6': [4424], 's_4_7': [4587], 's_4_8': [2138], 's_4_9': [4481], 's_4_11': [2527, 2528], 's_4_12': [2077], 's_4_13': [2289], 's_4_14': [2258], 's_4_15': [2092], 's_5_6': [4439], 's_5_7': [2513], 's_5_8': [2483], 's_5_9': [2225], 's_5_10': [4196], 's_5_11': [4286], 's_5_12': [4180], 's_5_13': [2228], 's_5_14': [2333], 's_5_15': [2213], 's_5_16': [2363], 's_5_17': [2452], 's_6_7': [4557], 's_6_8': [4542], 's_6_9': [2558], 's_6_10': [2663], 's_6_11': [2601], 's_6_14': [4229], 's_6_16': [4197], 's_6_17': [4244], 's_6_18': [4138], 's_8_7': [4588], 's_8_9': [2199], 's_8_11': [4482], 's_8_15': [2394], 's_10_11': [2153], 's_10_13': [2169], 's_10_14': [4526], 's_10_16': [2617], 's_10_18': [4226], 's_11_9': [2647], 's_11_15': [4270], 's_11_16': [2557], 's_11_17': [2436], 's_11_18': [2631], 's_12_9': [4227], 's_12_13': [2063], 's_12_15': [1942], 's_12_16': [1957], 's_12_17': [2197], 's_12_18': [1986], 's_17_7': [4288], 's_17_9': [2692], 's_17_14': [2406], 's_17_16': [2572], 's_17_18': [4198], 's_7_9': [4394], 's_7_13': [2304], 's_7_14': [4528], 's_7_15': [4498], 's_7_18': [2496], 's_9_13': [2243], 's_9_15': [4166], 's_9_18': [4091], 's_13_15': [4496], 's_13_16': [2047], 's_15_14': [4512], 's_15_16': [1972], 's_15_18': [4076], 's_16_18': [2361], 's_18_14': [2511]}</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0001928571428571428</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.00115773794222058</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>{0: [1726, 3250, 3249], 1: [3189, 1937, 1936], 2: [2041, 3369, 3370], 3: [3039, 1861, 1860], 4: [1996, 3264, 3265], 5: [3099, 1846, 1847], 6: [1922, 3204, 1921], 7: [3130, 1832, 1831], 8: [1997, 3324, 3325], 9: [3295, 3294], 10: [3175, 1952, 1951], 11: [3279, 3280], 12: [3235, 3234, 1771], 13: [1905, 1906], 14: [3310, 1966], 15: [2027, 2026, 3100, 1890], 16: [1982, 3160, 1981], 17: [1875, 3219, 1876], 19: [3340, 1891], 18: [1967, 3384, 3385]}</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.04585635359116021</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.04517567093206548</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>{0: [1726, 3250, 3249], 1: [3189, 1937, 1936], 2: [2041, 3369, 3370], 3: [3039, 1861, 1860], 4: [1996, 3264, 3265], 5: [3099, 1846, 1847], 6: [1922, 3204, 1921], 7: [3130, 1832, 1831], 8: [1997, 3324, 3325], 9: [3295, 3294], 10: [3175, 1952, 1951], 11: [3279, 3280], 12: [3235, 3234, 1771], 13: [1905, 1906], 14: [3310, 1966], 15: [2027, 2026, 3100, 1890], 16: [1982, 3160, 1981], 17: [1875, 3219, 1876], 19: [3340, 1891], 18: [1967, 3384, 3385]}</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0.04585635359116021</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.04517567093206548</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.511</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>{0: [2449, 2207, 2208, 3777, 3776, 2209], 1: [3701, 2238, 2448, 3703, 3702], 's_0_1': [3611], 2: [2222, 3492, 2361, 2360, 2358, 3627, 2359], 's_0_2': [3446], 3: [2627, 2300, 3897, 3898, 2628, 2629, 2495, 3913], 's_0_3': [3778], 4: [3447, 2268, 4168, 4167, 2267, 2269, 2271, 2270], 's_0_4': [3507], 5: [2421, 2420, 2569, 2659, 3763, 3762, 2419], 's_0_5': [3761], 6: [2342, 2343, 2344, 2465, 2464, 3747], 's_0_6': [3327], 7: [2584, 3928, 2196, 2194, 3927, 3926, 2195], 's_0_7': [2193], 8: [3718, 3416, 3417, 2432, 2435, 2434, 2433], 's_0_8': [3401], 9: [1984, 2106, 2104, 2105, 3733, 3732, 3731, 3730], 's_0_9': [3775], 10: [3553, 3852, 2314, 3552, 2313], 's_0_10': [2210], 11: [2405, 2389, 3807, 2404], 's_0_11': [3868], 12: [3478, 3477, 2282, 2285, 3522, 2284, 2283], 's_0_12': [3342], 13: [4077, 3792, 3658, 3657, 2253, 2255, 2254], 's_0_13': [3791], 14: [2178, 2179, 2180, 3971, 3972, 3973, 2585], 's_0_14': [3461], 15: [3942, 3941, 2133, 2134, 2135], 's_0_15': [2149], 16: [3567, 2373, 3911, 3912, 2375, 2374], 's_0_16': [2224], 17: [2556, 3793, 2478, 2555, 3643, 2553, 2554], 's_0_17': [3838], 19: [2328, 2329, 4062, 4092, 2331, 2330], 's_0_19': [2450], 's_1_2': [3628], 's_1_4': [3746], 's_1_6': [2479], 's_1_7': [3656], 's_1_8': [3613], 's_1_9': [2029], 's_1_10': [2447], 's_1_11': [3673], 's_1_12': [3581], 's_1_14': [3716], 's_1_16': [3597], 's_1_17': [3704], 18: [2525, 3686, 2524, 3687, 3688], 's_1_18': [2058], 's_2_3': [4017], 's_2_4': [3537], 's_2_5': [4122], 's_2_6': [2357], 's_2_7': [4047], 's_2_8': [2237], 's_2_9': [2223], 's_2_10': [3717], 's_2_12': [3476], 's_2_13': [3987], 's_2_15': [3626], 's_2_16': [3493], 's_2_18': [2298], 's_2_19': [4137], 's_3_4': [3956], 's_3_5': [3674], 's_3_6': [3748], 's_3_7': [2645], 's_3_8': [3418], 's_3_10': [2612], 's_3_11': [4048], 's_3_12': [2299], 's_3_13': [3659], 's_3_14': [2630, 4108], 's_3_15': [2390], 's_3_16': [3568], 's_3_19': [2301], 's_4_5': [4197], 's_4_6': [4003, 2541], 's_4_7': [4121], 's_4_8': [2402], 's_4_10': [3612], 's_4_13': [2316], 's_4_14': [2586], 's_4_15': [4091, 2136], 's_4_16': [2417], 's_4_17': [2571], 's_4_19': [4227], 's_5_6': [4033], 's_5_7': [2614], 's_5_9': [2644], 's_5_11': [2406], 's_5_14': [2570], 's_5_16': [3883], 's_5_17': [2539], 's_5_18': [3689], 's_5_19': [4182], 's_6_7': [2480], 's_6_10': [2463], 's_6_12': [3357], 's_6_14': [3988], 's_6_15': [2345], 's_6_16': [3582], 's_6_17': [3823], 's_6_19': [2466], 's_7_9': [4166], 's_7_10': [2239], 's_7_12': [3882], 's_7_13': [4106], 's_7_14': [3986], 's_7_15': [3821], 's_7_16': [2165], 's_7_17': [3854], 's_7_18': [3808], 's_7_19': [2211], 's_8_9': [2494], 's_8_10': [3853], 's_8_11': [4078], 's_8_12': [3523], 's_8_13': [2418], 's_8_14': [2177], 's_8_17': [3463], 's_8_18': [4018, 2526], 's_8_19': [2327], 's_9_15': [3881], 's_9_16': [1985, 3910], 's_9_17': [2583], 's_9_19': [4061], 's_10_11': [3642], 's_10_12': [2597], 's_10_13': [2508], 's_10_17': [2568], 's_10_19': [2315], 's_11_12': [2388], 's_11_15': [3806], 's_11_16': [3957], 's_11_19': [4063], 's_12_13': [4032], 's_12_15': [3521], 's_12_16': [3462], 's_12_17': [2477], 's_12_19': [4002], 's_13_14': [2225], 's_13_15': [3596], 's_13_17': [2598], 's_13_18': [2493], 's_13_19': [2346], 's_14_16': [3566], 's_14_17': [4064], 's_14_18': [2164], 's_14_19': [4093], 's_15_16': [2150], 's_15_18': [3671], 's_15_19': [2240], 's_16_17': [3538], 's_16_19': [2376], 's_17_18': [3943], 's_19_18': [3672]}</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0003459119496855346</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.001487989706203897</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>{0: [2449, 2207, 2208, 3777, 3776, 2209], 1: [3701, 2238, 2448, 3703, 3702], 's_0_1': [3611], 2: [2222, 3492, 2361, 2360, 2358, 3627, 2359], 's_0_2': [3446], 3: [2627, 2300, 3897, 3898, 2628, 2629, 2495, 3913], 's_0_3': [3778], 4: [3447, 2268, 4168, 4167, 2267, 2269, 2271, 2270], 's_0_4': [3507], 5: [2421, 2420, 2569, 2659, 3763, 3762, 2419], 's_0_5': [3761], 6: [2342, 2343, 2344, 2465, 2464, 3747], 's_0_6': [3327], 7: [2584, 3928, 2196, 2194, 3927, 3926, 2195], 's_0_7': [2193], 8: [3718, 3416, 3417, 2432, 2435, 2434, 2433], 's_0_8': [3401], 9: [1984, 2106, 2104, 2105, 3733, 3732, 3731, 3730], 's_0_9': [3775], 10: [3553, 3852, 2314, 3552, 2313], 's_0_10': [2210], 11: [2405, 2389, 3807, 2404], 's_0_11': [3868], 12: [3478, 3477, 2282, 2285, 3522, 2284, 2283], 's_0_12': [3342], 13: [4077, 3792, 3658, 3657, 2253, 2255, 2254], 's_0_13': [3791], 14: [2178, 2179, 2180, 3971, 3972, 3973, 2585], 's_0_14': [3461], 15: [3942, 3941, 2133, 2134, 2135], 's_0_15': [2149], 16: [3567, 2373, 3911, 3912, 2375, 2374], 's_0_16': [2224], 17: [2556, 3793, 2478, 2555, 3643, 2553, 2554], 's_0_17': [3838], 19: [2328, 2329, 4062, 4092, 2331, 2330], 's_0_19': [2450], 's_1_2': [3628], 's_1_4': [3746], 's_1_6': [2479], 's_1_7': [3656], 's_1_8': [3613], 's_1_9': [2029], 's_1_10': [2447], 's_1_11': [3673], 's_1_12': [3581], 's_1_14': [3716], 's_1_16': [3597], 's_1_17': [3704], 18: [2525, 3686, 2524, 3687, 3688], 's_1_18': [2058], 's_2_3': [4017], 's_2_4': [3537], 's_2_5': [4122], 's_2_6': [2357], 's_2_7': [4047], 's_2_8': [2237], 's_2_9': [2223], 's_2_10': [3717], 's_2_12': [3476], 's_2_13': [3987], 's_2_15': [3626], 's_2_16': [3493], 's_2_18': [2298], 's_2_19': [4137], 's_3_4': [3956], 's_3_5': [3674], 's_3_6': [3748], 's_3_7': [2645], 's_3_8': [3418], 's_3_10': [2612], 's_3_11': [4048], 's_3_12': [2299], 's_3_13': [3659], 's_3_14': [2630, 4108], 's_3_15': [2390], 's_3_16': [3568], 's_3_19': [2301], 's_4_5': [4197], 's_4_6': [4003, 2541], 's_4_7': [4121], 's_4_8': [2402], 's_4_10': [3612], 's_4_13': [2316], 's_4_14': [2586], 's_4_15': [4091, 2136], 's_4_16': [2417], 's_4_17': [2571], 's_4_19': [4227], 's_5_6': [4033], 's_5_7': [2614], 's_5_9': [2644], 's_5_11': [2406], 's_5_14': [2570], 's_5_16': [3883], 's_5_17': [2539], 's_5_18': [3689], 's_5_19': [4182], 's_6_7': [2480], 's_6_10': [2463], 's_6_12': [3357], 's_6_14': [3988], 's_6_15': [2345], 's_6_16': [3582], 's_6_17': [3823], 's_6_19': [2466], 's_7_9': [4166], 's_7_10': [2239], 's_7_12': [3882], 's_7_13': [4106], 's_7_14': [3986], 's_7_15': [3821], 's_7_16': [2165], 's_7_17': [3854], 's_7_18': [3808], 's_7_19': [2211], 's_8_9': [2494], 's_8_10': [3853], 's_8_11': [4078], 's_8_12': [3523], 's_8_13': [2418], 's_8_14': [2177], 's_8_17': [3463], 's_8_18': [4018, 2526], 's_8_19': [2327], 's_9_15': [3881], 's_9_16': [1985, 3910], 's_9_17': [2583], 's_9_19': [4061], 's_10_11': [3642], 's_10_12': [2597], 's_10_13': [2508], 's_10_17': [2568], 's_10_19': [2315], 's_11_12': [2388], 's_11_15': [3806], 's_11_16': [3957], 's_11_19': [4063], 's_12_13': [4032], 's_12_15': [3521], 's_12_16': [3462], 's_12_17': [2477], 's_12_19': [4002], 's_13_14': [2225], 's_13_15': [3596], 's_13_17': [2598], 's_13_18': [2493], 's_13_19': [2346], 's_14_16': [3566], 's_14_17': [4064], 's_14_18': [2164], 's_14_19': [4093], 's_15_16': [2150], 's_15_18': [3671], 's_15_19': [2240], 's_16_17': [3538], 's_16_19': [2376], 's_17_18': [3943], 's_19_18': [3672]}</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0003459119496855346</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.001487989706203897</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>{0: [2398, 2397], 2: [2607, 5232, 5233], 3: [2338, 2441, 2337, 5187], 4: [5262, 5263], 5: [5202, 5248, 2457], 6: [5172, 2488, 2487], 7: [2548, 5113, 2547], 8: [5247, 2426, 2427], 9: [2637, 5368, 5367], 10: [2503, 5158, 2502], 11: [5217, 2592, 5218], 16: [2518, 2517, 5143], 17: [2383, 2382], 19: [5309, 5308], 1: [5128, 2533, 2532], 12: [2442, 5338], 13: [5323, 2472, 2473], 14: [2578, 5352, 5353], 15: [2563, 5277, 5278], 18: [5293, 5294], 20: [2411, 2412]}</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.03497379813169287</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.03921817855005445</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>{0: [2398, 2397], 2: [2607, 5232, 5233], 3: [2338, 2441, 2337, 5187], 4: [5262, 5263], 5: [5202, 5248, 2457], 6: [5172, 2488, 2487], 7: [2548, 5113, 2547], 8: [5247, 2426, 2427], 9: [2637, 5368, 5367], 10: [2503, 5158, 2502], 11: [5217, 2592, 5218], 16: [2518, 2517, 5143], 17: [2383, 2382], 19: [5309, 5308], 1: [5128, 2533, 2532], 12: [2442, 5338], 13: [5323, 2472, 2473], 14: [2578, 5352, 5353], 15: [2563, 5277, 5278], 18: [5293, 5294], 20: [2411, 2412]}</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0.03497379813169287</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.03921817855005445</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.298</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>{0: [3635, 3245, 3246, 3247, 1426, 3636, 3637, 1428, 1427], 2: [1397, 3229, 3472, 3471, 3230, 1216, 1217], 's_0_2': [1218], 3: [3140, 960, 3201, 3200, 3199, 1038, 1037, 3198, 1036], 's_0_3': [1023], 4: [3485, 1067, 1066, 3217, 3216, 3215], 's_0_4': [1441], 5: [3379, 1290, 3320, 1006, 1005, 3081, 3080], 's_0_5': [1021], 6: [873, 872, 871, 1050, 1051, 3170, 3169], 's_0_6': [3634], 7: [3487, 3486, 1230, 1231, 3681, 1233, 1232], 's_0_7': [1264], 8: [1576, 1575, 3007, 1440, 2947, 1081, 1080, 2945, 2946], 's_0_8': [3248], 9: [3516, 3171, 1111, 1157, 3018, 3425, 1112, 3019, 3020, 1110], 's_0_9': [1158], 10: [3590, 1098, 1097, 1500, 3067, 3066, 3065, 1096, 1095], 's_0_10': [1053], 11: [2978, 2977, 1246, 1245, 931, 930, 2975, 2976], 's_0_11': [1425], 16: [1276, 1442, 1171, 1277, 3337, 932, 947, 3335, 3336], 's_0_16': [3442], 17: [3666, 3667, 1413, 1412, 3172, 1320, 3232, 1411], 's_0_17': [1444], 19: [3591, 3561, 1293, 1292, 3185, 3186, 1306, 1307], 's_0_19': [1338], 1: [977, 3500, 1200, 1202, 1201, 3276, 3501, 1321, 3322], 's_2_1': [1457, 1458], 's_2_3': [1396], 's_2_4': [3470], 's_2_5': [991], 's_2_7': [1322], 's_2_8': [3473, 1577], 's_2_9': [1278], 's_2_10': [3380], 's_2_11': [3321, 1141], 12: [1215, 1350, 736, 3093, 3051, 3050, 3049, 3048, 780], 's_2_12': [3228], 13: [840, 1516, 842, 841, 3259, 3262, 3261, 3260], 's_2_13': [1517], 14: [1336, 885, 3231, 1261, 1260, 3004, 3005, 3006], 's_2_14': [1337], 15: [3097, 3096, 1185, 3544, 3545, 1187, 1186], 's_2_15': [3456], 's_2_16': [3427], 's_2_17': [3457], 18: [1473, 3109, 3110, 1472, 1471, 3112, 3111], 's_2_18': [1487, 1488], 's_2_19': [1263], 20: [3036, 3274, 1126, 1125, 3035, 917, 916, 915, 3034], 's_2_20': [961], 's_3_1': [3530], 's_3_4': [3305], 's_3_6': [3574], 's_3_7': [3680, 3665], 's_3_8': [3202], 's_3_9': [3515], 's_3_10': [3605], 's_3_11': [3094], 's_3_12': [721], 's_3_14': [3064], 's_3_16': [3394], 's_3_17': [1114, 3650], 's_3_20': [856], 's_4_1': [962], 's_4_5': [3350], 's_4_6': [3290], 's_4_8': [1561], 's_4_10': [1083], 's_4_11': [3155], 's_4_13': [1486], 's_4_14': [1366], 's_4_15': [933], 's_4_17': [1531], 's_4_20': [3214], 's_5_6': [3095], 's_5_7': [3021], 's_5_8': [2962], 's_5_9': [1022], 's_5_10': [990], 's_5_11': [3079], 's_5_12': [1065], 's_5_13': [3364, 3363], 's_5_14': [2916], 's_5_15': [1007], 's_5_16': [976], 's_5_18': [1140], 's_5_20': [902], 's_6_8': [2990], 's_6_9': [750, 751], 's_6_10': [3589], 's_6_11': [3125], 's_6_12': [3349, 781], 's_6_13': [3454], 's_6_14': [886], 's_6_15': [888], 's_6_18': [901], 's_6_19': [3184], 's_6_20': [3439], 's_7_1': [3502], 's_7_9': [3455, 1128], 's_7_10': [1143], 's_7_11': [1247], 's_7_12': [2991], 's_7_14': [3126], 's_7_15': [3531], 's_7_16': [3411], 's_7_17': [1279], 's_7_18': [3488], 's_7_19': [1248], 's_7_20': [3156], 's_8_9': [2961], 's_8_10': [2930], 's_8_11': [2960], 's_8_12': [1275], 's_8_13': [3308], 's_8_18': [3128], 's_8_19': [3142, 3143], 's_8_20': [2915], 's_9_1': [3410], 's_9_10': [1113], 's_9_11': [945], 's_9_12': [765], 's_9_13': [3424], 's_9_14': [3003], 's_9_16': [1052], 's_9_17': [3517], 's_9_18': [855], 's_9_19': [3560], 's_10_1': [1203], 's_10_11': [1485], 's_10_12': [3052], 's_10_13': [1501], 's_10_14': [1020], 's_10_15': [1068], 's_10_16': [1082], 's_10_17': [1173], 's_10_18': [1410], 's_11_1': [3306], 's_11_12': [1035], 's_11_14': [2974], 's_11_15': [3098, 1605], 's_11_16': [946], 's_11_18': [1470], 's_11_19': [3291], 's_11_20': [1380], 's_16_1': [948], 's_16_13': [3334], 's_16_14': [3381], 's_16_15': [3365], 's_16_17': [3412], 's_16_18': [3338], 's_16_19': [3396], 's_16_20': [3409], 's_17_1': [3307], 's_17_12': [3127], 's_17_13': [1456], 's_17_14': [1291], 's_17_15': [1335], 's_17_18': [3592], 's_17_19': [1368], 's_19_1': [3426], 's_19_12': [1155], 's_19_13': [1381], 's_19_14': [1305], 's_19_15': [3441], 's_19_18': [3187], 's_1_12': [1351], 's_1_13': [3469], 's_1_14': [1262], 's_1_15': [992], 's_1_18': [3277], 's_1_20': [3351, 1127], 's_12_13': [3154], 's_12_14': [3124], 's_12_15': [1395], 's_12_18': [825], 's_12_20': [3213, 811], 's_13_14': [3139], 's_13_18': [3323], 's_13_20': [3033], 's_14_18': [870], 's_14_20': [2989], 's_15_18': [1515], 's_15_20': [918], 's_18_20': [975]}</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.000695187165775401</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.001891415955489561</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>{0: [3635, 3245, 3246, 3247, 1426, 3636, 3637, 1428, 1427], 2: [1397, 3229, 3472, 3471, 3230, 1216, 1217], 's_0_2': [1218], 3: [3140, 960, 3201, 3200, 3199, 1038, 1037, 3198, 1036], 's_0_3': [1023], 4: [3485, 1067, 1066, 3217, 3216, 3215], 's_0_4': [1441], 5: [3379, 1290, 3320, 1006, 1005, 3081, 3080], 's_0_5': [1021], 6: [873, 872, 871, 1050, 1051, 3170, 3169], 's_0_6': [3634], 7: [3487, 3486, 1230, 1231, 3681, 1233, 1232], 's_0_7': [1264], 8: [1576, 1575, 3007, 1440, 2947, 1081, 1080, 2945, 2946], 's_0_8': [3248], 9: [3516, 3171, 1111, 1157, 3018, 3425, 1112, 3019, 3020, 1110], 's_0_9': [1158], 10: [3590, 1098, 1097, 1500, 3067, 3066, 3065, 1096, 1095], 's_0_10': [1053], 11: [2978, 2977, 1246, 1245, 931, 930, 2975, 2976], 's_0_11': [1425], 16: [1276, 1442, 1171, 1277, 3337, 932, 947, 3335, 3336], 's_0_16': [3442], 17: [3666, 3667, 1413, 1412, 3172, 1320, 3232, 1411], 's_0_17': [1444], 19: [3591, 3561, 1293, 1292, 3185, 3186, 1306, 1307], 's_0_19': [1338], 1: [977, 3500, 1200, 1202, 1201, 3276, 3501, 1321, 3322], 's_2_1': [1457, 1458], 's_2_3': [1396], 's_2_4': [3470], 's_2_5': [991], 's_2_7': [1322], 's_2_8': [3473, 1577], 's_2_9': [1278], 's_2_10': [3380], 's_2_11': [3321, 1141], 12: [1215, 1350, 736, 3093, 3051, 3050, 3049, 3048, 780], 's_2_12': [3228], 13: [840, 1516, 842, 841, 3259, 3262, 3261, 3260], 's_2_13': [1517], 14: [1336, 885, 3231, 1261, 1260, 3004, 3005, 3006], 's_2_14': [1337], 15: [3097, 3096, 1185, 3544, 3545, 1187, 1186], 's_2_15': [3456], 's_2_16': [3427], 's_2_17': [3457], 18: [1473, 3109, 3110, 1472, 1471, 3112, 3111], 's_2_18': [1487, 1488], 's_2_19': [1263], 20: [3036, 3274, 1126, 1125, 3035, 917, 916, 915, 3034], 's_2_20': [961], 's_3_1': [3530], 's_3_4': [3305], 's_3_6': [3574], 's_3_7': [3680, 3665], 's_3_8': [3202], 's_3_9': [3515], 's_3_10': [3605], 's_3_11': [3094], 's_3_12': [721], 's_3_14': [3064], 's_3_16': [3394], 's_3_17': [1114, 3650], 's_3_20': [856], 's_4_1': [962], 's_4_5': [3350], 's_4_6': [3290], 's_4_8': [1561], 's_4_10': [1083], 's_4_11': [3155], 's_4_13': [1486], 's_4_14': [1366], 's_4_15': [933], 's_4_17': [1531], 's_4_20': [3214], 's_5_6': [3095], 's_5_7': [3021], 's_5_8': [2962], 's_5_9': [1022], 's_5_10': [990], 's_5_11': [3079], 's_5_12': [1065], 's_5_13': [3364, 3363], 's_5_14': [2916], 's_5_15': [1007], 's_5_16': [976], 's_5_18': [1140], 's_5_20': [902], 's_6_8': [2990], 's_6_9': [750, 751], 's_6_10': [3589], 's_6_11': [3125], 's_6_12': [3349, 781], 's_6_13': [3454], 's_6_14': [886], 's_6_15': [888], 's_6_18': [901], 's_6_19': [3184], 's_6_20': [3439], 's_7_1': [3502], 's_7_9': [3455, 1128], 's_7_10': [1143], 's_7_11': [1247], 's_7_12': [2991], 's_7_14': [3126], 's_7_15': [3531], 's_7_16': [3411], 's_7_17': [1279], 's_7_18': [3488], 's_7_19': [1248], 's_7_20': [3156], 's_8_9': [2961], 's_8_10': [2930], 's_8_11': [2960], 's_8_12': [1275], 's_8_13': [3308], 's_8_18': [3128], 's_8_19': [3142, 3143], 's_8_20': [2915], 's_9_1': [3410], 's_9_10': [1113], 's_9_11': [945], 's_9_12': [765], 's_9_13': [3424], 's_9_14': [3003], 's_9_16': [1052], 's_9_17': [3517], 's_9_18': [855], 's_9_19': [3560], 's_10_1': [1203], 's_10_11': [1485], 's_10_12': [3052], 's_10_13': [1501], 's_10_14': [1020], 's_10_15': [1068], 's_10_16': [1082], 's_10_17': [1173], 's_10_18': [1410], 's_11_1': [3306], 's_11_12': [1035], 's_11_14': [2974], 's_11_15': [3098, 1605], 's_11_16': [946], 's_11_18': [1470], 's_11_19': [3291], 's_11_20': [1380], 's_16_1': [948], 's_16_13': [3334], 's_16_14': [3381], 's_16_15': [3365], 's_16_17': [3412], 's_16_18': [3338], 's_16_19': [3396], 's_16_20': [3409], 's_17_1': [3307], 's_17_12': [3127], 's_17_13': [1456], 's_17_14': [1291], 's_17_15': [1335], 's_17_18': [3592], 's_17_19': [1368], 's_19_1': [3426], 's_19_12': [1155], 's_19_13': [1381], 's_19_14': [1305], 's_19_15': [3441], 's_19_18': [3187], 's_1_12': [1351], 's_1_13': [3469], 's_1_14': [1262], 's_1_15': [992], 's_1_18': [3277], 's_1_20': [3351, 1127], 's_12_13': [3154], 's_12_14': [3124], 's_12_15': [1395], 's_12_18': [825], 's_12_20': [3213, 811], 's_13_14': [3139], 's_13_18': [3323], 's_13_20': [3033], 's_14_18': [870], 's_14_20': [2989], 's_15_18': [1515], 's_15_20': [918], 's_18_20': [975]}</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0.000695187165775401</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.001891415955489561</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>{0: [444, 4758, 4757], 1: [488, 4712, 489], 2: [4623, 534, 4622], 4: [4638, 519, 4637], 5: [668, 669], 7: [595, 4563, 594], 8: [684, 683], 10: [624, 4487, 623], 11: [4728, 4727, 504], 13: [4533, 730, 729], 14: [4681, 4683, 4682], 16: [4578, 609, 608], 17: [4653, 4651, 4652], 20: [459, 4743, 4742], 21: [548, 550, 549], 3: [4607, 579, 4608], 6: [4592, 714, 4593], 9: [4532, 564], 15: [4502, 563, 638, 4472], 18: [4666, 4668, 4667], 19: [4547, 774, 653, 4548], 12: [654, 4698, 4697]}</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.04926967516895575</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.04507484478156622</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>{0: [444, 4758, 4757], 1: [488, 4712, 489], 2: [4623, 534, 4622], 4: [4638, 519, 4637], 5: [668, 669], 7: [595, 4563, 594], 8: [684, 683], 10: [624, 4487, 623], 11: [4728, 4727, 504], 13: [4533, 730, 729], 14: [4681, 4683, 4682], 16: [4578, 609, 608], 17: [4653, 4651, 4652], 20: [459, 4743, 4742], 21: [548, 550, 549], 3: [4607, 579, 4608], 6: [4592, 714, 4593], 9: [4532, 564], 15: [4502, 563, 638, 4472], 18: [4666, 4668, 4667], 19: [4547, 774, 653, 4548], 12: [654, 4698, 4697]}</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0.04926967516895575</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.04507484478156622</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>{0: [833, 1342, 4519, 1343, 1209, 1208, 4521, 4520], 1: [4447, 4446, 4580, 1237, 1239, 4581, 1238], 's_0_1': [4371], 2: [984, 1254, 4759, 4762, 1285, 4761, 4760], 's_0_2': [4701], 4: [4340, 970, 4745, 4444, 4339, 966, 969, 968, 967], 's_0_4': [938], 5: [4220, 4219, 4461, 4460, 4459, 4458, 743, 742, 4218], 's_0_5': [1298], 7: [4293, 4610, 4611, 758, 759, 865, 864, 757, 4609], 's_0_7': [1089, 4670], 8: [4355, 4279, 1088, 4282, 4281, 1087, 4280], 's_0_8': [4356], 10: [1432, 4252, 1074, 1433, 4595, 954, 4251, 4250, 952, 953], 's_0_10': [1462, 1463, 4522], 11: [849, 1329, 847, 848, 4536, 4534, 1328, 4535], 's_0_11': [4612], 13: [820, 819, 4504, 4505, 818], 's_0_13': [1058], 14: [4401, 1118, 4820, 4596, 4834, 4835, 1120, 1119], 's_0_14': [4402], 16: [4190, 4189, 4655, 4294, 922, 923, 699, 4653, 924, 4654], 's_0_16': [4518, 698], 17: [1390, 1391, 5016, 877, 878, 879, 880, 881, 5014, 5015], 's_0_17': [893], 20: [4566, 4565, 982, 4385, 4386, 1211, 1210, 1225, 1224, 1223, 4416, 1268], 's_0_20': [4387], 21: [4715, 4716, 1270, 4806, 1091, 1090, 4714], 's_0_21': [1344], 3: [744, 1417, 4668, 834, 835, 4894, 4895, 4896, 4897, 1420, 1419, 1418], 's_1_3': [4582], 's_1_4': [1117, 4236], 6: [1043, 4730, 1046, 1045, 1044, 4624, 803, 4623], 's_1_6': [4925, 4926, 1240], 's_1_7': [1163], 9: [4848, 4910, 1178, 4640, 4639, 4849, 1030, 1029], 's_1_9': [4641], 's_1_10': [939], 's_1_11': [4671], 's_1_14': [1284], 15: [1374, 1373, 1028, 4430, 4431, 4432, 4295, 4296, 1372, 1371], 's_1_15': [1448], 18: [1403, 4476, 4475, 1148, 4698, 4699, 4700, 1149], 's_1_18': [1388], 19: [4865, 1000, 999, 4326, 4325, 997, 4489, 998], 's_1_19': [1013], 's_1_21': [1269], 's_2_3': [1255], 's_2_4': [985], 's_2_6': [4731], 's_2_7': [760], 's_2_9': [4911, 1286], 's_2_10': [1434], 's_2_11': [1299, 4686], 12: [4400, 817, 4789, 910, 909, 4399, 908], 's_2_12': [775], 's_2_13': [4744], 's_2_14': [1194], 's_2_15': [4656], 's_2_16': [4758], 's_2_17': [1389], 's_2_19': [4775], 's_2_20': [4791], 's_2_21': [1300, 4747, 1450], 's_4_6': [4984], 's_4_7': [4443], 's_4_8': [4445], 's_4_9': [4804], 's_4_10': [937], 's_4_12': [862], 's_4_13': [4879], 's_4_14': [1105], 's_4_15': [4205, 1102], 's_4_16': [4174, 4175], 's_4_17': [971], 's_4_18': [4746], 's_4_19': [1014], 's_4_20': [1042], 's_4_21': [4955], 's_5_3': [4548, 713], 's_5_6': [4488], 's_5_7': [4204], 's_5_8': [4278], 's_5_10': [1011], 's_5_11': [4263], 's_5_12': [832], 's_5_15': [1253], 's_5_16': [1041], 's_5_18': [1147], 's_5_19': [1327], 's_5_20': [1177], 's_7_3': [4608], 's_7_6': [4594], 's_7_9': [983], 's_7_10': [1104], 's_7_11': [850], 's_7_12': [4774], 's_7_13': [4803], 's_7_14': [4819, 4818], 's_7_16': [4188], 's_7_17': [4939], 's_8_3': [4267], 's_8_10': [1267], 's_8_12': [4354], 's_8_14': [1252], 's_8_15': [4266], 's_8_16': [1027], 's_8_17': [4264], 's_8_18': [1103], 's_8_19': [1282], 's_8_20': [1207], 's_10_3': [4372], 's_10_6': [4625], 's_10_9': [4685], 's_10_11': [4537], 's_10_12': [4684], 's_10_14': [1075], 's_10_15': [4507], 's_10_16': [1146], 's_10_18': [4417], 's_10_21': [1059], 's_11_3': [4792], 's_11_6': [4473], 's_11_12': [4308], 's_11_13': [863], 's_11_14': [4821], 's_11_16': [846], 's_11_17': [4777], 's_11_20': [4551], 's_11_21': [4850, 1330, 4851], 's_13_3': [4729], 's_13_6': [5029, 4909, 941], 's_13_9': [4833], 's_13_14': [4864, 895], 's_13_15': [1133], 's_13_16': [4549], 's_13_17': [896, 4999, 4998], 's_13_18': [1073], 's_14_6': [4550], 's_14_9': [1121], 's_14_16': [4370, 1162, 1161], 's_14_19': [1222], 's_14_20': [1283], 's_14_21': [955], 's_16_3': [4593], 's_16_6': [4564], 's_16_9': [700], 's_16_12': [1012], 's_16_15': [4429], 's_16_17': [4474], 's_16_18': [4683], 's_16_19': [1132], 's_16_20': [4309], 's_17_3': [4882], 's_17_6': [5075, 1076], 's_17_9': [1136], 's_17_12': [892], 's_17_18': [894], 's_17_19': [4669], 's_17_20': [5030], 's_17_21': [1061, 5000], 's_20_6': [5090, 5091], 's_20_12': [4369], 's_20_18': [4776], 's_20_21': [4985], 's_21_3': [4717], 's_21_6': [5045], 's_21_9': [940], 's_21_12': [4790], 's_21_15': [1359], 's_21_18': [1164], 's_21_19': [4880], 's_3_6': [774], 's_3_9': [1165], 's_3_12': [911], 's_3_15': [4297], 's_3_18': [729], 's_3_19': [4327], 's_6_9': [1031], 's_6_12': [802], 's_6_18': [804], 's_6_19': [4415], 's_9_12': [925], 's_9_15': [1193, 1192], 's_9_18': [4490], 's_9_19': [1015], 's_15_19': [1057], 's_18_12': [789], 's_18_19': [1150], 's_19_12': [4324]}</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0008263157894736843</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.002040795836292636</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>{0: [833, 1342, 4519, 1343, 1209, 1208, 4521, 4520], 1: [4447, 4446, 4580, 1237, 1239, 4581, 1238], 's_0_1': [4371], 2: [984, 1254, 4759, 4762, 1285, 4761, 4760], 's_0_2': [4701], 4: [4340, 970, 4745, 4444, 4339, 966, 969, 968, 967], 's_0_4': [938], 5: [4220, 4219, 4461, 4460, 4459, 4458, 743, 742, 4218], 's_0_5': [1298], 7: [4293, 4610, 4611, 758, 759, 865, 864, 757, 4609], 's_0_7': [1089, 4670], 8: [4355, 4279, 1088, 4282, 4281, 1087, 4280], 's_0_8': [4356], 10: [1432, 4252, 1074, 1433, 4595, 954, 4251, 4250, 952, 953], 's_0_10': [1462, 1463, 4522], 11: [849, 1329, 847, 848, 4536, 4534, 1328, 4535], 's_0_11': [4612], 13: [820, 819, 4504, 4505, 818], 's_0_13': [1058], 14: [4401, 1118, 4820, 4596, 4834, 4835, 1120, 1119], 's_0_14': [4402], 16: [4190, 4189, 4655, 4294, 922, 923, 699, 4653, 924, 4654], 's_0_16': [4518, 698], 17: [1390, 1391, 5016, 877, 878, 879, 880, 881, 5014, 5015], 's_0_17': [893], 20: [4566, 4565, 982, 4385, 4386, 1211, 1210, 1225, 1224, 1223, 4416, 1268], 's_0_20': [4387], 21: [4715, 4716, 1270, 4806, 1091, 1090, 4714], 's_0_21': [1344], 3: [744, 1417, 4668, 834, 835, 4894, 4895, 4896, 4897, 1420, 1419, 1418], 's_1_3': [4582], 's_1_4': [1117, 4236], 6: [1043, 4730, 1046, 1045, 1044, 4624, 803, 4623], 's_1_6': [4925, 4926, 1240], 's_1_7': [1163], 9: [4848, 4910, 1178, 4640, 4639, 4849, 1030, 1029], 's_1_9': [4641], 's_1_10': [939], 's_1_11': [4671], 's_1_14': [1284], 15: [1374, 1373, 1028, 4430, 4431, 4432, 4295, 4296, 1372, 1371], 's_1_15': [1448], 18: [1403, 4476, 4475, 1148, 4698, 4699, 4700, 1149], 's_1_18': [1388], 19: [4865, 1000, 999, 4326, 4325, 997, 4489, 998], 's_1_19': [1013], 's_1_21': [1269], 's_2_3': [1255], 's_2_4': [985], 's_2_6': [4731], 's_2_7': [760], 's_2_9': [4911, 1286], 's_2_10': [1434], 's_2_11': [1299, 4686], 12: [4400, 817, 4789, 910, 909, 4399, 908], 's_2_12': [775], 's_2_13': [4744], 's_2_14': [1194], 's_2_15': [4656], 's_2_16': [4758], 's_2_17': [1389], 's_2_19': [4775], 's_2_20': [4791], 's_2_21': [1300, 4747, 1450], 's_4_6': [4984], 's_4_7': [4443], 's_4_8': [4445], 's_4_9': [4804], 's_4_10': [937], 's_4_12': [862], 's_4_13': [4879], 's_4_14': [1105], 's_4_15': [4205, 1102], 's_4_16': [4174, 4175], 's_4_17': [971], 's_4_18': [4746], 's_4_19': [1014], 's_4_20': [1042], 's_4_21': [4955], 's_5_3': [4548, 713], 's_5_6': [4488], 's_5_7': [4204], 's_5_8': [4278], 's_5_10': [1011], 's_5_11': [4263], 's_5_12': [832], 's_5_15': [1253], 's_5_16': [1041], 's_5_18': [1147], 's_5_19': [1327], 's_5_20': [1177], 's_7_3': [4608], 's_7_6': [4594], 's_7_9': [983], 's_7_10': [1104], 's_7_11': [850], 's_7_12': [4774], 's_7_13': [4803], 's_7_14': [4819, 4818], 's_7_16': [4188], 's_7_17': [4939], 's_8_3': [4267], 's_8_10': [1267], 's_8_12': [4354], 's_8_14': [1252], 's_8_15': [4266], 's_8_16': [1027], 's_8_17': [4264], 's_8_18': [1103], 's_8_19': [1282], 's_8_20': [1207], 's_10_3': [4372], 's_10_6': [4625], 's_10_9': [4685], 's_10_11': [4537], 's_10_12': [4684], 's_10_14': [1075], 's_10_15': [4507], 's_10_16': [1146], 's_10_18': [4417], 's_10_21': [1059], 's_11_3': [4792], 's_11_6': [4473], 's_11_12': [4308], 's_11_13': [863], 's_11_14': [4821], 's_11_16': [846], 's_11_17': [4777], 's_11_20': [4551], 's_11_21': [4850, 1330, 4851], 's_13_3': [4729], 's_13_6': [5029, 4909, 941], 's_13_9': [4833], 's_13_14': [4864, 895], 's_13_15': [1133], 's_13_16': [4549], 's_13_17': [896, 4999, 4998], 's_13_18': [1073], 's_14_6': [4550], 's_14_9': [1121], 's_14_16': [4370, 1162, 1161], 's_14_19': [1222], 's_14_20': [1283], 's_14_21': [955], 's_16_3': [4593], 's_16_6': [4564], 's_16_9': [700], 's_16_12': [1012], 's_16_15': [4429], 's_16_17': [4474], 's_16_18': [4683], 's_16_19': [1132], 's_16_20': [4309], 's_17_3': [4882], 's_17_6': [5075, 1076], 's_17_9': [1136], 's_17_12': [892], 's_17_18': [894], 's_17_19': [4669], 's_17_20': [5030], 's_17_21': [1061, 5000], 's_20_6': [5090, 5091], 's_20_12': [4369], 's_20_18': [4776], 's_20_21': [4985], 's_21_3': [4717], 's_21_6': [5045], 's_21_9': [940], 's_21_12': [4790], 's_21_15': [1359], 's_21_18': [1164], 's_21_19': [4880], 's_3_6': [774], 's_3_9': [1165], 's_3_12': [911], 's_3_15': [4297], 's_3_18': [729], 's_3_19': [4327], 's_6_9': [1031], 's_6_12': [802], 's_6_18': [804], 's_6_19': [4415], 's_9_12': [925], 's_9_15': [1193, 1192], 's_9_18': [4490], 's_9_19': [1015], 's_15_19': [1057], 's_18_12': [789], 's_18_19': [1150], 's_19_12': [4324]}</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0008263157894736843</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.002040795836292636</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>{0: [2007, 2008, 5425], 1: [1903, 1902], 3: [2066, 2067, 5260], 4: [1872, 5336, 5335], 5: [2096, 5169, 2112, 5170], 6: [5291, 5290], 8: [5455, 1932, 1933], 9: [1917, 1918], 11: [5155, 1993, 1992], 12: [1797, 5306, 5305, 5304], 13: [1767, 1812, 5245, 5244], 14: [5289, 1782, 5275, 5274], 15: [2082, 5214, 5215], 17: [2051, 2053, 2052], 18: [5350, 1963, 1962], 19: [1947, 5485, 1948], 20: [5410, 2022, 2023], 21: [5365, 5364, 1887], 22: [5230, 1842, 5229], 2: [5440, 1978, 1977], 7: [5320, 5321, 2097], 16: [5200, 5199], 10: [2128, 5184, 2127, 5185]}</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.137344530668651</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.05559252571464096</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>{0: [2007, 2008, 5425], 1: [1903, 1902], 3: [2066, 2067, 5260], 4: [1872, 5336, 5335], 5: [2096, 5169, 2112, 5170], 6: [5291, 5290], 8: [5455, 1932, 1933], 9: [1917, 1918], 11: [5155, 1993, 1992], 12: [1797, 5306, 5305, 5304], 13: [1767, 1812, 5245, 5244], 14: [5289, 1782, 5275, 5274], 15: [2082, 5214, 5215], 17: [2051, 2053, 2052], 18: [5350, 1963, 1962], 19: [1947, 5485, 1948], 20: [5410, 2022, 2023], 21: [5365, 5364, 1887], 22: [5230, 1842, 5229], 2: [5440, 1978, 1977], 7: [5320, 5321, 2097], 16: [5200, 5199], 10: [2128, 5184, 2127, 5185]}</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0.137344530668651</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.05559252571464096</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>{0: [4183, 4182, 4181, 4180, 1899, 1898, 4525, 1987, 1988], 1: [4630, 4511, 4480, 2094, 2091, 2092, 2093], 's_0_1': [1989], 3: [2032, 4438, 4437, 2226, 2227, 4300, 4301], 's_0_3': [4195], 4: [2617, 2618, 4648, 1854, 4601, 4647, 4600, 4602, 2319], 's_0_4': [4674], 5: [2528, 4453, 4452, 2288, 4449, 4450, 4451], 's_0_5': [1897], 6: [4079, 4078, 4077, 4076, 4105, 2110, 2109, 2108, 2107, 2106], 's_0_6': [2286], 8: [2589, 2588, 2587, 2586, 4119, 4120, 4121, 4122, 4123], 's_0_8': [1986], 9: [2240, 2243, 4333, 4332, 4331, 2242, 2241], 's_0_9': [2377], 11: [2616, 1839, 1838, 1837, 4214, 4213, 4212, 4211, 4210], 's_0_11': [1911], 12: [4258, 4572, 4573, 2496, 2497, 2499, 2498], 's_0_12': [2392], 13: [2350, 2347, 2348, 4540, 4541, 4542, 4543, 2349], 's_0_13': [1913], 14: [2004, 4585, 2138, 4586, 2318, 4589, 4588, 4587], 's_0_14': [4570], 15: [2557, 2558, 4825, 4826, 4827, 2452, 2454, 4513, 2453], 's_0_15': [4198], 17: [2198, 4738, 4736, 4526, 2153, 4737, 2154], 's_0_17': [4735], 18: [2274, 1792, 2273, 2272, 4344, 4345, 4346, 4347], 's_0_18': [2271], 19: [4510, 1944, 2421, 4152, 4151, 4150, 1943, 1941, 1942], 's_0_19': [4720], 20: [4663, 2166, 4662, 4661, 4271, 2167, 2168, 2169], 's_0_20': [4270], 21: [1957, 4604, 4375, 2122, 4376, 4377, 4603, 2394, 2393], 's_0_21': [4405], 22: [1926, 1927, 2229, 2228, 2303, 4496, 4495, 4494, 1928], 's_0_22': [4479], 2: [4555, 2559, 4378, 4554, 2467, 2468, 4556, 4557, 4558], 's_1_2': [2034], 's_1_3': [4166], 's_1_4': [1974], 's_1_6': [2090], 7: [2002, 4315, 4436, 2076, 2079, 2078, 2077], 's_1_7': [4691], 's_1_13': [2048], 's_1_14': [2019], 's_1_15': [4810], 's_1_19': [2063], 's_1_20': [4241], 's_1_21': [4256], 's_1_22': [1883, 1884, 4780, 4781], 's_3_2': [2483], 's_3_5': [2047], 's_3_8': [2031], 's_3_9': [4227], 's_3_11': [2182], 's_3_12': [2333], 's_3_14': [2513], 16: [4424, 4423, 4419, 4420, 4421, 4422], 's_3_16': [2257], 's_3_17': [2213], 's_3_18': [1972], 's_3_19': [4361, 4360], 's_3_20': [2137], 's_3_21': [2378, 4362], 's_3_22': [4299], 's_4_2': [4559], 's_4_7': [2124, 4706], 's_4_8': [4303], 's_4_9': [4617], 10: [4514, 4318, 2600, 2601, 2648, 4286, 2317, 2647, 4287, 4288], 's_4_10': [4334], 's_4_11': [4704], 's_4_12': [4498], 's_4_13': [4707], 's_4_14': [2633], 's_4_15': [4409], 's_4_16': [2632], 's_4_17': [2469], 's_4_18': [4722], 's_4_19': [4644], 's_4_20': [2664], 's_4_21': [2649], 's_4_22': [4752], 's_5_2': [2602], 's_5_6': [4465], 's_5_7': [2018], 's_5_10': [4468], 's_5_11': [4464], 's_5_12': [4483], 's_5_13': [2363], 's_5_16': [1823], 's_5_17': [4527], 's_5_18': [1912], 's_5_19': [2033], 's_5_20': [2287], 's_5_22': [2183], 's_6_7': [2075], 's_6_8': [2556], 's_6_9': [2527, 2526], 's_6_10': [2646], 's_6_11': [2511], 's_6_12': [4063], 's_6_14': [4645], 's_6_15': [2125], 's_6_17': [4721], 's_6_19': [2331], 's_6_20': [4061], 's_6_21': [2121], 's_8_2': [2466], 's_8_7': [2001], 's_8_9': [4136], 's_8_10': [2256], 's_8_11': [1881], 's_8_12': [4633], 's_8_14': [4574], 's_8_15': [4693], 's_8_16': [4439], 's_8_17': [2604], 's_8_19': [4089, 4090, 4091, 2301], 's_8_20': [2181], 's_8_21': [4619], 's_8_22': [4134], 's_9_2': [2437], 's_9_7': [4196], 's_9_12': [4363, 2482], 's_9_13': [4407], 's_9_14': [4466], 's_9_15': [2572], 's_9_16': [2407], 's_9_19': [2422], 's_9_20': [4001], 's_9_21': [2302], 's_9_22': [4481], 's_11_2': [4539], 's_11_7': [4435], 's_11_10': [4138], 's_11_12': [4228], 's_11_13': [2362], 's_11_14': [4615], 's_11_15': [4259], 's_11_16': [1853], 's_11_18': [1852, 4179], 's_11_19': [2046], 's_11_22': [4225], 's_12_2': [2438], 's_12_13': [2529], 's_12_14': [2379], 's_12_15': [4273], 's_12_17': [4723], 's_12_18': [4348], 's_12_19': [4153], 's_12_20': [4678], 's_12_21': [4393], 's_12_22': [2258], 's_13_2': [2603], 's_13_10': [4302], 's_13_14': [2544], 's_13_15': [4317], 's_13_16': [1973], 's_13_17': [2184, 2185], 's_13_18': [4692], 's_13_20': [2574], 's_13_21': [4482], 's_13_22': [4497], 's_14_2': [2214], 's_14_10': [2663], 's_14_15': [2005], 's_14_16': [2693], 's_14_17': [2139], 's_14_19': [4690], 's_14_20': [4571], 's_14_21': [2709], 's_15_2': [4467], 's_15_10': [4244], 's_15_16': [2573], 's_15_17': [2424], 's_15_18': [2259], 's_15_20': [2170], 's_15_22': [4782, 2290], 's_17_2': [4646, 2199], 's_17_7': [4751], 's_17_16': [2123], 's_17_18': [4631], 's_17_20': [2409], 's_17_21': [2514], 's_17_22': [2304], 's_18_2': [1777, 1778], 's_18_7': [2017], 's_18_10': [4392], 's_18_16': [1717], 's_18_19': [4269], 's_18_20': [2212], 's_18_21': [4512], 's_18_22': [4284], 's_19_2': [4272], 's_19_7': [4314], 's_19_10': [2406], 's_19_16': [2003], 's_19_20': [2151, 4106], 's_19_21': [4240], 's_19_22': [4060], 's_20_2': [2364], 's_20_7': [4660], 's_20_10': [2197], 's_20_21': [2484], 's_20_22': [4676], 's_21_2': [4408], 's_21_7': [4255], 's_21_22': [4390], 's_22_16': [1793], 's_2_16': [1958], 's_7_16': [2062]}</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0004037558685446009</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.001365575903780963</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>{0: [4183, 4182, 4181, 4180, 1899, 1898, 4525, 1987, 1988], 1: [4630, 4511, 4480, 2094, 2091, 2092, 2093], 's_0_1': [1989], 3: [2032, 4438, 4437, 2226, 2227, 4300, 4301], 's_0_3': [4195], 4: [2617, 2618, 4648, 1854, 4601, 4647, 4600, 4602, 2319], 's_0_4': [4674], 5: [2528, 4453, 4452, 2288, 4449, 4450, 4451], 's_0_5': [1897], 6: [4079, 4078, 4077, 4076, 4105, 2110, 2109, 2108, 2107, 2106], 's_0_6': [2286], 8: [2589, 2588, 2587, 2586, 4119, 4120, 4121, 4122, 4123], 's_0_8': [1986], 9: [2240, 2243, 4333, 4332, 4331, 2242, 2241], 's_0_9': [2377], 11: [2616, 1839, 1838, 1837, 4214, 4213, 4212, 4211, 4210], 's_0_11': [1911], 12: [4258, 4572, 4573, 2496, 2497, 2499, 2498], 's_0_12': [2392], 13: [2350, 2347, 2348, 4540, 4541, 4542, 4543, 2349], 's_0_13': [1913], 14: [2004, 4585, 2138, 4586, 2318, 4589, 4588, 4587], 's_0_14': [4570], 15: [2557, 2558, 4825, 4826, 4827, 2452, 2454, 4513, 2453], 's_0_15': [4198], 17: [2198, 4738, 4736, 4526, 2153, 4737, 2154], 's_0_17': [4735], 18: [2274, 1792, 2273, 2272, 4344, 4345, 4346, 4347], 's_0_18': [2271], 19: [4510, 1944, 2421, 4152, 4151, 4150, 1943, 1941, 1942], 's_0_19': [4720], 20: [4663, 2166, 4662, 4661, 4271, 2167, 2168, 2169], 's_0_20': [4270], 21: [1957, 4604, 4375, 2122, 4376, 4377, 4603, 2394, 2393], 's_0_21': [4405], 22: [1926, 1927, 2229, 2228, 2303, 4496, 4495, 4494, 1928], 's_0_22': [4479], 2: [4555, 2559, 4378, 4554, 2467, 2468, 4556, 4557, 4558], 's_1_2': [2034], 's_1_3': [4166], 's_1_4': [1974], 's_1_6': [2090], 7: [2002, 4315, 4436, 2076, 2079, 2078, 2077], 's_1_7': [4691], 's_1_13': [2048], 's_1_14': [2019], 's_1_15': [4810], 's_1_19': [2063], 's_1_20': [4241], 's_1_21': [4256], 's_1_22': [1883, 1884, 4780, 4781], 's_3_2': [2483], 's_3_5': [2047], 's_3_8': [2031], 's_3_9': [4227], 's_3_11': [2182], 's_3_12': [2333], 's_3_14': [2513], 16: [4424, 4423, 4419, 4420, 4421, 4422], 's_3_16': [2257], 's_3_17': [2213], 's_3_18': [1972], 's_3_19': [4361, 4360], 's_3_20': [2137], 's_3_21': [2378, 4362], 's_3_22': [4299], 's_4_2': [4559], 's_4_7': [2124, 4706], 's_4_8': [4303], 's_4_9': [4617], 10: [4514, 4318, 2600, 2601, 2648, 4286, 2317, 2647, 4287, 4288], 's_4_10': [4334], 's_4_11': [4704], 's_4_12': [4498], 's_4_13': [4707], 's_4_14': [2633], 's_4_15': [4409], 's_4_16': [2632], 's_4_17': [2469], 's_4_18': [4722], 's_4_19': [4644], 's_4_20': [2664], 's_4_21': [2649], 's_4_22': [4752], 's_5_2': [2602], 's_5_6': [4465], 's_5_7': [2018], 's_5_10': [4468], 's_5_11': [4464], 's_5_12': [4483], 's_5_13': [2363], 's_5_16': [1823], 's_5_17': [4527], 's_5_18': [1912], 's_5_19': [2033], 's_5_20': [2287], 's_5_22': [2183], 's_6_7': [2075], 's_6_8': [2556], 's_6_9': [2527, 2526], 's_6_10': [2646], 's_6_11': [2511], 's_6_12': [4063], 's_6_14': [4645], 's_6_15': [2125], 's_6_17': [4721], 's_6_19': [2331], 's_6_20': [4061], 's_6_21': [2121], 's_8_2': [2466], 's_8_7': [2001], 's_8_9': [4136], 's_8_10': [2256], 's_8_11': [1881], 's_8_12': [4633], 's_8_14': [4574], 's_8_15': [4693], 's_8_16': [4439], 's_8_17': [2604], 's_8_19': [4089, 4090, 4091, 2301], 's_8_20': [2181], 's_8_21': [4619], 's_8_22': [4134], 's_9_2': [2437], 's_9_7': [4196], 's_9_12': [4363, 2482], 's_9_13': [4407], 's_9_14': [4466], 's_9_15': [2572], 's_9_16': [2407], 's_9_19': [2422], 's_9_20': [4001], 's_9_21': [2302], 's_9_22': [4481], 's_11_2': [4539], 's_11_7': [4435], 's_11_10': [4138], 's_11_12': [4228], 's_11_13': [2362], 's_11_14': [4615], 's_11_15': [4259], 's_11_16': [1853], 's_11_18': [1852, 4179], 's_11_19': [2046], 's_11_22': [4225], 's_12_2': [2438], 's_12_13': [2529], 's_12_14': [2379], 's_12_15': [4273], 's_12_17': [4723], 's_12_18': [4348], 's_12_19': [4153], 's_12_20': [4678], 's_12_21': [4393], 's_12_22': [2258], 's_13_2': [2603], 's_13_10': [4302], 's_13_14': [2544], 's_13_15': [4317], 's_13_16': [1973], 's_13_17': [2184, 2185], 's_13_18': [4692], 's_13_20': [2574], 's_13_21': [4482], 's_13_22': [4497], 's_14_2': [2214], 's_14_10': [2663], 's_14_15': [2005], 's_14_16': [2693], 's_14_17': [2139], 's_14_19': [4690], 's_14_20': [4571], 's_14_21': [2709], 's_15_2': [4467], 's_15_10': [4244], 's_15_16': [2573], 's_15_17': [2424], 's_15_18': [2259], 's_15_20': [2170], 's_15_22': [4782, 2290], 's_17_2': [4646, 2199], 's_17_7': [4751], 's_17_16': [2123], 's_17_18': [4631], 's_17_20': [2409], 's_17_21': [2514], 's_17_22': [2304], 's_18_2': [1777, 1778], 's_18_7': [2017], 's_18_10': [4392], 's_18_16': [1717], 's_18_19': [4269], 's_18_20': [2212], 's_18_21': [4512], 's_18_22': [4284], 's_19_2': [4272], 's_19_7': [4314], 's_19_10': [2406], 's_19_16': [2003], 's_19_20': [2151, 4106], 's_19_21': [4240], 's_19_22': [4060], 's_20_2': [2364], 's_20_7': [4660], 's_20_10': [2197], 's_20_21': [2484], 's_20_22': [4676], 's_21_2': [4408], 's_21_7': [4255], 's_21_22': [4390], 's_22_16': [1793], 's_2_16': [1958], 's_7_16': [2062]}</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0004037558685446009</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.001365575903780963</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>{0: [5507, 373, 374, 5506], 1: [5565, 5417, 5566, 494, 493], 2: [508, 509], 3: [5461, 314, 5416, 313], 4: [5550, 5551, 418, 419], 6: [553, 554, 5582, 5581, 344], 7: [388, 464, 5386, 463], 9: [643, 5522, 5520, 5521], 10: [163, 5370, 5372, 5371], 12: [5357, 5356, 5355, 178], 13: [478, 103, 5430, 5432, 5431], 14: [5475, 5477, 5476, 224], 15: [5492, 5491, 238, 239], 17: [252, 5642, 5641, 253, 254], 18: [5447, 5445, 5446], 20: [613, 5400, 5402, 5401], 21: [568, 479, 569, 5597], 22: [148, 5312, 5311, 5310], 23: [5656, 5612, 5611, 328, 329], 5: [5462, 524, 523], 8: [5327, 5596, 403, 404], 19: [538, 539], 11: [193, 5537, 5536, 5535, 194], 16: [447, 5657, 448, 449]}</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.04846153846153846</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.04501643355421249</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>{0: [5507, 373, 374, 5506], 1: [5565, 5417, 5566, 494, 493], 2: [508, 509], 3: [5461, 314, 5416, 313], 4: [5550, 5551, 418, 419], 6: [553, 554, 5582, 5581, 344], 7: [388, 464, 5386, 463], 9: [643, 5522, 5520, 5521], 10: [163, 5370, 5372, 5371], 12: [5357, 5356, 5355, 178], 13: [478, 103, 5430, 5432, 5431], 14: [5475, 5477, 5476, 224], 15: [5492, 5491, 238, 239], 17: [252, 5642, 5641, 253, 254], 18: [5447, 5445, 5446], 20: [613, 5400, 5402, 5401], 21: [568, 479, 569, 5597], 22: [148, 5312, 5311, 5310], 23: [5656, 5612, 5611, 328, 329], 5: [5462, 524, 523], 8: [5327, 5596, 403, 404], 19: [538, 539], 11: [193, 5537, 5536, 5535, 194], 16: [447, 5657, 448, 449]}</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0.04846153846153846</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.04501643355421249</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>{0: [3541, 337, 3542, 336, 335, 334, 333, 3661], 1: [3675, 3676, 3677, 727, 726, 725, 3678, 724], 's_0_1': [214], 2: [3647, 3646, 322, 321, 320, 318, 319], 's_0_2': [303], 3: [4202, 3766, 486, 3526, 3527, 483, 485, 484], 's_0_3': [452], 4: [4080, 397, 396, 4083, 4082, 4081], 's_0_4': [3991], 6: [3617, 697, 4128, 696, 695, 694, 693, 3558, 558, 3557], 's_0_6': [3543], 7: [3918, 710, 4038, 4110, 216, 4035, 4036, 4037], 's_0_7': [4051], 9: [3915, 185, 4367, 472, 4127, 471, 186, 4125, 4126], 's_0_9': [4366], 10: [4382, 3586, 453, 457, 456, 454, 455], 's_0_10': [4381], 12: [438, 439, 3933, 620, 3870, 3871, 3872, 3932, 545], 's_0_12': [437], 13: [3481, 363, 364, 365, 4069, 4068, 4067, 4066, 366], 's_0_13': [332], 14: [170, 169, 168, 3600, 800, 799, 798, 3603, 3602, 3601], 's_0_14': [3540], 15: [4305, 770, 532, 4008, 771, 772, 773, 4353, 4352, 4351, 277], 's_0_15': [338, 4426], 17: [637, 636, 3692, 3812, 528, 529, 4113, 4112, 530, 531], 's_0_17': [513], 18: [3962, 288, 3963, 3961, 289, 291, 3765, 290], 's_0_18': [3660, 199], 20: [3975, 3976, 3900, 3901, 350, 4143, 4142, 4141, 351], 's_0_20': [352], 21: [157, 156, 155, 154, 3572, 3571, 3570, 153], 's_0_21': [348], 22: [605, 4005, 4006, 440, 4218, 606, 4217, 441], 's_0_22': [4216], 23: [4335, 4336, 382, 381, 3828, 3827, 3826, 380], 's_0_23': [4201], 's_1_3': [498], 's_1_4': [4098], 5: [663, 3797, 4173, 4172, 577, 576, 618, 3663, 575, 574], 's_1_5': [739], 's_1_7': [3948], 8: [349, 3795, 94, 3840, 3843, 215, 3841, 3842], 's_1_8': [229], 's_1_12': [3662], 's_1_14': [723], 's_1_17': [4338], 19: [682, 754, 681, 3720, 3721, 3722, 3783, 680, 679], 's_1_19': [3679], 's_1_20': [4158], 's_1_21': [648], 's_1_22': [742], 's_1_23': [379], 's_2_4': [4321], 's_2_5': [3648], 's_2_7': [306], 's_2_8': [3930], 's_2_9': [4397, 4396], 11: [4246, 4247, 588, 589, 4248, 667, 3767, 664, 665, 666], 's_2_11': [559], 's_2_12': [3631], 's_2_13': [317], 's_2_14': [3645], 's_2_15': [4290], 16: [243, 712, 4233, 3780, 244, 245, 246, 4231, 562, 4232], 's_2_16': [4260], 's_2_17': [409], 's_2_20': [305], 's_2_21': [3555], 's_2_23': [4021], 's_3_4': [4022], 's_3_5': [3992], 's_3_6': [3512], 's_3_7': [4111], 's_3_8': [3857], 's_3_9': [487], 's_3_11': [4203], 's_3_13': [257], 's_3_14': [3525], 's_3_16': [547], 's_3_17': [4187], 's_3_18': [287], 's_3_20': [500], 's_3_22': [4007], 's_3_23': [499], 's_4_5': [591], 's_4_6': [861], 's_4_7': [231], 's_4_9': [4261], 's_4_10': [4306], 's_4_12': [815], 's_4_13': [830], 's_4_14': [785], 's_4_15': [398], 's_4_17': [846], 's_4_18': [275], 's_4_21': [171], 's_4_22': [4171], 's_6_5': [3708], 's_6_7': [4023], 's_6_9': [4368], 's_6_10': [3587], 's_6_11': [3452], 's_6_12': [543, 544], 's_6_13': [3556], 's_6_14': [768], 's_6_15': [4293], 's_6_16': [4277, 4278], 's_6_17': [3693], 's_6_20': [741], 's_6_21': [633, 3618], 's_6_22': [711], 's_6_23': [709], 's_7_8': [95], 's_7_9': [4155], 's_7_11': [3978], 's_7_13': [546], 's_7_15': [3874, 814], 's_7_20': [260], 's_7_21': [4095], 's_7_22': [425], 's_7_23': [740], 's_9_5': [4157], 's_9_8': [3810], 's_9_10': [4427], 's_9_11': [261], 's_9_13': [4065], 's_9_14': [4020], 's_9_15': [607], 's_9_16': [517], 's_9_17': [561], 's_9_19': [184], 's_9_20': [200], 's_9_21': [4050], 's_9_23': [426, 427], 's_10_5': [3782], 's_10_8': [3736], 's_10_11': [502], 's_10_12': [3931], 's_10_13': [3751], 's_10_15': [548], 's_10_16': [4322], 's_10_17': [3887], 's_10_19': [423], 's_10_20': [4096], 's_10_21': [378], 's_10_22': [4052], 's_10_23': [3916], 's_12_5': [3796], 's_12_8': [50], 's_12_13': [3616], 's_12_15': [4024, 860], 's_12_16': [259], 's_12_17': [3917], 's_12_18': [3811], 's_12_19': [4097], 's_12_20': [140], 's_12_21': [3885], 's_12_22': [125], 's_12_23': [274], 's_13_5': [876, 4174], 's_13_8': [3781], 's_13_11': [367], 's_13_14': [3511, 228], 's_13_15': [4054], 's_13_16': [3856], 's_13_17': [516], 's_13_19': [4053], 's_13_20': [3977, 470], 's_13_21': [3480, 152], 's_13_22': [411], 's_13_23': [3946], 's_14_5': [3633], 's_14_8': [93], 's_14_11': [3768], 's_14_15': [4039], 's_14_16': [3750], 's_14_17': [801], 's_14_18': [3585], 's_14_19': [3694], 's_14_21': [3690], 's_14_22': [3990], 's_14_23': [784], 's_15_5': [757], 's_15_11': [4249], 's_15_16': [4308], 's_15_17': [3813], 's_15_18': [292], 's_15_19': [769], 's_15_20': [756], 's_15_21': [172], 's_15_23': [202], 's_17_5': [3632], 's_17_11': [590], 's_17_16': [4398], 's_17_18': [515], 's_17_19': [4188], 's_17_20': [786], 's_17_22': [621], 's_17_23': [619], 's_18_8': [3691], 's_18_11': [276], 's_18_16': [4275], 's_18_19': [3735], 's_18_21': [273], 's_18_22': [4186], 's_18_23': [4156], 's_20_5': [501], 's_20_8': [424], 's_20_16': [4140], 's_20_21': [3960], 's_20_23': [395], 's_21_5': [573, 3513], 's_21_8': [3855], 's_21_11': [4245], 's_21_16': [3630], 's_21_19': [603], 's_21_23': [4320], 's_22_5': [4262, 651], 's_22_11': [412], 's_22_19': [3947], 's_23_5': [3902, 649], 's_23_8': [469], 's_23_11': [514], 's_23_16': [232], 's_23_19': [304], 's_5_8': [3858], 's_5_11': [604], 's_5_16': [4307], 's_5_19': [3664], 's_8_16': [3825], 's_8_19': [634], 's_19_11': [3798], 's_19_16': [258], 's_11_16': [4383]}</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0005702127659574468</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.001546291874270374</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>{0: [3541, 337, 3542, 336, 335, 334, 333, 3661], 1: [3675, 3676, 3677, 727, 726, 725, 3678, 724], 's_0_1': [214], 2: [3647, 3646, 322, 321, 320, 318, 319], 's_0_2': [303], 3: [4202, 3766, 486, 3526, 3527, 483, 485, 484], 's_0_3': [452], 4: [4080, 397, 396, 4083, 4082, 4081], 's_0_4': [3991], 6: [3617, 697, 4128, 696, 695, 694, 693, 3558, 558, 3557], 's_0_6': [3543], 7: [3918, 710, 4038, 4110, 216, 4035, 4036, 4037], 's_0_7': [4051], 9: [3915, 185, 4367, 472, 4127, 471, 186, 4125, 4126], 's_0_9': [4366], 10: [4382, 3586, 453, 457, 456, 454, 455], 's_0_10': [4381], 12: [438, 439, 3933, 620, 3870, 3871, 3872, 3932, 545], 's_0_12': [437], 13: [3481, 363, 364, 365, 4069, 4068, 4067, 4066, 366], 's_0_13': [332], 14: [170, 169, 168, 3600, 800, 799, 798, 3603, 3602, 3601], 's_0_14': [3540], 15: [4305, 770, 532, 4008, 771, 772, 773, 4353, 4352, 4351, 277], 's_0_15': [338, 4426], 17: [637, 636, 3692, 3812, 528, 529, 4113, 4112, 530, 531], 's_0_17': [513], 18: [3962, 288, 3963, 3961, 289, 291, 3765, 290], 's_0_18': [3660, 199], 20: [3975, 3976, 3900, 3901, 350, 4143, 4142, 4141, 351], 's_0_20': [352], 21: [157, 156, 155, 154, 3572, 3571, 3570, 153], 's_0_21': [348], 22: [605, 4005, 4006, 440, 4218, 606, 4217, 441], 's_0_22': [4216], 23: [4335, 4336, 382, 381, 3828, 3827, 3826, 380], 's_0_23': [4201], 's_1_3': [498], 's_1_4': [4098], 5: [663, 3797, 4173, 4172, 577, 576, 618, 3663, 575, 574], 's_1_5': [739], 's_1_7': [3948], 8: [349, 3795, 94, 3840, 3843, 215, 3841, 3842], 's_1_8': [229], 's_1_12': [3662], 's_1_14': [723], 's_1_17': [4338], 19: [682, 754, 681, 3720, 3721, 3722, 3783, 680, 679], 's_1_19': [3679], 's_1_20': [4158], 's_1_21': [648], 's_1_22': [742], 's_1_23': [379], 's_2_4': [4321], 's_2_5': [3648], 's_2_7': [306], 's_2_8': [3930], 's_2_9': [4397, 4396], 11: [4246, 4247, 588, 589, 4248, 667, 3767, 664, 665, 666], 's_2_11': [559], 's_2_12': [3631], 's_2_13': [317], 's_2_14': [3645], 's_2_15': [4290], 16: [243, 712, 4233, 3780, 244, 245, 246, 4231, 562, 4232], 's_2_16': [4260], 's_2_17': [409], 's_2_20': [305], 's_2_21': [3555], 's_2_23': [4021], 's_3_4': [4022], 's_3_5': [3992], 's_3_6': [3512], 's_3_7': [4111], 's_3_8': [3857], 's_3_9': [487], 's_3_11': [4203], 's_3_13': [257], 's_3_14': [3525], 's_3_16': [547], 's_3_17': [4187], 's_3_18': [287], 's_3_20': [500], 's_3_22': [4007], 's_3_23': [499], 's_4_5': [591], 's_4_6': [861], 's_4_7': [231], 's_4_9': [4261], 's_4_10': [4306], 's_4_12': [815], 's_4_13': [830], 's_4_14': [785], 's_4_15': [398], 's_4_17': [846], 's_4_18': [275], 's_4_21': [171], 's_4_22': [4171], 's_6_5': [3708], 's_6_7': [4023], 's_6_9': [4368], 's_6_10': [3587], 's_6_11': [3452], 's_6_12': [543, 544], 's_6_13': [3556], 's_6_14': [768], 's_6_15': [4293], 's_6_16': [4277, 4278], 's_6_17': [3693], 's_6_20': [741], 's_6_21': [633, 3618], 's_6_22': [711], 's_6_23': [709], 's_7_8': [95], 's_7_9': [4155], 's_7_11': [3978], 's_7_13': [546], 's_7_15': [3874, 814], 's_7_20': [260], 's_7_21': [4095], 's_7_22': [425], 's_7_23': [740], 's_9_5': [4157], 's_9_8': [3810], 's_9_10': [4427], 's_9_11': [261], 's_9_13': [4065], 's_9_14': [4020], 's_9_15': [607], 's_9_16': [517], 's_9_17': [561], 's_9_19': [184], 's_9_20': [200], 's_9_21': [4050], 's_9_23': [426, 427], 's_10_5': [3782], 's_10_8': [3736], 's_10_11': [502], 's_10_12': [3931], 's_10_13': [3751], 's_10_15': [548], 's_10_16': [4322], 's_10_17': [3887], 's_10_19': [423], 's_10_20': [4096], 's_10_21': [378], 's_10_22': [4052], 's_10_23': [3916], 's_12_5': [3796], 's_12_8': [50], 's_12_13': [3616], 's_12_15': [4024, 860], 's_12_16': [259], 's_12_17': [3917], 's_12_18': [3811], 's_12_19': [4097], 's_12_20': [140], 's_12_21': [3885], 's_12_22': [125], 's_12_23': [274], 's_13_5': [876, 4174], 's_13_8': [3781], 's_13_11': [367], 's_13_14': [3511, 228], 's_13_15': [4054], 's_13_16': [3856], 's_13_17': [516], 's_13_19': [4053], 's_13_20': [3977, 470], 's_13_21': [3480, 152], 's_13_22': [411], 's_13_23': [3946], 's_14_5': [3633], 's_14_8': [93], 's_14_11': [3768], 's_14_15': [4039], 's_14_16': [3750], 's_14_17': [801], 's_14_18': [3585], 's_14_19': [3694], 's_14_21': [3690], 's_14_22': [3990], 's_14_23': [784], 's_15_5': [757], 's_15_11': [4249], 's_15_16': [4308], 's_15_17': [3813], 's_15_18': [292], 's_15_19': [769], 's_15_20': [756], 's_15_21': [172], 's_15_23': [202], 's_17_5': [3632], 's_17_11': [590], 's_17_16': [4398], 's_17_18': [515], 's_17_19': [4188], 's_17_20': [786], 's_17_22': [621], 's_17_23': [619], 's_18_8': [3691], 's_18_11': [276], 's_18_16': [4275], 's_18_19': [3735], 's_18_21': [273], 's_18_22': [4186], 's_18_23': [4156], 's_20_5': [501], 's_20_8': [424], 's_20_16': [4140], 's_20_21': [3960], 's_20_23': [395], 's_21_5': [573, 3513], 's_21_8': [3855], 's_21_11': [4245], 's_21_16': [3630], 's_21_19': [603], 's_21_23': [4320], 's_22_5': [4262, 651], 's_22_11': [412], 's_22_19': [3947], 's_23_5': [3902, 649], 's_23_8': [469], 's_23_11': [514], 's_23_16': [232], 's_23_19': [304], 's_5_8': [3858], 's_5_11': [604], 's_5_16': [4307], 's_5_19': [3664], 's_8_16': [3825], 's_8_19': [634], 's_19_11': [3798], 's_19_16': [258], 's_11_16': [4383]}</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0005702127659574468</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.001546291874270374</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>{0: [4855, 2185, 4856], 1: [4660, 2229, 4662, 2184, 4661], 2: [4798, 4796, 4797], 3: [2155, 4646, 2154], 4: [2199, 4752, 2200], 5: [2079, 4932, 4931, 2080], 8: [4857, 4557, 2350, 2349], 9: [2110, 2109, 4631, 4630], 10: [2424, 4736, 4737], 12: [2215, 4587, 2214], 13: [2485, 4781, 4782, 4783], 15: [4871, 2380, 4872], 16: [4841, 4842], 17: [4617, 2258, 2260, 2259], 18: [4827, 4825, 4826], 19: [4721, 2395, 4722], 20: [2364, 4886, 4887, 2365], 22: [2303, 2305, 2304], 23: [4812, 2140, 4811], 24: [2273, 4707, 2275, 2274], 6: [4572, 2094, 2093, 4571], 7: [4751, 4676, 2170, 2169], 11: [2320, 2319, 4601, 4602], 14: [2410, 2409, 4691, 4692], 21: [2288, 2290, 2289]}</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.04063604240282685</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.04236329134516551</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>{0: [4855, 2185, 4856], 1: [4660, 2229, 4662, 2184, 4661], 2: [4798, 4796, 4797], 3: [2155, 4646, 2154], 4: [2199, 4752, 2200], 5: [2079, 4932, 4931, 2080], 8: [4857, 4557, 2350, 2349], 9: [2110, 2109, 4631, 4630], 10: [2424, 4736, 4737], 12: [2215, 4587, 2214], 13: [2485, 4781, 4782, 4783], 15: [4871, 2380, 4872], 16: [4841, 4842], 17: [4617, 2258, 2260, 2259], 18: [4827, 4825, 4826], 19: [4721, 2395, 4722], 20: [2364, 4886, 4887, 2365], 22: [2303, 2305, 2304], 23: [4812, 2140, 4811], 24: [2273, 4707, 2275, 2274], 6: [4572, 2094, 2093, 4571], 7: [4751, 4676, 2170, 2169], 11: [2320, 2319, 4601, 4602], 14: [2410, 2409, 4691, 4692], 21: [2288, 2290, 2289]}</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0.04063604240282685</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.04236329134516551</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>{0: [5058, 836, 5178, 5175, 5176, 5177, 654, 655, 656], 1: [4996, 4997, 971, 5044, 5043, 686, 5190, 5191, 5192, 687], 's_0_1': [177], 2: [4860, 4968, 625, 549, 550, 4861, 4862], 's_0_2': [4667], 3: [733, 4534, 4728, 732, 731, 4531, 4532, 4533, 729, 730], 's_0_3': [5148], 4: [698, 699, 700, 701, 702, 703, 5417, 627, 5313, 598], 's_0_4': [5133], 5: [819, 5089, 4774, 896, 893, 894, 895], 's_0_5': [4773], 8: [4624, 924, 925, 760, 4801, 505, 536, 535, 4879, 4878, 4800, 4877], 's_0_8': [640], 9: [4771, 248, 431, 250, 251, 5104, 326, 249, 5103, 5102, 5101], 's_0_9': [281], 10: [4639, 4638, 4637, 5357, 5356, 5355, 208, 4636, 207, 206, 205, 204, 4635], 's_0_10': [192], 12: [565, 568, 566, 5208, 5207, 5087, 567], 's_0_12': [626], 13: [4549, 4548, 4472, 668, 669, 5236, 5237, 582, 581, 4938, 670], 's_0_13': [4713], 15: [608, 609, 279, 4696, 985, 984, 4699, 4697, 4698], 's_0_15': [4683], 16: [522, 521, 458, 459, 520, 4788, 4787], 's_0_16': [4817], 17: [4849, 340, 595, 4848, 475, 4847, 4846], 's_0_17': [835], 18: [4459, 4458, 4457, 4456, 237, 236, 235, 4756, 354, 4441, 353], 's_0_18': [5160], 19: [759, 4653, 430, 429, 4650, 4652, 4651], 's_0_19': [445, 446], 20: [5416, 404, 4486, 5086, 403, 4546, 398, 399, 402, 401, 400], 's_0_20': [296], 22: [4925, 940, 941, 492, 265, 4921, 386, 387, 5161, 5162, 5163, 821, 5059], 's_0_22': [611], 23: [223, 219, 222, 221, 4744, 4743, 4742, 4741, 220], 's_0_23': [4758], 24: [776, 5119, 5221, 777, 5222, 775, 774, 773, 4353, 5223, 4352], 's_0_24': [342], 's_1_3': [5298], 's_1_4': [642], 's_1_5': [5029], 6: [4922, 956, 551, 5014, 761, 5013, 5010, 5011, 5012], 's_1_6': [552], 7: [4411, 4412, 4804, 969, 968, 4519, 491, 4518, 490, 489, 488, 4517], 's_1_7': [970], 's_1_8': [926], 11: [5073, 807, 295, 293, 806, 294, 805, 804, 4501, 4502, 4503, 803], 's_1_11': [5268], 's_1_12': [5088], 's_1_13': [447], 14: [174, 4620, 852, 851, 850, 849, 4621, 4622, 864, 4623], 's_1_14': [5074], 's_1_17': [4953, 610], 's_1_18': [4995], 's_1_20': [4981], 21: [897, 881, 882, 5284, 5283, 5282, 308, 309, 310, 311, 5071, 372, 462, 5206], 's_1_21': [5179], 's_1_22': [641], 's_1_24': [327], 's_2_6': [746], 's_2_7': [4547], 's_2_8': [4907], 's_2_9': [671], 's_2_10': [190], 's_2_11': [548], 's_2_13': [4863], 's_2_14': [159, 160], 's_2_17': [596], 's_2_19': [4967], 's_2_20': [4562], 's_2_22': [371, 370], 's_2_23': [580], 's_3_4': [4818], 's_3_5': [4563, 4564], 's_3_7': [683], 's_3_9': [5118], 's_3_10': [638], 's_3_11': [533], 's_3_12': [747], 's_3_13': [4608], 's_3_14': [4833], 's_3_15': [579], 's_3_16': [473], 's_3_17': [594], 's_3_18': [848], 's_3_19': [384], 's_3_21': [657, 5328], 's_3_22': [5028], 's_3_23': [4530], 's_3_24': [4908], 's_4_6': [4998], 's_4_7': [713], 's_4_8': [715], 's_4_9': [716], 's_4_10': [688], 's_4_11': [5314], 's_4_12': [5312], 's_4_13': [4473], 's_4_14': [4803], 's_4_18': [4442, 4443], 's_4_19': [4668], 's_4_20': [463, 5507], 's_4_21': [718, 717], 's_4_22': [493], 's_4_23': [224, 5461, 5462, 523], 's_4_24': [4488], 's_5_6': [986], 's_5_7': [4504], 's_5_9': [866], 's_5_10': [4609, 818], 's_5_11': [789], 's_5_13': [878], 's_5_14': [4909], 's_5_15': [4669], 's_5_18': [4444], 's_5_19': [4594], 's_5_21': [880], 's_5_22': [942], 's_5_23': [834], 's_5_24': [4414], 's_8_6': [5042], 's_8_11': [4789], 's_8_12': [5117], 's_8_13': [5057], 's_8_14': [534], 's_8_15': [4864], 's_8_16': [4802], 's_8_17': [820], 's_8_18': [355], 's_8_19': [264], 's_8_20': [4816], 's_8_21': [325], 's_8_22': [4729], 's_8_24': [4759], 's_9_6': [506], 's_9_10': [5070], 's_9_11': [4500], 's_9_12': [4772], 's_9_13': [432], 's_9_14': [4725], 's_9_15': [4894, 911, 912], 's_9_17': [341], 's_9_18': [5055], 's_9_20': [5041], 's_9_21': [5146], 's_9_22': [4890], 's_9_24': [927], 's_10_6': [191], 's_10_7': [983], 's_10_11': [5358], 's_10_12': [553], 's_10_13': [939], 's_10_14': [263], 's_10_15': [4695], 's_10_18': [5265, 238], 's_10_19': [189], 's_10_21': [5116, 5115], 's_10_23': [5400, 5401, 5402, 583], 's_10_24': [282], 's_12_6': [762], 's_12_7': [4952], 's_12_11': [792], 's_12_13': [612], 's_12_14': [5193], 's_12_16': [5252], 's_12_17': [4892], 's_12_20': [5147], 's_12_21': [5209], 's_12_22': [867], 's_13_6': [5027], 's_13_7': [578, 4428], 's_13_14': [4593, 744], 's_13_15': [954], 's_13_16': [5072], 's_13_17': [4832], 's_13_18': [5235], 's_13_19': [4937], 's_13_20': [4471], 's_13_21': [312], 's_13_22': [597], 's_13_23': [684], 's_13_24': [507], 's_15_11': [4711], 's_15_14': [4684], 's_15_16': [444], 's_15_17': [4712], 's_15_18': [607], 's_15_19': [714], 's_15_20': [4681], 's_15_21': [324], 's_15_22': [4999], 's_15_23': [504], 's_15_24': [4940, 4939], 's_16_7': [4577], 's_16_17': [415], 's_16_19': [4666], 's_16_20': [5297], 's_16_21': [537], 's_16_22': [5267], 's_16_24': [457], 's_17_7': [4727], 's_17_11': [4906], 's_17_14': [865], 's_17_22': [4845], 's_17_23': [4936], 's_17_24': [791, 790], 's_18_6': [5025], 's_18_7': [383], 's_18_11': [4606], 's_18_14': [4755], 's_18_22': [4951], 's_18_23': [4576], 's_18_24': [652], 's_19_6': [4891, 416], 's_19_7': [758], 's_19_11': [369, 368], 's_19_14': [234], 's_19_20': [4876], 's_19_21': [4665], 's_19_23': [339], 's_19_24': [4579], 's_20_6': [5026], 's_20_11': [4485], 's_20_14': [443], 's_20_21': [5341], 's_20_22': [4830, 4831], 's_20_23': [4545], 's_20_24': [4351], 's_22_6': [4970], 's_22_7': [4760], 's_22_11': [280], 's_22_14': [5134], 's_22_23': [4905], 's_22_24': [672], 's_23_7': [218], 's_23_14': [4680], 's_23_21': [4591], 's_23_24': [5220], 's_24_6': [4924], 's_24_7': [593], 's_24_14': [5149], 's_24_21': [778], 's_6_7': [4819, 955], 's_6_11': [4969], 's_6_21': [4954], 's_7_11': [413], 's_7_14': [4714], 's_7_21': [4426], 's_11_14': [653], 's_11_21': [4966], 's_14_21': [5269]}</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0.001551587301587301</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.002472190374071911</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>{0: [5058, 836, 5178, 5175, 5176, 5177, 654, 655, 656], 1: [4996, 4997, 971, 5044, 5043, 686, 5190, 5191, 5192, 687], 's_0_1': [177], 2: [4860, 4968, 625, 549, 550, 4861, 4862], 's_0_2': [4667], 3: [733, 4534, 4728, 732, 731, 4531, 4532, 4533, 729, 730], 's_0_3': [5148], 4: [698, 699, 700, 701, 702, 703, 5417, 627, 5313, 598], 's_0_4': [5133], 5: [819, 5089, 4774, 896, 893, 894, 895], 's_0_5': [4773], 8: [4624, 924, 925, 760, 4801, 505, 536, 535, 4879, 4878, 4800, 4877], 's_0_8': [640], 9: [4771, 248, 431, 250, 251, 5104, 326, 249, 5103, 5102, 5101], 's_0_9': [281], 10: [4639, 4638, 4637, 5357, 5356, 5355, 208, 4636, 207, 206, 205, 204, 4635], 's_0_10': [192], 12: [565, 568, 566, 5208, 5207, 5087, 567], 's_0_12': [626], 13: [4549, 4548, 4472, 668, 669, 5236, 5237, 582, 581, 4938, 670], 's_0_13': [4713], 15: [608, 609, 279, 4696, 985, 984, 4699, 4697, 4698], 's_0_15': [4683], 16: [522, 521, 458, 459, 520, 4788, 4787], 's_0_16': [4817], 17: [4849, 340, 595, 4848, 475, 4847, 4846], 's_0_17': [835], 18: [4459, 4458, 4457, 4456, 237, 236, 235, 4756, 354, 4441, 353], 's_0_18': [5160], 19: [759, 4653, 430, 429, 4650, 4652, 4651], 's_0_19': [445, 446], 20: [5416, 404, 4486, 5086, 403, 4546, 398, 399, 402, 401, 400], 's_0_20': [296], 22: [4925, 940, 941, 492, 265, 4921, 386, 387, 5161, 5162, 5163, 821, 5059], 's_0_22': [611], 23: [223, 219, 222, 221, 4744, 4743, 4742, 4741, 220], 's_0_23': [4758], 24: [776, 5119, 5221, 777, 5222, 775, 774, 773, 4353, 5223, 4352], 's_0_24': [342], 's_1_3': [5298], 's_1_4': [642], 's_1_5': [5029], 6: [4922, 956, 551, 5014, 761, 5013, 5010, 5011, 5012], 's_1_6': [552], 7: [4411, 4412, 4804, 969, 968, 4519, 491, 4518, 490, 489, 488, 4517], 's_1_7': [970], 's_1_8': [926], 11: [5073, 807, 295, 293, 806, 294, 805, 804, 4501, 4502, 4503, 803], 's_1_11': [5268], 's_1_12': [5088], 's_1_13': [447], 14: [174, 4620, 852, 851, 850, 849, 4621, 4622, 864, 4623], 's_1_14': [5074], 's_1_17': [4953, 610], 's_1_18': [4995], 's_1_20': [4981], 21: [897, 881, 882, 5284, 5283, 5282, 308, 309, 310, 311, 5071, 372, 462, 5206], 's_1_21': [5179], 's_1_22': [641], 's_1_24': [327], 's_2_6': [746], 's_2_7': [4547], 's_2_8': [4907], 's_2_9': [671], 's_2_10': [190], 's_2_11': [548], 's_2_13': [4863], 's_2_14': [159, 160], 's_2_17': [596], 's_2_19': [4967], 's_2_20': [4562], 's_2_22': [371, 370], 's_2_23': [580], 's_3_4': [4818], 's_3_5': [4563, 4564], 's_3_7': [683], 's_3_9': [5118], 's_3_10': [638], 's_3_11': [533], 's_3_12': [747], 's_3_13': [4608], 's_3_14': [4833], 's_3_15': [579], 's_3_16': [473], 's_3_17': [594], 's_3_18': [848], 's_3_19': [384], 's_3_21': [657, 5328], 's_3_22': [5028], 's_3_23': [4530], 's_3_24': [4908], 's_4_6': [4998], 's_4_7': [713], 's_4_8': [715], 's_4_9': [716], 's_4_10': [688], 's_4_11': [5314], 's_4_12': [5312], 's_4_13': [4473], 's_4_14': [4803], 's_4_18': [4442, 4443], 's_4_19': [4668], 's_4_20': [463, 5507], 's_4_21': [718, 717], 's_4_22': [493], 's_4_23': [224, 5461, 5462, 523], 's_4_24': [4488], 's_5_6': [986], 's_5_7': [4504], 's_5_9': [866], 's_5_10': [4609, 818], 's_5_11': [789], 's_5_13': [878], 's_5_14': [4909], 's_5_15': [4669], 's_5_18': [4444], 's_5_19': [4594], 's_5_21': [880], 's_5_22': [942], 's_5_23': [834], 's_5_24': [4414], 's_8_6': [5042], 's_8_11': [4789], 's_8_12': [5117], 's_8_13': [5057], 's_8_14': [534], 's_8_15': [4864], 's_8_16': [4802], 's_8_17': [820], 's_8_18': [355], 's_8_19': [264], 's_8_20': [4816], 's_8_21': [325], 's_8_22': [4729], 's_8_24': [4759], 's_9_6': [506], 's_9_10': [5070], 's_9_11': [4500], 's_9_12': [4772], 's_9_13': [432], 's_9_14': [4725], 's_9_15': [4894, 911, 912], 's_9_17': [341], 's_9_18': [5055], 's_9_20': [5041], 's_9_21': [5146], 's_9_22': [4890], 's_9_24': [927], 's_10_6': [191], 's_10_7': [983], 's_10_11': [5358], 's_10_12': [553], 's_10_13': [939], 's_10_14': [263], 's_10_15': [4695], 's_10_18': [5265, 238], 's_10_19': [189], 's_10_21': [5116, 5115], 's_10_23': [5400, 5401, 5402, 583], 's_10_24': [282], 's_12_6': [762], 's_12_7': [4952], 's_12_11': [792], 's_12_13': [612], 's_12_14': [5193], 's_12_16': [5252], 's_12_17': [4892], 's_12_20': [5147], 's_12_21': [5209], 's_12_22': [867], 's_13_6': [5027], 's_13_7': [578, 4428], 's_13_14': [4593, 744], 's_13_15': [954], 's_13_16': [5072], 's_13_17': [4832], 's_13_18': [5235], 's_13_19': [4937], 's_13_20': [4471], 's_13_21': [312], 's_13_22': [597], 's_13_23': [684], 's_13_24': [507], 's_15_11': [4711], 's_15_14': [4684], 's_15_16': [444], 's_15_17': [4712], 's_15_18': [607], 's_15_19': [714], 's_15_20': [4681], 's_15_21': [324], 's_15_22': [4999], 's_15_23': [504], 's_15_24': [4940, 4939], 's_16_7': [4577], 's_16_17': [415], 's_16_19': [4666], 's_16_20': [5297], 's_16_21': [537], 's_16_22': [5267], 's_16_24': [457], 's_17_7': [4727], 's_17_11': [4906], 's_17_14': [865], 's_17_22': [4845], 's_17_23': [4936], 's_17_24': [791, 790], 's_18_6': [5025], 's_18_7': [383], 's_18_11': [4606], 's_18_14': [4755], 's_18_22': [4951], 's_18_23': [4576], 's_18_24': [652], 's_19_6': [4891, 416], 's_19_7': [758], 's_19_11': [369, 368], 's_19_14': [234], 's_19_20': [4876], 's_19_21': [4665], 's_19_23': [339], 's_19_24': [4579], 's_20_6': [5026], 's_20_11': [4485], 's_20_14': [443], 's_20_21': [5341], 's_20_22': [4830, 4831], 's_20_23': [4545], 's_20_24': [4351], 's_22_6': [4970], 's_22_7': [4760], 's_22_11': [280], 's_22_14': [5134], 's_22_23': [4905], 's_22_24': [672], 's_23_7': [218], 's_23_14': [4680], 's_23_21': [4591], 's_23_24': [5220], 's_24_6': [4924], 's_24_7': [593], 's_24_14': [5149], 's_24_21': [778], 's_6_7': [4819, 955], 's_6_11': [4969], 's_6_21': [4954], 's_7_11': [413], 's_7_14': [4714], 's_7_21': [4426], 's_11_14': [653], 's_11_21': [4966], 's_14_21': [5269]}</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0.001551587301587301</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.002472190374071911</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>{0: [4463, 1778, 4465, 4464], 1: [1718, 4329, 1717], 2: [4404, 4405, 1973, 1972], 3: [4554, 4629, 1868], 4: [2048, 4478, 4479, 4480], 5: [1777, 4314, 1913, 1912], 6: [1867, 1943, 4434, 4435], 7: [1733, 1732, 4345, 4344], 8: [4704, 1837, 1838, 1839], 9: [4508, 4509, 4510], 10: [4374, 1809, 1808], 11: [1763, 4255, 1762, 4254], 12: [4269, 1793, 1792], 13: [2019, 2063, 4539, 4540], 14: [1957, 1958, 4584, 4585], 15: [1674, 1883, 4569, 4570], 16: [4359, 4360, 2018], 18: [4448, 1898, 4449, 1897], 19: [4390, 1673, 4389], 20: [4419, 4420, 1988], 21: [4524, 4525], 24: [4283, 4284, 1928, 1927], 17: [1822, 1824, 1823], 22: [4239, 1748, 1747], 23: [1854, 1853, 1852], 25: [4493, 4495, 4494]}</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.1544348508634223</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.06338284301542529</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>{0: [4463, 1778, 4465, 4464], 1: [1718, 4329, 1717], 2: [4404, 4405, 1973, 1972], 3: [4554, 4629, 1868], 4: [2048, 4478, 4479, 4480], 5: [1777, 4314, 1913, 1912], 6: [1867, 1943, 4434, 4435], 7: [1733, 1732, 4345, 4344], 8: [4704, 1837, 1838, 1839], 9: [4508, 4509, 4510], 10: [4374, 1809, 1808], 11: [1763, 4255, 1762, 4254], 12: [4269, 1793, 1792], 13: [2019, 2063, 4539, 4540], 14: [1957, 1958, 4584, 4585], 15: [1674, 1883, 4569, 4570], 16: [4359, 4360, 2018], 18: [4448, 1898, 4449, 1897], 19: [4390, 1673, 4389], 20: [4419, 4420, 1988], 21: [4524, 4525], 24: [4283, 4284, 1928, 1927], 17: [1822, 1824, 1823], 22: [4239, 1748, 1747], 23: [1854, 1853, 1852], 25: [4493, 4495, 4494]}</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0.1544348508634223</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.06338284301542529</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>{0: [1753, 5348, 5347, 5346, 5345, 1122, 1123, 1124, 5435, 5434, 868, 867, 5163], 1: [4908, 760, 1183, 1184, 761, 762, 763, 764, 5556, 5555, 5554, 5553], 's_0_1': [5388], 2: [1602, 1347, 5208, 1797, 5214, 5213, 5212, 5209, 5210, 5211], 's_0_2': [5361], 3: [5166, 1243, 1572, 1244, 1287, 5167, 5271, 5273, 1242, 5270], 's_0_3': [1138], 4: [5498, 1106, 4940, 5497, 4970, 941, 942, 5496, 5495, 959, 958, 943], 's_0_4': [5164], 5: [5419, 972, 5619, 973, 5618, 1694, 5617, 5616, 5615, 1033, 1034, 5510], 's_0_5': [5254], 6: [4959, 4958, 4957, 5449, 988, 4956, 987, 986, 4955, 985], 's_0_6': [1121], 7: [5359, 1301, 5360, 1302, 5242, 5241, 1182], 's_0_7': [5358], 8: [5513, 5077, 1482, 5450, 5514, 5452, 1391, 5451, 1483, 1484], 's_0_8': [1393], 9: [4924, 4926, 4927, 4925, 1451, 5017, 5018, 5454, 1724, 1723, 1722, 1721], 's_0_9': [5484], 10: [1857, 5493, 5494, 1858, 1859, 5574, 5573, 5572, 5571, 5570, 5569, 929], 's_0_10': [5439], 11: [5105, 1632, 5106, 5107, 1829, 1828, 1827, 5109, 5108], 's_0_11': [5469], 12: [5523, 912, 913, 5529, 5528, 5527, 5526, 5525, 5524, 914], 's_0_12': [5134], 13: [1259, 1255, 1256, 1257, 5378, 5377, 5376, 1558, 1258], 's_0_13': [1678], 14: [5119, 1094, 1093, 5120, 5181, 5180, 1092], 's_0_14': [5255], 15: [1661, 1363, 1662, 1663, 5406, 5409, 5408, 1273, 5407], 's_0_15': [1573], 16: [747, 5283, 748, 749, 5598, 5604, 5603, 5602, 5599, 5601, 5600], 's_0_16': [853, 854], 18: [5063, 820, 4909, 4910, 1709, 1708, 1707, 1706, 1705, 4913, 4912, 4911], 's_0_18': [5363], 19: [5032, 1420, 1421, 1003, 5420, 5421, 1422, 1424, 1423, 5422], 's_0_19': [5362], 20: [643, 642, 792, 4894, 5225, 672, 926, 927, 5224, 5223], 's_0_20': [5162], 21: [1318, 1229, 1228, 1227, 5226, 1571, 4987, 4986, 1316, 1317], 's_0_21': [5136], 24: [5045, 1046, 1619, 1618, 1617, 1616, 4999, 5000, 1150, 4971, 4972, 4973], 's_0_24': [5075], 's_1_4': [1409], 's_1_5': [1379], 's_1_8': [5512, 1304], 's_1_10': [869], 's_1_12': [5509], 's_1_13': [4774, 4775, 4776], 's_1_14': [5104], 's_1_15': [1364], 's_1_16': [1199], 17: [5060, 5481, 5303, 5302, 5301, 1165, 1166, 1169, 5466, 1168, 1167], 's_1_17': [5720], 's_1_18': [819, 4818], 's_1_19': [1004], 's_1_20': [5253], 's_1_21': [5646], 22: [835, 836, 837, 5314, 5319, 5318, 1453, 5317, 5316, 5315], 's_1_22': [5284], 23: [1376, 1286, 5478, 5479, 883, 882, 1346, 881, 5014, 5015, 5016], 's_1_23': [5149], 25: [5331, 1049, 5330, 5028, 5029, 1016, 1048, 1017], 's_1_25': [776], 's_2_5': [1032], 's_2_6': [1781, 1782], 's_2_7': [1197], 's_2_8': [5288], 's_2_9': [1798], 's_2_10': [5199], 's_2_11': [5289], 's_2_12': [1918, 1917], 's_2_14': [1212], 's_2_15': [5228], 's_2_17': [1587], 's_2_18': [1601], 's_2_19': [5287], 's_2_20': [732], 's_2_21': [1272], 's_2_22': [5193], 's_2_23': [897], 's_2_24': [5258], 's_3_4': [5135, 1062], 's_3_5': [5631], 's_3_7': [1437], 's_3_8': [1392, 5272], 's_3_10': [5274], 's_3_12': [5269], 's_3_13': [1633], 's_3_14': [1331], 's_3_15': [5391], 's_3_17': [5151], 's_3_18': [1556], 's_3_21': [5196], 's_3_22': [1542], 's_3_23': [5137, 1407], 's_3_25': [1047], 's_4_5': [1079], 's_4_6': [1015], 's_4_8': [1589], 's_4_9': [1060], 's_4_10': [1289], 's_4_11': [5499, 1784, 5559], 's_4_12': [5584], 's_4_14': [1031], 's_4_15': [1378], 's_4_16': [1319], 's_4_17': [5511], 's_4_18': [1091], 's_4_19': [1333], 's_4_20': [1107], 's_4_21': [1214], 's_4_22': [5074], 's_4_23': [4969], 's_4_24': [4985], 's_4_25': [5300], 's_5_6': [5389], 's_5_7': [5344], 's_5_8': [1754], 's_5_9': [5649], 's_5_10': [1514], 's_5_12': [1574], 's_5_13': [1693], 's_5_14': [971], 's_5_16': [1019], 's_5_17': [5630], 's_5_18': [5664], 's_5_19': [5632], 's_5_21': [5194, 5195], 's_5_23': [5464, 5465], 's_5_24': [5633], 's_5_25': [5660], 's_6_8': [1436], 's_6_9': [1345], 's_6_10': [944], 's_6_11': [1826], 's_6_12': [5239], 's_6_14': [1076], 's_6_15': [1796, 5124], 's_6_17': [5480], 's_6_18': [1690], 's_6_19': [4897, 1466], 's_6_20': [5448], 's_6_21': [1330], 's_6_22': [4954], 's_6_23': [5404, 898], 's_6_24': [1360], 's_6_25': [5285], 's_7_8': [1497], 's_7_9': [4942], 's_7_11': [1467], 's_7_12': [928], 's_7_13': [5076], 's_7_18': [5243], 's_7_19': [5122], 's_7_21': [4896], 's_7_22': [1152], 's_7_23': [5152], 's_7_24': [5046], 's_7_25': [1063], 's_8_9': [1511], 's_8_10': [1664], 's_8_11': [5138], 's_8_12': [1634], 's_8_13': [5468], 's_8_14': [5182], 's_8_15': [1438], 's_8_16': [1469], 's_8_17': [1139], 's_8_18': [5453], 's_8_19': [5542], 's_8_23': [5092], 's_8_24': [5333], 's_8_25': [1078], 's_9_10': [5259], 's_9_11': [1736], 's_9_12': [1873], 's_9_13': [1738], 's_9_15': [5139], 's_9_16': [1814], 's_9_17': [4941], 's_9_18': [5708], 's_9_19': [1435], 's_9_20': [880], 's_9_21': [1271], 's_9_22': [1737], 's_9_23': [911], 's_10_11': [5379], 's_10_13': [1559], 's_10_14': [1109], 's_10_15': [5424], 's_10_16': [1889], 's_10_17': [1154], 's_10_19': [5557], 's_10_20': [5508], 's_10_21': [5079, 5078], 's_10_23': [628], 's_10_25': [5539], 's_11_12': [5544], 's_11_15': [5154], 's_11_16': [5589], 's_11_17': [5304], 's_11_18': [5183], 's_11_19': [1586], 's_11_21': [1406], 's_11_22': [1452], 's_11_23': [1196], 's_11_24': [5153], 's_12_13': [1528], 's_12_14': [1153, 5390], 's_12_15': [5541], 's_12_16': [5538], 's_12_17': [1198], 's_12_18': [5543], 's_12_19': [1018], 's_12_20': [5299], 's_12_23': [734], 's_12_24': [1604], 's_12_25': [5374], 's_13_14': [5121], 's_13_15': [5423], 's_13_16': [1768, 1769], 's_13_17': [5661], 's_13_18': [5438], 's_13_21': [1241], 's_13_22': [1648], 's_13_23': [5001], 's_13_24': [1603], 's_13_25': [1288], 's_14_16': [5118], 's_14_17': [5540], 's_14_19': [1108], 's_14_20': [777], 's_14_21': [5375], 's_14_22': [821], 's_14_23': [896], 's_14_24': [1001], 's_14_25': [806], 's_15_17': [5482], 's_15_18': [5334], 's_15_19': [5437], 's_15_21': [5093], 's_15_22': [1813], 's_15_24': [5168], 's_16_17': [5585], 's_16_18': [5558, 1649], 's_16_20': [687], 's_16_21': [5586], 's_16_23': [779], 's_16_24': [5588], 's_18_19': [1541], 's_18_20': [4939], 's_18_21': [4898, 1540], 's_18_22': [4864], 's_18_23': [5062], 's_19_22': [5392], 's_19_24': [4852, 1555], 's_19_25': [1002], 's_20_17': [5059], 's_20_23': [793], 's_20_24': [956], 's_20_25': [5179], 's_21_17': [5286], 's_21_23': [5031], 's_21_24': [4988], 's_24_17': [4850], 's_24_22': [4998], 's_24_23': [4984], 's_24_25': [5090], 's_17_22': [1332], 's_22_25': [5329], 's_23_25': [5013]}</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.001172794117647059</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.002057638182934141</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>{0: [1753, 5348, 5347, 5346, 5345, 1122, 1123, 1124, 5435, 5434, 868, 867, 5163], 1: [4908, 760, 1183, 1184, 761, 762, 763, 764, 5556, 5555, 5554, 5553], 's_0_1': [5388], 2: [1602, 1347, 5208, 1797, 5214, 5213, 5212, 5209, 5210, 5211], 's_0_2': [5361], 3: [5166, 1243, 1572, 1244, 1287, 5167, 5271, 5273, 1242, 5270], 's_0_3': [1138], 4: [5498, 1106, 4940, 5497, 4970, 941, 942, 5496, 5495, 959, 958, 943], 's_0_4': [5164], 5: [5419, 972, 5619, 973, 5618, 1694, 5617, 5616, 5615, 1033, 1034, 5510], 's_0_5': [5254], 6: [4959, 4958, 4957, 5449, 988, 4956, 987, 986, 4955, 985], 's_0_6': [1121], 7: [5359, 1301, 5360, 1302, 5242, 5241, 1182], 's_0_7': [5358], 8: [5513, 5077, 1482, 5450, 5514, 5452, 1391, 5451, 1483, 1484], 's_0_8': [1393], 9: [4924, 4926, 4927, 4925, 1451, 5017, 5018, 5454, 1724, 1723, 1722, 1721], 's_0_9': [5484], 10: [1857, 5493, 5494, 1858, 1859, 5574, 5573, 5572, 5571, 5570, 5569, 929], 's_0_10': [5439], 11: [5105, 1632, 5106, 5107, 1829, 1828, 1827, 5109, 5108], 's_0_11': [5469], 12: [5523, 912, 913, 5529, 5528, 5527, 5526, 5525, 5524, 914], 's_0_12': [5134], 13: [1259, 1255, 1256, 1257, 5378, 5377, 5376, 1558, 1258], 's_0_13': [1678], 14: [5119, 1094, 1093, 5120, 5181, 5180, 1092], 's_0_14': [5255], 15: [1661, 1363, 1662, 1663, 5406, 5409, 5408, 1273, 5407], 's_0_15': [1573], 16: [747, 5283, 748, 749, 5598, 5604, 5603, 5602, 5599, 5601, 5600], 's_0_16': [853, 854], 18: [5063, 820, 4909, 4910, 1709, 1708, 1707, 1706, 1705, 4913, 4912, 4911], 's_0_18': [5363], 19: [5032, 1420, 1421, 1003, 5420, 5421, 1422, 1424, 1423, 5422], 's_0_19': [5362], 20: [643, 642, 792, 4894, 5225, 672, 926, 927, 5224, 5223], 's_0_20': [5162], 21: [1318, 1229, 1228, 1227, 5226, 1571, 4987, 4986, 1316, 1317], 's_0_21': [5136], 24: [5045, 1046, 1619, 1618, 1617, 1616, 4999, 5000, 1150, 4971, 4972, 4973], 's_0_24': [5075], 's_1_4': [1409], 's_1_5': [1379], 's_1_8': [5512, 1304], 's_1_10': [869], 's_1_12': [5509], 's_1_13': [4774, 4775, 4776], 's_1_14': [5104], 's_1_15': [1364], 's_1_16': [1199], 17: [5060, 5481, 5303, 5302, 5301, 1165, 1166, 1169, 5466, 1168, 1167], 's_1_17': [5720], 's_1_18': [819, 4818], 's_1_19': [1004], 's_1_20': [5253], 's_1_21': [5646], 22: [835, 836, 837, 5314, 5319, 5318, 1453, 5317, 5316, 5315], 's_1_22': [5284], 23: [1376, 1286, 5478, 5479, 883, 882, 1346, 881, 5014, 5015, 5016], 's_1_23': [5149], 25: [5331, 1049, 5330, 5028, 5029, 1016, 1048, 1017], 's_1_25': [776], 's_2_5': [1032], 's_2_6': [1781, 1782], 's_2_7': [1197], 's_2_8': [5288], 's_2_9': [1798], 's_2_10': [5199], 's_2_11': [5289], 's_2_12': [1918, 1917], 's_2_14': [1212], 's_2_15': [5228], 's_2_17': [1587], 's_2_18': [1601], 's_2_19': [5287], 's_2_20': [732], 's_2_21': [1272], 's_2_22': [5193], 's_2_23': [897], 's_2_24': [5258], 's_3_4': [5135, 1062], 's_3_5': [5631], 's_3_7': [1437], 's_3_8': [1392, 5272], 's_3_10': [5274], 's_3_12': [5269], 's_3_13': [1633], 's_3_14': [1331], 's_3_15': [5391], 's_3_17': [5151], 's_3_18': [1556], 's_3_21': [5196], 's_3_22': [1542], 's_3_23': [5137, 1407], 's_3_25': [1047], 's_4_5': [1079], 's_4_6': [1015], 's_4_8': [1589], 's_4_9': [1060], 's_4_10': [1289], 's_4_11': [5499, 1784, 5559], 's_4_12': [5584], 's_4_14': [1031], 's_4_15': [1378], 's_4_16': [1319], 's_4_17': [5511], 's_4_18': [1091], 's_4_19': [1333], 's_4_20': [1107], 's_4_21': [1214], 's_4_22': [5074], 's_4_23': [4969], 's_4_24': [4985], 's_4_25': [5300], 's_5_6': [5389], 's_5_7': [5344], 's_5_8': [1754], 's_5_9': [5649], 's_5_10': [1514], 's_5_12': [1574], 's_5_13': [1693], 's_5_14': [971], 's_5_16': [1019], 's_5_17': [5630], 's_5_18': [5664], 's_5_19': [5632], 's_5_21': [5194, 5195], 's_5_23': [5464, 5465], 's_5_24': [5633], 's_5_25': [5660], 's_6_8': [1436], 's_6_9': [1345], 's_6_10': [944], 's_6_11': [1826], 's_6_12': [5239], 's_6_14': [1076], 's_6_15': [1796, 5124], 's_6_17': [5480], 's_6_18': [1690], 's_6_19': [4897, 1466], 's_6_20': [5448], 's_6_21': [1330], 's_6_22': [4954], 's_6_23': [5404, 898], 's_6_24': [1360], 's_6_25': [5285], 's_7_8': [1497], 's_7_9': [4942], 's_7_11': [1467], 's_7_12': [928], 's_7_13': [5076], 's_7_18': [5243], 's_7_19': [5122], 's_7_21': [4896], 's_7_22': [1152], 's_7_23': [5152], 's_7_24': [5046], 's_7_25': [1063], 's_8_9': [1511], 's_8_10': [1664], 's_8_11': [5138], 's_8_12': [1634], 's_8_13': [5468], 's_8_14': [5182], 's_8_15': [1438], 's_8_16': [1469], 's_8_17': [1139], 's_8_18': [5453], 's_8_19': [5542], 's_8_23': [5092], 's_8_24': [5333], 's_8_25': [1078], 's_9_10': [5259], 's_9_11': [1736], 's_9_12': [1873], 's_9_13': [1738], 's_9_15': [5139], 's_9_16': [1814], 's_9_17': [4941], 's_9_18': [5708], 's_9_19': [1435], 's_9_20': [880], 's_9_21': [1271], 's_9_22': [1737], 's_9_23': [911], 's_10_11': [5379], 's_10_13': [1559], 's_10_14': [1109], 's_10_15': [5424], 's_10_16': [1889], 's_10_17': [1154], 's_10_19': [5557], 's_10_20': [5508], 's_10_21': [5079, 5078], 's_10_23': [628], 's_10_25': [5539], 's_11_12': [5544], 's_11_15': [5154], 's_11_16': [5589], 's_11_17': [5304], 's_11_18': [5183], 's_11_19': [1586], 's_11_21': [1406], 's_11_22': [1452], 's_11_23': [1196], 's_11_24': [5153], 's_12_13': [1528], 's_12_14': [1153, 5390], 's_12_15': [5541], 's_12_16': [5538], 's_12_17': [1198], 's_12_18': [5543], 's_12_19': [1018], 's_12_20': [5299], 's_12_23': [734], 's_12_24': [1604], 's_12_25': [5374], 's_13_14': [5121], 's_13_15': [5423], 's_13_16': [1768, 1769], 's_13_17': [5661], 's_13_18': [5438], 's_13_21': [1241], 's_13_22': [1648], 's_13_23': [5001], 's_13_24': [1603], 's_13_25': [1288], 's_14_16': [5118], 's_14_17': [5540], 's_14_19': [1108], 's_14_20': [777], 's_14_21': [5375], 's_14_22': [821], 's_14_23': [896], 's_14_24': [1001], 's_14_25': [806], 's_15_17': [5482], 's_15_18': [5334], 's_15_19': [5437], 's_15_21': [5093], 's_15_22': [1813], 's_15_24': [5168], 's_16_17': [5585], 's_16_18': [5558, 1649], 's_16_20': [687], 's_16_21': [5586], 's_16_23': [779], 's_16_24': [5588], 's_18_19': [1541], 's_18_20': [4939], 's_18_21': [4898, 1540], 's_18_22': [4864], 's_18_23': [5062], 's_19_22': [5392], 's_19_24': [4852, 1555], 's_19_25': [1002], 's_20_17': [5059], 's_20_23': [793], 's_20_24': [956], 's_20_25': [5179], 's_21_17': [5286], 's_21_23': [5031], 's_21_24': [4988], 's_24_17': [4850], 's_24_22': [4998], 's_24_23': [4984], 's_24_25': [5090], 's_17_22': [1332], 's_22_25': [5329], 's_23_25': [5013]}</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0.001172794117647059</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.002057638182934141</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>{0: [5329, 5328], 1: [612, 5494, 613, 5493], 2: [659, 657, 658], 3: [5417, 748, 5419, 5418], 4: [5522, 853, 854, 5523], 5: [5223, 643, 642], 7: [5374, 913, 5254, 5252, 5253], 10: [523, 5357, 822, 5358], 11: [583, 5284, 5283], 12: [5193, 808, 807], 13: [717, 719, 5463, 718], 15: [5207, 5208, 793, 792], 17: [628, 5133, 626, 5192, 627], 19: [704, 702, 5448, 703], 20: [5387, 898, 5389, 5388], 21: [823, 5478, 883, 5479], 22: [778, 5433, 779], 23: [5372, 868, 5373], 24: [5267, 5299, 598, 5298], 26: [5313, 5314], 6: [5583, 732, 733, 734], 8: [794, 763, 764, 5598], 9: [5404, 5402, 5403], 14: [5268, 689, 688, 687], 16: [5282, 568, 569, 5538, 5537], 18: [672, 673, 674, 5628], 25: [837, 5508, 838, 5509]}</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0.1427182105519086</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0484850854734313</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>{0: [5329, 5328], 1: [612, 5494, 613, 5493], 2: [659, 657, 658], 3: [5417, 748, 5419, 5418], 4: [5522, 853, 854, 5523], 5: [5223, 643, 642], 7: [5374, 913, 5254, 5252, 5253], 10: [523, 5357, 822, 5358], 11: [583, 5284, 5283], 12: [5193, 808, 807], 13: [717, 719, 5463, 718], 15: [5207, 5208, 793, 792], 17: [628, 5133, 626, 5192, 627], 19: [704, 702, 5448, 703], 20: [5387, 898, 5389, 5388], 21: [823, 5478, 883, 5479], 22: [778, 5433, 779], 23: [5372, 868, 5373], 24: [5267, 5299, 598, 5298], 26: [5313, 5314], 6: [5583, 732, 733, 734], 8: [794, 763, 764, 5598], 9: [5404, 5402, 5403], 14: [5268, 689, 688, 687], 16: [5282, 568, 569, 5538, 5537], 18: [672, 673, 674, 5628], 25: [837, 5508, 838, 5509]}</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0.1427182105519086</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.0484850854734313</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>{0: [4314, 1103, 4505, 1779, 1778, 1837, 1838, 4509, 4506, 4507, 4508], 1: [1614, 1613, 1612, 4343, 4731, 1194, 1193, 4342, 4340, 4341, 1192], 's_0_1': [1102], 2: [1989, 1988, 4626, 1358, 1357, 1356, 4192, 4193, 4194, 4195, 1987], 's_0_2': [4179], 3: [1222, 4401, 4402, 4405, 4778, 4779, 1825, 1824, 4403, 1823, 4404], 's_0_3': [1133], 4: [4416, 4417, 4415, 4659, 1644, 1643, 1403, 4658, 4418], 's_0_4': [1043], 5: [3953, 1730, 4356, 4357, 4358, 1731, 1732, 4359, 1808, 1809], 's_0_5': [4674], 7: [1343, 1733, 4478, 4475, 4476, 4477], 's_0_7': [1148], 10: [4240, 1821, 1340, 1341, 4191, 1326, 4237, 4238, 4239, 1822], 's_0_10': [1942], 11: [1209, 1208, 1205, 1206, 1207, 4329, 4328, 4327, 4326], 's_0_11': [1777], 12: [1745, 4432, 4433, 4434, 1746, 1747, 4719, 1749, 1748], 's_0_12': [1794], 13: [1629, 4764, 2032, 4462, 4463, 4643, 1764, 1762, 1763, 4524, 4525, 2033], 's_0_13': [4464], 15: [1595, 4056, 4090, 1598, 1597, 4057, 4058, 4089, 4088, 1596], 's_0_15': [1836], 17: [1703, 4538, 1911, 1912, 1913, 4703, 4570, 4569, 4807, 4808, 1660, 1659], 's_0_17': [4644], 19: [4523, 1673, 1373, 3951, 1370, 1371, 1372, 4373, 4372], 's_0_19': [1628], 20: [4060, 1868, 1867, 1866, 1865, 1418, 1417, 1416, 4102, 4103, 4104], 's_0_20': [4284], 21: [1535, 1975, 1974, 1973, 4117, 1536, 4148, 4420, 4419, 1687, 1686], 's_0_21': [4510], 22: [4178, 1270, 1269, 4445, 1313, 4177, 4176, 4446, 1267, 1268], 's_0_22': [4460], 23: [1539, 1161, 1162, 4386, 1538, 1537, 4388, 4387], 's_0_23': [4370], 24: [4836, 4837, 4838, 4839, 1840, 1839, 4493, 1718, 4554], 's_0_24': [1780], 26: [4550, 1658, 1657, 1656, 4013, 4012, 4011, 1175, 1058, 1057, 1056, 4085], 's_0_26': [998], 's_1_2': [1642], 's_1_3': [1252], 's_1_4': [997], 's_1_5': [4313], 6: [4522, 3937, 4702, 3877, 1434, 1433, 1432, 1430, 1431], 's_1_6': [4701], 's_1_7': [4551], 8: [4236, 2003, 2002, 4075, 4074, 4073, 1191, 1190, 2001, 3966, 3967, 1520], 's_1_8': [1132], 9: [1807, 1510, 1509, 1508, 3878, 1504, 1505, 4254, 4253, 1506, 1507], 's_1_9': [4613], 's_1_10': [1477], 's_1_11': [1282], 's_1_13': [4283], 14: [4134, 4207, 1476, 4042, 1671, 4133, 4132, 1461, 1465, 1464, 1463, 1462], 's_1_14': [4732], 's_1_15': [1599], 16: [1956, 1957, 1958, 4746, 4747, 1959, 4750, 4748, 4749], 's_1_16': [1329], 's_1_17': [1615], 18: [1583, 4492, 4491, 3983, 3982, 1355, 4101, 1236, 1237, 1239, 1238], 's_1_18': [4566], 's_1_19': [1672], 's_1_20': [1611], 's_1_22': [4596], 's_1_23': [4325], 's_1_24': [1300], 's_1_26': [4295], 's_2_3': [4390], 's_2_6': [4537], 's_2_7': [1328], 's_2_9': [1701], 's_2_11': [4625], 's_2_13': [2018, 2017], 's_2_14': [4222], 's_2_15': [1791], 's_2_16': [4555], 's_2_17': [4180], 's_2_18': [1386], 's_2_19': [4567], 's_2_20': [1926], 's_2_21': [4690], 's_2_22': [4281], 's_2_23': [4627], 25: [4312, 4794, 3999, 3998, 1550, 1551, 4792, 4793, 1554, 4795, 1553, 1552], 's_2_25': [1359], 's_3_4': [1177], 's_3_6': [1524], 's_3_8': [4280], 's_3_10': [1927], 's_3_11': [4251], 's_3_13': [1719], 's_3_14': [4777], 's_3_16': [1675], 's_3_17': [1570], 's_3_18': [1582], 's_3_19': [1567], 's_3_21': [4780], 's_3_23': [4310], 's_3_25': [1795], 's_3_26': [4400], 's_4_5': [1522], 's_4_6': [1404], 's_4_12': [1342], 's_4_13': [4461], 's_4_14': [1448], 's_4_15': [4568], 's_4_17': [4628], 's_4_18': [4431], 's_4_19': [4582], 's_4_20': [1869], 's_4_21': [4660], 's_4_22': [1253], 's_4_23': [4688], 's_4_25': [1914], 's_4_26': [1028], 's_5_6': [3938], 's_5_7': [4479], 's_5_9': [1716], 's_5_10': [4164], 's_5_11': [4344], 's_5_13': [4704], 's_5_14': [1670], 's_5_15': [4118], 's_5_17': [4629], 's_5_18': [1610], 's_5_19': [4448], 's_5_20': [1715], 's_5_22': [1298], 's_5_23': [4355], 's_5_24': [4539], 's_5_25': [1760], 's_5_26': [1655], 's_7_6': [4597], 's_7_9': [1523], 's_7_11': [1223], 's_7_12': [1388], 's_7_13': [1734], 's_7_17': [1568], 's_7_18': [4521], 's_7_19': [4641], 's_7_22': [1088], 's_7_23': [1118], 's_7_25': [1344], 's_7_26': [1163, 4535, 4536], 's_10_6': [1339], 's_10_8': [1176], 's_10_9': [4255], 's_10_11': [1297], 's_10_12': [4059], 's_10_14': [1881], 's_10_15': [1251], 's_10_16': [1972], 's_10_17': [4269], 's_10_18': [4146], 's_10_19': [4266], 's_10_21': [4149], 's_10_25': [1492], 's_11_6': [3876, 3891], 's_11_8': [4026], 's_11_9': [1792], 's_11_12': [1717], 's_11_14': [4041], 's_11_15': [1221], 's_11_16': [1224], 's_11_18': [4100], 's_11_19': [4371], 's_11_22': [4611], 's_11_23': [4130], 's_11_25': [1315, 4716], 's_12_9': [4224], 's_12_13': [4614], 's_12_14': [4029], 's_12_15': [3923], 's_12_16': [1810], 's_12_17': [4584], 's_12_19': [4374], 's_12_20': [3969], 's_12_21': [4720], 's_12_22': [1327], 's_12_23': [4734, 4733], 's_12_24': [4689], 's_12_25': [1884], 's_13_6': [4642], 's_13_8': [4450], 's_13_9': [4447], 's_13_15': [2031], 's_13_16': [4345], 's_13_17': [1688], 's_13_18': [4583], 's_13_20': [1761], 's_13_21': [4421], 's_13_24': [1765], 's_13_26': [4298], 's_15_6': [4087], 's_15_8': [4071], 's_15_9': [3893], 's_15_14': [4163], 's_15_16': [4105], 's_15_17': [1986, 4165], 's_15_18': [1281], 's_15_19': [1325], 's_15_20': [1941], 's_15_21': [1446], 's_15_22': [1266], 's_15_23': [1160], 's_15_24': [4553], 's_15_25': [1641], 's_15_26': [1116], 's_17_6': [1435], 's_17_14': [1450], 's_17_16': [4615], 's_17_18': [1584], 's_17_19': [1674], 's_17_21': [1943], 's_17_23': [4718], 's_17_24': [1630], 's_17_26': [4210, 4209], 's_19_6': [1310], 's_19_8': [1280], 's_19_9': [4252], 's_19_20': [4147], 's_19_21': [1702], 's_19_22': [4296], 's_19_26': [1250], 's_20_6': [1415], 's_20_8': [4030], 's_20_9': [1806], 's_20_16': [1419], 's_20_18': [3984], 's_20_21': [4600], 's_20_22': [1447, 4282], 's_20_23': [4297], 's_20_24': [4585], 's_20_25': [4014], 's_20_26': [1491], 's_21_6': [4267], 's_21_8': [4465], 's_21_9': [4223], 's_21_16': [4735], 's_21_18': [3968], 's_21_22': [1521], 's_21_23': [4115, 4116], 's_21_25': [1960], 's_21_26': [4389], 's_22_6': [4612, 1314], 's_22_8': [1566], 's_22_9': [1627], 's_22_14': [1312], 's_22_16': [1285], 's_22_18': [4671], 's_22_23': [1147], 's_22_24': [1255, 4881], 's_22_25': [4791], 's_22_26': [4175], 's_23_8': [4265], 's_23_9': [4672], 's_23_14': [4206], 's_23_18': [1283], 's_23_25': [4598], 's_24_9': [1525], 's_24_14': [4884, 4883, 4882], 's_24_16': [1645], 's_24_18': [1240], 's_24_25': [1555], 's_24_26': [4835, 1119, 1120], 's_26_6': [1400], 's_26_8': [1220], 's_26_14': [1385], 's_26_18': [1235], 's_6_8': [1295], 's_6_9': [3907], 's_6_14': [4687], 's_6_16': [1389], 's_6_18': [1490], 's_6_25': [3952], 's_8_9': [1519], 's_8_14': [4043], 's_8_16': [4150], 's_8_18': [1460], 's_8_25': [4000], 's_9_14': [4717], 's_9_16': [4763], 's_9_18': [1640], 's_9_25': [1549], 's_14_16': [4762], 's_14_18': [3997], 's_14_25': [1626], 's_16_18': [1254], 's_16_25': [1480], 's_18_25': [1565]}</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0007655172413793103</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.001597843374137735</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>{0: [4314, 1103, 4505, 1779, 1778, 1837, 1838, 4509, 4506, 4507, 4508], 1: [1614, 1613, 1612, 4343, 4731, 1194, 1193, 4342, 4340, 4341, 1192], 's_0_1': [1102], 2: [1989, 1988, 4626, 1358, 1357, 1356, 4192, 4193, 4194, 4195, 1987], 's_0_2': [4179], 3: [1222, 4401, 4402, 4405, 4778, 4779, 1825, 1824, 4403, 1823, 4404], 's_0_3': [1133], 4: [4416, 4417, 4415, 4659, 1644, 1643, 1403, 4658, 4418], 's_0_4': [1043], 5: [3953, 1730, 4356, 4357, 4358, 1731, 1732, 4359, 1808, 1809], 's_0_5': [4674], 7: [1343, 1733, 4478, 4475, 4476, 4477], 's_0_7': [1148], 10: [4240, 1821, 1340, 1341, 4191, 1326, 4237, 4238, 4239, 1822], 's_0_10': [1942], 11: [1209, 1208, 1205, 1206, 1207, 4329, 4328, 4327, 4326], 's_0_11': [1777], 12: [1745, 4432, 4433, 4434, 1746, 1747, 4719, 1749, 1748], 's_0_12': [1794], 13: [1629, 4764, 2032, 4462, 4463, 4643, 1764, 1762, 1763, 4524, 4525, 2033], 's_0_13': [4464], 15: [1595, 4056, 4090, 1598, 1597, 4057, 4058, 4089, 4088, 1596], 's_0_15': [1836], 17: [1703, 4538, 1911, 1912, 1913, 4703, 4570, 4569, 4807, 4808, 1660, 1659], 's_0_17': [4644], 19: [4523, 1673, 1373, 3951, 1370, 1371, 1372, 4373, 4372], 's_0_19': [1628], 20: [4060, 1868, 1867, 1866, 1865, 1418, 1417, 1416, 4102, 4103, 4104], 's_0_20': [4284], 21: [1535, 1975, 1974, 1973, 4117, 1536, 4148, 4420, 4419, 1687, 1686], 's_0_21': [4510], 22: [4178, 1270, 1269, 4445, 1313, 4177, 4176, 4446, 1267, 1268], 's_0_22': [4460], 23: [1539, 1161, 1162, 4386, 1538, 1537, 4388, 4387], 's_0_23': [4370], 24: [4836, 4837, 4838, 4839, 1840, 1839, 4493, 1718, 4554], 's_0_24': [1780], 26: [4550, 1658, 1657, 1656, 4013, 4012, 4011, 1175, 1058, 1057, 1056, 4085], 's_0_26': [998], 's_1_2': [1642], 's_1_3': [1252], 's_1_4': [997], 's_1_5': [4313], 6: [4522, 3937, 4702, 3877, 1434, 1433, 1432, 1430, 1431], 's_1_6': [4701], 's_1_7': [4551], 8: [4236, 2003, 2002, 4075, 4074, 4073, 1191, 1190, 2001, 3966, 3967, 1520], 's_1_8': [1132], 9: [1807, 1510, 1509, 1508, 3878, 1504, 1505, 4254, 4253, 1506, 1507], 's_1_9': [4613], 's_1_10': [1477], 's_1_11': [1282], 's_1_13': [4283], 14: [4134, 4207, 1476, 4042, 1671, 4133, 4132, 1461, 1465, 1464, 1463, 1462], 's_1_14': [4732], 's_1_15': [1599], 16: [1956, 1957, 1958, 4746, 4747, 1959, 4750, 4748, 4749], 's_1_16': [1329], 's_1_17': [1615], 18: [1583, 4492, 4491, 3983, 3982, 1355, 4101, 1236, 1237, 1239, 1238], 's_1_18': [4566], 's_1_19': [1672], 's_1_20': [1611], 's_1_22': [4596], 's_1_23': [4325], 's_1_24': [1300], 's_1_26': [4295], 's_2_3': [4390], 's_2_6': [4537], 's_2_7': [1328], 's_2_9': [1701], 's_2_11': [4625], 's_2_13': [2018, 2017], 's_2_14': [4222], 's_2_15': [1791], 's_2_16': [4555], 's_2_17': [4180], 's_2_18': [1386], 's_2_19': [4567], 's_2_20': [1926], 's_2_21': [4690], 's_2_22': [4281], 's_2_23': [4627], 25: [4312, 4794, 3999, 3998, 1550, 1551, 4792, 4793, 1554, 4795, 1553, 1552], 's_2_25': [1359], 's_3_4': [1177], 's_3_6': [1524], 's_3_8': [4280], 's_3_10': [1927], 's_3_11': [4251], 's_3_13': [1719], 's_3_14': [4777], 's_3_16': [1675], 's_3_17': [1570], 's_3_18': [1582], 's_3_19': [1567], 's_3_21': [4780], 's_3_23': [4310], 's_3_25': [1795], 's_3_26': [4400], 's_4_5': [1522], 's_4_6': [1404], 's_4_12': [1342], 's_4_13': [4461], 's_4_14': [1448], 's_4_15': [4568], 's_4_17': [4628], 's_4_18': [4431], 's_4_19': [4582], 's_4_20': [1869], 's_4_21': [4660], 's_4_22': [1253], 's_4_23': [4688], 's_4_25': [1914], 's_4_26': [1028], 's_5_6': [3938], 's_5_7': [4479], 's_5_9': [1716], 's_5_10': [4164], 's_5_11': [4344], 's_5_13': [4704], 's_5_14': [1670], 's_5_15': [4118], 's_5_17': [4629], 's_5_18': [1610], 's_5_19': [4448], 's_5_20': [1715], 's_5_22': [1298], 's_5_23': [4355], 's_5_24': [4539], 's_5_25': [1760], 's_5_26': [1655], 's_7_6': [4597], 's_7_9': [1523], 's_7_11': [1223], 's_7_12': [1388], 's_7_13': [1734], 's_7_17': [1568], 's_7_18': [4521], 's_7_19': [4641], 's_7_22': [1088], 's_7_23': [1118], 's_7_25': [1344], 's_7_26': [1163, 4535, 4536], 's_10_6': [1339], 's_10_8': [1176], 's_10_9': [4255], 's_10_11': [1297], 's_10_12': [4059], 's_10_14': [1881], 's_10_15': [1251], 's_10_16': [1972], 's_10_17': [4269], 's_10_18': [4146], 's_10_19': [4266], 's_10_21': [4149], 's_10_25': [1492], 's_11_6': [3876, 3891], 's_11_8': [4026], 's_11_9': [1792], 's_11_12': [1717], 's_11_14': [4041], 's_11_15': [1221], 's_11_16': [1224], 's_11_18': [4100], 's_11_19': [4371], 's_11_22': [4611], 's_11_23': [4130], 's_11_25': [1315, 4716], 's_12_9': [4224], 's_12_13': [4614], 's_12_14': [4029], 's_12_15': [3923], 's_12_16': [1810], 's_12_17': [4584], 's_12_19': [4374], 's_12_20': [3969], 's_12_21': [4720], 's_12_22': [1327], 's_12_23': [4734, 4733], 's_12_24': [4689], 's_12_25': [1884], 's_13_6': [4642], 's_13_8': [4450], 's_13_9': [4447], 's_13_15': [2031], 's_13_16': [4345], 's_13_17': [1688], 's_13_18': [4583], 's_13_20': [1761], 's_13_21': [4421], 's_13_24': [1765], 's_13_26': [4298], 's_15_6': [4087], 's_15_8': [4071], 's_15_9': [3893], 's_15_14': [4163], 's_15_16': [4105], 's_15_17': [1986, 4165], 's_15_18': [1281], 's_15_19': [1325], 's_15_20': [1941], 's_15_21': [1446], 's_15_22': [1266], 's_15_23': [1160], 's_15_24': [4553], 's_15_25': [1641], 's_15_26': [1116], 's_17_6': [1435], 's_17_14': [1450], 's_17_16': [4615], 's_17_18': [1584], 's_17_19': [1674], 's_17_21': [1943], 's_17_23': [4718], 's_17_24': [1630], 's_17_26': [4210, 4209], 's_19_6': [1310], 's_19_8': [1280], 's_19_9': [4252], 's_19_20': [4147], 's_19_21': [1702], 's_19_22': [4296], 's_19_26': [1250], 's_20_6': [1415], 's_20_8': [4030], 's_20_9': [1806], 's_20_16': [1419], 's_20_18': [3984], 's_20_21': [4600], 's_20_22': [1447, 4282], 's_20_23': [4297], 's_20_24': [4585], 's_20_25': [4014], 's_20_26': [1491], 's_21_6': [4267], 's_21_8': [4465], 's_21_9': [4223], 's_21_16': [4735], 's_21_18': [3968], 's_21_22': [1521], 's_21_23': [4115, 4116], 's_21_25': [1960], 's_21_26': [4389], 's_22_6': [4612, 1314], 's_22_8': [1566], 's_22_9': [1627], 's_22_14': [1312], 's_22_16': [1285], 's_22_18': [4671], 's_22_23': [1147], 's_22_24': [1255, 4881], 's_22_25': [4791], 's_22_26': [4175], 's_23_8': [4265], 's_23_9': [4672], 's_23_14': [4206], 's_23_18': [1283], 's_23_25': [4598], 's_24_9': [1525], 's_24_14': [4884, 4883, 4882], 's_24_16': [1645], 's_24_18': [1240], 's_24_25': [1555], 's_24_26': [4835, 1119, 1120], 's_26_6': [1400], 's_26_8': [1220], 's_26_14': [1385], 's_26_18': [1235], 's_6_8': [1295], 's_6_9': [3907], 's_6_14': [4687], 's_6_16': [1389], 's_6_18': [1490], 's_6_25': [3952], 's_8_9': [1519], 's_8_14': [4043], 's_8_16': [4150], 's_8_18': [1460], 's_8_25': [4000], 's_9_14': [4717], 's_9_16': [4763], 's_9_18': [1640], 's_9_25': [1549], 's_14_16': [4762], 's_14_18': [3997], 's_14_25': [1626], 's_16_18': [1254], 's_16_25': [1480], 's_18_25': [1565]}</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0007655172413793103</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.001597843374137735</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>{0: [5258, 5257, 1391, 1392], 2: [5228, 1466, 1467, 5227], 3: [5181, 5183, 5182], 4: [5154, 5152, 5153], 5: [1633, 1631, 5213, 1632], 6: [1707, 1540, 1706, 1705, 4898], 7: [5288, 1571, 1572], 9: [1421, 1422, 5212], 10: [5304, 5302, 1541, 5303, 1542], 12: [5166, 5168, 5167], 15: [5139, 1302, 5137, 5138], 16: [4897, 1498, 1496, 1497], 19: [5078, 1452, 5077], 21: [5198, 1646, 1648, 1647], 23: [1555, 5318, 1556, 1557], 25: [4972, 1617, 1616, 4973], 26: [5124, 1317, 5122, 5123], 27: [5062, 1691, 1676, 5063], 1: [1663, 1662, 5002, 5003, 1661], 8: [4928, 1481, 1483, 1482], 13: [5093, 1376, 5092], 14: [1721, 5107, 5108, 5109], 17: [1437, 1436, 4988, 4987], 18: [1600, 1602, 1601], 20: [1406, 1407, 5243, 5242], 22: [5273, 5272, 1361, 1362], 24: [5016, 5018, 1511, 5017], 11: [4958, 5032, 1587, 1586]}</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0.1192757590841214</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.05654306522974988</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>{0: [5258, 5257, 1391, 1392], 2: [5228, 1466, 1467, 5227], 3: [5181, 5183, 5182], 4: [5154, 5152, 5153], 5: [1633, 1631, 5213, 1632], 6: [1707, 1540, 1706, 1705, 4898], 7: [5288, 1571, 1572], 9: [1421, 1422, 5212], 10: [5304, 5302, 1541, 5303, 1542], 12: [5166, 5168, 5167], 15: [5139, 1302, 5137, 5138], 16: [4897, 1498, 1496, 1497], 19: [5078, 1452, 5077], 21: [5198, 1646, 1648, 1647], 23: [1555, 5318, 1556, 1557], 25: [4972, 1617, 1616, 4973], 26: [5124, 1317, 5122, 5123], 27: [5062, 1691, 1676, 5063], 1: [1663, 1662, 5002, 5003, 1661], 8: [4928, 1481, 1483, 1482], 13: [5093, 1376, 5092], 14: [1721, 5107, 5108, 5109], 17: [1437, 1436, 4988, 4987], 18: [1600, 1602, 1601], 20: [1406, 1407, 5243, 5242], 22: [5273, 5272, 1361, 1362], 24: [5016, 5018, 1511, 5017], 11: [4958, 5032, 1587, 1586]}</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0.1192757590841214</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.05654306522974988</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.266</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>{0: [2435, 1521, 4132, 2436, 4137, 4136, 1686, 4133, 4134, 4135], 2: [2109, 1507, 4418, 4419, 4420, 4421, 2108, 2107, 4122, 4121, 4120, 2106], 's_0_2': [2316], 3: [3970, 1912, 4723, 4722, 2289, 2288, 2287, 4271, 4270, 1910, 1911, 4269], 's_0_3': [2271], 4: [4297, 2020, 4720, 4719, 4718, 1535, 1536, 4793, 1537, 1538, 1539], 's_0_4': [4267], 5: [4047, 1719, 1718, 4046, 4045, 4044, 1717, 1716, 1715], 's_0_5': [1656], 6: [1506, 1760, 1761, 4208, 4209, 4557, 2273, 2272, 4316, 4315, 4314, 1837, 4210], 's_0_6': [1596], 7: [4870, 2005, 2004, 4254, 4255, 2002, 2003], 's_0_7': [1731], 9: [4360, 2439, 4808, 4809, 4812, 4811, 4810, 2046, 2047, 2048, 2049], 's_0_9': [1942, 1941], 10: [4361, 4344, 2543, 4408, 4407, 1747, 1746, 4149, 4150, 4151, 2241, 2242], 's_0_10': [1836], 12: [2485, 3983, 3984, 3985, 2484, 3986, 2225, 4091, 2483, 2482, 2481, 4092], 's_0_12': [2226], 15: [1775, 1776, 1777, 4389, 4839, 4838, 1660, 1659, 1658], 's_0_15': [1791], 16: [1930, 2541, 2542, 4228, 2406, 4780, 2407, 2408, 2409, 4783, 4782, 4781], 's_0_16': [4258], 19: [4376, 4692, 2274, 2181, 2182, 2184, 2185, 4826, 2183, 4825, 4824, 1795], 's_0_19': [2166], 21: [4614, 4615, 1974, 4089, 4090, 1971, 1972, 1973], 's_0_21': [1821], 23: [4568, 4569, 4213, 2377, 2378, 4512, 4511, 1748, 4509, 4510], 's_0_23': [2376], 25: [4345, 4346, 4347, 2365, 2364, 2363, 2361, 2362], 's_0_25': [4287], 26: [4377, 4167, 2255, 2256, 1479, 4598, 4599, 4600, 4601, 4602, 2258, 2257], 's_0_26': [2301], 27: [1869, 1566, 1567, 4358, 4659, 1762, 1839, 1838, 4359], 's_0_27': [4238], 1: [4313, 1610, 4675, 4119, 4118, 1611, 1612, 1914, 1613, 1614, 4673, 4674], 's_2_1': [4433], 's_2_3': [2091], 's_2_4': [4312], 8: [4764, 4765, 4766, 2138, 2214, 2423, 4647, 4646, 4660, 4661, 2139], 's_2_8': [4691], 's_2_9': [4751], 's_2_10': [2136], 's_2_12': [2105], 13: [1553, 2453, 1763, 4523, 1883, 4524, 4525, 4526, 4527, 4528], 's_2_13': [1808], 14: [2030, 3999, 1899, 4705, 2034, 4226, 2033, 2032, 2031, 4000], 's_2_14': [4630], 's_2_15': [1673], 's_2_16': [4123], 17: [2169, 2167, 2331, 4197, 1551, 4193, 4194, 2168, 4195, 4196], 's_2_17': [4181], 18: [4467, 4466, 1643, 4463, 1943, 4464, 4465], 's_2_18': [1793], 's_2_19': [2110], 20: [2420, 1520, 4060, 1958, 4061, 1957, 4062, 4058, 4059, 1956, 4063], 's_2_20': [2286], 's_2_21': [4105], 22: [1851, 4497, 4492, 1852, 1853, 4493, 4494, 4496, 4495], 's_2_22': [1463, 4372], 's_2_23': [1583], 24: [4302, 1626, 1627, 2152, 4301, 4300, 4299, 1703, 1702, 4298], 's_2_24': [4331], 's_2_25': [2346], 's_2_26': [4166], 's_3_1': [1866], 's_3_5': [2060], 's_3_6': [4542], 's_3_7': [1881], 's_3_8': [4572], 's_3_9': [4738], 11: [4643, 2200, 4736, 4001, 2120, 2121, 1779, 2122, 2123, 4644, 4645, 2124], 's_3_11': [3940, 2015], 's_3_12': [1985], 's_3_13': [1913], 's_3_14': [4375], 's_3_15': [1792], 's_3_16': [2395], 's_3_18': [4451], 's_3_19': [4752], 's_3_20': [4075], 's_3_21': [1970], 's_3_22': [4240], 's_3_23': [4332], 's_3_25': [4707], 's_3_26': [2319], 's_4_6': [4223], 's_4_7': [4855], 's_4_8': [4721], 's_4_9': [1645], 's_4_11': [1749], 's_4_14': [3998], 's_4_15': [1584, 4688, 4748], 's_4_16': [4885], 's_4_19': [4794], 's_4_20': [3952], 's_4_21': [4735], 's_4_22': [4477], 's_4_23': [4583], 's_4_24': [4343], 's_4_26': [4657], 's_4_27': [4073], 's_5_1': [4478], 's_5_6': [4329], 's_5_8': [1855, 4734], 's_5_9': [4823], 's_5_10': [2211], 's_5_11': [4628], 's_5_12': [2135], 's_5_13': [4539], 's_5_15': [4179], 's_5_17': [2330], 's_5_18': [1732], 's_5_20': [2240], 's_5_21': [2016], 's_5_22': [4164], 's_5_23': [4434], 's_5_25': [4032], 's_5_26': [1733], 's_5_27': [4404], 's_6_1': [4253], 's_6_8': [2379], 's_6_10': [4392], 's_6_11': [4211], 's_6_12': [4558], 's_6_14': [1925, 3939, 3938], 's_6_15': [4284], 's_6_16': [4317], 's_6_17': [4192], 's_6_18': [2062], 's_6_19': [4631], 's_6_20': [1492, 1491], 's_6_21': [4088], 's_6_24': [2197], 's_6_26': [2349], 's_6_27': [4282], 's_7_1': [4795], 's_7_8': [1990], 's_7_9': [1927], 's_7_10': [4239], 's_7_11': [4871], 's_7_13': [1988], 's_7_14': [4180], 's_7_15': [4840, 2065], 's_7_16': [1945], 's_7_17': [1672], 's_7_18': [4555], 's_7_20': [4480], 's_7_21': [1975], 's_7_23': [4570], 's_7_24': [1822], 's_7_25': [1987], 's_7_27': [4390], 's_9_1': [2094], 's_9_8': [1734], 's_9_10': [4165], 's_9_12': [2424, 4753], 's_9_13': [2018], 's_9_14': [2045, 4015], 's_9_15': [1765], 's_9_16': [4798], 's_9_17': [2061], 's_9_19': [4827], 's_9_22': [2438], 's_9_23': [2063], 's_9_25': [4662], 's_9_26': [2259], 's_9_27': [1840], 's_10_1': [4283], 's_10_11': [2196], 's_10_12': [2512, 4333], 's_10_13': [2513, 4453], 's_10_14': [1806, 4074], 's_10_15': [4374], 's_10_17': [2212, 4212], 's_10_18': [4468], 's_10_19': [2227], 's_10_21': [1926], 's_10_22': [4498], 's_10_23': [2528, 2527], 's_10_24': [2467], 's_10_25': [4422], 's_10_26': [4378], 's_10_27': [4148], 's_12_1': [3968], 's_12_8': [4603], 's_12_11': [3971], 's_12_13': [4543], 's_12_14': [1955], 's_12_15': [3969], 's_12_16': [4183], 's_12_17': [1550], 's_12_18': [2468], 's_12_19': [2180], 's_12_20': [3982], 's_12_21': [1895], 's_12_22': [1850], 's_12_23': [2466], 's_12_24': [1625], 's_12_26': [2195, 3956], 's_15_1': [1615], 's_15_11': [4749, 1675], 's_15_13': [1778], 's_15_14': [1900], 's_15_16': [1915, 4915], 's_15_19': [4854], 's_15_21': [4104], 's_15_22': [1823], 's_15_23': [4584], 's_15_24': [1657], 's_15_26': [4702, 4703], 's_15_27': [4658], 's_16_8': [4618], 's_16_11': [2125], 's_16_13': [4588], 's_16_17': [4198], 's_16_19': [4779], 's_16_20': [2526], 's_16_22': [4482], 's_16_23': [4438], 's_16_24': [4303], 's_16_25': [4348], 's_16_26': [4168], 's_19_1': [4676], 's_19_8': [4586], 's_19_13': [2198], 's_19_14': [2035], 's_19_17': [4541], 's_19_18': [2092], 's_19_20': [4076], 's_19_24': [2137], 's_19_25': [4797], 's_19_26': [2304], 's_19_27': [1884], 's_21_1': [1809], 's_21_8': [1959], 's_21_13': [1764], 's_21_14': [1986], 's_21_18': [4435], 's_21_20': [1880], 's_21_23': [1674], 's_21_24': [1688], 's_21_26': [1824], 's_23_8': [2243], 's_23_11': [1868], 's_23_13': [4508], 's_23_17': [2421], 's_23_20': [2496], 's_23_22': [2303], 's_23_24': [2153], 's_23_27': [1568], 's_25_8': [4617], 's_25_11': [4002], 's_25_13': [2348], 's_25_14': [4227], 's_25_17': [2392], 's_25_18': [4452], 's_25_20': [4077], 's_25_24': [2347], 's_25_26': [2317], 's_26_1': [4672], 's_26_8': [2199], 's_26_11': [2093], 's_26_13': [2393], 's_26_14': [1989], 's_26_17': [4182], 's_26_18': [1644], 's_26_20': [2270, 3987], 's_26_22': [1508], 's_26_24': [2302], 's_27_1': [4117], 's_27_8': [1794], 's_27_11': [4704], 's_27_14': [1944], 's_27_17': [4178], 's_27_18': [1687], 's_27_20': [4087], 's_27_22': [4449], 's_1_8': [4763], 's_1_11': [2079], 's_1_13': [1598], 's_1_14': [4690], 's_1_17': [1701], 's_1_18': [4403], 's_1_20': [3953, 1685], 's_1_24': [4538, 1629], 's_8_11': [2019], 's_8_13': [4573], 's_8_14': [4706], 's_8_17': [2170], 's_8_18': [2213], 's_8_22': [2228], 's_13_11': [4642], 's_13_14': [1898], 's_13_17': [1552], 's_13_18': [2333], 's_13_20': [4585], 's_13_22': [4479], 's_13_24': [4448], 's_14_11': [4031], 's_14_17': [4436], 's_14_18': [4540], 's_14_20': [2001], 's_14_24': [4241], 's_17_18': [1642], 's_17_20': [2151], 's_17_22': [4481], 's_17_24': [4286], 's_18_20': [4450], 's_18_22': [1418, 4462], 's_18_24': [1897], 's_20_11': [2075], 's_20_22': [4225], 's_20_24': [4043], 's_22_11': [2078], 's_22_24': [1628], 's_24_11': [4256]}</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0006940063091482651</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.001444230049496479</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>{0: [2435, 1521, 4132, 2436, 4137, 4136, 1686, 4133, 4134, 4135], 2: [2109, 1507, 4418, 4419, 4420, 4421, 2108, 2107, 4122, 4121, 4120, 2106], 's_0_2': [2316], 3: [3970, 1912, 4723, 4722, 2289, 2288, 2287, 4271, 4270, 1910, 1911, 4269], 's_0_3': [2271], 4: [4297, 2020, 4720, 4719, 4718, 1535, 1536, 4793, 1537, 1538, 1539], 's_0_4': [4267], 5: [4047, 1719, 1718, 4046, 4045, 4044, 1717, 1716, 1715], 's_0_5': [1656], 6: [1506, 1760, 1761, 4208, 4209, 4557, 2273, 2272, 4316, 4315, 4314, 1837, 4210], 's_0_6': [1596], 7: [4870, 2005, 2004, 4254, 4255, 2002, 2003], 's_0_7': [1731], 9: [4360, 2439, 4808, 4809, 4812, 4811, 4810, 2046, 2047, 2048, 2049], 's_0_9': [1942, 1941], 10: [4361, 4344, 2543, 4408, 4407, 1747, 1746, 4149, 4150, 4151, 2241, 2242], 's_0_10': [1836], 12: [2485, 3983, 3984, 3985, 2484, 3986, 2225, 4091, 2483, 2482, 2481, 4092], 's_0_12': [2226], 15: [1775, 1776, 1777, 4389, 4839, 4838, 1660, 1659, 1658], 's_0_15': [1791], 16: [1930, 2541, 2542, 4228, 2406, 4780, 2407, 2408, 2409, 4783, 4782, 4781], 's_0_16': [4258], 19: [4376, 4692, 2274, 2181, 2182, 2184, 2185, 4826, 2183, 4825, 4824, 1795], 's_0_19': [2166], 21: [4614, 4615, 1974, 4089, 4090, 1971, 1972, 1973], 's_0_21': [1821], 23: [4568, 4569, 4213, 2377, 2378, 4512, 4511, 1748, 4509, 4510], 's_0_23': [2376], 25: [4345, 4346, 4347, 2365, 2364, 2363, 2361, 2362], 's_0_25': [4287], 26: [4377, 4167, 2255, 2256, 1479, 4598, 4599, 4600, 4601, 4602, 2258, 2257], 's_0_26': [2301], 27: [1869, 1566, 1567, 4358, 4659, 1762, 1839, 1838, 4359], 's_0_27': [4238], 1: [4313, 1610, 4675, 4119, 4118, 1611, 1612, 1914, 1613, 1614, 4673, 4674], 's_2_1': [4433], 's_2_3': [2091], 's_2_4': [4312], 8: [4764, 4765, 4766, 2138, 2214, 2423, 4647, 4646, 4660, 4661, 2139], 's_2_8': [4691], 's_2_9': [4751], 's_2_10': [2136], 's_2_12': [2105], 13: [1553, 2453, 1763, 4523, 1883, 4524, 4525, 4526, 4527, 4528], 's_2_13': [1808], 14: [2030, 3999, 1899, 4705, 2034, 4226, 2033, 2032, 2031, 4000], 's_2_14': [4630], 's_2_15': [1673], 's_2_16': [4123], 17: [2169, 2167, 2331, 4197, 1551, 4193, 4194, 2168, 4195, 4196], 's_2_17': [4181], 18: [4467, 4466, 1643, 4463, 1943, 4464, 4465], 's_2_18': [1793], 's_2_19': [2110], 20: [2420, 1520, 4060, 1958, 4061, 1957, 4062, 4058, 4059, 1956, 4063], 's_2_20': [2286], 's_2_21': [4105], 22: [1851, 4497, 4492, 1852, 1853, 4493, 4494, 4496, 4495], 's_2_22': [1463, 4372], 's_2_23': [1583], 24: [4302, 1626, 1627, 2152, 4301, 4300, 4299, 1703, 1702, 4298], 's_2_24': [4331], 's_2_25': [2346], 's_2_26': [4166], 's_3_1': [1866], 's_3_5': [2060], 's_3_6': [4542], 's_3_7': [1881], 's_3_8': [4572], 's_3_9': [4738], 11: [4643, 2200, 4736, 4001, 2120, 2121, 1779, 2122, 2123, 4644, 4645, 2124], 's_3_11': [3940, 2015], 's_3_12': [1985], 's_3_13': [1913], 's_3_14': [4375], 's_3_15': [1792], 's_3_16': [2395], 's_3_18': [4451], 's_3_19': [4752], 's_3_20': [4075], 's_3_21': [1970], 's_3_22': [4240], 's_3_23': [4332], 's_3_25': [4707], 's_3_26': [2319], 's_4_6': [4223], 's_4_7': [4855], 's_4_8': [4721], 's_4_9': [1645], 's_4_11': [1749], 's_4_14': [3998], 's_4_15': [1584, 4688, 4748], 's_4_16': [4885], 's_4_19': [4794], 's_4_20': [3952], 's_4_21': [4735], 's_4_22': [4477], 's_4_23': [4583], 's_4_24': [4343], 's_4_26': [4657], 's_4_27': [4073], 's_5_1': [4478], 's_5_6': [4329], 's_5_8': [1855, 4734], 's_5_9': [4823], 's_5_10': [2211], 's_5_11': [4628], 's_5_12': [2135], 's_5_13': [4539], 's_5_15': [4179], 's_5_17': [2330], 's_5_18': [1732], 's_5_20': [2240], 's_5_21': [2016], 's_5_22': [4164], 's_5_23': [4434], 's_5_25': [4032], 's_5_26': [1733], 's_5_27': [4404], 's_6_1': [4253], 's_6_8': [2379], 's_6_10': [4392], 's_6_11': [4211], 's_6_12': [4558], 's_6_14': [1925, 3939, 3938], 's_6_15': [4284], 's_6_16': [4317], 's_6_17': [4192], 's_6_18': [2062], 's_6_19': [4631], 's_6_20': [1492, 1491], 's_6_21': [4088], 's_6_24': [2197], 's_6_26': [2349], 's_6_27': [4282], 's_7_1': [4795], 's_7_8': [1990], 's_7_9': [1927], 's_7_10': [4239], 's_7_11': [4871], 's_7_13': [1988], 's_7_14': [4180], 's_7_15': [4840, 2065], 's_7_16': [1945], 's_7_17': [1672], 's_7_18': [4555], 's_7_20': [4480], 's_7_21': [1975], 's_7_23': [4570], 's_7_24': [1822], 's_7_25': [1987], 's_7_27': [4390], 's_9_1': [2094], 's_9_8': [1734], 's_9_10': [4165], 's_9_12': [2424, 4753], 's_9_13': [2018], 's_9_14': [2045, 4015], 's_9_15': [1765], 's_9_16': [4798], 's_9_17': [2061], 's_9_19': [4827], 's_9_22': [2438], 's_9_23': [2063], 's_9_25': [4662], 's_9_26': [2259], 's_9_27': [1840], 's_10_1': [4283], 's_10_11': [2196], 's_10_12': [2512, 4333], 's_10_13': [2513, 4453], 's_10_14': [1806, 4074], 's_10_15': [4374], 's_10_17': [2212, 4212], 's_10_18': [4468], 's_10_19': [2227], 's_10_21': [1926], 's_10_22': [4498], 's_10_23': [2528, 2527], 's_10_24': [2467], 's_10_25': [4422], 's_10_26': [4378], 's_10_27': [4148], 's_12_1': [3968], 's_12_8': [4603], 's_12_11': [3971], 's_12_13': [4543], 's_12_14': [1955], 's_12_15': [3969], 's_12_16': [4183], 's_12_17': [1550], 's_12_18': [2468], 's_12_19': [2180], 's_12_20': [3982], 's_12_21': [1895], 's_12_22': [1850], 's_12_23': [2466], 's_12_24': [1625], 's_12_26': [2195, 3956], 's_15_1': [1615], 's_15_11': [4749, 1675], 's_15_13': [1778], 's_15_14': [1900], 's_15_16': [1915, 4915], 's_15_19': [4854], 's_15_21': [4104], 's_15_22': [1823], 's_15_23': [4584], 's_15_24': [1657], 's_15_26': [4702, 4703], 's_15_27': [4658], 's_16_8': [4618], 's_16_11': [2125], 's_16_13': [4588], 's_16_17': [4198], 's_16_19': [4779], 's_16_20': [2526], 's_16_22': [4482], 's_16_23': [4438], 's_16_24': [4303], 's_16_25': [4348], 's_16_26': [4168], 's_19_1': [4676], 's_19_8': [4586], 's_19_13': [2198], 's_19_14': [2035], 's_19_17': [4541], 's_19_18': [2092], 's_19_20': [4076], 's_19_24': [2137], 's_19_25': [4797], 's_19_26': [2304], 's_19_27': [1884], 's_21_1': [1809], 's_21_8': [1959], 's_21_13': [1764], 's_21_14': [1986], 's_21_18': [4435], 's_21_20': [1880], 's_21_23': [1674], 's_21_24': [1688], 's_21_26': [1824], 's_23_8': [2243], 's_23_11': [1868], 's_23_13': [4508], 's_23_17': [2421], 's_23_20': [2496], 's_23_22': [2303], 's_23_24': [2153], 's_23_27': [1568], 's_25_8': [4617], 's_25_11': [4002], 's_25_13': [2348], 's_25_14': [4227], 's_25_17': [2392], 's_25_18': [4452], 's_25_20': [4077], 's_25_24': [2347], 's_25_26': [2317], 's_26_1': [4672], 's_26_8': [2199], 's_26_11': [2093], 's_26_13': [2393], 's_26_14': [1989], 's_26_17': [4182], 's_26_18': [1644], 's_26_20': [2270, 3987], 's_26_22': [1508], 's_26_24': [2302], 's_27_1': [4117], 's_27_8': [1794], 's_27_11': [4704], 's_27_14': [1944], 's_27_17': [4178], 's_27_18': [1687], 's_27_20': [4087], 's_27_22': [4449], 's_1_8': [4763], 's_1_11': [2079], 's_1_13': [1598], 's_1_14': [4690], 's_1_17': [1701], 's_1_18': [4403], 's_1_20': [3953, 1685], 's_1_24': [4538, 1629], 's_8_11': [2019], 's_8_13': [4573], 's_8_14': [4706], 's_8_17': [2170], 's_8_18': [2213], 's_8_22': [2228], 's_13_11': [4642], 's_13_14': [1898], 's_13_17': [1552], 's_13_18': [2333], 's_13_20': [4585], 's_13_22': [4479], 's_13_24': [4448], 's_14_11': [4031], 's_14_17': [4436], 's_14_18': [4540], 's_14_20': [2001], 's_14_24': [4241], 's_17_18': [1642], 's_17_20': [2151], 's_17_22': [4481], 's_17_24': [4286], 's_18_20': [4450], 's_18_22': [1418, 4462], 's_18_24': [1897], 's_20_11': [2075], 's_20_22': [4225], 's_20_24': [4043], 's_22_11': [2078], 's_22_24': [1628], 's_24_11': [4256]}</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0006940063091482651</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.001444230049496479</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>{0: [3199, 887, 886, 885], 1: [586, 3320, 3319, 3318, 587], 3: [930, 3079, 811, 3198, 810], 4: [3109, 646, 3108, 645], 5: [571, 3335, 3334, 3333, 572], 7: [736, 3394, 3393, 737], 8: [960, 3259, 961, 962], 10: [3138, 3140, 916, 3139], 11: [1006, 3379, 3377, 3378], 12: [3409, 721, 3408, 722], 13: [3170, 3169, 752, 751], 14: [825, 630, 3154, 3153], 16: [3438, 3439, 842, 840, 841], 17: [3155, 932, 931], 18: [3229, 3227, 3228], 21: [3214, 3212, 3213], 22: [676, 3287, 3289, 3288], 23: [796, 3350, 3348, 3349], 24: [3125, 3124, 767, 766], 25: [3184, 3183, 691, 692], 26: [945, 946, 947], 27: [870, 872, 871], 28: [780, 3362, 781, 3364, 3363], 9: [3064, 976, 975], 19: [3094, 902, 901], 20: [3424, 631, 3423, 632], 2: [917, 3274, 3273], 6: [662, 661, 3244, 3243], 15: [857, 855, 856]}</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.1732413793103448</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.05968829058780038</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>{0: [3199, 887, 886, 885], 1: [586, 3320, 3319, 3318, 587], 3: [930, 3079, 811, 3198, 810], 4: [3109, 646, 3108, 645], 5: [571, 3335, 3334, 3333, 572], 7: [736, 3394, 3393, 737], 8: [960, 3259, 961, 962], 10: [3138, 3140, 916, 3139], 11: [1006, 3379, 3377, 3378], 12: [3409, 721, 3408, 722], 13: [3170, 3169, 752, 751], 14: [825, 630, 3154, 3153], 16: [3438, 3439, 842, 840, 841], 17: [3155, 932, 931], 18: [3229, 3227, 3228], 21: [3214, 3212, 3213], 22: [676, 3287, 3289, 3288], 23: [796, 3350, 3348, 3349], 24: [3125, 3124, 767, 766], 25: [3184, 3183, 691, 692], 26: [945, 946, 947], 27: [870, 872, 871], 28: [780, 3362, 781, 3364, 3363], 9: [3064, 976, 975], 19: [3094, 902, 901], 20: [3424, 631, 3423, 632], 2: [917, 3274, 3273], 6: [662, 661, 3244, 3243], 15: [857, 855, 856]}</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0.1732413793103448</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.05968829058780038</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>{0: [1406, 1074, 958, 4850, 4924, 4925, 5285, 4851, 1077, 1076, 4880, 1405, 1075], 1: [4731, 4730, 1014, 1015, 1016, 612, 5192, 5193, 5194, 1017], 's_0_1': [1000], 3: [972, 4772, 894, 4773, 4774, 895, 778, 5253, 5254, 897, 896], 's_0_3': [5255], 4: [5480, 1033, 5359, 5358, 371, 372, 373, 5356, 5481, 5357], 's_0_4': [5374], 5: [4592, 1124, 5466, 4593, 4594, 4595, 4596, 1239, 1243, 1242, 1241, 1240], 's_0_5': [5001], 7: [641, 5073, 5074, 4535, 1119, 1120, 5075, 4534, 5405, 1123, 1122, 1121], 's_0_7': [4910], 8: [4641, 4953, 5554, 4640, 4639, 4638, 699, 700, 701, 702, 4952, 703, 704, 5553], 's_0_8': [1059], 10: [4532, 5012, 5013, 4533, 851, 4954, 763, 762, 759, 760, 761], 's_0_10': [776], 11: [942, 1391, 430, 5122, 5121, 5120, 5119, 5118, 5117, 431, 432], 's_0_11': [1452, 5077], 12: [4806, 5132, 1359, 5133, 1360, 806, 1228, 1227, 5134, 5135, 5136, 5137, 1361], 's_0_12': [4867], 13: [4684, 4685, 4686, 854, 1344, 1345, 1346, 1347, 5332, 5331, 5330, 5329, 853], 's_0_13': [5016], 14: [4653, 868, 864, 865, 867, 1106, 4970, 4969, 866], 's_0_14': [1105], 16: [654, 4942, 520, 4817, 4818, 1390, 4821, 4820, 4819], 's_0_16': [4912], 17: [581, 1378, 386, 387, 597, 582, 5206, 5207, 1377, 5211, 5210, 5209, 5208], 's_0_17': [1047], 18: [4802, 550, 1198, 5496, 5495, 988, 551, 552, 553, 5402, 5403, 5404], 's_0_18': [5419], 21: [987, 4866, 910, 4865, 4862, 4863, 986, 985, 4864], 's_0_21': [1300], 22: [5297, 4896, 5298, 5299, 5300, 1032, 1031, 4760, 940, 4775, 1030, 4895], 's_0_22': [4790], 23: [909, 4670, 5147, 492, 4669, 5161, 342, 341, 340, 339, 4666, 4667, 4668], 's_0_23': [4610, 1089], 24: [5555, 1064, 4985, 1149, 1150, 1151, 1063, 5345, 1303, 5361, 5360, 1152], 's_0_24': [4926], 25: [1224, 4803, 4804, 4805, 1225, 5226, 1316, 1317, 4911], 's_0_25': [1255], 26: [4922, 416, 4981, 4982, 686, 5103, 5104, 5105, 5106, 1287, 1288, 1273, 1274], 's_0_26': [1407, 5166], 27: [898, 4832, 4833, 5570, 5569, 914, 5464, 835, 836, 837, 838], 's_0_27': [790], 28: [1318, 5044, 822, 1422, 821, 598, 5267, 1437, 5272, 5268, 5269, 5270, 5271], 's_0_28': [1002], 's_1_3': [5315], 's_1_4': [5191], 's_1_5': [1013], 's_1_7': [4715], 's_1_8': [5283], 9: [5240, 5239, 5448, 4879, 5451, 5450, 5449, 880, 881, 882, 883], 's_1_9': [1018], 's_1_10': [611], 's_1_11': [5150], 's_1_12': [4732], 's_1_13': [4716], 's_1_14': [4729], 's_1_16': [1285], 's_1_17': [5237], 's_1_18': [613], 19: [1182, 5027, 596, 1181, 4906, 4907, 924, 5030, 5029, 4908, 925, 926, 4909], 's_1_19': [927], 20: [4997, 535, 5045, 5046, 1196, 5180, 5179, 5178, 5177, 523, 522, 536, 537], 's_1_20': [957], 's_1_21': [1270], 's_1_22': [4745], 's_1_23': [5222], 's_1_24': [4700], 's_1_25': [1194], 's_1_26': [912], 2: [4972, 4971, 5090, 5388, 5389, 5390, 1138, 4941, 1136, 1137], 's_3_2': [943], 's_3_4': [792], 's_3_5': [4609], 6: [5088, 4758, 4683, 714, 715, 5313, 718, 717, 716], 's_3_6': [4788], 's_3_7': [893], 's_3_8': [779], 's_3_11': [777], 's_3_12': [807], 's_3_13': [879], 's_3_14': [4654], 15: [4711, 4712, 4713, 4714, 969, 1258, 1257, 1256, 4956, 4955, 971, 970], 's_3_15': [459], 's_3_16': [4787], 's_3_17': [687], 's_3_18': [973], 's_3_21': [565], 's_3_22': [748], 's_3_23': [4771], 's_4_6': [673], 's_4_8': [944], 's_4_9': [1183], 's_4_11': [5341], 's_4_12': [5131], 's_4_15': [370], 's_4_17': [4951], 's_4_18': [493], 's_4_19': [5026], 's_4_20': [538], 's_4_21': [5344], 's_4_22': [418], 's_4_23': [4936], 's_4_24': [5435], 's_4_26': [4921], 's_4_27': [1034], 's_4_28': [5266], 's_5_2': [1139], 's_5_7': [1163], 's_5_8': [1284], 's_5_9': [1153], 's_5_10': [458], 's_5_11': [4986], 's_5_12': [4656], 's_5_14': [729], 's_5_15': [669], 's_5_16': [519], 's_5_17': [5346], 's_5_18': [1244], 's_5_19': [803, 4579], 's_5_20': [534], 's_5_22': [4761], 's_5_23': [833, 4549], 's_5_24': [5600], 's_5_25': [5091], 's_5_26': [5511], 's_5_27': [5465], 's_5_28': [5421], 's_7_2': [5420], 's_7_6': [642], 's_7_8': [983], 's_7_11': [1046], 's_7_12': [5316], 's_7_13': [954], 's_7_14': [863], 's_7_15': [968], 's_7_16': [1135], 's_7_17': [5162], 's_7_18': [1003], 's_7_20': [656], 's_7_22': [5060], 's_7_23': [939], 's_7_24': [4791], 's_7_25': [4611], 's_7_26': [640], 's_7_28': [1093], 's_8_2': [5373], 's_8_6': [4608], 's_8_10': [698], 's_8_11': [521], 's_8_12': [1358], 's_8_13': [4671, 1254], 's_8_16': [1389], 's_8_17': [5148], 's_8_18': [1049], 's_8_19': [4624], 's_8_20': [5478, 5477], 's_8_21': [475], 's_8_22': [999, 998], 's_8_24': [1148], 's_8_25': [4625], 's_8_26': [460], 's_8_27': [884], 's_8_28': [734, 733], 's_10_2': [5089], 's_10_6': [4623], 's_10_9': [4878], 's_10_12': [5163], 's_10_13': [852], 's_10_14': [5284], 's_10_15': [4728], 's_10_16': [4698], 's_10_17': [5011], 's_10_18': [549], 's_10_19': [731], 's_10_26': [791], 's_10_27': [764], 's_10_28': [5149], 's_11_2': [1092], 's_11_6': [732], 's_11_9': [5164], 's_11_12': [5092], 's_11_13': [1332, 1331], 's_11_15': [4957], 's_11_16': [1436, 1435], 's_11_17': [5116], 's_11_18': [567], 's_11_19': [1211], 's_11_20': [5327], 's_11_21': [5014, 1001], 's_11_23': [5086], 's_11_25': [1272], 's_11_26': [401, 402], 's_11_27': [5224], 's_11_28': [1421], 's_12_2': [5151], 's_12_13': [4792], 's_12_15': [5256], 's_12_16': [4897], 's_12_17': [5181, 1302], 's_12_19': [626], 's_12_20': [747], 's_12_21': [805], 's_12_22': [672], 's_12_23': [446], 's_12_24': [5301], 's_12_25': [4927], 's_12_26': [5241], 's_12_27': [1229], 's_13_2': [1048], 's_13_6': [5314], 's_13_9': [1078], 's_13_14': [869], 's_13_15': [849], 's_13_16': [4836], 's_13_17': [5287], 's_13_18': [5494], 's_13_19': [4699], 's_13_20': [5061], 's_13_21': [984], 's_13_22': [1044], 's_13_24': [5317], 's_13_25': [5107], 's_13_26': [5076], 's_13_28': [1453], 's_14_6': [774], 's_14_9': [5434], 's_14_15': [1091], 's_14_16': [4652], 's_14_17': [4968], 's_14_19': [4789], 's_14_20': [1061], 's_14_24': [5000], 's_14_25': [834], 's_14_27': [5479], 's_14_28': [911], 's_16_2': [1451], 's_16_15': [609], 's_16_20': [670, 671], 's_16_21': [1330], 's_16_22': [1045], 's_16_24': [1164], 's_16_25': [1210], 's_16_26': [415, 4816], 's_16_27': [730, 4848, 4847], 's_17_6': [583], 's_17_9': [5452], 's_17_18': [5072], 's_17_20': [5087], 's_17_22': [477], 's_17_23': [357], 's_17_24': [5302], 's_17_25': [5196], 's_17_26': [5056], 's_17_28': [5242], 's_18_6': [4757], 's_18_9': [959], 's_18_15': [4727], 's_18_19': [5042], 's_18_20': [5372], 's_18_21': [4877], 's_18_23': [4801], 's_18_24': [5540], 's_18_25': [1197], 's_18_26': [4937], 's_18_27': [1214], 's_18_28': [568], 's_21_6': [580], 's_21_9': [4834], 's_21_19': [490], 's_21_20': [4998, 4999], 's_21_22': [1090], 's_21_23': [4861], 's_21_24': [1165], 's_21_25': [4881], 's_21_26': [506, 505], 's_21_27': [4894], 's_21_28': [820], 's_22_2': [5225], 's_22_6': [627], 's_22_9': [955], 's_22_19': [4759], 's_22_20': [5282], 's_22_23': [1029], 's_22_24': [4984], 's_22_25': [1060], 's_22_28': [462], 's_23_6': [624], 's_23_15': [684], 's_23_20': [5252], 's_23_24': [4655], 's_23_26': [356], 's_23_28': [507], 's_24_2': [1108], 's_24_9': [1109], 's_24_15': [5376], 's_24_20': [5015], 's_24_26': [5556], 's_24_28': [1362], 's_25_2': [1301], 's_25_9': [850], 's_25_15': [789], 's_25_19': [5031], 's_25_20': [1286], 's_25_28': [5227], 's_26_2': [1107], 's_26_6': [5058], 's_26_9': [1289], 's_26_19': [610], 's_26_20': [5102], 's_27_2': [808], 's_27_6': [5463], 's_27_9': [823], 's_27_19': [625], 's_27_20': [655], 's_28_2': [913], 's_28_6': [5043], 's_28_9': [1319], 's_28_15': [5406], 's_28_19': [941], 's_28_20': [5417], 's_9_2': [1168], 's_9_6': [5433], 's_9_15': [4849], 's_9_19': [4939], 's_19_2': [1166], 's_19_6': [746, 4938], 's_19_20': [5057], 's_20_2': [1062, 5195], 's_20_6': [5312], 's_20_15': [1271], 's_2_15': [4940], 's_6_15': [745]}</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0.000867867867867868</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0016323717746223</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>{0: [1406, 1074, 958, 4850, 4924, 4925, 5285, 4851, 1077, 1076, 4880, 1405, 1075], 1: [4731, 4730, 1014, 1015, 1016, 612, 5192, 5193, 5194, 1017], 's_0_1': [1000], 3: [972, 4772, 894, 4773, 4774, 895, 778, 5253, 5254, 897, 896], 's_0_3': [5255], 4: [5480, 1033, 5359, 5358, 371, 372, 373, 5356, 5481, 5357], 's_0_4': [5374], 5: [4592, 1124, 5466, 4593, 4594, 4595, 4596, 1239, 1243, 1242, 1241, 1240], 's_0_5': [5001], 7: [641, 5073, 5074, 4535, 1119, 1120, 5075, 4534, 5405, 1123, 1122, 1121], 's_0_7': [4910], 8: [4641, 4953, 5554, 4640, 4639, 4638, 699, 700, 701, 702, 4952, 703, 704, 5553], 's_0_8': [1059], 10: [4532, 5012, 5013, 4533, 851, 4954, 763, 762, 759, 760, 761], 's_0_10': [776], 11: [942, 1391, 430, 5122, 5121, 5120, 5119, 5118, 5117, 431, 432], 's_0_11': [1452, 5077], 12: [4806, 5132, 1359, 5133, 1360, 806, 1228, 1227, 5134, 5135, 5136, 5137, 1361], 's_0_12': [4867], 13: [4684, 4685, 4686, 854, 1344, 1345, 1346, 1347, 5332, 5331, 5330, 5329, 853], 's_0_13': [5016], 14: [4653, 868, 864, 865, 867, 1106, 4970, 4969, 866], 's_0_14': [1105], 16: [654, 4942, 520, 4817, 4818, 1390, 4821, 4820, 4819], 's_0_16': [4912], 17: [581, 1378, 386, 387, 597, 582, 5206, 5207, 1377, 5211, 5210, 5209, 5208], 's_0_17': [1047], 18: [4802, 550, 1198, 5496, 5495, 988, 551, 552, 553, 5402, 5403, 5404], 's_0_18': [5419], 21: [987, 4866, 910, 4865, 4862, 4863, 986, 985, 4864], 's_0_21': [1300], 22: [5297, 4896, 5298, 5299, 5300, 1032, 1031, 4760, 940, 4775, 1030, 4895], 's_0_22': [4790], 23: [909, 4670, 5147, 492, 4669, 5161, 342, 341, 340, 339, 4666, 4667, 4668], 's_0_23': [4610, 1089], 24: [5555, 1064, 4985, 1149, 1150, 1151, 1063, 5345, 1303, 5361, 5360, 1152], 's_0_24': [4926], 25: [1224, 4803, 4804, 4805, 1225, 5226, 1316, 1317, 4911], 's_0_25': [1255], 26: [4922, 416, 4981, 4982, 686, 5103, 5104, 5105, 5106, 1287, 1288, 1273, 1274], 's_0_26': [1407, 5166], 27: [898, 4832, 4833, 5570, 5569, 914, 5464, 835, 836, 837, 838], 's_0_27': [790], 28: [1318, 5044, 822, 1422, 821, 598, 5267, 1437, 5272, 5268, 5269, 5270, 5271], 's_0_28': [1002], 's_1_3': [5315], 's_1_4': [5191], 's_1_5': [1013], 's_1_7': [4715], 's_1_8': [5283], 9: [5240, 5239, 5448, 4879, 5451, 5450, 5449, 880, 881, 882, 883], 's_1_9': [1018], 's_1_10': [611], 's_1_11': [5150], 's_1_12': [4732], 's_1_13': [4716], 's_1_14': [4729], 's_1_16': [1285], 's_1_17': [5237], 's_1_18': [613], 19: [1182, 5027, 596, 1181, 4906, 4907, 924, 5030, 5029, 4908, 925, 926, 4909], 's_1_19': [927], 20: [4997, 535, 5045, 5046, 1196, 5180, 5179, 5178, 5177, 523, 522, 536, 537], 's_1_20': [957], 's_1_21': [1270], 's_1_22': [4745], 's_1_23': [5222], 's_1_24': [4700], 's_1_25': [1194], 's_1_26': [912], 2: [4972, 4971, 5090, 5388, 5389, 5390, 1138, 4941, 1136, 1137], 's_3_2': [943], 's_3_4': [792], 's_3_5': [4609], 6: [5088, 4758, 4683, 714, 715, 5313, 718, 717, 716], 's_3_6': [4788], 's_3_7': [893], 's_3_8': [779], 's_3_11': [777], 's_3_12': [807], 's_3_13': [879], 's_3_14': [4654], 15: [4711, 4712, 4713, 4714, 969, 1258, 1257, 1256, 4956, 4955, 971, 970], 's_3_15': [459], 's_3_16': [4787], 's_3_17': [687], 's_3_18': [973], 's_3_21': [565], 's_3_22': [748], 's_3_23': [4771], 's_4_6': [673], 's_4_8': [944], 's_4_9': [1183], 's_4_11': [5341], 's_4_12': [5131], 's_4_15': [370], 's_4_17': [4951], 's_4_18': [493], 's_4_19': [5026], 's_4_20': [538], 's_4_21': [5344], 's_4_22': [418], 's_4_23': [4936], 's_4_24': [5435], 's_4_26': [4921], 's_4_27': [1034], 's_4_28': [5266], 's_5_2': [1139], 's_5_7': [1163], 's_5_8': [1284], 's_5_9': [1153], 's_5_10': [458], 's_5_11': [4986], 's_5_12': [4656], 's_5_14': [729], 's_5_15': [669], 's_5_16': [519], 's_5_17': [5346], 's_5_18': [1244], 's_5_19': [803, 4579], 's_5_20': [534], 's_5_22': [4761], 's_5_23': [833, 4549], 's_5_24': [5600], 's_5_25': [5091], 's_5_26': [5511], 's_5_27': [5465], 's_5_28': [5421], 's_7_2': [5420], 's_7_6': [642], 's_7_8': [983], 's_7_11': [1046], 's_7_12': [5316], 's_7_13': [954], 's_7_14': [863], 's_7_15': [968], 's_7_16': [1135], 's_7_17': [5162], 's_7_18': [1003], 's_7_20': [656], 's_7_22': [5060], 's_7_23': [939], 's_7_24': [4791], 's_7_25': [4611], 's_7_26': [640], 's_7_28': [1093], 's_8_2': [5373], 's_8_6': [4608], 's_8_10': [698], 's_8_11': [521], 's_8_12': [1358], 's_8_13': [4671, 1254], 's_8_16': [1389], 's_8_17': [5148], 's_8_18': [1049], 's_8_19': [4624], 's_8_20': [5478, 5477], 's_8_21': [475], 's_8_22': [999, 998], 's_8_24': [1148], 's_8_25': [4625], 's_8_26': [460], 's_8_27': [884], 's_8_28': [734, 733], 's_10_2': [5089], 's_10_6': [4623], 's_10_9': [4878], 's_10_12': [5163], 's_10_13': [852], 's_10_14': [5284], 's_10_15': [4728], 's_10_16': [4698], 's_10_17': [5011], 's_10_18': [549], 's_10_19': [731], 's_10_26': [791], 's_10_27': [764], 's_10_28': [5149], 's_11_2': [1092], 's_11_6': [732], 's_11_9': [5164], 's_11_12': [5092], 's_11_13': [1332, 1331], 's_11_15': [4957], 's_11_16': [1436, 1435], 's_11_17': [5116], 's_11_18': [567], 's_11_19': [1211], 's_11_20': [5327], 's_11_21': [5014, 1001], 's_11_23': [5086], 's_11_25': [1272], 's_11_26': [401, 402], 's_11_27': [5224], 's_11_28': [1421], 's_12_2': [5151], 's_12_13': [4792], 's_12_15': [5256], 's_12_16': [4897], 's_12_17': [5181, 1302], 's_12_19': [626], 's_12_20': [747], 's_12_21': [805], 's_12_22': [672], 's_12_23': [446], 's_12_24': [5301], 's_12_25': [4927], 's_12_26': [5241], 's_12_27': [1229], 's_13_2': [1048], 's_13_6': [5314], 's_13_9': [1078], 's_13_14': [869], 's_13_15': [849], 's_13_16': [4836], 's_13_17': [5287], 's_13_18': [5494], 's_13_19': [4699], 's_13_20': [5061], 's_13_21': [984], 's_13_22': [1044], 's_13_24': [5317], 's_13_25': [5107], 's_13_26': [5076], 's_13_28': [1453], 's_14_6': [774], 's_14_9': [5434], 's_14_15': [1091], 's_14_16': [4652], 's_14_17': [4968], 's_14_19': [4789], 's_14_20': [1061], 's_14_24': [5000], 's_14_25': [834], 's_14_27': [5479], 's_14_28': [911], 's_16_2': [1451], 's_16_15': [609], 's_16_20': [670, 671], 's_16_21': [1330], 's_16_22': [1045], 's_16_24': [1164], 's_16_25': [1210], 's_16_26': [415, 4816], 's_16_27': [730, 4848, 4847], 's_17_6': [583], 's_17_9': [5452], 's_17_18': [5072], 's_17_20': [5087], 's_17_22': [477], 's_17_23': [357], 's_17_24': [5302], 's_17_25': [5196], 's_17_26': [5056], 's_17_28': [5242], 's_18_6': [4757], 's_18_9': [959], 's_18_15': [4727], 's_18_19': [5042], 's_18_20': [5372], 's_18_21': [4877], 's_18_23': [4801], 's_18_24': [5540], 's_18_25': [1197], 's_18_26': [4937], 's_18_27': [1214], 's_18_28': [568], 's_21_6': [580], 's_21_9': [4834], 's_21_19': [490], 's_21_20': [4998, 4999], 's_21_22': [1090], 's_21_23': [4861], 's_21_24': [1165], 's_21_25': [4881], 's_21_26': [506, 505], 's_21_27': [4894], 's_21_28': [820], 's_22_2': [5225], 's_22_6': [627], 's_22_9': [955], 's_22_19': [4759], 's_22_20': [5282], 's_22_23': [1029], 's_22_24': [4984], 's_22_25': [1060], 's_22_28': [462], 's_23_6': [624], 's_23_15': [684], 's_23_20': [5252], 's_23_24': [4655], 's_23_26': [356], 's_23_28': [507], 's_24_2': [1108], 's_24_9': [1109], 's_24_15': [5376], 's_24_20': [5015], 's_24_26': [5556], 's_24_28': [1362], 's_25_2': [1301], 's_25_9': [850], 's_25_15': [789], 's_25_19': [5031], 's_25_20': [1286], 's_25_28': [5227], 's_26_2': [1107], 's_26_6': [5058], 's_26_9': [1289], 's_26_19': [610], 's_26_20': [5102], 's_27_2': [808], 's_27_6': [5463], 's_27_9': [823], 's_27_19': [625], 's_27_20': [655], 's_28_2': [913], 's_28_6': [5043], 's_28_9': [1319], 's_28_15': [5406], 's_28_19': [941], 's_28_20': [5417], 's_9_2': [1168], 's_9_6': [5433], 's_9_15': [4849], 's_9_19': [4939], 's_19_2': [1166], 's_19_6': [746, 4938], 's_19_20': [5057], 's_20_2': [1062, 5195], 's_20_6': [5312], 's_20_15': [1271], 's_2_15': [4940], 's_6_15': [745]}</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0.000867867867867868</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0016323717746223</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>{0: [5194, 1407, 5196, 5195], 2: [5239, 5242, 5240, 5241], 4: [5330, 5331, 1362, 5332], 5: [1151, 1152, 1153], 6: [1347, 5359, 5360, 5361], 7: [1109, 5375, 1107, 1108], 8: [1046, 1047, 1048, 5435], 9: [1168, 5121, 1166, 1167], 10: [1062, 5211, 5209, 5210], 11: [1063, 1332, 5346, 1228, 5345], 12: [5405, 1137, 1138], 13: [5450, 1031, 1032, 1033], 14: [5315, 1182, 1181, 5316], 16: [5227, 5225, 5226], 17: [5302, 5300, 5301], 18: [1303, 5256, 5029, 1212, 1211, 5030], 19: [1003, 5465, 5466, 1242, 1243], 20: [5271, 1227, 5135, 5136], 21: [5496, 1121, 1124, 1123, 1122], 24: [1076, 5180, 1078, 1077], 25: [1139, 1196, 5540, 1197, 1198], 27: [5255, 1016, 1017], 28: [1091, 5075, 1093, 1092], 29: [5287, 5285, 5286], 3: [5090, 1318, 1317, 5091], 22: [5344, 1001, 5270, 1002], 23: [1018, 957, 958, 5390, 5389], 26: [5150, 1288, 1287, 5151], 1: [1256, 1257, 1258, 5420, 5421], 15: [1241, 1273, 1272, 5105, 5106]}</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0968735632183908</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.04571479247779814</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>{0: [5194, 1407, 5196, 5195], 2: [5239, 5242, 5240, 5241], 4: [5330, 5331, 1362, 5332], 5: [1151, 1152, 1153], 6: [1347, 5359, 5360, 5361], 7: [1109, 5375, 1107, 1108], 8: [1046, 1047, 1048, 5435], 9: [1168, 5121, 1166, 1167], 10: [1062, 5211, 5209, 5210], 11: [1063, 1332, 5346, 1228, 5345], 12: [5405, 1137, 1138], 13: [5450, 1031, 1032, 1033], 14: [5315, 1182, 1181, 5316], 16: [5227, 5225, 5226], 17: [5302, 5300, 5301], 18: [1303, 5256, 5029, 1212, 1211, 5030], 19: [1003, 5465, 5466, 1242, 1243], 20: [5271, 1227, 5135, 5136], 21: [5496, 1121, 1124, 1123, 1122], 24: [1076, 5180, 1078, 1077], 25: [1139, 1196, 5540, 1197, 1198], 27: [5255, 1016, 1017], 28: [1091, 5075, 1093, 1092], 29: [5287, 5285, 5286], 3: [5090, 1318, 1317, 5091], 22: [5344, 1001, 5270, 1002], 23: [1018, 957, 958, 5390, 5389], 26: [5150, 1288, 1287, 5151], 1: [1256, 1257, 1258, 5420, 5421], 15: [1241, 1273, 1272, 5105, 5106]}</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0968735632183908</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.04571479247779814</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.208</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>{0: [1602, 4738, 5138, 1749, 4737, 4736, 2020, 4735, 4734, 4733, 1647, 1645, 1646], 2: [2155, 2156, 5081, 2187, 5304, 2412, 5305, 5306, 2188, 5303, 5352, 5351], 's_0_2': [1572], 4: [4899, 4900, 5321, 2067, 2066, 5065, 2036, 2035, 2514, 4753, 4752, 4751], 's_0_4': [2424], 5: [4794, 1705, 1870, 4963, 4962, 4961, 4960, 1674, 1675, 1676, 4959], 's_0_5': [4958], 6: [1859, 1764, 4914, 1765, 1858, 1857, 5529, 1856], 's_0_6': [4913], 7: [1901, 1900, 4705, 4706, 5037, 2411, 1899, 2410, 4707, 2409], 's_0_7': [2274], 8: [5393, 2198, 2199, 2200, 4870, 5396, 5394, 5395, 2113, 2112, 2111, 2110, 4871], 's_0_8': [2109], 9: [1691, 5139, 4511, 2077, 2008, 2007, 2078, 2079, 2081, 2080, 5141, 5140], 's_0_9': [5063], 10: [4662, 4451, 4452, 5217, 2468, 2469, 2473, 2472, 2471, 2470], 's_0_10': [4723], 11: [1707, 4600, 4930, 4359, 1838, 1839, 5243, 5244, 1842, 1841, 1840], 's_0_11': [1482, 5242], 12: [4809, 4945, 2258, 2259, 1960, 4810, 4811, 4812, 4813, 2650, 2651], 's_0_12': [2170], 13: [2363, 4528, 1723, 5229, 1722, 1721, 1720, 1719, 1718, 4524, 4525, 4526, 4527], 's_0_13': [4628], 14: [1810, 2184, 2441, 4918, 2440, 4842, 4841, 2185, 4766, 4764, 1884, 4765], 's_0_14': [4843, 2530], 16: [4659, 5261, 5260, 1793, 1797, 5259, 1794, 1795, 1796], 's_0_16': [5258], 17: [2427, 5247, 5246, 2142, 2141, 2140, 2139, 2138, 4421, 4420, 4419], 's_0_17': [1748], 18: [1734, 5018, 1735, 5293, 5292, 1736, 1737, 5198, 5199, 5200, 2127, 5291], 's_0_18': [4838], 19: [5319, 1829, 1828, 1827, 1826, 1825, 1824, 4467, 4466, 4465, 4464, 1823], 's_0_19': [4689], 20: [2456, 5099, 5098, 2172, 2126, 5093, 5094, 5095, 5097, 5096], 's_0_20': [5078], 21: [2502, 4643, 4783, 1883, 4644, 4645, 4646, 4647, 4648, 2499, 2500, 2501], 's_0_21': [2019], 24: [5213, 2577, 5114, 5113, 5112, 2231, 2232, 2233, 5441, 5440, 5439, 1768, 1767], 's_0_24': [1632], 25: [4676, 4374, 4603, 4602, 2216, 4375, 4376, 2217, 2213, 2218, 2214, 2215], 's_0_25': [2304], 27: [1944, 1945, 2457, 5233, 5232, 5231, 5230, 1946, 1947], 's_0_27': [4720], 28: [2455, 2260, 5008, 5003, 5004, 5005, 5006, 2336, 5007], 's_0_28': [1601], 29: [5320, 1978, 1977, 2062, 4750, 1976, 1975, 1974, 4630, 2063], 's_0_29': [4825], 3: [1763, 1809, 4539, 4540, 5337, 2368, 2367, 4541, 2366, 2365, 2364, 4542], 's_2_3': [5338], 's_2_4': [5066], 's_2_5': [4901, 2245], 's_2_6': [5290], 's_2_7': [1902], 's_2_9': [4916], 's_2_10': [2488], 's_2_11': [1782], 's_2_12': [4826], 's_2_13': [5289], 's_2_16': [2038], 's_2_18': [1557, 5197], 's_2_19': [1678], 's_2_20': [1587, 1586], 22: [2592, 4964, 5184, 5185, 2590, 2591, 5173, 5172, 5171, 2307, 5186], 's_2_22': [1932], 23: [5364, 4872, 5365, 5366, 2378, 2379, 2380, 2381, 2382, 5367, 2383], 's_2_23': [1887], 's_2_25': [5201], 26: [2395, 2396, 2397, 2398, 5424, 5425, 5426, 5427], 's_2_26': [2413], 's_2_27': [5323], 's_2_28': [5051, 2186], 1: [4434, 2323, 2322, 2321, 2320, 2319, 4435, 4436, 4437, 2318], 's_4_1': [5322], 's_4_3': [5336], 's_4_6': [4915], 's_4_8': [2128], 's_4_9': [2051], 's_4_10': [4663], 's_4_12': [2515], 's_4_13': [2513], 's_4_14': [2154], 15: [5019, 1868, 2561, 5053, 5052, 2291, 5021, 2004, 4615, 2005, 2006, 5020], 's_4_15': [2021], 's_4_16': [2052], 's_4_17': [4781], 's_4_18': [5156], 's_4_19': [1811], 's_4_22': [5126, 2096], 's_4_23': [2023], 's_4_25': [2229], 's_4_26': [4768], 's_4_27': [2082], 's_4_28': [1931], 's_4_29': [5245], 's_5_1': [1673], 's_5_3': [4538], 's_5_7': [2425], 's_5_8': [2230], 's_5_9': [1690, 4853], 's_5_11': [4854], 's_5_13': [4974], 's_5_14': [1660], 's_5_16': [4869], 's_5_18': [1706], 's_5_19': [4929], 's_5_20': [4976], 's_5_21': [1659], 's_5_23': [2275], 's_5_29': [1869], 's_6_3': [4614], 's_6_8': [1873], 's_6_9': [5335], 's_6_11': [5049], 's_6_12': [4944], 's_6_14': [4884], 's_6_15': [4975], 's_6_16': [4749], 's_6_18': [5064], 's_6_19': [5589], 's_6_23': [5379, 1813], 's_6_24': [1844], 's_6_26': [1903], 's_6_28': [1780, 1781], 's_6_29': [5485], 's_7_8': [4691], 's_7_9': [5155], 's_7_10': [4798], 's_7_11': [4704], 's_7_14': [2049], 's_7_15': [1898], 's_7_16': [5034], 's_7_20': [5080], 's_7_22': [2426], 's_7_23': [4692], 's_7_24': [2486], 's_7_25': [2408], 's_7_26': [4887], 's_7_27': [5110], 's_7_28': [2351], 's_7_29': [2034], 's_8_1': [4422], 's_8_3': [2293], 's_8_10': [4392, 2272], 's_8_12': [4617], 's_8_13': [4407], 's_8_14': [4886], 's_8_15': [2201], 's_8_16': [2203], 's_8_18': [5215], 's_8_19': [1798], 's_8_20': [2125], 's_8_22': [2308], 's_8_23': [1783], 's_8_24': [1918], 's_8_26': [2053], 's_8_27': [1930], 's_8_28': [2065], 's_9_1': [2168], 's_9_3': [2093], 's_9_12': [4855], 's_9_13': [4512], 's_9_14': [4586], 's_9_15': [1916], 's_9_16': [5275], 's_9_17': [4721], 's_9_18': [5170], 's_9_19': [4480, 2108], 's_9_20': [5111], 's_9_21': [2228], 's_9_23': [5350], 's_9_24': [5154], 's_9_25': [4675], 's_9_26': [5410], 's_9_27': [5125], 's_9_28': [1616, 1617, 5183], 's_9_29': [4495], 's_10_1': [4482], 's_10_12': [2485], 's_10_13': [2483], 's_10_15': [4903], 's_10_17': [2352], 's_10_19': [2407], 's_10_21': [4708], 's_10_22': [4888], 's_10_23': [4423], 's_10_24': [5248], 's_10_25': [2349], 's_10_26': [5428], 's_10_27': [5278], 's_10_28': [4948], 's_11_1': [1853], 's_11_3': [4599], 's_11_12': [4780], 's_11_13': [5228], 's_11_14': [1855], 's_11_15': [4509], 's_11_16': [1792], 's_11_17': [1867], 's_11_19': [1808], 's_11_20': [1662], 's_11_21': [1854], 's_11_22': [5169], 's_11_24': [1752], 's_11_25': [1762], 's_11_29': [4795], 's_12_1': [4797], 's_12_3': [2273], 's_12_13': [4808], 's_12_14': [4919], 's_12_15': [4840], 's_12_17': [2305, 4947, 4946], 's_12_19': [2257], 's_12_20': [5084], 's_12_21': [4784], 's_12_22': [5023], 's_12_23': [4557], 's_12_24': [2666], 's_12_25': [4481], 's_12_27': [4885], 's_12_28': [1991], 's_12_29': [1959], 's_13_1': [4497, 2348], 's_13_3': [1733], 's_13_14': [2183], 's_13_15': [1913], 's_13_17': [2123], 's_13_18': [4673], 's_13_19': [5514], 's_13_21': [2603], 's_13_23': [4377], 's_13_24': [5454], 's_13_26': [1738], 's_13_27': [1943], 's_13_28': [4988], 's_13_29': [1872], 's_14_1': [2335], 's_14_3': [2169], 's_14_15': [1990], 's_14_16': [4719], 's_14_18': [4824, 4823], 's_14_19': [4839], 's_14_20': [5068], 's_14_21': [2124], 's_14_23': [4917], 's_14_25': [4661], 's_14_26': [4933], 's_14_27': [2442], 's_14_28': [4873, 2545], 's_14_29': [4571], 's_16_1': [1778], 's_16_3': [4584], 's_16_15': [4660], 's_16_18': [5214], 's_16_19': [4569], 's_16_20': [2173], 's_16_21': [4554], 's_16_24': [5274], 's_16_27': [4674], 's_17_1': [1658], 's_17_3': [4556], 's_17_18': [2097], 's_17_19': [1988], 's_17_20': [5216], 's_17_22': [2202], 's_17_23': [5277], 's_17_24': [5276], 's_17_25': [2137], 's_17_26': [5262], 's_17_27': [2157], 's_17_28': [4856], 's_17_29': [2047], 's_18_1': [2337], 's_18_15': [2292], 's_18_19': [5109], 's_18_20': [2022], 's_18_21': [5308], 's_18_22': [5294], 's_18_24': [5168], 's_18_25': [5307], 's_18_26': [2353], 's_18_27': [1992], 's_18_28': [1661], 's_19_1': [1912], 's_19_15': [4585, 1973], 's_19_20': [5079], 's_19_21': [4479], 's_19_22': [1812], 's_19_23': [2393], 's_19_24': [5484], 's_19_25': [2018], 's_19_26': [5409], 's_19_29': [4450], 's_20_3': [5022], 's_20_15': [4990], 's_20_21': [5083], 's_20_22': [2562], 's_20_23': [5082], 's_20_24': [2621], 's_20_26': [5158], 's_20_27': [2547], 's_20_28': [2306], 's_21_15': [5038], 's_21_22': [4858], 's_21_23': [5143], 's_21_24': [5188], 's_21_25': [2529], 's_21_26': [2394], 's_21_27': [5263], 's_21_29': [2048], 's_24_1': [5442], 's_24_3': [5517, 2369], 's_24_15': [2606], 's_24_22': [5218], 's_24_23': [2143], 's_24_26': [1888], 's_24_27': [2532], 's_24_28': [2576], 's_25_1': [5127], 's_25_3': [5157], 's_25_15': [5036], 's_25_23': [4618], 's_25_26': [5411], 's_25_29': [4601], 's_27_3': [5202], 's_27_22': [2487], 's_27_23': [2247], 's_27_26': [1948], 's_27_29': [1962], 's_28_1': [4977], 's_28_3': [4902], 's_28_15': [2171], 's_28_22': [2635], 's_28_23': [4992], 's_28_26': [4978], 's_28_29': [1961], 's_29_3': [4555], 's_29_15': [5050], 's_29_26': [1843], 's_3_1': [2333], 's_3_15': [1989], 's_3_22': [5142], 's_3_26': [4857], 's_22_15': [4979], 's_22_23': [5368], 's_22_26': [5187], 's_23_1': [5382], 's_23_15': [2290], 's_23_26': [5412], 's_26_1': [4827], 's_26_15': [5067], 's_1_15': [2003]}</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0007920227920227922</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.001465827885809461</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>{0: [1602, 4738, 5138, 1749, 4737, 4736, 2020, 4735, 4734, 4733, 1647, 1645, 1646], 2: [2155, 2156, 5081, 2187, 5304, 2412, 5305, 5306, 2188, 5303, 5352, 5351], 's_0_2': [1572], 4: [4899, 4900, 5321, 2067, 2066, 5065, 2036, 2035, 2514, 4753, 4752, 4751], 's_0_4': [2424], 5: [4794, 1705, 1870, 4963, 4962, 4961, 4960, 1674, 1675, 1676, 4959], 's_0_5': [4958], 6: [1859, 1764, 4914, 1765, 1858, 1857, 5529, 1856], 's_0_6': [4913], 7: [1901, 1900, 4705, 4706, 5037, 2411, 1899, 2410, 4707, 2409], 's_0_7': [2274], 8: [5393, 2198, 2199, 2200, 4870, 5396, 5394, 5395, 2113, 2112, 2111, 2110, 4871], 's_0_8': [2109], 9: [1691, 5139, 4511, 2077, 2008, 2007, 2078, 2079, 2081, 2080, 5141, 5140], 's_0_9': [5063], 10: [4662, 4451, 4452, 5217, 2468, 2469, 2473, 2472, 2471, 2470], 's_0_10': [4723], 11: [1707, 4600, 4930, 4359, 1838, 1839, 5243, 5244, 1842, 1841, 1840], 's_0_11': [1482, 5242], 12: [4809, 4945, 2258, 2259, 1960, 4810, 4811, 4812, 4813, 2650, 2651], 's_0_12': [2170], 13: [2363, 4528, 1723, 5229, 1722, 1721, 1720, 1719, 1718, 4524, 4525, 4526, 4527], 's_0_13': [4628], 14: [1810, 2184, 2441, 4918, 2440, 4842, 4841, 2185, 4766, 4764, 1884, 4765], 's_0_14': [4843, 2530], 16: [4659, 5261, 5260, 1793, 1797, 5259, 1794, 1795, 1796], 's_0_16': [5258], 17: [2427, 5247, 5246, 2142, 2141, 2140, 2139, 2138, 4421, 4420, 4419], 's_0_17': [1748], 18: [1734, 5018, 1735, 5293, 5292, 1736, 1737, 5198, 5199, 5200, 2127, 5291], 's_0_18': [4838], 19: [5319, 1829, 1828, 1827, 1826, 1825, 1824, 4467, 4466, 4465, 4464, 1823], 's_0_19': [4689], 20: [2456, 5099, 5098, 2172, 2126, 5093, 5094, 5095, 5097, 5096], 's_0_20': [5078], 21: [2502, 4643, 4783, 1883, 4644, 4645, 4646, 4647, 4648, 2499, 2500, 2501], 's_0_21': [2019], 24: [5213, 2577, 5114, 5113, 5112, 2231, 2232, 2233, 5441, 5440, 5439, 1768, 1767], 's_0_24': [1632], 25: [4676, 4374, 4603, 4602, 2216, 4375, 4376, 2217, 2213, 2218, 2214, 2215], 's_0_25': [2304], 27: [1944, 1945, 2457, 5233, 5232, 5231, 5230, 1946, 1947], 's_0_27': [4720], 28: [2455, 2260, 5008, 5003, 5004, 5005, 5006, 2336, 5007], 's_0_28': [1601], 29: [5320, 1978, 1977, 2062, 4750, 1976, 1975, 1974, 4630, 2063], 's_0_29': [4825], 3: [1763, 1809, 4539, 4540, 5337, 2368, 2367, 4541, 2366, 2365, 2364, 4542], 's_2_3': [5338], 's_2_4': [5066], 's_2_5': [4901, 2245], 's_2_6': [5290], 's_2_7': [1902], 's_2_9': [4916], 's_2_10': [2488], 's_2_11': [1782], 's_2_12': [4826], 's_2_13': [5289], 's_2_16': [2038], 's_2_18': [1557, 5197], 's_2_19': [1678], 's_2_20': [1587, 1586], 22: [2592, 4964, 5184, 5185, 2590, 2591, 5173, 5172, 5171, 2307, 5186], 's_2_22': [1932], 23: [5364, 4872, 5365, 5366, 2378, 2379, 2380, 2381, 2382, 5367, 2383], 's_2_23': [1887], 's_2_25': [5201], 26: [2395, 2396, 2397, 2398, 5424, 5425, 5426, 5427], 's_2_26': [2413], 's_2_27': [5323], 's_2_28': [5051, 2186], 1: [4434, 2323, 2322, 2321, 2320, 2319, 4435, 4436, 4437, 2318], 's_4_1': [5322], 's_4_3': [5336], 's_4_6': [4915], 's_4_8': [2128], 's_4_9': [2051], 's_4_10': [4663], 's_4_12': [2515], 's_4_13': [2513], 's_4_14': [2154], 15: [5019, 1868, 2561, 5053, 5052, 2291, 5021, 2004, 4615, 2005, 2006, 5020], 's_4_15': [2021], 's_4_16': [2052], 's_4_17': [4781], 's_4_18': [5156], 's_4_19': [1811], 's_4_22': [5126, 2096], 's_4_23': [2023], 's_4_25': [2229], 's_4_26': [4768], 's_4_27': [2082], 's_4_28': [1931], 's_4_29': [5245], 's_5_1': [1673], 's_5_3': [4538], 's_5_7': [2425], 's_5_8': [2230], 's_5_9': [1690, 4853], 's_5_11': [4854], 's_5_13': [4974], 's_5_14': [1660], 's_5_16': [4869], 's_5_18': [1706], 's_5_19': [4929], 's_5_20': [4976], 's_5_21': [1659], 's_5_23': [2275], 's_5_29': [1869], 's_6_3': [4614], 's_6_8': [1873], 's_6_9': [5335], 's_6_11': [5049], 's_6_12': [4944], 's_6_14': [4884], 's_6_15': [4975], 's_6_16': [4749], 's_6_18': [5064], 's_6_19': [5589], 's_6_23': [5379, 1813], 's_6_24': [1844], 's_6_26': [1903], 's_6_28': [1780, 1781], 's_6_29': [5485], 's_7_8': [4691], 's_7_9': [5155], 's_7_10': [4798], 's_7_11': [4704], 's_7_14': [2049], 's_7_15': [1898], 's_7_16': [5034], 's_7_20': [5080], 's_7_22': [2426], 's_7_23': [4692], 's_7_24': [2486], 's_7_25': [2408], 's_7_26': [4887], 's_7_27': [5110], 's_7_28': [2351], 's_7_29': [2034], 's_8_1': [4422], 's_8_3': [2293], 's_8_10': [4392, 2272], 's_8_12': [4617], 's_8_13': [4407], 's_8_14': [4886], 's_8_15': [2201], 's_8_16': [2203], 's_8_18': [5215], 's_8_19': [1798], 's_8_20': [2125], 's_8_22': [2308], 's_8_23': [1783], 's_8_24': [1918], 's_8_26': [2053], 's_8_27': [1930], 's_8_28': [2065], 's_9_1': [2168], 's_9_3': [2093], 's_9_12': [4855], 's_9_13': [4512], 's_9_14': [4586], 's_9_15': [1916], 's_9_16': [5275], 's_9_17': [4721], 's_9_18': [5170], 's_9_19': [4480, 2108], 's_9_20': [5111], 's_9_21': [2228], 's_9_23': [5350], 's_9_24': [5154], 's_9_25': [4675], 's_9_26': [5410], 's_9_27': [5125], 's_9_28': [1616, 1617, 5183], 's_9_29': [4495], 's_10_1': [4482], 's_10_12': [2485], 's_10_13': [2483], 's_10_15': [4903], 's_10_17': [2352], 's_10_19': [2407], 's_10_21': [4708], 's_10_22': [4888], 's_10_23': [4423], 's_10_24': [5248], 's_10_25': [2349], 's_10_26': [5428], 's_10_27': [5278], 's_10_28': [4948], 's_11_1': [1853], 's_11_3': [4599], 's_11_12': [4780], 's_11_13': [5228], 's_11_14': [1855], 's_11_15': [4509], 's_11_16': [1792], 's_11_17': [1867], 's_11_19': [1808], 's_11_20': [1662], 's_11_21': [1854], 's_11_22': [5169], 's_11_24': [1752], 's_11_25': [1762], 's_11_29': [4795], 's_12_1': [4797], 's_12_3': [2273], 's_12_13': [4808], 's_12_14': [4919], 's_12_15': [4840], 's_12_17': [2305, 4947, 4946], 's_12_19': [2257], 's_12_20': [5084], 's_12_21': [4784], 's_12_22': [5023], 's_12_23': [4557], 's_12_24': [2666], 's_12_25': [4481], 's_12_27': [4885], 's_12_28': [1991], 's_12_29': [1959], 's_13_1': [4497, 2348], 's_13_3': [1733], 's_13_14': [2183], 's_13_15': [1913], 's_13_17': [2123], 's_13_18': [4673], 's_13_19': [5514], 's_13_21': [2603], 's_13_23': [4377], 's_13_24': [5454], 's_13_26': [1738], 's_13_27': [1943], 's_13_28': [4988], 's_13_29': [1872], 's_14_1': [2335], 's_14_3': [2169], 's_14_15': [1990], 's_14_16': [4719], 's_14_18': [4824, 4823], 's_14_19': [4839], 's_14_20': [5068], 's_14_21': [2124], 's_14_23': [4917], 's_14_25': [4661], 's_14_26': [4933], 's_14_27': [2442], 's_14_28': [4873, 2545], 's_14_29': [4571], 's_16_1': [1778], 's_16_3': [4584], 's_16_15': [4660], 's_16_18': [5214], 's_16_19': [4569], 's_16_20': [2173], 's_16_21': [4554], 's_16_24': [5274], 's_16_27': [4674], 's_17_1': [1658], 's_17_3': [4556], 's_17_18': [2097], 's_17_19': [1988], 's_17_20': [5216], 's_17_22': [2202], 's_17_23': [5277], 's_17_24': [5276], 's_17_25': [2137], 's_17_26': [5262], 's_17_27': [2157], 's_17_28': [4856], 's_17_29': [2047], 's_18_1': [2337], 's_18_15': [2292], 's_18_19': [5109], 's_18_20': [2022], 's_18_21': [5308], 's_18_22': [5294], 's_18_24': [5168], 's_18_25': [5307], 's_18_26': [2353], 's_18_27': [1992], 's_18_28': [1661], 's_19_1': [1912], 's_19_15': [4585, 1973], 's_19_20': [5079], 's_19_21': [4479], 's_19_22': [1812], 's_19_23': [2393], 's_19_24': [5484], 's_19_25': [2018], 's_19_26': [5409], 's_19_29': [4450], 's_20_3': [5022], 's_20_15': [4990], 's_20_21': [5083], 's_20_22': [2562], 's_20_23': [5082], 's_20_24': [2621], 's_20_26': [5158], 's_20_27': [2547], 's_20_28': [2306], 's_21_15': [5038], 's_21_22': [4858], 's_21_23': [5143], 's_21_24': [5188], 's_21_25': [2529], 's_21_26': [2394], 's_21_27': [5263], 's_21_29': [2048], 's_24_1': [5442], 's_24_3': [5517, 2369], 's_24_15': [2606], 's_24_22': [5218], 's_24_23': [2143], 's_24_26': [1888], 's_24_27': [2532], 's_24_28': [2576], 's_25_1': [5127], 's_25_3': [5157], 's_25_15': [5036], 's_25_23': [4618], 's_25_26': [5411], 's_25_29': [4601], 's_27_3': [5202], 's_27_22': [2487], 's_27_23': [2247], 's_27_26': [1948], 's_27_29': [1962], 's_28_1': [4977], 's_28_3': [4902], 's_28_15': [2171], 's_28_22': [2635], 's_28_23': [4992], 's_28_26': [4978], 's_28_29': [1961], 's_29_3': [4555], 's_29_15': [5050], 's_29_26': [1843], 's_3_1': [2333], 's_3_15': [1989], 's_3_22': [5142], 's_3_26': [4857], 's_22_15': [4979], 's_22_23': [5368], 's_22_26': [5187], 's_23_1': [5382], 's_23_15': [2290], 's_23_26': [5412], 's_26_1': [4827], 's_26_15': [5067], 's_1_15': [2003]}</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0007920227920227922</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.001465827885809461</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>{0: [1333, 5213, 5212, 1332, 5211], 1: [1362, 5243, 5241, 5242], 2: [5408, 1497, 1498, 5407], 3: [5286, 1152, 5288, 5287], 7: [1407, 5303, 1303, 5302], 9: [1257, 1258, 5138, 5137, 5136], 10: [5301, 1123, 5333, 5332, 5331], 11: [1602, 1603], 13: [1317, 5468, 1318, 1319, 5467], 14: [1392, 1393, 5183, 5182, 5181], 15: [1093, 5270, 5273, 5272, 5271], 16: [5393, 1287, 1288, 5392, 5391], 17: [5153, 5210, 5152, 5151, 1212], 18: [1707, 5363, 5362, 5360, 5361], 19: [5452, 5376, 1378, 1376, 1377], 20: [5345, 5348, 5346, 1197, 5347], 21: [5198, 1302, 5196, 1542, 5197], 22: [5423, 1558, 1556, 1557], 23: [5091, 1347, 5108, 5107, 1346], 25: [5168, 1648, 1647], 27: [5077, 5123, 1483, 1482], 29: [1182, 5226, 5228, 5227], 30: [1167, 5318, 5317, 5316], 4: [1421, 1422, 1423, 5438, 5437], 6: [1273, 5167, 5166, 1272], 12: [1634, 1632, 1633], 24: [1438, 1436, 1437], 26: [5258, 5255, 5256, 5257], 28: [1452, 5378, 1453, 5377], 5: [5078, 1571, 1573, 1572], 8: [1616, 5453, 1617, 1618]}</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0.2284505552617662</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.05138049714590336</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>{0: [1333, 5213, 5212, 1332, 5211], 1: [1362, 5243, 5241, 5242], 2: [5408, 1497, 1498, 5407], 3: [5286, 1152, 5288, 5287], 7: [1407, 5303, 1303, 5302], 9: [1257, 1258, 5138, 5137, 5136], 10: [5301, 1123, 5333, 5332, 5331], 11: [1602, 1603], 13: [1317, 5468, 1318, 1319, 5467], 14: [1392, 1393, 5183, 5182, 5181], 15: [1093, 5270, 5273, 5272, 5271], 16: [5393, 1287, 1288, 5392, 5391], 17: [5153, 5210, 5152, 5151, 1212], 18: [1707, 5363, 5362, 5360, 5361], 19: [5452, 5376, 1378, 1376, 1377], 20: [5345, 5348, 5346, 1197, 5347], 21: [5198, 1302, 5196, 1542, 5197], 22: [5423, 1558, 1556, 1557], 23: [5091, 1347, 5108, 5107, 1346], 25: [5168, 1648, 1647], 27: [5077, 5123, 1483, 1482], 29: [1182, 5226, 5228, 5227], 30: [1167, 5318, 5317, 5316], 4: [1421, 1422, 1423, 5438, 5437], 6: [1273, 5167, 5166, 1272], 12: [1634, 1632, 1633], 24: [1438, 1436, 1437], 26: [5258, 5255, 5256, 5257], 28: [1452, 5378, 1453, 5377], 5: [5078, 1571, 1573, 1572], 8: [1616, 5453, 1617, 1618]}</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0.2284505552617662</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.05138049714590336</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>{0: [2495, 2493, 2492, 2491, 3163, 1532, 1531, 3263, 2494, 3162, 3161, 3160, 1831, 3264], 1: [3222, 1460, 3877, 3878, 2446, 2447, 2448, 2449, 3879, 2341, 3880, 3881, 3883, 3882], 's_0_1': [3823], 2: [2270, 2269, 2268, 2208, 3372, 2356, 2357, 3612, 3520, 3521, 3522, 2358], 's_0_2': [3523], 3: [3504, 3505, 4135, 2001, 3192, 3191, 3190, 1996, 2000, 1999, 1998, 1997], 's_0_3': [3130], 7: [3442, 2071, 2102, 3385, 4089, 1880, 3443, 3444, 3445, 1952, 1953, 3685, 1878, 1879], 's_0_7': [2101], 9: [1816, 1821, 3747, 3746, 1817, 1818, 1820, 3745, 3683, 3684, 1819, 1563, 3744], 's_0_9': [3114], 10: [1611, 1725, 3578, 1610, 1609, 3217, 3218, 1654, 3669, 3743, 1726, 1727, 1728], 's_0_10': [1681], 11: [1790, 3954, 1941, 1936, 1937, 1940, 1939, 1938], 's_0_11': [3175], 13: [2041, 3327, 3326, 3325, 1551, 4132, 1491, 1490, 1489, 1488, 1487, 3323, 3324], 's_0_13': [1561], 14: [3492, 2196, 2195, 3773, 2191, 2192, 2193, 3774, 3775, 3776, 2194], 's_0_14': [2206, 3116], 15: [4121, 2226, 3038, 2160, 2225, 2224, 2223, 2222, 3039, 3040, 2115, 3146, 2161, 2221, 3266], 's_0_15': [2070, 3071], 16: [3834, 3403, 1670, 3402, 3833, 3401, 3400, 3399, 1594, 1593, 1592, 3398], 's_0_16': [3503], 17: [1547, 2181, 4046, 1548, 3970, 1909, 1910, 4045, 4044, 4042, 4043, 1549, 1550], 's_0_17': [3533], 18: [3973, 2539, 2538, 3508, 3233, 3234, 1921, 3310, 3311, 2162, 3371, 2540, 2297, 3507], 's_0_18': [3778], 19: [3490, 1833, 1832, 1875, 1876, 1622, 1355, 3279, 3278, 3277, 1351, 1352, 1353, 1354], 's_0_19': [1546], 20: [3937, 1711, 3431, 3430, 3429, 1712, 3639, 3938, 1715, 1714, 1713], 's_0_20': [3428], 21: [2401, 1520, 1519, 1518, 1517, 1516, 3247, 3248, 3249, 3250, 3251, 3252, 3267, 2281], 's_0_21': [3382], 22: [2026, 1787, 3369, 3370, 2030, 2029, 3538, 3537, 3536, 2028, 2027], 's_0_22': [1786], 23: [3971, 3972, 1966, 1967, 2012, 3415, 2346, 2011, 2345, 2344, 2343, 3462, 3461, 3491, 2117], 's_0_23': [2116], 25: [3928, 3927, 1699, 2210, 3926, 3922, 3923, 3924, 3925], 's_0_25': [3913], 27: [3562, 3563, 3568, 3567, 3566, 3564, 2013, 3565], 's_0_27': [2523, 3628], 29: [3997, 2462, 2463, 2464, 2465, 4003, 3998, 2315, 3999, 4000, 4001, 4002], 's_0_29': [3433], 30: [3943, 3942, 2045, 4028, 3941, 2150, 1773, 1774, 1775, 4029, 4030, 2119, 2120, 4031], 's_0_30': [2510], 's_1_3': [2445], 4: [4148, 4149, 4151, 2416, 2417, 4150, 2418, 4091, 1776, 2166, 2165, 3792, 3791, 3866, 2419, 2104], 's_1_4': [3343], 6: [3898, 3607, 3897, 3896, 2059, 3688, 3608, 3609, 3610, 2283, 3687, 3686, 2058], 's_1_6': [2390], 's_1_7': [1864], 's_1_9': [3732], 's_1_11': [1805], 12: [1668, 1669, 2331, 2329, 3848, 2330, 1579, 3698, 3699, 3700, 3702, 3701], 's_1_12': [3847], 's_1_13': [3832], 's_1_14': [2254], 's_1_17': [1400], 's_1_18': [3493], 's_1_19': [3817], 's_1_20': [1625], 's_1_21': [3982], 's_1_22': [2432], 24: [2133, 2509, 1906, 1907, 1908, 3715, 2179, 3718, 2134, 3717, 3716], 's_1_24': [3838], 's_1_25': [1985], 26: [1851, 3787, 3788, 3789, 1850, 1849, 3597, 1846, 1847, 3596, 3595, 3594, 1848], 's_1_26': [3582], 's_1_27': [2478, 3658], 28: [3204, 3203, 3656, 1968, 3655, 1746, 1745, 3654, 1744, 1741, 3354, 1742, 1743], 's_1_28': [3894], 's_1_29': [3478], 's_1_30': [1970], 's_2_3': [3535], 's_2_4': [3627], 5: [1444, 3802, 3803, 2163, 2164, 2090, 2089, 3806, 3804, 3805], 's_2_5': [3626], 's_2_6': [2148], 's_2_7': [3476], 's_2_9': [2253], 's_2_11': [1923], 's_2_12': [3519], 's_2_14': [3132], 's_2_15': [3342], 's_2_16': [2072], 's_2_18': [3296, 3297], 's_2_19': [1877], 's_2_21': [3177], 's_2_22': [2298], 's_2_23': [3477, 2327], 's_2_24': [3731], 's_2_27': [3552], 's_2_29': [2477], 's_3_5': [4105], 's_3_6': [3835], 's_3_7': [3850], 8: [2435, 4078, 4133, 4072, 1626, 4073, 4074, 4075, 4077, 4076], 's_3_8': [2121], 's_3_9': [3730], 's_3_10': [3489], 's_3_12': [1984], 's_3_13': [2296], 's_3_14': [4136], 's_3_15': [2220], 's_3_18': [2251, 2250], 's_3_20': [1982], 's_3_21': [2371], 's_3_23': [3100], 's_3_26': [3189], 's_3_28': [3640], 's_3_29': [1986], 's_3_30': [3940], 's_7_4': [1791], 's_7_5': [1834], 's_7_6': [3580], 's_7_8': [1865], 's_7_10': [1652, 1651], 's_7_12': [1954], 's_7_13': [1667], 's_7_15': [3281], 's_7_16': [1757], 's_7_17': [3865], 's_7_18': [3386], 's_7_19': [1442], 's_7_20': [3446], 's_7_21': [1502], 's_7_22': [3460], 's_7_23': [3341], 's_7_24': [3625], 's_7_26': [4060], 's_7_28': [1863], 's_7_29': [1836], 's_7_30': [3579], 's_9_4': [1806], 's_9_5': [1789], 's_9_6': [2088], 's_9_10': [3653], 's_9_11': [3909], 's_9_12': [1578], 's_9_13': [3668], 's_9_14': [1969], 's_9_15': [1785, 3129], 's_9_16': [1802], 's_9_17': [4104], 's_9_18': [3748], 's_9_19': [3682], 's_9_20': [3819], 's_9_21': [3592], 's_9_22': [3414], 's_9_23': [2359], 's_9_24': [3714], 's_9_25': [2209], 's_9_26': [3729], 's_9_27': [1608], 's_9_28': [4164], 's_9_29': [2479], 's_9_30': [3969], 's_10_5': [1759], 's_10_6': [1638], 's_10_8': [4163], 's_10_12': [3758], 's_10_13': [3294, 1756], 's_10_14': [1639], 's_10_15': [3053], 's_10_16': [3983], 's_10_17': [3577], 's_10_18': [3232], 's_10_19': [3216], 's_10_20': [3413], 's_10_21': [1441], 's_10_26': [1624], 's_10_27': [1623], 's_10_28': [1636], 's_10_29': [4103, 1671], 's_10_30': [3534], 's_11_4': [1926], 's_11_13': [3295], 's_11_14': [1924], 's_11_16': [1922], 's_11_17': [1925], 's_11_18': [3219], 's_11_20': [3953], 's_11_22': [3820], 's_11_26': [4134], 's_11_28': [3670], 's_11_29': [1895], 's_11_30': [4015], 's_13_4': [1536], 's_13_6': [1473], 's_13_8': [1416], 's_13_14': [3312], 's_13_15': [2131], 's_13_17': [3412], 's_13_19': [1501], 's_13_20': [3309], 's_13_21': [3488], 's_13_23': [2342], 's_13_24': [3265], 's_13_26': [1474], 's_13_29': [1565, 3893], 's_14_4': [4166], 's_14_6': [2239], 's_14_15': [3101], 's_14_16': [1684], 's_14_17': [1894], 's_14_18': [2236, 3221], 's_14_20': [1729], 's_14_21': [3772], 's_14_23': [4062], 's_14_24': [2299], 's_14_25': [3836], 's_14_26': [3759], 's_14_28': [1804], 's_14_29': [3777], 's_15_6': [3672], 's_15_8': [2240], 's_15_12': [4047], 's_15_16': [3416], 's_15_17': [4106], 's_15_18': [2146], 's_15_19': [1710, 3069], 's_15_20': [2176, 2177], 's_15_21': [2086], 's_15_22': [2981, 2025], 's_15_23': [3131], 's_15_24': [3641], 's_15_25': [3821], 's_15_26': [1845], 's_15_27': [2237], 's_15_28': [1740], 's_15_30': [4032], 's_16_4': [1595, 1596], 's_16_5': [3713, 3712], 's_16_6': [2282], 's_16_12': [3863, 1475], 's_16_17': [3397], 's_16_18': [2537], 's_16_20': [2207], 's_16_22': [2402], 's_16_23': [2312], 's_16_25': [3908], 's_16_26': [1564], 's_16_27': [2553, 2552], 's_16_28': [3593], 's_16_29': [3417], 's_16_30': [3864], 's_17_4': [1911], 's_17_6': [3623], 's_17_8': [1325], 's_17_12': [3638], 's_17_19': [4027], 's_17_20': [1730], 's_17_21': [4058], 's_17_22': [2015], 's_17_23': [3986, 2105, 3987], 's_17_24': [2180], 's_17_26': [3939], 's_17_27': [3547], 's_17_29': [2016], 's_17_30': [1685], 's_18_4': [2266, 3282], 's_18_5': [3763, 3762, 3761], 's_18_6': [2524, 2525], 's_18_8': [2450], 's_18_19': [1861], 's_18_20': [3432], 's_18_21': [1591], 's_18_22': [3235], 's_18_23': [3463], 's_18_24': [2373, 2374], 's_18_25': [2570], 's_18_26': [1801, 3099], 's_18_27': [3553], 's_18_28': [1606], 's_18_29': [3868], 's_18_30': [2585], 's_19_6': [1368], 's_19_8': [4057], 's_19_20': [3936], 's_19_21': [3262], 's_19_23': [3340], 's_19_26': [3384], 's_19_27': [3561], 's_19_28': [3353, 3338], 's_19_29': [1370], 's_20_6': [3624], 's_20_8': [1535], 's_20_12': [1640], 's_20_22': [3548, 3549, 3550, 2087], 's_20_23': [2057], 's_20_24': [1892], 's_20_25': [1430], 's_20_26': [3474], 's_20_27': [1862], 's_20_30': [1760], 's_21_4': [3387], 's_21_5': [3727], 's_21_22': [2056], 's_21_24': [1891], 's_21_25': [3907], 's_21_26': [1504], 's_21_28': [1696], 's_21_29': [1415, 3952], 's_21_30': [1505], 's_22_4': [3790], 's_22_5': [3851], 's_22_23': [3115], 's_22_26': [2328], 's_22_27': [2612, 3539], 's_22_28': [3459], 's_22_29': [2031], 's_23_4': [4092], 's_23_5': [3506], 's_23_6': [3642], 's_23_8': [2361], 's_23_12': [4167], 's_23_24': [3280], 's_23_25': [3852], 's_23_26': [2178], 's_23_27': [2267], 's_23_28': [2118], 's_23_30': [3957], 's_25_5': [3910], 's_25_6': [1698], 's_25_12': [3818], 's_25_26': [1534], 's_25_28': [3849], 's_25_29': [1955], 's_25_30': [2660], 's_27_5': [1443], 's_27_6': [1428], 's_27_12': [1653], 's_27_24': [2508], 's_27_28': [1758], 's_27_30': [1788], 's_29_6': [3912, 2434], 's_29_8': [1461], 's_29_12': [3703], 's_29_24': [3793], 's_29_26': [2314, 2313], 's_30_4': [4061], 's_30_6': [2300], 's_30_8': [2420], 's_30_12': [2149], 's_30_24': [2135], 's_30_26': [3984], 's_30_28': [1772], 's_4_5': [2091], 's_4_6': [3657], 's_4_8': [1731], 's_4_12': [4152], 's_4_24': [3853], 's_4_26': [4119], 's_4_28': [4179], 's_6_5': [3671], 's_6_24': [2284], 's_6_26': [1803], 's_12_8': [2316], 's_12_26': [2043], 's_12_28': [2073], 's_24_26': [2433], 's_26_5': [1459], 's_28_5': [2014], 's_28_8': [4088], 's_5_8': [2075]}</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0008328767123287669</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.001464111229594684</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>{0: [2495, 2493, 2492, 2491, 3163, 1532, 1531, 3263, 2494, 3162, 3161, 3160, 1831, 3264], 1: [3222, 1460, 3877, 3878, 2446, 2447, 2448, 2449, 3879, 2341, 3880, 3881, 3883, 3882], 's_0_1': [3823], 2: [2270, 2269, 2268, 2208, 3372, 2356, 2357, 3612, 3520, 3521, 3522, 2358], 's_0_2': [3523], 3: [3504, 3505, 4135, 2001, 3192, 3191, 3190, 1996, 2000, 1999, 1998, 1997], 's_0_3': [3130], 7: [3442, 2071, 2102, 3385, 4089, 1880, 3443, 3444, 3445, 1952, 1953, 3685, 1878, 1879], 's_0_7': [2101], 9: [1816, 1821, 3747, 3746, 1817, 1818, 1820, 3745, 3683, 3684, 1819, 1563, 3744], 's_0_9': [3114], 10: [1611, 1725, 3578, 1610, 1609, 3217, 3218, 1654, 3669, 3743, 1726, 1727, 1728], 's_0_10': [1681], 11: [1790, 3954, 1941, 1936, 1937, 1940, 1939, 1938], 's_0_11': [3175], 13: [2041, 3327, 3326, 3325, 1551, 4132, 1491, 1490, 1489, 1488, 1487, 3323, 3324], 's_0_13': [1561], 14: [3492, 2196, 2195, 3773, 2191, 2192, 2193, 3774, 3775, 3776, 2194], 's_0_14': [2206, 3116], 15: [4121, 2226, 3038, 2160, 2225, 2224, 2223, 2222, 3039, 3040, 2115, 3146, 2161, 2221, 3266], 's_0_15': [2070, 3071], 16: [3834, 3403, 1670, 3402, 3833, 3401, 3400, 3399, 1594, 1593, 1592, 3398], 's_0_16': [3503], 17: [1547, 2181, 4046, 1548, 3970, 1909, 1910, 4045, 4044, 4042, 4043, 1549, 1550], 's_0_17': [3533], 18: [3973, 2539, 2538, 3508, 3233, 3234, 1921, 3310, 3311, 2162, 3371, 2540, 2297, 3507], 's_0_18': [3778], 19: [3490, 1833, 1832, 1875, 1876, 1622, 1355, 3279, 3278, 3277, 1351, 1352, 1353, 1354], 's_0_19': [1546], 20: [3937, 1711, 3431, 3430, 3429, 1712, 3639, 3938, 1715, 1714, 1713], 's_0_20': [3428], 21: [2401, 1520, 1519, 1518, 1517, 1516, 3247, 3248, 3249, 3250, 3251, 3252, 3267, 2281], 's_0_21': [3382], 22: [2026, 1787, 3369, 3370, 2030, 2029, 3538, 3537, 3536, 2028, 2027], 's_0_22': [1786], 23: [3971, 3972, 1966, 1967, 2012, 3415, 2346, 2011, 2345, 2344, 2343, 3462, 3461, 3491, 2117], 's_0_23': [2116], 25: [3928, 3927, 1699, 2210, 3926, 3922, 3923, 3924, 3925], 's_0_25': [3913], 27: [3562, 3563, 3568, 3567, 3566, 3564, 2013, 3565], 's_0_27': [2523, 3628], 29: [3997, 2462, 2463, 2464, 2465, 4003, 3998, 2315, 3999, 4000, 4001, 4002], 's_0_29': [3433], 30: [3943, 3942, 2045, 4028, 3941, 2150, 1773, 1774, 1775, 4029, 4030, 2119, 2120, 4031], 's_0_30': [2510], 's_1_3': [2445], 4: [4148, 4149, 4151, 2416, 2417, 4150, 2418, 4091, 1776, 2166, 2165, 3792, 3791, 3866, 2419, 2104], 's_1_4': [3343], 6: [3898, 3607, 3897, 3896, 2059, 3688, 3608, 3609, 3610, 2283, 3687, 3686, 2058], 's_1_6': [2390], 's_1_7': [1864], 's_1_9': [3732], 's_1_11': [1805], 12: [1668, 1669, 2331, 2329, 3848, 2330, 1579, 3698, 3699, 3700, 3702, 3701], 's_1_12': [3847], 's_1_13': [3832], 's_1_14': [2254], 's_1_17': [1400], 's_1_18': [3493], 's_1_19': [3817], 's_1_20': [1625], 's_1_21': [3982], 's_1_22': [2432], 24: [2133, 2509, 1906, 1907, 1908, 3715, 2179, 3718, 2134, 3717, 3716], 's_1_24': [3838], 's_1_25': [1985], 26: [1851, 3787, 3788, 3789, 1850, 1849, 3597, 1846, 1847, 3596, 3595, 3594, 1848], 's_1_26': [3582], 's_1_27': [2478, 3658], 28: [3204, 3203, 3656, 1968, 3655, 1746, 1745, 3654, 1744, 1741, 3354, 1742, 1743], 's_1_28': [3894], 's_1_29': [3478], 's_1_30': [1970], 's_2_3': [3535], 's_2_4': [3627], 5: [1444, 3802, 3803, 2163, 2164, 2090, 2089, 3806, 3804, 3805], 's_2_5': [3626], 's_2_6': [2148], 's_2_7': [3476], 's_2_9': [2253], 's_2_11': [1923], 's_2_12': [3519], 's_2_14': [3132], 's_2_15': [3342], 's_2_16': [2072], 's_2_18': [3296, 3297], 's_2_19': [1877], 's_2_21': [3177], 's_2_22': [2298], 's_2_23': [3477, 2327], 's_2_24': [3731], 's_2_27': [3552], 's_2_29': [2477], 's_3_5': [4105], 's_3_6': [3835], 's_3_7': [3850], 8: [2435, 4078, 4133, 4072, 1626, 4073, 4074, 4075, 4077, 4076], 's_3_8': [2121], 's_3_9': [3730], 's_3_10': [3489], 's_3_12': [1984], 's_3_13': [2296], 's_3_14': [4136], 's_3_15': [2220], 's_3_18': [2251, 2250], 's_3_20': [1982], 's_3_21': [2371], 's_3_23': [3100], 's_3_26': [3189], 's_3_28': [3640], 's_3_29': [1986], 's_3_30': [3940], 's_7_4': [1791], 's_7_5': [1834], 's_7_6': [3580], 's_7_8': [1865], 's_7_10': [1652, 1651], 's_7_12': [1954], 's_7_13': [1667], 's_7_15': [3281], 's_7_16': [1757], 's_7_17': [3865], 's_7_18': [3386], 's_7_19': [1442], 's_7_20': [3446], 's_7_21': [1502], 's_7_22': [3460], 's_7_23': [3341], 's_7_24': [3625], 's_7_26': [4060], 's_7_28': [1863], 's_7_29': [1836], 's_7_30': [3579], 's_9_4': [1806], 's_9_5': [1789], 's_9_6': [2088], 's_9_10': [3653], 's_9_11': [3909], 's_9_12': [1578], 's_9_13': [3668], 's_9_14': [1969], 's_9_15': [1785, 3129], 's_9_16': [1802], 's_9_17': [4104], 's_9_18': [3748], 's_9_19': [3682], 's_9_20': [3819], 's_9_21': [3592], 's_9_22': [3414], 's_9_23': [2359], 's_9_24': [3714], 's_9_25': [2209], 's_9_26': [3729], 's_9_27': [1608], 's_9_28': [4164], 's_9_29': [2479], 's_9_30': [3969], 's_10_5': [1759], 's_10_6': [1638], 's_10_8': [4163], 's_10_12': [3758], 's_10_13': [3294, 1756], 's_10_14': [1639], 's_10_15': [3053], 's_10_16': [3983], 's_10_17': [3577], 's_10_18': [3232], 's_10_19': [3216], 's_10_20': [3413], 's_10_21': [1441], 's_10_26': [1624], 's_10_27': [1623], 's_10_28': [1636], 's_10_29': [4103, 1671], 's_10_30': [3534], 's_11_4': [1926], 's_11_13': [3295], 's_11_14': [1924], 's_11_16': [1922], 's_11_17': [1925], 's_11_18': [3219], 's_11_20': [3953], 's_11_22': [3820], 's_11_26': [4134], 's_11_28': [3670], 's_11_29': [1895], 's_11_30': [4015], 's_13_4': [1536], 's_13_6': [1473], 's_13_8': [1416], 's_13_14': [3312], 's_13_15': [2131], 's_13_17': [3412], 's_13_19': [1501], 's_13_20': [3309], 's_13_21': [3488], 's_13_23': [2342], 's_13_24': [3265], 's_13_26': [1474], 's_13_29': [1565, 3893], 's_14_4': [4166], 's_14_6': [2239], 's_14_15': [3101], 's_14_16': [1684], 's_14_17': [1894], 's_14_18': [2236, 3221], 's_14_20': [1729], 's_14_21': [3772], 's_14_23': [4062], 's_14_24': [2299], 's_14_25': [3836], 's_14_26': [3759], 's_14_28': [1804], 's_14_29': [3777], 's_15_6': [3672], 's_15_8': [2240], 's_15_12': [4047], 's_15_16': [3416], 's_15_17': [4106], 's_15_18': [2146], 's_15_19': [1710, 3069], 's_15_20': [2176, 2177], 's_15_21': [2086], 's_15_22': [2981, 2025], 's_15_23': [3131], 's_15_24': [3641], 's_15_25': [3821], 's_15_26': [1845], 's_15_27': [2237], 's_15_28': [1740], 's_15_30': [4032], 's_16_4': [1595, 1596], 's_16_5': [3713, 3712], 's_16_6': [2282], 's_16_12': [3863, 1475], 's_16_17': [3397], 's_16_18': [2537], 's_16_20': [2207], 's_16_22': [2402], 's_16_23': [2312], 's_16_25': [3908], 's_16_26': [1564], 's_16_27': [2553, 2552], 's_16_28': [3593], 's_16_29': [3417], 's_16_30': [3864], 's_17_4': [1911], 's_17_6': [3623], 's_17_8': [1325], 's_17_12': [3638], 's_17_19': [4027], 's_17_20': [1730], 's_17_21': [4058], 's_17_22': [2015], 's_17_23': [3986, 2105, 3987], 's_17_24': [2180], 's_17_26': [3939], 's_17_27': [3547], 's_17_29': [2016], 's_17_30': [1685], 's_18_4': [2266, 3282], 's_18_5': [3763, 3762, 3761], 's_18_6': [2524, 2525], 's_18_8': [2450], 's_18_19': [1861], 's_18_20': [3432], 's_18_21': [1591], 's_18_22': [3235], 's_18_23': [3463], 's_18_24': [2373, 2374], 's_18_25': [2570], 's_18_26': [1801, 3099], 's_18_27': [3553], 's_18_28': [1606], 's_18_29': [3868], 's_18_30': [2585], 's_19_6': [1368], 's_19_8': [4057], 's_19_20': [3936], 's_19_21': [3262], 's_19_23': [3340], 's_19_26': [3384], 's_19_27': [3561], 's_19_28': [3353, 3338], 's_19_29': [1370], 's_20_6': [3624], 's_20_8': [1535], 's_20_12': [1640], 's_20_22': [3548, 3549, 3550, 2087], 's_20_23': [2057], 's_20_24': [1892], 's_20_25': [1430], 's_20_26': [3474], 's_20_27': [1862], 's_20_30': [1760], 's_21_4': [3387], 's_21_5': [3727], 's_21_22': [2056], 's_21_24': [1891], 's_21_25': [3907], 's_21_26': [1504], 's_21_28': [1696], 's_21_29': [1415, 3952], 's_21_30': [1505], 's_22_4': [3790], 's_22_5': [3851], 's_22_23': [3115], 's_22_26': [2328], 's_22_27': [2612, 3539], 's_22_28': [3459], 's_22_29': [2031], 's_23_4': [4092], 's_23_5': [3506], 's_23_6': [3642], 's_23_8': [2361], 's_23_12': [4167], 's_23_24': [3280], 's_23_25': [3852], 's_23_26': [2178], 's_23_27': [2267], 's_23_28': [2118], 's_23_30': [3957], 's_25_5': [3910], 's_25_6': [1698], 's_25_12': [3818], 's_25_26': [1534], 's_25_28': [3849], 's_25_29': [1955], 's_25_30': [2660], 's_27_5': [1443], 's_27_6': [1428], 's_27_12': [1653], 's_27_24': [2508], 's_27_28': [1758], 's_27_30': [1788], 's_29_6': [3912, 2434], 's_29_8': [1461], 's_29_12': [3703], 's_29_24': [3793], 's_29_26': [2314, 2313], 's_30_4': [4061], 's_30_6': [2300], 's_30_8': [2420], 's_30_12': [2149], 's_30_24': [2135], 's_30_26': [3984], 's_30_28': [1772], 's_4_5': [2091], 's_4_6': [3657], 's_4_8': [1731], 's_4_12': [4152], 's_4_24': [3853], 's_4_26': [4119], 's_4_28': [4179], 's_6_5': [3671], 's_6_24': [2284], 's_6_26': [1803], 's_12_8': [2316], 's_12_26': [2043], 's_12_28': [2073], 's_24_26': [2433], 's_26_5': [1459], 's_28_5': [2014], 's_28_8': [4088], 's_5_8': [2075]}</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0.0008328767123287669</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.001464111229594684</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>{0: [5008, 4558, 2531, 2530, 2529], 1: [2574, 2513, 4633, 2515, 2514], 2: [2273, 4949, 2274, 4948, 4947, 2275], 3: [2546, 4648, 2545, 2544], 4: [4993, 2590, 2588, 2589], 5: [2756, 2260, 4919, 4917, 4918], 7: [2500, 4812, 4814, 4813], 8: [4964, 2603, 2605, 2604], 9: [4542, 4543, 4544, 2755, 2754], 10: [2290, 4934, 4933, 4932], 11: [2663, 2665, 4678, 2664], 12: [2470, 4619, 4618, 2469], 13: [2635, 2633, 2634], 14: [2381, 2379, 4769, 4768, 2380], 15: [2351, 4724, 4723, 4722, 2350], 16: [4589, 2648, 2651, 2650, 2649], 17: [2620, 2618, 2619], 18: [4709, 2440, 2439, 2559, 4708], 19: [4902, 4904, 2485, 4903], 21: [2396, 2395, 4739, 4737, 4738], 22: [2711, 4573, 4574, 2709, 2710], 23: [4887, 4889, 4888], 24: [2320, 2319, 2349, 4604, 4603, 4602], 25: [2365, 2453, 4828, 4827, 2454], 26: [4662, 2695, 2694, 4663, 4664], 28: [2499, 2410, 2409, 2408, 4498, 4588, 2498], 29: [2726, 4753, 2679, 2725, 4754], 6: [2425, 4842, 4844, 4843], 20: [4859, 2455, 4857, 4858], 31: [4872, 4874, 4873], 27: [4782, 4783, 4829, 2680, 4784], 30: [4692, 2785, 4693, 4694, 2784]}</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0.1718098052851182</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.04982457478250005</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>{0: [5008, 4558, 2531, 2530, 2529], 1: [2574, 2513, 4633, 2515, 2514], 2: [2273, 4949, 2274, 4948, 4947, 2275], 3: [2546, 4648, 2545, 2544], 4: [4993, 2590, 2588, 2589], 5: [2756, 2260, 4919, 4917, 4918], 7: [2500, 4812, 4814, 4813], 8: [4964, 2603, 2605, 2604], 9: [4542, 4543, 4544, 2755, 2754], 10: [2290, 4934, 4933, 4932], 11: [2663, 2665, 4678, 2664], 12: [2470, 4619, 4618, 2469], 13: [2635, 2633, 2634], 14: [2381, 2379, 4769, 4768, 2380], 15: [2351, 4724, 4723, 4722, 2350], 16: [4589, 2648, 2651, 2650, 2649], 17: [2620, 2618, 2619], 18: [4709, 2440, 2439, 2559, 4708], 19: [4902, 4904, 2485, 4903], 21: [2396, 2395, 4739, 4737, 4738], 22: [2711, 4573, 4574, 2709, 2710], 23: [4887, 4889, 4888], 24: [2320, 2319, 2349, 4604, 4603, 4602], 25: [2365, 2453, 4828, 4827, 2454], 26: [4662, 2695, 2694, 4663, 4664], 28: [2499, 2410, 2409, 2408, 4498, 4588, 2498], 29: [2726, 4753, 2679, 2725, 4754], 6: [2425, 4842, 4844, 4843], 20: [4859, 2455, 4857, 4858], 31: [4872, 4874, 4873], 27: [4782, 4783, 4829, 2680, 4784], 30: [4692, 2785, 4693, 4694, 2784]}</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0.1718098052851182</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.04982457478250005</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>{0: [1678, 1449, 1450, 1451, 1452, 5407, 5408, 5413, 1453, 5412, 1708, 5411, 5410, 5409], 1: [4810, 4809, 1780, 1781, 1782, 2428, 5427, 5425, 5424, 5426, 1783], 's_0_1': [1933], 2: [2293, 2292, 2291, 2290, 4613, 4614, 1824, 4629, 4630, 4631, 2289], 's_0_2': [4612], 3: [4945, 5380, 4466, 4465, 1973, 1978, 1977, 1976, 1974, 1975], 's_0_3': [1963], 4: [4419, 5396, 5397, 2383, 2382, 2381, 1778, 4449, 2380, 2379, 4542, 4541, 2123, 4450], 's_0_4': [2173], 5: [4646, 2547, 2323, 2322, 2321, 2257, 5083, 5082, 2261, 2260, 2258, 2259], 's_0_5': [2548], 7: [2437, 4452, 2036, 2035, 4672, 2034, 4451, 2153, 4586, 4585, 4584, 4583, 1494], 's_0_7': [4537], 8: [2473, 4495, 5308, 4524, 4525, 1748, 2048, 2049, 4796, 4797, 4798, 2470, 2471, 2472], 's_0_8': [2533], 9: [5544, 1903, 1902, 1901, 5050, 4884, 4886, 4885, 4438, 4437, 4436, 2018, 2019, 2020, 2021], 's_0_9': [5543], 10: [5078, 1658, 1659, 1660, 5199, 5198, 1663, 1662, 1661], 's_0_10': [1423, 1422, 5197], 11: [4448, 1738, 4899, 1733, 1732, 5348, 1734, 1737, 1736, 1735], 's_0_11': [5528], 12: [5200, 2023, 5307, 1613, 5306, 1614, 2112, 5170, 5169, 5168, 1615, 1616, 1617], 's_0_12': [2353], 13: [2395, 2364, 5547, 2369, 2368, 4737, 2365, 1751, 4959, 2367, 2366, 4960, 4961, 4962], 's_0_13': [2413], 14: [5442, 5243, 2263, 5517, 1509, 1510, 1511, 5108, 1632, 1633, 1634, 5513, 5514, 5515, 5516], 's_0_14': [5242], 15: [5231, 2592, 2247, 2218, 5333, 5334, 5335, 5339, 5336, 5338, 5337], 's_0_15': [2578], 16: [4692, 2424, 4751, 4827, 5441, 5154, 5155, 5156, 4826, 2143, 2139, 2142, 2141, 2140], 's_0_16': [2158], 17: [1768, 5454, 4973, 4974, 2456, 1798, 1797, 1796, 5019, 5022, 5021, 5020], 's_0_17': [4972], 18: [1767, 2338, 2438, 5138, 5139, 5140, 5141, 2439, 2440, 2441, 5143, 5142, 2337], 's_0_18': [5137], 19: [5184, 1947, 4556, 2084, 2184, 2185, 2186, 2187, 5245, 2083, 2082, 5246], 's_0_19': [1948], 21: [1855, 4753, 2545, 4723, 4722, 4721, 4720, 1749, 4717, 4718, 4719], 's_0_21': [4777, 1374], 22: [2514, 2515, 4933, 4929, 5500, 5501, 2097, 2096, 2094, 4932, 2095, 2098, 4930, 4931], 's_0_22': [1918], 23: [4657, 4603, 1554, 1553, 4598, 4599, 4602, 4601, 4600], 's_0_23': [4642], 24: [1690, 2590, 4948, 4949, 2455, 4857, 4856, 4852, 4854, 4853, 4855], 's_0_24': [4837], 25: [1887, 4554, 5273, 5274, 1843, 1842, 1839, 1840, 1841], 's_0_25': [1498, 5272], 26: [5068, 5067, 2052, 5066, 2051, 5065, 5064, 1556, 4793, 1480, 1481, 5062, 5063], 's_0_26': [4897], 28: [5093, 5094, 4588, 4587, 2228, 5095, 2229, 2233, 2232, 5096, 2230, 2231], 's_0_28': [5092], 29: [5395, 2217, 2068, 5216, 2067, 5215, 2007, 2006, 4915, 4914, 1629, 1630, 4838, 5217, 1720], 's_0_29': [2008], 's_1_2': [1779], 's_1_3': [4780, 4779], 's_1_5': [5382], 6: [5172, 2204, 2203, 5171, 2202, 2201, 4901, 2125, 1808, 1809, 4643, 2124, 4645, 4644], 's_1_6': [2110], 's_1_7': [4825], 's_1_8': [2427], 's_1_9': [1873], 's_1_10': [5289], 's_1_11': [1753], 's_1_12': [2038], 's_1_13': [5532], 's_1_14': [1784], 's_1_15': [1993], 's_1_16': [2113], 's_1_17': [5484], 's_1_19': [4811], 20: [1795, 1914, 1794, 1540, 1539, 4703, 4704, 2320, 2319, 4707, 2199, 4706, 4705], 's_1_20': [2079], 's_1_22': [4944], 's_1_24': [1960], 's_1_25': [4839], 's_1_26': [2053], 's_1_28': [2278, 5531], 's_2_4': [4902], 's_2_5': [4917], 's_2_8': [1823], 's_2_9': [4887], 's_2_10': [4569], 's_2_11': [4539], 's_2_12': [1599], 's_2_14': [5381], 's_2_15': [5366], 's_2_16': [4991], 's_2_17': [5036], 's_2_18': [5247], 's_2_19': [2243], 's_2_20': [2214], 's_2_21': [1584], 's_2_22': [5351, 5350], 's_2_23': [1688], 's_2_24': [2305], 31: [1524, 1603, 2517, 2518, 4928, 5473, 5472, 5471, 4807, 1570, 1571, 1572, 1573, 5468, 5469, 5470], 's_2_31': [2308], 's_3_4': [4480], 's_3_5': [2272], 's_3_7': [2213], 's_3_8': [1988], 's_3_9': [2062], 's_3_12': [1962], 's_3_13': [4975], 's_3_15': [5320], 's_3_16': [2128], 's_3_17': [5379], 's_3_19': [2108], 's_3_20': [4795], 's_3_22': [5545, 1979], 's_3_23': [4615], 's_3_24': [4840], 's_3_25': [5305], 's_3_26': [5275], 27: [2138, 1646, 1645, 1916, 1915, 4512, 4511, 4510, 1898, 1900, 4823, 4824, 1899], 's_3_27': [2033], 's_3_28': [2303], 's_3_29': [5440], 30: [5228, 2532, 2500, 2501, 5113, 5229, 2169, 5110, 5111, 1857, 5112, 2246, 2170, 2171, 5051], 's_3_30': [1961], 's_3_31': [5485], 's_4_5': [5262], 's_4_6': [1777, 4359], 's_4_7': [1958], 's_4_8': [4540], 's_4_9': [2077], 's_4_10': [4434], 's_4_11': [1867, 4344, 1717], 's_4_13': [2443], 's_4_14': [2339, 2488, 2489, 5577], 's_4_15': [5323], 's_4_16': [2409, 2408, 4557], 's_4_17': [5037], 's_4_18': [5158], 's_4_19': [4421, 2183], 's_4_20': [1793], 's_4_21': [4768], 's_4_24': [5007], 's_4_25': [1763], 's_4_28': [2394], 's_4_29': [2397], 's_4_30': [4571], 's_5_7': [4496], 's_5_9': [4422], 's_5_13': [5352], 's_5_14': [5457], 's_5_15': [5233], 's_5_16': [5006], 's_5_19': [5081], 's_5_20': [4872], 's_5_23': [2273], 's_5_24': [2591], 's_5_26': [2606], 's_5_27': [4527], 's_5_29': [5127], 's_5_30': [5052], 's_5_31': [5218], 's_7_6': [1674], 's_7_8': [1868, 4570], 's_7_9': [2422], 's_7_10': [4673], 's_7_11': [1598], 's_7_12': [4568], 's_7_14': [1508], 's_7_16': [4946], 's_7_18': [4528, 2483], 's_7_19': [4766], 's_7_20': [1538], 's_7_21': [1434], 's_7_22': [5005], 's_7_26': [5035], 's_7_27': [4870], 's_7_28': [2227], 's_7_29': [4990], 's_7_30': [4976], 's_8_6': [4494, 1883], 's_8_9': [4690], 's_8_11': [4493], 's_8_12': [4478], 's_8_13': [5202], 's_8_15': [2412], 's_8_16': [4812], 's_8_17': [5098], 's_8_18': [4903], 's_8_19': [2078], 's_8_20': [1943, 1944], 's_8_21': [2469], 's_8_22': [2093, 4526], 's_8_23': [4523], 's_8_24': [4918], 's_8_26': [2486], 's_8_27': [2003], 's_8_28': [4782], 's_8_29': [2442], 's_8_30': [5248], 's_8_31': [2534, 5458], 's_9_6': [2155], 's_9_11': [1870], 's_9_13': [2363], 's_9_15': [1917], 's_9_16': [4781], 's_9_17': [1946], 's_9_18': [4482, 2348], 's_9_20': [2200], 's_9_21': [4735], 's_9_22': [1859], 's_9_23': [2529, 2528], 's_9_24': [1825], 's_9_25': [5125], 's_9_26': [5260], 's_9_27': [2393], 's_9_28': [2498], 's_9_30': [5214], 's_9_31': [1888], 's_10_6': [4404], 's_10_14': [5393], 's_10_15': [1872], 's_10_16': [1827], 's_10_18': [1932], 's_10_19': [5183], 's_10_20': [4733], 's_10_21': [4658], 's_10_22': [1676], 's_10_26': [4794], 's_10_27': [1675], 's_10_28': [1586], 's_10_31': [5423], 's_11_6': [4389], 's_11_13': [5109], 's_11_14': [1723], 's_11_15': [5259, 1813], 's_11_17': [5439], 's_11_18': [5304], 's_11_20': [4764], 's_11_21': [4734], 's_11_22': [1856], 's_11_23': [1718], 's_11_24': [5003], 's_11_25': [4869], 's_11_26': [1721], 's_11_27': [4509], 's_11_28': [5079], 's_11_29': [1628], 's_11_30': [1722], 's_11_31': [4898], 's_12_13': [4988], 's_12_14': [1647], 's_12_15': [2188], 's_12_16': [1691], 's_12_18': [2127], 's_12_19': [5291], 's_12_20': [4688], 's_12_21': [4628], 's_12_23': [4538], 's_12_24': [4913], 's_12_25': [4553], 's_12_26': [2111], 's_12_27': [4943], 's_12_29': [1992], 's_12_30': [2022], 's_12_31': [5123], 's_13_14': [2354], 's_13_15': [5292], 's_13_16': [4662], 's_13_17': [2336], 's_13_18': [5232], 's_13_20': [4947], 's_13_21': [4736], 's_13_22': [4738], 's_13_23': [2349], 's_13_24': [2350], 's_13_25': [1752], 's_13_26': [2306], 's_13_27': [5018], 's_13_28': [5546], 's_13_29': [2352], 's_13_31': [2384], 's_14_6': [5502], 's_14_15': [1542], 's_14_16': [2144], 's_14_17': [1799], 's_14_18': [1497], 's_14_19': [2114, 5621], 's_14_21': [4732], 's_14_22': [1994], 's_14_25': [1648], 's_14_26': [5017], 's_14_28': [1601], 's_14_31': [2174], 's_15_6': [2219], 's_15_17': [5394, 1858], 's_15_18': [5322], 's_15_19': [5261], 's_15_25': [1557], 's_15_26': [5230], 's_15_28': [5276], 's_15_30': [2502, 2503], 's_16_6': [2189, 5561], 's_16_17': [2156], 's_16_18': [2454], 's_16_20': [2335], 's_16_22': [4783], 's_16_23': [2109], 's_16_24': [2215], 's_16_25': [4750], 's_16_26': [5321], 's_16_27': [2423], 's_16_28': [5186], 's_16_29': [5201], 's_16_30': [4916], 's_16_31': [5153], 's_17_6': [5187], 's_17_18': [5244], 's_17_19': [2081], 's_17_20': [1555], 's_17_22': [1826], 's_17_24': [2245, 4977, 2351, 4992], 's_17_25': [5364], 's_17_26': [1496], 's_17_27': [5034], 's_17_28': [1931], 's_17_29': [2457], 's_17_30': [5023], 's_17_31': [5053, 2516, 4963], 's_18_6': [2157], 's_18_22': [4873], 's_18_23': [4618], 's_18_24': [4888], 's_18_25': [1602], 's_18_26': [5182, 1482], 's_18_28': [2453], 's_18_29': [2487], 's_18_30': [1587], 's_19_6': [5591], 's_19_20': [4676, 2274], 's_19_22': [2099], 's_19_23': [4691, 2154], 's_19_25': [5290], 's_19_26': [5126], 's_19_27': [4555], 's_19_29': [5185], 's_19_30': [1812], 's_19_31': [5486], 's_21_6': [4689], 's_21_20': [1959], 's_21_22': [4813], 's_21_23': [1419], 's_21_24': [2589], 's_21_25': [4765], 's_21_26': [2530, 2531], 's_21_28': [4752], 's_21_29': [1719], 's_21_30': [4828], 's_21_31': [1465], 's_22_6': [2216], 's_22_20': [4708], 's_22_23': [2484, 4693], 's_22_24': [4934], 's_22_25': [1844], 's_22_26': [2546], 's_22_27': [1930], 's_22_28': [4871], 's_22_29': [2065], 's_22_30': [4843], 's_22_31': [2039], 's_23_6': [2063], 's_23_20': [2004], 's_23_25': [1854], 's_23_26': [4822], 's_23_27': [4763], 's_23_28': [4617], 's_23_29': [4748], 's_23_30': [2499], 's_23_31': [4778], 's_24_6': [2080], 's_24_20': [4842], 's_24_26': [1495], 's_24_27': [1810], 's_24_28': [4841], 's_24_29': [4868], 's_24_30': [2561, 5008], 's_24_31': [1525], 's_25_20': [4659], 's_25_27': [4674], 's_25_30': [1707], 's_26_6': [2411], 's_26_20': [1541], 's_26_27': [1600], 's_26_28': [2126], 's_26_29': [1631], 's_26_31': [5032], 's_28_20': [4572], 's_28_27': [2288], 's_28_29': [2172], 's_28_31': [2248], 's_29_6': [5157], 's_29_27': [5080], 's_29_30': [2066], 's_29_31': [1705, 4883], 's_6_27': [1913], 's_6_30': [5173], 's_6_31': [5487], 's_20_27': [2198], 's_20_30': [4661], 's_20_31': [4987], 's_31_27': [4958], 's_31_30': [5474, 2608, 5203, 2607, 5278], 's_27_30': [2168]}</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0009754901960784311</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.001481973898524959</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>{0: [1678, 1449, 1450, 1451, 1452, 5407, 5408, 5413, 1453, 5412, 1708, 5411, 5410, 5409], 1: [4810, 4809, 1780, 1781, 1782, 2428, 5427, 5425, 5424, 5426, 1783], 's_0_1': [1933], 2: [2293, 2292, 2291, 2290, 4613, 4614, 1824, 4629, 4630, 4631, 2289], 's_0_2': [4612], 3: [4945, 5380, 4466, 4465, 1973, 1978, 1977, 1976, 1974, 1975], 's_0_3': [1963], 4: [4419, 5396, 5397, 2383, 2382, 2381, 1778, 4449, 2380, 2379, 4542, 4541, 2123, 4450], 's_0_4': [2173], 5: [4646, 2547, 2323, 2322, 2321, 2257, 5083, 5082, 2261, 2260, 2258, 2259], 's_0_5': [2548], 7: [2437, 4452, 2036, 2035, 4672, 2034, 4451, 2153, 4586, 4585, 4584, 4583, 1494], 's_0_7': [4537], 8: [2473, 4495, 5308, 4524, 4525, 1748, 2048, 2049, 4796, 4797, 4798, 2470, 2471, 2472], 's_0_8': [2533], 9: [5544, 1903, 1902, 1901, 5050, 4884, 4886, 4885, 4438, 4437, 4436, 2018, 2019, 2020, 2021], 's_0_9': [5543], 10: [5078, 1658, 1659, 1660, 5199, 5198, 1663, 1662, 1661], 's_0_10': [1423, 1422, 5197], 11: [4448, 1738, 4899, 1733, 1732, 5348, 1734, 1737, 1736, 1735], 's_0_11': [5528], 12: [5200, 2023, 5307, 1613, 5306, 1614, 2112, 5170, 5169, 5168, 1615, 1616, 1617], 's_0_12': [2353], 13: [2395, 2364, 5547, 2369, 2368, 4737, 2365, 1751, 4959, 2367, 2366, 4960, 4961, 4962], 's_0_13': [2413], 14: [5442, 5243, 2263, 5517, 1509, 1510, 1511, 5108, 1632, 1633, 1634, 5513, 5514, 5515, 5516], 's_0_14': [5242], 15: [5231, 2592, 2247, 2218, 5333, 5334, 5335, 5339, 5336, 5338, 5337], 's_0_15': [2578], 16: [4692, 2424, 4751, 4827, 5441, 5154, 5155, 5156, 4826, 2143, 2139, 2142, 2141, 2140], 's_0_16': [2158], 17: [1768, 5454, 4973, 4974, 2456, 1798, 1797, 1796, 5019, 5022, 5021, 5020], 's_0_17': [4972], 18: [1767, 2338, 2438, 5138, 5139, 5140, 5141, 2439, 2440, 2441, 5143, 5142, 2337], 's_0_18': [5137], 19: [5184, 1947, 4556, 2084, 2184, 2185, 2186, 2187, 5245, 2083, 2082, 5246], 's_0_19': [1948], 21: [1855, 4753, 2545, 4723, 4722, 4721, 4720, 1749, 4717, 4718, 4719], 's_0_21': [4777, 1374], 22: [2514, 2515, 4933, 4929, 5500, 5501, 2097, 2096, 2094, 4932, 2095, 2098, 4930, 4931], 's_0_22': [1918], 23: [4657, 4603, 1554, 1553, 4598, 4599, 4602, 4601, 4600], 's_0_23': [4642], 24: [1690, 2590, 4948, 4949, 2455, 4857, 4856, 4852, 4854, 4853, 4855], 's_0_24': [4837], 25: [1887, 4554, 5273, 5274, 1843, 1842, 1839, 1840, 1841], 's_0_25': [1498, 5272], 26: [5068, 5067, 2052, 5066, 2051, 5065, 5064, 1556, 4793, 1480, 1481, 5062, 5063], 's_0_26': [4897], 28: [5093, 5094, 4588, 4587, 2228, 5095, 2229, 2233, 2232, 5096, 2230, 2231], 's_0_28': [5092], 29: [5395, 2217, 2068, 5216, 2067, 5215, 2007, 2006, 4915, 4914, 1629, 1630, 4838, 5217, 1720], 's_0_29': [2008], 's_1_2': [1779], 's_1_3': [4780, 4779], 's_1_5': [5382], 6: [5172, 2204, 2203, 5171, 2202, 2201, 4901, 2125, 1808, 1809, 4643, 2124, 4645, 4644], 's_1_6': [2110], 's_1_7': [4825], 's_1_8': [2427], 's_1_9': [1873], 's_1_10': [5289], 's_1_11': [1753], 's_1_12': [2038], 's_1_13': [5532], 's_1_14': [1784], 's_1_15': [1993], 's_1_16': [2113], 's_1_17': [5484], 's_1_19': [4811], 20: [1795, 1914, 1794, 1540, 1539, 4703, 4704, 2320, 2319, 4707, 2199, 4706, 4705], 's_1_20': [2079], 's_1_22': [4944], 's_1_24': [1960], 's_1_25': [4839], 's_1_26': [2053], 's_1_28': [2278, 5531], 's_2_4': [4902], 's_2_5': [4917], 's_2_8': [1823], 's_2_9': [4887], 's_2_10': [4569], 's_2_11': [4539], 's_2_12': [1599], 's_2_14': [5381], 's_2_15': [5366], 's_2_16': [4991], 's_2_17': [5036], 's_2_18': [5247], 's_2_19': [2243], 's_2_20': [2214], 's_2_21': [1584], 's_2_22': [5351, 5350], 's_2_23': [1688], 's_2_24': [2305], 31: [1524, 1603, 2517, 2518, 4928, 5473, 5472, 5471, 4807, 1570, 1571, 1572, 1573, 5468, 5469, 5470], 's_2_31': [2308], 's_3_4': [4480], 's_3_5': [2272], 's_3_7': [2213], 's_3_8': [1988], 's_3_9': [2062], 's_3_12': [1962], 's_3_13': [4975], 's_3_15': [5320], 's_3_16': [2128], 's_3_17': [5379], 's_3_19': [2108], 's_3_20': [4795], 's_3_22': [5545, 1979], 's_3_23': [4615], 's_3_24': [4840], 's_3_25': [5305], 's_3_26': [5275], 27: [2138, 1646, 1645, 1916, 1915, 4512, 4511, 4510, 1898, 1900, 4823, 4824, 1899], 's_3_27': [2033], 's_3_28': [2303], 's_3_29': [5440], 30: [5228, 2532, 2500, 2501, 5113, 5229, 2169, 5110, 5111, 1857, 5112, 2246, 2170, 2171, 5051], 's_3_30': [1961], 's_3_31': [5485], 's_4_5': [5262], 's_4_6': [1777, 4359], 's_4_7': [1958], 's_4_8': [4540], 's_4_9': [2077], 's_4_10': [4434], 's_4_11': [1867, 4344, 1717], 's_4_13': [2443], 's_4_14': [2339, 2488, 2489, 5577], 's_4_15': [5323], 's_4_16': [2409, 2408, 4557], 's_4_17': [5037], 's_4_18': [5158], 's_4_19': [4421, 2183], 's_4_20': [1793], 's_4_21': [4768], 's_4_24': [5007], 's_4_25': [1763], 's_4_28': [2394], 's_4_29': [2397], 's_4_30': [4571], 's_5_7': [4496], 's_5_9': [4422], 's_5_13': [5352], 's_5_14': [5457], 's_5_15': [5233], 's_5_16': [5006], 's_5_19': [5081], 's_5_20': [4872], 's_5_23': [2273], 's_5_24': [2591], 's_5_26': [2606], 's_5_27': [4527], 's_5_29': [5127], 's_5_30': [5052], 's_5_31': [5218], 's_7_6': [1674], 's_7_8': [1868, 4570], 's_7_9': [2422], 's_7_10': [4673], 's_7_11': [1598], 's_7_12': [4568], 's_7_14': [1508], 's_7_16': [4946], 's_7_18': [4528, 2483], 's_7_19': [4766], 's_7_20': [1538], 's_7_21': [1434], 's_7_22': [5005], 's_7_26': [5035], 's_7_27': [4870], 's_7_28': [2227], 's_7_29': [4990], 's_7_30': [4976], 's_8_6': [4494, 1883], 's_8_9': [4690], 's_8_11': [4493], 's_8_12': [4478], 's_8_13': [5202], 's_8_15': [2412], 's_8_16': [4812], 's_8_17': [5098], 's_8_18': [4903], 's_8_19': [2078], 's_8_20': [1943, 1944], 's_8_21': [2469], 's_8_22': [2093, 4526], 's_8_23': [4523], 's_8_24': [4918], 's_8_26': [2486], 's_8_27': [2003], 's_8_28': [4782], 's_8_29': [2442], 's_8_30': [5248], 's_8_31': [2534, 5458], 's_9_6': [2155], 's_9_11': [1870], 's_9_13': [2363], 's_9_15': [1917], 's_9_16': [4781], 's_9_17': [1946], 's_9_18': [4482, 2348], 's_9_20': [2200], 's_9_21': [4735], 's_9_22': [1859], 's_9_23': [2529, 2528], 's_9_24': [1825], 's_9_25': [5125], 's_9_26': [5260], 's_9_27': [2393], 's_9_28': [2498], 's_9_30': [5214], 's_9_31': [1888], 's_10_6': [4404], 's_10_14': [5393], 's_10_15': [1872], 's_10_16': [1827], 's_10_18': [1932], 's_10_19': [5183], 's_10_20': [4733], 's_10_21': [4658], 's_10_22': [1676], 's_10_26': [4794], 's_10_27': [1675], 's_10_28': [1586], 's_10_31': [5423], 's_11_6': [4389], 's_11_13': [5109], 's_11_14': [1723], 's_11_15': [5259, 1813], 's_11_17': [5439], 's_11_18': [5304], 's_11_20': [4764], 's_11_21': [4734], 's_11_22': [1856], 's_11_23': [1718], 's_11_24': [5003], 's_11_25': [4869], 's_11_26': [1721], 's_11_27': [4509], 's_11_28': [5079], 's_11_29': [1628], 's_11_30': [1722], 's_11_31': [4898], 's_12_13': [4988], 's_12_14': [1647], 's_12_15': [2188], 's_12_16': [1691], 's_12_18': [2127], 's_12_19': [5291], 's_12_20': [4688], 's_12_21': [4628], 's_12_23': [4538], 's_12_24': [4913], 's_12_25': [4553], 's_12_26': [2111], 's_12_27': [4943], 's_12_29': [1992], 's_12_30': [2022], 's_12_31': [5123], 's_13_14': [2354], 's_13_15': [5292], 's_13_16': [4662], 's_13_17': [2336], 's_13_18': [5232], 's_13_20': [4947], 's_13_21': [4736], 's_13_22': [4738], 's_13_23': [2349], 's_13_24': [2350], 's_13_25': [1752], 's_13_26': [2306], 's_13_27': [5018], 's_13_28': [5546], 's_13_29': [2352], 's_13_31': [2384], 's_14_6': [5502], 's_14_15': [1542], 's_14_16': [2144], 's_14_17': [1799], 's_14_18': [1497], 's_14_19': [2114, 5621], 's_14_21': [4732], 's_14_22': [1994], 's_14_25': [1648], 's_14_26': [5017], 's_14_28': [1601], 's_14_31': [2174], 's_15_6': [2219], 's_15_17': [5394, 1858], 's_15_18': [5322], 's_15_19': [5261], 's_15_25': [1557], 's_15_26': [5230], 's_15_28': [5276], 's_15_30': [2502, 2503], 's_16_6': [2189, 5561], 's_16_17': [2156], 's_16_18': [2454], 's_16_20': [2335], 's_16_22': [4783], 's_16_23': [2109], 's_16_24': [2215], 's_16_25': [4750], 's_16_26': [5321], 's_16_27': [2423], 's_16_28': [5186], 's_16_29': [5201], 's_16_30': [4916], 's_16_31': [5153], 's_17_6': [5187], 's_17_18': [5244], 's_17_19': [2081], 's_17_20': [1555], 's_17_22': [1826], 's_17_24': [2245, 4977, 2351, 4992], 's_17_25': [5364], 's_17_26': [1496], 's_17_27': [5034], 's_17_28': [1931], 's_17_29': [2457], 's_17_30': [5023], 's_17_31': [5053, 2516, 4963], 's_18_6': [2157], 's_18_22': [4873], 's_18_23': [4618], 's_18_24': [4888], 's_18_25': [1602], 's_18_26': [5182, 1482], 's_18_28': [2453], 's_18_29': [2487], 's_18_30': [1587], 's_19_6': [5591], 's_19_20': [4676, 2274], 's_19_22': [2099], 's_19_23': [4691, 2154], 's_19_25': [5290], 's_19_26': [5126], 's_19_27': [4555], 's_19_29': [5185], 's_19_30': [1812], 's_19_31': [5486], 's_21_6': [4689], 's_21_20': [1959], 's_21_22': [4813], 's_21_23': [1419], 's_21_24': [2589], 's_21_25': [4765], 's_21_26': [2530, 2531], 's_21_28': [4752], 's_21_29': [1719], 's_21_30': [4828], 's_21_31': [1465], 's_22_6': [2216], 's_22_20': [4708], 's_22_23': [2484, 4693], 's_22_24': [4934], 's_22_25': [1844], 's_22_26': [2546], 's_22_27': [1930], 's_22_28': [4871], 's_22_29': [2065], 's_22_30': [4843], 's_22_31': [2039], 's_23_6': [2063], 's_23_20': [2004], 's_23_25': [1854], 's_23_26': [4822], 's_23_27': [4763], 's_23_28': [4617], 's_23_29': [4748], 's_23_30': [2499], 's_23_31': [4778], 's_24_6': [2080], 's_24_20': [4842], 's_24_26': [1495], 's_24_27': [1810], 's_24_28': [4841], 's_24_29': [4868], 's_24_30': [2561, 5008], 's_24_31': [1525], 's_25_20': [4659], 's_25_27': [4674], 's_25_30': [1707], 's_26_6': [2411], 's_26_20': [1541], 's_26_27': [1600], 's_26_28': [2126], 's_26_29': [1631], 's_26_31': [5032], 's_28_20': [4572], 's_28_27': [2288], 's_28_29': [2172], 's_28_31': [2248], 's_29_6': [5157], 's_29_27': [5080], 's_29_30': [2066], 's_29_31': [1705, 4883], 's_6_27': [1913], 's_6_30': [5173], 's_6_31': [5487], 's_20_27': [2198], 's_20_30': [4661], 's_20_31': [4987], 's_31_27': [4958], 's_31_30': [5474, 2608, 5203, 2607, 5278], 's_27_30': [2168]}</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0.0009754901960784311</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.001481973898524959</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>{0: [4683, 339, 4682, 4681], 1: [4728, 4727, 458, 459], 2: [730, 4562, 4561, 729, 4563], 3: [4789, 428, 4788, 4787, 429], 4: [4638, 698, 699, 700], 5: [653, 655, 654], 6: [488, 489, 490, 4773, 444, 4772], 8: [715, 354, 355, 4801, 4803, 4802], 9: [564, 4696, 4698, 4697], 10: [4442, 670, 669, 668], 11: [713, 4757, 4759, 714, 4758], 12: [4609, 4606, 4607, 4608], 14: [520, 4742, 518, 4637, 519], 15: [4503, 4502, 773, 473, 4636], 17: [4653, 4652, 384, 4651], 18: [369, 4531, 4533, 4532], 19: [743, 4743, 744, 745], 20: [758, 759, 4877, 4878, 760], 21: [849, 4668, 4666, 4667], 22: [625, 623, 4817, 624], 24: [638, 414, 4577, 4579, 4578], 25: [548, 549, 550], 26: [774, 4744, 4832, 4833, 775], 27: [4863, 399, 400, 4862, 4861, 295], 28: [503, 504, 4711, 4713, 4712], 29: [4591, 4594, 4592, 4593], 30: [4413, 578, 580, 579], 31: [4774, 804, 803, 4547, 4548], 7: [4367, 593, 595, 594], 13: [4623, 4621, 4622], 16: [533, 4848, 534, 4847, 535], 32: [4517, 684, 4518, 4487, 683], 23: [4472, 610, 609, 608]}</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.2054412740544128</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.04540237171750616</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>{0: [4683, 339, 4682, 4681], 1: [4728, 4727, 458, 459], 2: [730, 4562, 4561, 729, 4563], 3: [4789, 428, 4788, 4787, 429], 4: [4638, 698, 699, 700], 5: [653, 655, 654], 6: [488, 489, 490, 4773, 444, 4772], 8: [715, 354, 355, 4801, 4803, 4802], 9: [564, 4696, 4698, 4697], 10: [4442, 670, 669, 668], 11: [713, 4757, 4759, 714, 4758], 12: [4609, 4606, 4607, 4608], 14: [520, 4742, 518, 4637, 519], 15: [4503, 4502, 773, 473, 4636], 17: [4653, 4652, 384, 4651], 18: [369, 4531, 4533, 4532], 19: [743, 4743, 744, 745], 20: [758, 759, 4877, 4878, 760], 21: [849, 4668, 4666, 4667], 22: [625, 623, 4817, 624], 24: [638, 414, 4577, 4579, 4578], 25: [548, 549, 550], 26: [774, 4744, 4832, 4833, 775], 27: [4863, 399, 400, 4862, 4861, 295], 28: [503, 504, 4711, 4713, 4712], 29: [4591, 4594, 4592, 4593], 30: [4413, 578, 580, 579], 31: [4774, 804, 803, 4547, 4548], 7: [4367, 593, 595, 594], 13: [4623, 4621, 4622], 16: [533, 4848, 534, 4847, 535], 32: [4517, 684, 4518, 4487, 683], 23: [4472, 610, 609, 608]}</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0.2054412740544128</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.04540237171750616</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>{0: [1745, 3906, 3731, 2525, 3898, 3897, 1549, 3907, 3908, 3909, 2222, 2223, 2224, 3911, 3910], 1: [1867, 1866, 1622, 1623, 1624, 1625, 4166, 4165, 4164, 4163, 1626], 's_0_1': [3848], 2: [4003, 1671, 4001, 1446, 1447, 3997, 4002, 3998, 4000, 3999], 's_0_2': [2315], 3: [3819, 3338, 1531, 3263, 3264, 1771, 4314, 3579, 3324, 1802, 1803, 1804, 1808, 1807, 1806, 1805], 's_0_3': [3924], 4: [1850, 1382, 1383, 3971, 3970, 1715, 3969, 3968, 1384, 1385, 3967], 's_0_4': [2120], 5: [2072, 3591, 3592, 1563, 3533, 2134, 2133, 3537, 3536, 3535, 3534], 's_0_5': [3656], 6: [4207, 3747, 3746, 2150, 1611, 4208, 4209, 4210, 4211, 2152, 2151, 2298, 2299, 2300, 2301, 4091], 's_0_6': [2253], 8: [4282, 1492, 1491, 1490, 3982, 2208, 2207, 3281, 3280, 3279, 3278, 3277, 1366, 1367, 1368, 1369, 1370], 's_0_8': [3492], 9: [4270, 4390, 3954, 1913, 1912, 1911, 1910, 2056, 4269, 2057, 2058, 3702, 3701, 3700, 1908, 1909], 's_0_9': [2059], 10: [3343, 2507, 2508, 4228, 2510, 1672, 4253, 4254, 4255, 4256, 4257, 4258, 2509, 2512, 2511], 's_0_10': [3838], 11: [3307, 4122, 4121, 1457, 2466, 4120, 1986, 3412, 1577, 3862, 1578, 1579, 3863, 1985, 3864, 3865], 's_0_11': [3757], 12: [3351, 1592, 2281, 3942, 3352, 2375, 3472, 2374, 3657, 1427, 3367, 3368, 3369, 3370, 3371, 2282, 2283], 's_0_12': [3401], 14: [3325, 1891, 1892, 3564, 3563, 3562, 4511, 4510, 4509, 4508, 1628, 1627, 4178, 1566, 1458, 1459, 1460, 1461, 4087], 's_0_14': [1565], 15: [2236, 2237, 3416, 3418, 2627, 2107, 4359, 4360, 4361, 4362, 2407, 3583, 3417, 2628, 2629, 2630, 2631, 4273, 2406, 4272], 's_0_15': [3958], 17: [2451, 1233, 1234, 1235, 2376, 4137, 4136, 4135, 1716, 4134, 4133, 4132, 4131, 1236], 's_0_17': [3921], 18: [1880, 2267, 2523, 1476, 4058, 4059, 1792, 3613, 3612, 1791, 2268, 2269, 2270, 2286, 4104, 4105, 4106], 's_0_18': [2254], 19: [2102, 3461, 1942, 1941, 1940, 1594, 3743, 3820, 3744, 1936, 3491, 1937, 3490, 1938, 1939], 's_0_19': [3818], 20: [2177, 3523, 2419, 3883, 3428, 2417, 3432, 1877, 3427, 3732, 2087, 3429, 3430, 2418, 3431], 's_0_20': [2495], 21: [1922, 1923, 1924, 3790, 3789, 1522, 1521, 1520, 1519, 3787, 1699, 3788], 's_0_21': [3833], 22: [1696, 4063, 4062, 2240, 2239, 2238, 3308, 3310, 1997, 1998, 3594, 3596, 3309, 3595], 's_0_22': [3641], 24: [4405, 3849, 4404, 1652, 1653, 4465, 4464, 4463, 1654, 1655, 1656, 1657, 4358, 1658], 's_0_24': [3803], 25: [4348, 4342, 4343, 4344, 4345, 4346, 2344, 2345, 2346, 2347, 4347], 's_0_25': [3912], 26: [4014, 3384, 1838, 1837, 1836, 4030, 2342, 3387, 3386, 3385, 1967, 1970, 1968, 1969], 's_0_26': [2221], 27: [2436, 2433, 1669, 2435, 3688, 2359, 3682, 3683, 2434, 3684, 2073, 2463, 3685, 3687, 3686], 's_0_27': [3611], 28: [3771, 3772, 3773, 2539, 3778, 3777, 1819, 3776, 2104, 3774, 3775], 's_0_28': [2540], 29: [3398, 1817, 1847, 1732, 3444, 1727, 1728, 4283, 1731, 1730, 1729], 's_0_29': [3894], 30: [1641, 1640, 3884, 2599, 3926, 3877, 3878, 3879, 2135, 3808, 3807, 3806, 2074, 3880, 3881], 's_0_30': [1295], 31: [3519, 1788, 4300, 2032, 2031, 3639, 2027, 2028, 3985, 2030, 2029, 3640], 's_0_31': [3925], 's_1_3': [3293], 's_1_4': [3938], 's_1_5': [3623], 's_1_6': [1881], 7: [3442, 3443, 1682, 2326, 4167, 3504, 3505, 3506, 3507, 2331, 2330, 2329, 2328, 2327], 's_1_7': [3548], 's_1_8': [3983], 's_1_9': [4420], 's_1_11': [3698], 's_1_12': [3353], 13: [1355, 2227, 2226, 1357, 1356, 4147, 3745, 2119, 4148, 4149, 4150, 4152, 4151, 2166, 2165, 3821], 's_1_13': [1761], 's_1_14': [1638], 's_1_15': [2106], 16: [3188, 1756, 1757, 4421, 2183, 2182, 2181, 4046, 4045, 1758, 1759, 1760, 4044], 's_1_16': [3383], 's_1_17': [1776], 's_1_18': [2136], 's_1_19': [1639], 's_1_21': [4162], 's_1_24': [3413], 's_1_26': [1971], 's_1_29': [3578], 32: [2076, 2213, 4196, 2212, 2211, 3850, 3851, 3853, 3852, 2210], 's_1_32': [2196], 's_2_4': [1550], 's_2_6': [4017], 's_2_8': [1462], 's_2_9': [1775], 's_2_10': [4252], 's_2_13': [4237], 's_2_14': [4012], 's_2_17': [4138, 2556], 's_2_18': [2225], 's_2_19': [1595], 's_2_21': [4312], 's_2_22': [2526], 23: [3715, 2401, 3714, 1416, 1415, 1414, 3727, 3712, 3713, 1548, 1547, 1546, 3248, 3249, 3250, 3251, 3252], 's_2_23': [4222], 's_2_24': [4074], 's_2_25': [4327], 's_2_26': [1955], 's_2_27': [4018], 's_2_29': [4029], 's_2_30': [2600], 's_2_31': [2045], 's_3_4': [3939], 's_3_5': [1848], 's_3_6': [4224], 's_3_7': [1833], 's_3_9': [1893], 's_3_11': [3382], 's_3_12': [1681], 's_3_13': [1821], 's_3_14': [4524], 's_3_15': [1823], 's_3_16': [3354], 's_3_17': [4179], 's_3_18': [1777], 's_3_20': [1607], 's_3_21': [3729], 's_3_23': [1831], 's_3_24': [1651], 's_3_26': [4449], 's_3_27': [3699], 's_3_28': [3759], 's_3_29': [1816], 's_3_30': [1879], 's_3_31': [4299], 's_4_6': [3972], 's_4_8': [3411], 's_4_11': [3847], 's_4_12': [3487], 's_4_13': [3936], 's_4_14': [3697], 's_4_16': [1851], 's_4_18': [1475], 's_4_19': [1849], 's_4_20': [1397], 's_4_21': [3832], 's_4_24': [1670], 's_4_26': [3895], 's_4_27': [1398], 's_4_28': [1399], 's_4_29': [3834], 's_4_31': [3984], 's_4_32': [2195], 's_5_6': [3566], 's_5_8': [3532], 's_5_9': [3716], 's_5_11': [3668], 's_5_12': [1443], 's_5_13': [2118], 's_5_14': [1697], 's_5_15': [3446], 's_5_17': [3636, 1323], 's_5_20': [3538], 's_5_21': [1564], 's_5_22': [3791], 's_5_23': [1338], 's_5_26': [2343], 's_5_27': [2148], 's_5_29': [1862], 's_5_31': [1773], 's_5_32': [2149], 's_6_7': [4182], 's_6_8': [1536], 's_6_10': [1822], 's_6_11': [4092], 's_6_12': [2297], 's_6_13': [1371], 's_6_15': [4331], 's_6_16': [4226], 's_6_17': [1341], 's_6_18': [1746], 's_6_20': [2389], 's_6_22': [4061], 's_6_23': [1431], 's_6_25': [2137], 's_6_27': [2179], 's_6_28': [2479], 's_6_29': [4088], 's_6_30': [2285], 's_6_31': [4076], 's_6_32': [4181], 's_8_7': [3522], 's_8_10': [1582], 's_8_11': [1426], 's_8_12': [3337], 's_8_14': [3922], 's_8_15': [3357], 's_8_16': [4043], 's_8_17': [3756], 's_8_19': [2193], 's_8_20': [1352], 's_8_21': [3937], 's_8_22': [1561], 's_8_23': [1417], 's_8_25': [1477], 's_8_26': [3282], 's_8_27': [1353], 's_8_28': [1354], 's_8_29': [1832], 's_8_30': [3892], 's_8_31': [3295], 's_9_7': [2042], 's_9_10': [4180, 2017], 's_9_11': [4075], 's_9_12': [2041], 's_9_13': [4271], 's_9_14': [3326], 's_9_16': [1790], 's_9_17': [2091], 's_9_18': [4284], 's_9_20': [1878], 's_9_21': [1834], 's_9_23': [3265], 's_9_24': [4478, 4479], 's_9_25': [1927], 's_9_26': [3625], 's_9_27': [2194], 's_9_28': [3703, 2524], 's_9_30': [2209], 's_9_31': [1972], 's_9_32': [1835], 's_10_11': [4198], 's_10_13': [1506], 's_10_14': [1551], 's_10_15': [2527], 's_10_16': [4241], 's_10_17': [4183], 's_10_18': [2287], 's_10_19': [4240], 's_10_20': [2387], 's_10_21': [4238], 's_10_22': [4078], 's_10_23': [2416], 's_10_25': [2377], 's_10_26': [2431], 's_10_28': [3763], 's_10_29': [4298], 's_10_30': [3823], 's_10_32': [2167], 's_11_12': [1336], 's_11_13': [2046], 's_11_14': [1532], 's_11_17': [3861], 's_11_21': [1534], 's_11_22': [1487], 's_11_23': [3547], 's_11_24': [1684], 's_11_25': [2467], 's_11_26': [4015], 's_11_27': [3653], 's_11_28': [1324], 's_11_29': [3397], 's_11_30': [1310], 's_11_32': [1864], 's_12_7': [3162], 's_12_14': [3457], 's_12_15': [3236], 's_12_16': [1591], 's_12_17': [1232], 's_12_18': [3627], 's_12_20': [2192], 's_12_23': [2071], 's_12_24': [3473], 's_12_25': [2360], 's_12_27': [3673], 's_12_28': [3762], 's_12_29': [1742], 's_12_30': [3941], 's_12_31': [2012], 's_14_7': [1907], 's_14_13': [4027], 's_14_16': [2123], 's_14_17': [1596], 's_14_18': [4073], 's_14_19': [3414], 's_14_20': [1502], 's_14_22': [1876], 's_14_24': [4523, 1703], 's_14_25': [4328], 's_14_26': [1982], 's_14_27': [3667], 's_14_28': [1444], 's_14_31': [2033], 's_14_32': [4526], 's_15_7': [3312], 's_15_13': [2242], 's_15_16': [2018], 's_15_17': [4153, 4154], 's_15_18': [2568], 's_15_19': [4375], 's_15_20': [3524], 's_15_22': [4064], 's_15_23': [3266], 's_15_24': [2108], 's_15_25': [4302], 's_15_26': [2162], 's_15_27': [3582], 's_15_28': [3733], 's_15_29': [1762], 's_15_30': [3809], 's_15_31': [4315], 's_15_32': [4376], 's_17_7': [2256], 's_17_13': [1401], 's_17_16': [2001], 's_17_18': [4239], 's_17_19': [1926], 's_17_21': [3786], 's_17_22': [4168, 2541], 's_17_23': [3711], 's_17_24': [1686, 1685, 3953], 's_17_25': [4287, 2482], 's_17_26': [4119], 's_17_30': [3876], 's_17_32': [2241], 's_18_7': [2358], 's_18_13': [4227], 's_18_19': [4060], 's_18_20': [2478], 's_18_21': [1505], 's_18_22': [3761], 's_18_24': [4389], 's_18_25': [3642], 's_18_26': [4194], 's_18_27': [3672], 's_18_28': [2538], 's_18_30': [2598], 's_18_31': [2060], 's_18_32': [3956], 's_19_7': [1952], 's_19_16': [3189], 's_19_20': [2147], 's_19_21': [1774], 's_19_23': [1609], 's_19_26': [2117], 's_19_27': [1698], 's_19_28': [1789], 's_19_29': [3399], 's_19_30': [2015], 's_19_32': [1954], 's_20_7': [2312], 's_20_16': [3474], 's_20_21': [3520], 's_20_22': [3400], 's_20_23': [2176], 's_20_24': [1667], 's_20_25': [3882], 's_20_26': [2372], 's_20_27': [2449], 's_20_29': [1787], 's_20_31': [3311], 's_20_32': [2390], 's_21_13': [4192], 's_21_22': [1921], 's_21_23': [3802], 's_21_24': [4403], 's_21_25': [1507], 's_21_26': [3670], 's_21_28': [1504], 's_21_29': [3804], 's_21_30': [1894], 's_21_31': [3835], 's_22_7': [2163], 's_22_13': [2043], 's_22_16': [3233], 's_22_23': [1996], 's_22_24': [3593], 's_22_25': [3717], 's_22_27': [3597], 's_22_28': [1999], 's_22_29': [1726], 's_22_30': [3836], 's_22_31': [3460], 's_22_32': [4032], 's_24_13': [4357], 's_24_16': [2047], 's_24_23': [3728], 's_24_25': [1747], 's_24_26': [4434, 4435], 's_24_27': [3608, 1593], 's_24_28': [3758], 's_24_29': [4448], 's_24_31': [2092], 's_24_32': [2077], 's_25_7': [3957], 's_25_16': [2062], 's_25_26': [4329], 's_25_27': [2437], 's_25_29': [1597], 's_25_31': [1957], 's_25_32': [4197], 's_26_7': [3297], 's_26_16': [4031], 's_26_23': [1861], 's_26_27': [3580], 's_26_29': [1772], 's_26_30': [3805], 's_26_31': [3940], 's_27_7': [2313], 's_27_13': [2088], 's_27_16': [1743], 's_27_23': [1294], 's_27_28': [2464], 's_27_29': [3669], 's_28_7': [2314], 's_28_13': [3866], 's_28_16': [1744], 's_28_23': [1984], 's_28_29': [3654], 's_28_30': [2554], 's_28_31': [2014], 's_28_32': [2284], 's_29_16': [3294], 's_29_23': [1713], 's_29_30': [1714], 's_29_31': [3445], 's_30_7': [3792], 's_30_13': [2164], 's_30_16': [2075], 's_30_23': [1430], 's_30_31': [1925], 's_30_32': [2494], 's_31_7': [2013], 's_31_13': [3896], 's_31_16': [4301], 's_31_32': [4195], 's_7_13': [2361], 's_7_23': [3267], 's_7_32': [4212], 's_13_16': [4466], 's_13_23': [4057], 's_13_32': [3986], 's_16_23': [1621], 's_16_32': [4422]}</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0.001348729792147806</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.001778356976670921</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>{0: [1745, 3906, 3731, 2525, 3898, 3897, 1549, 3907, 3908, 3909, 2222, 2223, 2224, 3911, 3910], 1: [1867, 1866, 1622, 1623, 1624, 1625, 4166, 4165, 4164, 4163, 1626], 's_0_1': [3848], 2: [4003, 1671, 4001, 1446, 1447, 3997, 4002, 3998, 4000, 3999], 's_0_2': [2315], 3: [3819, 3338, 1531, 3263, 3264, 1771, 4314, 3579, 3324, 1802, 1803, 1804, 1808, 1807, 1806, 1805], 's_0_3': [3924], 4: [1850, 1382, 1383, 3971, 3970, 1715, 3969, 3968, 1384, 1385, 3967], 's_0_4': [2120], 5: [2072, 3591, 3592, 1563, 3533, 2134, 2133, 3537, 3536, 3535, 3534], 's_0_5': [3656], 6: [4207, 3747, 3746, 2150, 1611, 4208, 4209, 4210, 4211, 2152, 2151, 2298, 2299, 2300, 2301, 4091], 's_0_6': [2253], 8: [4282, 1492, 1491, 1490, 3982, 2208, 2207, 3281, 3280, 3279, 3278, 3277, 1366, 1367, 1368, 1369, 1370], 's_0_8': [3492], 9: [4270, 4390, 3954, 1913, 1912, 1911, 1910, 2056, 4269, 2057, 2058, 3702, 3701, 3700, 1908, 1909], 's_0_9': [2059], 10: [3343, 2507, 2508, 4228, 2510, 1672, 4253, 4254, 4255, 4256, 4257, 4258, 2509, 2512, 2511], 's_0_10': [3838], 11: [3307, 4122, 4121, 1457, 2466, 4120, 1986, 3412, 1577, 3862, 1578, 1579, 3863, 1985, 3864, 3865], 's_0_11': [3757], 12: [3351, 1592, 2281, 3942, 3352, 2375, 3472, 2374, 3657, 1427, 3367, 3368, 3369, 3370, 3371, 2282, 2283], 's_0_12': [3401], 14: [3325, 1891, 1892, 3564, 3563, 3562, 4511, 4510, 4509, 4508, 1628, 1627, 4178, 1566, 1458, 1459, 1460, 1461, 4087], 's_0_14': [1565], 15: [2236, 2237, 3416, 3418, 2627, 2107, 4359, 4360, 4361, 4362, 2407, 3583, 3417, 2628, 2629, 2630, 2631, 4273, 2406, 4272], 's_0_15': [3958], 17: [2451, 1233, 1234, 1235, 2376, 4137, 4136, 4135, 1716, 4134, 4133, 4132, 4131, 1236], 's_0_17': [3921], 18: [1880, 2267, 2523, 1476, 4058, 4059, 1792, 3613, 3612, 1791, 2268, 2269, 2270, 2286, 4104, 4105, 4106], 's_0_18': [2254], 19: [2102, 3461, 1942, 1941, 1940, 1594, 3743, 3820, 3744, 1936, 3491, 1937, 3490, 1938, 1939], 's_0_19': [3818], 20: [2177, 3523, 2419, 3883, 3428, 2417, 3432, 1877, 3427, 3732, 2087, 3429, 3430, 2418, 3431], 's_0_20': [2495], 21: [1922, 1923, 1924, 3790, 3789, 1522, 1521, 1520, 1519, 3787, 1699, 3788], 's_0_21': [3833], 22: [1696, 4063, 4062, 2240, 2239, 2238, 3308, 3310, 1997, 1998, 3594, 3596, 3309, 3595], 's_0_22': [3641], 24: [4405, 3849, 4404, 1652, 1653, 4465, 4464, 4463, 1654, 1655, 1656, 1657, 4358, 1658], 's_0_24': [3803], 25: [4348, 4342, 4343, 4344, 4345, 4346, 2344, 2345, 2346, 2347, 4347], 's_0_25': [3912], 26: [4014, 3384, 1838, 1837, 1836, 4030, 2342, 3387, 3386, 3385, 1967, 1970, 1968, 1969], 's_0_26': [2221], 27: [2436, 2433, 1669, 2435, 3688, 2359, 3682, 3683, 2434, 3684, 2073, 2463, 3685, 3687, 3686], 's_0_27': [3611], 28: [3771, 3772, 3773, 2539, 3778, 3777, 1819, 3776, 2104, 3774, 3775], 's_0_28': [2540], 29: [3398, 1817, 1847, 1732, 3444, 1727, 1728, 4283, 1731, 1730, 1729], 's_0_29': [3894], 30: [1641, 1640, 3884, 2599, 3926, 3877, 3878, 3879, 2135, 3808, 3807, 3806, 2074, 3880, 3881], 's_0_30': [1295], 31: [3519, 1788, 4300, 2032, 2031, 3639, 2027, 2028, 3985, 2030, 2029, 3640], 's_0_31': [3925], 's_1_3': [3293], 's_1_4': [3938], 's_1_5': [3623], 's_1_6': [1881], 7: [3442, 3443, 1682, 2326, 4167, 3504, 3505, 3506, 3507, 2331, 2330, 2329, 2328, 2327], 's_1_7': [3548], 's_1_8': [3983], 's_1_9': [4420], 's_1_11': [3698], 's_1_12': [3353], 13: [1355, 2227, 2226, 1357, 1356, 4147, 3745, 2119, 4148, 4149, 4150, 4152, 4151, 2166, 2165, 3821], 's_1_13': [1761], 's_1_14': [1638], 's_1_15': [2106], 16: [3188, 1756, 1757, 4421, 2183, 2182, 2181, 4046, 4045, 1758, 1759, 1760, 4044], 's_1_16': [3383], 's_1_17': [1776], 's_1_18': [2136], 's_1_19': [1639], 's_1_21': [4162], 's_1_24': [3413], 's_1_26': [1971], 's_1_29': [3578], 32: [2076, 2213, 4196, 2212, 2211, 3850, 3851, 3853, 3852, 2210], 's_1_32': [2196], 's_2_4': [1550], 's_2_6': [4017], 's_2_8': [1462], 's_2_9': [1775], 's_2_10': [4252], 's_2_13': [4237], 's_2_14': [4012], 's_2_17': [4138, 2556], 's_2_18': [2225], 's_2_19': [1595], 's_2_21': [4312], 's_2_22': [2526], 23: [3715, 2401, 3714, 1416, 1415, 1414, 3727, 3712, 3713, 1548, 1547, 1546, 3248, 3249, 3250, 3251, 3252], 's_2_23': [4222], 's_2_24': [4074], 's_2_25': [4327], 's_2_26': [1955], 's_2_27': [4018], 's_2_29': [4029], 's_2_30': [2600], 's_2_31': [2045], 's_3_4': [3939], 's_3_5': [1848], 's_3_6': [4224], 's_3_7': [1833], 's_3_9': [1893], 's_3_11': [3382], 's_3_12': [1681], 's_3_13': [1821], 's_3_14': [4524], 's_3_15': [1823], 's_3_16': [3354], 's_3_17': [4179], 's_3_18': [1777], 's_3_20': [1607], 's_3_21': [3729], 's_3_23': [1831], 's_3_24': [1651], 's_3_26': [4449], 's_3_27': [3699], 's_3_28': [3759], 's_3_29': [1816], 's_3_30': [1879], 's_3_31': [4299], 's_4_6': [3972], 's_4_8': [3411], 's_4_11': [3847], 's_4_12': [3487], 's_4_13': [3936], 's_4_14': [3697], 's_4_16': [1851], 's_4_18': [1475], 's_4_19': [1849], 's_4_20': [1397], 's_4_21': [3832], 's_4_24': [1670], 's_4_26': [3895], 's_4_27': [1398], 's_4_28': [1399], 's_4_29': [3834], 's_4_31': [3984], 's_4_32': [2195], 's_5_6': [3566], 's_5_8': [3532], 's_5_9': [3716], 's_5_11': [3668], 's_5_12': [1443], 's_5_13': [2118], 's_5_14': [1697], 's_5_15': [3446], 's_5_17': [3636, 1323], 's_5_20': [3538], 's_5_21': [1564], 's_5_22': [3791], 's_5_23': [1338], 's_5_26': [2343], 's_5_27': [2148], 's_5_29': [1862], 's_5_31': [1773], 's_5_32': [2149], 's_6_7': [4182], 's_6_8': [1536], 's_6_10': [1822], 's_6_11': [4092], 's_6_12': [2297], 's_6_13': [1371], 's_6_15': [4331], 's_6_16': [4226], 's_6_17': [1341], 's_6_18': [1746], 's_6_20': [2389], 's_6_22': [4061], 's_6_23': [1431], 's_6_25': [2137], 's_6_27': [2179], 's_6_28': [2479], 's_6_29': [4088], 's_6_30': [2285], 's_6_31': [4076], 's_6_32': [4181], 's_8_7': [3522], 's_8_10': [1582], 's_8_11': [1426], 's_8_12': [3337], 's_8_14': [3922], 's_8_15': [3357], 's_8_16': [4043], 's_8_17': [3756], 's_8_19': [2193], 's_8_20': [1352], 's_8_21': [3937], 's_8_22': [1561], 's_8_23': [1417], 's_8_25': [1477], 's_8_26': [3282], 's_8_27': [1353], 's_8_28': [1354], 's_8_29': [1832], 's_8_30': [3892], 's_8_31': [3295], 's_9_7': [2042], 's_9_10': [4180, 2017], 's_9_11': [4075], 's_9_12': [2041], 's_9_13': [4271], 's_9_14': [3326], 's_9_16': [1790], 's_9_17': [2091], 's_9_18': [4284], 's_9_20': [1878], 's_9_21': [1834], 's_9_23': [3265], 's_9_24': [4478, 4479], 's_9_25': [1927], 's_9_26': [3625], 's_9_27': [2194], 's_9_28': [3703, 2524], 's_9_30': [2209], 's_9_31': [1972], 's_9_32': [1835], 's_10_11': [4198], 's_10_13': [1506], 's_10_14': [1551], 's_10_15': [2527], 's_10_16': [4241], 's_10_17': [4183], 's_10_18': [2287], 's_10_19': [4240], 's_10_20': [2387], 's_10_21': [4238], 's_10_22': [4078], 's_10_23': [2416], 's_10_25': [2377], 's_10_26': [2431], 's_10_28': [3763], 's_10_29': [4298], 's_10_30': [3823], 's_10_32': [2167], 's_11_12': [1336], 's_11_13': [2046], 's_11_14': [1532], 's_11_17': [3861], 's_11_21': [1534], 's_11_22': [1487], 's_11_23': [3547], 's_11_24': [1684], 's_11_25': [2467], 's_11_26': [4015], 's_11_27': [3653], 's_11_28': [1324], 's_11_29': [3397], 's_11_30': [1310], 's_11_32': [1864], 's_12_7': [3162], 's_12_14': [3457], 's_12_15': [3236], 's_12_16': [1591], 's_12_17': [1232], 's_12_18': [3627], 's_12_20': [2192], 's_12_23': [2071], 's_12_24': [3473], 's_12_25': [2360], 's_12_27': [3673], 's_12_28': [3762], 's_12_29': [1742], 's_12_30': [3941], 's_12_31': [2012], 's_14_7': [1907], 's_14_13': [4027], 's_14_16': [2123], 's_14_17': [1596], 's_14_18': [4073], 's_14_19': [3414], 's_14_20': [1502], 's_14_22': [1876], 's_14_24': [4523, 1703], 's_14_25': [4328], 's_14_26': [1982], 's_14_27': [3667], 's_14_28': [1444], 's_14_31': [2033], 's_14_32': [4526], 's_15_7': [3312], 's_15_13': [2242], 's_15_16': [2018], 's_15_17': [4153, 4154], 's_15_18': [2568], 's_15_19': [4375], 's_15_20': [3524], 's_15_22': [4064], 's_15_23': [3266], 's_15_24': [2108], 's_15_25': [4302], 's_15_26': [2162], 's_15_27': [3582], 's_15_28': [3733], 's_15_29': [1762], 's_15_30': [3809], 's_15_31': [4315], 's_15_32': [4376], 's_17_7': [2256], 's_17_13': [1401], 's_17_16': [2001], 's_17_18': [4239], 's_17_19': [1926], 's_17_21': [3786], 's_17_22': [4168, 2541], 's_17_23': [3711], 's_17_24': [1686, 1685, 3953], 's_17_25': [4287, 2482], 's_17_26': [4119], 's_17_30': [3876], 's_17_32': [2241], 's_18_7': [2358], 's_18_13': [4227], 's_18_19': [4060], 's_18_20': [2478], 's_18_21': [1505], 's_18_22': [3761], 's_18_24': [4389], 's_18_25': [3642], 's_18_26': [4194], 's_18_27': [3672], 's_18_28': [2538], 's_18_30': [2598], 's_18_31': [2060], 's_18_32': [3956], 's_19_7': [1952], 's_19_16': [3189], 's_19_20': [2147], 's_19_21': [1774], 's_19_23': [1609], 's_19_26': [2117], 's_19_27': [1698], 's_19_28': [1789], 's_19_29': [3399], 's_19_30': [2015], 's_19_32': [1954], 's_20_7': [2312], 's_20_16': [3474], 's_20_21': [3520], 's_20_22': [3400], 's_20_23': [2176], 's_20_24': [1667], 's_20_25': [3882], 's_20_26': [2372], 's_20_27': [2449], 's_20_29': [1787], 's_20_31': [3311], 's_20_32': [2390], 's_21_13': [4192], 's_21_22': [1921], 's_21_23': [3802], 's_21_24': [4403], 's_21_25': [1507], 's_21_26': [3670], 's_21_28': [1504], 's_21_29': [3804], 's_21_30': [1894], 's_21_31': [3835], 's_22_7': [2163], 's_22_13': [2043], 's_22_16': [3233], 's_22_23': [1996], 's_22_24': [3593], 's_22_25': [3717], 's_22_27': [3597], 's_22_28': [1999], 's_22_29': [1726], 's_22_30': [3836], 's_22_31': [3460], 's_22_32': [4032], 's_24_13': [4357], 's_24_16': [2047], 's_24_23': [3728], 's_24_25': [1747], 's_24_26': [4434, 4435], 's_24_27': [3608, 1593], 's_24_28': [3758], 's_24_29': [4448], 's_24_31': [2092], 's_24_32': [2077], 's_25_7': [3957], 's_25_16': [2062], 's_25_26': [4329], 's_25_27': [2437], 's_25_29': [1597], 's_25_31': [1957], 's_25_32': [4197], 's_26_7': [3297], 's_26_16': [4031], 's_26_23': [1861], 's_26_27': [3580], 's_26_29': [1772], 's_26_30': [3805], 's_26_31': [3940], 's_27_7': [2313], 's_27_13': [2088], 's_27_16': [1743], 's_27_23': [1294], 's_27_28': [2464], 's_27_29': [3669], 's_28_7': [2314], 's_28_13': [3866], 's_28_16': [1744], 's_28_23': [1984], 's_28_29': [3654], 's_28_30': [2554], 's_28_31': [2014], 's_28_32': [2284], 's_29_16': [3294], 's_29_23': [1713], 's_29_30': [1714], 's_29_31': [3445], 's_30_7': [3792], 's_30_13': [2164], 's_30_16': [2075], 's_30_23': [1430], 's_30_31': [1925], 's_30_32': [2494], 's_31_7': [2013], 's_31_13': [3896], 's_31_16': [4301], 's_31_32': [4195], 's_7_13': [2361], 's_7_23': [3267], 's_7_32': [4212], 's_13_16': [4466], 's_13_23': [4057], 's_13_32': [3986], 's_16_23': [1621], 's_16_32': [4422]}</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0.001348729792147806</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.001778356976670921</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>{0: [5110, 1976, 5350, 1977, 1978], 1: [5111, 2174, 2173, 2172], 2: [5457, 2203, 2204, 5455, 5456], 3: [5292, 5291, 2053, 2051, 2052], 4: [2189, 2188, 5125, 5126, 2187], 5: [5170, 5171, 2308, 2307], 6: [5096, 2246, 2248, 2247, 5351], 7: [5517, 2066, 5516, 2068, 2067], 8: [5140, 2143, 5141, 2142], 10: [5530, 2096, 2097, 2098], 14: [1947, 5426, 5425, 1948], 15: [1812, 1813, 5381, 5379, 5380], 16: [5472, 2233, 5230, 5231, 2232], 17: [1797, 5216, 5215, 5214], 18: [1887, 1888, 5487, 5486, 5485], 19: [5066, 2111, 2113, 2112], 20: [2126, 5185, 2128, 2127], 21: [5095, 1994, 1993, 1992], 23: [2081, 2083, 2082], 25: [5277, 1932, 5275, 5276], 26: [5411, 1857, 1858, 5410, 5409], 28: [5201, 5200, 2009, 2008, 2007], 29: [5366, 2038, 5364, 5365], 30: [2368, 5337, 5335, 5336], 32: [1872, 5259, 5261, 5260], 33: [1917, 5320, 5322, 5321], 9: [2141, 2218, 5080, 5081, 2217], 11: [5186, 5470, 2157, 5471, 2158], 13: [5304, 5305, 5307, 5306], 22: [2293, 2292, 5157, 5156, 5155], 27: [5442, 1903, 5439, 5441, 5440], 31: [5396, 5395, 1962, 1963], 12: [1902, 5245, 5247, 2202, 5246], 24: [2024, 2022, 2023]}</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.2115186155433833</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.05126008080716275</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>{0: [5110, 1976, 5350, 1977, 1978], 1: [5111, 2174, 2173, 2172], 2: [5457, 2203, 2204, 5455, 5456], 3: [5292, 5291, 2053, 2051, 2052], 4: [2189, 2188, 5125, 5126, 2187], 5: [5170, 5171, 2308, 2307], 6: [5096, 2246, 2248, 2247, 5351], 7: [5517, 2066, 5516, 2068, 2067], 8: [5140, 2143, 5141, 2142], 10: [5530, 2096, 2097, 2098], 14: [1947, 5426, 5425, 1948], 15: [1812, 1813, 5381, 5379, 5380], 16: [5472, 2233, 5230, 5231, 2232], 17: [1797, 5216, 5215, 5214], 18: [1887, 1888, 5487, 5486, 5485], 19: [5066, 2111, 2113, 2112], 20: [2126, 5185, 2128, 2127], 21: [5095, 1994, 1993, 1992], 23: [2081, 2083, 2082], 25: [5277, 1932, 5275, 5276], 26: [5411, 1857, 1858, 5410, 5409], 28: [5201, 5200, 2009, 2008, 2007], 29: [5366, 2038, 5364, 5365], 30: [2368, 5337, 5335, 5336], 32: [1872, 5259, 5261, 5260], 33: [1917, 5320, 5322, 5321], 9: [2141, 2218, 5080, 5081, 2217], 11: [5186, 5470, 2157, 5471, 2158], 13: [5304, 5305, 5307, 5306], 22: [2293, 2292, 5157, 5156, 5155], 27: [5442, 1903, 5439, 5441, 5440], 31: [5396, 5395, 1962, 1963], 12: [1902, 5245, 5247, 2202, 5246], 24: [2024, 2022, 2023]}</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0.2115186155433833</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.05126008080716275</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>{0: [877, 4186, 4111, 3826, 410, 4968, 4967, 416, 415, 411, 412, 4399, 4398, 4397, 414, 413], 1: [4310, 4821, 3871, 3872, 3873, 3874, 3875, 1055, 1056, 4115, 1191, 1192, 1193, 4820, 1194], 's_0_1': [424], 2: [3936, 3935, 3934, 3933, 3931, 3932, 4248, 4714, 4713, 684, 683, 682, 681, 680], 's_0_2': [4712, 4711], 3: [1010, 805, 860, 1101, 804, 803, 802, 4025, 4024, 800, 801], 's_0_3': [686, 776, 5043, 4924], 4: [440, 4067, 4068, 4069, 4070, 4071, 1145, 1146, 1147, 1148, 1149, 4999, 5000, 1150], 's_0_4': [3961], 5: [4925, 1220, 1221, 1222, 457, 187, 4290, 4291, 1075, 1074, 1073, 1072, 4292, 4293, 4294, 4295], 's_0_5': [4185], 6: [4129, 996, 263, 262, 260, 261, 4216, 4220, 4219, 4218, 4217], 's_0_6': [4110], 7: [157, 1314, 4472, 4471, 4851, 4850, 4849, 1315, 4848, 4847, 4470, 4846, 4845, 160, 159, 158], 's_0_7': [400], 8: [445, 3814, 4699, 964, 966, 967, 4459, 893, 4937, 4938, 965, 4939, 895, 894], 's_0_8': [746], 10: [1105, 4877, 472, 714, 715, 4879, 4880, 4428, 713, 4307, 652, 4878, 4306], 's_0_10': [4876], 14: [4095, 4578, 4099, 4096, 669, 668, 4098, 4097, 667, 664, 665, 666], 's_0_14': [396], 15: [3963, 755, 756, 757, 4234, 1090, 1089, 4580, 1028, 1027, 1091, 4235], 's_0_15': [4400], 16: [279, 277, 3950, 278, 875, 3949, 3948, 695, 696, 4143, 4142, 4141, 4260, 276], 's_0_16': [4681], 17: [4670, 1209, 850, 849, 248, 4591, 4597, 4596, 4595, 4592, 4593, 4594], 's_0_17': [399], 18: [1343, 1342, 1341, 1340, 3981, 563, 562, 560, 3980, 3856, 3857, 3858, 561, 3859, 3860, 1100], 's_0_18': [349], 19: [5029, 941, 940, 4546, 4547, 4548, 938, 939, 4549], 's_0_19': [5026, 5027, 5028], 20: [1175, 3996, 1296, 1174, 1297, 1298, 4506, 4505, 4504, 4863, 775, 774, 773, 4503], 's_0_20': [758], 21: [4113, 846, 891, 892, 5014, 911, 910, 5013, 909, 4276, 4277, 4278, 847, 4384, 908], 's_0_21': [701], 23: [514, 3827, 3828, 4354, 3829, 985, 984, 983, 982, 981, 905, 906, 4114], 's_0_23': [862], 25: [4701, 1179, 1271, 4771, 789, 1270, 4776, 4775, 880, 444, 4772, 4773, 4774], 's_0_25': [4787], 26: [4157, 4352, 3920, 3919, 549, 548, 3918, 3917, 546, 547, 545], 's_0_26': [3916], 28: [320, 1116, 4056, 4055, 4054, 4053, 4862, 4861, 325, 324, 323, 322, 321, 4051, 4052], 's_0_28': [3976], 29: [786, 1235, 1117, 1240, 1239, 1238, 1237, 1236, 4187, 4188, 4189, 4190, 4191], 's_0_29': [471], 30: [4201, 4202, 4517, 490, 489, 485, 486, 487, 488], 's_0_30': [3901], 32: [1254, 1253, 1252, 1251, 623, 622, 621, 620, 4082, 4083, 4084, 4086, 4085], 's_0_32': [607], 33: [935, 820, 3979, 815, 816, 4636, 4637, 4638, 819, 818, 817], 's_0_33': [4969], 's_1_2': [350], 's_1_3': [1009], 's_1_4': [3965], 's_1_5': [4130], 's_1_6': [1071], 's_1_7': [4716], 's_1_8': [3890], 9: [760, 761, 1255, 458, 4911, 654, 4910, 4909, 4908, 4907, 460, 459, 4651, 4652], 's_1_9': [1225], 's_1_10': [1135], 11: [4626, 3992, 4625, 1059, 4760, 4759, 4758, 4757, 4756, 220, 219, 218, 217, 216, 4021, 4022, 455], 's_1_11': [305], 13: [4009, 936, 937, 4324, 1012, 4971, 1165, 1164, 1163, 1162, 4325], 's_1_13': [1057], 's_1_15': [725], 's_1_16': [1040], 's_1_17': [4640], 's_1_18': [1054], 's_1_20': [4326], 22: [879, 878, 233, 4536, 1284, 864, 863, 1283, 4416, 4415, 4411, 4412, 4413, 4414], 's_1_22': [4356], 's_1_23': [4040, 980], 27: [814, 4456, 3889, 3888, 3887, 503, 575, 3962, 4232, 502, 501, 500], 's_1_27': [454], 's_1_28': [3995], 's_1_29': [4176], 31: [1118, 4491, 4475, 4474, 1000, 999, 998, 4490, 4489, 4488, 4487, 4486, 368, 367, 366], 's_1_31': [1058, 4460], 's_1_32': [4581], 's_1_33': [920], 's_2_3': [4249], 's_2_4': [1086, 1085], 's_2_5': [697], 's_2_6': [3930], 's_2_7': [955], 's_2_9': [4743, 609], 's_2_11': [335], 12: [4668, 535, 4667, 4727, 534, 531, 532, 533], 's_2_12': [4112], 's_2_14': [425], 's_2_15': [4338], 's_2_16': [4038], 's_2_18': [1280], 's_2_20': [1266, 1265], 's_2_21': [636], 's_2_22': [4729], 's_2_23': [679], 24: [1042, 4341, 712, 355, 354, 353, 352, 1207, 4265, 4561, 4264, 4263, 4262, 4261], 's_2_24': [742], 's_2_25': [730], 's_2_27': [470], 's_2_28': [1160], 's_2_30': [4203], 's_2_31': [4715], 's_2_32': [1325], 's_3_4': [4160], 's_3_5': [787], 's_3_6': [1011], 's_3_8': [4579], 's_3_10': [4818], 's_3_12': [4622, 4623], 's_3_14': [4023], 's_3_16': [995], 's_3_17': [4789], 's_3_19': [4698, 759], 's_3_20': [4429], 's_3_21': [806], 's_3_22': [4564], 's_3_23': [4039], 's_3_24': [1102], 's_3_25': [4653], 's_3_26': [3903], 's_3_27': [799, 3753], 's_3_28': [3993, 771], 's_3_31': [4955, 4954], 's_4_5': [1076], 's_4_8': [4700], 's_4_9': [1136], 's_4_10': [1015], 's_4_11': [3991, 4006], 's_4_12': [530, 4037], 's_4_13': [4431], 's_4_14': [726], 's_4_15': [4730], 's_4_17': [4655], 's_4_19': [1031], 's_4_21': [1046], 's_4_23': [921], 's_4_24': [4280], 's_4_25': [4805, 1120], 's_4_26': [1144], 's_4_27': [439], 's_4_28': [4145], 's_4_29': [4221], 's_4_30': [3946], 's_4_32': [711], 's_4_33': [830], 's_5_6': [4320], 's_5_7': [4245], 's_5_8': [4250], 's_5_9': [1060], 's_5_10': [4305], 's_5_12': [4322], 's_5_13': [4340], 's_5_15': [952], 's_5_17': [4745, 1029], 's_5_18': [3966], 's_5_19': [4610], 's_5_20': [3876], 's_5_21': [337], 's_5_22': [1177], 's_5_23': [4565], 's_5_24': [1132], 's_5_25': [4790], 's_5_27': [427], 's_5_28': [307], 's_5_29': [4296], 's_5_30': [4427], 's_5_31': [1088, 4370], 's_5_33': [832], 's_6_7': [4455], 's_6_11': [232], 's_6_12': [516], 's_6_13': [1087], 's_6_14': [336], 's_6_15': [4204], 's_6_16': [4140], 's_6_17': [247], 's_6_18': [259], 's_6_22': [4440], 's_6_23': [4205], 's_6_26': [456], 's_6_28': [876], 's_6_29': [727], 's_6_32': [1026], 's_7_8': [655], 's_7_9': [1301, 1300, 1299, 4582], 's_7_11': [4725], 's_7_14': [156], 's_7_15': [4835], 's_7_16': [4800], 's_7_17': [4590], 's_7_18': [4567], 's_7_20': [4551, 1223], 's_7_21': [925], 's_7_22': [1285], 's_7_23': [970], 's_7_24': [4560, 4575], 's_7_25': [4777], 's_7_27': [383], 's_7_28': [4860], 's_7_29': [4866], 's_7_30': [4831], 's_7_31': [4485], 's_7_32': [4671], 's_7_33': [835], 's_8_9': [4922], 's_8_10': [475], 's_8_12': [4669], 's_8_13': [4159], 's_8_14': [3799, 3798], 's_8_16': [3904], 's_8_18': [859], 's_8_19': [4624], 's_8_21': [896], 's_8_22': [4430, 1043], 's_8_23': [4339], 's_8_24': [4891, 401], 's_8_25': [790], 's_8_26': [979], 's_8_27': [3784], 's_8_28': [4936], 's_8_29': [4174], 's_8_31': [4309, 997], 's_8_33': [3754, 934], 's_10_9': [1030], 's_10_11': [4803, 745], 's_10_12': [4442], 's_10_13': [4323], 's_10_15': [4864, 4865], 's_10_17': [865], 's_10_18': [4367], 's_10_19': [4533], 's_10_20': [4443], 's_10_21': [4308], 's_10_22': [743], 's_10_23': [4353], 's_10_24': [4383], 's_10_25': [700], 's_10_26': [593], 's_10_27': [4441], 's_10_31': [4473], 's_10_32': [4563], 's_14_9': [4683], 's_14_12': [4127], 's_14_13': [951], 's_14_15': [3978], 's_14_16': [306], 's_14_17': [638], 's_14_18': [3902], 's_14_20': [670], 's_14_21': [861], 's_14_22': [698], 's_14_23': [3767], 's_14_24': [4368], 's_14_27': [3843], 's_14_28': [381], 's_14_29': [4158], 's_14_30': [4081], 's_14_31': [728, 4518], 's_15_9': [1106], 's_15_13': [4985], 's_15_16': [4173], 's_15_17': [1104], 's_15_19': [4940], 's_15_20': [1013], 's_15_21': [4444], 's_15_22': [4535], 's_15_23': [3813], 's_15_24': [4236], 's_15_26': [740], 's_15_27': [770], 's_15_28': [785], 's_15_29': [922], 's_15_31': [4895], 's_16_11': [275], 's_16_12': [4726], 's_16_13': [4008], 's_16_19': [4531], 's_16_20': [1205], 's_16_21': [651], 's_16_22': [4426], 's_16_23': [694], 's_16_24': [4741, 294], 's_16_26': [3947], 's_16_28': [4815], 's_16_29': [3951], 's_16_31': [4156], 's_16_33': [3994], 's_17_9': [519], 's_17_11': [1389], 's_17_12': [594], 's_17_18': [4612], 's_17_21': [924], 's_17_22': [4609], 's_17_24': [4576], 's_17_25': [969, 4684], 's_17_26': [4607], 's_17_28': [309], 's_17_31': [653], 's_17_32': [4686], 's_17_33': [564], 's_18_11': [4641], 's_18_20': [4521], 's_18_22': [4461], 's_18_23': [649], 's_18_24': [4371], 's_18_26': [634], 's_18_27': [395], 's_18_28': [1115, 1130], 's_18_30': [484], 's_18_31': [365], 's_18_32': [4446], 's_19_9': [926], 's_19_11': [4545], 's_19_12': [729], 's_19_13': [4550], 's_19_20': [833, 4519], 's_19_22': [4654], 's_19_23': [986], 's_19_25': [4834], 's_19_27': [338], 's_19_28': [293, 4620], 's_19_30': [473], 's_19_31': [1001], 's_19_33': [4369], 's_20_9': [640], 's_20_11': [1178], 's_20_13': [4520], 's_20_21': [923], 's_20_22': [1268, 1267, 1282], 's_20_23': [968], 's_20_24': [1176], 's_20_25': [4728], 's_20_26': [1189], 's_20_28': [1190], 's_20_29': [3891], 's_20_31': [1313], 's_20_32': [1311], 's_20_33': [4833], 's_21_9': [956], 's_21_11': [4744], 's_21_22': [4639], 's_21_24': [4279], 's_21_25': [881], 's_21_26': [845], 's_21_27': [441], 's_21_28': [4275], 's_21_29': [772], 's_21_30': [382], 's_21_31': [4984], 's_21_32': [606], 's_21_33': [5044, 821], 's_23_13': [4355], 's_23_27': [3844], 's_23_29': [1041], 's_23_32': [619], 's_23_33': [4894], 's_25_9': [4801], 's_25_11': [429], 's_25_12': [565], 's_25_13': [4746], 's_25_22': [1269], 's_25_24': [4696], 's_25_29': [4791], 's_25_30': [4742], 's_25_31': [4804], 's_25_32': [4731], 's_25_33': [443], 's_26_9': [4532], 's_26_22': [578], 's_26_24': [517], 's_26_27': [515], 's_26_28': [591], 's_26_29': [3921], 's_26_30': [4382], 's_26_31': [4351], 's_26_32': [3977], 's_26_33': [890], 's_28_9': [4906], 's_28_11': [290], 's_28_12': [580], 's_28_13': [4010], 's_28_22': [308], 's_28_24': [4921, 280], 's_28_27': [3886], 's_28_30': [505], 's_28_31': [4246], 's_28_32': [1281], 's_28_33': [4635], 's_29_9': [4836], 's_29_13': [1241], 's_29_24': [4266, 1326], 's_29_30': [4172], 's_29_31': [4476], 's_29_32': [1250], 's_29_33': [4128], 's_30_9': [4682], 's_30_11': [4007], 's_30_24': [426], 's_30_31': [4126], 's_30_33': [504], 's_32_9': [4502], 's_32_11': [576], 's_32_12': [624], 's_32_13': [4611], 's_32_24': [4251], 's_32_31': [608], 's_33_9': [384], 's_33_11': [834], 's_33_12': [579], 's_33_13': [4144], 's_33_22': [4534], 's_33_24': [339], 's_33_31': [428], 's_9_11': [4650], 's_9_12': [4817], 's_9_13': [4956, 1121, 1256], 's_9_24': [356, 4951, 4952], 's_9_31': [4912, 1405, 1404, 1403, 1388], 's_11_12': [699], 's_11_13': [4761], 's_11_22': [4500], 's_11_24': [4606], 's_11_27': [605], 's_11_31': [1119], 's_13_22': [4566], 's_13_24': [4386], 's_13_31': [4970], 's_22_12': [518], 's_22_24': [1208], 's_22_31': [1133], 's_27_12': [4247], 's_27_24': [397], 's_31_24': [4381], 's_12_24': [4666]}</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.001164759725400458</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.001703106059416637</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>{0: [877, 4186, 4111, 3826, 410, 4968, 4967, 416, 415, 411, 412, 4399, 4398, 4397, 414, 413], 1: [4310, 4821, 3871, 3872, 3873, 3874, 3875, 1055, 1056, 4115, 1191, 1192, 1193, 4820, 1194], 's_0_1': [424], 2: [3936, 3935, 3934, 3933, 3931, 3932, 4248, 4714, 4713, 684, 683, 682, 681, 680], 's_0_2': [4712, 4711], 3: [1010, 805, 860, 1101, 804, 803, 802, 4025, 4024, 800, 801], 's_0_3': [686, 776, 5043, 4924], 4: [440, 4067, 4068, 4069, 4070, 4071, 1145, 1146, 1147, 1148, 1149, 4999, 5000, 1150], 's_0_4': [3961], 5: [4925, 1220, 1221, 1222, 457, 187, 4290, 4291, 1075, 1074, 1073, 1072, 4292, 4293, 4294, 4295], 's_0_5': [4185], 6: [4129, 996, 263, 262, 260, 261, 4216, 4220, 4219, 4218, 4217], 's_0_6': [4110], 7: [157, 1314, 4472, 4471, 4851, 4850, 4849, 1315, 4848, 4847, 4470, 4846, 4845, 160, 159, 158], 's_0_7': [400], 8: [445, 3814, 4699, 964, 966, 967, 4459, 893, 4937, 4938, 965, 4939, 895, 894], 's_0_8': [746], 10: [1105, 4877, 472, 714, 715, 4879, 4880, 4428, 713, 4307, 652, 4878, 4306], 's_0_10': [4876], 14: [4095, 4578, 4099, 4096, 669, 668, 4098, 4097, 667, 664, 665, 666], 's_0_14': [396], 15: [3963, 755, 756, 757, 4234, 1090, 1089, 4580, 1028, 1027, 1091, 4235], 's_0_15': [4400], 16: [279, 277, 3950, 278, 875, 3949, 3948, 695, 696, 4143, 4142, 4141, 4260, 276], 's_0_16': [4681], 17: [4670, 1209, 850, 849, 248, 4591, 4597, 4596, 4595, 4592, 4593, 4594], 's_0_17': [399], 18: [1343, 1342, 1341, 1340, 3981, 563, 562, 560, 3980, 3856, 3857, 3858, 561, 3859, 3860, 1100], 's_0_18': [349], 19: [5029, 941, 940, 4546, 4547, 4548, 938, 939, 4549], 's_0_19': [5026, 5027, 5028], 20: [1175, 3996, 1296, 1174, 1297, 1298, 4506, 4505, 4504, 4863, 775, 774, 773, 4503], 's_0_20': [758], 21: [4113, 846, 891, 892, 5014, 911, 910, 5013, 909, 4276, 4277, 4278, 847, 4384, 908], 's_0_21': [701], 23: [514, 3827, 3828, 4354, 3829, 985, 984, 983, 982, 981, 905, 906, 4114], 's_0_23': [862], 25: [4701, 1179, 1271, 4771, 789, 1270, 4776, 4775, 880, 444, 4772, 4773, 4774], 's_0_25': [4787], 26: [4157, 4352, 3920, 3919, 549, 548, 3918, 3917, 546, 547, 545], 's_0_26': [3916], 28: [320, 1116, 4056, 4055, 4054, 4053, 4862, 4861, 325, 324, 323, 322, 321, 4051, 4052], 's_0_28': [3976], 29: [786, 1235, 1117, 1240, 1239, 1238, 1237, 1236, 4187, 4188, 4189, 4190, 4191], 's_0_29': [471], 30: [4201, 4202, 4517, 490, 489, 485, 486, 487, 488], 's_0_30': [3901], 32: [1254, 1253, 1252, 1251, 623, 622, 621, 620, 4082, 4083, 4084, 4086, 4085], 's_0_32': [607], 33: [935, 820, 3979, 815, 816, 4636, 4637, 4638, 819, 818, 817], 's_0_33': [4969], 's_1_2': [350], 's_1_3': [1009], 's_1_4': [3965], 's_1_5': [4130], 's_1_6': [1071], 's_1_7': [4716], 's_1_8': [3890], 9: [760, 761, 1255, 458, 4911, 654, 4910, 4909, 4908, 4907, 460, 459, 4651, 4652], 's_1_9': [1225], 's_1_10': [1135], 11: [4626, 3992, 4625, 1059, 4760, 4759, 4758, 4757, 4756, 220, 219, 218, 217, 216, 4021, 4022, 455], 's_1_11': [305], 13: [4009, 936, 937, 4324, 1012, 4971, 1165, 1164, 1163, 1162, 4325], 's_1_13': [1057], 's_1_15': [725], 's_1_16': [1040], 's_1_17': [4640], 's_1_18': [1054], 's_1_20': [4326], 22: [879, 878, 233, 4536, 1284, 864, 863, 1283, 4416, 4415, 4411, 4412, 4413, 4414], 's_1_22': [4356], 's_1_23': [4040, 980], 27: [814, 4456, 3889, 3888, 3887, 503, 575, 3962, 4232, 502, 501, 500], 's_1_27': [454], 's_1_28': [3995], 's_1_29': [4176], 31: [1118, 4491, 4475, 4474, 1000, 999, 998, 4490, 4489, 4488, 4487, 4486, 368, 367, 366], 's_1_31': [1058, 4460], 's_1_32': [4581], 's_1_33': [920], 's_2_3': [4249], 's_2_4': [1086, 1085], 's_2_5': [697], 's_2_6': [3930], 's_2_7': [955], 's_2_9': [4743, 609], 's_2_11': [335], 12: [4668, 535, 4667, 4727, 534, 531, 532, 533], 's_2_12': [4112], 's_2_14': [425], 's_2_15': [4338], 's_2_16': [4038], 's_2_18': [1280], 's_2_20': [1266, 1265], 's_2_21': [636], 's_2_22': [4729], 's_2_23': [679], 24: [1042, 4341, 712, 355, 354, 353, 352, 1207, 4265, 4561, 4264, 4263, 4262, 4261], 's_2_24': [742], 's_2_25': [730], 's_2_27': [470], 's_2_28': [1160], 's_2_30': [4203], 's_2_31': [4715], 's_2_32': [1325], 's_3_4': [4160], 's_3_5': [787], 's_3_6': [1011], 's_3_8': [4579], 's_3_10': [4818], 's_3_12': [4622, 4623], 's_3_14': [4023], 's_3_16': [995], 's_3_17': [4789], 's_3_19': [4698, 759], 's_3_20': [4429], 's_3_21': [806], 's_3_22': [4564], 's_3_23': [4039], 's_3_24': [1102], 's_3_25': [4653], 's_3_26': [3903], 's_3_27': [799, 3753], 's_3_28': [3993, 771], 's_3_31': [4955, 4954], 's_4_5': [1076], 's_4_8': [4700], 's_4_9': [1136], 's_4_10': [1015], 's_4_11': [3991, 4006], 's_4_12': [530, 4037], 's_4_13': [4431], 's_4_14': [726], 's_4_15': [4730], 's_4_17': [4655], 's_4_19': [1031], 's_4_21': [1046], 's_4_23': [921], 's_4_24': [4280], 's_4_25': [4805, 1120], 's_4_26': [1144], 's_4_27': [439], 's_4_28': [4145], 's_4_29': [4221], 's_4_30': [3946], 's_4_32': [711], 's_4_33': [830], 's_5_6': [4320], 's_5_7': [4245], 's_5_8': [4250], 's_5_9': [1060], 's_5_10': [4305], 's_5_12': [4322], 's_5_13': [4340], 's_5_15': [952], 's_5_17': [4745, 1029], 's_5_18': [3966], 's_5_19': [4610], 's_5_20': [3876], 's_5_21': [337], 's_5_22': [1177], 's_5_23': [4565], 's_5_24': [1132], 's_5_25': [4790], 's_5_27': [427], 's_5_28': [307], 's_5_29': [4296], 's_5_30': [4427], 's_5_31': [1088, 4370], 's_5_33': [832], 's_6_7': [4455], 's_6_11': [232], 's_6_12': [516], 's_6_13': [1087], 's_6_14': [336], 's_6_15': [4204], 's_6_16': [4140], 's_6_17': [247], 's_6_18': [259], 's_6_22': [4440], 's_6_23': [4205], 's_6_26': [456], 's_6_28': [876], 's_6_29': [727], 's_6_32': [1026], 's_7_8': [655], 's_7_9': [1301, 1300, 1299, 4582], 's_7_11': [4725], 's_7_14': [156], 's_7_15': [4835], 's_7_16': [4800], 's_7_17': [4590], 's_7_18': [4567], 's_7_20': [4551, 1223], 's_7_21': [925], 's_7_22': [1285], 's_7_23': [970], 's_7_24': [4560, 4575], 's_7_25': [4777], 's_7_27': [383], 's_7_28': [4860], 's_7_29': [4866], 's_7_30': [4831], 's_7_31': [4485], 's_7_32': [4671], 's_7_33': [835], 's_8_9': [4922], 's_8_10': [475], 's_8_12': [4669], 's_8_13': [4159], 's_8_14': [3799, 3798], 's_8_16': [3904], 's_8_18': [859], 's_8_19': [4624], 's_8_21': [896], 's_8_22': [4430, 1043], 's_8_23': [4339], 's_8_24': [4891, 401], 's_8_25': [790], 's_8_26': [979], 's_8_27': [3784], 's_8_28': [4936], 's_8_29': [4174], 's_8_31': [4309, 997], 's_8_33': [3754, 934], 's_10_9': [1030], 's_10_11': [4803, 745], 's_10_12': [4442], 's_10_13': [4323], 's_10_15': [4864, 4865], 's_10_17': [865], 's_10_18': [4367], 's_10_19': [4533], 's_10_20': [4443], 's_10_21': [4308], 's_10_22': [743], 's_10_23': [4353], 's_10_24': [4383], 's_10_25': [700], 's_10_26': [593], 's_10_27': [4441], 's_10_31': [4473], 's_10_32': [4563], 's_14_9': [4683], 's_14_12': [4127], 's_14_13': [951], 's_14_15': [3978], 's_14_16': [306], 's_14_17': [638], 's_14_18': [3902], 's_14_20': [670], 's_14_21': [861], 's_14_22': [698], 's_14_23': [3767], 's_14_24': [4368], 's_14_27': [3843], 's_14_28': [381], 's_14_29': [4158], 's_14_30': [4081], 's_14_31': [728, 4518], 's_15_9': [1106], 's_15_13': [4985], 's_15_16': [4173], 's_15_17': [1104], 's_15_19': [4940], 's_15_20': [1013], 's_15_21': [4444], 's_15_22': [4535], 's_15_23': [3813], 's_15_24': [4236], 's_15_26': [740], 's_15_27': [770], 's_15_28': [785], 's_15_29': [922], 's_15_31': [4895], 's_16_11': [275], 's_16_12': [4726], 's_16_13': [4008], 's_16_19': [4531], 's_16_20': [1205], 's_16_21': [651], 's_16_22': [4426], 's_16_23': [694], 's_16_24': [4741, 294], 's_16_26': [3947], 's_16_28': [4815], 's_16_29': [3951], 's_16_31': [4156], 's_16_33': [3994], 's_17_9': [519], 's_17_11': [1389], 's_17_12': [594], 's_17_18': [4612], 's_17_21': [924], 's_17_22': [4609], 's_17_24': [4576], 's_17_25': [969, 4684], 's_17_26': [4607], 's_17_28': [309], 's_17_31': [653], 's_17_32': [4686], 's_17_33': [564], 's_18_11': [4641], 's_18_20': [4521], 's_18_22': [4461], 's_18_23': [649], 's_18_24': [4371], 's_18_26': [634], 's_18_27': [395], 's_18_28': [1115, 1130], 's_18_30': [484], 's_18_31': [365], 's_18_32': [4446], 's_19_9': [926], 's_19_11': [4545], 's_19_12': [729], 's_19_13': [4550], 's_19_20': [833, 4519], 's_19_22': [4654], 's_19_23': [986], 's_19_25': [4834], 's_19_27': [338], 's_19_28': [293, 4620], 's_19_30': [473], 's_19_31': [1001], 's_19_33': [4369], 's_20_9': [640], 's_20_11': [1178], 's_20_13': [4520], 's_20_21': [923], 's_20_22': [1268, 1267, 1282], 's_20_23': [968], 's_20_24': [1176], 's_20_25': [4728], 's_20_26': [1189], 's_20_28': [1190], 's_20_29': [3891], 's_20_31': [1313], 's_20_32': [1311], 's_20_33': [4833], 's_21_9': [956], 's_21_11': [4744], 's_21_22': [4639], 's_21_24': [4279], 's_21_25': [881], 's_21_26': [845], 's_21_27': [441], 's_21_28': [4275], 's_21_29': [772], 's_21_30': [382], 's_21_31': [4984], 's_21_32': [606], 's_21_33': [5044, 821], 's_23_13': [4355], 's_23_27': [3844], 's_23_29': [1041], 's_23_32': [619], 's_23_33': [4894], 's_25_9': [4801], 's_25_11': [429], 's_25_12': [565], 's_25_13': [4746], 's_25_22': [1269], 's_25_24': [4696], 's_25_29': [4791], 's_25_30': [4742], 's_25_31': [4804], 's_25_32': [4731], 's_25_33': [443], 's_26_9': [4532], 's_26_22': [578], 's_26_24': [517], 's_26_27': [515], 's_26_28': [591], 's_26_29': [3921], 's_26_30': [4382], 's_26_31': [4351], 's_26_32': [3977], 's_26_33': [890], 's_28_9': [4906], 's_28_11': [290], 's_28_12': [580], 's_28_13': [4010], 's_28_22': [308], 's_28_24': [4921, 280], 's_28_27': [3886], 's_28_30': [505], 's_28_31': [4246], 's_28_32': [1281], 's_28_33': [4635], 's_29_9': [4836], 's_29_13': [1241], 's_29_24': [4266, 1326], 's_29_30': [4172], 's_29_31': [4476], 's_29_32': [1250], 's_29_33': [4128], 's_30_9': [4682], 's_30_11': [4007], 's_30_24': [426], 's_30_31': [4126], 's_30_33': [504], 's_32_9': [4502], 's_32_11': [576], 's_32_12': [624], 's_32_13': [4611], 's_32_24': [4251], 's_32_31': [608], 's_33_9': [384], 's_33_11': [834], 's_33_12': [579], 's_33_13': [4144], 's_33_22': [4534], 's_33_24': [339], 's_33_31': [428], 's_9_11': [4650], 's_9_12': [4817], 's_9_13': [4956, 1121, 1256], 's_9_24': [356, 4951, 4952], 's_9_31': [4912, 1405, 1404, 1403, 1388], 's_11_12': [699], 's_11_13': [4761], 's_11_22': [4500], 's_11_24': [4606], 's_11_27': [605], 's_11_31': [1119], 's_13_22': [4566], 's_13_24': [4386], 's_13_31': [4970], 's_22_12': [518], 's_22_24': [1208], 's_22_31': [1133], 's_27_12': [4247], 's_27_24': [397], 's_31_24': [4381], 's_12_24': [4666]}</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0.001164759725400458</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.001703106059416637</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>{0: [367, 368, 4533, 4532, 488, 4441], 4: [4608, 621, 622, 623], 5: [4503, 4502, 501, 502, 503], 6: [398, 322, 517, 4351, 4353, 4352], 7: [4068, 668, 667, 666], 10: [726, 729, 728, 727], 14: [4112, 4111, 3992, 470, 472, 471], 18: [4201, 4202, 4203, 862, 861, 4204], 19: [4278, 4276, 4277], 20: [561, 473, 4486, 4488, 4487, 562, 563], 21: [4261, 4263, 651, 4262], 22: [711, 4367, 653, 652, 712, 4368], 23: [636, 638, 4338, 637], 24: [4082, 4186, 516, 4188, 4187], 26: [4593, 608, 606, 607], 27: [4427, 4637, 531, 532, 533, 534], 29: [366, 4126, 817, 816, 4127, 4128], 30: [546, 547, 4442, 4443, 548], 31: [456, 4578, 4577, 457, 458], 34: [744, 741, 742, 4428, 743], 1: [352, 382, 4308, 4307, 4306], 2: [4399, 4398, 426, 427, 4397], 3: [773, 4217, 4218, 772, 4219], 8: [441, 321, 4171, 4174, 4173, 4172], 11: [848, 4232, 4233, 847, 4234], 12: [487, 486, 4158, 4157], 13: [4382, 4383, 696, 697], 15: [396, 397, 4323, 4322, 4321], 16: [4413, 684, 683, 681, 682], 17: [337, 4246, 4249, 4247, 4248], 28: [576, 577, 4473, 578, 4472], 32: [803, 4142, 4143, 802, 801], 9: [4456, 4457, 698, 786, 787, 4458], 25: [756, 4517, 757, 758, 4518], 33: [412, 4291, 4293, 4292]}</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.2336507936507936</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.04448834208777449</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>{0: [367, 368, 4533, 4532, 488, 4441], 4: [4608, 621, 622, 623], 5: [4503, 4502, 501, 502, 503], 6: [398, 322, 517, 4351, 4353, 4352], 7: [4068, 668, 667, 666], 10: [726, 729, 728, 727], 14: [4112, 4111, 3992, 470, 472, 471], 18: [4201, 4202, 4203, 862, 861, 4204], 19: [4278, 4276, 4277], 20: [561, 473, 4486, 4488, 4487, 562, 563], 21: [4261, 4263, 651, 4262], 22: [711, 4367, 653, 652, 712, 4368], 23: [636, 638, 4338, 637], 24: [4082, 4186, 516, 4188, 4187], 26: [4593, 608, 606, 607], 27: [4427, 4637, 531, 532, 533, 534], 29: [366, 4126, 817, 816, 4127, 4128], 30: [546, 547, 4442, 4443, 548], 31: [456, 4578, 4577, 457, 458], 34: [744, 741, 742, 4428, 743], 1: [352, 382, 4308, 4307, 4306], 2: [4399, 4398, 426, 427, 4397], 3: [773, 4217, 4218, 772, 4219], 8: [441, 321, 4171, 4174, 4173, 4172], 11: [848, 4232, 4233, 847, 4234], 12: [487, 486, 4158, 4157], 13: [4382, 4383, 696, 697], 15: [396, 397, 4323, 4322, 4321], 16: [4413, 684, 683, 681, 682], 17: [337, 4246, 4249, 4247, 4248], 28: [576, 577, 4473, 578, 4472], 32: [803, 4142, 4143, 802, 801], 9: [4456, 4457, 698, 786, 787, 4458], 25: [756, 4517, 757, 758, 4518], 33: [412, 4291, 4293, 4292]}</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0.2336507936507936</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.04448834208777449</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>{0: [1298, 4461, 4282, 4176, 1518, 1519, 1520, 4177, 1521, 4462, 1522], 4: [3897, 2195, 2194, 3621, 3622, 2207, 4193, 1611, 2209, 2208, 3626, 3625, 3624, 3623, 1608, 1610, 1609], 's_0_4': [3893], 5: [4332, 2317, 3727, 2318, 1474, 4542, 4541, 4540, 4539, 4538, 4537, 1418, 1475, 1476, 1477, 4312, 4342, 1417], 's_0_5': [1507], 6: [4536, 4703, 3445, 3444, 3443, 1697, 1698, 3800, 3638, 3637, 3636, 3801, 1279, 1280, 1281, 1282, 1283, 1284, 4701, 4702], 's_0_6': [4281], 7: [4168, 4167, 4166, 1236, 4090, 4086, 4087, 4088, 4165, 4765, 1944, 1943, 1942, 1941, 4089], 's_0_7': [1401], 10: [2120, 3972, 3971, 4191, 1251, 2287, 1386, 4101, 4102, 4103, 2286, 4104, 4105, 4106, 2225], 's_0_10': [1505], 14: [2034, 3547, 3788, 4556, 4555, 4554, 4553, 1563, 1564, 1565, 1566, 1568, 1567], 's_0_14': [4447], 18: [4416, 4418, 4419, 4420, 4421, 2138, 2137, 4271, 4272, 2436, 2435, 2434, 4417, 2433, 2432, 3431, 3432, 3433], 's_0_18': [1238], 19: [1506, 3489, 1342, 1341, 4146, 3492, 3491, 3490, 1833, 1834, 1835, 4147, 4148, 4149, 1836], 's_0_19': [4117], 20: [3877, 1295, 1296, 4072, 4073, 1596, 1595, 1594, 1593, 3653, 3654, 3655, 3702, 2222, 2223, 3656], 's_0_20': [1297], 21: [2315, 1449, 4002, 4001, 4000, 3999, 3998, 4582, 4402, 1433, 1432, 1431, 1461, 3997, 1430], 's_0_21': [1327], 22: [3657, 3853, 4207, 4208, 1627, 2374, 1628, 1629, 4688, 4689, 4690, 4691, 4692, 2379, 2378, 2377, 2376, 2375], 's_0_22': [1312], 23: [1939, 4046, 1249, 4437, 4436, 3852, 3816, 3817, 2033, 2032, 2031, 2030, 1640, 3818, 1670, 3849, 3850, 3851], 's_0_23': [3832], 24: [3950, 1895, 4041, 1118, 1117, 1116, 1115, 3861, 3862, 1955, 1954, 3865, 3864, 4015, 3863], 's_0_24': [4175], 26: [4329, 2105, 2104, 3716, 3715, 3711, 4239, 3712, 3713, 3714, 1744, 1745, 1746, 1747, 1748, 1749, 4719, 4720], 's_0_26': [4283], 27: [2283, 3537, 3581, 2148, 3980, 3536, 3981, 3982, 3937, 1490, 1489, 1488, 1532, 3535, 3534, 3533], 's_0_27': [3652], 29: [4317, 2452, 4466, 1160, 1161, 1162, 4431, 4465, 4464, 4463, 1598, 4433, 4467, 4432], 's_0_29': [1313], 30: [1357, 2073, 2074, 3775, 1356, 1354, 1399, 3771, 1849, 1355, 3774, 3773, 3772], 's_0_30': [4012], 31: [4251, 3876, 1172, 1173, 2046, 2047, 1174, 1175, 1176, 1177, 1178, 4625, 4626, 4627, 4628, 4629, 4630, 2048], 's_0_31': [1267], 34: [1494, 1299, 4612, 4613, 1998, 3790, 1999, 2000, 2001, 2002, 2003, 4614, 4615, 2004], 's_0_34': [1523], 1: [1220, 2421, 4030, 1144, 4122, 1145, 4026, 4028, 4027, 4121, 4120, 4119, 1806, 4029], 's_4_1': [2196], 2: [3807, 3472, 4404, 3471, 1792, 1791, 3806, 3805, 3804, 1789, 1788, 1673, 1787, 3504, 3503, 1790, 1473], 's_4_2': [1607], 3: [3987, 4227, 2301, 2300, 2299, 3786, 1294, 3682, 3683, 3684, 1804, 3746, 3745, 3744], 's_4_3': [3926], 8: [1805, 3924, 1779, 1778, 3920, 3921, 3922, 3923, 1714, 1715, 4059, 1776, 1777, 2212, 4316, 4315, 4314], 's_4_8': [3908], 11: [1643, 4372, 2163, 2165, 2164, 1658, 4373, 4374, 4375, 4376, 2166, 1659, 2167, 2168], 's_4_11': [3461], 12: [3666, 1263, 1538, 1537, 1536, 1535, 1264, 1265, 3951, 3952], 's_4_12': [1551], 13: [2393, 2392, 1638, 1639, 4197, 1912, 2394, 4196, 4195, 3758, 3759, 1909, 1910, 1911], 's_4_13': [1623], 15: [3697, 3698, 1719, 1718, 3699, 1758, 4569, 1763, 1762, 1761, 1759, 1760], 's_4_15': [1728], 16: [3970, 1985, 3880, 4133, 1731, 4521, 4522, 4523, 4524, 4164, 1854, 4509, 1850, 1851, 1852, 1853], 's_4_16': [1701], 17: [4511, 3641, 1809, 1839, 4644, 4645, 4646, 2237, 2238, 3836, 2243, 2239, 2240, 2241, 2242, 4407], 's_4_17': [3401], 's_4_18': [2192], 's_4_19': [2193], 's_4_20': [3731], 's_4_22': [1613, 1614, 1612], 's_4_23': [2269], 's_4_24': [3848], 's_4_26': [1323], 's_4_27': [3627], 28: [3802, 1687, 4258, 4257, 4256, 4255, 1654, 3803, 1684, 1685, 1686, 4254], 's_4_28': [3983], 's_4_30': [3896], 's_4_31': [3575, 1203], 32: [2467, 2466, 3606, 3729, 3607, 2465, 3608, 1775, 3609, 3912, 3728, 3911, 3910, 3909, 1879, 1878], 's_4_32': [1848], 's_5_3': [3668], 's_5_6': [4341], 's_5_7': [1416], 's_5_8': [4058], 9: [4298, 4299, 4300, 4076, 2012, 2013, 2014, 2015, 2020, 2019, 1822, 2018, 2017, 2016], 's_5_9': [4297], 's_5_10': [4192], 's_5_12': [4343], 's_5_13': [4497], 's_5_14': [1958], 's_5_15': [1733], 's_5_16': [1508], 's_5_17': [4587], 's_5_18': [1372], 's_5_21': [4477], 25: [1897, 4359, 4360, 4361, 4362, 2358, 1898, 2422, 2359, 2360, 2361, 2362, 4302], 's_5_25': [2423], 's_5_27': [3878], 's_5_29': [2333], 's_5_30': [3967], 's_5_31': [1419], 's_5_32': [4482, 2468, 2408], 's_5_34': [1644], 's_6_1': [1219], 's_6_2': [1742, 3413], 's_6_8': [1159], 's_6_9': [3430], 's_6_10': [4056], 's_6_11': [4371], 's_6_12': [3726], 's_6_13': [3473], 's_6_14': [1578], 's_6_15': [3578], 's_6_16': [4506], 's_6_19': [4356], 's_6_21': [1434], 's_6_22': [1554], 's_6_23': [3756], 's_6_24': [3891], 's_6_26': [1548], 's_6_27': [2057], 's_6_28': [1444], 's_6_30': [1398], 's_6_31': [1254], 's_6_32': [1877], 33: [4270, 2093, 2092, 4151, 4152, 2331, 2330, 3882, 1893, 3592, 2094, 3593, 3594, 3595, 2091, 3596, 2254, 2253], 's_6_33': [1892], 's_6_34': [4671], 's_7_1': [1550], 's_7_8': [4674], 's_7_9': [4766], 's_7_10': [1266], 's_7_11': [4091], 's_7_12': [1235], 's_7_13': [4225], 's_7_15': [4764], 's_7_16': [4479], 's_7_17': [4704, 1869], 's_7_18': [1928], 's_7_19': [1311], 's_7_20': [1641], 's_7_21': [1491], 's_7_23': [4345], 's_7_24': [4206], 's_7_25': [4510], 's_7_28': [4240], 's_7_29': [4221], 's_7_30': [4116], 's_7_31': [1959], 's_7_32': [1940], 's_7_33': [2106], 's_7_34': [4150, 1926], 's_10_1': [1956], 's_10_2': [2224], 's_10_3': [4047], 's_10_8': [1250], 's_10_9': [2075], 's_10_11': [3956], 's_10_12': [1325], 's_10_13': [1971], 's_10_16': [1671], 's_10_17': [4392], 's_10_18': [4286, 4287], 's_10_19': [1206], 's_10_20': [4131], 's_10_21': [2420], 's_10_22': [3973, 2540], 's_10_23': [2288], 's_10_24': [4071], 's_10_26': [3986], 's_10_28': [2302], 's_10_30': [4222], 's_10_31': [4100, 1056, 4190, 1148, 1147, 1146], 's_10_32': [2390], 's_10_33': [2121], 's_10_34': [1986], 's_14_2': [1502], 's_14_3': [1624], 's_14_8': [1699], 's_14_12': [4328], 's_14_13': [3518], 's_14_16': [1553], 's_14_17': [4631, 2184], 's_14_18': [1973], 's_14_19': [4223], 's_14_20': [4043], 's_14_22': [4388], 's_14_23': [2108], 's_14_24': [1534], 's_14_26': [2035], 's_14_27': [1517], 's_14_28': [4163], 's_14_29': [2153], 's_14_30': [1579], 's_14_31': [2078], 's_14_32': [1443], 's_14_33': [1428], 's_18_1': [2271], 's_18_2': [3673, 2389], 's_18_8': [4346], 's_18_9': [4571], 's_18_11': [2183], 's_18_13': [4198], 's_18_15': [4434], 's_18_16': [1823], 's_18_17': [4451], 's_18_19': [3564, 3565, 2087], 's_18_20': [3732, 2329], 's_18_21': [4003], 's_18_22': [3703], 's_18_24': [1133], 's_18_25': [3927], 's_18_26': [1732], 's_18_29': [1208], 's_18_31': [1191, 1192], 's_18_32': [4048], 's_18_33': [3957], 's_18_34': [1989, 1988], 's_19_1': [1821], 's_19_2': [3369, 1832], 's_19_3': [3685], 's_19_11': [2178, 3566], 's_19_12': [4132], 's_19_13': [3488], 's_19_15': [1757], 's_19_16': [4134], 's_19_17': [2117, 2118], 's_19_20': [3507], 's_19_21': [1446], 's_19_22': [2312, 2313], 's_19_23': [3834, 1820], 's_19_25': [2343, 3567], 's_19_26': [1716], 's_19_27': [2147], 's_19_28': [1881], 's_19_29': [4145], 's_19_31': [1252, 4326], 's_19_32': [1668], 's_19_33': [2028], 's_19_34': [3505], 's_20_1': [1340], 's_20_8': [3906], 's_20_9': [1597], 's_20_11': [3611], 's_20_12': [4178], 's_20_13': [1908], 's_20_15': [3743], 's_20_16': [4118], 's_20_21': [3892], 's_20_23': [2314], 's_20_24': [1953], 's_20_25': [3672], 's_20_26': [2043], 's_20_28': [3968], 's_20_30': [4057], 's_20_31': [3996], 's_20_34': [3640], 's_21_1': [1626], 's_21_2': [3969, 1880], 's_21_8': [1385], 's_21_9': [2060], 's_21_11': [4357], 's_21_13': [3985, 2045], 's_21_16': [1328], 's_21_17': [4077, 2270], 's_21_22': [4403], 's_21_23': [2150], 's_21_25': [4017], 's_21_27': [1400], 's_21_29': [4401], 's_21_30': [1370], 's_21_32': [2135], 's_21_34': [1464], 's_22_2': [3792], 's_22_3': [2298], 's_22_8': [4313], 's_22_9': [1642], 's_22_11': [2169], 's_22_12': [4238], 's_22_13': [4706, 4707], 's_22_15': [4568], 's_22_17': [2214, 4617, 2304], 's_22_27': [3642], 's_22_29': [4423], 's_22_30': [4253, 4252, 4237], 's_22_31': [2049], 's_22_32': [2449], 's_22_33': [2079], 's_22_34': [1389, 4687], 's_23_1': [3846], 's_23_3': [2134], 's_23_8': [1625], 's_23_9': [3820], 's_23_11': [2198], 's_23_13': [4438], 's_23_16': [4525], 's_23_17': [4422], 's_23_24': [1655], 's_23_25': [2345], 's_23_26': [1384], 's_23_28': [4241], 's_23_30': [1369], 's_23_31': [3696], 's_23_32': [2089], 's_23_33': [3881], 's_23_34': [3835], 's_24_1': [3995], 's_24_3': [1339], 's_24_8': [1130], 's_24_9': [3940], 's_24_12': [1114], 's_24_13': [4060], 's_24_15': [3700], 's_24_16': [4075], 's_24_26': [1414], 's_24_27': [1055], 's_24_28': [1549], 's_24_29': [4355], 's_24_30': [1429], 's_24_32': [1970], 's_26_1': [1143], 's_26_2': [3819], 's_26_8': [1794], 's_26_9': [3760], 's_26_11': [1657], 's_26_12': [1129], 's_26_15': [1734], 's_26_16': [4194], 's_26_17': [1840], 's_26_25': [3717], 's_26_27': [2149], 's_26_28': [1672], 's_26_29': [4478], 's_26_31': [1584, 4718], 's_26_32': [1368], 's_26_33': [2058], 's_26_34': [1764], 's_27_1': [1415], 's_27_3': [2284], 's_27_8': [3907], 's_27_11': [3521], 's_27_12': [1460], 's_27_15': [3938], 's_27_25': [3612], 's_27_28': [1653], 's_27_29': [3965], 's_27_31': [3966], 's_27_33': [3577], 's_27_34': [3520], 's_29_1': [4085], 's_29_2': [1808], 's_29_8': [2257], 's_29_9': [1702], 's_29_11': [2213], 's_29_12': [4583], 's_29_13': [4449], 's_29_15': [4493], 's_29_17': [2363], 's_29_25': [2407], 's_29_28': [2451], 's_29_31': [1163], 's_29_32': [4378], 's_29_33': [4450], 's_29_34': [1599], 's_30_1': [3770], 's_30_2': [2119], 's_30_3': [1774], 's_30_8': [1504], 's_30_9': [3866], 's_30_11': [3671], 's_30_12': [3741], 's_30_13': [3757], 's_30_15': [1459], 's_30_16': [1894], 's_30_17': [2088], 's_30_32': [3670], 's_30_33': [3580], 's_31_1': [3755], 's_31_2': [1187], 's_31_3': [3681], 's_31_8': [1189], 's_31_9': [4495], 's_31_11': [4211], 's_31_12': [3456], 's_31_13': [4180], 's_31_16': [1193], 's_31_17': [2109], 's_31_25': [1913], 's_31_33': [4480], 's_31_34': [1404], 's_34_1': [4045], 's_34_2': [3789], 's_34_3': [1984], 's_34_9': [3460], 's_34_11': [3791], 's_34_12': [4598], 's_34_13': [1924], 's_34_15': [1703], 's_34_16': [4567, 1403], 's_34_17': [4600], 's_34_28': [1688], 's_34_32': [2059], 's_34_33': [4660], 's_1_2': [4014], 's_1_3': [4182], 's_1_8': [1205], 's_1_9': [1807], 's_1_11': [4031], 's_1_13': [2316], 's_1_15': [4074], 's_1_17': [4136], 's_1_25': [2346], 's_1_28': [2256], 's_1_32': [1925], 's_1_33': [4137], 's_2_3': [1293], 's_2_8': [1729], 's_2_9': [2029], 's_2_11': [1717], 's_2_12': [1278], 's_2_13': [1819], 's_2_15': [4389], 's_2_16': [4179], 's_2_17': [1793, 4584], 's_2_25': [4405], 's_2_28': [3669], 's_2_32': [3984], 's_2_33': [1803], 's_3_8': [4212], 's_3_9': [3730], 's_3_11': [2179], 's_3_12': [3651], 's_3_15': [1713], 's_3_17': [3941, 2285], 's_3_25': [3747], 's_3_28': [2347], 's_3_32': [1338], 's_3_33': [1413], 's_8_9': [1927], 's_8_11': [4331], 's_8_12': [1310], 's_8_13': [4284], 's_8_15': [4599], 's_8_16': [1837], 's_8_17': [2272], 's_8_25': [2107], 's_8_28': [1972], 's_11_9': [3686], 's_11_12': [1552], 's_11_13': [2182], 's_11_15': [4448], 's_11_16': [1463], 's_11_17': [3821], 's_11_25': [2227], 's_11_28': [1957], 's_11_32': [2180], 's_12_32': [1218], 's_13_9': [4435, 1867], 's_13_15': [3548, 1743], 's_13_16': [4210], 's_13_17': [4647], 's_13_28': [1987], 's_13_32': [1864], 's_13_33': [2406], 's_15_9': [4209], 's_15_16': [4344], 's_15_17': [4643], 's_15_25': [4570], 's_15_28': [3879], 's_15_33': [1773, 3639], 's_16_9': [4269], 's_16_17': [4659], 's_16_25': [4390], 's_16_28': [1866], 's_16_32': [3895], 's_17_9': [2154, 4751], 's_17_25': [3687], 's_17_28': [2226], 's_17_32': [2210], 's_17_33': [4032], 's_28_25': [4358], 's_28_32': [2482], 's_28_33': [2076], 's_32_9': [3925], 's_32_25': [4092], 's_32_33': [1818], 's_9_25': [2077], 's_9_33': [4601], 's_25_33': [4062]}</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.001547717842323651</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.00174752848962231</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>{0: [1298, 4461, 4282, 4176, 1518, 1519, 1520, 4177, 1521, 4462, 1522], 4: [3897, 2195, 2194, 3621, 3622, 2207, 4193, 1611, 2209, 2208, 3626, 3625, 3624, 3623, 1608, 1610, 1609], 's_0_4': [3893], 5: [4332, 2317, 3727, 2318, 1474, 4542, 4541, 4540, 4539, 4538, 4537, 1418, 1475, 1476, 1477, 4312, 4342, 1417], 's_0_5': [1507], 6: [4536, 4703, 3445, 3444, 3443, 1697, 1698, 3800, 3638, 3637, 3636, 3801, 1279, 1280, 1281, 1282, 1283, 1284, 4701, 4702], 's_0_6': [4281], 7: [4168, 4167, 4166, 1236, 4090, 4086, 4087, 4088, 4165, 4765, 1944, 1943, 1942, 1941, 4089], 's_0_7': [1401], 10: [2120, 3972, 3971, 4191, 1251, 2287, 1386, 4101, 4102, 4103, 2286, 4104, 4105, 4106, 2225], 's_0_10': [1505], 14: [2034, 3547, 3788, 4556, 4555, 4554, 4553, 1563, 1564, 1565, 1566, 1568, 1567], 's_0_14': [4447], 18: [4416, 4418, 4419, 4420, 4421, 2138, 2137, 4271, 4272, 2436, 2435, 2434, 4417, 2433, 2432, 3431, 3432, 3433], 's_0_18': [1238], 19: [1506, 3489, 1342, 1341, 4146, 3492, 3491, 3490, 1833, 1834, 1835, 4147, 4148, 4149, 1836], 's_0_19': [4117], 20: [3877, 1295, 1296, 4072, 4073, 1596, 1595, 1594, 1593, 3653, 3654, 3655, 3702, 2222, 2223, 3656], 's_0_20': [1297], 21: [2315, 1449, 4002, 4001, 4000, 3999, 3998, 4582, 4402, 1433, 1432, 1431, 1461, 3997, 1430], 's_0_21': [1327], 22: [3657, 3853, 4207, 4208, 1627, 2374, 1628, 1629, 4688, 4689, 4690, 4691, 4692, 2379, 2378, 2377, 2376, 2375], 's_0_22': [1312], 23: [1939, 4046, 1249, 4437, 4436, 3852, 3816, 3817, 2033, 2032, 2031, 2030, 1640, 3818, 1670, 3849, 3850, 3851], 's_0_23': [3832], 24: [3950, 1895, 4041, 1118, 1117, 1116, 1115, 3861, 3862, 1955, 1954, 3865, 3864, 4015, 3863], 's_0_24': [4175], 26: [4329, 2105, 2104, 3716, 3715, 3711, 4239, 3712, 3713, 3714, 1744, 1745, 1746, 1747, 1748, 1749, 4719, 4720], 's_0_26': [4283], 27: [2283, 3537, 3581, 2148, 3980, 3536, 3981, 3982, 3937, 1490, 1489, 1488, 1532, 3535, 3534, 3533], 's_0_27': [3652], 29: [4317, 2452, 4466, 1160, 1161, 1162, 4431, 4465, 4464, 4463, 1598, 4433, 4467, 4432], 's_0_29': [1313], 30: [1357, 2073, 2074, 3775, 1356, 1354, 1399, 3771, 1849, 1355, 3774, 3773, 3772], 's_0_30': [4012], 31: [4251, 3876, 1172, 1173, 2046, 2047, 1174, 1175, 1176, 1177, 1178, 4625, 4626, 4627, 4628, 4629, 4630, 2048], 's_0_31': [1267], 34: [1494, 1299, 4612, 4613, 1998, 3790, 1999, 2000, 2001, 2002, 2003, 4614, 4615, 2004], 's_0_34': [1523], 1: [1220, 2421, 4030, 1144, 4122, 1145, 4026, 4028, 4027, 4121, 4120, 4119, 1806, 4029], 's_4_1': [2196], 2: [3807, 3472, 4404, 3471, 1792, 1791, 3806, 3805, 3804, 1789, 1788, 1673, 1787, 3504, 3503, 1790, 1473], 's_4_2': [1607], 3: [3987, 4227, 2301, 2300, 2299, 3786, 1294, 3682, 3683, 3684, 1804, 3746, 3745, 3744], 's_4_3': [3926], 8: [1805, 3924, 1779, 1778, 3920, 3921, 3922, 3923, 1714, 1715, 4059, 1776, 1777, 2212, 4316, 4315, 4314], 's_4_8': [3908], 11: [1643, 4372, 2163, 2165, 2164, 1658, 4373, 4374, 4375, 4376, 2166, 1659, 2167, 2168], 's_4_11': [3461], 12: [3666, 1263, 1538, 1537, 1536, 1535, 1264, 1265, 3951, 3952], 's_4_12': [1551], 13: [2393, 2392, 1638, 1639, 4197, 1912, 2394, 4196, 4195, 3758, 3759, 1909, 1910, 1911], 's_4_13': [1623], 15: [3697, 3698, 1719, 1718, 3699, 1758, 4569, 1763, 1762, 1761, 1759, 1760], 's_4_15': [1728], 16: [3970, 1985, 3880, 4133, 1731, 4521, 4522, 4523, 4524, 4164, 1854, 4509, 1850, 1851, 1852, 1853], 's_4_16': [1701], 17: [4511, 3641, 1809, 1839, 4644, 4645, 4646, 2237, 2238, 3836, 2243, 2239, 2240, 2241, 2242, 4407], 's_4_17': [3401], 's_4_18': [2192], 's_4_19': [2193], 's_4_20': [3731], 's_4_22': [1613, 1614, 1612], 's_4_23': [2269], 's_4_24': [3848], 's_4_26': [1323], 's_4_27': [3627], 28: [3802, 1687, 4258, 4257, 4256, 4255, 1654, 3803, 1684, 1685, 1686, 4254], 's_4_28': [3983], 's_4_30': [3896], 's_4_31': [3575, 1203], 32: [2467, 2466, 3606, 3729, 3607, 2465, 3608, 1775, 3609, 3912, 3728, 3911, 3910, 3909, 1879, 1878], 's_4_32': [1848], 's_5_3': [3668], 's_5_6': [4341], 's_5_7': [1416], 's_5_8': [4058], 9: [4298, 4299, 4300, 4076, 2012, 2013, 2014, 2015, 2020, 2019, 1822, 2018, 2017, 2016], 's_5_9': [4297], 's_5_10': [4192], 's_5_12': [4343], 's_5_13': [4497], 's_5_14': [1958], 's_5_15': [1733], 's_5_16': [1508], 's_5_17': [4587], 's_5_18': [1372], 's_5_21': [4477], 25: [1897, 4359, 4360, 4361, 4362, 2358, 1898, 2422, 2359, 2360, 2361, 2362, 4302], 's_5_25': [2423], 's_5_27': [3878], 's_5_29': [2333], 's_5_30': [3967], 's_5_31': [1419], 's_5_32': [4482, 2468, 2408], 's_5_34': [1644], 's_6_1': [1219], 's_6_2': [1742, 3413], 's_6_8': [1159], 's_6_9': [3430], 's_6_10': [4056], 's_6_11': [4371], 's_6_12': [3726], 's_6_13': [3473], 's_6_14': [1578], 's_6_15': [3578], 's_6_16': [4506], 's_6_19': [4356], 's_6_21': [1434], 's_6_22': [1554], 's_6_23': [3756], 's_6_24': [3891], 's_6_26': [1548], 's_6_27': [2057], 's_6_28': [1444], 's_6_30': [1398], 's_6_31': [1254], 's_6_32': [1877], 33: [4270, 2093, 2092, 4151, 4152, 2331, 2330, 3882, 1893, 3592, 2094, 3593, 3594, 3595, 2091, 3596, 2254, 2253], 's_6_33': [1892], 's_6_34': [4671], 's_7_1': [1550], 's_7_8': [4674], 's_7_9': [4766], 's_7_10': [1266], 's_7_11': [4091], 's_7_12': [1235], 's_7_13': [4225], 's_7_15': [4764], 's_7_16': [4479], 's_7_17': [4704, 1869], 's_7_18': [1928], 's_7_19': [1311], 's_7_20': [1641], 's_7_21': [1491], 's_7_23': [4345], 's_7_24': [4206], 's_7_25': [4510], 's_7_28': [4240], 's_7_29': [4221], 's_7_30': [4116], 's_7_31': [1959], 's_7_32': [1940], 's_7_33': [2106], 's_7_34': [4150, 1926], 's_10_1': [1956], 's_10_2': [2224], 's_10_3': [4047], 's_10_8': [1250], 's_10_9': [2075], 's_10_11': [3956], 's_10_12': [1325], 's_10_13': [1971], 's_10_16': [1671], 's_10_17': [4392], 's_10_18': [4286, 4287], 's_10_19': [1206], 's_10_20': [4131], 's_10_21': [2420], 's_10_22': [3973, 2540], 's_10_23': [2288], 's_10_24': [4071], 's_10_26': [3986], 's_10_28': [2302], 's_10_30': [4222], 's_10_31': [4100, 1056, 4190, 1148, 1147, 1146], 's_10_32': [2390], 's_10_33': [2121], 's_10_34': [1986], 's_14_2': [1502], 's_14_3': [1624], 's_14_8': [1699], 's_14_12': [4328], 's_14_13': [3518], 's_14_16': [1553], 's_14_17': [4631, 2184], 's_14_18': [1973], 's_14_19': [4223], 's_14_20': [4043], 's_14_22': [4388], 's_14_23': [2108], 's_14_24': [1534], 's_14_26': [2035], 's_14_27': [1517], 's_14_28': [4163], 's_14_29': [2153], 's_14_30': [1579], 's_14_31': [2078], 's_14_32': [1443], 's_14_33': [1428], 's_18_1': [2271], 's_18_2': [3673, 2389], 's_18_8': [4346], 's_18_9': [4571], 's_18_11': [2183], 's_18_13': [4198], 's_18_15': [4434], 's_18_16': [1823], 's_18_17': [4451], 's_18_19': [3564, 3565, 2087], 's_18_20': [3732, 2329], 's_18_21': [4003], 's_18_22': [3703], 's_18_24': [1133], 's_18_25': [3927], 's_18_26': [1732], 's_18_29': [1208], 's_18_31': [1191, 1192], 's_18_32': [4048], 's_18_33': [3957], 's_18_34': [1989, 1988], 's_19_1': [1821], 's_19_2': [3369, 1832], 's_19_3': [3685], 's_19_11': [2178, 3566], 's_19_12': [4132], 's_19_13': [3488], 's_19_15': [1757], 's_19_16': [4134], 's_19_17': [2117, 2118], 's_19_20': [3507], 's_19_21': [1446], 's_19_22': [2312, 2313], 's_19_23': [3834, 1820], 's_19_25': [2343, 3567], 's_19_26': [1716], 's_19_27': [2147], 's_19_28': [1881], 's_19_29': [4145], 's_19_31': [1252, 4326], 's_19_32': [1668], 's_19_33': [2028], 's_19_34': [3505], 's_20_1': [1340], 's_20_8': [3906], 's_20_9': [1597], 's_20_11': [3611], 's_20_12': [4178], 's_20_13': [1908], 's_20_15': [3743], 's_20_16': [4118], 's_20_21': [3892], 's_20_23': [2314], 's_20_24': [1953], 's_20_25': [3672], 's_20_26': [2043], 's_20_28': [3968], 's_20_30': [4057], 's_20_31': [3996], 's_20_34': [3640], 's_21_1': [1626], 's_21_2': [3969, 1880], 's_21_8': [1385], 's_21_9': [2060], 's_21_11': [4357], 's_21_13': [3985, 2045], 's_21_16': [1328], 's_21_17': [4077, 2270], 's_21_22': [4403], 's_21_23': [2150], 's_21_25': [4017], 's_21_27': [1400], 's_21_29': [4401], 's_21_30': [1370], 's_21_32': [2135], 's_21_34': [1464], 's_22_2': [3792], 's_22_3': [2298], 's_22_8': [4313], 's_22_9': [1642], 's_22_11': [2169], 's_22_12': [4238], 's_22_13': [4706, 4707], 's_22_15': [4568], 's_22_17': [2214, 4617, 2304], 's_22_27': [3642], 's_22_29': [4423], 's_22_30': [4253, 4252, 4237], 's_22_31': [2049], 's_22_32': [2449], 's_22_33': [2079], 's_22_34': [1389, 4687], 's_23_1': [3846], 's_23_3': [2134], 's_23_8': [1625], 's_23_9': [3820], 's_23_11': [2198], 's_23_13': [4438], 's_23_16': [4525], 's_23_17': [4422], 's_23_24': [1655], 's_23_25': [2345], 's_23_26': [1384], 's_23_28': [4241], 's_23_30': [1369], 's_23_31': [3696], 's_23_32': [2089], 's_23_33': [3881], 's_23_34': [3835], 's_24_1': [3995], 's_24_3': [1339], 's_24_8': [1130], 's_24_9': [3940], 's_24_12': [1114], 's_24_13': [4060], 's_24_15': [3700], 's_24_16': [4075], 's_24_26': [1414], 's_24_27': [1055], 's_24_28': [1549], 's_24_29': [4355], 's_24_30': [1429], 's_24_32': [1970], 's_26_1': [1143], 's_26_2': [3819], 's_26_8': [1794], 's_26_9': [3760], 's_26_11': [1657], 's_26_12': [1129], 's_26_15': [1734], 's_26_16': [4194], 's_26_17': [1840], 's_26_25': [3717], 's_26_27': [2149], 's_26_28': [1672], 's_26_29': [4478], 's_26_31': [1584, 4718], 's_26_32': [1368], 's_26_33': [2058], 's_26_34': [1764], 's_27_1': [1415], 's_27_3': [2284], 's_27_8': [3907], 's_27_11': [3521], 's_27_12': [1460], 's_27_15': [3938], 's_27_25': [3612], 's_27_28': [1653], 's_27_29': [3965], 's_27_31': [3966], 's_27_33': [3577], 's_27_34': [3520], 's_29_1': [4085], 's_29_2': [1808], 's_29_8': [2257], 's_29_9': [1702], 's_29_11': [2213], 's_29_12': [4583], 's_29_13': [4449], 's_29_15': [4493], 's_29_17': [2363], 's_29_25': [2407], 's_29_28': [2451], 's_29_31': [1163], 's_29_32': [4378], 's_29_33': [4450], 's_29_34': [1599], 's_30_1': [3770], 's_30_2': [2119], 's_30_3': [1774], 's_30_8': [1504], 's_30_9': [3866], 's_30_11': [3671], 's_30_12': [3741], 's_30_13': [3757], 's_30_15': [1459], 's_30_16': [1894], 's_30_17': [2088], 's_30_32': [3670], 's_30_33': [3580], 's_31_1': [3755], 's_31_2': [1187], 's_31_3': [3681], 's_31_8': [1189], 's_31_9': [4495], 's_31_11': [4211], 's_31_12': [3456], 's_31_13': [4180], 's_31_16': [1193], 's_31_17': [2109], 's_31_25': [1913], 's_31_33': [4480], 's_31_34': [1404], 's_34_1': [4045], 's_34_2': [3789], 's_34_3': [1984], 's_34_9': [3460], 's_34_11': [3791], 's_34_12': [4598], 's_34_13': [1924], 's_34_15': [1703], 's_34_16': [4567, 1403], 's_34_17': [4600], 's_34_28': [1688], 's_34_32': [2059], 's_34_33': [4660], 's_1_2': [4014], 's_1_3': [4182], 's_1_8': [1205], 's_1_9': [1807], 's_1_11': [4031], 's_1_13': [2316], 's_1_15': [4074], 's_1_17': [4136], 's_1_25': [2346], 's_1_28': [2256], 's_1_32': [1925], 's_1_33': [4137], 's_2_3': [1293], 's_2_8': [1729], 's_2_9': [2029], 's_2_11': [1717], 's_2_12': [1278], 's_2_13': [1819], 's_2_15': [4389], 's_2_16': [4179], 's_2_17': [1793, 4584], 's_2_25': [4405], 's_2_28': [3669], 's_2_32': [3984], 's_2_33': [1803], 's_3_8': [4212], 's_3_9': [3730], 's_3_11': [2179], 's_3_12': [3651], 's_3_15': [1713], 's_3_17': [3941, 2285], 's_3_25': [3747], 's_3_28': [2347], 's_3_32': [1338], 's_3_33': [1413], 's_8_9': [1927], 's_8_11': [4331], 's_8_12': [1310], 's_8_13': [4284], 's_8_15': [4599], 's_8_16': [1837], 's_8_17': [2272], 's_8_25': [2107], 's_8_28': [1972], 's_11_9': [3686], 's_11_12': [1552], 's_11_13': [2182], 's_11_15': [4448], 's_11_16': [1463], 's_11_17': [3821], 's_11_25': [2227], 's_11_28': [1957], 's_11_32': [2180], 's_12_32': [1218], 's_13_9': [4435, 1867], 's_13_15': [3548, 1743], 's_13_16': [4210], 's_13_17': [4647], 's_13_28': [1987], 's_13_32': [1864], 's_13_33': [2406], 's_15_9': [4209], 's_15_16': [4344], 's_15_17': [4643], 's_15_25': [4570], 's_15_28': [3879], 's_15_33': [1773, 3639], 's_16_9': [4269], 's_16_17': [4659], 's_16_25': [4390], 's_16_28': [1866], 's_16_32': [3895], 's_17_9': [2154, 4751], 's_17_25': [3687], 's_17_28': [2226], 's_17_32': [2210], 's_17_33': [4032], 's_28_25': [4358], 's_28_32': [2482], 's_28_33': [2076], 's_32_9': [3925], 's_32_25': [4092], 's_32_33': [1818], 's_9_25': [2077], 's_9_33': [4601], 's_25_33': [4062]}</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0.001547717842323651</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.00174752848962231</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>{0: [5229, 1632, 5226, 5227, 5228], 1: [1420, 1422, 4957, 1421], 3: [1362, 1361, 4986, 4985, 1360], 4: [4836, 1405, 1407, 1406], 7: [1737, 1736, 5018, 5017, 5015, 5016], 8: [1691, 5076, 1690, 5078, 5077], 9: [4881, 1332, 1331, 1330], 10: [1227, 5241, 1661, 1662, 5242, 5243], 12: [5001, 5002, 1752, 1751, 1646, 5003], 13: [4792, 4791, 1212, 1210, 1211], 15: [4896, 5032, 4897, 1482, 1481], 16: [1540, 5301, 1541, 5302, 1542, 5303], 18: [1705, 1706, 5091, 5093, 5092], 22: [5109, 1556, 5106, 5107, 5108], 23: [5124, 5121, 1647, 5122, 5123], 24: [5195, 5196, 1497, 5198, 5197], 25: [5139, 5138, 5136, 5137], 27: [4926, 4927, 1467, 1466], 28: [5151, 5154, 1602, 5152, 5153], 30: [4851, 5317, 1377, 1374, 1375, 1376], 31: [1273, 1270, 1271, 1272], 32: [1122, 5180, 5183, 5181, 5182], 33: [1257, 4972, 4971, 1255, 1256], 34: [4821, 1240, 1242, 1241], 35: [4716, 1344, 1345, 1347, 1346], 2: [1302, 5030, 1301, 5031], 6: [4882, 1392, 4806, 1391, 1390], 11: [1452, 1451, 5046, 5047], 14: [5346, 1318, 1315, 1316, 1317], 17: [5286, 5287, 5288, 1586, 5212, 1587], 20: [1288, 4956, 1286, 5211, 1287], 21: [5273, 1483, 1196, 5272, 5271, 1197], 26: [1511, 5061, 5063, 5062], 29: [5168, 1572, 5167, 5166], 19: [1601, 4913, 1496, 4973, 4911, 1525, 4912], 5: [5256, 5257, 1436, 5332, 1438, 1437]}</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.332681755829904</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0403194916791214</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>{0: [5229, 1632, 5226, 5227, 5228], 1: [1420, 1422, 4957, 1421], 3: [1362, 1361, 4986, 4985, 1360], 4: [4836, 1405, 1407, 1406], 7: [1737, 1736, 5018, 5017, 5015, 5016], 8: [1691, 5076, 1690, 5078, 5077], 9: [4881, 1332, 1331, 1330], 10: [1227, 5241, 1661, 1662, 5242, 5243], 12: [5001, 5002, 1752, 1751, 1646, 5003], 13: [4792, 4791, 1212, 1210, 1211], 15: [4896, 5032, 4897, 1482, 1481], 16: [1540, 5301, 1541, 5302, 1542, 5303], 18: [1705, 1706, 5091, 5093, 5092], 22: [5109, 1556, 5106, 5107, 5108], 23: [5124, 5121, 1647, 5122, 5123], 24: [5195, 5196, 1497, 5198, 5197], 25: [5139, 5138, 5136, 5137], 27: [4926, 4927, 1467, 1466], 28: [5151, 5154, 1602, 5152, 5153], 30: [4851, 5317, 1377, 1374, 1375, 1376], 31: [1273, 1270, 1271, 1272], 32: [1122, 5180, 5183, 5181, 5182], 33: [1257, 4972, 4971, 1255, 1256], 34: [4821, 1240, 1242, 1241], 35: [4716, 1344, 1345, 1347, 1346], 2: [1302, 5030, 1301, 5031], 6: [4882, 1392, 4806, 1391, 1390], 11: [1452, 1451, 5046, 5047], 14: [5346, 1318, 1315, 1316, 1317], 17: [5286, 5287, 5288, 1586, 5212, 1587], 20: [1288, 4956, 1286, 5211, 1287], 21: [5273, 1483, 1196, 5272, 5271, 1197], 26: [1511, 5061, 5063, 5062], 29: [5168, 1572, 5167, 5166], 19: [1601, 4913, 1496, 4973, 4911, 1525, 4912], 5: [5256, 5257, 1436, 5332, 1438, 1437]}</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0.332681755829904</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.0403194916791214</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>{0: [3862, 4135, 2123, 4466, 4465, 2003, 2002, 1987, 3864, 3865, 3863, 1985, 1986], 1: [1747, 1297, 4191, 2180, 2181, 2182, 4196, 4192, 4193, 1746, 4194, 4195], 's_0_1': [2061], 3: [3966, 4543, 4542, 1204, 1205, 1206, 1207, 1208, 4536, 4541, 4540, 4539, 4538, 4537], 's_0_3': [3861], 4: [1925, 1609, 4854, 2021, 2020, 3758, 3759, 1924, 2019, 4855, 2018, 2017, 1954, 3820, 2015, 2016], 's_0_4': [1939], 7: [1789, 1481, 1480, 3730, 4837, 4836, 3729, 3728, 1255, 1254, 3727, 3726, 1249, 1250, 1253, 1252, 1251], 's_0_7': [1399, 3771], 8: [4483, 1177, 2409, 2138, 4371, 2408, 4482, 4373, 4374, 4481, 1762, 4359, 1838, 4480, 4372, 4479], 's_0_8': [4511], 9: [2212, 4573, 2529, 2528, 2527, 4228, 4226, 1160, 4026, 4027, 4028, 4029, 4030, 4031, 4032, 2361, 2362, 4227], 's_0_9': [2031], 10: [1851, 4702, 1852, 2422, 4703, 4704, 1869, 1868, 4302, 4301, 4300, 4299, 1867], 's_0_10': [2077], 12: [1462, 1463, 1464, 4363, 2255, 2256, 4671, 4672, 4673, 4674, 4675, 4676, 2259, 2258, 2257, 4362], 's_0_12': [4451], 13: [1328, 1840, 4476, 4572, 1839, 4571, 4570, 4569, 1388, 4567, 4568], 's_0_13': [2288], 15: [1555, 4973, 1631, 4063, 4062, 4061, 1926, 1630, 4628, 4060, 1629, 1628, 1627, 1927, 4284, 4283, 1701], 's_0_15': [4210], 16: [3923, 4901, 4900, 4899, 3714, 1713, 1714, 1715, 1716, 1717, 1721, 1720, 1719, 1718], 's_0_16': [1744], 18: [1956, 2544, 2545, 4798, 1957, 4746, 4390, 1912, 1913, 4747, 4748, 4749, 4750, 4797, 4796, 4795, 1914], 's_0_18': [4345], 22: [1931, 5002, 2452, 4393, 1870, 5003, 5004, 2126, 2195, 2196, 2197, 4392, 2198, 2199, 2200, 4871, 2095, 5005], 's_0_22': [2363, 4467], 23: [1835, 2485, 2484, 2483, 2482, 2481, 2480, 3912, 3911, 3910, 3909, 1639, 1640, 1626, 1625, 3908], 's_0_23': [1894], 24: [1385, 2139, 3878, 1490, 3982, 1390, 1355, 1356, 1357, 4692, 4691, 4690, 4689, 4688, 4687, 1389, 4626, 1358], 's_0_24': [1460], 25: [2439, 4506, 4507, 4211, 2033, 4508, 4509, 4510, 1973, 1976, 1975, 1974, 4660, 4661, 2032, 4662], 's_0_25': [4450], 27: [1194, 1672, 4343, 2048, 4820, 4821, 4822, 1539, 4528, 1537, 1538, 4527, 4526, 4525, 4524, 4523], 's_0_27': [2047], 28: [4766, 2035, 2074, 4720, 4719, 2058, 2059, 3926, 3850, 1879, 1796, 1795, 1794, 1793, 1792, 1791, 1790, 3924, 3925], 's_0_28': [3880, 1909], 30: [4102, 4177, 1477, 4693, 4213, 2499, 2498, 2496, 1476, 1475, 1474, 3698, 3699, 3700, 3701, 2497, 3702, 3703, 2494, 2495], 's_0_30': [1579], 31: [1459, 3787, 4598, 4117, 1504, 1505, 1506, 1990, 1989, 4585, 4584, 4583, 1508, 1507], 's_0_31': [2004], 32: [2437, 4317, 4316, 4943, 4944, 4945, 4946, 2155, 4361, 2152, 2153, 2154], 's_0_32': [2227], 33: [1898, 3760, 2104, 4001, 2105, 2106, 1897, 4314, 4315, 4556, 2108, 2107], 's_0_33': [4120], 34: [2242, 2241, 4701, 2421, 4152, 1314, 1313, 1312, 1311, 4072, 4073, 4074, 4075, 2001, 4151, 1941, 1310, 4150], 's_0_34': [2121], 35: [1916, 4762, 5095, 5094, 5093, 5092, 1436, 1435, 1434, 3849, 1433, 1432, 4252, 1341, 1340, 1339, 3847, 3848], 's_0_35': [1594], 2: [3983, 4930, 1945, 1687, 4148, 1550, 1551, 1552, 4462, 1944, 1943, 4464, 4463], 's_1_2': [4282, 1492], 's_1_3': [1221], 's_1_4': [3851], 6: [4131, 5019, 1826, 4132, 4133, 4134, 1825, 1824, 1823, 1820, 1821, 1822], 's_1_6': [1807], 's_1_8': [4313], 11: [4357, 1661, 1519, 4613, 2365, 4782, 4781, 4780, 4779, 1520, 1521, 1522, 1523, 4857, 1524, 4807, 4808, 1660], 's_1_11': [4147, 1401], 's_1_12': [4136], 14: [1864, 4272, 4271, 2167, 4326, 4327, 1237, 4328, 1657, 1865, 1866, 1568, 4241, 4240, 1567, 4238, 4239], 's_1_14': [1881], 's_1_15': [4180], 's_1_16': [4118], 17: [3807, 3806, 1849, 1270, 1269, 3817, 3805, 3804, 3803, 3802, 1369, 1268, 1267, 1266, 1265, 3921], 's_1_17': [4281], 's_1_18': [1911], 20: [3972, 3971, 3970, 4447, 3969, 1600, 1599, 1598, 4448, 1732, 1729, 1730, 1731], 's_1_20': [4149, 1761], 21: [1564, 2286, 3939, 3938, 3937, 1774, 1777, 1565, 1775, 3941, 3940, 2285, 1776], 's_1_21': [3956], 's_1_23': [4163, 1611], 's_1_24': [4266], 's_1_25': [1298], 26: [2320, 2239, 2240, 4086, 1534, 1535, 4087, 2319, 2318, 4088, 4089, 4090, 2317, 2316, 4092, 4091], 's_1_26': [4103], 's_1_27': [4178], 's_1_28': [3896], 29: [2270, 4881, 4882, 4883, 2271, 4197, 4884, 2392, 2393, 2394, 2395, 4888, 4887, 4886, 4885], 's_1_29': [4286], 's_1_30': [2179], 's_1_32': [2183], 's_1_33': [3881], 's_1_35': [1416, 4207], 's_3_2': [1553], 's_3_4': [4555], 's_3_6': [4130], 's_3_7': [4041], 's_3_8': [2063], 's_3_9': [4100], 's_3_11': [1659], 's_3_12': [4557], 's_3_13': [1449], 's_3_14': [4236], 's_3_16': [1733], 's_3_17': [3846], 's_3_18': [1209], 19: [2060, 3951, 1374, 1373, 4000, 3999, 3998, 3997, 4042, 1372, 1371, 1370], 's_3_19': [1325, 4011], 's_3_20': [4553], 's_3_22': [2453], 's_3_23': [4558], 's_3_24': [3981], 's_3_27': [2468], 's_3_28': [4554], 's_3_29': [2379], 's_3_30': [2513], 's_3_31': [3786], 's_3_33': [2169], 's_3_34': [4071], 's_3_35': [3801], 's_4_2': [4735], 5: [3731, 1556, 2299, 5063, 5064, 5065, 5066, 2186, 2185, 2184, 2300, 2301, 2302, 2303, 2304, 4646], 's_4_5': [4856], 's_4_6': [3835, 3834], 's_4_7': [3744], 's_4_8': [4375], 's_4_9': [4046], 's_4_11': [1810], 's_4_13': [4586], 's_4_15': [4853], 's_4_16': [2080], 's_4_18': [4165], 's_4_19': [4015], 's_4_20': [3773], 's_4_21': [3775, 3774], 's_4_22': [4976], 's_4_23': [1624], 's_4_24': [2034], 's_4_25': [4990], 's_4_26': [3818], 's_4_27': [4601], 's_4_29': [2125], 's_4_30': [2014], 's_4_31': [4810], 's_4_33': [4436], 's_4_35': [2022], 's_7_5': [5032, 1541], 's_7_8': [4431], 's_7_11': [1518], 's_7_12': [1509, 4763], 's_7_13': [4641], 's_7_15': [1510], 's_7_18': [1450], 's_7_19': [1235], 's_7_21': [3936], 's_7_22': [4926, 4927, 4928, 1646], 's_7_23': [1834], 's_7_24': [4896, 4897], 's_7_25': [1238], 's_7_26': [1236], 's_7_27': [1240, 4776], 's_7_28': [3745], 's_7_29': [1525], 's_7_30': [1908], 's_7_31': [1444], 's_7_32': [1496], 's_7_33': [1969], 's_7_34': [4446], 's_8_6': [4344], 's_8_9': [2213], 's_8_10': [2407], 's_8_12': [4496], 's_8_13': [1778], 's_8_14': [1612], 's_8_15': [1837], 's_8_16': [4478], 's_8_17': [4386], 's_8_18': [4389], 's_8_19': [1342, 4432], 's_8_20': [1673], 's_8_21': [4404], 's_8_22': [2378], 's_8_23': [4497], 's_8_24': [4707], 's_8_25': [1958], 's_8_26': [4618, 4617], 's_8_27': [2168], 's_8_28': [4494], 's_8_29': [2410], 's_8_30': [4603], 's_8_32': [2137], 's_8_33': [2093], 's_8_34': [4356, 1283], 's_9_2': [1671], 's_9_5': [4212], 's_9_6': [1806], 's_9_10': [4045], 's_9_11': [4043], 's_9_12': [4047], 's_9_13': [4475, 1117, 1116, 1118], 's_9_14': [2226], 's_9_15': [2346], 's_9_16': [1745], 's_9_17': [1161, 4221], 's_9_18': [2530], 's_9_19': [3950, 1190], 's_9_20': [2120], 's_9_21': [4077], 's_9_22': [4331], 's_9_25': [4708], 's_9_27': [2423], 's_9_28': [2150], 's_9_29': [4588], 's_9_30': [4498], 's_9_32': [4346], 's_9_33': [4002], 's_9_34': [1296], 's_10_2': [1853], 's_10_5': [2287], 's_10_6': [4734], 's_10_11': [1614], 's_10_12': [1404], 's_10_13': [4809], 's_10_14': [4255], 's_10_15': [1942], 's_10_16': [4179], 's_10_18': [1734], 's_10_19': [4014], 's_10_20': [4329], 's_10_22': [4408], 's_10_23': [1850], 's_10_24': [1779], 's_10_25': [1972], 's_10_26': [4377], 's_10_27': [1597, 4298], 's_10_28': [1884], 's_10_29': [4452], 's_10_31': [1584], 's_10_32': [2272], 's_10_33': [2062], 's_10_35': [1419], 's_12_2': [1448], 's_12_5': [4587], 's_12_6': [4417, 1326, 1327], 's_12_11': [1494, 1495], 's_12_14': [1447], 's_12_15': [1644], 's_12_16': [4658], 's_12_17': [1284], 's_12_18': [1554], 's_12_19': [1461], 's_12_20': [3987], 's_12_23': [2467], 's_12_26': [4752], 's_12_27': [2558], 's_12_28': [2124], 's_12_29': [4106], 's_12_32': [4378], 's_12_35': [1359], 's_13_2': [4629], 's_13_5': [2243], 's_13_11': [1479], 's_13_15': [1674], 's_13_16': [1856, 1855], 's_13_17': [4566], 's_13_19': [4491], 's_13_20': [1763], 's_13_22': [4869], 's_13_25': [1403], 's_13_26': [2333], 's_13_27': [4551, 1193], 's_13_28': [4644], 's_13_31': [1928], 's_13_32': [1841], 's_13_33': [2214], 's_13_34': [4521], 's_13_35': [1343, 1344], 's_15_2': [1688], 's_15_5': [1601], 's_15_6': [4269], 's_15_11': [4358], 's_15_16': [4988], 's_15_18': [4360], 's_15_19': [1910], 's_15_20': [4643], 's_15_21': [1895], 's_15_22': [1586], 's_15_23': [2466], 's_15_24': [1749], 's_15_25': [1643], 's_15_26': [1971], 's_15_27': [4403], 's_15_28': [1764], 's_15_29': [4838, 1735], 's_15_30': [2510, 2511], 's_15_31': [1703], 's_15_32': [1540], 's_15_33': [4405], 's_15_34': [2331], 's_16_5': [1811], 's_16_6': [4959, 1781], 's_16_14': [4254], 's_16_17': [1699], 's_16_18': [1915], 's_16_19': [1759, 1760], 's_16_20': [3819], 's_16_21': [3879], 's_16_23': [3743], 's_16_24': [3967, 3968, 1595], 's_16_25': [2216, 5051, 5050], 's_16_26': [4902], 's_16_28': [5124], 's_16_29': [2065], 's_16_30': [3713], 's_16_32': [2006], 's_16_35': [5017, 5018, 1736], 's_18_2': [4765], 's_18_5': [2305], 's_18_6': [4824], 's_18_11': [2110], 's_18_14': [2076, 4270], 's_18_17': [4761], 's_18_20': [4449], 's_18_22': [2543], 's_18_23': [4723], 's_18_24': [1899], 's_18_26': [2335], 's_18_27': [1149], 's_18_28': [4794], 's_18_29': [4873], 's_18_30': [4648], 's_18_31': [4600], 's_18_33': [4435], 's_18_34': [4225], 's_18_35': [1300], 's_22_2': [4839], 's_22_5': [1571], 's_22_6': [4914], 's_22_11': [4872], 's_22_20': [2210], 's_22_21': [3882], 's_22_23': [4827, 4826], 's_22_24': [4706], 's_22_25': [4916, 4915], 's_22_26': [3852], 's_22_27': [2348], 's_22_28': [5034], 's_22_29': [5006, 2230], 's_22_30': [4422, 4423], 's_22_32': [1705], 's_22_33': [3821], 's_22_34': [2451, 4153], 's_22_35': [5080], 's_23_2': [1655], 's_23_6': [1805], 's_23_11': [4812], 's_23_14': [3895], 's_23_17': [3883, 2419], 's_23_19': [1970], 's_23_20': [3942, 2330], 's_23_21': [1955], 's_23_24': [3893], 's_23_25': [4783, 2424], 's_23_26': [3907], 's_23_28': [2000], 's_23_29': [4198], 's_23_30': [3898], 's_23_32': [4438], 's_23_34': [2420, 4033], 's_23_35': [1670], 's_24_2': [4223, 4222], 's_24_5': [2289], 's_24_6': [1491], 's_24_11': [2364], 's_24_14': [4237], 's_24_17': [1445], 's_24_19': [4101], 's_24_21': [1415], 's_24_25': [2274], 's_24_27': [4686], 's_24_28': [2049, 4751, 2094], 's_24_29': [4867], 's_24_31': [3922, 1430], 's_24_32': [4942], 's_24_34': [4057], 's_24_35': [1354, 3877], 's_25_2': [1583], 's_25_5': [1961], 's_25_6': [5020], 's_25_11': [2079], 's_25_14': [2046], 's_25_26': [2136, 4181], 's_25_27': [1988], 's_25_28': [1959], 's_25_29': [2440], 's_25_30': [4663], 's_25_31': [4645], 's_25_32': [2091, 2092], 's_25_33': [4495], 's_25_35': [5125, 1857], 's_27_2': [1658], 's_27_6': [1808], 's_27_11': [4642], 's_27_14': [4418], 's_27_17': [1329, 4731], 's_27_19': [4522], 's_27_20': [4733], 's_27_26': [4512], 's_27_28': [4209], 's_27_29': [1210], 's_27_30': [4513], 's_27_31': [4492], 's_27_32': [1570], 's_27_33': [2078], 's_27_34': [1179], 's_28_5': [2036], 's_28_6': [4659], 's_28_11': [4614], 's_28_14': [4104], 's_28_17': [2254], 's_28_19': [1940], 's_28_20': [4224], 's_28_21': [3894], 's_28_26': [2089, 2090], 's_28_29': [1780], 's_28_30': [2073], 's_28_31': [4599], 's_28_32': [4721], 's_28_33': [3866], 's_28_34': [4119], 's_28_35': [5079], 's_30_2': [4312], 's_30_5': [3717], 's_30_6': [1386], 's_30_14': [1863], 's_30_17': [2209], 's_30_19': [4342], 's_30_26': [2238], 's_30_29': [2500], 's_30_31': [4012], 's_30_33': [2029], 's_30_34': [4258], 's_30_35': [4176], 's_31_2': [1748], 's_31_6': [1809], 's_31_14': [4477], 's_31_17': [1324, 3756, 3757, 1414], 's_31_19': [4597], 's_31_20': [1613], 's_31_26': [3788], 's_31_29': [2005], 's_31_33': [1883, 4615], 's_31_34': [4582], 's_31_35': [1384], 's_32_2': [1991], 's_32_5': [4736], 's_32_6': [4929], 's_32_11': [2140], 's_32_14': [4256], 's_32_26': [4947], 's_32_29': [1900], 's_32_33': [4421], 's_32_34': [2151], 's_33_2': [4420], 's_33_5': [2228], 's_33_14': [2166], 's_33_17': [1984], 's_33_19': [4105], 's_33_20': [2135], 's_33_21': [2225], 's_33_26': [3761], 's_33_34': [2211], 's_34_2': [4461], 's_34_5': [4167], 's_34_6': [1566], 's_34_11': [4612], 's_34_14': [2406], 's_34_17': [4656], 's_34_19': [4402], 's_34_20': [1880], 's_34_21': [1685], 's_34_26': [4287], 's_34_35': [4146], 's_35_2': [4297], 's_35_5': [5062], 's_35_6': [1946], 's_35_11': [1417], 's_35_14': [4253], 's_35_17': [3892], 's_35_19': [1465, 4777], 's_35_20': [1418], 's_35_26': [1549], 's_2_6': [4419], 's_2_11': [4058], 's_2_14': [4208, 1642], 's_2_19': [1656], 's_2_20': [1702], 's_2_21': [1610], 's_2_26': [1596], 's_6_11': [4764], 's_6_14': [1686], 's_6_17': [1819], 's_6_19': [1446], 's_6_20': [4059], 's_11_5': [4737], 's_11_14': [4267], 's_11_17': [4806], 's_11_19': [4717], 's_11_21': [3952], 's_11_26': [4722], 's_11_29': [2290], 's_14_17': [1282], 's_14_19': [4296], 's_14_20': [4434, 4433], 's_14_21': [3984], 's_14_26': [1536], 's_14_29': [2347], 's_17_5': [3792], 's_17_19': [4311], 's_17_20': [3789], 's_17_21': [2284], 's_17_26': [1281], 's_17_29': [1285], 's_20_21': [2030], 's_20_26': [3986], 's_20_29': [1615], 's_21_26': [4182], 's_21_29': [4121], 's_26_5': [4437], 's_26_19': [2045], 's_26_29': [2275, 4917], 's_29_5': [4332]}</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.001576628352490421</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.001719524478998486</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>{0: [3862, 4135, 2123, 4466, 4465, 2003, 2002, 1987, 3864, 3865, 3863, 1985, 1986], 1: [1747, 1297, 4191, 2180, 2181, 2182, 4196, 4192, 4193, 1746, 4194, 4195], 's_0_1': [2061], 3: [3966, 4543, 4542, 1204, 1205, 1206, 1207, 1208, 4536, 4541, 4540, 4539, 4538, 4537], 's_0_3': [3861], 4: [1925, 1609, 4854, 2021, 2020, 3758, 3759, 1924, 2019, 4855, 2018, 2017, 1954, 3820, 2015, 2016], 's_0_4': [1939], 7: [1789, 1481, 1480, 3730, 4837, 4836, 3729, 3728, 1255, 1254, 3727, 3726, 1249, 1250, 1253, 1252, 1251], 's_0_7': [1399, 3771], 8: [4483, 1177, 2409, 2138, 4371, 2408, 4482, 4373, 4374, 4481, 1762, 4359, 1838, 4480, 4372, 4479], 's_0_8': [4511], 9: [2212, 4573, 2529, 2528, 2527, 4228, 4226, 1160, 4026, 4027, 4028, 4029, 4030, 4031, 4032, 2361, 2362, 4227], 's_0_9': [2031], 10: [1851, 4702, 1852, 2422, 4703, 4704, 1869, 1868, 4302, 4301, 4300, 4299, 1867], 's_0_10': [2077], 12: [1462, 1463, 1464, 4363, 2255, 2256, 4671, 4672, 4673, 4674, 4675, 4676, 2259, 2258, 2257, 4362], 's_0_12': [4451], 13: [1328, 1840, 4476, 4572, 1839, 4571, 4570, 4569, 1388, 4567, 4568], 's_0_13': [2288], 15: [1555, 4973, 1631, 4063, 4062, 4061, 1926, 1630, 4628, 4060, 1629, 1628, 1627, 1927, 4284, 4283, 1701], 's_0_15': [4210], 16: [3923, 4901, 4900, 4899, 3714, 1713, 1714, 1715, 1716, 1717, 1721, 1720, 1719, 1718], 's_0_16': [1744], 18: [1956, 2544, 2545, 4798, 1957, 4746, 4390, 1912, 1913, 4747, 4748, 4749, 4750, 4797, 4796, 4795, 1914], 's_0_18': [4345], 22: [1931, 5002, 2452, 4393, 1870, 5003, 5004, 2126, 2195, 2196, 2197, 4392, 2198, 2199, 2200, 4871, 2095, 5005], 's_0_22': [2363, 4467], 23: [1835, 2485, 2484, 2483, 2482, 2481, 2480, 3912, 3911, 3910, 3909, 1639, 1640, 1626, 1625, 3908], 's_0_23': [1894], 24: [1385, 2139, 3878, 1490, 3982, 1390, 1355, 1356, 1357, 4692, 4691, 4690, 4689, 4688, 4687, 1389, 4626, 1358], 's_0_24': [1460], 25: [2439, 4506, 4507, 4211, 2033, 4508, 4509, 4510, 1973, 1976, 1975, 1974, 4660, 4661, 2032, 4662], 's_0_25': [4450], 27: [1194, 1672, 4343, 2048, 4820, 4821, 4822, 1539, 4528, 1537, 1538, 4527, 4526, 4525, 4524, 4523], 's_0_27': [2047], 28: [4766, 2035, 2074, 4720, 4719, 2058, 2059, 3926, 3850, 1879, 1796, 1795, 1794, 1793, 1792, 1791, 1790, 3924, 3925], 's_0_28': [3880, 1909], 30: [4102, 4177, 1477, 4693, 4213, 2499, 2498, 2496, 1476, 1475, 1474, 3698, 3699, 3700, 3701, 2497, 3702, 3703, 2494, 2495], 's_0_30': [1579], 31: [1459, 3787, 4598, 4117, 1504, 1505, 1506, 1990, 1989, 4585, 4584, 4583, 1508, 1507], 's_0_31': [2004], 32: [2437, 4317, 4316, 4943, 4944, 4945, 4946, 2155, 4361, 2152, 2153, 2154], 's_0_32': [2227], 33: [1898, 3760, 2104, 4001, 2105, 2106, 1897, 4314, 4315, 4556, 2108, 2107], 's_0_33': [4120], 34: [2242, 2241, 4701, 2421, 4152, 1314, 1313, 1312, 1311, 4072, 4073, 4074, 4075, 2001, 4151, 1941, 1310, 4150], 's_0_34': [2121], 35: [1916, 4762, 5095, 5094, 5093, 5092, 1436, 1435, 1434, 3849, 1433, 1432, 4252, 1341, 1340, 1339, 3847, 3848], 's_0_35': [1594], 2: [3983, 4930, 1945, 1687, 4148, 1550, 1551, 1552, 4462, 1944, 1943, 4464, 4463], 's_1_2': [4282, 1492], 's_1_3': [1221], 's_1_4': [3851], 6: [4131, 5019, 1826, 4132, 4133, 4134, 1825, 1824, 1823, 1820, 1821, 1822], 's_1_6': [1807], 's_1_8': [4313], 11: [4357, 1661, 1519, 4613, 2365, 4782, 4781, 4780, 4779, 1520, 1521, 1522, 1523, 4857, 1524, 4807, 4808, 1660], 's_1_11': [4147, 1401], 's_1_12': [4136], 14: [1864, 4272, 4271, 2167, 4326, 4327, 1237, 4328, 1657, 1865, 1866, 1568, 4241, 4240, 1567, 4238, 4239], 's_1_14': [1881], 's_1_15': [4180], 's_1_16': [4118], 17: [3807, 3806, 1849, 1270, 1269, 3817, 3805, 3804, 3803, 3802, 1369, 1268, 1267, 1266, 1265, 3921], 's_1_17': [4281], 's_1_18': [1911], 20: [3972, 3971, 3970, 4447, 3969, 1600, 1599, 1598, 4448, 1732, 1729, 1730, 1731], 's_1_20': [4149, 1761], 21: [1564, 2286, 3939, 3938, 3937, 1774, 1777, 1565, 1775, 3941, 3940, 2285, 1776], 's_1_21': [3956], 's_1_23': [4163, 1611], 's_1_24': [4266], 's_1_25': [1298], 26: [2320, 2239, 2240, 4086, 1534, 1535, 4087, 2319, 2318, 4088, 4089, 4090, 2317, 2316, 4092, 4091], 's_1_26': [4103], 's_1_27': [4178], 's_1_28': [3896], 29: [2270, 4881, 4882, 4883, 2271, 4197, 4884, 2392, 2393, 2394, 2395, 4888, 4887, 4886, 4885], 's_1_29': [4286], 's_1_30': [2179], 's_1_32': [2183], 's_1_33': [3881], 's_1_35': [1416, 4207], 's_3_2': [1553], 's_3_4': [4555], 's_3_6': [4130], 's_3_7': [4041], 's_3_8': [2063], 's_3_9': [4100], 's_3_11': [1659], 's_3_12': [4557], 's_3_13': [1449], 's_3_14': [4236], 's_3_16': [1733], 's_3_17': [3846], 's_3_18': [1209], 19: [2060, 3951, 1374, 1373, 4000, 3999, 3998, 3997, 4042, 1372, 1371, 1370], 's_3_19': [1325, 4011], 's_3_20': [4553], 's_3_22': [2453], 's_3_23': [4558], 's_3_24': [3981], 's_3_27': [2468], 's_3_28': [4554], 's_3_29': [2379], 's_3_30': [2513], 's_3_31': [3786], 's_3_33': [2169], 's_3_34': [4071], 's_3_35': [3801], 's_4_2': [4735], 5: [3731, 1556, 2299, 5063, 5064, 5065, 5066, 2186, 2185, 2184, 2300, 2301, 2302, 2303, 2304, 4646], 's_4_5': [4856], 's_4_6': [3835, 3834], 's_4_7': [3744], 's_4_8': [4375], 's_4_9': [4046], 's_4_11': [1810], 's_4_13': [4586], 's_4_15': [4853], 's_4_16': [2080], 's_4_18': [4165], 's_4_19': [4015], 's_4_20': [3773], 's_4_21': [3775, 3774], 's_4_22': [4976], 's_4_23': [1624], 's_4_24': [2034], 's_4_25': [4990], 's_4_26': [3818], 's_4_27': [4601], 's_4_29': [2125], 's_4_30': [2014], 's_4_31': [4810], 's_4_33': [4436], 's_4_35': [2022], 's_7_5': [5032, 1541], 's_7_8': [4431], 's_7_11': [1518], 's_7_12': [1509, 4763], 's_7_13': [4641], 's_7_15': [1510], 's_7_18': [1450], 's_7_19': [1235], 's_7_21': [3936], 's_7_22': [4926, 4927, 4928, 1646], 's_7_23': [1834], 's_7_24': [4896, 4897], 's_7_25': [1238], 's_7_26': [1236], 's_7_27': [1240, 4776], 's_7_28': [3745], 's_7_29': [1525], 's_7_30': [1908], 's_7_31': [1444], 's_7_32': [1496], 's_7_33': [1969], 's_7_34': [4446], 's_8_6': [4344], 's_8_9': [2213], 's_8_10': [2407], 's_8_12': [4496], 's_8_13': [1778], 's_8_14': [1612], 's_8_15': [1837], 's_8_16': [4478], 's_8_17': [4386], 's_8_18': [4389], 's_8_19': [1342, 4432], 's_8_20': [1673], 's_8_21': [4404], 's_8_22': [2378], 's_8_23': [4497], 's_8_24': [4707], 's_8_25': [1958], 's_8_26': [4618, 4617], 's_8_27': [2168], 's_8_28': [4494], 's_8_29': [2410], 's_8_30': [4603], 's_8_32': [2137], 's_8_33': [2093], 's_8_34': [4356, 1283], 's_9_2': [1671], 's_9_5': [4212], 's_9_6': [1806], 's_9_10': [4045], 's_9_11': [4043], 's_9_12': [4047], 's_9_13': [4475, 1117, 1116, 1118], 's_9_14': [2226], 's_9_15': [2346], 's_9_16': [1745], 's_9_17': [1161, 4221], 's_9_18': [2530], 's_9_19': [3950, 1190], 's_9_20': [2120], 's_9_21': [4077], 's_9_22': [4331], 's_9_25': [4708], 's_9_27': [2423], 's_9_28': [2150], 's_9_29': [4588], 's_9_30': [4498], 's_9_32': [4346], 's_9_33': [4002], 's_9_34': [1296], 's_10_2': [1853], 's_10_5': [2287], 's_10_6': [4734], 's_10_11': [1614], 's_10_12': [1404], 's_10_13': [4809], 's_10_14': [4255], 's_10_15': [1942], 's_10_16': [4179], 's_10_18': [1734], 's_10_19': [4014], 's_10_20': [4329], 's_10_22': [4408], 's_10_23': [1850], 's_10_24': [1779], 's_10_25': [1972], 's_10_26': [4377], 's_10_27': [1597, 4298], 's_10_28': [1884], 's_10_29': [4452], 's_10_31': [1584], 's_10_32': [2272], 's_10_33': [2062], 's_10_35': [1419], 's_12_2': [1448], 's_12_5': [4587], 's_12_6': [4417, 1326, 1327], 's_12_11': [1494, 1495], 's_12_14': [1447], 's_12_15': [1644], 's_12_16': [4658], 's_12_17': [1284], 's_12_18': [1554], 's_12_19': [1461], 's_12_20': [3987], 's_12_23': [2467], 's_12_26': [4752], 's_12_27': [2558], 's_12_28': [2124], 's_12_29': [4106], 's_12_32': [4378], 's_12_35': [1359], 's_13_2': [4629], 's_13_5': [2243], 's_13_11': [1479], 's_13_15': [1674], 's_13_16': [1856, 1855], 's_13_17': [4566], 's_13_19': [4491], 's_13_20': [1763], 's_13_22': [4869], 's_13_25': [1403], 's_13_26': [2333], 's_13_27': [4551, 1193], 's_13_28': [4644], 's_13_31': [1928], 's_13_32': [1841], 's_13_33': [2214], 's_13_34': [4521], 's_13_35': [1343, 1344], 's_15_2': [1688], 's_15_5': [1601], 's_15_6': [4269], 's_15_11': [4358], 's_15_16': [4988], 's_15_18': [4360], 's_15_19': [1910], 's_15_20': [4643], 's_15_21': [1895], 's_15_22': [1586], 's_15_23': [2466], 's_15_24': [1749], 's_15_25': [1643], 's_15_26': [1971], 's_15_27': [4403], 's_15_28': [1764], 's_15_29': [4838, 1735], 's_15_30': [2510, 2511], 's_15_31': [1703], 's_15_32': [1540], 's_15_33': [4405], 's_15_34': [2331], 's_16_5': [1811], 's_16_6': [4959, 1781], 's_16_14': [4254], 's_16_17': [1699], 's_16_18': [1915], 's_16_19': [1759, 1760], 's_16_20': [3819], 's_16_21': [3879], 's_16_23': [3743], 's_16_24': [3967, 3968, 1595], 's_16_25': [2216, 5051, 5050], 's_16_26': [4902], 's_16_28': [5124], 's_16_29': [2065], 's_16_30': [3713], 's_16_32': [2006], 's_16_35': [5017, 5018, 1736], 's_18_2': [4765], 's_18_5': [2305], 's_18_6': [4824], 's_18_11': [2110], 's_18_14': [2076, 4270], 's_18_17': [4761], 's_18_20': [4449], 's_18_22': [2543], 's_18_23': [4723], 's_18_24': [1899], 's_18_26': [2335], 's_18_27': [1149], 's_18_28': [4794], 's_18_29': [4873], 's_18_30': [4648], 's_18_31': [4600], 's_18_33': [4435], 's_18_34': [4225], 's_18_35': [1300], 's_22_2': [4839], 's_22_5': [1571], 's_22_6': [4914], 's_22_11': [4872], 's_22_20': [2210], 's_22_21': [3882], 's_22_23': [4827, 4826], 's_22_24': [4706], 's_22_25': [4916, 4915], 's_22_26': [3852], 's_22_27': [2348], 's_22_28': [5034], 's_22_29': [5006, 2230], 's_22_30': [4422, 4423], 's_22_32': [1705], 's_22_33': [3821], 's_22_34': [2451, 4153], 's_22_35': [5080], 's_23_2': [1655], 's_23_6': [1805], 's_23_11': [4812], 's_23_14': [3895], 's_23_17': [3883, 2419], 's_23_19': [1970], 's_23_20': [3942, 2330], 's_23_21': [1955], 's_23_24': [3893], 's_23_25': [4783, 2424], 's_23_26': [3907], 's_23_28': [2000], 's_23_29': [4198], 's_23_30': [3898], 's_23_32': [4438], 's_23_34': [2420, 4033], 's_23_35': [1670], 's_24_2': [4223, 4222], 's_24_5': [2289], 's_24_6': [1491], 's_24_11': [2364], 's_24_14': [4237], 's_24_17': [1445], 's_24_19': [4101], 's_24_21': [1415], 's_24_25': [2274], 's_24_27': [4686], 's_24_28': [2049, 4751, 2094], 's_24_29': [4867], 's_24_31': [3922, 1430], 's_24_32': [4942], 's_24_34': [4057], 's_24_35': [1354, 3877], 's_25_2': [1583], 's_25_5': [1961], 's_25_6': [5020], 's_25_11': [2079], 's_25_14': [2046], 's_25_26': [2136, 4181], 's_25_27': [1988], 's_25_28': [1959], 's_25_29': [2440], 's_25_30': [4663], 's_25_31': [4645], 's_25_32': [2091, 2092], 's_25_33': [4495], 's_25_35': [5125, 1857], 's_27_2': [1658], 's_27_6': [1808], 's_27_11': [4642], 's_27_14': [4418], 's_27_17': [1329, 4731], 's_27_19': [4522], 's_27_20': [4733], 's_27_26': [4512], 's_27_28': [4209], 's_27_29': [1210], 's_27_30': [4513], 's_27_31': [4492], 's_27_32': [1570], 's_27_33': [2078], 's_27_34': [1179], 's_28_5': [2036], 's_28_6': [4659], 's_28_11': [4614], 's_28_14': [4104], 's_28_17': [2254], 's_28_19': [1940], 's_28_20': [4224], 's_28_21': [3894], 's_28_26': [2089, 2090], 's_28_29': [1780], 's_28_30': [2073], 's_28_31': [4599], 's_28_32': [4721], 's_28_33': [3866], 's_28_34': [4119], 's_28_35': [5079], 's_30_2': [4312], 's_30_5': [3717], 's_30_6': [1386], 's_30_14': [1863], 's_30_17': [2209], 's_30_19': [4342], 's_30_26': [2238], 's_30_29': [2500], 's_30_31': [4012], 's_30_33': [2029], 's_30_34': [4258], 's_30_35': [4176], 's_31_2': [1748], 's_31_6': [1809], 's_31_14': [4477], 's_31_17': [1324, 3756, 3757, 1414], 's_31_19': [4597], 's_31_20': [1613], 's_31_26': [3788], 's_31_29': [2005], 's_31_33': [1883, 4615], 's_31_34': [4582], 's_31_35': [1384], 's_32_2': [1991], 's_32_5': [4736], 's_32_6': [4929], 's_32_11': [2140], 's_32_14': [4256], 's_32_26': [4947], 's_32_29': [1900], 's_32_33': [4421], 's_32_34': [2151], 's_33_2': [4420], 's_33_5': [2228], 's_33_14': [2166], 's_33_17': [1984], 's_33_19': [4105], 's_33_20': [2135], 's_33_21': [2225], 's_33_26': [3761], 's_33_34': [2211], 's_34_2': [4461], 's_34_5': [4167], 's_34_6': [1566], 's_34_11': [4612], 's_34_14': [2406], 's_34_17': [4656], 's_34_19': [4402], 's_34_20': [1880], 's_34_21': [1685], 's_34_26': [4287], 's_34_35': [4146], 's_35_2': [4297], 's_35_5': [5062], 's_35_6': [1946], 's_35_11': [1417], 's_35_14': [4253], 's_35_17': [3892], 's_35_19': [1465, 4777], 's_35_20': [1418], 's_35_26': [1549], 's_2_6': [4419], 's_2_11': [4058], 's_2_14': [4208, 1642], 's_2_19': [1656], 's_2_20': [1702], 's_2_21': [1610], 's_2_26': [1596], 's_6_11': [4764], 's_6_14': [1686], 's_6_17': [1819], 's_6_19': [1446], 's_6_20': [4059], 's_11_5': [4737], 's_11_14': [4267], 's_11_17': [4806], 's_11_19': [4717], 's_11_21': [3952], 's_11_26': [4722], 's_11_29': [2290], 's_14_17': [1282], 's_14_19': [4296], 's_14_20': [4434, 4433], 's_14_21': [3984], 's_14_26': [1536], 's_14_29': [2347], 's_17_5': [3792], 's_17_19': [4311], 's_17_20': [3789], 's_17_21': [2284], 's_17_26': [1281], 's_17_29': [1285], 's_20_21': [2030], 's_20_26': [3986], 's_20_29': [1615], 's_21_26': [4182], 's_21_29': [4121], 's_26_5': [4437], 's_26_19': [2045], 's_26_29': [2275, 4917], 's_29_5': [4332]}</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0.001576628352490421</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.001719524478998486</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>{0: [5379, 5382, 5380, 5381], 1: [5320, 2473, 5323, 5321, 5322], 2: [5142, 2202, 2204, 5276, 2203], 3: [2337, 2339, 5486, 5487, 2338], 6: [1948, 5440, 5442, 5441], 8: [2068, 2142, 5141, 5201, 2067, 2066], 9: [2084, 2082, 2083], 10: [2099, 5200, 2096, 2097, 2098], 11: [5368, 2533, 2278, 2534, 5503, 5501, 5502], 12: [2354, 2353, 5293, 5290, 5291, 5292], 14: [1918, 5410, 5413, 5411, 5412], 15: [5470, 2053, 5473, 5472, 5471], 16: [2489, 2052, 2488, 5365, 5366, 5367], 17: [5394, 2398, 5397, 5395, 5396], 18: [2247, 5215, 5217, 2248, 5216], 19: [5230, 5231, 2232, 2234, 2233], 21: [5350, 2114, 2112, 2113], 22: [5425, 1977, 2039, 2038, 5260], 23: [1992, 5607, 5606, 5605, 1993, 1994], 24: [2383, 2384, 5530, 5531, 5532], 26: [2264, 5428, 2263, 5426, 5427], 27: [5547, 2008, 5546, 2009, 5545], 28: [2307, 5351, 2309, 2308], 29: [5383, 2503, 5338, 5335, 5336, 5337], 30: [5457, 5456, 1933, 5458, 5455], 31: [2429, 2428, 5245, 5592, 5246, 2427, 5247], 33: [5155, 2324, 5156, 5157, 2323, 2322], 34: [2219, 2218, 5308, 5306, 5307], 35: [2292, 2293, 2294, 5622, 5621], 36: [2368, 2369, 5516, 5517], 5: [5590, 2187, 5591, 2189, 2188], 7: [5636, 2159, 2157, 2158], 13: [5651, 2129, 2127, 2128], 20: [5577, 2143, 2144, 5575, 5576], 25: [2414, 5261, 5262, 2413, 5352, 2412], 32: [5186, 5185, 2022, 2024, 2023], 4: [5560, 5561, 2172, 2173, 2174]}</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.1945152699869681</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.04826936926238075</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>{0: [5379, 5382, 5380, 5381], 1: [5320, 2473, 5323, 5321, 5322], 2: [5142, 2202, 2204, 5276, 2203], 3: [2337, 2339, 5486, 5487, 2338], 6: [1948, 5440, 5442, 5441], 8: [2068, 2142, 5141, 5201, 2067, 2066], 9: [2084, 2082, 2083], 10: [2099, 5200, 2096, 2097, 2098], 11: [5368, 2533, 2278, 2534, 5503, 5501, 5502], 12: [2354, 2353, 5293, 5290, 5291, 5292], 14: [1918, 5410, 5413, 5411, 5412], 15: [5470, 2053, 5473, 5472, 5471], 16: [2489, 2052, 2488, 5365, 5366, 5367], 17: [5394, 2398, 5397, 5395, 5396], 18: [2247, 5215, 5217, 2248, 5216], 19: [5230, 5231, 2232, 2234, 2233], 21: [5350, 2114, 2112, 2113], 22: [5425, 1977, 2039, 2038, 5260], 23: [1992, 5607, 5606, 5605, 1993, 1994], 24: [2383, 2384, 5530, 5531, 5532], 26: [2264, 5428, 2263, 5426, 5427], 27: [5547, 2008, 5546, 2009, 5545], 28: [2307, 5351, 2309, 2308], 29: [5383, 2503, 5338, 5335, 5336, 5337], 30: [5457, 5456, 1933, 5458, 5455], 31: [2429, 2428, 5245, 5592, 5246, 2427, 5247], 33: [5155, 2324, 5156, 5157, 2323, 2322], 34: [2219, 2218, 5308, 5306, 5307], 35: [2292, 2293, 2294, 5622, 5621], 36: [2368, 2369, 5516, 5517], 5: [5590, 2187, 5591, 2189, 2188], 7: [5636, 2159, 2157, 2158], 13: [5651, 2129, 2127, 2128], 20: [5577, 2143, 2144, 5575, 5576], 25: [2414, 5261, 5262, 2413, 5352, 2412], 32: [5186, 5185, 2022, 2024, 2023], 4: [5560, 5561, 2172, 2173, 2174]}</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0.1945152699869681</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.04826936926238075</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>{0: [1936, 4048, 4272, 1937, 1988, 1987, 2347, 2346, 4047, 4046, 1938, 1986, 1939, 1940, 4045], 1: [4087, 3637, 3638, 3834, 4258, 1744, 3743, 1578, 3653, 1669, 1670, 1671, 4088, 4089, 1941, 4150, 4151, 4152, 2406], 's_0_1': [4167], 2: [2631, 4169, 2721, 4139, 1535, 4057, 4058, 2736, 2737, 4199, 4198, 4197, 4196, 4195, 1971, 4060, 4059], 's_0_2': [4180], 3: [3343, 1414, 1413, 3547, 1532, 3488, 2387, 2386, 3192, 3191, 3190, 3309, 3189, 3489, 1772, 1771], 's_0_3': [1773, 3549], 6: [1878, 1566, 3508, 1565, 1564, 1563, 3507, 3607, 3506, 3505, 1833, 1818, 1699, 1698, 3608, 3609], 's_0_6': [3564], 8: [3313, 1711, 2226, 2225, 2224, 2223, 3368, 3312, 2221, 3369, 3370, 2102, 3476, 2222], 's_0_8': [4062], 9: [3853, 3218, 2015, 3851, 3852, 2330, 2327, 2326, 2325, 3057, 3056, 3055, 3054, 3053, 2328, 1725, 2329, 1726], 's_0_9': [3985], 10: [4027, 4033, 2105, 1641, 4028, 4029, 4032, 4030, 4034, 4031], 's_0_10': [2361], 11: [1427, 1716, 2210, 2211, 4138, 4137, 1428, 1429, 1430, 1431, 4132, 4136, 4135, 4134, 4133], 's_0_11': [4120], 12: [2062, 2061, 4211, 2417, 4212, 4213, 2496, 3431, 3432, 3433, 2582, 2583, 2584, 2585, 3430, 4108], 's_0_12': [2362], 14: [3969, 1792, 1791, 1790, 1789, 1788, 3388, 3387, 3386, 3385, 1832, 3384, 1787], 's_0_14': [3594], 15: [1687, 2476, 2477, 2478, 3658, 2539, 2540, 2541, 2543, 4423, 4422, 2542, 4421, 4420, 4419], 's_0_15': [4435], 16: [3207, 1516, 3206, 1386, 1385, 1384, 1952, 2175, 2176, 3251, 1906, 3355, 3354, 1383, 3250, 1382, 3352, 3353], 's_0_16': [3340], 17: [2212, 1621, 4302, 4301, 4300, 4299, 4298, 1627, 1622, 1623, 1624, 1625, 1626], 's_0_17': [4257, 2317], 18: [3868, 2134, 1505, 4043, 1610, 1609, 2494, 3763, 3762, 3761, 3760, 3758, 3759], 's_0_18': [1924], 19: [3757, 1684, 1957, 1956, 1955, 1549, 3928, 3927, 3926, 3925, 3878, 3879, 3880, 2001, 2000], 's_0_19': [2120], 21: [1657, 2418, 1369, 3817, 1656, 3688, 3687, 3686, 3685, 3818, 1655, 1654, 3684], 's_0_21': [3729, 3728], 22: [3072, 3971, 4240, 4241, 4256, 3071, 2070, 2071, 2077, 2076, 2075, 2074, 2072, 2073], 's_0_22': [2150], 23: [4527, 2123, 2101, 4524, 4525, 4526, 3326, 2162, 2163, 2164, 2168, 2167, 2166, 2165], 's_0_23': [4511, 4510], 24: [2137, 4407, 2198, 4376, 1592, 4540, 1593, 3667, 3668, 3669, 4541, 1819, 1820, 1821, 4104, 4105, 2106, 2108, 2107], 's_0_24': [2045], 26: [4179, 1746, 2375, 4093, 4092, 2376, 2377, 4347, 4346, 4345, 4344, 1747, 4404, 1517, 1518, 1519, 1520, 1521, 1522, 4403], 's_0_26': [4063, 2405], 27: [3398, 1727, 1728, 3697, 3715, 3793, 3698, 3699, 3700, 3792, 3791, 2119, 2060, 2059, 3775, 1984], 's_0_27': [4000], 28: [1628, 4463, 4464, 3357, 3358, 2003, 4465, 4466, 4467, 2437, 2436, 2431, 2432, 2433, 2434, 2435], 's_0_28': [4375], 29: [2558, 3084, 4378, 4377, 2055, 2056, 2348, 2057, 2058, 3085, 2302, 2301, 2300, 2299, 3745, 3746], 's_0_29': [4002], 30: [3248, 2586, 4183, 2466, 2465, 2464, 3732, 3731, 1546, 1547, 3533, 3534, 3730, 3535, 1968, 1969], 's_0_30': [3520], 31: [3491, 4227, 2288, 2287, 2286, 1741, 1742, 4091, 4090, 2031, 2030, 2029, 1562, 3458, 3459, 3460, 2028], 's_0_31': [4271], 33: [3583, 4329, 1807, 1806, 1805, 1804, 3582, 3581, 3580, 3579, 1803], 's_0_33': [4269, 4270], 34: [3417, 2537, 3418, 2378, 2482, 4408, 4409, 2657, 2658, 2659, 3809, 2644, 2645, 2646, 2647], 's_0_34': [4049], 35: [3537, 2720, 3899, 3898, 3897, 3657, 4018, 4017, 2285, 3882, 2269, 3234, 3235, 3236, 2266, 2267, 2268], 's_0_35': [2510], 36: [3114, 3970, 3895, 4360, 3115, 2011, 1912, 1911, 1910, 1909, 2012, 2013, 3610, 1908], 's_0_36': [4255], 's_1_2': [1776], 's_1_3': [3592], 5: [3401, 3011, 2295, 2296, 2297, 3477, 4286, 4287, 4288, 2557, 2556, 2555, 2554, 2553, 3478, 3479], 's_1_5': [2271], 's_1_6': [1398], 7: [3403, 1761, 1760, 1759, 1758, 1757, 1756, 3402, 2372, 3297, 3296, 3295, 3294], 's_1_7': [3819], 's_1_10': [1851], 's_1_11': [3652], 's_1_12': [2256], 13: [3982, 3983, 2208, 2207, 3281, 3280, 3279, 3278, 1640, 1639, 1638, 1637], 's_1_13': [3683], 's_1_14': [3714], 's_1_15': [2527], 's_1_16': [4086], 's_1_17': [4163], 20: [1966, 3472, 1461, 1460, 1459, 1458, 2523, 2522, 2521, 1457, 3178, 3177, 3176, 3175, 1831, 3264, 3263, 3262, 1456], 's_1_20': [1446], 's_1_22': [2046], 's_1_23': [4166], 25: [1682, 3413, 1865, 3414, 1861, 3958, 3957, 3956, 1862, 2180, 3866, 2181, 1863, 1864, 3865], 's_1_25': [1668, 3548, 1697, 3443], 's_1_26': [1577, 3412], 's_1_27': [1474], 's_1_28': [4228], 's_1_29': [2512], 's_1_30': [4153], 's_1_31': [2121], 32: [2195, 3804, 3805, 3806, 2194, 2193, 3098, 3099, 3100, 3101, 2191, 2192], 's_1_32': [3789], 's_1_33': [3639], 's_1_34': [4259], 4: [1652, 1651, 4226, 4225, 2146, 2145, 3131, 3130, 3129, 3128, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 4223, 4224], 's_2_4': [1611], 's_2_5': [4244], 's_2_6': [3937], 's_2_7': [4194], 's_2_8': [2241], 's_2_11': [2616], 's_2_12': [4064], 's_2_13': [1370], 's_2_14': [3968], 's_2_15': [4273], 's_2_16': [1401], 's_2_17': [2182], 's_2_18': [1550], 's_2_19': [4075], 's_2_20': [4072], 's_2_21': [1534], 's_2_23': [4061], 's_2_25': [2735, 3959], 's_2_28': [2451, 4168], 's_2_29': [2738, 4379], 's_2_30': [4184], 's_2_34': [4004], 's_2_35': [4019], 's_2_36': [4165], 's_3_4': [1653], 's_3_6': [3727], 's_3_7': [3324], 's_3_9': [2250, 3087], 's_3_11': [3862], 's_3_12': [3429], 's_3_13': [3473], 's_3_14': [3310], 's_3_15': [3163], 's_3_19': [3772], 's_3_22': [2220], 's_3_24': [1607], 's_3_25': [1712], 's_3_26': [1502], 's_3_27': [3487, 1443, 1444], 's_3_28': [2430], 's_3_30': [1531], 's_3_31': [3474], 's_3_32': [1816], 's_3_33': [3504], 's_3_34': [2719, 2718, 2717, 3329, 3328], 's_3_35': [1801, 3204], 's_3_36': [1905], 's_6_4': [4073], 's_6_5': [2402], 's_6_8': [2237], 's_6_9': [2312], 's_6_10': [3998], 's_6_11': [3922], 's_6_12': [3509], 's_6_15': [3463, 2538], 's_6_18': [3952], 's_6_20': [4117], 's_6_21': [3788], 's_6_23': [2178], 's_6_24': [1743, 3593], 's_6_25': [1877], 's_6_26': [1567], 's_6_27': [1368], 's_6_28': [3493], 's_6_29': [2043, 2042], 's_6_30': [3518], 's_6_31': [1967], 's_6_32': [3803], 's_6_33': [1848], 's_6_35': [2281, 2282], 's_6_36': [1998], 's_8_4': [3311], 's_8_5': [3492], 's_8_7': [1876], 's_8_10': [3986], 's_8_11': [4077], 's_8_12': [2342], 's_8_13': [3522], 's_8_15': [2227], 's_8_16': [2311], 's_8_20': [2491], 's_8_21': [2238], 's_8_22': [3611], 's_8_24': [3383], 's_8_25': [4001], 's_8_28': [3237, 2401], 's_8_29': [3341], 's_8_31': [2087, 2086], 's_8_32': [3327], 's_8_34': [2656, 3314], 's_8_35': [3702], 's_9_4': [1935], 's_9_5': [2982], 's_9_7': [3552, 2373], 's_9_10': [2420, 3987], 's_9_11': [2331], 's_9_13': [3282], 's_9_15': [2475], 's_9_16': [2160], 's_9_17': [1620], 's_9_18': [2254], 's_9_19': [3642, 2389, 2390], 's_9_20': [1681], 's_9_21': [3627], 's_9_26': [3942], 's_9_27': [3940], 's_9_29': [1800], 's_9_30': [3912], 's_9_31': [3188, 1606], 's_9_34': [3854], 's_9_35': [3462], 's_9_36': [2010], 's_10_4': [1685, 1686, 1701], 's_10_7': [4103], 's_10_12': [2630], 's_10_13': [1415], 's_10_16': [4042], 's_10_18': [1730, 3938], 's_10_19': [1595], 's_10_21': [4148], 's_10_23': [3881], 's_10_24': [2016], 's_10_25': [2495], 's_10_26': [1745], 's_10_27': [3910], 's_10_31': [2090], 's_10_33': [4044], 's_10_34': [2675, 3974], 's_10_35': [2480], 's_10_36': [3939, 1925], 's_11_4': [4162], 's_11_5': [2601, 4123], 's_11_14': [4254], 's_11_15': [2526], 's_11_16': [3517], 's_11_17': [4118], 's_11_19': [3907], 's_11_20': [3967], 's_11_21': [3847], 's_11_22': [2091], 's_11_24': [4106], 's_11_25': [1881, 1880], 's_11_26': [3622], 's_11_27': [3712], 's_11_29': [4121], 's_11_30': [3562], 's_11_31': [2196], 's_11_32': [3941], 's_11_33': [4239], 's_11_34': [2661], 's_11_35': [2571], 's_11_36': [4119], 's_12_4': [4210], 's_12_5': [3704], 's_12_7': [2597], 's_12_13': [1982], 's_12_15': [2598], 's_12_16': [1997], 's_12_17': [2017], 's_12_18': [3838], 's_12_19': [3913], 's_12_20': [3568], 's_12_21': [2524, 3748], 's_12_22': [2032], 's_12_23': [2063], 's_12_24': [2197, 4181], 's_12_25': [1907, 3399], 's_12_26': [2615], 's_12_27': [2599], 's_12_28': [3643], 's_12_29': [2393, 2392], 's_12_31': [1892], 's_12_32': [3446], 's_12_34': [3539, 2643], 's_12_35': [4003], 's_12_36': [2047], 's_14_5': [2507], 's_14_7': [2552], 's_14_13': [3371], 's_14_15': [3372], 's_14_16': [3325], 's_14_17': [4314], 's_14_19': [1850], 's_14_20': [3373], 's_14_21': [4074], 's_14_23': [1793], 's_14_24': [3909], 's_14_25': [1922], 's_14_26': [4374], 's_14_27': [3444], 's_14_28': [2462], 's_14_29': [2041], 's_14_31': [2147], 's_14_32': [1774], 's_14_33': [3864], 's_14_34': [2642], 's_14_36': [3924], 's_15_5': [4333], 's_15_7': [3298], 's_15_16': [2461], 's_15_17': [4373, 1612], 's_15_18': [2493], 's_15_20': [3613], 's_15_21': [1673, 1672], 's_15_22': [4436], 's_15_23': [1763], 's_15_24': [1928], 's_15_25': [2525], 's_15_26': [1867], 's_15_28': [4393], 's_15_29': [2363], 's_15_30': [3883], 's_15_31': [2303], 's_15_33': [2388, 3523], 's_15_34': [2452], 's_15_36': [1823, 4449], 's_16_4': [1471, 1472], 's_16_5': [3041], 's_16_7': [1951], 's_16_17': [4177, 4178], 's_16_20': [3208, 2641, 3223], 's_16_21': [3802], 's_16_22': [3146], 's_16_23': [3266], 's_16_24': [3682], 's_16_25': [1817], 's_16_26': [3442], 's_16_27': [1399], 's_16_29': [3265], 's_16_30': [3532], 's_16_35': [1921], 's_17_4': [4208], 's_17_5': [2467], 's_17_13': [3578], 's_17_19': [2002, 4315], 's_17_23': [4496, 2213], 's_17_25': [3428], 's_17_26': [1597], 's_17_27': [3563], 's_17_28': [2407], 's_17_30': [3338], 's_17_31': [3203], 's_17_32': [1636], 's_17_33': [1777], 's_17_34': [4303], 's_18_4': [1506], 's_18_5': [3778], 's_18_7': [3773], 's_18_13': [3833], 's_18_19': [2239], 's_18_21': [4013], 's_18_22': [3701], 's_18_23': [3836], 's_18_25': [2089], 's_18_26': [4102], 's_18_27': [2509], 's_18_28': [3777], 's_18_29': [2149], 's_18_30': [2104], 's_18_31': [3716], 's_18_33': [2133], 's_18_34': [2569, 3733], 's_18_35': [2614], 's_18_36': [1879], 's_19_4': [3848], 's_19_5': [2570], 's_19_7': [3908], 's_19_21': [3877], 's_19_22': [1972], 's_19_23': [1958], 's_19_24': [3849], 's_19_25': [2345], 's_19_26': [1504], 's_19_27': [1985], 's_19_28': [4405], 's_19_29': [3911], 's_19_30': [1970], 's_19_32': [3820, 1954], 's_19_34': [2629], 's_19_35': [2360], 's_19_36': [4015], 's_21_7': [3923], 's_21_13': [1445], 's_21_23': [3641, 2088], 's_21_24': [1713], 's_21_26': [4283], 's_21_27': [2359], 's_21_28': [3673], 's_21_29': [2253, 3717], 's_21_31': [3671], 's_21_32': [3672], 's_21_35': [3612], 's_22_4': [1866], 's_22_5': [2205], 's_22_20': [3220], 's_22_23': [3656], 's_22_24': [2122], 's_22_26': [4331], 's_22_30': [3536], 's_22_31': [3521], 's_22_32': [2100], 's_22_33': [1837], 's_22_36': [4361], 's_23_7': [2177], 's_23_13': [2116], 's_23_24': [2243], 's_23_25': [3896], 's_23_26': [1748], 's_23_27': [3776], 's_23_28': [1973], 's_23_29': [2179], 's_23_31': [4076], 's_23_32': [3626], 's_23_34': [4452, 4451, 2272], 's_24_4': [1926], 's_24_5': [2152], 's_24_20': [1591], 's_24_25': [3670], 's_24_26': [2242], 's_24_27': [1338], 's_24_28': [2092, 2093], 's_24_29': [4392], 's_24_30': [1608], 's_24_31': [4542], 's_24_33': [1822], 's_24_34': [4512, 4481, 2183, 2258], 's_24_36': [1913], 's_26_4': [4342], 's_26_7': [1762], 's_26_13': [3863], 's_26_20': [3427], 's_26_25': [2600], 's_26_27': [2374], 's_26_28': [4317], 's_26_29': [3972], 's_26_30': [1473, 3457], 's_26_31': [4332], 's_26_33': [4149], 's_26_34': [2422], 's_26_35': [2450], 's_26_36': [1897], 's_27_13': [3713], 's_27_25': [1849, 3654], 's_27_28': [2449], 's_27_29': [3807], 's_27_30': [2344], 's_27_32': [1834], 's_27_33': [2118], 's_27_35': [2404], 's_27_36': [3640], 's_28_5': [2492], 's_28_20': [3538], 's_28_29': [4363], 's_28_30': [3973], 's_28_32': [3342], 's_28_34': [4348], 's_28_35': [2236], 's_28_36': [2018], 's_29_4': [1890], 's_29_5': [2497], 's_29_7': [1755], 's_29_20': [3161], 's_29_30': [3747], 's_29_31': [4362], 's_29_32': [1785], 's_29_34': [4394, 2573], 's_29_35': [2298], 's_29_36': [3445], 's_30_4': [1545], 's_30_5': [3988], 's_30_7': [3519], 's_30_13': [2209], 's_30_20': [3232], 's_30_25': [3850], 's_30_31': [3625], 's_30_33': [2448], 's_30_35': [2284], 's_30_36': [1953], 's_31_4': [2151], 's_31_5': [2117, 3400], 's_31_7': [2027], 's_31_13': [3461], 's_31_25': [3249], 's_31_32': [3790], 's_31_33': [3595], 's_31_35': [3233], 's_31_36': [3655], 's_33_4': [1852], 's_33_5': [2358], 's_33_13': [3984], 's_33_20': [3598], 's_33_25': [3774], 's_33_34': [2627, 2628], 's_33_35': [2283], 's_33_36': [3954], 's_34_5': [4079], 's_34_7': [2612, 3434], 's_34_20': [2536], 's_34_25': [2660], 's_34_35': [3884], 's_35_4': [2161], 's_35_7': [2251, 3267], 's_35_13': [2206], 's_35_20': [1996], 's_35_25': [2270], 's_35_32': [1846], 's_35_36': [3566, 3565], 's_36_4': [1950], 's_36_7': [3894], 's_36_20': [2026], 's_36_25': [3415], 's_36_32': [1965], 's_5_4': [2130], 's_5_7': [3447], 's_5_13': [3416], 's_5_20': [3628], 's_5_25': [3943], 's_5_32': [3162], 's_7_4': [2131], 's_7_13': [3293], 's_7_20': [2371], 's_7_25': [3999], 's_13_4': [3277], 's_13_25': [1847], 's_13_32': [3596], 's_20_4': [1515, 3112], 's_20_32': [3097], 's_25_4': [1667], 's_32_4': [1560]}</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.00153742802303263</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.001674821115783009</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>{0: [1936, 4048, 4272, 1937, 1988, 1987, 2347, 2346, 4047, 4046, 1938, 1986, 1939, 1940, 4045], 1: [4087, 3637, 3638, 3834, 4258, 1744, 3743, 1578, 3653, 1669, 1670, 1671, 4088, 4089, 1941, 4150, 4151, 4152, 2406], 's_0_1': [4167], 2: [2631, 4169, 2721, 4139, 1535, 4057, 4058, 2736, 2737, 4199, 4198, 4197, 4196, 4195, 1971, 4060, 4059], 's_0_2': [4180], 3: [3343, 1414, 1413, 3547, 1532, 3488, 2387, 2386, 3192, 3191, 3190, 3309, 3189, 3489, 1772, 1771], 's_0_3': [1773, 3549], 6: [1878, 1566, 3508, 1565, 1564, 1563, 3507, 3607, 3506, 3505, 1833, 1818, 1699, 1698, 3608, 3609], 's_0_6': [3564], 8: [3313, 1711, 2226, 2225, 2224, 2223, 3368, 3312, 2221, 3369, 3370, 2102, 3476, 2222], 's_0_8': [4062], 9: [3853, 3218, 2015, 3851, 3852, 2330, 2327, 2326, 2325, 3057, 3056, 3055, 3054, 3053, 2328, 1725, 2329, 1726], 's_0_9': [3985], 10: [4027, 4033, 2105, 1641, 4028, 4029, 4032, 4030, 4034, 4031], 's_0_10': [2361], 11: [1427, 1716, 2210, 2211, 4138, 4137, 1428, 1429, 1430, 1431, 4132, 4136, 4135, 4134, 4133], 's_0_11': [4120], 12: [2062, 2061, 4211, 2417, 4212, 4213, 2496, 3431, 3432, 3433, 2582, 2583, 2584, 2585, 3430, 4108], 's_0_12': [2362], 14: [3969, 1792, 1791, 1790, 1789, 1788, 3388, 3387, 3386, 3385, 1832, 3384, 1787], 's_0_14': [3594], 15: [1687, 2476, 2477, 2478, 3658, 2539, 2540, 2541, 2543, 4423, 4422, 2542, 4421, 4420, 4419], 's_0_15': [4435], 16: [3207, 1516, 3206, 1386, 1385, 1384, 1952, 2175, 2176, 3251, 1906, 3355, 3354, 1383, 3250, 1382, 3352, 3353], 's_0_16': [3340], 17: [2212, 1621, 4302, 4301, 4300, 4299, 4298, 1627, 1622, 1623, 1624, 1625, 1626], 's_0_17': [4257, 2317], 18: [3868, 2134, 1505, 4043, 1610, 1609, 2494, 3763, 3762, 3761, 3760, 3758, 3759], 's_0_18': [1924], 19: [3757, 1684, 1957, 1956, 1955, 1549, 3928, 3927, 3926, 3925, 3878, 3879, 3880, 2001, 2000], 's_0_19': [2120], 21: [1657, 2418, 1369, 3817, 1656, 3688, 3687, 3686, 3685, 3818, 1655, 1654, 3684], 's_0_21': [3729, 3728], 22: [3072, 3971, 4240, 4241, 4256, 3071, 2070, 2071, 2077, 2076, 2075, 2074, 2072, 2073], 's_0_22': [2150], 23: [4527, 2123, 2101, 4524, 4525, 4526, 3326, 2162, 2163, 2164, 2168, 2167, 2166, 2165], 's_0_23': [4511, 4510], 24: [2137, 4407, 2198, 4376, 1592, 4540, 1593, 3667, 3668, 3669, 4541, 1819, 1820, 1821, 4104, 4105, 2106, 2108, 2107], 's_0_24': [2045], 26: [4179, 1746, 2375, 4093, 4092, 2376, 2377, 4347, 4346, 4345, 4344, 1747, 4404, 1517, 1518, 1519, 1520, 1521, 1522, 4403], 's_0_26': [4063, 2405], 27: [3398, 1727, 1728, 3697, 3715, 3793, 3698, 3699, 3700, 3792, 3791, 2119, 2060, 2059, 3775, 1984], 's_0_27': [4000], 28: [1628, 4463, 4464, 3357, 3358, 2003, 4465, 4466, 4467, 2437, 2436, 2431, 2432, 2433, 2434, 2435], 's_0_28': [4375], 29: [2558, 3084, 4378, 4377, 2055, 2056, 2348, 2057, 2058, 3085, 2302, 2301, 2300, 2299, 3745, 3746], 's_0_29': [4002], 30: [3248, 2586, 4183, 2466, 2465, 2464, 3732, 3731, 1546, 1547, 3533, 3534, 3730, 3535, 1968, 1969], 's_0_30': [3520], 31: [3491, 4227, 2288, 2287, 2286, 1741, 1742, 4091, 4090, 2031, 2030, 2029, 1562, 3458, 3459, 3460, 2028], 's_0_31': [4271], 33: [3583, 4329, 1807, 1806, 1805, 1804, 3582, 3581, 3580, 3579, 1803], 's_0_33': [4269, 4270], 34: [3417, 2537, 3418, 2378, 2482, 4408, 4409, 2657, 2658, 2659, 3809, 2644, 2645, 2646, 2647], 's_0_34': [4049], 35: [3537, 2720, 3899, 3898, 3897, 3657, 4018, 4017, 2285, 3882, 2269, 3234, 3235, 3236, 2266, 2267, 2268], 's_0_35': [2510], 36: [3114, 3970, 3895, 4360, 3115, 2011, 1912, 1911, 1910, 1909, 2012, 2013, 3610, 1908], 's_0_36': [4255], 's_1_2': [1776], 's_1_3': [3592], 5: [3401, 3011, 2295, 2296, 2297, 3477, 4286, 4287, 4288, 2557, 2556, 2555, 2554, 2553, 3478, 3479], 's_1_5': [2271], 's_1_6': [1398], 7: [3403, 1761, 1760, 1759, 1758, 1757, 1756, 3402, 2372, 3297, 3296, 3295, 3294], 's_1_7': [3819], 's_1_10': [1851], 's_1_11': [3652], 's_1_12': [2256], 13: [3982, 3983, 2208, 2207, 3281, 3280, 3279, 3278, 1640, 1639, 1638, 1637], 's_1_13': [3683], 's_1_14': [3714], 's_1_15': [2527], 's_1_16': [4086], 's_1_17': [4163], 20: [1966, 3472, 1461, 1460, 1459, 1458, 2523, 2522, 2521, 1457, 3178, 3177, 3176, 3175, 1831, 3264, 3263, 3262, 1456], 's_1_20': [1446], 's_1_22': [2046], 's_1_23': [4166], 25: [1682, 3413, 1865, 3414, 1861, 3958, 3957, 3956, 1862, 2180, 3866, 2181, 1863, 1864, 3865], 's_1_25': [1668, 3548, 1697, 3443], 's_1_26': [1577, 3412], 's_1_27': [1474], 's_1_28': [4228], 's_1_29': [2512], 's_1_30': [4153], 's_1_31': [2121], 32: [2195, 3804, 3805, 3806, 2194, 2193, 3098, 3099, 3100, 3101, 2191, 2192], 's_1_32': [3789], 's_1_33': [3639], 's_1_34': [4259], 4: [1652, 1651, 4226, 4225, 2146, 2145, 3131, 3130, 3129, 3128, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 4223, 4224], 's_2_4': [1611], 's_2_5': [4244], 's_2_6': [3937], 's_2_7': [4194], 's_2_8': [2241], 's_2_11': [2616], 's_2_12': [4064], 's_2_13': [1370], 's_2_14': [3968], 's_2_15': [4273], 's_2_16': [1401], 's_2_17': [2182], 's_2_18': [1550], 's_2_19': [4075], 's_2_20': [4072], 's_2_21': [1534], 's_2_23': [4061], 's_2_25': [2735, 3959], 's_2_28': [2451, 4168], 's_2_29': [2738, 4379], 's_2_30': [4184], 's_2_34': [4004], 's_2_35': [4019], 's_2_36': [4165], 's_3_4': [1653], 's_3_6': [3727], 's_3_7': [3324], 's_3_9': [2250, 3087], 's_3_11': [3862], 's_3_12': [3429], 's_3_13': [3473], 's_3_14': [3310], 's_3_15': [3163], 's_3_19': [3772], 's_3_22': [2220], 's_3_24': [1607], 's_3_25': [1712], 's_3_26': [1502], 's_3_27': [3487, 1443, 1444], 's_3_28': [2430], 's_3_30': [1531], 's_3_31': [3474], 's_3_32': [1816], 's_3_33': [3504], 's_3_34': [2719, 2718, 2717, 3329, 3328], 's_3_35': [1801, 3204], 's_3_36': [1905], 's_6_4': [4073], 's_6_5': [2402], 's_6_8': [2237], 's_6_9': [2312], 's_6_10': [3998], 's_6_11': [3922], 's_6_12': [3509], 's_6_15': [3463, 2538], 's_6_18': [3952], 's_6_20': [4117], 's_6_21': [3788], 's_6_23': [2178], 's_6_24': [1743, 3593], 's_6_25': [1877], 's_6_26': [1567], 's_6_27': [1368], 's_6_28': [3493], 's_6_29': [2043, 2042], 's_6_30': [3518], 's_6_31': [1967], 's_6_32': [3803], 's_6_33': [1848], 's_6_35': [2281, 2282], 's_6_36': [1998], 's_8_4': [3311], 's_8_5': [3492], 's_8_7': [1876], 's_8_10': [3986], 's_8_11': [4077], 's_8_12': [2342], 's_8_13': [3522], 's_8_15': [2227], 's_8_16': [2311], 's_8_20': [2491], 's_8_21': [2238], 's_8_22': [3611], 's_8_24': [3383], 's_8_25': [4001], 's_8_28': [3237, 2401], 's_8_29': [3341], 's_8_31': [2087, 2086], 's_8_32': [3327], 's_8_34': [2656, 3314], 's_8_35': [3702], 's_9_4': [1935], 's_9_5': [2982], 's_9_7': [3552, 2373], 's_9_10': [2420, 3987], 's_9_11': [2331], 's_9_13': [3282], 's_9_15': [2475], 's_9_16': [2160], 's_9_17': [1620], 's_9_18': [2254], 's_9_19': [3642, 2389, 2390], 's_9_20': [1681], 's_9_21': [3627], 's_9_26': [3942], 's_9_27': [3940], 's_9_29': [1800], 's_9_30': [3912], 's_9_31': [3188, 1606], 's_9_34': [3854], 's_9_35': [3462], 's_9_36': [2010], 's_10_4': [1685, 1686, 1701], 's_10_7': [4103], 's_10_12': [2630], 's_10_13': [1415], 's_10_16': [4042], 's_10_18': [1730, 3938], 's_10_19': [1595], 's_10_21': [4148], 's_10_23': [3881], 's_10_24': [2016], 's_10_25': [2495], 's_10_26': [1745], 's_10_27': [3910], 's_10_31': [2090], 's_10_33': [4044], 's_10_34': [2675, 3974], 's_10_35': [2480], 's_10_36': [3939, 1925], 's_11_4': [4162], 's_11_5': [2601, 4123], 's_11_14': [4254], 's_11_15': [2526], 's_11_16': [3517], 's_11_17': [4118], 's_11_19': [3907], 's_11_20': [3967], 's_11_21': [3847], 's_11_22': [2091], 's_11_24': [4106], 's_11_25': [1881, 1880], 's_11_26': [3622], 's_11_27': [3712], 's_11_29': [4121], 's_11_30': [3562], 's_11_31': [2196], 's_11_32': [3941], 's_11_33': [4239], 's_11_34': [2661], 's_11_35': [2571], 's_11_36': [4119], 's_12_4': [4210], 's_12_5': [3704], 's_12_7': [2597], 's_12_13': [1982], 's_12_15': [2598], 's_12_16': [1997], 's_12_17': [2017], 's_12_18': [3838], 's_12_19': [3913], 's_12_20': [3568], 's_12_21': [2524, 3748], 's_12_22': [2032], 's_12_23': [2063], 's_12_24': [2197, 4181], 's_12_25': [1907, 3399], 's_12_26': [2615], 's_12_27': [2599], 's_12_28': [3643], 's_12_29': [2393, 2392], 's_12_31': [1892], 's_12_32': [3446], 's_12_34': [3539, 2643], 's_12_35': [4003], 's_12_36': [2047], 's_14_5': [2507], 's_14_7': [2552], 's_14_13': [3371], 's_14_15': [3372], 's_14_16': [3325], 's_14_17': [4314], 's_14_19': [1850], 's_14_20': [3373], 's_14_21': [4074], 's_14_23': [1793], 's_14_24': [3909], 's_14_25': [1922], 's_14_26': [4374], 's_14_27': [3444], 's_14_28': [2462], 's_14_29': [2041], 's_14_31': [2147], 's_14_32': [1774], 's_14_33': [3864], 's_14_34': [2642], 's_14_36': [3924], 's_15_5': [4333], 's_15_7': [3298], 's_15_16': [2461], 's_15_17': [4373, 1612], 's_15_18': [2493], 's_15_20': [3613], 's_15_21': [1673, 1672], 's_15_22': [4436], 's_15_23': [1763], 's_15_24': [1928], 's_15_25': [2525], 's_15_26': [1867], 's_15_28': [4393], 's_15_29': [2363], 's_15_30': [3883], 's_15_31': [2303], 's_15_33': [2388, 3523], 's_15_34': [2452], 's_15_36': [1823, 4449], 's_16_4': [1471, 1472], 's_16_5': [3041], 's_16_7': [1951], 's_16_17': [4177, 4178], 's_16_20': [3208, 2641, 3223], 's_16_21': [3802], 's_16_22': [3146], 's_16_23': [3266], 's_16_24': [3682], 's_16_25': [1817], 's_16_26': [3442], 's_16_27': [1399], 's_16_29': [3265], 's_16_30': [3532], 's_16_35': [1921], 's_17_4': [4208], 's_17_5': [2467], 's_17_13': [3578], 's_17_19': [2002, 4315], 's_17_23': [4496, 2213], 's_17_25': [3428], 's_17_26': [1597], 's_17_27': [3563], 's_17_28': [2407], 's_17_30': [3338], 's_17_31': [3203], 's_17_32': [1636], 's_17_33': [1777], 's_17_34': [4303], 's_18_4': [1506], 's_18_5': [3778], 's_18_7': [3773], 's_18_13': [3833], 's_18_19': [2239], 's_18_21': [4013], 's_18_22': [3701], 's_18_23': [3836], 's_18_25': [2089], 's_18_26': [4102], 's_18_27': [2509], 's_18_28': [3777], 's_18_29': [2149], 's_18_30': [2104], 's_18_31': [3716], 's_18_33': [2133], 's_18_34': [2569, 3733], 's_18_35': [2614], 's_18_36': [1879], 's_19_4': [3848], 's_19_5': [2570], 's_19_7': [3908], 's_19_21': [3877], 's_19_22': [1972], 's_19_23': [1958], 's_19_24': [3849], 's_19_25': [2345], 's_19_26': [1504], 's_19_27': [1985], 's_19_28': [4405], 's_19_29': [3911], 's_19_30': [1970], 's_19_32': [3820, 1954], 's_19_34': [2629], 's_19_35': [2360], 's_19_36': [4015], 's_21_7': [3923], 's_21_13': [1445], 's_21_23': [3641, 2088], 's_21_24': [1713], 's_21_26': [4283], 's_21_27': [2359], 's_21_28': [3673], 's_21_29': [2253, 3717], 's_21_31': [3671], 's_21_32': [3672], 's_21_35': [3612], 's_22_4': [1866], 's_22_5': [2205], 's_22_20': [3220], 's_22_23': [3656], 's_22_24': [2122], 's_22_26': [4331], 's_22_30': [3536], 's_22_31': [3521], 's_22_32': [2100], 's_22_33': [1837], 's_22_36': [4361], 's_23_7': [2177], 's_23_13': [2116], 's_23_24': [2243], 's_23_25': [3896], 's_23_26': [1748], 's_23_27': [3776], 's_23_28': [1973], 's_23_29': [2179], 's_23_31': [4076], 's_23_32': [3626], 's_23_34': [4452, 4451, 2272], 's_24_4': [1926], 's_24_5': [2152], 's_24_20': [1591], 's_24_25': [3670], 's_24_26': [2242], 's_24_27': [1338], 's_24_28': [2092, 2093], 's_24_29': [4392], 's_24_30': [1608], 's_24_31': [4542], 's_24_33': [1822], 's_24_34': [4512, 4481, 2183, 2258], 's_24_36': [1913], 's_26_4': [4342], 's_26_7': [1762], 's_26_13': [3863], 's_26_20': [3427], 's_26_25': [2600], 's_26_27': [2374], 's_26_28': [4317], 's_26_29': [3972], 's_26_30': [1473, 3457], 's_26_31': [4332], 's_26_33': [4149], 's_26_34': [2422], 's_26_35': [2450], 's_26_36': [1897], 's_27_13': [3713], 's_27_25': [1849, 3654], 's_27_28': [2449], 's_27_29': [3807], 's_27_30': [2344], 's_27_32': [1834], 's_27_33': [2118], 's_27_35': [2404], 's_27_36': [3640], 's_28_5': [2492], 's_28_20': [3538], 's_28_29': [4363], 's_28_30': [3973], 's_28_32': [3342], 's_28_34': [4348], 's_28_35': [2236], 's_28_36': [2018], 's_29_4': [1890], 's_29_5': [2497], 's_29_7': [1755], 's_29_20': [3161], 's_29_30': [3747], 's_29_31': [4362], 's_29_32': [1785], 's_29_34': [4394, 2573], 's_29_35': [2298], 's_29_36': [3445], 's_30_4': [1545], 's_30_5': [3988], 's_30_7': [3519], 's_30_13': [2209], 's_30_20': [3232], 's_30_25': [3850], 's_30_31': [3625], 's_30_33': [2448], 's_30_35': [2284], 's_30_36': [1953], 's_31_4': [2151], 's_31_5': [2117, 3400], 's_31_7': [2027], 's_31_13': [3461], 's_31_25': [3249], 's_31_32': [3790], 's_31_33': [3595], 's_31_35': [3233], 's_31_36': [3655], 's_33_4': [1852], 's_33_5': [2358], 's_33_13': [3984], 's_33_20': [3598], 's_33_25': [3774], 's_33_34': [2627, 2628], 's_33_35': [2283], 's_33_36': [3954], 's_34_5': [4079], 's_34_7': [2612, 3434], 's_34_20': [2536], 's_34_25': [2660], 's_34_35': [3884], 's_35_4': [2161], 's_35_7': [2251, 3267], 's_35_13': [2206], 's_35_20': [1996], 's_35_25': [2270], 's_35_32': [1846], 's_35_36': [3566, 3565], 's_36_4': [1950], 's_36_7': [3894], 's_36_20': [2026], 's_36_25': [3415], 's_36_32': [1965], 's_5_4': [2130], 's_5_7': [3447], 's_5_13': [3416], 's_5_20': [3628], 's_5_25': [3943], 's_5_32': [3162], 's_7_4': [2131], 's_7_13': [3293], 's_7_20': [2371], 's_7_25': [3999], 's_13_4': [3277], 's_13_25': [1847], 's_13_32': [3596], 's_20_4': [1515, 3112], 's_20_32': [3097], 's_25_4': [1667], 's_32_4': [1560]}</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0.00153742802303263</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.001674821115783009</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>{0: [3776, 1774, 3774, 3775], 1: [3536, 2135, 2133, 2134], 2: [2104, 4135, 3986, 2105, 2106], 3: [4001, 2073, 2074, 4076, 2075], 4: [3670, 2148, 2180, 2179, 3671], 5: [3908, 1879, 3911, 3910, 3909], 6: [2195, 3654, 3655, 2194, 3656], 8: [3923, 3609, 1713, 3866, 3865, 3864, 1714], 9: [1938, 3789, 1939, 3791, 3790], 11: [1878, 3730, 3729], 12: [4106, 1984, 1985, 1986, 4105], 13: [3881, 3880, 1999, 2000], 14: [3687, 2165, 2164, 3685, 2043, 3686], 15: [4090, 1956, 1953, 1955, 1954], 16: [3699, 2300, 2299, 3700, 3701, 3702], 17: [3941, 1834, 1835, 3940, 3939], 18: [1923, 1924, 1925, 4031, 4030], 19: [2211, 3624, 3625, 3626, 2210, 2209, 2208], 20: [1865, 3894, 3897, 3896, 1864, 3895], 21: [1804, 1805, 3971, 3970, 3969], 24: [1819, 1820, 3924, 3926, 3925], 26: [2001, 4000, 1893, 1894, 1895], 27: [2284, 3852, 3849, 3850, 3851], 28: [2254, 3581, 2253, 1968, 3579, 3580], 30: [1760, 3717, 3716, 3715, 1759, 3714], 31: [2013, 2016, 2015, 2014], 32: [3836, 2224, 2223, 3639, 3640, 3641], 33: [3804, 1969, 3806, 3805], 34: [1789, 1788, 3821, 3820, 3819], 37: [3596, 3595, 3834, 3835, 2059, 2058], 7: [2031, 2028, 2029, 2030], 10: [2240, 2239, 3610, 3611, 2238], 22: [1850, 1849, 3761, 3760, 3759], 25: [4045, 3731, 2149, 2150, 4046], 29: [3550, 2118, 2120, 2119], 35: [1863, 3746, 3745, 3744], 23: [2121, 2045, 4061, 2088, 2089, 2090], 36: [4075, 3985, 1910, 1908, 1909]}</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.3190283400809716</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.03351994185271488</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>{0: [3776, 1774, 3774, 3775], 1: [3536, 2135, 2133, 2134], 2: [2104, 4135, 3986, 2105, 2106], 3: [4001, 2073, 2074, 4076, 2075], 4: [3670, 2148, 2180, 2179, 3671], 5: [3908, 1879, 3911, 3910, 3909], 6: [2195, 3654, 3655, 2194, 3656], 8: [3923, 3609, 1713, 3866, 3865, 3864, 1714], 9: [1938, 3789, 1939, 3791, 3790], 11: [1878, 3730, 3729], 12: [4106, 1984, 1985, 1986, 4105], 13: [3881, 3880, 1999, 2000], 14: [3687, 2165, 2164, 3685, 2043, 3686], 15: [4090, 1956, 1953, 1955, 1954], 16: [3699, 2300, 2299, 3700, 3701, 3702], 17: [3941, 1834, 1835, 3940, 3939], 18: [1923, 1924, 1925, 4031, 4030], 19: [2211, 3624, 3625, 3626, 2210, 2209, 2208], 20: [1865, 3894, 3897, 3896, 1864, 3895], 21: [1804, 1805, 3971, 3970, 3969], 24: [1819, 1820, 3924, 3926, 3925], 26: [2001, 4000, 1893, 1894, 1895], 27: [2284, 3852, 3849, 3850, 3851], 28: [2254, 3581, 2253, 1968, 3579, 3580], 30: [1760, 3717, 3716, 3715, 1759, 3714], 31: [2013, 2016, 2015, 2014], 32: [3836, 2224, 2223, 3639, 3640, 3641], 33: [3804, 1969, 3806, 3805], 34: [1789, 1788, 3821, 3820, 3819], 37: [3596, 3595, 3834, 3835, 2059, 2058], 7: [2031, 2028, 2029, 2030], 10: [2240, 2239, 3610, 3611, 2238], 22: [1850, 1849, 3761, 3760, 3759], 25: [4045, 3731, 2149, 2150, 4046], 29: [3550, 2118, 2120, 2119], 35: [1863, 3746, 3745, 3744], 23: [2121, 2045, 4061, 2088, 2089, 2090], 36: [4075, 3985, 1910, 1908, 1909]}</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0.3190283400809716</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.03351994185271488</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>{0: [1519, 4137, 2346, 3815, 4002, 2135, 4001, 4000, 3999, 1310, 3816, 3817, 3818, 1549, 1550, 3998], 1: [2586, 1460, 1461, 4132, 2584, 1491, 4133, 1747, 4374, 1490, 1746, 4378, 2587, 4377, 2585, 4376, 4375], 's_0_1': [4003], 2: [2207, 4572, 1761, 4194, 4195, 4196, 2214, 2213, 2212, 2208, 2209, 2210, 2211], 's_0_2': [3956], 3: [3635, 1638, 1007, 993, 992, 4526, 3470, 3471, 3472, 3473, 2093, 2092, 2091, 1877, 1592, 2090, 2089, 2088, 2087, 3415, 3414, 3413], 's_0_3': [3695, 1024], 4: [1793, 1792, 1791, 3576, 1278, 3577, 3501, 3578, 3579, 1790, 1789, 1788], 's_0_4': [1518], 5: [3717, 1854, 4585, 4586, 3716, 1431, 2078, 2077, 4087, 4088, 4089, 4090, 2073, 2074, 2075, 2076], 's_0_5': [1895], 6: [1283, 1282, 4176, 1502, 3518, 4177, 3623, 1563, 1564, 1629, 1628, 1627, 4178, 1565, 1566], 's_0_6': [3772], 8: [1280, 2287, 2286, 1281, 4146, 4253, 2028, 2029, 2030, 2031, 4147, 1551, 4148, 4149, 4152, 4151, 4150], 's_0_8': [2376], 9: [2348, 4467, 3218, 3219, 1567, 4465, 4403, 2003, 4405, 4466, 1921, 4402, 1927, 1922, 1923, 1924, 4404, 1925, 4297, 1926], 's_0_9': [2347], 11: [1836, 1837, 3410, 1187, 1838, 1839, 4539, 1188, 1189, 1190, 1191, 1192, 1193, 4536, 4537, 4538], 's_0_11': [1085, 3950], 12: [4134, 1802, 4315, 4314, 1807, 1806, 3713, 3714, 1803, 1804, 3879, 1805], 's_0_12': [1684], 13: [3777, 4298, 1657, 3942, 1656, 4029, 2314, 2315, 4032, 4031, 4030], 's_0_13': [2330], 14: [1824, 1823, 1822, 1548, 2555, 2554, 3643, 3642, 3682, 3683, 3684, 3641, 3640, 1820, 1819, 1821, 3639], 's_0_14': [3819], 15: [1175, 2273, 3966, 4422, 2272, 2271, 2270, 3972, 1355, 3967, 3968, 3969, 3970, 3971], 's_0_15': [1535], 16: [1117, 4131, 2527, 4213, 1672, 4212, 4211, 4210, 1037, 1038, 1039, 3830, 4209, 4208, 1536, 4117, 4116, 4115, 4130, 1116, 1115], 's_0_16': [1130], 17: [1082, 3380, 3381, 2165, 2134, 2133, 3382, 3747, 3746, 2164, 3686, 3685, 3383, 3384, 1937, 1938], 's_0_17': [2285, 2284], 18: [1553, 1417, 1552, 4357, 1522, 2448, 2449, 2450, 2435, 2436, 4272, 4389, 4390, 4388, 4360, 1972, 4270, 4271], 's_0_18': [4122], 19: [3926, 1157, 1158, 1159, 3920, 2000, 3925, 3921, 3924, 3923, 1415, 3922], 's_0_19': [1534], 20: [3727, 1862, 1489, 3589, 1967, 2255, 3776, 2254, 3591, 3592, 3488, 3489, 1488, 3583, 3582, 3581, 2179, 3590, 2178, 3490, 3491], 's_0_20': [3941], 21: [3487, 1443, 1323, 3560, 3562, 4437, 4436, 1322, 2047, 2046, 3564, 3563, 3565, 2057, 2061, 2060, 2059, 3561, 2058], 's_0_21': [1219, 1218], 24: [3509, 3718, 1771, 1772, 3883, 3846, 3847, 1399, 3741, 1368, 1367, 3502, 2375, 2374, 2373, 3508, 1577, 3503, 3504, 3505, 3506, 3507], 's_0_24': [1144], 26: [2139, 2138, 2137, 3681, 1248, 1247, 3426, 3427, 4286, 2226, 2225, 2224, 2223, 2222, 3428, 3429, 3430, 3431], 's_0_26': [2240, 2239], 27: [3833, 3310, 2509, 1640, 3808, 3937, 3938, 3807, 3806, 3939, 3940, 2105, 1982, 3936, 3400, 2042, 2043, 3730, 2104], 's_0_27': [3951], 28: [1717, 3759, 1129, 3755, 3756, 3757, 1716, 1715, 1714, 3758], 's_0_28': [1369], 30: [1132, 3801, 4236, 1237, 3763, 2539, 3703, 1236, 1235, 1234, 1233, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 2298, 2299, 3702], 's_0_30': [1309], 31: [1416, 3670, 1846, 2106, 4102, 4103, 4104, 4063, 4062, 4061, 4060, 1851, 1847, 1848, 1849, 1850], 's_0_31': [2331], 32: [4280, 4281, 4282, 4283, 3266, 3265, 1906, 1907, 1908, 1909, 4284, 1911, 1910], 's_0_32': [1521, 1520], 33: [1433, 1432, 4252, 3954, 3953, 4342, 1414, 1382, 1383, 1384, 1447, 1446, 3442, 1445, 3862, 1625, 3863], 's_0_33': [1429], 34: [4193, 3351, 1611, 1610, 4614, 4043, 1476, 1477, 4327, 4326, 1688, 1177, 1202, 1203, 1204, 1205, 1206, 1207, 4371, 4372, 4373, 1687], 's_0_34': [4073], 37: [2437, 2452, 4452, 3850, 3520, 4451, 4584, 4450, 1953, 1954, 4477, 4478, 1763, 4419, 4420, 1958, 1955, 1956, 1957], 's_0_37': [1970], 's_1_3': [2183], 's_1_4': [4239], 's_1_5': [1626], 7: [1757, 2193, 1759, 1758, 2615, 3958, 3957, 3612, 2345, 2344, 3672, 3605, 3606, 3607, 3608, 3609, 3610, 2238, 3611], 's_1_7': [2602, 2601, 2600], 's_1_8': [4153], 's_1_9': [2378], 10: [4074, 4445, 3398, 1727, 1728, 1598, 1729, 4446, 4447, 4448, 1732, 1731, 1730], 's_1_10': [1748], 's_1_14': [3854], 's_1_16': [4348], 's_1_18': [2317], 's_1_19': [4027], 's_1_20': [2583], 's_1_21': [2363], 22: [4431, 1939, 2568, 1537, 2569, 2570, 2571, 2572, 2573, 4483, 4482, 4481, 4480, 1973, 1940, 1941, 1942, 1943, 4432, 4433, 4434, 4435], 's_1_22': [4394], 's_1_24': [3832], 25: [1418, 4416, 1292, 1386, 1293, 4417, 3980, 3621, 3698, 3697, 3981, 3726, 1338, 4072, 4387, 1342, 1341, 1339, 1340], 's_1_25': [1459], 's_1_27': [3848], 's_1_28': [4224], 29: [2018, 2199, 2494, 4121, 2496, 2194, 2195, 4506, 4507, 4508, 4509, 4510, 4511, 2495, 4048, 4047, 2196, 2197, 2198], 's_1_29': [4273, 2497], 's_1_30': [2599], 's_1_32': [1701], 's_1_33': [3982], 's_1_34': [4028], 35: [3458, 1668, 2511, 2510, 1669, 1670, 3898, 3897, 1266, 1265, 3891, 3892, 3893, 3896, 3895, 3457, 3894], 's_1_35': [3899], 's_1_37': [4333], 's_2_3': [2243], 's_2_4': [4179], 's_2_5': [4556], 's_2_7': [3492], 's_2_8': [4392], 's_2_10': [1776], 's_2_11': [1852], 's_2_12': [2032], 's_2_13': [1760], 's_2_15': [4573, 2483, 2482, 4302, 2377, 4182], 's_2_16': [2241], 's_2_17': [3656], 's_2_18': [1987, 4180], 's_2_21': [2318], 's_2_22': [2303], 23: [1068, 1069, 1070, 1071, 2418, 1072, 1073, 4535, 1147, 2419, 2420, 2421, 2422, 2423, 4647, 4646, 4645, 4644, 4643, 4642, 4641, 4640, 1148], 's_2_23': [4631], 's_2_24': [2327, 3342], 's_2_26': [2192], 's_2_29': [4316], 's_2_30': [3566], 's_2_31': [4077], 's_2_32': [2206], 's_2_34': [4118], 's_2_35': [3882], 36: [1010, 1009, 4241, 2149, 1654, 3785, 3786, 3787, 3791, 4240, 1881, 1880, 1879, 3790, 1594, 3788, 3789], 's_2_36': [2167], 's_3_4': [1458], 's_3_5': [4495], 's_3_6': [3412], 's_3_7': [1008], 's_3_8': [3775], 's_3_11': [1052], 's_3_13': [4046], 's_3_15': [4527], 's_3_16': [3394], 's_3_19': [3425], 's_3_20': [2102], 's_3_21': [3559], 's_3_22': [2048, 4571], 's_3_23': [2228], 's_3_24': [3353], 's_3_26': [3446], 's_3_27': [3836], 's_3_28': [3666, 3665], 's_3_29': [4166], 's_3_31': [1832], 's_3_32': [2086], 's_3_33': [3337, 3338, 1637], 's_3_36': [994], 's_3_37': [1952], 's_4_7': [1413], 's_4_8': [3580], 's_4_9': [1777], 's_4_12': [3624], 's_4_13': [4059], 's_4_14': [4479], 's_4_15': [1775], 's_4_16': [3500], 's_4_17': [1217], 's_4_19': [3516], 's_4_20': [1113], 's_4_21': [1428], 's_4_26': [1172, 3486], 's_4_29': [1778], 's_4_30': [1743], 's_4_31': [3804], 's_4_32': [1893], 's_4_34': [1794], 's_4_35': [1473], 's_4_36': [1878], 's_4_37': [4554], 's_5_6': [1312, 4207], 's_5_7': [2359], 's_5_8': [1641], 's_5_9': [1853], 's_5_10': [4689, 1734, 1733], 's_5_11': [4600], 's_5_12': [4135], 's_5_13': [2016], 's_5_14': [4659], 's_5_16': [2121], 's_5_17': [3821], 's_5_19': [1430], 's_5_20': [3626], 's_5_21': [4076], 's_5_22': [4601, 2063], 's_5_23': [4630], 's_5_24': [2072], 's_5_25': [4222], 's_5_26': [4541], 's_5_27': [3671], 's_5_28': [3760], 's_5_30': [3701], 's_5_31': [1865], 's_5_32': [3715], 's_5_33': [4192], 's_5_34': [2079, 4675, 1974, 4615], 's_5_36': [2119], 's_5_37': [4570], 's_6_7': [1608], 's_6_8': [1221], 's_6_9': [4328], 's_6_10': [4583], 's_6_11': [4491, 1313, 1314], 's_6_12': [1579], 's_6_13': [4163], 's_6_14': [3668], 's_6_16': [1401], 's_6_19': [3907], 's_6_20': [1532], 's_6_21': [3517], 's_6_22': [4418], 's_6_23': [4629, 4628], 's_6_24': [1547, 3547], 's_6_25': [1371, 4237], 's_6_26': [1517], 's_6_27': [3952], 's_6_28': [4463], 's_6_29': [4522, 4521], 's_6_30': [4175], 's_6_33': [1297], 's_6_34': [4553], 's_6_35': [3803], 's_6_36': [3638], 's_6_37': [4476], 's_8_7': [2013], 's_8_9': [4015], 's_8_10': [1597], 's_8_11': [1176], 's_8_12': [1866], 's_8_13': [1986], 's_8_14': [4164], 's_8_15': [2151, 4136], 's_8_16': [1251], 's_8_17': [2166], 's_8_18': [2406], 's_8_19': [3906], 's_8_20': [3521], 's_8_21': [3550], 's_8_23': [4167], 's_8_24': [3861], 's_8_25': [1296], 's_8_26': [4257], 's_8_27': [3595], 's_8_29': [2256], 's_8_31': [2316], 's_8_32': [1506, 4223], 's_8_33': [1596, 1595], 's_8_34': [1311, 3996], 's_8_35': [4026], 's_8_36': [3866], 's_8_37': [1971], 's_9_7': [1756], 's_9_10': [1507], 's_9_11': [4464], 's_9_12': [1897], 's_9_13': [4299], 's_9_15': [4407], 's_9_16': [4238], 's_9_17': [1696], 's_9_18': [2033], 's_9_19': [3985], 's_9_22': [2333, 4497], 's_9_23': [2407, 4347], 's_9_24': [3204], 's_9_25': [4296], 's_9_26': [3445], 's_9_27': [3460], 's_9_28': [4254, 1762], 's_9_29': [2257, 4301], 's_9_30': [4401], 's_9_31': [3175], 's_9_32': [1582], 's_9_33': [1492], 's_9_34': [4312], 's_9_35': [1607, 1606], 's_9_36': [2002], 's_9_37': [2227], 's_11_7': [1173], 's_11_12': [4269], 's_11_13': [1613, 1612], 's_11_15': [4071], 's_11_16': [3409], 's_11_17': [1097], 's_11_18': [1463, 1464], 's_11_21': [3651], 's_11_23': [4310], 's_11_24': [1174], 's_11_25': [3725], 's_11_26': [4255, 4256], 's_11_28': [4014], 's_11_29': [1508], 's_11_30': [3636], 's_11_31': [4075], 's_11_32': [4265], 's_11_33': [4341], 's_11_34': [1186, 1201, 3291], 's_11_35': [3456], 's_11_37': [1703], 's_12_7': [3519], 's_12_10': [3984], 's_12_13': [4313], 's_12_14': [1624], 's_12_17': [3399], 's_12_18': [2017], 's_12_19': [1699], 's_12_20': [3474], 's_12_21': [2062], 's_12_22': [4119], 's_12_25': [1474], 's_12_27': [3309], 's_12_30': [1818], 's_12_31': [3264, 1801], 's_12_32': [3369], 's_12_33': [1745], 's_12_35': [3669], 's_12_37': [4300], 's_13_7': [3732], 's_13_14': [2313], 's_13_17': [2465, 2464], 's_13_18': [3762], 's_13_20': [4017], 's_13_21': [2045], 's_13_22': [3778], 's_13_24': [3912], 's_13_26': [3852], 's_13_27': [2434], 's_13_29': [2361], 's_13_30': [4033, 2480, 2479], 's_13_31': [2181], 's_13_32': [1642], 's_13_34': [1658], 's_13_35': [2150], 's_13_36': [3792], 's_13_37': [1702], 's_14_7': [1698], 's_14_10': [4449], 's_14_15': [3973], 's_14_18': [3838], 's_14_20': [2283], 's_14_21': [2118], 's_14_22': [2598, 3689], 's_14_23': [1809], 's_14_24': [1398], 's_14_25': [3699], 's_14_27': [3729], 's_14_28': [1834], 's_14_29': [3913], 's_14_30': [3704], 's_14_31': [3594, 1863], 's_14_32': [3744], 's_14_33': [3667], 's_14_34': [4599], 's_14_36': [1984], 's_14_37': [4569], 's_15_16': [4227], 's_15_17': [3986], 's_15_18': [4332, 2362], 's_15_19': [1985], 's_15_20': [3987], 's_15_21': [2288], 's_15_22': [4496], 's_15_24': [2390], 's_15_25': [1325], 's_15_26': [4091], 's_15_27': [1370, 4057], 's_15_28': [1354], 's_15_29': [4512], 's_15_30': [4086], 's_15_32': [1356], 's_15_33': [3983], 's_15_34': [3935], 's_15_35': [1400, 4012, 4011], 's_15_36': [3965], 's_15_37': [4423], 's_16_7': [1083, 3530], 's_16_10': [1118], 's_16_18': [4228], 's_16_19': [3455], 's_16_20': [1023], 's_16_21': [4226], 's_16_22': [2392, 2393, 4408, 2512, 4288], 's_16_23': [3515], 's_16_24': [3845], 's_16_26': [3680], 's_16_28': [3754], 's_16_29': [2466, 4198], 's_16_31': [2526], 's_16_32': [1686], 's_16_33': [1326], 's_16_34': [4325], 's_16_35': [3876], 's_16_36': [3860], 's_16_37': [2451], 's_17_7': [2268], 's_17_18': [2433], 's_17_19': [2180], 's_17_20': [1787], 's_17_22': [3385, 3387, 2642, 3386, 2643, 2644, 3388, 3733], 's_17_23': [1067], 's_17_24': [1412], 's_17_26': [1427], 's_17_27': [1861], 's_17_29': [3911], 's_17_30': [2389], 's_17_31': [3340], 's_17_32': [1891], 's_17_33': [1381, 3277, 1516], 's_17_34': [3365], 's_17_35': [1562], 's_17_36': [2014], 's_18_7': [3613], 's_18_10': [1357], 's_18_20': [3597], 's_18_21': [4345], 's_18_22': [1988], 's_18_23': [2469, 2468, 2467, 4287], 's_18_24': [3927], 's_18_25': [4356], 's_18_26': [2152], 's_18_29': [1448, 4492], 's_18_30': [3688], 's_18_31': [4078], 's_18_32': [1912], 's_18_34': [1372], 's_18_35': [4168], 's_18_36': [2122], 's_18_37': [4524, 1808], 's_19_10': [3908], 's_19_20': [4106, 2301, 2300], 's_19_21': [3910], 's_19_22': [3909], 's_19_24': [1324], 's_19_25': [4042], 's_19_26': [1143], 's_19_27': [2269], 's_19_28': [3800], 's_19_29': [2001, 4120], 's_19_30': [3711], 's_19_31': [1999], 's_19_32': [2015, 3835], 's_19_33': [3877], 's_19_34': [1220], 's_19_35': [1385], 's_19_36': [3919], 's_19_37': [3865], 's_20_7': [2328], 's_20_10': [1742], 's_20_21': [1263], 's_20_22': [3598], 's_20_23': [2388, 3627], 's_20_24': [2523], 's_20_25': [1353], 's_20_26': [3476], 's_20_27': [3295, 1966], 's_20_28': [1099, 1098], 's_20_30': [2358], 's_20_31': [1968], 's_20_32': [3355], 's_20_33': [3652], 's_20_34': [3575], 's_20_35': [1697], 's_20_36': [3761], 's_20_37': [1998], 's_21_7': [1053], 's_21_10': [1712], 's_21_22': [4165], 's_21_23': [3545], 's_21_24': [1773], 's_21_25': [1444], 's_21_26': [1442], 's_21_27': [3745], 's_21_29': [4361, 2168], 's_21_30': [1593], 's_21_31': [3549], 's_21_33': [3396], 's_21_35': [3548], 's_21_36': [3805], 's_21_37': [2242], 's_24_7': [2343, 3552], 's_24_10': [3397], 's_24_22': [2553], 's_24_23': [3657], 's_24_26': [2237, 3461], 's_24_27': [2041, 3341, 2147], 's_24_28': [1294], 's_24_29': [3868], 's_24_30': [2524], 's_24_31': [3294, 1786], 's_24_32': [3234], 's_24_34': [1337, 1262, 3411], 's_24_35': [1682], 's_24_36': [1578, 3653], 's_26_7': [3444], 's_26_10': [1667], 's_26_22': [2153], 's_26_23': [2154], 's_26_25': [1279], 's_26_27': [3311, 2177], 's_26_30': [3522], 's_26_31': [2136], 's_26_32': [2221], 's_26_33': [1487], 's_26_34': [1277], 's_26_35': [1397], 's_26_36': [1114], 's_27_10': [1685], 's_27_22': [3823], 's_27_23': [2404], 's_27_25': [1639], 's_27_29': [3853], 's_27_30': [1250], 's_27_31': [3325], 's_27_32': [3280], 's_27_33': [3878], 's_27_34': [1475], 's_27_35': [2120], 's_27_36': [3731], 's_28_7': [3849], 's_28_10': [1713], 's_28_22': [4344, 1867], 's_28_23': [3740], 's_28_25': [3771], 's_28_30': [1249], 's_28_31': [3834], 's_28_32': [1894], 's_28_34': [3770], 's_28_35': [1504], 's_28_36': [1744], 's_28_37': [1718], 's_30_7': [2614], 's_30_10': [1133], 's_30_22': [3658], 's_30_23': [4206, 4205], 's_30_25': [4191], 's_30_29': [1238], 's_30_31': [1833], 's_30_32': [1161], 's_30_33': [4251], 's_30_34': [1232], 's_30_35': [1264], 's_30_37': [1892], 's_31_7': [3654], 's_31_10': [1671], 's_31_23': [2405], 's_31_25': [4101], 's_31_29': [4181], 's_31_33': [4162], 's_31_34': [1505], 's_31_37': [3700, 1969], 's_32_22': [4225], 's_32_23': [1146], 's_32_25': [4266], 's_32_33': [4267], 's_32_34': [4221, 1267], 's_32_35': [3880], 's_32_36': [4279, 1011], 's_32_37': [3820], 's_33_7': [3622], 's_33_22': [4343], 's_33_34': [3352], 's_33_35': [1352], 's_33_36': [3802], 's_33_37': [1835], 's_34_22': [1643], 's_34_23': [1659], 's_34_25': [4386], 's_34_29': [1298], 's_34_35': [4041], 's_34_36': [1609], 's_34_37': [1673], 's_37_7': [3625], 's_37_22': [1928], 's_37_23': [2453], 's_37_29': [4525], 's_37_35': [1864], 's_7_10': [3864], 's_7_22': [4079], 's_7_23': [3620], 's_7_29': [3943], 's_7_35': [2360], 's_7_36': [3743], 's_10_22': [4462], 's_10_23': [1599], 's_10_25': [4461], 's_10_29': [1568], 's_10_36': [1653, 1652], 's_22_23': [2004, 4540], 's_22_25': [1403], 's_22_29': [2108], 's_22_35': [4093], 's_22_36': [4045], 's_25_23': [1343], 's_25_29': [1388], 's_25_36': [995], 's_29_23': [1373], 's_29_35': [4123], 's_35_36': [3773], 's_23_36': [3995]}</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.001972881355932204</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.001786591830996427</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>{0: [1519, 4137, 2346, 3815, 4002, 2135, 4001, 4000, 3999, 1310, 3816, 3817, 3818, 1549, 1550, 3998], 1: [2586, 1460, 1461, 4132, 2584, 1491, 4133, 1747, 4374, 1490, 1746, 4378, 2587, 4377, 2585, 4376, 4375], 's_0_1': [4003], 2: [2207, 4572, 1761, 4194, 4195, 4196, 2214, 2213, 2212, 2208, 2209, 2210, 2211], 's_0_2': [3956], 3: [3635, 1638, 1007, 993, 992, 4526, 3470, 3471, 3472, 3473, 2093, 2092, 2091, 1877, 1592, 2090, 2089, 2088, 2087, 3415, 3414, 3413], 's_0_3': [3695, 1024], 4: [1793, 1792, 1791, 3576, 1278, 3577, 3501, 3578, 3579, 1790, 1789, 1788], 's_0_4': [1518], 5: [3717, 1854, 4585, 4586, 3716, 1431, 2078, 2077, 4087, 4088, 4089, 4090, 2073, 2074, 2075, 2076], 's_0_5': [1895], 6: [1283, 1282, 4176, 1502, 3518, 4177, 3623, 1563, 1564, 1629, 1628, 1627, 4178, 1565, 1566], 's_0_6': [3772], 8: [1280, 2287, 2286, 1281, 4146, 4253, 2028, 2029, 2030, 2031, 4147, 1551, 4148, 4149, 4152, 4151, 4150], 's_0_8': [2376], 9: [2348, 4467, 3218, 3219, 1567, 4465, 4403, 2003, 4405, 4466, 1921, 4402, 1927, 1922, 1923, 1924, 4404, 1925, 4297, 1926], 's_0_9': [2347], 11: [1836, 1837, 3410, 1187, 1838, 1839, 4539, 1188, 1189, 1190, 1191, 1192, 1193, 4536, 4537, 4538], 's_0_11': [1085, 3950], 12: [4134, 1802, 4315, 4314, 1807, 1806, 3713, 3714, 1803, 1804, 3879, 1805], 's_0_12': [1684], 13: [3777, 4298, 1657, 3942, 1656, 4029, 2314, 2315, 4032, 4031, 4030], 's_0_13': [2330], 14: [1824, 1823, 1822, 1548, 2555, 2554, 3643, 3642, 3682, 3683, 3684, 3641, 3640, 1820, 1819, 1821, 3639], 's_0_14': [3819], 15: [1175, 2273, 3966, 4422, 2272, 2271, 2270, 3972, 1355, 3967, 3968, 3969, 3970, 3971], 's_0_15': [1535], 16: [1117, 4131, 2527, 4213, 1672, 4212, 4211, 4210, 1037, 1038, 1039, 3830, 4209, 4208, 1536, 4117, 4116, 4115, 4130, 1116, 1115], 's_0_16': [1130], 17: [1082, 3380, 3381, 2165, 2134, 2133, 3382, 3747, 3746, 2164, 3686, 3685, 3383, 3384, 1937, 1938], 's_0_17': [2285, 2284], 18: [1553, 1417, 1552, 4357, 1522, 2448, 2449, 2450, 2435, 2436, 4272, 4389, 4390, 4388, 4360, 1972, 4270, 4271], 's_0_18': [4122], 19: [3926, 1157, 1158, 1159, 3920, 2000, 3925, 3921, 3924, 3923, 1415, 3922], 's_0_19': [1534], 20: [3727, 1862, 1489, 3589, 1967, 2255, 3776, 2254, 3591, 3592, 3488, 3489, 1488, 3583, 3582, 3581, 2179, 3590, 2178, 3490, 3491], 's_0_20': [3941], 21: [3487, 1443, 1323, 3560, 3562, 4437, 4436, 1322, 2047, 2046, 3564, 3563, 3565, 2057, 2061, 2060, 2059, 3561, 2058], 's_0_21': [1219, 1218], 24: [3509, 3718, 1771, 1772, 3883, 3846, 3847, 1399, 3741, 1368, 1367, 3502, 2375, 2374, 2373, 3508, 1577, 3503, 3504, 3505, 3506, 3507], 's_0_24': [1144], 26: [2139, 2138, 2137, 3681, 1248, 1247, 3426, 3427, 4286, 2226, 2225, 2224, 2223, 2222, 3428, 3429, 3430, 3431], 's_0_26': [2240, 2239], 27: [3833, 3310, 2509, 1640, 3808, 3937, 3938, 3807, 3806, 3939, 3940, 2105, 1982, 3936, 3400, 2042, 2043, 3730, 2104], 's_0_27': [3951], 28: [1717, 3759, 1129, 3755, 3756, 3757, 1716, 1715, 1714, 3758], 's_0_28': [1369], 30: [1132, 3801, 4236, 1237, 3763, 2539, 3703, 1236, 1235, 1234, 1233, 3531, 3532, 3533, 3534, 3535, 3536, 3537, 2298, 2299, 3702], 's_0_30': [1309], 31: [1416, 3670, 1846, 2106, 4102, 4103, 4104, 4063, 4062, 4061, 4060, 1851, 1847, 1848, 1849, 1850], 's_0_31': [2331], 32: [4280, 4281, 4282, 4283, 3266, 3265, 1906, 1907, 1908, 1909, 4284, 1911, 1910], 's_0_32': [1521, 1520], 33: [1433, 1432, 4252, 3954, 3953, 4342, 1414, 1382, 1383, 1384, 1447, 1446, 3442, 1445, 3862, 1625, 3863], 's_0_33': [1429], 34: [4193, 3351, 1611, 1610, 4614, 4043, 1476, 1477, 4327, 4326, 1688, 1177, 1202, 1203, 1204, 1205, 1206, 1207, 4371, 4372, 4373, 1687], 's_0_34': [4073], 37: [2437, 2452, 4452, 3850, 3520, 4451, 4584, 4450, 1953, 1954, 4477, 4478, 1763, 4419, 4420, 1958, 1955, 1956, 1957], 's_0_37': [1970], 's_1_3': [2183], 's_1_4': [4239], 's_1_5': [1626], 7: [1757, 2193, 1759, 1758, 2615, 3958, 3957, 3612, 2345, 2344, 3672, 3605, 3606, 3607, 3608, 3609, 3610, 2238, 3611], 's_1_7': [2602, 2601, 2600], 's_1_8': [4153], 's_1_9': [2378], 10: [4074, 4445, 3398, 1727, 1728, 1598, 1729, 4446, 4447, 4448, 1732, 1731, 1730], 's_1_10': [1748], 's_1_14': [3854], 's_1_16': [4348], 's_1_18': [2317], 's_1_19': [4027], 's_1_20': [2583], 's_1_21': [2363], 22: [4431, 1939, 2568, 1537, 2569, 2570, 2571, 2572, 2573, 4483, 4482, 4481, 4480, 1973, 1940, 1941, 1942, 1943, 4432, 4433, 4434, 4435], 's_1_22': [4394], 's_1_24': [3832], 25: [1418, 4416, 1292, 1386, 1293, 4417, 3980, 3621, 3698, 3697, 3981, 3726, 1338, 4072, 4387, 1342, 1341, 1339, 1340], 's_1_25': [1459], 's_1_27': [3848], 's_1_28': [4224], 29: [2018, 2199, 2494, 4121, 2496, 2194, 2195, 4506, 4507, 4508, 4509, 4510, 4511, 2495, 4048, 4047, 2196, 2197, 2198], 's_1_29': [4273, 2497], 's_1_30': [2599], 's_1_32': [1701], 's_1_33': [3982], 's_1_34': [4028], 35: [3458, 1668, 2511, 2510, 1669, 1670, 3898, 3897, 1266, 1265, 3891, 3892, 3893, 3896, 3895, 3457, 3894], 's_1_35': [3899], 's_1_37': [4333], 's_2_3': [2243], 's_2_4': [4179], 's_2_5': [4556], 's_2_7': [3492], 's_2_8': [4392], 's_2_10': [1776], 's_2_11': [1852], 's_2_12': [2032], 's_2_13': [1760], 's_2_15': [4573, 2483, 2482, 4302, 2377, 4182], 's_2_16': [2241], 's_2_17': [3656], 's_2_18': [1987, 4180], 's_2_21': [2318], 's_2_22': [2303], 23: [1068, 1069, 1070, 1071, 2418, 1072, 1073, 4535, 1147, 2419, 2420, 2421, 2422, 2423, 4647, 4646, 4645, 4644, 4643, 4642, 4641, 4640, 1148], 's_2_23': [4631], 's_2_24': [2327, 3342], 's_2_26': [2192], 's_2_29': [4316], 's_2_30': [3566], 's_2_31': [4077], 's_2_32': [2206], 's_2_34': [4118], 's_2_35': [3882], 36: [1010, 1009, 4241, 2149, 1654, 3785, 3786, 3787, 3791, 4240, 1881, 1880, 1879, 3790, 1594, 3788, 3789], 's_2_36': [2167], 's_3_4': [1458], 's_3_5': [4495], 's_3_6': [3412], 's_3_7': [1008], 's_3_8': [3775], 's_3_11': [1052], 's_3_13': [4046], 's_3_15': [4527], 's_3_16': [3394], 's_3_19': [3425], 's_3_20': [2102], 's_3_21': [3559], 's_3_22': [2048, 4571], 's_3_23': [2228], 's_3_24': [3353], 's_3_26': [3446], 's_3_27': [3836], 's_3_28': [3666, 3665], 's_3_29': [4166], 's_3_31': [1832], 's_3_32': [2086], 's_3_33': [3337, 3338, 1637], 's_3_36': [994], 's_3_37': [1952], 's_4_7': [1413], 's_4_8': [3580], 's_4_9': [1777], 's_4_12': [3624], 's_4_13': [4059], 's_4_14': [4479], 's_4_15': [1775], 's_4_16': [3500], 's_4_17': [1217], 's_4_19': [3516], 's_4_20': [1113], 's_4_21': [1428], 's_4_26': [1172, 3486], 's_4_29': [1778], 's_4_30': [1743], 's_4_31': [3804], 's_4_32': [1893], 's_4_34': [1794], 's_4_35': [1473], 's_4_36': [1878], 's_4_37': [4554], 's_5_6': [1312, 4207], 's_5_7': [2359], 's_5_8': [1641], 's_5_9': [1853], 's_5_10': [4689, 1734, 1733], 's_5_11': [4600], 's_5_12': [4135], 's_5_13': [2016], 's_5_14': [4659], 's_5_16': [2121], 's_5_17': [3821], 's_5_19': [1430], 's_5_20': [3626], 's_5_21': [4076], 's_5_22': [4601, 2063], 's_5_23': [4630], 's_5_24': [2072], 's_5_25': [4222], 's_5_26': [4541], 's_5_27': [3671], 's_5_28': [3760], 's_5_30': [3701], 's_5_31': [1865], 's_5_32': [3715], 's_5_33': [4192], 's_5_34': [2079, 4675, 1974, 4615], 's_5_36': [2119], 's_5_37': [4570], 's_6_7': [1608], 's_6_8': [1221], 's_6_9': [4328], 's_6_10': [4583], 's_6_11': [4491, 1313, 1314], 's_6_12': [1579], 's_6_13': [4163], 's_6_14': [3668], 's_6_16': [1401], 's_6_19': [3907], 's_6_20': [1532], 's_6_21': [3517], 's_6_22': [4418], 's_6_23': [4629, 4628], 's_6_24': [1547, 3547], 's_6_25': [1371, 4237], 's_6_26': [1517], 's_6_27': [3952], 's_6_28': [4463], 's_6_29': [4522, 4521], 's_6_30': [4175], 's_6_33': [1297], 's_6_34': [4553], 's_6_35': [3803], 's_6_36': [3638], 's_6_37': [4476], 's_8_7': [2013], 's_8_9': [4015], 's_8_10': [1597], 's_8_11': [1176], 's_8_12': [1866], 's_8_13': [1986], 's_8_14': [4164], 's_8_15': [2151, 4136], 's_8_16': [1251], 's_8_17': [2166], 's_8_18': [2406], 's_8_19': [3906], 's_8_20': [3521], 's_8_21': [3550], 's_8_23': [4167], 's_8_24': [3861], 's_8_25': [1296], 's_8_26': [4257], 's_8_27': [3595], 's_8_29': [2256], 's_8_31': [2316], 's_8_32': [1506, 4223], 's_8_33': [1596, 1595], 's_8_34': [1311, 3996], 's_8_35': [4026], 's_8_36': [3866], 's_8_37': [1971], 's_9_7': [1756], 's_9_10': [1507], 's_9_11': [4464], 's_9_12': [1897], 's_9_13': [4299], 's_9_15': [4407], 's_9_16': [4238], 's_9_17': [1696], 's_9_18': [2033], 's_9_19': [3985], 's_9_22': [2333, 4497], 's_9_23': [2407, 4347], 's_9_24': [3204], 's_9_25': [4296], 's_9_26': [3445], 's_9_27': [3460], 's_9_28': [4254, 1762], 's_9_29': [2257, 4301], 's_9_30': [4401], 's_9_31': [3175], 's_9_32': [1582], 's_9_33': [1492], 's_9_34': [4312], 's_9_35': [1607, 1606], 's_9_36': [2002], 's_9_37': [2227], 's_11_7': [1173], 's_11_12': [4269], 's_11_13': [1613, 1612], 's_11_15': [4071], 's_11_16': [3409], 's_11_17': [1097], 's_11_18': [1463, 1464], 's_11_21': [3651], 's_11_23': [4310], 's_11_24': [1174], 's_11_25': [3725], 's_11_26': [4255, 4256], 's_11_28': [4014], 's_11_29': [1508], 's_11_30': [3636], 's_11_31': [4075], 's_11_32': [4265], 's_11_33': [4341], 's_11_34': [1186, 1201, 3291], 's_11_35': [3456], 's_11_37': [1703], 's_12_7': [3519], 's_12_10': [3984], 's_12_13': [4313], 's_12_14': [1624], 's_12_17': [3399], 's_12_18': [2017], 's_12_19': [1699], 's_12_20': [3474], 's_12_21': [2062], 's_12_22': [4119], 's_12_25': [1474], 's_12_27': [3309], 's_12_30': [1818], 's_12_31': [3264, 1801], 's_12_32': [3369], 's_12_33': [1745], 's_12_35': [3669], 's_12_37': [4300], 's_13_7': [3732], 's_13_14': [2313], 's_13_17': [2465, 2464], 's_13_18': [3762], 's_13_20': [4017], 's_13_21': [2045], 's_13_22': [3778], 's_13_24': [3912], 's_13_26': [3852], 's_13_27': [2434], 's_13_29': [2361], 's_13_30': [4033, 2480, 2479], 's_13_31': [2181], 's_13_32': [1642], 's_13_34': [1658], 's_13_35': [2150], 's_13_36': [3792], 's_13_37': [1702], 's_14_7': [1698], 's_14_10': [4449], 's_14_15': [3973], 's_14_18': [3838], 's_14_20': [2283], 's_14_21': [2118], 's_14_22': [2598, 3689], 's_14_23': [1809], 's_14_24': [1398], 's_14_25': [3699], 's_14_27': [3729], 's_14_28': [1834], 's_14_29': [3913], 's_14_30': [3704], 's_14_31': [3594, 1863], 's_14_32': [3744], 's_14_33': [3667], 's_14_34': [4599], 's_14_36': [1984], 's_14_37': [4569], 's_15_16': [4227], 's_15_17': [3986], 's_15_18': [4332, 2362], 's_15_19': [1985], 's_15_20': [3987], 's_15_21': [2288], 's_15_22': [4496], 's_15_24': [2390], 's_15_25': [1325], 's_15_26': [4091], 's_15_27': [1370, 4057], 's_15_28': [1354], 's_15_29': [4512], 's_15_30': [4086], 's_15_32': [1356], 's_15_33': [3983], 's_15_34': [3935], 's_15_35': [1400, 4012, 4011], 's_15_36': [3965], 's_15_37': [4423], 's_16_7': [1083, 3530], 's_16_10': [1118], 's_16_18': [4228], 's_16_19': [3455], 's_16_20': [1023], 's_16_21': [4226], 's_16_22': [2392, 2393, 4408, 2512, 4288], 's_16_23': [3515], 's_16_24': [3845], 's_16_26': [3680], 's_16_28': [3754], 's_16_29': [2466, 4198], 's_16_31': [2526], 's_16_32': [1686], 's_16_33': [1326], 's_16_34': [4325], 's_16_35': [3876], 's_16_36': [3860], 's_16_37': [2451], 's_17_7': [2268], 's_17_18': [2433], 's_17_19': [2180], 's_17_20': [1787], 's_17_22': [3385, 3387, 2642, 3386, 2643, 2644, 3388, 3733], 's_17_23': [1067], 's_17_24': [1412], 's_17_26': [1427], 's_17_27': [1861], 's_17_29': [3911], 's_17_30': [2389], 's_17_31': [3340], 's_17_32': [1891], 's_17_33': [1381, 3277, 1516], 's_17_34': [3365], 's_17_35': [1562], 's_17_36': [2014], 's_18_7': [3613], 's_18_10': [1357], 's_18_20': [3597], 's_18_21': [4345], 's_18_22': [1988], 's_18_23': [2469, 2468, 2467, 4287], 's_18_24': [3927], 's_18_25': [4356], 's_18_26': [2152], 's_18_29': [1448, 4492], 's_18_30': [3688], 's_18_31': [4078], 's_18_32': [1912], 's_18_34': [1372], 's_18_35': [4168], 's_18_36': [2122], 's_18_37': [4524, 1808], 's_19_10': [3908], 's_19_20': [4106, 2301, 2300], 's_19_21': [3910], 's_19_22': [3909], 's_19_24': [1324], 's_19_25': [4042], 's_19_26': [1143], 's_19_27': [2269], 's_19_28': [3800], 's_19_29': [2001, 4120], 's_19_30': [3711], 's_19_31': [1999], 's_19_32': [2015, 3835], 's_19_33': [3877], 's_19_34': [1220], 's_19_35': [1385], 's_19_36': [3919], 's_19_37': [3865], 's_20_7': [2328], 's_20_10': [1742], 's_20_21': [1263], 's_20_22': [3598], 's_20_23': [2388, 3627], 's_20_24': [2523], 's_20_25': [1353], 's_20_26': [3476], 's_20_27': [3295, 1966], 's_20_28': [1099, 1098], 's_20_30': [2358], 's_20_31': [1968], 's_20_32': [3355], 's_20_33': [3652], 's_20_34': [3575], 's_20_35': [1697], 's_20_36': [3761], 's_20_37': [1998], 's_21_7': [1053], 's_21_10': [1712], 's_21_22': [4165], 's_21_23': [3545], 's_21_24': [1773], 's_21_25': [1444], 's_21_26': [1442], 's_21_27': [3745], 's_21_29': [4361, 2168], 's_21_30': [1593], 's_21_31': [3549], 's_21_33': [3396], 's_21_35': [3548], 's_21_36': [3805], 's_21_37': [2242], 's_24_7': [2343, 3552], 's_24_10': [3397], 's_24_22': [2553], 's_24_23': [3657], 's_24_26': [2237, 3461], 's_24_27': [2041, 3341, 2147], 's_24_28': [1294], 's_24_29': [3868], 's_24_30': [2524], 's_24_31': [3294, 1786], 's_24_32': [3234], 's_24_34': [1337, 1262, 3411], 's_24_35': [1682], 's_24_36': [1578, 3653], 's_26_7': [3444], 's_26_10': [1667], 's_26_22': [2153], 's_26_23': [2154], 's_26_25': [1279], 's_26_27': [3311, 2177], 's_26_30': [3522], 's_26_31': [2136], 's_26_32': [2221], 's_26_33': [1487], 's_26_34': [1277], 's_26_35': [1397], 's_26_36': [1114], 's_27_10': [1685], 's_27_22': [3823], 's_27_23': [2404], 's_27_25': [1639], 's_27_29': [3853], 's_27_30': [1250], 's_27_31': [3325], 's_27_32': [3280], 's_27_33': [3878], 's_27_34': [1475], 's_27_35': [2120], 's_27_36': [3731], 's_28_7': [3849], 's_28_10': [1713], 's_28_22': [4344, 1867], 's_28_23': [3740], 's_28_25': [3771], 's_28_30': [1249], 's_28_31': [3834], 's_28_32': [1894], 's_28_34': [3770], 's_28_35': [1504], 's_28_36': [1744], 's_28_37': [1718], 's_30_7': [2614], 's_30_10': [1133], 's_30_22': [3658], 's_30_23': [4206, 4205], 's_30_25': [4191], 's_30_29': [1238], 's_30_31': [1833], 's_30_32': [1161], 's_30_33': [4251], 's_30_34': [1232], 's_30_35': [1264], 's_30_37': [1892], 's_31_7': [3654], 's_31_10': [1671], 's_31_23': [2405], 's_31_25': [4101], 's_31_29': [4181], 's_31_33': [4162], 's_31_34': [1505], 's_31_37': [3700, 1969], 's_32_22': [4225], 's_32_23': [1146], 's_32_25': [4266], 's_32_33': [4267], 's_32_34': [4221, 1267], 's_32_35': [3880], 's_32_36': [4279, 1011], 's_32_37': [3820], 's_33_7': [3622], 's_33_22': [4343], 's_33_34': [3352], 's_33_35': [1352], 's_33_36': [3802], 's_33_37': [1835], 's_34_22': [1643], 's_34_23': [1659], 's_34_25': [4386], 's_34_29': [1298], 's_34_35': [4041], 's_34_36': [1609], 's_34_37': [1673], 's_37_7': [3625], 's_37_22': [1928], 's_37_23': [2453], 's_37_29': [4525], 's_37_35': [1864], 's_7_10': [3864], 's_7_22': [4079], 's_7_23': [3620], 's_7_29': [3943], 's_7_35': [2360], 's_7_36': [3743], 's_10_22': [4462], 's_10_23': [1599], 's_10_25': [4461], 's_10_29': [1568], 's_10_36': [1653, 1652], 's_22_23': [2004, 4540], 's_22_25': [1403], 's_22_29': [2108], 's_22_35': [4093], 's_22_36': [4045], 's_25_23': [1343], 's_25_29': [1388], 's_25_36': [995], 's_29_23': [1373], 's_29_35': [4123], 's_35_36': [3773], 's_23_36': [3995]}</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0.001972881355932204</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.001786591830996427</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>{0: [251, 4758, 250, 4757, 4756, 249], 1: [4817, 206, 205, 4816, 4815], 2: [5041, 550, 551, 5042], 4: [4697, 281, 4696, 280, 279], 5: [399, 4636, 596, 595, 4637, 594], 6: [4773, 145, 4770, 4772, 4771], 7: [311, 310, 309, 4682, 4681], 9: [4877, 4875, 4876], 10: [191, 190, 4800, 4802, 4801], 11: [5116, 5117, 522, 521, 519, 520], 12: [4727, 295, 294, 4726], 14: [5132, 443, 444, 446, 445], 15: [4953, 400, 401, 4951, 4952], 16: [130, 4890, 4892, 4891], 17: [146, 326, 4968, 115, 4965, 4967, 4966], 20: [4862, 4860, 4861], 21: [4907, 100, 4905, 4906], 22: [431, 430, 429, 4788, 4787], 24: [4995, 4997, 475, 4996], 25: [325, 4847, 4846, 4845], 26: [4607, 491, 490, 489], 29: [384, 5026, 385, 386], 30: [5267, 534, 535, 537, 536], 32: [5252, 627, 624, 626, 625], 34: [492, 5207, 5206, 370, 372, 371], 35: [414, 5057, 5056, 415, 416], 36: [5012, 175, 176, 5011, 5010], 37: [5102, 5101, 339, 340, 341], 38: [611, 610, 609, 4652, 4651], 3: [4650, 264, 265, 4920, 4922, 4921], 8: [4591, 4592, 507, 504, 506, 505], 18: [221, 220, 4712, 4711, 4710, 4725], 19: [4980, 460, 4982, 4981], 23: [236, 235, 4741, 4743, 4742], 27: [160, 4832, 4831, 4830], 28: [581, 580, 4621, 4622, 579], 31: [5027, 564, 565, 5222, 567, 566], 13: [4935, 4938, 4936, 4937], 33: [4666, 5072, 354, 355, 5071, 356]}</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.315338553661907</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.03631339043070916</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>{0: [251, 4758, 250, 4757, 4756, 249], 1: [4817, 206, 205, 4816, 4815], 2: [5041, 550, 551, 5042], 4: [4697, 281, 4696, 280, 279], 5: [399, 4636, 596, 595, 4637, 594], 6: [4773, 145, 4770, 4772, 4771], 7: [311, 310, 309, 4682, 4681], 9: [4877, 4875, 4876], 10: [191, 190, 4800, 4802, 4801], 11: [5116, 5117, 522, 521, 519, 520], 12: [4727, 295, 294, 4726], 14: [5132, 443, 444, 446, 445], 15: [4953, 400, 401, 4951, 4952], 16: [130, 4890, 4892, 4891], 17: [146, 326, 4968, 115, 4965, 4967, 4966], 20: [4862, 4860, 4861], 21: [4907, 100, 4905, 4906], 22: [431, 430, 429, 4788, 4787], 24: [4995, 4997, 475, 4996], 25: [325, 4847, 4846, 4845], 26: [4607, 491, 490, 489], 29: [384, 5026, 385, 386], 30: [5267, 534, 535, 537, 536], 32: [5252, 627, 624, 626, 625], 34: [492, 5207, 5206, 370, 372, 371], 35: [414, 5057, 5056, 415, 416], 36: [5012, 175, 176, 5011, 5010], 37: [5102, 5101, 339, 340, 341], 38: [611, 610, 609, 4652, 4651], 3: [4650, 264, 265, 4920, 4922, 4921], 8: [4591, 4592, 507, 504, 506, 505], 18: [221, 220, 4712, 4711, 4710, 4725], 19: [4980, 460, 4982, 4981], 23: [236, 235, 4741, 4743, 4742], 27: [160, 4832, 4831, 4830], 28: [581, 580, 4621, 4622, 579], 31: [5027, 564, 565, 5222, 567, 566], 13: [4935, 4938, 4936, 4937], 33: [4666, 5072, 354, 355, 5071, 356]}</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0.315338553661907</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.03631339043070916</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>{0: [1519, 3768, 3064, 975, 3772, 3769, 3770, 976, 3515, 3516, 990, 3771, 1279, 1278, 1277, 3306, 3305, 991], 1: [3153, 946, 1021, 3500, 1613, 1612, 1611, 4208, 4207, 1371, 3155, 1051, 3154, 1052, 1053, 1054, 1055, 1056, 1057, 4265, 4266], 's_0_1': [960], 2: [1118, 1400, 3065, 998, 3066, 919, 4505, 4506, 1335, 3799, 1313, 3800, 3801, 1312, 1311, 1310, 3906, 1339, 1338, 1337, 4504, 1336], 's_0_2': [1189], 4: [3096, 3093, 3094, 923, 4413, 4414, 4415, 1103, 1102, 1101, 3095, 1096, 1097, 1098, 1099, 1100], 's_0_4': [3260], 5: [3353, 1518, 3698, 3653, 3965, 3966, 1545, 1546, 1547, 1548, 3893, 3892, 4384, 877, 4279, 4280, 4281, 1326, 1325, 1549, 1324], 's_0_5': [1579], 6: [855, 4249, 3213, 892, 3920, 4173, 4174, 891, 890, 3949, 3950, 1115, 3214, 856, 3215, 1111, 1112, 1113, 1114], 's_0_6': [1201], 7: [1370, 1369, 3847, 3846, 3711, 3961, 1144, 1143, 3620, 1068, 3322, 3321, 410, 409, 408, 407, 3317, 3318, 3319, 3320, 1066, 1067], 's_0_7': [1186], 9: [1309, 1172, 1173, 397, 1323, 1398, 3637, 3636, 3635, 3634, 3633, 396, 395, 394, 3631, 3632], 's_0_9': [3606], 10: [828, 829, 3889, 1475, 1476, 4564, 848, 845, 1521, 4147, 4146, 4145, 847, 846, 4144], 's_0_10': [3878], 11: [2915, 2914, 2913, 2912, 4262, 3557, 555, 556, 593, 4502, 563, 557, 562, 561, 558, 559, 859, 860, 3964, 3963, 3962, 560], 's_0_11': [3767], 12: [4517, 503, 3902, 515, 1020, 3049, 3048, 795, 3198, 3197, 695, 4008, 4007, 502, 3903, 501, 500, 499, 498, 497, 496, 3196], 's_0_12': [870], 14: [4041, 4042, 4028, 4040, 4027, 3377, 1385, 3378, 3380, 3379, 3381, 3352, 601, 707, 1384, 1340, 1383, 1382], 's_0_14': [3411], 15: [1268, 1012, 3860, 3706, 1009, 1010, 1011, 606, 319, 4373, 4371, 1222, 4372, 4310, 1087, 320, 321, 4141, 4205, 4204, 4203, 4202, 426], 's_0_15': [964], 16: [243, 4402, 454, 3751, 3750, 244, 245, 246, 247, 1234, 1235, 275, 276, 277, 4396, 1236, 1237, 4397, 4398, 4399, 4400, 4401], 's_0_16': [1233], 17: [3709, 770, 1628, 1627, 1626, 1625, 1624, 3683, 768, 769, 3679, 3680, 3681, 1426, 1427, 1428, 3682], 's_0_17': [1248], 20: [3245, 4127, 4126, 930, 676, 347, 421, 4336, 382, 381, 380, 379, 378, 377, 931, 3244, 3243, 3242, 466, 3361], 's_0_20': [3184], 21: [681, 4082, 3707, 4580, 4579, 818, 3274, 3273, 646, 647, 648, 3708, 574, 575, 576, 577, 578, 4472, 4473], 's_0_21': [932], 22: [3347, 543, 542, 3362, 3363, 4460, 1133, 1132, 1041, 1040, 887, 3574, 4190, 1516, 3367, 3366, 3365, 4490, 3364, 1037, 1039, 1038], 's_0_22': [1171], 24: [968, 739, 738, 1251, 3781, 3454, 3453, 3452, 3451, 302, 303, 304, 305, 306, 307, 308, 4531, 4532, 4533, 4534, 1252, 1253, 4536, 4535], 's_0_24': [977], 25: [4112, 3826, 3827, 590, 591, 4023, 4024, 4025, 1025, 1024, 1023, 3589, 918, 917, 916, 915, 3034, 3037, 3036, 3035], 's_0_25': [885], 26: [1007, 3814, 889, 3559, 888, 3529, 630, 631, 632, 3528, 337, 336, 335, 334, 333, 3526, 3527], 's_0_26': [3530], 29: [1433, 1432, 1431, 1430, 1429, 3697, 3183, 841, 842, 843, 844, 3694, 3695, 3696], 's_0_29': [3259], 30: [3982, 3981, 412, 1204, 1205, 292, 4321, 4322, 4323, 4324, 4325, 4026, 1116, 1117], 's_0_30': [1203], 32: [604, 4142, 1158, 3667, 1368, 3741, 471, 470, 3992, 3740, 3739, 620, 619, 3857, 3858, 3738, 709], 's_0_32': [3576], 34: [393, 392, 3891, 3890, 3406, 3407, 1187, 3409, 1085, 1084, 1083, 3486, 3485, 3408, 992], 's_0_34': [1263], 35: [3128, 785, 3127, 3126, 3125, 3124, 3123, 784, 783, 782, 3423, 3677, 3676, 273, 272, 3421, 3422, 572, 571, 570], 's_0_35': [1276], 36: [3229, 3230, 3456, 3457, 694, 3723, 3724, 1231, 3803, 3802, 3725, 3231, 1351, 1352, 3726, 1354, 1353], 's_0_36': [1246], 37: [3991, 438, 439, 1729, 1730, 4059, 4058, 949, 950, 951, 4057, 4056, 440, 4052, 4053, 4054, 4055], 's_0_37': [3773], 38: [442, 4441, 4442, 4443, 4444, 4445, 4446, 3788, 649, 441, 3783, 3784, 3785, 3786, 3787, 1414, 1415, 1416, 1417, 4297, 1507, 4447], 's_0_38': [1564], 3: [3020, 3019, 3018, 3017, 3886, 3047, 872, 525, 526, 527, 215, 214, 3661, 3665, 3752, 529, 873, 3664, 3663, 3662, 528], 's_1_3': [871], 's_1_4': [3425], 's_1_6': [901], 's_1_7': [3290], 8: [1162, 1506, 4177, 4176, 4175, 4351, 4352, 4353, 4354, 4355, 1026, 993, 994, 383, 995, 996, 4250, 1027], 's_1_8': [4178], 's_1_9': [3410], 's_1_10': [4148], 's_1_12': [1081, 3110], 's_1_14': [1610], 's_1_15': [4340], 's_1_16': [1372], 's_1_17': [4523], 18: [3288, 4115, 4114, 4113, 697, 751, 752, 3618, 3543, 753, 754, 755, 3978, 4278, 772, 3617, 771, 4039, 800], 's_1_18': [1161], 19: [1297, 1296, 3918, 920, 1487, 921, 1489, 1490, 1491, 4087, 4084, 4085, 3919, 1488, 4086], 's_1_19': [4088], 's_1_20': [3140], 's_1_22': [3335], 23: [3571, 423, 424, 425, 530, 531, 4187, 4433, 4067, 4432, 4431, 4430, 4429, 758, 757, 4188], 's_1_23': [1598], 's_1_24': [948], 's_1_25': [1050], 's_1_26': [962], 27: [933, 934, 365, 366, 4111, 935, 486, 487, 936, 937, 967, 938, 4369, 939, 4368, 4367], 's_1_27': [4264], 28: [1684, 4291, 4292, 637, 636, 1535, 4069, 4158, 4159, 1685, 4103, 4102, 4101, 4100, 4099, 876], 's_1_28': [4073], 's_1_29': [4192], 31: [4131, 742, 3442, 3441, 1217, 3540, 3541, 3542, 678, 679, 680, 3993, 1218, 1219, 1220, 1221, 4130, 4129, 4128, 741], 's_1_31': [3935], 's_1_34': [3501], 's_1_35': [1005], 's_1_36': [3156], 's_1_37': [1596], 's_2_3': [874], 's_2_4': [1185], 's_2_5': [3936], 's_2_6': [3951], 's_2_7': [1295], 's_2_8': [1088], 's_2_9': [3561], 's_2_10': [833], 's_2_11': [4503], 's_2_12': [1035], 13: [3832, 813, 3645, 3646, 3647, 3648, 3649, 3650, 1463, 1462, 1461, 1460, 1459, 1412, 1413, 3652, 3651], 's_2_13': [4417], 's_2_14': [3862], 's_2_15': [4476], 's_2_16': [4326], 's_2_17': [3532], 's_2_21': [4565], 's_2_22': [1193], 's_2_23': [1298], 's_2_24': [4296], 's_2_25': [1140], 's_2_26': [979], 's_2_28': [1401], 's_2_29': [4507], 's_2_31': [3621], 33: [1552, 1551, 3078, 3080, 3397, 3396, 1262, 3351, 3079, 1125, 1147, 1126, 1127, 1128, 1129, 1130, 3980, 1145, 4253, 4252, 1146, 4251], 's_2_33': [1080], 's_2_34': [1280], 's_2_36': [3246], 's_2_38': [1238], 's_4_3': [645], 's_4_5': [878], 's_4_7': [3185], 's_4_8': [773], 's_4_9': [3575], 's_4_10': [863], 's_4_11': [4412], 's_4_12': [780], 's_4_14': [1082], 's_4_15': [4235], 's_4_16': [982], 's_4_19': [922], 's_4_20': [3109], 's_4_21': [668], 's_4_22': [1073, 4520], 's_4_23': [1043], 's_4_25': [1065], 's_4_26': [3108], 's_4_27': [728], 's_4_28': [638, 713, 4563], 's_4_30': [4295], 's_4_31': [743], 's_4_32': [3590], 's_4_33': [1155], 's_4_35': [3092], 's_4_36': [1306], 's_4_37': [1086], 's_4_38': [607], 's_5_6': [1190], 's_5_7': [3877], 's_5_8': [1356], 's_5_9': [3638], 's_5_10': [4234], 's_5_11': [4383], 's_5_13': [3757], 's_5_14': [1565], 's_5_15': [4385, 1072], 's_5_16': [1042], 's_5_17': [1578], 's_5_19': [3338], 's_5_22': [3217], 's_5_24': [1250], 's_5_25': [1530], 's_5_27': [832], 's_5_28': [3894], 's_5_29': [4237], 's_5_30': [1265], 's_5_31': [1517], 's_5_33': [1207], 's_5_35': [3142, 3143], 's_5_37': [4072], 's_5_38': [1609], 's_6_8': [4294], 's_6_9': [1174], 's_6_10': [4339], 's_6_11': [861], 's_6_12': [766], 's_6_14': [1141], 's_6_15': [4219], 's_6_16': [3921], 's_6_17': [3874], 's_6_18': [3948], 's_6_20': [961], 's_6_21': [811], 's_6_22': [1036], 's_6_23': [4189], 's_6_25': [666], 's_6_26': [3560], 's_6_29': [721], 's_6_30': [1175], 's_6_31': [696], 's_6_32': [1159], 's_6_33': [1110], 's_6_34': [3545], 's_6_35': [786], 's_6_36': [3216], 's_6_37': [3994], 's_6_38': [893], 's_7_3': [3960], 's_7_8': [3605], 's_7_11': [3497], 's_7_12': [3391], 's_7_15': [1008], 's_7_16': [290], 's_7_17': [1188], 's_7_18': [3228, 796], 's_7_19': [3848], 's_7_20': [3226, 406], 's_7_22': [3302], 's_7_23': [3736], 's_7_25': [3619], 's_7_26': [1006], 's_7_30': [3861], 's_7_31': [1307], 's_7_32': [3666], 's_7_33': [1292], 's_7_35': [3466], 's_7_36': [1396], 's_7_37': [350], 's_9_3': [3630], 's_9_8': [398], 's_9_10': [1474], 's_9_14': [1399], 's_9_17': [3517], 's_9_18': [513], 's_9_20': [3766], 's_9_21': [618], 's_9_24': [4186], 's_9_26': [3721], 's_9_27': [4006], 's_9_32': [708], 's_9_33': [1397], 's_9_35': [288], 's_9_36': [798], 's_9_38': [4232], 's_10_8': [1477], 's_10_11': [4263], 's_10_12': [3888], 's_10_15': [816], 's_10_16': [4403, 1522], 's_10_18': [906], 's_10_19': [4043], 's_10_21': [774], 's_10_22': [4160], 's_10_23': [759], 's_10_26': [905], 's_10_27': [4549], 's_10_29': [4267], 's_10_30': [862], 's_10_32': [4143], 's_10_33': [4117], 's_10_34': [827], 's_10_35': [3588], 's_10_36': [3817], 's_10_37': [830], 's_10_38': [4012], 's_11_3': [2972], 's_11_8': [413, 4427], 's_11_12': [458], 's_11_13': [663], 's_11_14': [3287], 's_11_15': [4157], 's_11_17': [858], 's_11_18': [588], 's_11_19': [875], 's_11_20': [3227], 's_11_23': [4097], 's_11_24': [533], 's_11_25': [4022], 's_11_26': [3032], 's_11_27': [682], 's_11_28': [4428], 's_11_30': [517], 's_11_33': [3077, 540], 's_11_34': [467, 3556], 's_11_37': [4037], 's_12_8': [4471], 's_12_13': [814], 's_12_15': [4217], 's_12_16': [3901], 's_12_17': [3933], 's_12_19': [740], 's_12_20': [346], 's_12_22': [3512], 's_12_24': [4577, 549], 's_12_25': [3139], 's_12_26': [4261], 's_12_27': [488], 's_12_28': [710, 711], 's_12_29': [825], 's_12_30': [4276], 's_12_31': [3873], 's_12_32': [485], 's_12_33': [3050], 's_12_34': [482], 's_12_35': [465, 3107], 's_12_38': [518], 's_14_8': [1505], 's_14_13': [3427], 's_14_15': [980, 981], 's_14_16': [3756], 's_14_18': [767], 's_14_19': [3472], 's_14_20': [616], 's_14_21': [722], 's_14_22': [781], 's_14_24': [602], 's_14_25': [1070], 's_14_26': [3333], 's_14_27': [965, 4070], 's_14_28': [4029], 's_14_30': [3967], 's_14_31': [677], 's_14_33': [1160], 's_14_34': [512, 3482], 's_14_35': [3272], 's_14_36': [3337], 's_14_37': [1355], 's_14_38': [3997], 's_15_3': [3735], 's_15_8': [4309], 's_15_13': [229], 's_15_16': [4125], 's_15_17': [4358], 's_15_18': [4277], 's_15_19': [1267, 1266], 's_15_20': [4036], 's_15_22': [4491], 's_15_23': [1357], 's_15_24': [4080], 's_15_25': [516], 's_15_27': [3916, 3915], 's_15_28': [651], 's_15_29': [1069], 's_15_30': [291], 's_15_31': [4218], 's_15_32': [456], 's_15_33': [1567], 's_15_34': [3815], 's_15_35': [3720], 's_15_37': [952], 's_15_38': [1342, 4341], 's_16_3': [259, 3900], 's_16_8': [427], 's_16_18': [712], 's_16_19': [3996], 's_16_20': [218, 217, 4231], 's_16_21': [3797], 's_16_22': [1177], 's_16_23': [455], 's_16_25': [484, 3812], 's_16_27': [548, 4382], 's_16_28': [802, 4293], 's_16_30': [4426], 's_16_31': [4206], 's_16_32': [469], 's_16_34': [3876], 's_16_35': [364], 's_16_36': [1249], 's_16_37': [3872], 's_16_38': [1327], 's_17_3': [3753], 's_17_13': [3562], 's_17_18': [3573], 's_17_19': [3577], 's_17_21': [3678], 's_17_22': [3262], 's_17_23': [1643], 's_17_24': [3603], 's_17_25': [1425], 's_17_29': [1444], 's_17_32': [3622], 's_17_33': [4238], 's_17_34': [3484], 's_17_37': [3953], 's_17_38': [4388], 's_20_8': [322], 's_20_18': [3616], 's_20_21': [691], 's_20_24': [3331], 's_20_25': [900, 2929], 's_20_26': [3212], 's_20_27': [4216, 351], 's_20_28': [4307, 4306], 's_20_29': [736], 's_20_30': [367], 's_20_31': [3199, 3200, 1216], 's_20_33': [2960, 2961, 945], 's_20_34': [3286], 's_20_35': [3436], 's_20_36': [3170, 3171], 's_20_37': [3976], 's_20_38': [4171], 's_21_3': [3782], 's_21_8': [1028], 's_21_13': [633], 's_21_18': [4038], 's_21_23': [4488, 803], 's_21_25': [3348, 3349, 3334], 's_21_26': [3513], 's_21_27': [954], 's_21_28': [683, 4457], 's_21_29': [3693], 's_21_31': [4248], 's_21_32': [4068], 's_21_34': [3303, 587], 's_21_37': [605, 3932], 's_21_38': [698], 's_22_8': [4370], 's_22_13': [4386, 4387], 's_22_18': [737], 's_22_19': [3382], 's_22_23': [1192], 's_22_24': [1178], 's_22_25': [3710], 's_22_26': [3182, 541], 's_22_27': [4489], 's_22_28': [1071], 's_22_31': [1457], 's_22_32': [3572, 603], 's_22_33': [1562], 's_22_36': [1321], 's_22_37': [3875], 's_22_38': [1223], 's_24_3': [3765], 's_24_19': [4116], 's_24_23': [363], 's_24_25': [289], 's_24_26': [4246], 's_24_27': [3811], 's_24_28': [4290], 's_24_29': [4537], 's_24_30': [293], 's_24_32': [724], 's_24_33': [1148], 's_24_34': [332], 's_24_35': [3511], 's_24_37': [3931, 3930], 's_25_3': [978], 's_25_8': [3995], 's_25_13': [589], 's_25_18': [3289], 's_25_23': [546], 's_25_26': [349], 's_25_27': [3904], 's_25_28': [815], 's_25_29': [3469], 's_25_30': [4010], 's_25_31': [665], 's_25_32': [514], 's_25_33': [1095], 's_25_34': [812, 3424], 's_25_35': [1215], 's_25_38': [3917], 's_26_3': [3394], 's_26_8': [4366], 's_26_13': [483], 's_26_18': [3438], 's_26_23': [348], 's_26_27': [3871], 's_26_28': [352], 's_26_29': [3558], 's_26_31': [228], 's_26_33': [3470], 's_26_34': [617], 's_26_35': [3138], 's_26_36': [3455], 's_26_38': [4156], 's_29_3': [3604], 's_29_8': [4162], 's_29_19': [3907], 's_29_23': [1418], 's_29_27': [3829], 's_29_28': [3937], 's_29_31': [4132], 's_29_33': [4312], 's_29_34': [857], 's_29_35': [3393], 's_29_36': [1264], 's_29_38': [4357], 's_30_13': [1445], 's_30_18': [727], 's_30_19': [1520], 's_30_23': [532], 's_30_27': [457], 's_30_28': [622], 's_30_31': [4011], 's_30_32': [4247], 's_30_33': [4236], 's_30_34': [3755], 's_30_37': [1281], 's_30_38': [4440], 's_32_8': [472], 's_32_13': [3607], 's_32_18': [3977], 's_32_27': [4096], 's_32_31': [664], 's_32_33': [1367], 's_32_34': [1157], 's_32_35': [544, 545], 's_32_36': [3828], 's_32_38': [1294], 's_34_3': [3544], 's_34_8': [3830], 's_34_13': [3487], 's_34_18': [797], 's_34_23': [3586], 's_34_27': [3845], 's_34_31': [3531], 's_34_33': [1022, 3350], 's_34_36': [1202], 's_34_37': [437], 's_35_3': [3122], 's_35_13': [258], 's_35_18': [3514], 's_35_19': [1486], 's_35_23': [3570], 's_35_28': [4098], 's_35_31': [452], 's_35_33': [840], 's_35_36': [1320, 3186], 's_35_37': [3601], 's_35_38': [3813], 's_36_13': [1458], 's_36_18': [3798], 's_36_19': [3727], 's_36_28': [1699], 's_36_31': [3722], 's_36_33': [1502], 's_36_37': [3804], 's_36_38': [1594], 's_37_3': [3842], 's_37_8': [3934], 's_37_18': [725, 726], 's_37_27': [4081], 's_37_28': [4044], 's_37_31': [1386], 's_37_33': [4071], 's_37_38': [3789], 's_38_3': [634], 's_38_8': [953], 's_38_13': [4327], 's_38_18': [799], 's_38_23': [1537], 's_38_33': [4462], 's_3_18': [3602], 's_3_23': [3692], 's_3_27': [3841], 's_3_31': [213], 's_3_33': [3063, 3062], 's_8_13': [1447], 's_8_18': [997, 4459, 4458, 787, 4308], 's_8_19': [1206], 's_8_23': [817], 's_8_27': [3754], 's_8_28': [652, 653], 's_8_31': [1341], 's_8_33': [1282], 's_18_13': [693], 's_18_19': [3844], 's_18_23': [801], 's_18_27': [3979], 's_18_28': [756], 's_18_31': [1191], 's_19_27': [4009], 's_19_28': [3952], 's_19_31': [4083], 's_19_33': [1550], 's_23_27': [908], 's_23_28': [4338], 's_23_31': [3947], 's_23_33': [4416], 's_28_13': [1534, 3833], 's_28_31': [4233], 's_28_33': [1536], 's_31_13': [153], 's_31_33': [1322, 3471], 's_13_33': [3412]}</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.002418244406196214</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.002009406545451918</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>{0: [1519, 3768, 3064, 975, 3772, 3769, 3770, 976, 3515, 3516, 990, 3771, 1279, 1278, 1277, 3306, 3305, 991], 1: [3153, 946, 1021, 3500, 1613, 1612, 1611, 4208, 4207, 1371, 3155, 1051, 3154, 1052, 1053, 1054, 1055, 1056, 1057, 4265, 4266], 's_0_1': [960], 2: [1118, 1400, 3065, 998, 3066, 919, 4505, 4506, 1335, 3799, 1313, 3800, 3801, 1312, 1311, 1310, 3906, 1339, 1338, 1337, 4504, 1336], 's_0_2': [1189], 4: [3096, 3093, 3094, 923, 4413, 4414, 4415, 1103, 1102, 1101, 3095, 1096, 1097, 1098, 1099, 1100], 's_0_4': [3260], 5: [3353, 1518, 3698, 3653, 3965, 3966, 1545, 1546, 1547, 1548, 3893, 3892, 4384, 877, 4279, 4280, 4281, 1326, 1325, 1549, 1324], 's_0_5': [1579], 6: [855, 4249, 3213, 892, 3920, 4173, 4174, 891, 890, 3949, 3950, 1115, 3214, 856, 3215, 1111, 1112, 1113, 1114], 's_0_6': [1201], 7: [1370, 1369, 3847, 3846, 3711, 3961, 1144, 1143, 3620, 1068, 3322, 3321, 410, 409, 408, 407, 3317, 3318, 3319, 3320, 1066, 1067], 's_0_7': [1186], 9: [1309, 1172, 1173, 397, 1323, 1398, 3637, 3636, 3635, 3634, 3633, 396, 395, 394, 3631, 3632], 's_0_9': [3606], 10: [828, 829, 3889, 1475, 1476, 4564, 848, 845, 1521, 4147, 4146, 4145, 847, 846, 4144], 's_0_10': [3878], 11: [2915, 2914, 2913, 2912, 4262, 3557, 555, 556, 593, 4502, 563, 557, 562, 561, 558, 559, 859, 860, 3964, 3963, 3962, 560], 's_0_11': [3767], 12: [4517, 503, 3902, 515, 1020, 3049, 3048, 795, 3198, 3197, 695, 4008, 4007, 502, 3903, 501, 500, 499, 498, 497, 496, 3196], 's_0_12': [870], 14: [4041, 4042, 4028, 4040, 4027, 3377, 1385, 3378, 3380, 3379, 3381, 3352, 601, 707, 1384, 1340, 1383, 1382], 's_0_14': [3411], 15: [1268, 1012, 3860, 3706, 1009, 1010, 1011, 606, 319, 4373, 4371, 1222, 4372, 4310, 1087, 320, 321, 4141, 4205, 4204, 4203, 4202, 426], 's_0_15': [964], 16: [243, 4402, 454, 3751, 3750, 244, 245, 246, 247, 1234, 1235, 275, 276, 277, 4396, 1236, 1237, 4397, 4398, 4399, 4400, 4401], 's_0_16': [1233], 17: [3709, 770, 1628, 1627, 1626, 1625, 1624, 3683, 768, 769, 3679, 3680, 3681, 1426, 1427, 1428, 3682], 's_0_17': [1248], 20: [3245, 4127, 4126, 930, 676, 347, 421, 4336, 382, 381, 380, 379, 378, 377, 931, 3244, 3243, 3242, 466, 3361], 's_0_20': [3184], 21: [681, 4082, 3707, 4580, 4579, 818, 3274, 3273, 646, 647, 648, 3708, 574, 575, 576, 577, 578, 4472, 4473], 's_0_21': [932], 22: [3347, 543, 542, 3362, 3363, 4460, 1133, 1132, 1041, 1040, 887, 3574, 4190, 1516, 3367, 3366, 3365, 4490, 3364, 1037, 1039, 1038], 's_0_22': [1171], 24: [968, 739, 738, 1251, 3781, 3454, 3453, 3452, 3451, 302, 303, 304, 305, 306, 307, 308, 4531, 4532, 4533, 4534, 1252, 1253, 4536, 4535], 's_0_24': [977], 25: [4112, 3826, 3827, 590, 591, 4023, 4024, 4025, 1025, 1024, 1023, 3589, 918, 917, 916, 915, 3034, 3037, 3036, 3035], 's_0_25': [885], 26: [1007, 3814, 889, 3559, 888, 3529, 630, 631, 632, 3528, 337, 336, 335, 334, 333, 3526, 3527], 's_0_26': [3530], 29: [1433, 1432, 1431, 1430, 1429, 3697, 3183, 841, 842, 843, 844, 3694, 3695, 3696], 's_0_29': [3259], 30: [3982, 3981, 412, 1204, 1205, 292, 4321, 4322, 4323, 4324, 4325, 4026, 1116, 1117], 's_0_30': [1203], 32: [604, 4142, 1158, 3667, 1368, 3741, 471, 470, 3992, 3740, 3739, 620, 619, 3857, 3858, 3738, 709], 's_0_32': [3576], 34: [393, 392, 3891, 3890, 3406, 3407, 1187, 3409, 1085, 1084, 1083, 3486, 3485, 3408, 992], 's_0_34': [1263], 35: [3128, 785, 3127, 3126, 3125, 3124, 3123, 784, 783, 782, 3423, 3677, 3676, 273, 272, 3421, 3422, 572, 571, 570], 's_0_35': [1276], 36: [3229, 3230, 3456, 3457, 694, 3723, 3724, 1231, 3803, 3802, 3725, 3231, 1351, 1352, 3726, 1354, 1353], 's_0_36': [1246], 37: [3991, 438, 439, 1729, 1730, 4059, 4058, 949, 950, 951, 4057, 4056, 440, 4052, 4053, 4054, 4055], 's_0_37': [3773], 38: [442, 4441, 4442, 4443, 4444, 4445, 4446, 3788, 649, 441, 3783, 3784, 3785, 3786, 3787, 1414, 1415, 1416, 1417, 4297, 1507, 4447], 's_0_38': [1564], 3: [3020, 3019, 3018, 3017, 3886, 3047, 872, 525, 526, 527, 215, 214, 3661, 3665, 3752, 529, 873, 3664, 3663, 3662, 528], 's_1_3': [871], 's_1_4': [3425], 's_1_6': [901], 's_1_7': [3290], 8: [1162, 1506, 4177, 4176, 4175, 4351, 4352, 4353, 4354, 4355, 1026, 993, 994, 383, 995, 996, 4250, 1027], 's_1_8': [4178], 's_1_9': [3410], 's_1_10': [4148], 's_1_12': [1081, 3110], 's_1_14': [1610], 's_1_15': [4340], 's_1_16': [1372], 's_1_17': [4523], 18: [3288, 4115, 4114, 4113, 697, 751, 752, 3618, 3543, 753, 754, 755, 3978, 4278, 772, 3617, 771, 4039, 800], 's_1_18': [1161], 19: [1297, 1296, 3918, 920, 1487, 921, 1489, 1490, 1491, 4087, 4084, 4085, 3919, 1488, 4086], 's_1_19': [4088], 's_1_20': [3140], 's_1_22': [3335], 23: [3571, 423, 424, 425, 530, 531, 4187, 4433, 4067, 4432, 4431, 4430, 4429, 758, 757, 4188], 's_1_23': [1598], 's_1_24': [948], 's_1_25': [1050], 's_1_26': [962], 27: [933, 934, 365, 366, 4111, 935, 486, 487, 936, 937, 967, 938, 4369, 939, 4368, 4367], 's_1_27': [4264], 28: [1684, 4291, 4292, 637, 636, 1535, 4069, 4158, 4159, 1685, 4103, 4102, 4101, 4100, 4099, 876], 's_1_28': [4073], 's_1_29': [4192], 31: [4131, 742, 3442, 3441, 1217, 3540, 3541, 3542, 678, 679, 680, 3993, 1218, 1219, 1220, 1221, 4130, 4129, 4128, 741], 's_1_31': [3935], 's_1_34': [3501], 's_1_35': [1005], 's_1_36': [3156], 's_1_37': [1596], 's_2_3': [874], 's_2_4': [1185], 's_2_5': [3936], 's_2_6': [3951], 's_2_7': [1295], 's_2_8': [1088], 's_2_9': [3561], 's_2_10': [833], 's_2_11': [4503], 's_2_12': [1035], 13: [3832, 813, 3645, 3646, 3647, 3648, 3649, 3650, 1463, 1462, 1461, 1460, 1459, 1412, 1413, 3652, 3651], 's_2_13': [4417], 's_2_14': [3862], 's_2_15': [4476], 's_2_16': [4326], 's_2_17': [3532], 's_2_21': [4565], 's_2_22': [1193], 's_2_23': [1298], 's_2_24': [4296], 's_2_25': [1140], 's_2_26': [979], 's_2_28': [1401], 's_2_29': [4507], 's_2_31': [3621], 33: [1552, 1551, 3078, 3080, 3397, 3396, 1262, 3351, 3079, 1125, 1147, 1126, 1127, 1128, 1129, 1130, 3980, 1145, 4253, 4252, 1146, 4251], 's_2_33': [1080], 's_2_34': [1280], 's_2_36': [3246], 's_2_38': [1238], 's_4_3': [645], 's_4_5': [878], 's_4_7': [3185], 's_4_8': [773], 's_4_9': [3575], 's_4_10': [863], 's_4_11': [4412], 's_4_12': [780], 's_4_14': [1082], 's_4_15': [4235], 's_4_16': [982], 's_4_19': [922], 's_4_20': [3109], 's_4_21': [668], 's_4_22': [1073, 4520], 's_4_23': [1043], 's_4_25': [1065], 's_4_26': [3108], 's_4_27': [728], 's_4_28': [638, 713, 4563], 's_4_30': [4295], 's_4_31': [743], 's_4_32': [3590], 's_4_33': [1155], 's_4_35': [3092], 's_4_36': [1306], 's_4_37': [1086], 's_4_38': [607], 's_5_6': [1190], 's_5_7': [3877], 's_5_8': [1356], 's_5_9': [3638], 's_5_10': [4234], 's_5_11': [4383], 's_5_13': [3757], 's_5_14': [1565], 's_5_15': [4385, 1072], 's_5_16': [1042], 's_5_17': [1578], 's_5_19': [3338], 's_5_22': [3217], 's_5_24': [1250], 's_5_25': [1530], 's_5_27': [832], 's_5_28': [3894], 's_5_29': [4237], 's_5_30': [1265], 's_5_31': [1517], 's_5_33': [1207], 's_5_35': [3142, 3143], 's_5_37': [4072], 's_5_38': [1609], 's_6_8': [4294], 's_6_9': [1174], 's_6_10': [4339], 's_6_11': [861], 's_6_12': [766], 's_6_14': [1141], 's_6_15': [4219], 's_6_16': [3921], 's_6_17': [3874], 's_6_18': [3948], 's_6_20': [961], 's_6_21': [811], 's_6_22': [1036], 's_6_23': [4189], 's_6_25': [666], 's_6_26': [3560], 's_6_29': [721], 's_6_30': [1175], 's_6_31': [696], 's_6_32': [1159], 's_6_33': [1110], 's_6_34': [3545], 's_6_35': [786], 's_6_36': [3216], 's_6_37': [3994], 's_6_38': [893], 's_7_3': [3960], 's_7_8': [3605], 's_7_11': [3497], 's_7_12': [3391], 's_7_15': [1008], 's_7_16': [290], 's_7_17': [1188], 's_7_18': [3228, 796], 's_7_19': [3848], 's_7_20': [3226, 406], 's_7_22': [3302], 's_7_23': [3736], 's_7_25': [3619], 's_7_26': [1006], 's_7_30': [3861], 's_7_31': [1307], 's_7_32': [3666], 's_7_33': [1292], 's_7_35': [3466], 's_7_36': [1396], 's_7_37': [350], 's_9_3': [3630], 's_9_8': [398], 's_9_10': [1474], 's_9_14': [1399], 's_9_17': [3517], 's_9_18': [513], 's_9_20': [3766], 's_9_21': [618], 's_9_24': [4186], 's_9_26': [3721], 's_9_27': [4006], 's_9_32': [708], 's_9_33': [1397], 's_9_35': [288], 's_9_36': [798], 's_9_38': [4232], 's_10_8': [1477], 's_10_11': [4263], 's_10_12': [3888], 's_10_15': [816], 's_10_16': [4403, 1522], 's_10_18': [906], 's_10_19': [4043], 's_10_21': [774], 's_10_22': [4160], 's_10_23': [759], 's_10_26': [905], 's_10_27': [4549], 's_10_29': [4267], 's_10_30': [862], 's_10_32': [4143], 's_10_33': [4117], 's_10_34': [827], 's_10_35': [3588], 's_10_36': [3817], 's_10_37': [830], 's_10_38': [4012], 's_11_3': [2972], 's_11_8': [413, 4427], 's_11_12': [458], 's_11_13': [663], 's_11_14': [3287], 's_11_15': [4157], 's_11_17': [858], 's_11_18': [588], 's_11_19': [875], 's_11_20': [3227], 's_11_23': [4097], 's_11_24': [533], 's_11_25': [4022], 's_11_26': [3032], 's_11_27': [682], 's_11_28': [4428], 's_11_30': [517], 's_11_33': [3077, 540], 's_11_34': [467, 3556], 's_11_37': [4037], 's_12_8': [4471], 's_12_13': [814], 's_12_15': [4217], 's_12_16': [3901], 's_12_17': [3933], 's_12_19': [740], 's_12_20': [346], 's_12_22': [3512], 's_12_24': [4577, 549], 's_12_25': [3139], 's_12_26': [4261], 's_12_27': [488], 's_12_28': [710, 711], 's_12_29': [825], 's_12_30': [4276], 's_12_31': [3873], 's_12_32': [485], 's_12_33': [3050], 's_12_34': [482], 's_12_35': [465, 3107], 's_12_38': [518], 's_14_8': [1505], 's_14_13': [3427], 's_14_15': [980, 981], 's_14_16': [3756], 's_14_18': [767], 's_14_19': [3472], 's_14_20': [616], 's_14_21': [722], 's_14_22': [781], 's_14_24': [602], 's_14_25': [1070], 's_14_26': [3333], 's_14_27': [965, 4070], 's_14_28': [4029], 's_14_30': [3967], 's_14_31': [677], 's_14_33': [1160], 's_14_34': [512, 3482], 's_14_35': [3272], 's_14_36': [3337], 's_14_37': [1355], 's_14_38': [3997], 's_15_3': [3735], 's_15_8': [4309], 's_15_13': [229], 's_15_16': [4125], 's_15_17': [4358], 's_15_18': [4277], 's_15_19': [1267, 1266], 's_15_20': [4036], 's_15_22': [4491], 's_15_23': [1357], 's_15_24': [4080], 's_15_25': [516], 's_15_27': [3916, 3915], 's_15_28': [651], 's_15_29': [1069], 's_15_30': [291], 's_15_31': [4218], 's_15_32': [456], 's_15_33': [1567], 's_15_34': [3815], 's_15_35': [3720], 's_15_37': [952], 's_15_38': [1342, 4341], 's_16_3': [259, 3900], 's_16_8': [427], 's_16_18': [712], 's_16_19': [3996], 's_16_20': [218, 217, 4231], 's_16_21': [3797], 's_16_22': [1177], 's_16_23': [455], 's_16_25': [484, 3812], 's_16_27': [548, 4382], 's_16_28': [802, 4293], 's_16_30': [4426], 's_16_31': [4206], 's_16_32': [469], 's_16_34': [3876], 's_16_35': [364], 's_16_36': [1249], 's_16_37': [3872], 's_16_38': [1327], 's_17_3': [3753], 's_17_13': [3562], 's_17_18': [3573], 's_17_19': [3577], 's_17_21': [3678], 's_17_22': [3262], 's_17_23': [1643], 's_17_24': [3603], 's_17_25': [1425], 's_17_29': [1444], 's_17_32': [3622], 's_17_33': [4238], 's_17_34': [3484], 's_17_37': [3953], 's_17_38': [4388], 's_20_8': [322], 's_20_18': [3616], 's_20_21': [691], 's_20_24': [3331], 's_20_25': [900, 2929], 's_20_26': [3212], 's_20_27': [4216, 351], 's_20_28': [4307, 4306], 's_20_29': [736], 's_20_30': [367], 's_20_31': [3199, 3200, 1216], 's_20_33': [2960, 2961, 945], 's_20_34': [3286], 's_20_35': [3436], 's_20_36': [3170, 3171], 's_20_37': [3976], 's_20_38': [4171], 's_21_3': [3782], 's_21_8': [1028], 's_21_13': [633], 's_21_18': [4038], 's_21_23': [4488, 803], 's_21_25': [3348, 3349, 3334], 's_21_26': [3513], 's_21_27': [954], 's_21_28': [683, 4457], 's_21_29': [3693], 's_21_31': [4248], 's_21_32': [4068], 's_21_34': [3303, 587], 's_21_37': [605, 3932], 's_21_38': [698], 's_22_8': [4370], 's_22_13': [4386, 4387], 's_22_18': [737], 's_22_19': [3382], 's_22_23': [1192], 's_22_24': [1178], 's_22_25': [3710], 's_22_26': [3182, 541], 's_22_27': [4489], 's_22_28': [1071], 's_22_31': [1457], 's_22_32': [3572, 603], 's_22_33': [1562], 's_22_36': [1321], 's_22_37': [3875], 's_22_38': [1223], 's_24_3': [3765], 's_24_19': [4116], 's_24_23': [363], 's_24_25': [289], 's_24_26': [4246], 's_24_27': [3811], 's_24_28': [4290], 's_24_29': [4537], 's_24_30': [293], 's_24_32': [724], 's_24_33': [1148], 's_24_34': [332], 's_24_35': [3511], 's_24_37': [3931, 3930], 's_25_3': [978], 's_25_8': [3995], 's_25_13': [589], 's_25_18': [3289], 's_25_23': [546], 's_25_26': [349], 's_25_27': [3904], 's_25_28': [815], 's_25_29': [3469], 's_25_30': [4010], 's_25_31': [665], 's_25_32': [514], 's_25_33': [1095], 's_25_34': [812, 3424], 's_25_35': [1215], 's_25_38': [3917], 's_26_3': [3394], 's_26_8': [4366], 's_26_13': [483], 's_26_18': [3438], 's_26_23': [348], 's_26_27': [3871], 's_26_28': [352], 's_26_29': [3558], 's_26_31': [228], 's_26_33': [3470], 's_26_34': [617], 's_26_35': [3138], 's_26_36': [3455], 's_26_38': [4156], 's_29_3': [3604], 's_29_8': [4162], 's_29_19': [3907], 's_29_23': [1418], 's_29_27': [3829], 's_29_28': [3937], 's_29_31': [4132], 's_29_33': [4312], 's_29_34': [857], 's_29_35': [3393], 's_29_36': [1264], 's_29_38': [4357], 's_30_13': [1445], 's_30_18': [727], 's_30_19': [1520], 's_30_23': [532], 's_30_27': [457], 's_30_28': [622], 's_30_31': [4011], 's_30_32': [4247], 's_30_33': [4236], 's_30_34': [3755], 's_30_37': [1281], 's_30_38': [4440], 's_32_8': [472], 's_32_13': [3607], 's_32_18': [3977], 's_32_27': [4096], 's_32_31': [664], 's_32_33': [1367], 's_32_34': [1157], 's_32_35': [544, 545], 's_32_36': [3828], 's_32_38': [1294], 's_34_3': [3544], 's_34_8': [3830], 's_34_13': [3487], 's_34_18': [797], 's_34_23': [3586], 's_34_27': [3845], 's_34_31': [3531], 's_34_33': [1022, 3350], 's_34_36': [1202], 's_34_37': [437], 's_35_3': [3122], 's_35_13': [258], 's_35_18': [3514], 's_35_19': [1486], 's_35_23': [3570], 's_35_28': [4098], 's_35_31': [452], 's_35_33': [840], 's_35_36': [1320, 3186], 's_35_37': [3601], 's_35_38': [3813], 's_36_13': [1458], 's_36_18': [3798], 's_36_19': [3727], 's_36_28': [1699], 's_36_31': [3722], 's_36_33': [1502], 's_36_37': [3804], 's_36_38': [1594], 's_37_3': [3842], 's_37_8': [3934], 's_37_18': [725, 726], 's_37_27': [4081], 's_37_28': [4044], 's_37_31': [1386], 's_37_33': [4071], 's_37_38': [3789], 's_38_3': [634], 's_38_8': [953], 's_38_13': [4327], 's_38_18': [799], 's_38_23': [1537], 's_38_33': [4462], 's_3_18': [3602], 's_3_23': [3692], 's_3_27': [3841], 's_3_31': [213], 's_3_33': [3063, 3062], 's_8_13': [1447], 's_8_18': [997, 4459, 4458, 787, 4308], 's_8_19': [1206], 's_8_23': [817], 's_8_27': [3754], 's_8_28': [652, 653], 's_8_31': [1341], 's_8_33': [1282], 's_18_13': [693], 's_18_19': [3844], 's_18_23': [801], 's_18_27': [3979], 's_18_28': [756], 's_18_31': [1191], 's_19_27': [4009], 's_19_28': [3952], 's_19_31': [4083], 's_19_33': [1550], 's_23_27': [908], 's_23_28': [4338], 's_23_31': [3947], 's_23_33': [4416], 's_28_13': [1534, 3833], 's_28_31': [4233], 's_28_33': [1536], 's_31_13': [153], 's_31_33': [1322, 3471], 's_13_33': [3412]}</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0.002418244406196214</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.002009406545451918</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>{0: [4626, 4913, 1404, 1405, 1360, 4912], 1: [1749, 1748, 4493, 4490, 1358, 4491, 4492], 2: [4701, 4704, 1584, 4703, 4702], 5: [1433, 4988, 4987, 1436, 1434, 1435], 6: [4823, 4821, 1494, 1495, 4822], 8: [4719, 4716, 1389, 4717, 4718], 9: [1283, 1284, 1285, 4853, 4852, 4851], 10: [1658, 1661, 1660, 4584, 1659], 12: [5002, 4972, 5047, 1449, 1451, 1450], 13: [1631, 1628, 1629, 1630], 14: [1240, 4643, 1239, 4642, 4641], 16: [1178, 1570, 1179, 4868, 4867, 4866, 1225, 4820], 17: [4613, 4612, 4611, 4614, 1224], 18: [1343, 4944, 4943, 1344, 1345, 4942], 19: [4731, 4733, 1359, 4732], 20: [4628, 1613, 1616, 1615, 1614], 21: [1193, 1194, 4779, 4776, 4777, 4778], 22: [1373, 1374, 4928, 4927, 1375], 24: [1733, 4806, 1734, 4808, 4807], 25: [1210, 4596, 4599, 4598, 1209, 4597], 26: [1463, 1464, 4881, 4883, 1465, 4882], 27: [4686, 4689, 4687, 4688], 28: [1301, 4569, 1300, 4568, 1299, 4567], 29: [4508, 1553, 1555, 1554], 30: [1253, 4898, 4897, 1254, 1255, 4896], 32: [1510, 4478, 4477, 4627, 1509, 1508], 35: [4749, 4748, 4746, 4747], 36: [1315, 1314, 4583, 4581, 1388, 4582], 37: [4958, 4537, 1479, 1480, 1481], 38: [1328, 1390, 4793, 1329, 4791, 4792], 4: [1763, 4655, 1764, 4656, 4657, 4658], 7: [4553, 1646, 1643, 1645, 1644], 11: [1586, 1673, 1674, 1675, 5017, 5018, 1676], 23: [1522, 1523, 4974, 4973, 1524, 1525], 33: [4448, 1420, 1419, 1418, 1583, 1448, 4447], 34: [1718, 1719, 4670, 4671, 4673, 4672], 15: [1120, 1794, 4764, 4761, 4762, 4763], 39: [1271, 1269, 4838, 4837, 1270, 4836], 3: [4523, 1538, 1540, 1539], 31: [1601, 4538, 1600, 1598, 1599]}</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.2569558521560575</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0402730554530743</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>{0: [4626, 4913, 1404, 1405, 1360, 4912], 1: [1749, 1748, 4493, 4490, 1358, 4491, 4492], 2: [4701, 4704, 1584, 4703, 4702], 5: [1433, 4988, 4987, 1436, 1434, 1435], 6: [4823, 4821, 1494, 1495, 4822], 8: [4719, 4716, 1389, 4717, 4718], 9: [1283, 1284, 1285, 4853, 4852, 4851], 10: [1658, 1661, 1660, 4584, 1659], 12: [5002, 4972, 5047, 1449, 1451, 1450], 13: [1631, 1628, 1629, 1630], 14: [1240, 4643, 1239, 4642, 4641], 16: [1178, 1570, 1179, 4868, 4867, 4866, 1225, 4820], 17: [4613, 4612, 4611, 4614, 1224], 18: [1343, 4944, 4943, 1344, 1345, 4942], 19: [4731, 4733, 1359, 4732], 20: [4628, 1613, 1616, 1615, 1614], 21: [1193, 1194, 4779, 4776, 4777, 4778], 22: [1373, 1374, 4928, 4927, 1375], 24: [1733, 4806, 1734, 4808, 4807], 25: [1210, 4596, 4599, 4598, 1209, 4597], 26: [1463, 1464, 4881, 4883, 1465, 4882], 27: [4686, 4689, 4687, 4688], 28: [1301, 4569, 1300, 4568, 1299, 4567], 29: [4508, 1553, 1555, 1554], 30: [1253, 4898, 4897, 1254, 1255, 4896], 32: [1510, 4478, 4477, 4627, 1509, 1508], 35: [4749, 4748, 4746, 4747], 36: [1315, 1314, 4583, 4581, 1388, 4582], 37: [4958, 4537, 1479, 1480, 1481], 38: [1328, 1390, 4793, 1329, 4791, 4792], 4: [1763, 4655, 1764, 4656, 4657, 4658], 7: [4553, 1646, 1643, 1645, 1644], 11: [1586, 1673, 1674, 1675, 5017, 5018, 1676], 23: [1522, 1523, 4974, 4973, 1524, 1525], 33: [4448, 1420, 1419, 1418, 1583, 1448, 4447], 34: [1718, 1719, 4670, 4671, 4673, 4672], 15: [1120, 1794, 4764, 4761, 4762, 4763], 39: [1271, 1269, 4838, 4837, 1270, 4836], 3: [4523, 1538, 1540, 1539], 31: [1601, 4538, 1600, 1598, 1599]}</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0.2569558521560575</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.0402730554530743</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>{0: [2317, 2108, 2107, 1556, 1555, 1554, 4657, 4658, 1779, 4659, 4317, 4316, 1557, 4315, 4314, 1897, 1898, 1899], 1: [4042, 1870, 1931, 5009, 5008, 5007, 5006, 5005, 5004, 1461, 1462, 1463, 1464, 1465, 1466, 5002, 5003, 1616], 's_0_1': [5032], 2: [4467, 4466, 1391, 1392, 1393, 5452, 5453, 5454, 5455, 2039, 5471, 5472, 2338, 2337, 4256, 2167, 2168, 2169, 2170, 4886, 4887, 2335, 2336], 's_0_2': [4255, 1927], 5: [2559, 2755, 2754, 4559, 4558, 4557, 4556, 2093, 4852, 1495, 1494, 4583, 1613, 1612, 1611, 4103, 4104, 4105, 2092, 2091, 2090], 's_0_5': [2077], 6: [1242, 1241, 1240, 4347, 1239, 1238, 1237, 4341, 4342, 4346, 1975, 1974, 1973, 4435, 1867, 4345, 4348, 1836, 1837, 4344, 4343], 's_0_6': [4464], 8: [2260, 2255, 5408, 4738, 4737, 2259, 2258, 2257, 1603, 1602, 1601, 1600, 1599, 2256, 4271, 4270, 4269, 1777, 1778, 4539, 4538, 1598], 's_0_8': [2002], 9: [4866, 4645, 1329, 1330, 1331, 2473, 1332, 5307, 5302, 5303, 5367, 5366, 2188, 5306, 1959, 1960, 1961, 1962, 5305, 5304], 's_0_9': [4750], 10: [5016, 5410, 2349, 2153, 4692, 4690, 4691, 1376, 1377, 5272, 5273, 5274, 5275, 2052, 2023, 5291, 2157, 2156, 2155, 2154, 4706], 's_0_10': [1542], 12: [1597, 4963, 4962, 4961, 4960, 4403, 1522, 1523, 1524, 1525, 4957, 1814, 1813, 1812, 1811, 4959, 4958], 's_0_12': [4793], 13: [5200, 1319, 2379, 4569, 2380, 1824, 1825, 4854, 1409, 5617, 5618, 5497, 5619, 5620, 2068, 2069, 2485, 4857, 4856, 4855, 2065, 2066, 2067], 's_0_13': [1809], 14: [5294, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 5211, 5212, 1662, 2563, 5278, 5277, 5276, 2127, 5215, 5214, 5213], 's_0_14': [4614], 16: [2293, 4178, 2292, 4179, 3969, 3970, 3971, 3972, 2291, 2290, 4707, 2289, 2288, 1866, 2287, 1865, 2286, 2285], 's_0_16': [2302], 17: [1672, 2396, 4948, 4947, 4946, 4945, 4944, 4972, 1649, 1648, 1647, 1646, 1673, 1674, 1675, 1676, 4974, 4973], 's_0_17': [4718], 18: [5216, 5217, 2284, 2142, 5068, 3847, 3848, 2442, 2441, 2440, 2439, 2438, 3849, 3850, 3851, 3852, 2345, 3957, 2437, 2436, 2435], 's_0_18': [4302], 19: [2651, 4633, 1670, 4509, 4510, 2036, 2035, 2650, 2649, 2648, 4589, 4588, 4587, 4586, 2034, 2033, 3952, 2032, 2031, 4015, 1940, 3954, 3953], 's_0_19': [4450], 20: [5351, 1956, 1957, 1958, 5264, 5263, 4480, 4482, 2453, 4481, 2454, 2455, 2456, 2457, 2324, 2323, 5352], 's_0_20': [4479], 21: [3882, 3883, 4779, 2525, 5412, 5413, 5414, 4780, 4781, 4782, 2709, 2526, 2527, 2528, 2713, 2712, 2711, 2710, 4784, 2529, 2530, 4783], 's_0_21': [1869], 22: [4288, 1574, 1573, 1572, 1571, 1431, 1432, 2557, 4214, 1570, 4822, 1509, 1508, 1507, 4372, 4373, 4374, 4375, 4376, 2213, 2212, 4212, 4213], 's_0_22': [5333], 24: [5084, 5083, 5082, 5081, 5080, 5095, 1738, 1737, 4061, 4060, 1851, 1852, 1853, 4524, 1733, 5094, 1736, 1734, 1735], 's_0_24': [4749], 25: [5398, 5397, 4448, 1685, 1686, 4975, 4631, 2083, 1687, 1688, 4599, 4600, 5396, 5395, 2008, 1684, 2007, 2006, 2005, 2004, 4630], 's_0_25': [1854], 26: [4949, 4392, 5382, 5383, 4000, 4001, 4002, 2623, 2622, 2621, 3999, 2620, 2619, 2361, 4272, 2362, 2363, 2365, 2364, 4662, 4663], 's_0_26': [2467], 27: [1619, 1794, 4117, 1919, 1719, 1445, 1446, 1447, 4689, 5607, 4688, 5606, 5605, 1448, 5604, 5603, 5602, 1454, 1453, 1452, 1451, 1450, 1449, 4687], 's_0_27': [5362], 28: [2421, 2135, 2420, 5244, 4092, 4091, 2136, 2137, 1857, 5110, 5111, 2141, 2140, 2138, 2139], 's_0_28': [4301], 29: [2647, 2646, 2645, 1990, 4840, 4839, 4838, 4837, 4836, 4841, 3913, 3912, 3911, 3910, 3909, 1255, 1254, 3908, 3907, 3906, 1250, 1251, 1252, 1253], 's_0_29': [4656], 30: [2128, 5350, 5065, 1795, 1796, 4432, 1433, 1434, 1435, 1436, 5077, 1497, 5123, 1976, 1993, 1992, 5125, 5124], 's_0_30': [1541, 1540, 4913], 32: [1645, 2616, 4229, 4732, 4733, 4734, 4228, 4227, 4226, 4225, 1941, 4736, 4735, 1944, 1943, 1942], 's_0_32': [4405], 35: [4386, 2232, 1327, 4387, 4388, 5129, 5128, 5127, 2231, 2230, 2229, 4676, 1628, 1629, 4673, 4674, 4675], 's_0_35': [4628, 1749], 36: [2097, 2098, 5486, 2480, 5543, 5544, 5545, 4077, 4078, 2481, 2482, 4333, 2587, 2588, 2589, 2590, 2591, 2592, 5548, 5547, 5546, 2593, 2189], 's_0_36': [2316], 37: [2094, 4843, 1467, 2095, 2096, 5156, 2635, 5227, 5020, 5228, 5229, 5230, 5231, 2637, 2636, 5173, 5172, 5171, 2187], 's_0_37': [5167], 38: [4238, 5247, 1492, 4032, 1731, 2202, 2201, 2200, 2199, 2196, 2197, 5246, 2198, 4361, 4360, 1715, 1716, 4239, 1792, 4359, 1838, 1839, 4644], 's_0_38': [1913], 's_1_2': [5001], 4: [2678, 2679, 2680, 5513, 5514, 2665, 4934, 4933, 1903, 5515, 1902, 1901, 4932, 4931, 4930, 1900], 's_1_4': [1841], 's_1_5': [4043, 1641], 7: [1303, 5271, 5152, 1326, 1318, 1317, 1316, 1315, 4716, 2061, 2601, 1344, 1343, 1342, 4131, 4132, 4133, 4134, 1341, 4135, 4136, 4137, 4138], 's_1_7': [1340], 's_1_8': [4988], 's_1_9': [4927], 's_1_10': [5017], 11: [5063, 1706, 1511, 5182, 5183, 5184, 5185, 2426, 1437, 4859, 2770, 2771, 2082, 2081, 5054, 5053, 5052, 5051], 's_1_11': [2756], 's_1_13': [4869, 1810], 's_1_16': [4991], 's_1_17': [1826], 's_1_18': [4992], 's_1_21': [2726], 23: [1362, 1361, 1360, 1359, 1358, 5181, 1356, 1355, 3982, 1357, 2378, 4393, 4394, 2677, 4289, 2782, 3983, 3984, 3985, 3986, 3987, 3988, 3989, 2780, 2781], 's_1_23': [4147], 's_1_24': [4914], 's_1_25': [1915], 's_1_26': [2366], 's_1_27': [4057], 's_1_30': [1421], 's_1_32': [1615, 4778], 33: [4990, 2697, 4977, 4978, 4979, 2111, 4244, 2572, 2573, 2603, 2696, 4994, 2785, 2784, 4976, 2783, 4529, 4528], 's_1_33': [2846], 34: [5233, 4581, 2405, 1269, 1268, 1267, 4266, 4267, 1551, 4163, 4164, 4165, 4166, 4167, 2472, 5187, 2411, 2410, 2409, 2408, 2407, 2406], 's_1_34': [4087, 1550], 's_1_35': [4672], 's_1_37': [2605], 's_1_38': [4312], 's_2_4': [1769, 1768], 's_2_5': [4181], 's_2_6': [4451, 2227], 's_2_7': [5391], 's_2_8': [1618], 's_2_9': [1963], 's_2_10': [1406, 1407], 's_2_11': [1438], 's_2_13': [5575], 's_2_14': [2322], 15: [2246, 5112, 2248, 4124, 4437, 4438, 2510, 2511, 2512, 2515, 2516, 5113, 2513, 4123, 2397, 1918, 5425, 2514, 5426, 5427, 2398], 's_2_15': [5456], 's_2_17': [2395], 's_2_18': [2452], 's_2_19': [4465], 's_2_21': [2305], 's_2_22': [5438], 's_2_23': [5361], 's_2_24': [5439], 's_2_25': [5470, 1933, 5394, 1783], 's_2_28': [4241], 's_2_29': [2110], 's_2_30': [5242], 's_2_32': [2182], 's_2_34': [4917], 's_2_35': [2245], 's_2_36': [1873], 's_2_37': [5107], 's_2_38': [2183], 39: [2543, 4424, 4423, 5139, 5138, 1534, 4422, 4421, 1535, 4419, 4568, 1483, 1482, 1481, 1480, 1479, 4642, 4418, 4223, 1536, 4420, 1537, 1538], 's_2_39': [2333], 3: [5038, 2412, 2125, 2124, 2047, 2048, 4601, 4602, 4603, 2630, 5203, 2585, 4093, 2496, 2497, 5293, 2502, 2501, 2500, 2498, 2499], 's_5_3': [2243], 's_5_6': [4495], 's_5_7': [1806], 's_5_8': [1553], 's_5_9': [2078], 's_5_10': [4571], 's_5_11': [4844], 's_5_12': [4627], 's_5_13': [4584], 's_5_14': [4118], 's_5_15': [2303], 's_5_16': [1880], 's_5_18': [2089], 's_5_19': [2544], 's_5_20': [2468], 's_5_21': [4544], 's_5_22': [4526], 's_5_23': [1730], 's_5_24': [4076], 's_5_25': [2184], 's_5_28': [4541], 's_5_30': [4582], 31: [2020, 2321, 2736, 2737, 2738, 1855, 4747, 4748, 1630, 4808, 2740, 4814, 2739, 2320, 4809, 4810, 4811, 4812, 4813], 's_5_31': [4634], 's_5_32': [1926], 's_5_33': [2753], 's_5_34': [1626], 's_5_36': [4678], 's_5_37': [4889], 's_5_39': [1644], 's_6_3': [4525], 's_6_4': [4915], 's_6_8': [4329], 's_6_9': [4806], 's_6_10': [4705], 's_6_13': [4900], 's_6_14': [5196], 's_6_15': [2242], 's_6_16': [4075], 's_6_18': [1835], 's_6_20': [4555], 's_6_21': [4795], 's_6_23': [4349], 's_6_24': [4119], 's_6_25': [4328], 's_6_26': [2377], 's_6_27': [4327], 's_6_28': [4331], 's_6_29': [4791], 's_6_31': [4746], 's_6_32': [4089], 's_6_35': [4356], 's_6_38': [4014], 's_6_39': [1912], 's_8_3': [2319], 's_8_4': [1708, 5393], 's_8_7': [2226], 's_8_9': [1678], 's_8_10': [5409], 's_8_11': [2261], 's_8_12': [4943], 's_8_13': [1703], 's_8_14': [5093], 's_8_15': [4723], 's_8_16': [4407], 's_8_17': [4553], 's_8_18': [2254], 's_8_19': [1883], 's_8_20': [2273], 's_8_21': [4693, 2469], 's_8_22': [5423], 's_8_24': [4299], 's_8_26': [4752], 's_8_27': [1614], 's_8_28': [4106], 's_8_31': [4763], 's_8_33': [2604], 's_8_34': [4152], 's_8_35': [4661], 's_8_38': [4047], 's_8_39': [5108], 's_9_3': [5292], 's_9_4': [5155], 's_9_7': [5046], 's_9_11': [1932], 's_9_12': [1345], 's_9_13': [1333], 's_9_14': [1663], 's_9_15': [2368], 's_9_16': [2307], 's_9_17': [1634, 1633], 's_9_18': [5323], 's_9_19': [4660, 1989], 's_9_21': [2488], 's_9_22': [5288], 's_9_23': [4792], 's_9_24': [1722], 's_9_26': [5368], 's_9_27': [5287], 's_9_28': [1797], 's_9_29': [4671], 's_9_34': [5308], 's_9_36': [5428], 's_9_38': [2427], 's_9_39': [1782], 's_10_3': [4796], 's_10_7': [5031], 's_10_11': [2112], 's_10_16': [2304], 's_10_18': [4647], 's_10_19': [4720, 2049], 's_10_20': [2173], 's_10_21': [5411], 's_10_23': [5346], 's_10_24': [5259], 's_10_25': [5290], 's_10_26': [2394], 's_10_27': [5317], 's_10_28': [4751], 's_10_30': [1977], 's_10_31': [2079], 's_10_32': [2109], 's_10_33': [5066], 's_10_35': [4901], 's_10_36': [2024], 's_10_39': [1498], 's_12_4': [5364], 's_12_11': [2486], 's_12_14': [4929], 's_12_15': [5424], 's_12_16': [1596], 's_12_17': [4404], 's_12_18': [2471], 's_12_22': [4928], 's_12_23': [4912], 's_12_24': [5469], 's_12_25': [1946], 's_12_27': [5559], 's_12_28': [5079], 's_12_29': [1510], 's_12_30': [4899], 's_12_32': [4717], 's_12_33': [2546], 's_12_35': [4433], 's_12_36': [5529], 's_12_37': [2126], 's_12_38': [4358, 4357], 's_12_39': [4702], 's_13_3': [2484], 's_13_4': [5498], 's_13_7': [1304], 's_13_11': [5170], 's_13_14': [5141], 's_13_15': [4903], 's_13_20': [4918], 's_13_21': [2185], 's_13_22': [5633], 's_13_23': [1363], 's_13_26': [4722], 's_13_27': [1724], 's_13_28': [5245], 's_13_29': [1840], 's_13_30': [5380, 2053], 's_13_31': [4719], 's_13_32': [4629], 's_13_34': [4827], 's_13_36': [1964], 's_13_38': [4554], 's_14_3': [2607], 's_14_4': [5199], 's_14_11': [5168], 's_14_15': [1917], 's_14_16': [3968], 's_14_17': [4493], 's_14_19': [3938], 's_14_21': [2728], 's_14_23': [1287], 's_14_24': [2562], 's_14_25': [3864], 's_14_27': [4703], 's_14_28': [1887], 's_14_29': [4853], 's_14_31': [4823], 's_14_32': [4883], 's_14_33': [5309], 's_14_34': [4148], 's_14_36': [2564], 's_14_37': [1872], 's_14_38': [1747, 4313], 's_14_39': [1617], 's_16_3': [5232], 's_16_7': [1881], 's_16_11': [5186], 's_16_15': [5036], 's_16_18': [1985], 's_16_19': [2030], 's_16_20': [5442], 's_16_21': [4708], 's_16_22': [4286], 's_16_23': [2180], 's_16_24': [4030], 's_16_25': [5381], 's_16_26': [4512], 's_16_28': [3941], 's_16_29': [2105], 's_16_31': [2274], 's_16_32': [4284], 's_16_34': [1746], 's_16_36': [2294], 's_16_37': [5201], 's_16_38': [4494, 1808, 1807, 4194], 's_16_39': [1627], 's_17_4': [5018, 5019], 's_17_7': [4389, 1762, 1761], 's_17_11': [5078, 1691], 's_17_19': [4508], 's_17_22': [5468], 's_17_23': [1375], 's_17_24': [1781], 's_17_25': [4298], 's_17_26': [2470, 4873, 4872], 's_17_27': [4193, 1566], 's_17_28': [5243], 's_17_29': [1690], 's_17_30': [1586], 's_17_32': [4868], 's_17_33': [2381], 's_17_34': [4902], 's_17_35': [4463], 's_17_36': [5528], 's_17_38': [4209], 's_17_39': [1496, 5062], 's_18_3': [4003], 's_18_4': [2531], 's_18_7': [4153], 's_18_11': [2561], 's_18_15': [2217], 's_18_19': [1895, 1894], 's_18_20': [2143], 's_18_21': [2224], 's_18_22': [2451], 's_18_25': [1699], 's_18_26': [4452], 's_18_27': [1460], 's_18_28': [4033], 's_18_29': [2269], 's_18_31': [5022], 's_18_34': [5202], 's_18_37': [2247], 's_18_38': [2172], 's_18_39': [4363], 's_19_3': [4828], 's_19_4': [4904], 's_19_11': [4874], 's_19_15': [4436], 's_19_20': [1955], 's_19_21': [4604, 2724], 's_19_23': [1520], 's_19_24': [1986], 's_19_25': [3894], 's_19_26': [1970], 's_19_27': [1718], 's_19_28': [4766], 's_19_29': [1790], 's_19_30': [5050], 's_19_31': [4825], 's_19_32': [2016, 2017], 's_19_33': [2618, 4514], 's_19_34': [4180, 1971], 's_19_35': [5114], 's_19_36': [4619], 's_19_37': [4858], 's_19_38': [1868], 's_19_39': [1793], 's_20_3': [2487], 's_20_7': [4120], 's_20_11': [5037], 's_20_15': [5517], 's_20_21': [2743], 's_20_22': [1988], 's_20_23': [2393], 's_20_25': [2203], 's_20_27': [5592], 's_20_28': [4496], 's_20_30': [5321, 2158], 's_20_31': [4842], 's_20_33': [2483], 's_20_34': [4753], 's_20_35': [5337], 's_20_36': [5532], 's_20_37': [2517], 's_20_38': [2003], 's_20_39': [4513], 's_21_3': [4258], 's_21_4': [2664, 4769], 's_21_7': [4183], 's_21_15': [4273], 's_21_22': [2633, 2632, 2634, 4303], 's_21_23': [2210], 's_21_24': [5099, 2742], 's_21_25': [2353], 's_21_26': [5384], 's_21_27': [4794], 's_21_28': [2419], 's_21_29': [2540], 's_21_30': [1780], 's_21_32': [1884], 's_21_34': [4408], 's_21_35': [2727], 's_21_36': [4574], 's_21_37': [5159], 's_21_38': [4048, 2450, 3942, 2315], 's_21_39': [4453], 's_22_3': [2556], 's_22_4': [1484, 5542], 's_22_15': [2691], 's_22_23': [1372], 's_22_24': [1732], 's_22_25': [1717], 's_22_26': [2347], 's_22_27': [4222], 's_22_28': [4196], 's_22_29': [1430], 's_22_30': [4507], 's_22_31': [4807], 's_22_32': [2466], 's_22_33': [2558], 's_22_34': [2241], 's_22_35': [4371], 's_22_36': [4318], 's_22_37': [5197], 's_22_38': [2211], 's_22_39': [1702], 's_24_4': [1723], 's_24_7': [2106], 's_24_15': [2547], 's_24_26': [2045], 's_24_27': [1739], 's_24_28': [2181], 's_24_29': [1850], 's_24_30': [5064], 's_24_33': [2786], 's_24_34': [2001], 's_24_35': [2306], 's_24_36': [4062], 's_24_37': [1842], 's_24_38': [4240], 's_25_3': [2228], 's_25_4': [5320, 5319, 1798], 's_25_15': [2263], 's_25_26': [2518], 's_25_27': [2009], 's_25_28': [5140], 's_25_30': [4447, 4462], 's_25_31': [2019], 's_25_33': [5035], 's_25_35': [4523], 's_25_36': [2443], 's_25_37': [2638], 's_25_38': [4029], 's_25_39': [4434], 's_26_3': [4617], 's_26_4': [4754], 's_26_7': [2166], 's_26_15': [2413], 's_26_23': [1910], 's_26_28': [4017], 's_26_31': [4739], 's_26_32': [2392], 's_26_35': [4797], 's_26_37': [5249], 's_26_38': [4149, 1821], 's_26_39': [2272], 's_27_4': [1904], 's_27_7': [4237], 's_27_11': [5047], 's_27_15': [2249], 's_27_30': [4477], 's_27_31': [1389], 's_27_32': [1539], 's_27_34': [4282], 's_27_36': [2309], 's_27_37': [5137], 's_27_38': [4297], 's_27_39': [5392], 's_28_3': [4063], 's_28_11': [1916], 's_28_23': [2150], 's_28_30': [5109], 's_28_31': [1856], 's_28_32': [4211], 's_28_33': [5126], 's_28_34': [4151], 's_28_35': [4871], 's_28_36': [2346], 's_28_37': [1752], 's_28_38': [2240], 's_28_39': [1767], 's_29_3': [2584], 's_29_7': [1236], 's_29_15': [3928], 's_29_23': [1610], 's_29_30': [4431], 's_29_32': [4199], 's_29_33': [2662], 's_29_34': [4191], 's_29_35': [1192, 1193, 4596], 's_29_36': [3927], 's_29_37': [1991], 's_29_39': [4417, 4416], 's_30_4': [5335], 's_30_11': [5365], 's_30_15': [5441], 's_30_23': [4942], 's_30_31': [4824], 's_30_32': [1419], 's_30_33': [2021], 's_30_35': [1388, 4446, 1283], 's_30_37': [1632], 's_30_39': [4537], 's_32_3': [2631], 's_32_7': [4731], 's_32_15': [2676], 's_32_23': [2617], 's_32_31': [1584], 's_32_33': [2586], 's_32_34': [4150], 's_32_35': [4598, 4597, 1404], 's_32_36': [2331], 's_32_37': [4721], 's_32_38': [4615], 's_35_3': [2214], 's_35_4': [2681], 's_35_7': [4613, 4612], 's_35_11': [5261], 's_35_15': [2532], 's_35_23': [1328, 4641], 's_35_31': [1914], 's_35_33': [5096], 's_35_34': [1298, 4506], 's_35_37': [2577], 's_35_38': [5142], 's_35_39': [1643], 's_36_3': [5023], 's_36_4': [1888], 's_36_7': [2541], 's_36_15': [5487], 's_36_23': [4409], 's_36_31': [4334], 's_36_33': [4964], 's_36_34': [4168], 's_36_37': [5218], 's_36_38': [2225], 's_36_39': [2602], 's_37_3': [4916], 's_37_7': [5226], 's_37_11': [2051], 's_37_23': [5122], 's_37_31': [2545], 's_37_33': [2080], 's_37_34': [2352], 's_37_39': [1587], 's_38_4': [2216], 's_38_7': [1701], 's_38_15': [5157, 2367], 's_38_23': [2300], 's_38_31': [2215], 's_38_34': [5248], 's_38_39': [1582, 1583], 's_4_15': [5500], 's_4_23': [4454], 's_4_31': [4499], 's_4_39': [1513, 5422], 's_7_3': [2661], 's_7_15': [4139], 's_7_23': [1302], 's_7_31': [1300], 's_7_33': [4259], 's_7_34': [4686], 's_7_39': [1506], 's_11_3': [5039], 's_11_15': [5097], 's_11_23': [5257], 's_11_31': [2725], 's_11_34': [5067], 's_11_39': [1827], 's_23_3': [4004], 's_23_15': [2796], 's_23_33': [2708], 's_23_34': [4281], 's_33_3': [4993], 's_33_15': [4543], 's_33_34': [5234], 's_33_39': [2663], 's_34_3': [4768], 's_34_15': [4618], 's_34_31': [2424], 's_34_39': [1552], 's_15_3': [3943], 's_15_31': [2751], 's_15_39': [2422], 's_39_3': [4483], 's_3_31': [4094]}</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0029888</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.002125397506350283</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>{0: [2317, 2108, 2107, 1556, 1555, 1554, 4657, 4658, 1779, 4659, 4317, 4316, 1557, 4315, 4314, 1897, 1898, 1899], 1: [4042, 1870, 1931, 5009, 5008, 5007, 5006, 5005, 5004, 1461, 1462, 1463, 1464, 1465, 1466, 5002, 5003, 1616], 's_0_1': [5032], 2: [4467, 4466, 1391, 1392, 1393, 5452, 5453, 5454, 5455, 2039, 5471, 5472, 2338, 2337, 4256, 2167, 2168, 2169, 2170, 4886, 4887, 2335, 2336], 's_0_2': [4255, 1927], 5: [2559, 2755, 2754, 4559, 4558, 4557, 4556, 2093, 4852, 1495, 1494, 4583, 1613, 1612, 1611, 4103, 4104, 4105, 2092, 2091, 2090], 's_0_5': [2077], 6: [1242, 1241, 1240, 4347, 1239, 1238, 1237, 4341, 4342, 4346, 1975, 1974, 1973, 4435, 1867, 4345, 4348, 1836, 1837, 4344, 4343], 's_0_6': [4464], 8: [2260, 2255, 5408, 4738, 4737, 2259, 2258, 2257, 1603, 1602, 1601, 1600, 1599, 2256, 4271, 4270, 4269, 1777, 1778, 4539, 4538, 1598], 's_0_8': [2002], 9: [4866, 4645, 1329, 1330, 1331, 2473, 1332, 5307, 5302, 5303, 5367, 5366, 2188, 5306, 1959, 1960, 1961, 1962, 5305, 5304], 's_0_9': [4750], 10: [5016, 5410, 2349, 2153, 4692, 4690, 4691, 1376, 1377, 5272, 5273, 5274, 5275, 2052, 2023, 5291, 2157, 2156, 2155, 2154, 4706], 's_0_10': [1542], 12: [1597, 4963, 4962, 4961, 4960, 4403, 1522, 1523, 1524, 1525, 4957, 1814, 1813, 1812, 1811, 4959, 4958], 's_0_12': [4793], 13: [5200, 1319, 2379, 4569, 2380, 1824, 1825, 4854, 1409, 5617, 5618, 5497, 5619, 5620, 2068, 2069, 2485, 4857, 4856, 4855, 2065, 2066, 2067], 's_0_13': [1809], 14: [5294, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 5211, 5212, 1662, 2563, 5278, 5277, 5276, 2127, 5215, 5214, 5213], 's_0_14': [4614], 16: [2293, 4178, 2292, 4179, 3969, 3970, 3971, 3972, 2291, 2290, 4707, 2289, 2288, 1866, 2287, 1865, 2286, 2285], 's_0_16': [2302], 17: [1672, 2396, 4948, 4947, 4946, 4945, 4944, 4972, 1649, 1648, 1647, 1646, 1673, 1674, 1675, 1676, 4974, 4973], 's_0_17': [4718], 18: [5216, 5217, 2284, 2142, 5068, 3847, 3848, 2442, 2441, 2440, 2439, 2438, 3849, 3850, 3851, 3852, 2345, 3957, 2437, 2436, 2435], 's_0_18': [4302], 19: [2651, 4633, 1670, 4509, 4510, 2036, 2035, 2650, 2649, 2648, 4589, 4588, 4587, 4586, 2034, 2033, 3952, 2032, 2031, 4015, 1940, 3954, 3953], 's_0_19': [4450], 20: [5351, 1956, 1957, 1958, 5264, 5263, 4480, 4482, 2453, 4481, 2454, 2455, 2456, 2457, 2324, 2323, 5352], 's_0_20': [4479], 21: [3882, 3883, 4779, 2525, 5412, 5413, 5414, 4780, 4781, 4782, 2709, 2526, 2527, 2528, 2713, 2712, 2711, 2710, 4784, 2529, 2530, 4783], 's_0_21': [1869], 22: [4288, 1574, 1573, 1572, 1571, 1431, 1432, 2557, 4214, 1570, 4822, 1509, 1508, 1507, 4372, 4373, 4374, 4375, 4376, 2213, 2212, 4212, 4213], 's_0_22': [5333], 24: [5084, 5083, 5082, 5081, 5080, 5095, 1738, 1737, 4061, 4060, 1851, 1852, 1853, 4524, 1733, 5094, 1736, 1734, 1735], 's_0_24': [4749], 25: [5398, 5397, 4448, 1685, 1686, 4975, 4631, 2083, 1687, 1688, 4599, 4600, 5396, 5395, 2008, 1684, 2007, 2006, 2005, 2004, 4630], 's_0_25': [1854], 26: [4949, 4392, 5382, 5383, 4000, 4001, 4002, 2623, 2622, 2621, 3999, 2620, 2619, 2361, 4272, 2362, 2363, 2365, 2364, 4662, 4663], 's_0_26': [2467], 27: [1619, 1794, 4117, 1919, 1719, 1445, 1446, 1447, 4689, 5607, 4688, 5606, 5605, 1448, 5604, 5603, 5602, 1454, 1453, 1452, 1451, 1450, 1449, 4687], 's_0_27': [5362], 28: [2421, 2135, 2420, 5244, 4092, 4091, 2136, 2137, 1857, 5110, 5111, 2141, 2140, 2138, 2139], 's_0_28': [4301], 29: [2647, 2646, 2645, 1990, 4840, 4839, 4838, 4837, 4836, 4841, 3913, 3912, 3911, 3910, 3909, 1255, 1254, 3908, 3907, 3906, 1250, 1251, 1252, 1253], 's_0_29': [4656], 30: [2128, 5350, 5065, 1795, 1796, 4432, 1433, 1434, 1435, 1436, 5077, 1497, 5123, 1976, 1993, 1992, 5125, 5124], 's_0_30': [1541, 1540, 4913], 32: [1645, 2616, 4229, 4732, 4733, 4734, 4228, 4227, 4226, 4225, 1941, 4736, 4735, 1944, 1943, 1942], 's_0_32': [4405], 35: [4386, 2232, 1327, 4387, 4388, 5129, 5128, 5127, 2231, 2230, 2229, 4676, 1628, 1629, 4673, 4674, 4675], 's_0_35': [4628, 1749], 36: [2097, 2098, 5486, 2480, 5543, 5544, 5545, 4077, 4078, 2481, 2482, 4333, 2587, 2588, 2589, 2590, 2591, 2592, 5548, 5547, 5546, 2593, 2189], 's_0_36': [2316], 37: [2094, 4843, 1467, 2095, 2096, 5156, 2635, 5227, 5020, 5228, 5229, 5230, 5231, 2637, 2636, 5173, 5172, 5171, 2187], 's_0_37': [5167], 38: [4238, 5247, 1492, 4032, 1731, 2202, 2201, 2200, 2199, 2196, 2197, 5246, 2198, 4361, 4360, 1715, 1716, 4239, 1792, 4359, 1838, 1839, 4644], 's_0_38': [1913], 's_1_2': [5001], 4: [2678, 2679, 2680, 5513, 5514, 2665, 4934, 4933, 1903, 5515, 1902, 1901, 4932, 4931, 4930, 1900], 's_1_4': [1841], 's_1_5': [4043, 1641], 7: [1303, 5271, 5152, 1326, 1318, 1317, 1316, 1315, 4716, 2061, 2601, 1344, 1343, 1342, 4131, 4132, 4133, 4134, 1341, 4135, 4136, 4137, 4138], 's_1_7': [1340], 's_1_8': [4988], 's_1_9': [4927], 's_1_10': [5017], 11: [5063, 1706, 1511, 5182, 5183, 5184, 5185, 2426, 1437, 4859, 2770, 2771, 2082, 2081, 5054, 5053, 5052, 5051], 's_1_11': [2756], 's_1_13': [4869, 1810], 's_1_16': [4991], 's_1_17': [1826], 's_1_18': [4992], 's_1_21': [2726], 23: [1362, 1361, 1360, 1359, 1358, 5181, 1356, 1355, 3982, 1357, 2378, 4393, 4394, 2677, 4289, 2782, 3983, 3984, 3985, 3986, 3987, 3988, 3989, 2780, 2781], 's_1_23': [4147], 's_1_24': [4914], 's_1_25': [1915], 's_1_26': [2366], 's_1_27': [4057], 's_1_30': [1421], 's_1_32': [1615, 4778], 33: [4990, 2697, 4977, 4978, 4979, 2111, 4244, 2572, 2573, 2603, 2696, 4994, 2785, 2784, 4976, 2783, 4529, 4528], 's_1_33': [2846], 34: [5233, 4581, 2405, 1269, 1268, 1267, 4266, 4267, 1551, 4163, 4164, 4165, 4166, 4167, 2472, 5187, 2411, 2410, 2409, 2408, 2407, 2406], 's_1_34': [4087, 1550], 's_1_35': [4672], 's_1_37': [2605], 's_1_38': [4312], 's_2_4': [1769, 1768], 's_2_5': [4181], 's_2_6': [4451, 2227], 's_2_7': [5391], 's_2_8': [1618], 's_2_9': [1963], 's_2_10': [1406, 1407], 's_2_11': [1438], 's_2_13': [5575], 's_2_14': [2322], 15: [2246, 5112, 2248, 4124, 4437, 4438, 2510, 2511, 2512, 2515, 2516, 5113, 2513, 4123, 2397, 1918, 5425, 2514, 5426, 5427, 2398], 's_2_15': [5456], 's_2_17': [2395], 's_2_18': [2452], 's_2_19': [4465], 's_2_21': [2305], 's_2_22': [5438], 's_2_23': [5361], 's_2_24': [5439], 's_2_25': [5470, 1933, 5394, 1783], 's_2_28': [4241], 's_2_29': [2110], 's_2_30': [5242], 's_2_32': [2182], 's_2_34': [4917], 's_2_35': [2245], 's_2_36': [1873], 's_2_37': [5107], 's_2_38': [2183], 39: [2543, 4424, 4423, 5139, 5138, 1534, 4422, 4421, 1535, 4419, 4568, 1483, 1482, 1481, 1480, 1479, 4642, 4418, 4223, 1536, 4420, 1537, 1538], 's_2_39': [2333], 3: [5038, 2412, 2125, 2124, 2047, 2048, 4601, 4602, 4603, 2630, 5203, 2585, 4093, 2496, 2497, 5293, 2502, 2501, 2500, 2498, 2499], 's_5_3': [2243], 's_5_6': [4495], 's_5_7': [1806], 's_5_8': [1553], 's_5_9': [2078], 's_5_10': [4571], 's_5_11': [4844], 's_5_12': [4627], 's_5_13': [4584], 's_5_14': [4118], 's_5_15': [2303], 's_5_16': [1880], 's_5_18': [2089], 's_5_19': [2544], 's_5_20': [2468], 's_5_21': [4544], 's_5_22': [4526], 's_5_23': [1730], 's_5_24': [4076], 's_5_25': [2184], 's_5_28': [4541], 's_5_30': [4582], 31: [2020, 2321, 2736, 2737, 2738, 1855, 4747, 4748, 1630, 4808, 2740, 4814, 2739, 2320, 4809, 4810, 4811, 4812, 4813], 's_5_31': [4634], 's_5_32': [1926], 's_5_33': [2753], 's_5_34': [1626], 's_5_36': [4678], 's_5_37': [4889], 's_5_39': [1644], 's_6_3': [4525], 's_6_4': [4915], 's_6_8': [4329], 's_6_9': [4806], 's_6_10': [4705], 's_6_13': [4900], 's_6_14': [5196], 's_6_15': [2242], 's_6_16': [4075], 's_6_18': [1835], 's_6_20': [4555], 's_6_21': [4795], 's_6_23': [4349], 's_6_24': [4119], 's_6_25': [4328], 's_6_26': [2377], 's_6_27': [4327], 's_6_28': [4331], 's_6_29': [4791], 's_6_31': [4746], 's_6_32': [4089], 's_6_35': [4356], 's_6_38': [4014], 's_6_39': [1912], 's_8_3': [2319], 's_8_4': [1708, 5393], 's_8_7': [2226], 's_8_9': [1678], 's_8_10': [5409], 's_8_11': [2261], 's_8_12': [4943], 's_8_13': [1703], 's_8_14': [5093], 's_8_15': [4723], 's_8_16': [4407], 's_8_17': [4553], 's_8_18': [2254], 's_8_19': [1883], 's_8_20': [2273], 's_8_21': [4693, 2469], 's_8_22': [5423], 's_8_24': [4299], 's_8_26': [4752], 's_8_27': [1614], 's_8_28': [4106], 's_8_31': [4763], 's_8_33': [2604], 's_8_34': [4152], 's_8_35': [4661], 's_8_38': [4047], 's_8_39': [5108], 's_9_3': [5292], 's_9_4': [5155], 's_9_7': [5046], 's_9_11': [1932], 's_9_12': [1345], 's_9_13': [1333], 's_9_14': [1663], 's_9_15': [2368], 's_9_16': [2307], 's_9_17': [1634, 1633], 's_9_18': [5323], 's_9_19': [4660, 1989], 's_9_21': [2488], 's_9_22': [5288], 's_9_23': [4792], 's_9_24': [1722], 's_9_26': [5368], 's_9_27': [5287], 's_9_28': [1797], 's_9_29': [4671], 's_9_34': [5308], 's_9_36': [5428], 's_9_38': [2427], 's_9_39': [1782], 's_10_3': [4796], 's_10_7': [5031], 's_10_11': [2112], 's_10_16': [2304], 's_10_18': [4647], 's_10_19': [4720, 2049], 's_10_20': [2173], 's_10_21': [5411], 's_10_23': [5346], 's_10_24': [5259], 's_10_25': [5290], 's_10_26': [2394], 's_10_27': [5317], 's_10_28': [4751], 's_10_30': [1977], 's_10_31': [2079], 's_10_32': [2109], 's_10_33': [5066], 's_10_35': [4901], 's_10_36': [2024], 's_10_39': [1498], 's_12_4': [5364], 's_12_11': [2486], 's_12_14': [4929], 's_12_15': [5424], 's_12_16': [1596], 's_12_17': [4404], 's_12_18': [2471], 's_12_22': [4928], 's_12_23': [4912], 's_12_24': [5469], 's_12_25': [1946], 's_12_27': [5559], 's_12_28': [5079], 's_12_29': [1510], 's_12_30': [4899], 's_12_32': [4717], 's_12_33': [2546], 's_12_35': [4433], 's_12_36': [5529], 's_12_37': [2126], 's_12_38': [4358, 4357], 's_12_39': [4702], 's_13_3': [2484], 's_13_4': [5498], 's_13_7': [1304], 's_13_11': [5170], 's_13_14': [5141], 's_13_15': [4903], 's_13_20': [4918], 's_13_21': [2185], 's_13_22': [5633], 's_13_23': [1363], 's_13_26': [4722], 's_13_27': [1724], 's_13_28': [5245], 's_13_29': [1840], 's_13_30': [5380, 2053], 's_13_31': [4719], 's_13_32': [4629], 's_13_34': [4827], 's_13_36': [1964], 's_13_38': [4554], 's_14_3': [2607], 's_14_4': [5199], 's_14_11': [5168], 's_14_15': [1917], 's_14_16': [3968], 's_14_17': [4493], 's_14_19': [3938], 's_14_21': [2728], 's_14_23': [1287], 's_14_24': [2562], 's_14_25': [3864], 's_14_27': [4703], 's_14_28': [1887], 's_14_29': [4853], 's_14_31': [4823], 's_14_32': [4883], 's_14_33': [5309], 's_14_34': [4148], 's_14_36': [2564], 's_14_37': [1872], 's_14_38': [1747, 4313], 's_14_39': [1617], 's_16_3': [5232], 's_16_7': [1881], 's_16_11': [5186], 's_16_15': [5036], 's_16_18': [1985], 's_16_19': [2030], 's_16_20': [5442], 's_16_21': [4708], 's_16_22': [4286], 's_16_23': [2180], 's_16_24': [4030], 's_16_25': [5381], 's_16_26': [4512], 's_16_28': [3941], 's_16_29': [2105], 's_16_31': [2274], 's_16_32': [4284], 's_16_34': [1746], 's_16_36': [2294], 's_16_37': [5201], 's_16_38': [4494, 1808, 1807, 4194], 's_16_39': [1627], 's_17_4': [5018, 5019], 's_17_7': [4389, 1762, 1761], 's_17_11': [5078, 1691], 's_17_19': [4508], 's_17_22': [5468], 's_17_23': [1375], 's_17_24': [1781], 's_17_25': [4298], 's_17_26': [2470, 4873, 4872], 's_17_27': [4193, 1566], 's_17_28': [5243], 's_17_29': [1690], 's_17_30': [1586], 's_17_32': [4868], 's_17_33': [2381], 's_17_34': [4902], 's_17_35': [4463], 's_17_36': [5528], 's_17_38': [4209], 's_17_39': [1496, 5062], 's_18_3': [4003], 's_18_4': [2531], 's_18_7': [4153], 's_18_11': [2561], 's_18_15': [2217], 's_18_19': [1895, 1894], 's_18_20': [2143], 's_18_21': [2224], 's_18_22': [2451], 's_18_25': [1699], 's_18_26': [4452], 's_18_27': [1460], 's_18_28': [4033], 's_18_29': [2269], 's_18_31': [5022], 's_18_34': [5202], 's_18_37': [2247], 's_18_38': [2172], 's_18_39': [4363], 's_19_3': [4828], 's_19_4': [4904], 's_19_11': [4874], 's_19_15': [4436], 's_19_20': [1955], 's_19_21': [4604, 2724], 's_19_23': [1520], 's_19_24': [1986], 's_19_25': [3894], 's_19_26': [1970], 's_19_27': [1718], 's_19_28': [4766], 's_19_29': [1790], 's_19_30': [5050], 's_19_31': [4825], 's_19_32': [2016, 2017], 's_19_33': [2618, 4514], 's_19_34': [4180, 1971], 's_19_35': [5114], 's_19_36': [4619], 's_19_37': [4858], 's_19_38': [1868], 's_19_39': [1793], 's_20_3': [2487], 's_20_7': [4120], 's_20_11': [5037], 's_20_15': [5517], 's_20_21': [2743], 's_20_22': [1988], 's_20_23': [2393], 's_20_25': [2203], 's_20_27': [5592], 's_20_28': [4496], 's_20_30': [5321, 2158], 's_20_31': [4842], 's_20_33': [2483], 's_20_34': [4753], 's_20_35': [5337], 's_20_36': [5532], 's_20_37': [2517], 's_20_38': [2003], 's_20_39': [4513], 's_21_3': [4258], 's_21_4': [2664, 4769], 's_21_7': [4183], 's_21_15': [4273], 's_21_22': [2633, 2632, 2634, 4303], 's_21_23': [2210], 's_21_24': [5099, 2742], 's_21_25': [2353], 's_21_26': [5384], 's_21_27': [4794], 's_21_28': [2419], 's_21_29': [2540], 's_21_30': [1780], 's_21_32': [1884], 's_21_34': [4408], 's_21_35': [2727], 's_21_36': [4574], 's_21_37': [5159], 's_21_38': [4048, 2450, 3942, 2315], 's_21_39': [4453], 's_22_3': [2556], 's_22_4': [1484, 5542], 's_22_15': [2691], 's_22_23': [1372], 's_22_24': [1732], 's_22_25': [1717], 's_22_26': [2347], 's_22_27': [4222], 's_22_28': [4196], 's_22_29': [1430], 's_22_30': [4507], 's_22_31': [4807], 's_22_32': [2466], 's_22_33': [2558], 's_22_34': [2241], 's_22_35': [4371], 's_22_36': [4318], 's_22_37': [5197], 's_22_38': [2211], 's_22_39': [1702], 's_24_4': [1723], 's_24_7': [2106], 's_24_15': [2547], 's_24_26': [2045], 's_24_27': [1739], 's_24_28': [2181], 's_24_29': [1850], 's_24_30': [5064], 's_24_33': [2786], 's_24_34': [2001], 's_24_35': [2306], 's_24_36': [4062], 's_24_37': [1842], 's_24_38': [4240], 's_25_3': [2228], 's_25_4': [5320, 5319, 1798], 's_25_15': [2263], 's_25_26': [2518], 's_25_27': [2009], 's_25_28': [5140], 's_25_30': [4447, 4462], 's_25_31': [2019], 's_25_33': [5035], 's_25_35': [4523], 's_25_36': [2443], 's_25_37': [2638], 's_25_38': [4029], 's_25_39': [4434], 's_26_3': [4617], 's_26_4': [4754], 's_26_7': [2166], 's_26_15': [2413], 's_26_23': [1910], 's_26_28': [4017], 's_26_31': [4739], 's_26_32': [2392], 's_26_35': [4797], 's_26_37': [5249], 's_26_38': [4149, 1821], 's_26_39': [2272], 's_27_4': [1904], 's_27_7': [4237], 's_27_11': [5047], 's_27_15': [2249], 's_27_30': [4477], 's_27_31': [1389], 's_27_32': [1539], 's_27_34': [4282], 's_27_36': [2309], 's_27_37': [5137], 's_27_38': [4297], 's_27_39': [5392], 's_28_3': [4063], 's_28_11': [1916], 's_28_23': [2150], 's_28_30': [5109], 's_28_31': [1856], 's_28_32': [4211], 's_28_33': [5126], 's_28_34': [4151], 's_28_35': [4871], 's_28_36': [2346], 's_28_37': [1752], 's_28_38': [2240], 's_28_39': [1767], 's_29_3': [2584], 's_29_7': [1236], 's_29_15': [3928], 's_29_23': [1610], 's_29_30': [4431], 's_29_32': [4199], 's_29_33': [2662], 's_29_34': [4191], 's_29_35': [1192, 1193, 4596], 's_29_36': [3927], 's_29_37': [1991], 's_29_39': [4417, 4416], 's_30_4': [5335], 's_30_11': [5365], 's_30_15': [5441], 's_30_23': [4942], 's_30_31': [4824], 's_30_32': [1419], 's_30_33': [2021], 's_30_35': [1388, 4446, 1283], 's_30_37': [1632], 's_30_39': [4537], 's_32_3': [2631], 's_32_7': [4731], 's_32_15': [2676], 's_32_23': [2617], 's_32_31': [1584], 's_32_33': [2586], 's_32_34': [4150], 's_32_35': [4598, 4597, 1404], 's_32_36': [2331], 's_32_37': [4721], 's_32_38': [4615], 's_35_3': [2214], 's_35_4': [2681], 's_35_7': [4613, 4612], 's_35_11': [5261], 's_35_15': [2532], 's_35_23': [1328, 4641], 's_35_31': [1914], 's_35_33': [5096], 's_35_34': [1298, 4506], 's_35_37': [2577], 's_35_38': [5142], 's_35_39': [1643], 's_36_3': [5023], 's_36_4': [1888], 's_36_7': [2541], 's_36_15': [5487], 's_36_23': [4409], 's_36_31': [4334], 's_36_33': [4964], 's_36_34': [4168], 's_36_37': [5218], 's_36_38': [2225], 's_36_39': [2602], 's_37_3': [4916], 's_37_7': [5226], 's_37_11': [2051], 's_37_23': [5122], 's_37_31': [2545], 's_37_33': [2080], 's_37_34': [2352], 's_37_39': [1587], 's_38_4': [2216], 's_38_7': [1701], 's_38_15': [5157, 2367], 's_38_23': [2300], 's_38_31': [2215], 's_38_34': [5248], 's_38_39': [1582, 1583], 's_4_15': [5500], 's_4_23': [4454], 's_4_31': [4499], 's_4_39': [1513, 5422], 's_7_3': [2661], 's_7_15': [4139], 's_7_23': [1302], 's_7_31': [1300], 's_7_33': [4259], 's_7_34': [4686], 's_7_39': [1506], 's_11_3': [5039], 's_11_15': [5097], 's_11_23': [5257], 's_11_31': [2725], 's_11_34': [5067], 's_11_39': [1827], 's_23_3': [4004], 's_23_15': [2796], 's_23_33': [2708], 's_23_34': [4281], 's_33_3': [4993], 's_33_15': [4543], 's_33_34': [5234], 's_33_39': [2663], 's_34_3': [4768], 's_34_15': [4618], 's_34_31': [2424], 's_34_39': [1552], 's_15_3': [3943], 's_15_31': [2751], 's_15_39': [2422], 's_39_3': [4483], 's_3_31': [4094]}</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0.0029888</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.002125397506350283</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>{0: [3486, 1395, 1396, 1398, 3487, 1397], 1: [1155, 3052, 3050, 3156, 3051], 3: [3531, 3532, 3533, 1502, 1500, 1501], 4: [3516, 3518, 1350, 3517, 1352, 1351], 5: [1036, 1035, 3098, 3097, 3095, 3096], 6: [3143, 3142, 1382, 1381, 1380], 8: [1125, 3065, 3382, 1140, 3381, 3380, 1141], 9: [3035, 3036, 1546, 1545, 3037], 11: [3199, 1126, 3202, 3201, 3200], 12: [3260, 3261, 3263, 3262], 13: [1200, 1201, 3277, 1277, 3276], 14: [1608, 1305, 2991, 2992, 2993, 1607, 1606, 1605], 15: [1021, 1020, 3128, 3125, 3126, 3127], 16: [1170, 1171, 1172, 3443, 3442, 3441], 17: [1275, 3218, 3217, 1276, 3215, 3216], 18: [2976, 2977, 2978, 1578, 1577, 1576, 1575], 19: [3068, 3336, 3337, 1530, 1531, 3338], 20: [1563, 3158, 1562, 1561, 3021, 3022, 1560], 21: [3592, 1443, 1440, 1441, 1442], 23: [1245, 1246, 3307, 3306], 24: [3622, 1485, 1486, 1488, 3621, 1487], 25: [3351, 1263, 1260, 1261, 3427, 3426, 1262], 27: [3308, 3488, 3637, 1518, 1515, 1516, 1517], 28: [1185, 3473, 3472, 1186, 1187, 3471], 29: [3457, 3456, 1230, 1231, 1232], 30: [3187, 1081, 3185, 3186], 31: [3067, 3066, 1216, 1215], 32: [3412, 1456, 1458, 1457], 33: [1592, 3353, 1320, 1321, 3352], 34: [3397, 3291, 1247, 1306, 1307, 3396], 35: [1335, 1336, 3503, 3502, 1337], 36: [1006, 1005, 3113, 3112, 3110, 3111], 37: [1290, 3563, 3562, 3561, 1291, 1292, 3411, 1322], 38: [1217, 1110, 1111, 1112, 3367, 3366, 3365], 39: [991, 1080, 1455, 3082, 3081, 990, 3080], 40: [1428, 1427, 3232, 1425, 1426], 2: [1413, 1410, 1411, 1412], 10: [3607, 1473, 1470, 1471, 1472], 22: [3323, 3322, 3321, 1065, 1066, 3320], 26: [3230, 1096, 931, 3170, 3173, 3171, 3172], 7: [1621, 3248, 3247, 3245, 3246]}</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.3808314739298813</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.03766059669142355</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>{0: [3486, 1395, 1396, 1398, 3487, 1397], 1: [1155, 3052, 3050, 3156, 3051], 3: [3531, 3532, 3533, 1502, 1500, 1501], 4: [3516, 3518, 1350, 3517, 1352, 1351], 5: [1036, 1035, 3098, 3097, 3095, 3096], 6: [3143, 3142, 1382, 1381, 1380], 8: [1125, 3065, 3382, 1140, 3381, 3380, 1141], 9: [3035, 3036, 1546, 1545, 3037], 11: [3199, 1126, 3202, 3201, 3200], 12: [3260, 3261, 3263, 3262], 13: [1200, 1201, 3277, 1277, 3276], 14: [1608, 1305, 2991, 2992, 2993, 1607, 1606, 1605], 15: [1021, 1020, 3128, 3125, 3126, 3127], 16: [1170, 1171, 1172, 3443, 3442, 3441], 17: [1275, 3218, 3217, 1276, 3215, 3216], 18: [2976, 2977, 2978, 1578, 1577, 1576, 1575], 19: [3068, 3336, 3337, 1530, 1531, 3338], 20: [1563, 3158, 1562, 1561, 3021, 3022, 1560], 21: [3592, 1443, 1440, 1441, 1442], 23: [1245, 1246, 3307, 3306], 24: [3622, 1485, 1486, 1488, 3621, 1487], 25: [3351, 1263, 1260, 1261, 3427, 3426, 1262], 27: [3308, 3488, 3637, 1518, 1515, 1516, 1517], 28: [1185, 3473, 3472, 1186, 1187, 3471], 29: [3457, 3456, 1230, 1231, 1232], 30: [3187, 1081, 3185, 3186], 31: [3067, 3066, 1216, 1215], 32: [3412, 1456, 1458, 1457], 33: [1592, 3353, 1320, 1321, 3352], 34: [3397, 3291, 1247, 1306, 1307, 3396], 35: [1335, 1336, 3503, 3502, 1337], 36: [1006, 1005, 3113, 3112, 3110, 3111], 37: [1290, 3563, 3562, 3561, 1291, 1292, 3411, 1322], 38: [1217, 1110, 1111, 1112, 3367, 3366, 3365], 39: [991, 1080, 1455, 3082, 3081, 990, 3080], 40: [1428, 1427, 3232, 1425, 1426], 2: [1413, 1410, 1411, 1412], 10: [3607, 1473, 1470, 1471, 1472], 22: [3323, 3322, 3321, 1065, 1066, 3320], 26: [3230, 1096, 931, 3170, 3173, 3171, 3172], 7: [1621, 3248, 3247, 3245, 3246]}</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0.3808314739298813</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.03766059669142355</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>{0: [1698, 4443, 4444, 1043, 1042, 1041, 3754, 1040, 3609, 3608, 3607, 3606, 3605, 1038, 1039], 1: [892, 1013, 1012, 3338, 1607, 3684, 3683, 1608, 4384, 4385, 1609, 1613, 4389, 4386, 4387, 4388, 1610, 1611, 1612], 's_0_1': [4489], 3: [920, 424, 997, 1653, 1654, 1655, 1656, 1657, 4313, 4312, 4311, 4310, 425, 426, 4232, 921, 4233, 4234, 922, 4309], 's_0_3': [919], 4: [833, 832, 756, 757, 1907, 1908, 4291, 1909, 1910, 1911, 1912, 4299, 4292, 4293, 4294, 4295, 4296, 4297, 4298], 's_0_4': [982], 5: [4224, 1187, 1822, 1821, 4044, 1760, 3923, 1625, 3453, 3454, 3455, 3456, 3457, 3458, 1623, 1624], 's_0_5': [1638], 6: [1988, 634, 4360, 4704, 4705, 1974, 1973, 1971, 1970, 3872, 3873, 3874, 3875, 3876, 3877, 3878, 1972, 3879, 3880], 's_0_6': [1009], 8: [4354, 846, 1517, 1518, 3727, 3726, 3725, 1068, 4355, 1072, 1007, 1008, 3710, 1069, 1070, 1071, 4055, 4053, 4054], 's_0_8': [3544], 9: [3790, 3782, 3932, 665, 664, 1459, 1834, 3789, 3788, 3783, 3784, 3787, 3786, 3785], 's_0_9': [1458], 11: [4569, 1778, 1777, 1776, 4074, 769, 770, 771, 4069, 4070, 4071, 1505, 4073, 4072], 's_0_11': [1026], 12: [1117, 1443, 3573, 4398, 697, 696, 695, 3903, 829, 3562, 3561, 1233, 1234, 3861, 1116, 3543, 858, 859, 3829, 3830, 1115], 's_0_12': [4026, 4025], 13: [1759, 1699, 3758, 4176, 1223, 1222, 783, 1083, 4373, 4372, 4371, 1207, 1206, 1204, 1205, 3757, 3756, 3755, 1084, 3680, 3679], 's_0_13': [934], 14: [1509, 4339, 707, 708, 709, 710, 3933, 816, 817, 4369, 1944, 923, 815, 924, 4669, 4765, 4764, 4763, 4762, 1104, 1344, 4671, 967, 4670], 's_0_14': [1044], 15: [3637, 2001, 2002, 2003, 2004, 3636, 1188, 4615, 4614, 4613, 4612, 1189, 1190, 1191, 1192, 1193, 4611], 's_0_15': [3635], 16: [4600, 3276, 3277, 3278, 3279, 4178, 1868, 3594, 4435, 1867, 3804, 3219, 4179, 1866, 1865, 1864, 1863, 1862, 1861], 's_0_16': [1818], 17: [1329, 1328, 4239, 1327, 4358, 1597, 4238, 4237, 1326, 3936, 1201, 1202, 3441, 1322, 1323, 1324, 1325], 's_0_17': [3621], 18: [3812, 1640, 1081, 3819, 3818, 3817, 3816, 3813, 3814, 3245, 1021, 1022, 1023, 1024, 3815], 's_0_18': [3620], 19: [4658, 1277, 4657, 1419, 1418, 1417, 3426, 3427, 1412, 1413, 1414, 1415, 1416], 's_0_19': [1428], 20: [949, 2108, 950, 4480, 4472, 938, 4473, 951, 952, 953, 4479, 4478, 4477, 4476, 4475, 4474], 's_0_20': [3904], 21: [3384, 4022, 397, 874, 3383, 3382, 3381, 1247, 964, 679, 1248, 1249, 3846, 3845, 3844, 3843, 3842, 395, 396], 's_0_21': [889, 3739], 23: [3558, 3559, 3529, 1959, 873, 872, 871, 3199, 3200, 1958, 1957, 1956, 3201, 3202, 3203, 1756, 3294, 1847, 1848, 1849, 1850, 1851, 4135, 4134], 's_0_23': [3604], 24: [4067, 954, 4628, 4627, 4626, 1269, 4566, 962, 3515, 3514, 3513, 3512, 484, 485, 486, 487, 488, 4562, 483, 4563, 4564, 4565], 's_0_24': [848], 25: [4195, 3623, 3230, 3231, 4629, 4630, 4690, 4571, 3232, 1561, 1562, 1564, 1563, 3653, 3654, 3655, 2029, 2030, 2031, 2032, 2033, 2034], 's_0_25': [1593], 27: [3917, 743, 1224, 1087, 4585, 1854, 4644, 4643, 545, 546, 547, 4322, 622, 4642, 4640, 1089, 1088, 4641, 4430, 4429, 4428], 's_0_27': [4535], 28: [1775, 740, 3963, 3964, 3965, 1715, 3969, 4551, 1343, 1342, 1341, 3968, 3967, 3966, 1340], 's_0_28': [4550], 29: [1491, 4766, 2154, 2153, 2152, 4431, 4401, 3651, 1279, 4144, 4241, 2046, 1280, 1283, 1282, 4150, 4149, 4145, 1281, 4146, 4147, 4148], 's_0_29': [4160], 30: [3982, 1969, 1475, 3715, 3714, 3713, 1474, 1489, 1097, 1098, 1099, 3800, 3801, 3802], 's_0_30': [1488], 31: [2047, 4415, 4421, 4420, 3920, 4419, 4418, 4417, 1129, 1130, 3980, 1145, 1146, 1147, 4416], 's_0_31': [1028], 32: [2076, 2122, 558, 3977, 559, 2121, 560, 4120, 1836, 4119, 4028, 1476, 3452, 561, 4118, 4117, 4116, 4112, 4113, 4114, 4115], 's_0_32': [4129], 33: [4103, 3409, 1733, 3410, 3411, 3412, 3413, 1732, 1731, 1730, 1729, 1726, 1727, 1728], 's_0_33': [3593], 34: [3218, 3158, 3309, 3368, 1396, 3992, 1636, 591, 1696, 4082, 4083, 4084, 4085, 4086, 3248, 3247, 1366, 1367, 1368, 1369, 1370], 's_0_34': [1353], 35: [4702, 1942, 1941, 4210, 3797, 3798, 1464, 1463, 1462, 4209, 4208, 1536, 4282, 4281, 4280, 799, 800, 801, 4278, 4279], 's_0_35': [3753], 36: [666, 621, 336, 533, 2048, 4525, 4127, 4517, 681, 682, 683, 4126, 4518, 4524, 4523, 4522, 4521, 4520, 4519], 's_0_36': [4442], 37: [4359, 1717, 723, 724, 725, 4457, 2077, 726, 727, 728, 4465, 4464, 4463, 4462, 4461, 4460, 4459, 713, 802, 4458], 's_0_37': [893], 38: [4325, 4326, 4327, 1477, 3429, 4223, 1554, 1553, 1552, 1637, 3428, 1547, 1548, 1549, 1550, 1551], 's_0_38': [1177, 4445], 39: [863, 3946, 861, 860, 4000, 3947, 3948, 3949, 1940, 3954, 3953, 3952, 3951, 862, 3950], 's_0_39': [3934], 40: [3591, 787, 786, 3501, 1231, 4187, 3264, 3263, 3262, 1351, 3307, 3306, 1112, 3589, 4188, 4189, 4190, 1056, 1055, 1054, 1053, 3590, 1113], 's_0_40': [1143], 2: [4507, 1838, 4537, 1508, 1507, 4403, 4404, 4405, 1927, 1926, 3186, 3187, 3188, 3189, 1921, 1922, 1923, 1924, 3908, 3909, 1925], 's_1_2': [3685], 's_1_3': [4013], 's_1_4': [1582], 's_1_6': [1595], 's_1_8': [1027], 's_1_9': [1594], 10: [3364, 3365, 548, 3517, 1336, 4397, 1382, 1383, 1384, 1385, 4042, 1296, 1297, 4266, 3366, 4265, 4264, 4263, 4262, 1335, 532], 's_1_10': [4043], 's_1_11': [1792], 's_1_13': [1268], 's_1_14': [1014], 's_1_15': [4390], 's_1_16': [1531], 's_1_20': [1298], 's_1_21': [1622], 22: [4186, 441, 4057, 1743, 1744, 4217, 4218, 3563, 4219, 4220, 4221, 1745, 4206, 4207, 1747, 1746, 4133, 4132, 1431], 's_1_22': [4058], 's_1_24': [4610], 's_1_25': [3668], 26: [3534, 4584, 1809, 3423, 3424, 932, 3335, 3336, 1217, 1808, 1807, 1806, 1805, 3485, 3486, 3487, 3488, 3489, 1803, 1804], 's_1_26': [1577], 's_1_27': [4383], 's_1_28': [3983], 's_1_29': [1011], 's_1_30': [3698], 's_1_31': [1628], 's_1_33': [1487], 's_1_36': [773], 's_1_37': [758], 's_1_38': [4553], 's_1_39': [3938], 's_1_40': [1501], 's_3_4': [4024], 's_3_5': [3833], 's_3_6': [439], 7: [4102, 1251, 1250, 1261, 1262, 1263, 1264, 1265, 3891, 4101, 3890, 3889, 3888, 3887, 3886, 3961, 352, 351, 350], 's_3_7': [349, 3826], 's_3_8': [906], 's_3_10': [1252], 's_3_12': [3859], 's_3_13': [1237], 's_3_14': [4400], 's_3_15': [3638], 's_3_16': [4193], 's_3_17': [1687], 's_3_18': [3811], 's_3_19': [1432], 's_3_20': [4099], 's_3_21': [4247], 's_3_22': [3743], 's_3_24': [4052], 's_3_25': [3473], 's_3_26': [1668], 's_3_27': [4037], 's_3_28': [4088], 's_3_30': [1669], 's_3_31': [1702], 's_3_32': [606], 's_3_33': [3548], 's_3_34': [3991], 's_3_35': [3796], 's_3_36': [471], 's_3_37': [4338, 742], 's_3_38': [1492], 's_3_40': [4249], 's_4_2': [3625], 's_4_6': [4300], 's_4_7': [4246, 367], 's_4_8': [4128], 's_4_9': [3729], 's_4_10': [472], 's_4_12': [652], 's_4_13': [1372], 's_4_14': [4579], 's_4_15': [4255], 's_4_16': [3505], 's_4_19': [4357, 1357], 's_4_20': [937], 's_4_21': [3399, 1817], 's_4_22': [3519, 3520], 's_4_23': [3535], 's_4_24': [502], 's_4_25': [3744, 1984, 3745], 's_4_27': [4307], 's_4_28': [3924], 's_4_30': [3865], 's_4_32': [562], 's_4_33': [3579, 1833, 3459], 's_4_34': [3993], 's_4_35': [1672], 's_4_36': [818], 's_4_37': [4158], 's_4_38': [3430], 's_4_39': [3985], 's_5_2': [1823], 's_5_8': [992], 's_5_10': [1293, 3471], 's_5_11': [4269], 's_5_12': [768], 's_5_13': [782], 's_5_14': [692], 's_5_15': [4225], 's_5_16': [4014], 's_5_17': [1701], 's_5_19': [1427], 's_5_21': [3531], 's_5_22': [1682], 's_5_23': [3469], 's_5_24': [948], 's_5_26': [662], 's_5_28': [1685], 's_5_29': [1761], 's_5_30': [3560], 's_5_32': [1626], 's_5_34': [1697], 's_5_37': [738], 's_5_38': [3922], 's_5_39': [4045], 's_5_40': [3545], 's_6_2': [3910], 's_6_7': [875], 's_6_8': [1519], 's_6_9': [1684], 's_6_10': [3847, 1310], 's_6_11': [1824], 's_6_12': [784], 's_6_13': [1534], 's_6_14': [1734], 's_6_15': [2000], 's_6_16': [1897], 's_6_17': [4240], 's_6_18': [1714], 's_6_19': [1719], 's_6_20': [2018], 's_6_21': [515], 's_6_22': [1430], 's_6_24': [500], 's_6_25': [3940], 's_6_26': [3894], 's_6_27': [4689], 's_6_28': [4060, 1880], 's_6_29': [4706], 's_6_31': [1025], 's_6_32': [4030], 's_6_35': [619], 's_6_36': [4510], 's_6_37': [4361], 's_6_38': [3893], 's_6_39': [1894, 1895], 's_6_40': [979, 978], 's_8_9': [1444], 's_8_10': [3741], 's_8_11': [876], 's_8_12': [3574], 's_8_13': [4370], 's_8_14': [877], 's_8_15': [1173], 's_8_17': [3442], 's_8_18': [1006], 's_8_19': [3592], 's_8_20': [4159], 's_8_21': [1516], 's_8_22': [3728], 's_8_23': [3394], 's_8_25': [3577], 's_8_28': [741], 's_8_29': [891], 's_8_31': [4175], 's_8_33': [1067], 's_8_34': [980], 's_8_35': [4098], 's_8_36': [1133], 's_8_37': [1118], 's_8_38': [3533], 's_8_39': [847], 's_8_40': [3575], 's_9_7': [575], 's_9_10': [3712], 's_9_11': [4008], 's_9_12': [3902], 's_9_13': [1339], 's_9_16': [1879], 's_9_17': [3682], 's_9_18': [1399], 's_9_19': [3772], 's_9_21': [3722, 529], 's_9_22': [3639], 's_9_24': [663], 's_9_25': [1579], 's_9_29': [3652], 's_9_30': [1294], 's_9_31': [994, 3919], 's_9_35': [469], 's_9_36': [620], 's_9_37': [3978], 's_9_38': [3803], 's_9_39': [1460], 's_9_40': [1114], 's_11_7': [4056], 's_11_10': [4012], 's_11_12': [3709], 's_11_13': [3694], 's_11_15': [1779], 's_11_16': [4194], 's_11_17': [1596], 's_11_18': [1504], 's_11_19': [4087], 's_11_20': [4494], 's_11_21': [3828], 's_11_22': [1671], 's_11_23': [4089], 's_11_26': [4284], 's_11_28': [755], 's_11_30': [3937], 's_11_31': [1763], 's_11_32': [1791], 's_11_34': [1101], 's_11_35': [4143], 's_11_36': [4068], 's_11_38': [1506], 's_11_39': [1520], 's_11_40': [772], 's_12_7': [1235], 's_12_10': [712], 's_12_15': [1398], 's_12_17': [3862], 's_12_18': [844], 's_12_19': [3622], 's_12_20': [578], 's_12_21': [3771], 's_12_22': [4203], 's_12_23': [3619], 's_12_24': [3617, 3618, 753], 's_12_25': [1578], 's_12_26': [1502], 's_12_27': [637], 's_12_29': [4251], 's_12_30': [1473], 's_12_32': [3572], 's_12_35': [3664, 798], 's_12_36': [593, 594, 4578], 's_12_38': [4340], 's_12_39': [4399], 's_12_40': [4010], 's_13_2': [1567], 's_13_7': [4011], 's_13_16': [3759], 's_13_18': [3665], 's_13_19': [4177], 's_13_21': [1219], 's_13_22': [3773], 's_13_23': [3530], 's_13_26': [3864], 's_13_27': [4490], 's_13_28': [4506], 's_13_29': [1203], 's_13_30': [3981], 's_13_31': [3696], 's_13_32': [1236], 's_13_33': [4374], 's_13_34': [1221], 's_13_35': [754], 's_13_36': [1643], 's_13_37': [3603], 's_13_40': [993], 's_14_2': [1404, 1403], 's_14_10': [3363], 's_14_16': [1869], 's_14_17': [4821], 's_14_19': [1599], 's_14_20': [939], 's_14_21': [3693], 's_14_23': [4720], 's_14_24': [812, 3393], 's_14_25': [1899], 's_14_26': [3438], 's_14_27': [4655], 's_14_28': [3858], 's_14_29': [4735, 2020], 's_14_31': [4414], 's_14_34': [4023], 's_14_35': [1465], 's_14_37': [4308], 's_14_38': [4807], 's_14_39': [4549], 's_14_40': [3588], 's_15_7': [3996], 's_15_10': [4041], 's_15_17': [4356], 's_15_19': [1644], 's_15_20': [1883], 's_15_21': [3681], 's_15_25': [4105], 's_15_26': [1718], 's_15_27': [1584], 's_15_28': [1178], 's_15_30': [1309], 's_15_31': [4130], 's_15_32': [4090], 's_15_33': [4599], 's_15_34': [1175], 's_15_36': [4540], 's_15_37': [4450], 's_15_39': [3935], 's_16_2': [3325], 's_16_7': [1566], 's_16_10': [1307], 's_16_17': [1627], 's_16_18': [1789], 's_16_19': [1457], 's_16_20': [1852, 1853], 's_16_21': [1652], 's_16_22': [4344], 's_16_23': [1786], 's_16_25': [1938], 's_16_26': [3564], 's_16_27': [4554], 's_16_29': [1716], 's_16_30': [3700], 's_16_31': [4570, 1928], 's_16_34': [3310], 's_16_35': [1837], 's_16_36': [4509], 's_16_37': [4436], 's_16_38': [1546], 's_16_39': [3895], 's_17_2': [4536], 's_17_7': [3171], 's_17_10': [3576], 's_17_18': [3215], 's_17_19': [3532], 's_17_20': [4491], 's_17_22': [1356], 's_17_23': [1306, 3246], 's_17_24': [4656], 's_17_25': [1216], 's_17_26': [4254], 's_17_28': [1400], 's_17_29': [4446], 's_17_30': [3906, 3907], 's_17_31': [1598], 's_17_32': [1521], 's_17_34': [3502], 's_17_35': [4432], 's_17_37': [1537], 's_17_38': [4253], 's_17_39': [1295], 's_17_40': [1292], 's_18_2': [1670], 's_18_10': [991], 's_18_19': [3425], 's_18_20': [3724], 's_18_21': [3767, 514], 's_18_23': [3184], 's_18_24': [499], 's_18_25': [1126, 3110], 's_18_26': [3379], 's_18_27': [604], 's_18_28': [1445], 's_18_29': [1641], 's_18_30': [3350], 's_18_31': [1144], 's_18_32': [3827], 's_18_33': [1082], 's_18_34': [1354], 's_18_35': [694], 's_18_38': [3863], 's_18_39': [590], 's_18_40': [3290], 's_19_2': [1449], 's_19_7': [3892], 's_19_10': [1461, 3997], 's_19_21': [3367], 's_19_22': [4342, 1447], 's_19_24': [1434], 's_19_26': [1172], 's_19_27': [1494], 's_19_28': [4582], 's_19_29': [4162], 's_19_30': [3832], 's_19_31': [4447, 1522], 's_19_32': [4027], 's_19_33': [1352], 's_19_34': [3321, 3322], 's_19_35': [1524], 's_19_37': [1433], 's_19_38': [3547], 's_19_40': [1411, 1426], 's_20_2': [1388], 's_20_7': [935], 's_20_10': [4487], 's_20_21': [3769], 's_20_22': [4205], 's_20_23': [3634], 's_20_24': [803], 's_20_25': [2078], 's_20_27': [1913], 's_20_28': [3979], 's_20_29': [2109], 's_20_32': [2107], 's_20_33': [4493], 's_20_34': [936], 's_20_35': [4492], 's_20_36': [983], 's_20_37': [1583], 's_20_39': [4009], 's_20_40': [4040], 's_21_2': [3369], 's_21_7': [4021], 's_21_10': [3516], 's_21_23': [1711, 1710], 's_21_24': [3901], 's_21_25': [3353, 1472], 's_21_26': [3351], 's_21_28': [680], 's_21_29': [1159, 1158, 3666], 's_21_30': [3799], 's_21_31': [3711], 's_21_32': [3976], 's_21_33': [1397], 's_21_34': [1681], 's_21_35': [454], 's_21_36': [4141], 's_21_37': [3708], 's_21_38': [1832], 's_21_39': [410], 's_21_40': [1321], 's_23_2': [3185], 's_23_7': [3156, 1155], 's_23_22': [3624], 's_23_25': [1051], 's_23_26': [3484], 's_23_27': [4645], 's_23_28': [3984], 's_23_29': [2091], 's_23_30': [1096], 's_23_31': [4345], 's_23_32': [3557], 's_23_33': [3324], 's_23_34': [1456], 's_23_35': [1881], 's_23_36': [4555], 's_23_37': [3528], 's_23_38': [3443, 3444], 's_23_39': [3999], 's_23_40': [1846], 's_24_2': [1358], 's_24_7': [4096], 's_24_10': [549], 's_24_22': [4202], 's_24_25': [1749, 1794, 4734], 's_24_27': [1299], 's_24_30': [3500], 's_24_32': [3527], 's_24_34': [4081], 's_24_35': [4687, 4686], 's_24_37': [1058], 's_24_38': [4598, 1479], 's_24_39': [3931], 's_24_40': [888], 's_25_2': [4375], 's_25_10': [3518], 's_25_22': [1758], 's_25_26': [1141], 's_25_27': [1898], 's_25_29': [4691], 's_25_30': [1968], 's_25_31': [2138], 's_25_32': [4076], 's_25_33': [3397], 's_25_34': [1381], 's_25_35': [4180], 's_25_36': [2063], 's_25_37': [2123], 's_25_38': [3323], 's_25_39': [3970], 's_25_40': [1486], 's_27_2': [1839], 's_27_7': [4321], 's_27_10': [4352], 's_27_26': [1688], 's_27_28': [3918], 's_27_29': [1284], 's_27_31': [1073], 's_27_32': [3962], 's_27_33': [4539], 's_27_34': [4097], 's_27_35': [1389], 's_27_36': [4427], 's_27_37': [4413], 's_27_38': [4703, 1629], 's_27_39': [4488], 's_27_40': [4172], 's_28_2': [1835], 's_28_7': [890], 's_28_10': [1355], 's_28_29': [4341], 's_28_30': [1774], 's_28_31': [995], 's_28_32': [4131], 's_28_33': [4029], 's_28_34': [1160], 's_28_35': [4567], 's_28_37': [739], 's_28_39': [1220], 's_28_40': [4191], 's_29_7': [1446], 's_29_22': [996], 's_29_30': [1490], 's_29_31': [3650], 's_29_32': [4256], 's_29_34': [1401], 's_29_36': [2049], 's_29_37': [1208], 's_29_38': [1162], 's_29_39': [2045], 's_30_2': [3805], 's_30_7': [1174], 's_30_10': [3380], 's_30_22': [3699], 's_30_26': [3320], 's_30_31': [3770], 's_30_33': [1713], 's_30_38': [3848], 's_30_39': [1100], 's_30_40': [3470], 's_31_2': [4433], 's_31_26': [1128], 's_31_33': [4434], 's_31_34': [3921], 's_31_35': [1448], 's_31_40': [3740], 's_32_2': [4104], 's_32_7': [4111], 's_32_10': [966], 's_32_22': [981], 's_32_33': [4164], 's_32_34': [4142], 's_32_36': [576], 's_32_37': [4331], 's_32_39': [470], 's_32_40': [516], 's_33_2': [1725], 's_33_10': [1127], 's_33_22': [3849], 's_33_26': [917], 's_33_34': [3396], 's_33_35': [4283], 's_33_37': [4448], 's_33_38': [1532], 's_33_40': [3249], 's_34_2': [1771], 's_34_10': [1371], 's_34_22': [711], 's_34_37': [4038], 's_34_38': [3308], 's_34_40': [1651], 's_35_2': [4165], 's_35_7': [4277, 4276], 's_35_10': [4267], 's_35_22': [4192], 's_35_26': [4314], 's_35_37': [1943], 's_35_38': [4672], 's_35_39': [785], 's_36_2': [1658], 's_36_7': [4051], 's_36_10': [667], 's_36_22': [651], 's_36_26': [1703], 's_36_37': [4353], 's_36_38': [4324, 4323], 's_36_40': [636], 's_37_2': [1673], 's_37_7': [814, 3768], 's_37_10': [1312, 1313], 's_37_22': [1748], 's_37_26': [1793], 's_37_38': [4538, 1568], 's_37_40': [4368], 's_38_22': [4222], 's_38_26': [1772], 's_38_39': [1535], 's_39_2': [3939], 's_39_7': [290, 3945], 's_39_26': [1820], 's_39_40': [4174], 's_40_2': [3265], 's_40_7': [3261], 's_40_10': [3352], 's_40_22': [456], 's_2_7': [1276], 's_2_10': [1320], 's_2_22': [1762], 's_2_26': [4449], 's_10_7': [3111], 's_10_22': [1267], 's_10_26': [1171], 's_22_7': [4216], 's_22_26': [1712], 's_26_7': [1278]}</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.002062407132243685</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.001704209958889733</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>{0: [1698, 4443, 4444, 1043, 1042, 1041, 3754, 1040, 3609, 3608, 3607, 3606, 3605, 1038, 1039], 1: [892, 1013, 1012, 3338, 1607, 3684, 3683, 1608, 4384, 4385, 1609, 1613, 4389, 4386, 4387, 4388, 1610, 1611, 1612], 's_0_1': [4489], 3: [920, 424, 997, 1653, 1654, 1655, 1656, 1657, 4313, 4312, 4311, 4310, 425, 426, 4232, 921, 4233, 4234, 922, 4309], 's_0_3': [919], 4: [833, 832, 756, 757, 1907, 1908, 4291, 1909, 1910, 1911, 1912, 4299, 4292, 4293, 4294, 4295, 4296, 4297, 4298], 's_0_4': [982], 5: [4224, 1187, 1822, 1821, 4044, 1760, 3923, 1625, 3453, 3454, 3455, 3456, 3457, 3458, 1623, 1624], 's_0_5': [1638], 6: [1988, 634, 4360, 4704, 4705, 1974, 1973, 1971, 1970, 3872, 3873, 3874, 3875, 3876, 3877, 3878, 1972, 3879, 3880], 's_0_6': [1009], 8: [4354, 846, 1517, 1518, 3727, 3726, 3725, 1068, 4355, 1072, 1007, 1008, 3710, 1069, 1070, 1071, 4055, 4053, 4054], 's_0_8': [3544], 9: [3790, 3782, 3932, 665, 664, 1459, 1834, 3789, 3788, 3783, 3784, 3787, 3786, 3785], 's_0_9': [1458], 11: [4569, 1778, 1777, 1776, 4074, 769, 770, 771, 4069, 4070, 4071, 1505, 4073, 4072], 's_0_11': [1026], 12: [1117, 1443, 3573, 4398, 697, 696, 695, 3903, 829, 3562, 3561, 1233, 1234, 3861, 1116, 3543, 858, 859, 3829, 3830, 1115], 's_0_12': [4026, 4025], 13: [1759, 1699, 3758, 4176, 1223, 1222, 783, 1083, 4373, 4372, 4371, 1207, 1206, 1204, 1205, 3757, 3756, 3755, 1084, 3680, 3679], 's_0_13': [934], 14: [1509, 4339, 707, 708, 709, 710, 3933, 816, 817, 4369, 1944, 923, 815, 924, 4669, 4765, 4764, 4763, 4762, 1104, 1344, 4671, 967, 4670], 's_0_14': [1044], 15: [3637, 2001, 2002, 2003, 2004, 3636, 1188, 4615, 4614, 4613, 4612, 1189, 1190, 1191, 1192, 1193, 4611], 's_0_15': [3635], 16: [4600, 3276, 3277, 3278, 3279, 4178, 1868, 3594, 4435, 1867, 3804, 3219, 4179, 1866, 1865, 1864, 1863, 1862, 1861], 's_0_16': [1818], 17: [1329, 1328, 4239, 1327, 4358, 1597, 4238, 4237, 1326, 3936, 1201, 1202, 3441, 1322, 1323, 1324, 1325], 's_0_17': [3621], 18: [3812, 1640, 1081, 3819, 3818, 3817, 3816, 3813, 3814, 3245, 1021, 1022, 1023, 1024, 3815], 's_0_18': [3620], 19: [4658, 1277, 4657, 1419, 1418, 1417, 3426, 3427, 1412, 1413, 1414, 1415, 1416], 's_0_19': [1428], 20: [949, 2108, 950, 4480, 4472, 938, 4473, 951, 952, 953, 4479, 4478, 4477, 4476, 4475, 4474], 's_0_20': [3904], 21: [3384, 4022, 397, 874, 3383, 3382, 3381, 1247, 964, 679, 1248, 1249, 3846, 3845, 3844, 3843, 3842, 395, 396], 's_0_21': [889, 3739], 23: [3558, 3559, 3529, 1959, 873, 872, 871, 3199, 3200, 1958, 1957, 1956, 3201, 3202, 3203, 1756, 3294, 1847, 1848, 1849, 1850, 1851, 4135, 4134], 's_0_23': [3604], 24: [4067, 954, 4628, 4627, 4626, 1269, 4566, 962, 3515, 3514, 3513, 3512, 484, 485, 486, 487, 488, 4562, 483, 4563, 4564, 4565], 's_0_24': [848], 25: [4195, 3623, 3230, 3231, 4629, 4630, 4690, 4571, 3232, 1561, 1562, 1564, 1563, 3653, 3654, 3655, 2029, 2030, 2031, 2032, 2033, 2034], 's_0_25': [1593], 27: [3917, 743, 1224, 1087, 4585, 1854, 4644, 4643, 545, 546, 547, 4322, 622, 4642, 4640, 1089, 1088, 4641, 4430, 4429, 4428], 's_0_27': [4535], 28: [1775, 740, 3963, 3964, 3965, 1715, 3969, 4551, 1343, 1342, 1341, 3968, 3967, 3966, 1340], 's_0_28': [4550], 29: [1491, 4766, 2154, 2153, 2152, 4431, 4401, 3651, 1279, 4144, 4241, 2046, 1280, 1283, 1282, 4150, 4149, 4145, 1281, 4146, 4147, 4148], 's_0_29': [4160], 30: [3982, 1969, 1475, 3715, 3714, 3713, 1474, 1489, 1097, 1098, 1099, 3800, 3801, 3802], 's_0_30': [1488], 31: [2047, 4415, 4421, 4420, 3920, 4419, 4418, 4417, 1129, 1130, 3980, 1145, 1146, 1147, 4416], 's_0_31': [1028], 32: [2076, 2122, 558, 3977, 559, 2121, 560, 4120, 1836, 4119, 4028, 1476, 3452, 561, 4118, 4117, 4116, 4112, 4113, 4114, 4115], 's_0_32': [4129], 33: [4103, 3409, 1733, 3410, 3411, 3412, 3413, 1732, 1731, 1730, 1729, 1726, 1727, 1728], 's_0_33': [3593], 34: [3218, 3158, 3309, 3368, 1396, 3992, 1636, 591, 1696, 4082, 4083, 4084, 4085, 4086, 3248, 3247, 1366, 1367, 1368, 1369, 1370], 's_0_34': [1353], 35: [4702, 1942, 1941, 4210, 3797, 3798, 1464, 1463, 1462, 4209, 4208, 1536, 4282, 4281, 4280, 799, 800, 801, 4278, 4279], 's_0_35': [3753], 36: [666, 621, 336, 533, 2048, 4525, 4127, 4517, 681, 682, 683, 4126, 4518, 4524, 4523, 4522, 4521, 4520, 4519], 's_0_36': [4442], 37: [4359, 1717, 723, 724, 725, 4457, 2077, 726, 727, 728, 4465, 4464, 4463, 4462, 4461, 4460, 4459, 713, 802, 4458], 's_0_37': [893], 38: [4325, 4326, 4327, 1477, 3429, 4223, 1554, 1553, 1552, 1637, 3428, 1547, 1548, 1549, 1550, 1551], 's_0_38': [1177, 4445], 39: [863, 3946, 861, 860, 4000, 3947, 3948, 3949, 1940, 3954, 3953, 3952, 3951, 862, 3950], 's_0_39': [3934], 40: [3591, 787, 786, 3501, 1231, 4187, 3264, 3263, 3262, 1351, 3307, 3306, 1112, 3589, 4188, 4189, 4190, 1056, 1055, 1054, 1053, 3590, 1113], 's_0_40': [1143], 2: [4507, 1838, 4537, 1508, 1507, 4403, 4404, 4405, 1927, 1926, 3186, 3187, 3188, 3189, 1921, 1922, 1923, 1924, 3908, 3909, 1925], 's_1_2': [3685], 's_1_3': [4013], 's_1_4': [1582], 's_1_6': [1595], 's_1_8': [1027], 's_1_9': [1594], 10: [3364, 3365, 548, 3517, 1336, 4397, 1382, 1383, 1384, 1385, 4042, 1296, 1297, 4266, 3366, 4265, 4264, 4263, 4262, 1335, 532], 's_1_10': [4043], 's_1_11': [1792], 's_1_13': [1268], 's_1_14': [1014], 's_1_15': [4390], 's_1_16': [1531], 's_1_20': [1298], 's_1_21': [1622], 22: [4186, 441, 4057, 1743, 1744, 4217, 4218, 3563, 4219, 4220, 4221, 1745, 4206, 4207, 1747, 1746, 4133, 4132, 1431], 's_1_22': [4058], 's_1_24': [4610], 's_1_25': [3668], 26: [3534, 4584, 1809, 3423, 3424, 932, 3335, 3336, 1217, 1808, 1807, 1806, 1805, 3485, 3486, 3487, 3488, 3489, 1803, 1804], 's_1_26': [1577], 's_1_27': [4383], 's_1_28': [3983], 's_1_29': [1011], 's_1_30': [3698], 's_1_31': [1628], 's_1_33': [1487], 's_1_36': [773], 's_1_37': [758], 's_1_38': [4553], 's_1_39': [3938], 's_1_40': [1501], 's_3_4': [4024], 's_3_5': [3833], 's_3_6': [439], 7: [4102, 1251, 1250, 1261, 1262, 1263, 1264, 1265, 3891, 4101, 3890, 3889, 3888, 3887, 3886, 3961, 352, 351, 350], 's_3_7': [349, 3826], 's_3_8': [906], 's_3_10': [1252], 's_3_12': [3859], 's_3_13': [1237], 's_3_14': [4400], 's_3_15': [3638], 's_3_16': [4193], 's_3_17': [1687], 's_3_18': [3811], 's_3_19': [1432], 's_3_20': [4099], 's_3_21': [4247], 's_3_22': [3743], 's_3_24': [4052], 's_3_25': [3473], 's_3_26': [1668], 's_3_27': [4037], 's_3_28': [4088], 's_3_30': [1669], 's_3_31': [1702], 's_3_32': [606], 's_3_33': [3548], 's_3_34': [3991], 's_3_35': [3796], 's_3_36': [471], 's_3_37': [4338, 742], 's_3_38': [1492], 's_3_40': [4249], 's_4_2': [3625], 's_4_6': [4300], 's_4_7': [4246, 367], 's_4_8': [4128], 's_4_9': [3729], 's_4_10': [472], 's_4_12': [652], 's_4_13': [1372], 's_4_14': [4579], 's_4_15': [4255], 's_4_16': [3505], 's_4_19': [4357, 1357], 's_4_20': [937], 's_4_21': [3399, 1817], 's_4_22': [3519, 3520], 's_4_23': [3535], 's_4_24': [502], 's_4_25': [3744, 1984, 3745], 's_4_27': [4307], 's_4_28': [3924], 's_4_30': [3865], 's_4_32': [562], 's_4_33': [3579, 1833, 3459], 's_4_34': [3993], 's_4_35': [1672], 's_4_36': [818], 's_4_37': [4158], 's_4_38': [3430], 's_4_39': [3985], 's_5_2': [1823], 's_5_8': [992], 's_5_10': [1293, 3471], 's_5_11': [4269], 's_5_12': [768], 's_5_13': [782], 's_5_14': [692], 's_5_15': [4225], 's_5_16': [4014], 's_5_17': [1701], 's_5_19': [1427], 's_5_21': [3531], 's_5_22': [1682], 's_5_23': [3469], 's_5_24': [948], 's_5_26': [662], 's_5_28': [1685], 's_5_29': [1761], 's_5_30': [3560], 's_5_32': [1626], 's_5_34': [1697], 's_5_37': [738], 's_5_38': [3922], 's_5_39': [4045], 's_5_40': [3545], 's_6_2': [3910], 's_6_7': [875], 's_6_8': [1519], 's_6_9': [1684], 's_6_10': [3847, 1310], 's_6_11': [1824], 's_6_12': [784], 's_6_13': [1534], 's_6_14': [1734], 's_6_15': [2000], 's_6_16': [1897], 's_6_17': [4240], 's_6_18': [1714], 's_6_19': [1719], 's_6_20': [2018], 's_6_21': [515], 's_6_22': [1430], 's_6_24': [500], 's_6_25': [3940], 's_6_26': [3894], 's_6_27': [4689], 's_6_28': [4060, 1880], 's_6_29': [4706], 's_6_31': [1025], 's_6_32': [4030], 's_6_35': [619], 's_6_36': [4510], 's_6_37': [4361], 's_6_38': [3893], 's_6_39': [1894, 1895], 's_6_40': [979, 978], 's_8_9': [1444], 's_8_10': [3741], 's_8_11': [876], 's_8_12': [3574], 's_8_13': [4370], 's_8_14': [877], 's_8_15': [1173], 's_8_17': [3442], 's_8_18': [1006], 's_8_19': [3592], 's_8_20': [4159], 's_8_21': [1516], 's_8_22': [3728], 's_8_23': [3394], 's_8_25': [3577], 's_8_28': [741], 's_8_29': [891], 's_8_31': [4175], 's_8_33': [1067], 's_8_34': [980], 's_8_35': [4098], 's_8_36': [1133], 's_8_37': [1118], 's_8_38': [3533], 's_8_39': [847], 's_8_40': [3575], 's_9_7': [575], 's_9_10': [3712], 's_9_11': [4008], 's_9_12': [3902], 's_9_13': [1339], 's_9_16': [1879], 's_9_17': [3682], 's_9_18': [1399], 's_9_19': [3772], 's_9_21': [3722, 529], 's_9_22': [3639], 's_9_24': [663], 's_9_25': [1579], 's_9_29': [3652], 's_9_30': [1294], 's_9_31': [994, 3919], 's_9_35': [469], 's_9_36': [620], 's_9_37': [3978], 's_9_38': [3803], 's_9_39': [1460], 's_9_40': [1114], 's_11_7': [4056], 's_11_10': [4012], 's_11_12': [3709], 's_11_13': [3694], 's_11_15': [1779], 's_11_16': [4194], 's_11_17': [1596], 's_11_18': [1504], 's_11_19': [4087], 's_11_20': [4494], 's_11_21': [3828], 's_11_22': [1671], 's_11_23': [4089], 's_11_26': [4284], 's_11_28': [755], 's_11_30': [3937], 's_11_31': [1763], 's_11_32': [1791], 's_11_34': [1101], 's_11_35': [4143], 's_11_36': [4068], 's_11_38': [1506], 's_11_39': [1520], 's_11_40': [772], 's_12_7': [1235], 's_12_10': [712], 's_12_15': [1398], 's_12_17': [3862], 's_12_18': [844], 's_12_19': [3622], 's_12_20': [578], 's_12_21': [3771], 's_12_22': [4203], 's_12_23': [3619], 's_12_24': [3617, 3618, 753], 's_12_25': [1578], 's_12_26': [1502], 's_12_27': [637], 's_12_29': [4251], 's_12_30': [1473], 's_12_32': [3572], 's_12_35': [3664, 798], 's_12_36': [593, 594, 4578], 's_12_38': [4340], 's_12_39': [4399], 's_12_40': [4010], 's_13_2': [1567], 's_13_7': [4011], 's_13_16': [3759], 's_13_18': [3665], 's_13_19': [4177], 's_13_21': [1219], 's_13_22': [3773], 's_13_23': [3530], 's_13_26': [3864], 's_13_27': [4490], 's_13_28': [4506], 's_13_29': [1203], 's_13_30': [3981], 's_13_31': [3696], 's_13_32': [1236], 's_13_33': [4374], 's_13_34': [1221], 's_13_35': [754], 's_13_36': [1643], 's_13_37': [3603], 's_13_40': [993], 's_14_2': [1404, 1403], 's_14_10': [3363], 's_14_16': [1869], 's_14_17': [4821], 's_14_19': [1599], 's_14_20': [939], 's_14_21': [3693], 's_14_23': [4720], 's_14_24': [812, 3393], 's_14_25': [1899], 's_14_26': [3438], 's_14_27': [4655], 's_14_28': [3858], 's_14_29': [4735, 2020], 's_14_31': [4414], 's_14_34': [4023], 's_14_35': [1465], 's_14_37': [4308], 's_14_38': [4807], 's_14_39': [4549], 's_14_40': [3588], 's_15_7': [3996], 's_15_10': [4041], 's_15_17': [4356], 's_15_19': [1644], 's_15_20': [1883], 's_15_21': [3681], 's_15_25': [4105], 's_15_26': [1718], 's_15_27': [1584], 's_15_28': [1178], 's_15_30': [1309], 's_15_31': [4130], 's_15_32': [4090], 's_15_33': [4599], 's_15_34': [1175], 's_15_36': [4540], 's_15_37': [4450], 's_15_39': [3935], 's_16_2': [3325], 's_16_7': [1566], 's_16_10': [1307], 's_16_17': [1627], 's_16_18': [1789], 's_16_19': [1457], 's_16_20': [1852, 1853], 's_16_21': [1652], 's_16_22': [4344], 's_16_23': [1786], 's_16_25': [1938], 's_16_26': [3564], 's_16_27': [4554], 's_16_29': [1716], 's_16_30': [3700], 's_16_31': [4570, 1928], 's_16_34': [3310], 's_16_35': [1837], 's_16_36': [4509], 's_16_37': [4436], 's_16_38': [1546], 's_16_39': [3895], 's_17_2': [4536], 's_17_7': [3171], 's_17_10': [3576], 's_17_18': [3215], 's_17_19': [3532], 's_17_20': [4491], 's_17_22': [1356], 's_17_23': [1306, 3246], 's_17_24': [4656], 's_17_25': [1216], 's_17_26': [4254], 's_17_28': [1400], 's_17_29': [4446], 's_17_30': [3906, 3907], 's_17_31': [1598], 's_17_32': [1521], 's_17_34': [3502], 's_17_35': [4432], 's_17_37': [1537], 's_17_38': [4253], 's_17_39': [1295], 's_17_40': [1292], 's_18_2': [1670], 's_18_10': [991], 's_18_19': [3425], 's_18_20': [3724], 's_18_21': [3767, 514], 's_18_23': [3184], 's_18_24': [499], 's_18_25': [1126, 3110], 's_18_26': [3379], 's_18_27': [604], 's_18_28': [1445], 's_18_29': [1641], 's_18_30': [3350], 's_18_31': [1144], 's_18_32': [3827], 's_18_33': [1082], 's_18_34': [1354], 's_18_35': [694], 's_18_38': [3863], 's_18_39': [590], 's_18_40': [3290], 's_19_2': [1449], 's_19_7': [3892], 's_19_10': [1461, 3997], 's_19_21': [3367], 's_19_22': [4342, 1447], 's_19_24': [1434], 's_19_26': [1172], 's_19_27': [1494], 's_19_28': [4582], 's_19_29': [4162], 's_19_30': [3832], 's_19_31': [4447, 1522], 's_19_32': [4027], 's_19_33': [1352], 's_19_34': [3321, 3322], 's_19_35': [1524], 's_19_37': [1433], 's_19_38': [3547], 's_19_40': [1411, 1426], 's_20_2': [1388], 's_20_7': [935], 's_20_10': [4487], 's_20_21': [3769], 's_20_22': [4205], 's_20_23': [3634], 's_20_24': [803], 's_20_25': [2078], 's_20_27': [1913], 's_20_28': [3979], 's_20_29': [2109], 's_20_32': [2107], 's_20_33': [4493], 's_20_34': [936], 's_20_35': [4492], 's_20_36': [983], 's_20_37': [1583], 's_20_39': [4009], 's_20_40': [4040], 's_21_2': [3369], 's_21_7': [4021], 's_21_10': [3516], 's_21_23': [1711, 1710], 's_21_24': [3901], 's_21_25': [3353, 1472], 's_21_26': [3351], 's_21_28': [680], 's_21_29': [1159, 1158, 3666], 's_21_30': [3799], 's_21_31': [3711], 's_21_32': [3976], 's_21_33': [1397], 's_21_34': [1681], 's_21_35': [454], 's_21_36': [4141], 's_21_37': [3708], 's_21_38': [1832], 's_21_39': [410], 's_21_40': [1321], 's_23_2': [3185], 's_23_7': [3156, 1155], 's_23_22': [3624], 's_23_25': [1051], 's_23_26': [3484], 's_23_27': [4645], 's_23_28': [3984], 's_23_29': [2091], 's_23_30': [1096], 's_23_31': [4345], 's_23_32': [3557], 's_23_33': [3324], 's_23_34': [1456], 's_23_35': [1881], 's_23_36': [4555], 's_23_37': [3528], 's_23_38': [3443, 3444], 's_23_39': [3999], 's_23_40': [1846], 's_24_2': [1358], 's_24_7': [4096], 's_24_10': [549], 's_24_22': [4202], 's_24_25': [1749, 1794, 4734], 's_24_27': [1299], 's_24_30': [3500], 's_24_32': [3527], 's_24_34': [4081], 's_24_35': [4687, 4686], 's_24_37': [1058], 's_24_38': [4598, 1479], 's_24_39': [3931], 's_24_40': [888], 's_25_2': [4375], 's_25_10': [3518], 's_25_22': [1758], 's_25_26': [1141], 's_25_27': [1898], 's_25_29': [4691], 's_25_30': [1968], 's_25_31': [2138], 's_25_32': [4076], 's_25_33': [3397], 's_25_34': [1381], 's_25_35': [4180], 's_25_36': [2063], 's_25_37': [2123], 's_25_38': [3323], 's_25_39': [3970], 's_25_40': [1486], 's_27_2': [1839], 's_27_7': [4321], 's_27_10': [4352], 's_27_26': [1688], 's_27_28': [3918], 's_27_29': [1284], 's_27_31': [1073], 's_27_32': [3962], 's_27_33': [4539], 's_27_34': [4097], 's_27_35': [1389], 's_27_36': [4427], 's_27_37': [4413], 's_27_38': [4703, 1629], 's_27_39': [4488], 's_27_40': [4172], 's_28_2': [1835], 's_28_7': [890], 's_28_10': [1355], 's_28_29': [4341], 's_28_30': [1774], 's_28_31': [995], 's_28_32': [4131], 's_28_33': [4029], 's_28_34': [1160], 's_28_35': [4567], 's_28_37': [739], 's_28_39': [1220], 's_28_40': [4191], 's_29_7': [1446], 's_29_22': [996], 's_29_30': [1490], 's_29_31': [3650], 's_29_32': [4256], 's_29_34': [1401], 's_29_36': [2049], 's_29_37': [1208], 's_29_38': [1162], 's_29_39': [2045], 's_30_2': [3805], 's_30_7': [1174], 's_30_10': [3380], 's_30_22': [3699], 's_30_26': [3320], 's_30_31': [3770], 's_30_33': [1713], 's_30_38': [3848], 's_30_39': [1100], 's_30_40': [3470], 's_31_2': [4433], 's_31_26': [1128], 's_31_33': [4434], 's_31_34': [3921], 's_31_35': [1448], 's_31_40': [3740], 's_32_2': [4104], 's_32_7': [4111], 's_32_10': [966], 's_32_22': [981], 's_32_33': [4164], 's_32_34': [4142], 's_32_36': [576], 's_32_37': [4331], 's_32_39': [470], 's_32_40': [516], 's_33_2': [1725], 's_33_10': [1127], 's_33_22': [3849], 's_33_26': [917], 's_33_34': [3396], 's_33_35': [4283], 's_33_37': [4448], 's_33_38': [1532], 's_33_40': [3249], 's_34_2': [1771], 's_34_10': [1371], 's_34_22': [711], 's_34_37': [4038], 's_34_38': [3308], 's_34_40': [1651], 's_35_2': [4165], 's_35_7': [4277, 4276], 's_35_10': [4267], 's_35_22': [4192], 's_35_26': [4314], 's_35_37': [1943], 's_35_38': [4672], 's_35_39': [785], 's_36_2': [1658], 's_36_7': [4051], 's_36_10': [667], 's_36_22': [651], 's_36_26': [1703], 's_36_37': [4353], 's_36_38': [4324, 4323], 's_36_40': [636], 's_37_2': [1673], 's_37_7': [814, 3768], 's_37_10': [1312, 1313], 's_37_22': [1748], 's_37_26': [1793], 's_37_38': [4538, 1568], 's_37_40': [4368], 's_38_22': [4222], 's_38_26': [1772], 's_38_39': [1535], 's_39_2': [3939], 's_39_7': [290, 3945], 's_39_26': [1820], 's_39_40': [4174], 's_40_2': [3265], 's_40_7': [3261], 's_40_10': [3352], 's_40_22': [456], 's_2_7': [1276], 's_2_10': [1320], 's_2_22': [1762], 's_2_26': [4449], 's_10_7': [3111], 's_10_22': [1267], 's_10_26': [1171], 's_22_7': [4216], 's_22_26': [1712], 's_26_7': [1278]}</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0.002062407132243685</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.001704209958889733</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>{0: [3589, 3590, 1173, 1176, 1175, 1174], 1: [4102, 4099, 4101, 4100], 3: [3906, 1236, 3875, 3876, 1235], 4: [4147, 1251, 4145, 4146], 5: [1550, 3937, 3934, 3935, 3936], 7: [1461, 4267, 1462, 4205, 4206, 4207], 8: [1055, 1056, 4192, 4191, 4190], 12: [3680, 3681, 1267, 1266, 1265, 1264], 13: [3904, 1038, 1041, 1039, 1040], 14: [1297, 1296, 3860, 3861, 3862, 1295], 17: [1566, 4070, 4073, 4072, 4071], 18: [3921, 1282, 3845, 1281, 3846, 1279, 1280], 20: [3769, 3770, 1206, 1205, 3711, 1204], 21: [3785, 3786, 3847, 1326, 1325, 1324], 22: [3964, 1447, 4222, 4221, 965, 966, 4220], 23: [3949, 3950, 1311, 1310, 3951], 24: [1551, 4132, 4129, 4130, 951, 4131], 26: [3650, 1191, 1190, 1189, 1188, 3651], 27: [1023, 3724, 1026, 1025, 1024], 28: [1491, 4043, 4040, 4041, 4042], 29: [891, 4114, 4117, 4204, 4115, 4116], 30: [1505, 1476, 4010, 4011, 4012], 34: [3919, 3996, 3920, 1219, 1221, 1220], 35: [1521, 3980, 1520, 3981, 3982], 36: [4084, 4087, 4086, 4085], 37: [1431, 4055, 1370, 4056, 4057], 38: [1008, 1011, 1010, 1009], 39: [3726, 3710, 1071, 3725, 1070, 1069], 40: [4175, 4176, 1385, 1386, 4177], 2: [3754, 3755, 1356, 1355, 1354, 3756], 6: [1536, 1535, 3968, 3965, 3966, 3967], 9: [4027, 1250, 936, 4025, 4026], 11: [993, 996, 995, 994], 31: [1102, 1099, 3995, 1101, 1100], 32: [3605, 1146, 1145, 1143, 1144], 33: [1117, 3830, 1114, 1116, 1115], 10: [3890, 3891, 1416, 1415, 3892], 19: [3997, 1369, 3815, 3816, 1446, 1445, 3817], 25: [3771, 3739, 1401, 3740, 3741, 1400, 1399], 15: [1087, 4160, 1084, 1085, 1086], 16: [3800, 3801, 1341, 1340, 1339], 41: [3635, 1158, 1161, 1160, 1159]}</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.3311029329764693</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0340101774000293</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>{0: [3589, 3590, 1173, 1176, 1175, 1174], 1: [4102, 4099, 4101, 4100], 3: [3906, 1236, 3875, 3876, 1235], 4: [4147, 1251, 4145, 4146], 5: [1550, 3937, 3934, 3935, 3936], 7: [1461, 4267, 1462, 4205, 4206, 4207], 8: [1055, 1056, 4192, 4191, 4190], 12: [3680, 3681, 1267, 1266, 1265, 1264], 13: [3904, 1038, 1041, 1039, 1040], 14: [1297, 1296, 3860, 3861, 3862, 1295], 17: [1566, 4070, 4073, 4072, 4071], 18: [3921, 1282, 3845, 1281, 3846, 1279, 1280], 20: [3769, 3770, 1206, 1205, 3711, 1204], 21: [3785, 3786, 3847, 1326, 1325, 1324], 22: [3964, 1447, 4222, 4221, 965, 966, 4220], 23: [3949, 3950, 1311, 1310, 3951], 24: [1551, 4132, 4129, 4130, 951, 4131], 26: [3650, 1191, 1190, 1189, 1188, 3651], 27: [1023, 3724, 1026, 1025, 1024], 28: [1491, 4043, 4040, 4041, 4042], 29: [891, 4114, 4117, 4204, 4115, 4116], 30: [1505, 1476, 4010, 4011, 4012], 34: [3919, 3996, 3920, 1219, 1221, 1220], 35: [1521, 3980, 1520, 3981, 3982], 36: [4084, 4087, 4086, 4085], 37: [1431, 4055, 1370, 4056, 4057], 38: [1008, 1011, 1010, 1009], 39: [3726, 3710, 1071, 3725, 1070, 1069], 40: [4175, 4176, 1385, 1386, 4177], 2: [3754, 3755, 1356, 1355, 1354, 3756], 6: [1536, 1535, 3968, 3965, 3966, 3967], 9: [4027, 1250, 936, 4025, 4026], 11: [993, 996, 995, 994], 31: [1102, 1099, 3995, 1101, 1100], 32: [3605, 1146, 1145, 1143, 1144], 33: [1117, 3830, 1114, 1116, 1115], 10: [3890, 3891, 1416, 1415, 3892], 19: [3997, 1369, 3815, 3816, 1446, 1445, 3817], 25: [3771, 3739, 1401, 3740, 3741, 1400, 1399], 15: [1087, 4160, 1084, 1085, 1086], 16: [3800, 3801, 1341, 1340, 1339], 41: [3635, 1158, 1161, 1160, 1159]}</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0.3311029329764693</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.0340101774000293</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>{0: [4613, 1538, 1537, 4279, 4280, 2541, 4168, 4167, 4166, 4165, 4164, 4281, 4282, 1536, 4163], 1: [3969, 2123, 2146, 2147, 3416, 2297, 2298, 2299, 2300, 2122, 2121, 4076, 3972, 4541, 2499, 2498, 2497, 2496, 4078, 4077, 2225, 3971, 3970], 's_0_1': [4138], 3: [3803, 3460, 3938, 1625, 2316, 2363, 1786, 1787, 2362, 4212, 2286, 2285, 2284, 3761, 3760, 3759, 3758, 1624, 1623, 3457, 3458, 3459], 's_0_3': [4152], 4: [2479, 3732, 3731, 3353, 3730, 1794, 1793, 1792, 1791, 1790, 1789, 1637, 1638, 1639, 3728, 3729], 's_0_4': [4149], 5: [2241, 4505, 1058, 4392, 2242, 4467, 4466, 4445, 1223, 1224, 4746, 4747, 4748, 4421, 2153, 2154, 4751, 4750, 1810, 4749], 's_0_5': [1584], 7: [1011, 2409, 2408, 2407, 2405, 1132, 4190, 4191, 4192, 4193, 4198, 2406, 4197, 4196, 4195, 4194], 's_0_7': [4153, 2556, 2557], 8: [1956, 1057, 2616, 4123, 4369, 4370, 4371, 4372, 4373, 4122, 4121, 4120, 1630, 1629, 1628, 4448, 1687, 877, 1686, 4119, 4118], 's_0_8': [4169], 12: [3922, 2124, 4012, 4601, 2078, 2077, 1517, 4465, 4464, 1518, 1519, 1520, 1521, 1522, 4462, 4463], 's_0_12': [4267], 13: [2116, 3296, 3297, 4793, 2461, 4795, 4796, 4797, 2259, 2258, 3298, 2581, 2582, 2583, 3808, 4794, 2584, 2585, 2586, 2587, 4424, 4423, 2378, 4512], 's_0_13': [4108], 14: [1645, 4883, 4882, 1205, 2166, 4866, 4881, 4046, 4045, 4044, 4043, 4042, 4041, 1266, 1270, 1269, 1268, 1267], 's_0_14': [1836], 17: [1187, 2109, 3560, 3561, 3562, 3563, 3564, 2543, 4528, 3881, 3549, 3550, 2118, 2119, 4527, 3745, 2104, 2105, 2106, 2107, 2108, 4526], 's_0_17': [4151], 18: [4048, 4474, 4475, 2465, 2466, 4476, 4408, 2393, 2467, 2468, 4482, 4477, 4478, 4479, 4480, 4481], 's_0_18': [4003], 20: [4347, 1913, 1688, 1912, 4629, 4628, 4627, 4345, 1911, 4626, 4615, 1914, 4346], 's_0_20': [1508], 21: [3575, 3576, 3577, 4032, 4031, 1562, 1563, 3623, 3624, 2063, 2062, 2061, 2060, 2059, 2058, 3625], 's_0_21': [2361], 22: [4599, 1684, 909, 4654, 4655, 908, 1524, 4656, 4657, 4658, 1764, 1763, 3912, 3911, 3910, 3909, 3908, 1760, 1761, 1762], 's_0_22': [1479], 23: [3652, 1398, 1249, 1278, 1248, 3591, 3592, 1926, 1925, 1924, 1923, 2464, 2463, 3597, 3596, 3595, 3593, 3594], 's_0_23': [4150], 24: [2086, 4686, 1194, 4625, 1193, 1192, 3508, 3507, 2087, 1191, 1190, 3505, 2507, 3504, 3503, 1488, 3506, 1189, 1188, 3621, 3622], 's_0_24': [4596, 4598, 4597], 26: [4144, 1296, 4145, 1656, 1071, 4100, 2434, 2435, 4063, 4062, 1671, 4101, 4102, 4103, 2302, 2301, 4106, 4105, 4104], 's_0_26': [1176, 4115, 1086], 27: [4534, 4535, 1221, 1222, 1207, 1208, 2269, 4536, 4537, 3792, 3791, 3790, 1969, 1970, 1971, 1972, 4538, 4405, 4404, 1673, 1674], 's_0_27': [1073, 1072, 4265], 28: [2431, 1434, 4582, 4612, 1337, 4356, 2477, 3372, 3371, 3370, 1328, 1327, 1326, 1325, 1324, 1323, 1322, 3369, 3368, 1622, 3443, 3442, 3441], 's_0_28': [1356, 4237], 29: [1264, 4459, 983, 3311, 3310, 3309, 3308, 3307, 1292, 3426, 1172, 3312, 1173, 4250, 982, 981, 980, 979, 978, 3695, 1158, 3696], 's_0_29': [966], 30: [2281, 1414, 1148, 1817, 2282, 3401, 3400, 1252, 4251, 4295, 1147, 1146, 1145, 3399, 3398, 3397, 1412, 1413, 3667, 3666, 1143, 1144], 's_0_30': [1237, 4236], 34: [2090, 2091, 4205, 1599, 1598, 1597, 1596, 4135, 4134, 1640, 1641, 4206, 4207, 1416, 4132, 4133], 's_0_34': [1447], 35: [2350, 2348, 3651, 2349, 4417, 1218, 1219, 2138, 1220, 3966, 1340, 1341, 4557, 4555, 4556, 4554, 1748, 4434, 4433, 4432, 1342], 's_0_35': [4266], 36: [4361, 2227, 1235, 1055, 4301, 4025, 4026, 4027, 4028, 1626, 4300, 4299, 1385, 4298, 1627], 's_0_36': [4238], 37: [2452, 2071, 2072, 3491, 3492, 3493, 3982, 3983, 3984, 2451, 2450, 2447, 1850, 3895, 3896, 3897, 3898, 2449, 2448], 's_0_37': [1535], 38: [3381, 1366, 4671, 1899, 4708, 3502, 1367, 1368, 1369, 1370, 1371, 1372, 4707, 4706, 4705, 4704, 4703, 4702, 1374, 1373], 's_0_38': [4162], 39: [2510, 2197, 1852, 1012, 4325, 4326, 4229, 4228, 4227, 4327, 1492, 4223, 4226, 4225, 2511, 4224], 's_0_39': [1881], 40: [1876, 4493, 4494, 1868, 4585, 4586, 4675, 2034, 2033, 3384, 3703, 3702, 3701, 2032, 2031, 2030, 2029, 2028, 2027, 3385], 's_0_40': [1867, 1866, 4390, 4389, 4388], 2: [1654, 3638, 3668, 1044, 4572, 4571, 1593, 4570, 4569, 4568, 4567, 4566, 4565, 1043, 1594, 3818, 3817, 3816, 3815, 1039, 1040, 4129, 1042, 1041], 's_1_2': [2199], 's_1_3': [2270, 2271], 's_1_5': [2243], 6: [2014, 4362, 3265, 4317, 2423, 2422, 2421, 2420, 3942, 2345, 2344, 1712, 1713, 2041, 2042, 2043, 3552, 2424, 2328, 3687, 3686, 3685, 3684], 's_1_6': [4603], 's_1_8': [2016], 9: [3756, 3327, 1314, 1315, 3326, 3325, 3324, 3328, 1667, 1668, 3877, 3608, 1354, 1312, 1311, 1310, 1309, 3726, 1353, 1313, 3607], 's_1_9': [2131], 11: [3866, 2015, 4825, 1864, 4824, 4823, 4822, 4820, 1105, 1104, 4580, 1028, 1027, 4826, 1026, 1025, 3835, 3834, 3833, 3832, 4821, 1460, 3892, 3891, 3890], 's_1_11': [2165], 's_1_12': [2092, 2093], 's_1_13': [4513], 's_1_14': [1895], 's_1_17': [3880, 1985], 's_1_21': [4450], 's_1_22': [3807, 2404], 's_1_24': [2237], 's_1_26': [1880], 's_1_27': [4075], 's_1_28': [3477, 3476, 2102], 's_1_29': [2162], 's_1_30': [1233, 3190, 3235, 1981, 3189, 3236, 3188, 3186, 3187, 1231, 1232], 31: [1696, 1697, 1698, 3743, 1825, 3806, 3805, 4854, 1909, 3865, 1824, 1823, 1744, 4284, 4209, 1822, 1821, 1820, 3864], 's_1_31': [1805], 32: [4375, 4376, 2267, 2183, 3986, 3566, 2182, 2181, 2177, 2178, 2179, 2180], 's_1_32': [3462], 33: [3846, 2603, 2602, 4349, 4348, 2482, 2481, 4092, 1280, 1281, 4086, 4087, 4088, 4089, 4090, 4091], 's_1_33': [4648], 's_1_35': [4436], 's_1_36': [4029, 1730], 's_1_37': [4183], 's_1_38': [4693], 's_1_39': [2331], 's_1_40': [4495], 's_3_2': [3848], 's_3_4': [3939], 's_3_5': [4422, 2318], 's_3_6': [4497], 's_3_7': [4002], 's_3_8': [1685], 's_3_9': [1473], 10: [3786, 3787, 3674, 3672, 2194, 1554, 3776, 3775, 3774, 3712, 1459, 3773, 3772, 1553, 1552, 1551, 3673, 1550, 3757, 1549], 's_3_10': [1579], 's_3_11': [1564], 's_3_12': [3698], 's_3_17': [1954], 's_3_18': [4302], 19: [4811, 1383, 4810, 3532, 1877, 4000, 3531, 3533, 3581, 3580, 2005, 2004, 2003, 2002, 2001, 3534, 3535, 1998, 1999, 2000], 's_3_19': [1682], 's_3_20': [2347], 's_3_21': [2057, 3415, 3414], 's_3_22': [1670], 's_3_23': [1848], 's_3_24': [1742], 25: [1516, 1008, 2388, 2387, 3282, 3281, 3280, 3279, 3278, 3277, 3276, 1262, 999, 998, 997, 996, 995, 994, 993, 3605, 3606, 1263], 's_3_25': [1427, 3336, 3337], 's_3_26': [4182], 's_3_27': [3882], 's_3_28': [1967], 's_3_29': [1771], 's_3_31': [2089], 's_3_33': [4272], 's_3_34': [3893], 's_3_35': [2364, 4617], 's_3_36': [4437], 's_3_37': [4287], 's_3_38': [1382], 's_3_39': [2256], 's_3_40': [2013], 's_4_2': [1609], 's_4_7': [1776], 's_4_8': [4239], 's_4_9': [3323], 's_4_10': [1774], 's_4_11': [1029, 4940, 4941, 4942, 4943, 1030, 4944, 1795], 's_4_12': [3518], 's_4_13': [3733, 3748], 15: [4213, 2542, 4303, 2512, 2513, 2514, 4738, 4730, 4731, 4732, 4733, 4737, 4734, 4735, 4736], 's_4_15': [4719], 16: [3788, 3354, 3355, 3610, 3611, 4314, 4313, 1938, 3670, 1937, 1834, 4808, 3789, 1714, 1715, 1716, 1717, 1718, 3340, 1936, 1719], 's_4_16': [3639, 1804], 's_4_17': [2088], 's_4_20': [4644], 's_4_21': [1893], 's_4_22': [4014], 's_4_23': [2253, 3627, 3628, 2508], 's_4_25': [3352, 3351], 's_4_26': [3868], 's_4_27': [4539], 's_4_28': [3338], 's_4_29': [1472], 's_4_30': [3413], 's_4_31': [3293], 's_4_32': [3746], 's_4_35': [4524], 's_4_37': [1775], 's_4_38': [4689], 's_4_39': [4344], 's_4_40': [4674], 's_5_6': [4452], 's_5_9': [4521], 's_5_10': [1539], 's_5_11': [1135], 's_5_12': [2018], 's_5_13': [4676], 's_5_14': [4581], 's_5_15': [2094], 's_5_16': [4764], 's_5_17': [2198], 's_5_18': [2288], 's_5_19': [2049], 's_5_20': [1959], 's_5_21': [2047], 's_5_22': [1389], 's_5_24': [4640], 's_5_25': [4444], 's_5_26': [4407], 's_5_28': [4762], 's_5_30': [1162], 's_5_32': [4316], 's_5_35': [4446], 's_5_36': [2152], 's_5_37': [2437], 's_5_38': [1869], 's_5_40': [1974], 41: [2268, 3612, 2343, 2342, 2170, 4631, 3747, 3357, 2312, 2313, 2314, 3852, 2210, 4181, 2169, 2168, 2167, 4286, 2212, 2211], 's_5_41': [4661], 's_7_2': [4340], 's_7_6': [2377], 's_7_8': [4199], 's_7_10': [4178], 's_7_11': [4175], 's_7_13': [2601], 's_7_14': [1282], 's_7_15': [4258], 's_7_16': [1731], 's_7_20': [1987], 's_7_21': [2046], 's_7_22': [4179], 's_7_29': [4189], 's_7_30': [1087], 's_7_31': [4283, 1642], 's_7_32': [3987], 's_7_34': [1236], 's_7_35': [4176], 's_7_38': [4177], 's_7_39': [1102], 's_7_40': [2017], 's_7_41': [2151], 's_8_2': [876], 's_8_6': [4137], 's_8_9': [1298], 's_8_11': [4264], 's_8_12': [4117], 's_8_13': [4244], 's_8_15': [4288], 's_8_16': [1612], 's_8_18': [923], 's_8_20': [4449], 's_8_21': [2346], 's_8_24': [4310], 's_8_25': [4385], 's_8_26': [1986], 's_8_27': [878], 's_8_29': [4249], 's_8_30': [4294], 's_8_31': [4253, 4254, 1567], 's_8_33': [2617], 's_8_36': [2226], 's_8_39': [4324], 's_8_41': [4136], 's_12_2': [1475], 's_12_10': [1534], 's_12_11': [1445], 's_12_14': [1476], 's_12_16': [1702], 's_12_17': [4511], 's_12_18': [1928], 's_12_19': [4660], 's_12_20': [4600], 's_12_21': [1973, 4540, 2048], 's_12_22': [1595, 3953, 3952], 's_12_23': [3636, 3637], 's_12_24': [3488], 's_12_25': [1501, 1502], 's_12_26': [4013], 's_12_27': [1583], 's_12_31': [3863], 's_12_33': [1461], 's_12_35': [1463], 's_12_37': [3937, 1490], 's_12_38': [3997], 's_12_39': [1506], 's_12_40': [1853], 's_12_41': [4691], 's_13_2': [2333, 4587], 's_13_6': [3553], 's_13_9': [2491], 's_13_10': [4778], 's_13_11': [1945], 's_13_14': [1615], 's_13_15': [2365], 's_13_16': [1675], 's_13_17': [2110], 's_13_18': [2528], 's_13_19': [1960], 's_13_22': [1509], 's_13_23': [3823], 's_13_24': [3463], 's_13_25': [2401], 's_13_28': [2537, 3373], 's_13_29': [2101], 's_13_30': [2222, 2221, 2236], 's_13_31': [1780], 's_13_35': [4602], 's_13_37': [3478], 's_13_38': [2394, 4542, 4543, 2559], 's_13_39': [4214, 2676], 's_13_41': [4646], 's_14_2': [1284], 's_14_9': [4836], 's_14_10': [1555], 's_14_11': [1060, 4880], 's_14_15': [1300], 's_14_16': [1660, 4779], 's_14_17': [4001], 's_14_18': [1283], 's_14_19': [1940, 4015], 's_14_20': [4642, 4641], 's_14_21': [2120], 's_14_22': [1745], 's_14_23': [4030], 's_14_24': [4791], 's_14_26': [1505], 's_14_28': [1329, 4701], 's_14_30': [1415], 's_14_31': [4869, 4868, 4867], 's_14_32': [2135], 's_14_33': [1865], 's_14_34': [1206], 's_14_35': [1204, 3770], 's_14_36': [1116, 4071], 's_14_38': [4806], 's_14_40': [4061], 's_14_41': [4047], 's_17_2': [3548], 's_17_9': [1443], 's_17_10': [3656], 's_17_11': [3851], 's_17_15': [2273, 2274], 's_17_16': [1984], 's_17_18': [4363], 's_17_19': [3520, 1892], 's_17_21': [1578], 's_17_22': [2150], 's_17_23': [3744], 's_17_24': [1862], 's_17_25': [1083], 's_17_28': [2117], 's_17_30': [1907], 's_17_31': [2074], 's_17_32': [3716], 's_17_33': [4498], 's_17_35': [3545], 's_17_36': [2228], 's_17_37': [4378, 2558, 4439], 's_17_39': [4211], 's_17_40': [4630], 's_17_41': [2213], 's_18_2': [1703], 's_18_6': [4409, 2662, 2661, 2660, 3943], 's_18_10': [4492], 's_18_15': [4483], 's_18_16': [1733], 's_18_20': [2392], 's_18_21': [4033], 's_18_22': [1089, 1088], 's_18_23': [3853, 2495, 2494], 's_18_24': [4490], 's_18_25': [4489], 's_18_26': [2303], 's_18_27': [1238], 's_18_28': [1358], 's_18_30': [1133, 4416], 's_18_31': [1808], 's_18_32': [4496], 's_18_33': [4393], 's_18_34': [1613], 's_18_37': [3973], 's_18_38': [1254, 1253, 4461], 's_18_39': [1013], 's_18_40': [1943], 's_20_2': [1523], 's_20_6': [2317], 's_20_10': [4688, 1644], 's_20_15': [1779], 's_20_16': [4614], 's_20_19': [4720], 's_20_22': [1404], 's_20_24': [1239], 's_20_26': [4332], 's_20_27': [1927], 's_20_28': [1464], 's_20_31': [4659], 's_20_32': [4331], 's_20_34': [4643], 's_20_35': [1839], 's_20_36': [1897], 's_20_38': [1419], 's_20_40': [1883], 's_20_41': [4180], 's_21_2': [3578], 's_21_6': [3655], 's_21_9': [3609], 's_21_10': [1548], 's_21_16': [1953, 1952], 's_21_19': [1113], 's_21_22': [2315], 's_21_23': [1878], 's_21_24': [3590], 's_21_25': [1531, 3367], 's_21_27': [2254, 2255], 's_21_29': [1129, 1128], 's_21_30': [3547], 's_21_32': [3626], 's_21_33': [2075], 's_21_34': [4241], 's_21_35': [1338], 's_21_37': [2330], 's_21_38': [3382], 's_21_40': [4645], 's_22_6': [2390], 's_22_9': [1299], 's_22_10': [3907], 's_22_15': [1179], 's_22_16': [1765], 's_22_19': [3924, 3925], 's_22_24': [1119, 4611], 's_22_25': [4639], 's_22_26': [1655], 's_22_27': [2419], 's_22_28': [1449], 's_22_29': [4624], 's_22_31': [4329], 's_22_33': [2480], 's_22_34': [3968, 1610], 's_22_36': [1747, 4374], 's_22_37': [2375], 's_22_38': [4672], 's_22_40': [3913, 2524, 2525], 's_22_41': [2359, 2360], 's_23_2': [1474], 's_23_6': [1968], 's_23_9': [3654, 1863, 3653, 1669], 's_23_10': [1444], 's_23_11': [3820], 's_23_16': [1833], 's_23_19': [1653], 's_23_24': [1293], 's_23_25': [3538], 's_23_26': [3793], 's_23_27': [3715], 's_23_28': [2478, 3688], 's_23_29': [3471], 's_23_30': [1818], 's_23_31': [3954], 's_23_32': [2163], 's_23_33': [1279], 's_23_35': [3516], 's_23_37': [3523], 's_23_38': [3411, 1247], 's_23_39': [1941], 's_23_41': [2418], 's_24_2': [1592], 's_24_6': [2402], 's_24_9': [3682, 3681], 's_24_11': [4805], 's_24_15': [1059], 's_24_16': [3490], 's_24_19': [1532], 's_24_25': [2462, 3387], 's_24_26': [4011], 's_24_27': [4056], 's_24_29': [1074, 4595], 's_24_30': [3620], 's_24_31': [1803, 3519], 's_24_33': [3996], 's_24_34': [4221], 's_24_36': [3876], 's_24_37': [3433], 's_24_38': [4670, 1209], 's_24_40': [2538, 2539], 's_24_41': [2417, 3402], 's_26_2': [4099], 's_26_6': [3957], 's_26_9': [1431, 4057], 's_26_10': [4148], 's_26_11': [4070], 's_26_19': [2045], 's_26_28': [4072], 's_26_29': [4055, 936], 's_26_31': [4074], 's_26_33': [1611], 's_26_34': [1386], 's_26_35': [1175], 's_26_37': [3927], 's_26_39': [4257], 's_26_40': [2433], 's_26_41': [3777], 's_27_2': [1178], 's_27_6': [2209], 's_27_9': [4506], 's_27_10': [2134], 's_27_11': [3985], 's_27_16': [1939, 3700], 's_27_25': [4550], 's_27_28': [1433], 's_27_29': [4549], 's_27_30': [1163], 's_27_32': [3926], 's_27_33': [4085], 's_27_34': [4358], 's_27_35': [1388], 's_27_36': [1957], 's_27_37': [2224], 's_27_38': [1494], 's_27_40': [2149], 's_28_2': [1403], 's_28_6': [1802, 3444], 's_28_9': [2476], 's_28_10': [3771], 's_28_11': [4355], 's_28_15': [1343, 1344], 's_28_16': [1982], 's_28_19': [1352, 3487], 's_28_25': [1487], 's_28_29': [1217], 's_28_30': [3342, 2327], 's_28_31': [3383], 's_28_32': [3386], 's_28_33': [4131], 's_28_34': [4583], 's_28_35': [4116], 's_28_36': [3981], 's_28_38': [1397], 's_28_39': [1177], 's_28_40': [1832], 's_28_41': [3417], 's_29_2': [1234], 's_29_6': [1921], 's_29_9': [1741], 's_29_10': [3741, 1294], 's_29_11': [3964, 935], 's_29_19': [1157], 's_29_25': [1023, 3559, 1024, 992], 's_29_30': [4159, 4160], 's_29_32': [2266], 's_29_34': [4339, 937], 's_29_36': [3994, 3995], 's_29_37': [3220, 1951], 's_29_38': [3322], 's_29_39': [4415], 's_29_40': [2056], 's_29_41': [2192], 's_30_2': [4130], 's_30_6': [3429], 's_30_9': [3802], 's_30_10': [3711], 's_30_11': [4520], 's_30_16': [1847], 's_30_19': [1547, 3473, 3472], 's_30_25': [3635], 's_30_31': [1759, 1758, 1757, 3489], 's_30_32': [2283], 's_30_33': [3847], 's_30_34': [1161], 's_30_35': [3861], 's_30_36': [4296, 4297], 's_30_37': [2208, 3446, 3445, 2207, 1997, 1996], 's_30_39': [4341], 's_30_40': [1772], 's_34_9': [3878], 's_34_10': [4763], 's_34_11': [1600], 's_34_15': [4718], 's_34_16': [4673], 's_34_25': [4220], 's_34_31': [4208, 1477], 's_34_32': [3940, 3941], 's_34_35': [4418], 's_34_36': [4073], 's_34_40': [1643, 4403], 's_34_41': [2137, 4256], 's_35_2': [3800, 1159, 3920], 's_35_6': [4647, 2453], 's_35_9': [3801, 1339], 's_35_11': [1295], 's_35_15': [2139, 4721, 4722], 's_35_16': [1732], 's_35_19': [4419, 4420], 's_35_31': [1809], 's_35_33': [4558, 2588], 's_35_36': [3950], 's_35_38': [4402], 's_35_39': [4435, 1838, 1837], 's_35_40': [4509], 's_35_41': [2184], 's_36_2': [4040], 's_36_6': [2257], 's_36_9': [1430], 's_36_11': [1070], 's_36_16': [1672], 's_36_19': [4058, 4059, 4060], 's_36_25': [4010], 's_36_31': [1807], 's_36_33': [1250, 1251], 's_36_37': [1565], 's_36_38': [3951], 's_36_40': [4315], 's_36_41': [4451], 's_37_6': [3762], 's_37_9': [2446], 's_37_11': [3819], 's_37_15': [4333], 's_37_16': [1835], 's_37_19': [3850], 's_37_31': [1879], 's_37_32': [3565], 's_37_38': [3967], 's_37_39': [2436], 's_37_40': [3718], 's_38_2': [2019], 's_38_6': [4588, 2379], 's_38_11': [1359], 's_38_15': [2319], 's_38_19': [4780], 's_38_25': [1336], 's_38_31': [4809], 's_38_33': [3936], 's_38_40': [1898, 4510], 's_39_2': [4309], 's_39_9': [4222], 's_39_11': [4400], 's_39_15': [2527], 's_39_16': [1657], 's_39_19': [4210], 's_39_31': [1701], 's_39_32': [4271], 's_39_33': [2722], 's_40_2': [4525, 1958], 's_40_6': [2026], 's_40_10': [1658, 4523], 's_40_16': [2073], 's_40_19': [2079], 's_40_25': [2012], 's_40_31': [4584], 's_40_41': [2374, 3642], 's_2_6': [3683], 's_2_9': [1608], 's_2_10': [1384], 's_2_11': [3919], 's_2_15': [4715], 's_2_16': [3849, 1699], 's_2_19': [1989], 's_2_25': [3724], 's_2_31': [3669], 's_2_41': [2214], 's_6_10': [1849], 's_6_11': [1729, 1728, 1727], 's_6_15': [4768], 's_6_16': [1711, 3249], 's_6_19': [1743], 's_6_25': [2373], 's_6_31': [1819], 's_6_32': [2148], 's_6_33': [4573, 4574], 's_6_41': [2329], 's_9_10': [3697], 's_9_11': [3862], 's_9_15': [4716], 's_9_16': [1726], 's_9_19': [1458], 's_9_25': [2296], 's_9_33': [1355], 's_9_41': [2357], 's_11_10': [1399], 's_11_19': [2035], 's_11_25': [3965], 's_11_31': [1840], 's_11_32': [3836], 's_11_33': [1130], 's_11_41': [2185], 's_31_10': [2239], 's_31_15': [1855], 's_31_16': [3234, 3233], 's_31_19': [4840, 4839], 's_31_25': [1681], 's_31_32': [2164], 's_31_33': [1806], 's_32_10': [2195], 's_32_16': [3671], 's_32_19': [2133], 's_32_25': [3567], 's_32_33': [2240], 's_32_41': [3537], 's_33_15': [2647], 's_33_19': [1910], 's_33_41': [2136], 's_10_16': [4807], 's_10_19': [2193], 's_19_15': [1990], 's_19_16': [3579], 's_19_25': [1068, 3530], 's_19_41': [3582], 's_25_15': [1014], 's_25_16': [1652], 's_25_41': [2416, 3358], 's_15_16': [1734], 's_15_41': [2289], 's_16_41': [2238, 3717]}</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.002666666666666667</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.001897523436345218</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>{0: [4613, 1538, 1537, 4279, 4280, 2541, 4168, 4167, 4166, 4165, 4164, 4281, 4282, 1536, 4163], 1: [3969, 2123, 2146, 2147, 3416, 2297, 2298, 2299, 2300, 2122, 2121, 4076, 3972, 4541, 2499, 2498, 2497, 2496, 4078, 4077, 2225, 3971, 3970], 's_0_1': [4138], 3: [3803, 3460, 3938, 1625, 2316, 2363, 1786, 1787, 2362, 4212, 2286, 2285, 2284, 3761, 3760, 3759, 3758, 1624, 1623, 3457, 3458, 3459], 's_0_3': [4152], 4: [2479, 3732, 3731, 3353, 3730, 1794, 1793, 1792, 1791, 1790, 1789, 1637, 1638, 1639, 3728, 3729], 's_0_4': [4149], 5: [2241, 4505, 1058, 4392, 2242, 4467, 4466, 4445, 1223, 1224, 4746, 4747, 4748, 4421, 2153, 2154, 4751, 4750, 1810, 4749], 's_0_5': [1584], 7: [1011, 2409, 2408, 2407, 2405, 1132, 4190, 4191, 4192, 4193, 4198, 2406, 4197, 4196, 4195, 4194], 's_0_7': [4153, 2556, 2557], 8: [1956, 1057, 2616, 4123, 4369, 4370, 4371, 4372, 4373, 4122, 4121, 4120, 1630, 1629, 1628, 4448, 1687, 877, 1686, 4119, 4118], 's_0_8': [4169], 12: [3922, 2124, 4012, 4601, 2078, 2077, 1517, 4465, 4464, 1518, 1519, 1520, 1521, 1522, 4462, 4463], 's_0_12': [4267], 13: [2116, 3296, 3297, 4793, 2461, 4795, 4796, 4797, 2259, 2258, 3298, 2581, 2582, 2583, 3808, 4794, 2584, 2585, 2586, 2587, 4424, 4423, 2378, 4512], 's_0_13': [4108], 14: [1645, 4883, 4882, 1205, 2166, 4866, 4881, 4046, 4045, 4044, 4043, 4042, 4041, 1266, 1270, 1269, 1268, 1267], 's_0_14': [1836], 17: [1187, 2109, 3560, 3561, 3562, 3563, 3564, 2543, 4528, 3881, 3549, 3550, 2118, 2119, 4527, 3745, 2104, 2105, 2106, 2107, 2108, 4526], 's_0_17': [4151], 18: [4048, 4474, 4475, 2465, 2466, 4476, 4408, 2393, 2467, 2468, 4482, 4477, 4478, 4479, 4480, 4481], 's_0_18': [4003], 20: [4347, 1913, 1688, 1912, 4629, 4628, 4627, 4345, 1911, 4626, 4615, 1914, 4346], 's_0_20': [1508], 21: [3575, 3576, 3577, 4032, 4031, 1562, 1563, 3623, 3624, 2063, 2062, 2061, 2060, 2059, 2058, 3625], 's_0_21': [2361], 22: [4599, 1684, 909, 4654, 4655, 908, 1524, 4656, 4657, 4658, 1764, 1763, 3912, 3911, 3910, 3909, 3908, 1760, 1761, 1762], 's_0_22': [1479], 23: [3652, 1398, 1249, 1278, 1248, 3591, 3592, 1926, 1925, 1924, 1923, 2464, 2463, 3597, 3596, 3595, 3593, 3594], 's_0_23': [4150], 24: [2086, 4686, 1194, 4625, 1193, 1192, 3508, 3507, 2087, 1191, 1190, 3505, 2507, 3504, 3503, 1488, 3506, 1189, 1188, 3621, 3622], 's_0_24': [4596, 4598, 4597], 26: [4144, 1296, 4145, 1656, 1071, 4100, 2434, 2435, 4063, 4062, 1671, 4101, 4102, 4103, 2302, 2301, 4106, 4105, 4104], 's_0_26': [1176, 4115, 1086], 27: [4534, 4535, 1221, 1222, 1207, 1208, 2269, 4536, 4537, 3792, 3791, 3790, 1969, 1970, 1971, 1972, 4538, 4405, 4404, 1673, 1674], 's_0_27': [1073, 1072, 4265], 28: [2431, 1434, 4582, 4612, 1337, 4356, 2477, 3372, 3371, 3370, 1328, 1327, 1326, 1325, 1324, 1323, 1322, 3369, 3368, 1622, 3443, 3442, 3441], 's_0_28': [1356, 4237], 29: [1264, 4459, 983, 3311, 3310, 3309, 3308, 3307, 1292, 3426, 1172, 3312, 1173, 4250, 982, 981, 980, 979, 978, 3695, 1158, 3696], 's_0_29': [966], 30: [2281, 1414, 1148, 1817, 2282, 3401, 3400, 1252, 4251, 4295, 1147, 1146, 1145, 3399, 3398, 3397, 1412, 1413, 3667, 3666, 1143, 1144], 's_0_30': [1237, 4236], 34: [2090, 2091, 4205, 1599, 1598, 1597, 1596, 4135, 4134, 1640, 1641, 4206, 4207, 1416, 4132, 4133], 's_0_34': [1447], 35: [2350, 2348, 3651, 2349, 4417, 1218, 1219, 2138, 1220, 3966, 1340, 1341, 4557, 4555, 4556, 4554, 1748, 4434, 4433, 4432, 1342], 's_0_35': [4266], 36: [4361, 2227, 1235, 1055, 4301, 4025, 4026, 4027, 4028, 1626, 4300, 4299, 1385, 4298, 1627], 's_0_36': [4238], 37: [2452, 2071, 2072, 3491, 3492, 3493, 3982, 3983, 3984, 2451, 2450, 2447, 1850, 3895, 3896, 3897, 3898, 2449, 2448], 's_0_37': [1535], 38: [3381, 1366, 4671, 1899, 4708, 3502, 1367, 1368, 1369, 1370, 1371, 1372, 4707, 4706, 4705, 4704, 4703, 4702, 1374, 1373], 's_0_38': [4162], 39: [2510, 2197, 1852, 1012, 4325, 4326, 4229, 4228, 4227, 4327, 1492, 4223, 4226, 4225, 2511, 4224], 's_0_39': [1881], 40: [1876, 4493, 4494, 1868, 4585, 4586, 4675, 2034, 2033, 3384, 3703, 3702, 3701, 2032, 2031, 2030, 2029, 2028, 2027, 3385], 's_0_40': [1867, 1866, 4390, 4389, 4388], 2: [1654, 3638, 3668, 1044, 4572, 4571, 1593, 4570, 4569, 4568, 4567, 4566, 4565, 1043, 1594, 3818, 3817, 3816, 3815, 1039, 1040, 4129, 1042, 1041], 's_1_2': [2199], 's_1_3': [2270, 2271], 's_1_5': [2243], 6: [2014, 4362, 3265, 4317, 2423, 2422, 2421, 2420, 3942, 2345, 2344, 1712, 1713, 2041, 2042, 2043, 3552, 2424, 2328, 3687, 3686, 3685, 3684], 's_1_6': [4603], 's_1_8': [2016], 9: [3756, 3327, 1314, 1315, 3326, 3325, 3324, 3328, 1667, 1668, 3877, 3608, 1354, 1312, 1311, 1310, 1309, 3726, 1353, 1313, 3607], 's_1_9': [2131], 11: [3866, 2015, 4825, 1864, 4824, 4823, 4822, 4820, 1105, 1104, 4580, 1028, 1027, 4826, 1026, 1025, 3835, 3834, 3833, 3832, 4821, 1460, 3892, 3891, 3890], 's_1_11': [2165], 's_1_12': [2092, 2093], 's_1_13': [4513], 's_1_14': [1895], 's_1_17': [3880, 1985], 's_1_21': [4450], 's_1_22': [3807, 2404], 's_1_24': [2237], 's_1_26': [1880], 's_1_27': [4075], 's_1_28': [3477, 3476, 2102], 's_1_29': [2162], 's_1_30': [1233, 3190, 3235, 1981, 3189, 3236, 3188, 3186, 3187, 1231, 1232], 31: [1696, 1697, 1698, 3743, 1825, 3806, 3805, 4854, 1909, 3865, 1824, 1823, 1744, 4284, 4209, 1822, 1821, 1820, 3864], 's_1_31': [1805], 32: [4375, 4376, 2267, 2183, 3986, 3566, 2182, 2181, 2177, 2178, 2179, 2180], 's_1_32': [3462], 33: [3846, 2603, 2602, 4349, 4348, 2482, 2481, 4092, 1280, 1281, 4086, 4087, 4088, 4089, 4090, 4091], 's_1_33': [4648], 's_1_35': [4436], 's_1_36': [4029, 1730], 's_1_37': [4183], 's_1_38': [4693], 's_1_39': [2331], 's_1_40': [4495], 's_3_2': [3848], 's_3_4': [3939], 's_3_5': [4422, 2318], 's_3_6': [4497], 's_3_7': [4002], 's_3_8': [1685], 's_3_9': [1473], 10: [3786, 3787, 3674, 3672, 2194, 1554, 3776, 3775, 3774, 3712, 1459, 3773, 3772, 1553, 1552, 1551, 3673, 1550, 3757, 1549], 's_3_10': [1579], 's_3_11': [1564], 's_3_12': [3698], 's_3_17': [1954], 's_3_18': [4302], 19: [4811, 1383, 4810, 3532, 1877, 4000, 3531, 3533, 3581, 3580, 2005, 2004, 2003, 2002, 2001, 3534, 3535, 1998, 1999, 2000], 's_3_19': [1682], 's_3_20': [2347], 's_3_21': [2057, 3415, 3414], 's_3_22': [1670], 's_3_23': [1848], 's_3_24': [1742], 25: [1516, 1008, 2388, 2387, 3282, 3281, 3280, 3279, 3278, 3277, 3276, 1262, 999, 998, 997, 996, 995, 994, 993, 3605, 3606, 1263], 's_3_25': [1427, 3336, 3337], 's_3_26': [4182], 's_3_27': [3882], 's_3_28': [1967], 's_3_29': [1771], 's_3_31': [2089], 's_3_33': [4272], 's_3_34': [3893], 's_3_35': [2364, 4617], 's_3_36': [4437], 's_3_37': [4287], 's_3_38': [1382], 's_3_39': [2256], 's_3_40': [2013], 's_4_2': [1609], 's_4_7': [1776], 's_4_8': [4239], 's_4_9': [3323], 's_4_10': [1774], 's_4_11': [1029, 4940, 4941, 4942, 4943, 1030, 4944, 1795], 's_4_12': [3518], 's_4_13': [3733, 3748], 15: [4213, 2542, 4303, 2512, 2513, 2514, 4738, 4730, 4731, 4732, 4733, 4737, 4734, 4735, 4736], 's_4_15': [4719], 16: [3788, 3354, 3355, 3610, 3611, 4314, 4313, 1938, 3670, 1937, 1834, 4808, 3789, 1714, 1715, 1716, 1717, 1718, 3340, 1936, 1719], 's_4_16': [3639, 1804], 's_4_17': [2088], 's_4_20': [4644], 's_4_21': [1893], 's_4_22': [4014], 's_4_23': [2253, 3627, 3628, 2508], 's_4_25': [3352, 3351], 's_4_26': [3868], 's_4_27': [4539], 's_4_28': [3338], 's_4_29': [1472], 's_4_30': [3413], 's_4_31': [3293], 's_4_32': [3746], 's_4_35': [4524], 's_4_37': [1775], 's_4_38': [4689], 's_4_39': [4344], 's_4_40': [4674], 's_5_6': [4452], 's_5_9': [4521], 's_5_10': [1539], 's_5_11': [1135], 's_5_12': [2018], 's_5_13': [4676], 's_5_14': [4581], 's_5_15': [2094], 's_5_16': [4764], 's_5_17': [2198], 's_5_18': [2288], 's_5_19': [2049], 's_5_20': [1959], 's_5_21': [2047], 's_5_22': [1389], 's_5_24': [4640], 's_5_25': [4444], 's_5_26': [4407], 's_5_28': [4762], 's_5_30': [1162], 's_5_32': [4316], 's_5_35': [4446], 's_5_36': [2152], 's_5_37': [2437], 's_5_38': [1869], 's_5_40': [1974], 41: [2268, 3612, 2343, 2342, 2170, 4631, 3747, 3357, 2312, 2313, 2314, 3852, 2210, 4181, 2169, 2168, 2167, 4286, 2212, 2211], 's_5_41': [4661], 's_7_2': [4340], 's_7_6': [2377], 's_7_8': [4199], 's_7_10': [4178], 's_7_11': [4175], 's_7_13': [2601], 's_7_14': [1282], 's_7_15': [4258], 's_7_16': [1731], 's_7_20': [1987], 's_7_21': [2046], 's_7_22': [4179], 's_7_29': [4189], 's_7_30': [1087], 's_7_31': [4283, 1642], 's_7_32': [3987], 's_7_34': [1236], 's_7_35': [4176], 's_7_38': [4177], 's_7_39': [1102], 's_7_40': [2017], 's_7_41': [2151], 's_8_2': [876], 's_8_6': [4137], 's_8_9': [1298], 's_8_11': [4264], 's_8_12': [4117], 's_8_13': [4244], 's_8_15': [4288], 's_8_16': [1612], 's_8_18': [923], 's_8_20': [4449], 's_8_21': [2346], 's_8_24': [4310], 's_8_25': [4385], 's_8_26': [1986], 's_8_27': [878], 's_8_29': [4249], 's_8_30': [4294], 's_8_31': [4253, 4254, 1567], 's_8_33': [2617], 's_8_36': [2226], 's_8_39': [4324], 's_8_41': [4136], 's_12_2': [1475], 's_12_10': [1534], 's_12_11': [1445], 's_12_14': [1476], 's_12_16': [1702], 's_12_17': [4511], 's_12_18': [1928], 's_12_19': [4660], 's_12_20': [4600], 's_12_21': [1973, 4540, 2048], 's_12_22': [1595, 3953, 3952], 's_12_23': [3636, 3637], 's_12_24': [3488], 's_12_25': [1501, 1502], 's_12_26': [4013], 's_12_27': [1583], 's_12_31': [3863], 's_12_33': [1461], 's_12_35': [1463], 's_12_37': [3937, 1490], 's_12_38': [3997], 's_12_39': [1506], 's_12_40': [1853], 's_12_41': [4691], 's_13_2': [2333, 4587], 's_13_6': [3553], 's_13_9': [2491], 's_13_10': [4778], 's_13_11': [1945], 's_13_14': [1615], 's_13_15': [2365], 's_13_16': [1675], 's_13_17': [2110], 's_13_18': [2528], 's_13_19': [1960], 's_13_22': [1509], 's_13_23': [3823], 's_13_24': [3463], 's_13_25': [2401], 's_13_28': [2537, 3373], 's_13_29': [2101], 's_13_30': [2222, 2221, 2236], 's_13_31': [1780], 's_13_35': [4602], 's_13_37': [3478], 's_13_38': [2394, 4542, 4543, 2559], 's_13_39': [4214, 2676], 's_13_41': [4646], 's_14_2': [1284], 's_14_9': [4836], 's_14_10': [1555], 's_14_11': [1060, 4880], 's_14_15': [1300], 's_14_16': [1660, 4779], 's_14_17': [4001], 's_14_18': [1283], 's_14_19': [1940, 4015], 's_14_20': [4642, 4641], 's_14_21': [2120], 's_14_22': [1745], 's_14_23': [4030], 's_14_24': [4791], 's_14_26': [1505], 's_14_28': [1329, 4701], 's_14_30': [1415], 's_14_31': [4869, 4868, 4867], 's_14_32': [2135], 's_14_33': [1865], 's_14_34': [1206], 's_14_35': [1204, 3770], 's_14_36': [1116, 4071], 's_14_38': [4806], 's_14_40': [4061], 's_14_41': [4047], 's_17_2': [3548], 's_17_9': [1443], 's_17_10': [3656], 's_17_11': [3851], 's_17_15': [2273, 2274], 's_17_16': [1984], 's_17_18': [4363], 's_17_19': [3520, 1892], 's_17_21': [1578], 's_17_22': [2150], 's_17_23': [3744], 's_17_24': [1862], 's_17_25': [1083], 's_17_28': [2117], 's_17_30': [1907], 's_17_31': [2074], 's_17_32': [3716], 's_17_33': [4498], 's_17_35': [3545], 's_17_36': [2228], 's_17_37': [4378, 2558, 4439], 's_17_39': [4211], 's_17_40': [4630], 's_17_41': [2213], 's_18_2': [1703], 's_18_6': [4409, 2662, 2661, 2660, 3943], 's_18_10': [4492], 's_18_15': [4483], 's_18_16': [1733], 's_18_20': [2392], 's_18_21': [4033], 's_18_22': [1089, 1088], 's_18_23': [3853, 2495, 2494], 's_18_24': [4490], 's_18_25': [4489], 's_18_26': [2303], 's_18_27': [1238], 's_18_28': [1358], 's_18_30': [1133, 4416], 's_18_31': [1808], 's_18_32': [4496], 's_18_33': [4393], 's_18_34': [1613], 's_18_37': [3973], 's_18_38': [1254, 1253, 4461], 's_18_39': [1013], 's_18_40': [1943], 's_20_2': [1523], 's_20_6': [2317], 's_20_10': [4688, 1644], 's_20_15': [1779], 's_20_16': [4614], 's_20_19': [4720], 's_20_22': [1404], 's_20_24': [1239], 's_20_26': [4332], 's_20_27': [1927], 's_20_28': [1464], 's_20_31': [4659], 's_20_32': [4331], 's_20_34': [4643], 's_20_35': [1839], 's_20_36': [1897], 's_20_38': [1419], 's_20_40': [1883], 's_20_41': [4180], 's_21_2': [3578], 's_21_6': [3655], 's_21_9': [3609], 's_21_10': [1548], 's_21_16': [1953, 1952], 's_21_19': [1113], 's_21_22': [2315], 's_21_23': [1878], 's_21_24': [3590], 's_21_25': [1531, 3367], 's_21_27': [2254, 2255], 's_21_29': [1129, 1128], 's_21_30': [3547], 's_21_32': [3626], 's_21_33': [2075], 's_21_34': [4241], 's_21_35': [1338], 's_21_37': [2330], 's_21_38': [3382], 's_21_40': [4645], 's_22_6': [2390], 's_22_9': [1299], 's_22_10': [3907], 's_22_15': [1179], 's_22_16': [1765], 's_22_19': [3924, 3925], 's_22_24': [1119, 4611], 's_22_25': [4639], 's_22_26': [1655], 's_22_27': [2419], 's_22_28': [1449], 's_22_29': [4624], 's_22_31': [4329], 's_22_33': [2480], 's_22_34': [3968, 1610], 's_22_36': [1747, 4374], 's_22_37': [2375], 's_22_38': [4672], 's_22_40': [3913, 2524, 2525], 's_22_41': [2359, 2360], 's_23_2': [1474], 's_23_6': [1968], 's_23_9': [3654, 1863, 3653, 1669], 's_23_10': [1444], 's_23_11': [3820], 's_23_16': [1833], 's_23_19': [1653], 's_23_24': [1293], 's_23_25': [3538], 's_23_26': [3793], 's_23_27': [3715], 's_23_28': [2478, 3688], 's_23_29': [3471], 's_23_30': [1818], 's_23_31': [3954], 's_23_32': [2163], 's_23_33': [1279], 's_23_35': [3516], 's_23_37': [3523], 's_23_38': [3411, 1247], 's_23_39': [1941], 's_23_41': [2418], 's_24_2': [1592], 's_24_6': [2402], 's_24_9': [3682, 3681], 's_24_11': [4805], 's_24_15': [1059], 's_24_16': [3490], 's_24_19': [1532], 's_24_25': [2462, 3387], 's_24_26': [4011], 's_24_27': [4056], 's_24_29': [1074, 4595], 's_24_30': [3620], 's_24_31': [1803, 3519], 's_24_33': [3996], 's_24_34': [4221], 's_24_36': [3876], 's_24_37': [3433], 's_24_38': [4670, 1209], 's_24_40': [2538, 2539], 's_24_41': [2417, 3402], 's_26_2': [4099], 's_26_6': [3957], 's_26_9': [1431, 4057], 's_26_10': [4148], 's_26_11': [4070], 's_26_19': [2045], 's_26_28': [4072], 's_26_29': [4055, 936], 's_26_31': [4074], 's_26_33': [1611], 's_26_34': [1386], 's_26_35': [1175], 's_26_37': [3927], 's_26_39': [4257], 's_26_40': [2433], 's_26_41': [3777], 's_27_2': [1178], 's_27_6': [2209], 's_27_9': [4506], 's_27_10': [2134], 's_27_11': [3985], 's_27_16': [1939, 3700], 's_27_25': [4550], 's_27_28': [1433], 's_27_29': [4549], 's_27_30': [1163], 's_27_32': [3926], 's_27_33': [4085], 's_27_34': [4358], 's_27_35': [1388], 's_27_36': [1957], 's_27_37': [2224], 's_27_38': [1494], 's_27_40': [2149], 's_28_2': [1403], 's_28_6': [1802, 3444], 's_28_9': [2476], 's_28_10': [3771], 's_28_11': [4355], 's_28_15': [1343, 1344], 's_28_16': [1982], 's_28_19': [1352, 3487], 's_28_25': [1487], 's_28_29': [1217], 's_28_30': [3342, 2327], 's_28_31': [3383], 's_28_32': [3386], 's_28_33': [4131], 's_28_34': [4583], 's_28_35': [4116], 's_28_36': [3981], 's_28_38': [1397], 's_28_39': [1177], 's_28_40': [1832], 's_28_41': [3417], 's_29_2': [1234], 's_29_6': [1921], 's_29_9': [1741], 's_29_10': [3741, 1294], 's_29_11': [3964, 935], 's_29_19': [1157], 's_29_25': [1023, 3559, 1024, 992], 's_29_30': [4159, 4160], 's_29_32': [2266], 's_29_34': [4339, 937], 's_29_36': [3994, 3995], 's_29_37': [3220, 1951], 's_29_38': [3322], 's_29_39': [4415], 's_29_40': [2056], 's_29_41': [2192], 's_30_2': [4130], 's_30_6': [3429], 's_30_9': [3802], 's_30_10': [3711], 's_30_11': [4520], 's_30_16': [1847], 's_30_19': [1547, 3473, 3472], 's_30_25': [3635], 's_30_31': [1759, 1758, 1757, 3489], 's_30_32': [2283], 's_30_33': [3847], 's_30_34': [1161], 's_30_35': [3861], 's_30_36': [4296, 4297], 's_30_37': [2208, 3446, 3445, 2207, 1997, 1996], 's_30_39': [4341], 's_30_40': [1772], 's_34_9': [3878], 's_34_10': [4763], 's_34_11': [1600], 's_34_15': [4718], 's_34_16': [4673], 's_34_25': [4220], 's_34_31': [4208, 1477], 's_34_32': [3940, 3941], 's_34_35': [4418], 's_34_36': [4073], 's_34_40': [1643, 4403], 's_34_41': [2137, 4256], 's_35_2': [3800, 1159, 3920], 's_35_6': [4647, 2453], 's_35_9': [3801, 1339], 's_35_11': [1295], 's_35_15': [2139, 4721, 4722], 's_35_16': [1732], 's_35_19': [4419, 4420], 's_35_31': [1809], 's_35_33': [4558, 2588], 's_35_36': [3950], 's_35_38': [4402], 's_35_39': [4435, 1838, 1837], 's_35_40': [4509], 's_35_41': [2184], 's_36_2': [4040], 's_36_6': [2257], 's_36_9': [1430], 's_36_11': [1070], 's_36_16': [1672], 's_36_19': [4058, 4059, 4060], 's_36_25': [4010], 's_36_31': [1807], 's_36_33': [1250, 1251], 's_36_37': [1565], 's_36_38': [3951], 's_36_40': [4315], 's_36_41': [4451], 's_37_6': [3762], 's_37_9': [2446], 's_37_11': [3819], 's_37_15': [4333], 's_37_16': [1835], 's_37_19': [3850], 's_37_31': [1879], 's_37_32': [3565], 's_37_38': [3967], 's_37_39': [2436], 's_37_40': [3718], 's_38_2': [2019], 's_38_6': [4588, 2379], 's_38_11': [1359], 's_38_15': [2319], 's_38_19': [4780], 's_38_25': [1336], 's_38_31': [4809], 's_38_33': [3936], 's_38_40': [1898, 4510], 's_39_2': [4309], 's_39_9': [4222], 's_39_11': [4400], 's_39_15': [2527], 's_39_16': [1657], 's_39_19': [4210], 's_39_31': [1701], 's_39_32': [4271], 's_39_33': [2722], 's_40_2': [4525, 1958], 's_40_6': [2026], 's_40_10': [1658, 4523], 's_40_16': [2073], 's_40_19': [2079], 's_40_25': [2012], 's_40_31': [4584], 's_40_41': [2374, 3642], 's_2_6': [3683], 's_2_9': [1608], 's_2_10': [1384], 's_2_11': [3919], 's_2_15': [4715], 's_2_16': [3849, 1699], 's_2_19': [1989], 's_2_25': [3724], 's_2_31': [3669], 's_2_41': [2214], 's_6_10': [1849], 's_6_11': [1729, 1728, 1727], 's_6_15': [4768], 's_6_16': [1711, 3249], 's_6_19': [1743], 's_6_25': [2373], 's_6_31': [1819], 's_6_32': [2148], 's_6_33': [4573, 4574], 's_6_41': [2329], 's_9_10': [3697], 's_9_11': [3862], 's_9_15': [4716], 's_9_16': [1726], 's_9_19': [1458], 's_9_25': [2296], 's_9_33': [1355], 's_9_41': [2357], 's_11_10': [1399], 's_11_19': [2035], 's_11_25': [3965], 's_11_31': [1840], 's_11_32': [3836], 's_11_33': [1130], 's_11_41': [2185], 's_31_10': [2239], 's_31_15': [1855], 's_31_16': [3234, 3233], 's_31_19': [4840, 4839], 's_31_25': [1681], 's_31_32': [2164], 's_31_33': [1806], 's_32_10': [2195], 's_32_16': [3671], 's_32_19': [2133], 's_32_25': [3567], 's_32_33': [2240], 's_32_41': [3537], 's_33_15': [2647], 's_33_19': [1910], 's_33_41': [2136], 's_10_16': [4807], 's_10_19': [2193], 's_19_15': [1990], 's_19_16': [3579], 's_19_25': [1068, 3530], 's_19_41': [3582], 's_25_15': [1014], 's_25_16': [1652], 's_25_41': [2416, 3358], 's_15_16': [1734], 's_15_41': [2289], 's_16_41': [2238, 3717]}</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0.002666666666666667</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.001897523436345218</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>{0: [3135, 150, 3496, 242, 151, 152, 3420], 1: [166, 3213, 3210, 3211, 3212], 2: [3616, 378, 375, 376, 377], 3: [3438, 3437, 3555, 3556, 450, 451, 452], 4: [2957, 3421, 393, 390, 391, 392], 5: [572, 3240, 571, 3241, 3243, 3242], 9: [3450, 300, 3451, 301, 303, 302], 10: [3154, 810, 811, 3363, 3360, 3361, 3362], 12: [3183, 3182, 3180, 3181], 13: [3001, 330, 331, 333, 332], 14: [3540, 3541, 3542, 3513, 3422, 600, 601, 602], 16: [2970, 3030, 195, 196, 3255, 3257, 3256], 17: [3195, 3198, 3197, 3196], 18: [348, 345, 346, 347], 19: [210, 3511, 211, 212, 3405, 272], 21: [420, 3150, 3151, 556, 3153, 3152], 22: [256, 255, 3138, 3137, 3136], 23: [315, 3285, 3288, 316, 3287, 3286], 24: [3319, 661, 3318, 227, 3316, 3317], 25: [735, 3120, 3121, 737, 736, 3123, 3122], 26: [3435, 3497, 3436, 525, 437, 527, 526], 30: [3107, 2985, 781, 780, 2986, 2987, 2988, 705, 3108], 33: [3377, 467, 3375, 3376, 465, 466], 34: [3228, 3226, 630, 631, 3225, 3227], 35: [796, 795, 3060, 3063, 3061, 3062], 36: [3468, 3467, 3466, 285, 286, 287], 39: [360, 361, 363, 362], 41: [3526, 615, 616, 3527, 3528, 617], 6: [3165, 3169, 240, 3168, 3167, 3166], 7: [543, 3406, 3407, 540, 541, 542], 8: [2971, 723, 722, 2972, 721, 720, 2973], 15: [165, 3047, 3046, 271, 270, 3045], 20: [422, 317, 180, 3391, 3390, 182, 181], 27: [676, 421, 3303, 3300, 3301, 3302], 28: [588, 3075, 587, 3017, 586, 3076, 3077, 585], 31: [3512, 405, 408, 406, 407], 32: [3334, 481, 482, 3333, 557, 3331, 3332], 37: [3015, 3016, 495, 3452, 498, 496, 497], 38: [3094, 226, 3090, 3093, 3092, 3091], 40: [3270, 3271, 691, 3273, 3272], 42: [2942, 646, 3031, 2941, 555, 645, 3032], 11: [3481, 510, 3482, 513, 511, 512], 29: [435, 3348, 3346, 436, 3349, 3347]}</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.385450825837119</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.03463940470507874</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>{0: [3135, 150, 3496, 242, 151, 152, 3420], 1: [166, 3213, 3210, 3211, 3212], 2: [3616, 378, 375, 376, 377], 3: [3438, 3437, 3555, 3556, 450, 451, 452], 4: [2957, 3421, 393, 390, 391, 392], 5: [572, 3240, 571, 3241, 3243, 3242], 9: [3450, 300, 3451, 301, 303, 302], 10: [3154, 810, 811, 3363, 3360, 3361, 3362], 12: [3183, 3182, 3180, 3181], 13: [3001, 330, 331, 333, 332], 14: [3540, 3541, 3542, 3513, 3422, 600, 601, 602], 16: [2970, 3030, 195, 196, 3255, 3257, 3256], 17: [3195, 3198, 3197, 3196], 18: [348, 345, 346, 347], 19: [210, 3511, 211, 212, 3405, 272], 21: [420, 3150, 3151, 556, 3153, 3152], 22: [256, 255, 3138, 3137, 3136], 23: [315, 3285, 3288, 316, 3287, 3286], 24: [3319, 661, 3318, 227, 3316, 3317], 25: [735, 3120, 3121, 737, 736, 3123, 3122], 26: [3435, 3497, 3436, 525, 437, 527, 526], 30: [3107, 2985, 781, 780, 2986, 2987, 2988, 705, 3108], 33: [3377, 467, 3375, 3376, 465, 466], 34: [3228, 3226, 630, 631, 3225, 3227], 35: [796, 795, 3060, 3063, 3061, 3062], 36: [3468, 3467, 3466, 285, 286, 287], 39: [360, 361, 363, 362], 41: [3526, 615, 616, 3527, 3528, 617], 6: [3165, 3169, 240, 3168, 3167, 3166], 7: [543, 3406, 3407, 540, 541, 542], 8: [2971, 723, 722, 2972, 721, 720, 2973], 15: [165, 3047, 3046, 271, 270, 3045], 20: [422, 317, 180, 3391, 3390, 182, 181], 27: [676, 421, 3303, 3300, 3301, 3302], 28: [588, 3075, 587, 3017, 586, 3076, 3077, 585], 31: [3512, 405, 408, 406, 407], 32: [3334, 481, 482, 3333, 557, 3331, 3332], 37: [3015, 3016, 495, 3452, 498, 496, 497], 38: [3094, 226, 3090, 3093, 3092, 3091], 40: [3270, 3271, 691, 3273, 3272], 42: [2942, 646, 3031, 2941, 555, 645, 3032], 11: [3481, 510, 3482, 513, 511, 512], 29: [435, 3348, 3346, 436, 3349, 3347]}</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0.385450825837119</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.03463940470507874</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>{0: [4685, 1062, 999, 1000, 1001, 2007, 5185, 5184, 5183, 1181, 5182, 5181, 5179, 5180], 1: [4941, 4662, 4309, 1057, 4752, 2319, 4317, 4602, 2258, 2257, 4316, 4315, 1212, 1211, 1210, 1209, 1208, 1207, 4310, 4311, 4312, 4313, 4314], 's_0_1': [1227], 2: [1123, 1122, 1121, 1120, 4497, 4496, 4495, 1958, 4571, 4570, 4569, 1119, 4566, 4567, 4568], 's_0_2': [5225], 3: [5270, 1167, 4332, 4017, 5331, 2346, 2347, 2348, 2349, 5332, 5333, 5334, 1737, 1736, 5109, 5110, 2188, 2187, 2350, 2351, 5111, 5112, 2352], 's_0_3': [5195], 4: [4331, 4775, 1047, 1046, 1045, 1044, 1043, 1042, 4145, 4146, 2469, 2468, 4422, 4147, 1041, 4148, 4149, 4150, 4423, 4151, 2241, 2242], 's_0_4': [5300], 5: [1071, 1432, 986, 5044, 4834, 4092, 4091, 4090, 4089, 4088, 941, 940, 939, 938, 937, 4220, 4221, 1236, 4086, 1431, 4087], 's_0_5': [942], 9: [1251, 1252, 1237, 1959, 1960, 4915, 4914, 4446, 1238, 1239, 1240, 1241, 1873, 5424, 1828, 1826, 1827, 5120, 5121, 5122, 5124, 5123], 's_0_9': [1137], 10: [4415, 4505, 1117, 1118, 1103, 4475, 4476, 4477, 4478, 1903, 5275, 1902, 1901, 1900, 1899, 5214, 1898, 4479], 's_0_10': [1962], 12: [1888, 5531, 5529, 2047, 1964, 1177, 4341, 4342, 4343, 1702, 4434, 4435, 4436, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 5530], 's_0_12': [5170], 13: [5254, 958, 2455, 4618, 5359, 1603, 2514, 2515, 2516, 5113, 5360, 2456, 1257, 1258, 5361, 5362, 2457, 5367, 5366, 5365, 5364, 5363], 's_0_13': [1002], 14: [1484, 2435, 2436, 5469, 2437, 2438, 2439, 2441, 5143, 5142, 2202, 5468, 1618, 1617, 1616, 5093, 2440, 5094, 5095, 5096], 's_0_14': [2051], 16: [4118, 4881, 3953, 5650, 5649, 1724, 1723, 1722, 1949, 1721, 1720, 1735, 4882, 1480, 4763, 4764, 1734, 1733, 1732, 1731, 1730], 's_0_16': [4880], 17: [4058, 4059, 4060, 1994, 1986, 1987, 4870, 1993, 1992, 1991, 1990, 1989, 1988], 's_0_17': [5140], 18: [4390, 4960, 5484, 1283, 4356, 4357, 4358, 4359, 1853, 1854, 1814, 1855, 1813, 1812, 1856, 5245, 5244, 1857, 5169], 's_0_18': [5155], 19: [2204, 1146, 1147, 1148, 1149, 1150, 4956, 4959, 4958, 4957, 1421, 5577, 5576, 5575, 5574, 5573, 5572, 1424, 1423, 1422], 's_0_19': [5167], 21: [5239, 4464, 4452, 957, 956, 955, 4746, 4747, 4672, 4451, 4745, 4450, 4449, 4448, 4463, 4462, 1433, 1434], 's_0_21': [5014], 22: [4842, 4841, 895, 4864, 4865, 4840, 4839, 4838, 1690, 4191, 1312, 1313, 1314, 1315, 4866, 4867, 4868], 's_0_22': [4686], 23: [4598, 1505, 5030, 1506, 2410, 4857, 4856, 4855, 4854, 4853, 5031, 5032, 1496, 1495, 4327, 1507, 1508, 1509, 1510, 4852], 's_0_23': [1061], 24: [2215, 2216, 2217, 5337, 967, 968, 969, 970, 971, 5231, 2232, 2233, 5456, 5455, 5454, 5453, 5452, 5451, 5450, 1063, 5330, 972], 's_0_24': [4999], 25: [4647, 1571, 1572, 4883, 998, 4718, 1597, 4646, 4644, 4645, 4643, 1598, 1660, 4610, 4611, 1570, 4612, 4613, 1599], 's_0_25': [1059], 26: [5437, 1363, 1852, 5242, 4717, 2421, 4182, 5422, 1453, 1452, 4181, 4180, 4179, 4178, 4177, 1451, 1450, 1449, 1448, 1447], 's_0_26': [1482], 30: [4827, 4542, 3969, 3970, 3971, 2375, 2376, 2068, 2067, 2066, 5035, 3972, 5036, 5037, 2381, 2380, 2379, 2378, 2377], 's_0_30': [5215], 33: [5128, 1795, 2528, 2532, 1388, 2171, 1389, 4926, 1392, 1391, 1390, 4927, 4928, 4929, 4930, 2529, 2530, 2531, 4933, 4932, 4931], 's_0_33': [4925], 34: [5178, 836, 835, 820, 2488, 2487, 819, 818, 4519, 4520, 2486, 4521, 4522, 4523, 4524, 4525, 2485, 2484, 4603, 2423, 4527, 4526], 's_0_34': [4684], 35: [4480, 5255, 1973, 1974, 1975, 1976, 1977, 4731, 1270, 1271, 1272, 1273, 5256, 5257, 5258, 5260, 5259], 's_0_35': [1032], 36: [4699, 1012, 1013, 1014, 1602, 1601, 1467, 1466, 4872, 2275, 5006, 5005, 5004, 5003, 5002, 5001, 5000, 1165, 1164, 4700], 's_0_36': [1074], 39: [1540, 2270, 5606, 5605, 3987, 5604, 5603, 1634, 1633, 1632, 1631, 1630, 4778, 1538, 1539, 3986, 3985, 3984, 3983, 1535, 1536, 1537], 's_0_39': [1541], 41: [1405, 1406, 881, 2038, 5092, 5089, 5090, 5413, 5412, 5411, 5410, 5409, 5408, 5407, 5406, 1288, 1287, 5091], 's_0_41': [882], 's_1_2': [2243], 's_1_3': [2362], 's_1_4': [2467], 's_1_5': [4235], 6: [1825, 4779, 4781, 4029, 4030, 4031, 2181, 2368, 2367, 2366, 4782, 2365, 2364, 2363, 4437, 2272, 4780, 2369, 2271, 4136], 's_1_6': [2229], 7: [1075, 4490, 1782, 1781, 1780, 2604, 4813, 4812, 4811, 4810, 4804, 1178, 1179, 4805, 4806, 4807, 4809, 4808], 's_1_7': [4701], 8: [1872, 4656, 1017, 5285, 1374, 5293, 5292, 5291, 5286, 1376, 5290, 1375, 5289, 5288, 1377, 5287], 's_1_8': [5301], 's_1_9': [4716], 's_1_10': [4280], 's_1_14': [4302], 15: [1015, 4940, 1106, 5498, 4910, 4911, 1316, 1317, 1318, 5503, 5502, 5501, 5500, 5499, 1708, 5378, 5377, 5376], 's_1_15': [5226], 's_1_19': [4325], 20: [4749, 1810, 4073, 4074, 1806, 1807, 1808, 1809, 2339, 2338, 2337, 2336, 4659, 4660, 2335, 4797, 4796, 2020, 4751, 2154, 4661], 's_1_20': [2259], 's_1_22': [4536], 's_1_23': [5015], 's_1_24': [2214], 's_1_25': [1224], 's_1_26': [2212], 27: [2060, 5457, 4105, 4783, 4703, 4196, 2167, 4704, 2168, 2169, 4706, 2429, 4705, 2428, 2106, 2427, 2426, 2425, 2424, 4707], 's_1_27': [4481], 28: [1672, 4265, 4539, 4266, 1673, 1356, 4192, 4194, 4826, 2186, 1868, 4193, 4585, 4586, 1866, 2184, 4723, 4722, 4721, 1867, 2185], 's_1_28': [1822], 's_1_30': [4737], 31: [5060, 3908, 5420, 5315, 1093, 4001, 4000, 3999, 1745, 1746, 1092, 1091, 1090, 1089, 1088, 1087, 4205, 4206, 1297, 4207, 4208, 4209], 's_1_31': [952], 32: [2549, 2046, 1676, 4944, 1777, 4945, 5338, 2548, 2547, 2546, 4948, 4946, 4947, 4270, 2225, 2226, 4271, 4269, 2302, 2303, 2304, 2305], 's_1_32': [2227], 's_1_33': [4663], 's_1_34': [1223], 's_1_35': [5136], 's_1_36': [4400], 37: [5211, 4135, 4134, 1790, 1791, 1347, 1792, 1346, 4385, 4386, 1345, 1344, 1343, 1342, 4389, 4388, 4387], 's_1_37': [1327], 38: [5345, 1197, 5046, 5047, 1361, 4541, 1196, 4540, 2111, 5081, 1941, 5077, 5078, 5079, 5080, 1942, 4976, 1943, 1944, 1945, 1946], 's_1_38': [2199], 40: [1558, 1557, 1656, 1556, 1555, 1554, 1956, 1614, 4226, 4225, 4224, 1657, 1658, 1659, 4688], 's_1_40': [2182], 42: [5336, 4296, 4513, 4512, 4511, 2144, 4297, 4298, 4299, 4300, 2092, 2093, 2143, 2142, 2141, 2140, 2139, 4601], 's_1_42': [2077], 's_2_3': [5240], 's_2_4': [4535], 's_2_6': [4482], 's_2_7': [4670], 's_2_9': [5106], 's_2_10': [1703], 11: [1762, 1747, 4374, 4405, 5335, 1838, 1911, 1912, 4629, 1839, 1844, 1843, 1842, 1913, 5018, 5019, 4628, 1841, 1840], 's_2_11': [2003], 's_2_13': [5151], 's_2_16': [1479], 's_2_17': [4555], 's_2_18': [1284], 's_2_19': [4835], 's_2_20': [4584], 's_2_22': [1135], 's_2_23': [4583], 's_2_26': [1464], 's_2_27': [2034], 's_2_28': [1674], 's_2_30': [2393], 's_2_31': [4895], 's_2_32': [4572], 's_2_33': [4498], 's_2_34': [2408], 's_2_35': [4510], 's_2_36': [4791], 's_2_37': [4582], 's_2_38': [2019], 's_2_41': [5316], 's_2_42': [2138], 's_3_4': [4392], 's_3_5': [2361], 's_3_6': [4212], 's_3_7': [5154], 's_3_8': [1332], 's_3_9': [5304], 's_3_10': [1916], 's_3_11': [5274], 's_3_12': [5156], 's_3_13': [1542], 's_3_14': [1783], 's_3_15': [1243], 's_3_18': [5319], 's_3_20': [4962], 's_3_23': [5007], 's_3_24': [5201], 's_3_26': [4287], 's_3_27': [4887], 's_3_28': [4587], 29: [2247, 4072, 2246, 5068, 5067, 2321, 2021, 2292, 2291, 1416, 4977, 1417, 2245, 4901, 4900, 1418, 1419, 1420, 4897, 4898, 4899], 's_3_29': [5157], 's_3_30': [2255], 's_3_31': [1168], 's_3_33': [1796], 's_3_34': [5217], 's_3_35': [1663], 's_3_37': [1362], 's_3_38': [2081], 's_3_39': [2330], 's_3_40': [5318], 's_3_41': [1678], 's_3_42': [5321], 's_4_5': [1026], 's_4_6': [4257], 's_4_7': [4693], 's_4_8': [5194], 's_4_9': [1031], 's_4_10': [1116], 's_4_11': [1761], 's_4_13': [2513], 's_4_14': [4558], 's_4_15': [1060], 's_4_16': [1701], 's_4_17': [1566], 's_4_19': [4550], 's_4_21': [4849], 's_4_22': [1326], 's_4_23': [1521], 's_4_25': [4639], 's_4_26': [1596], 's_4_27': [2031], 's_4_29': [1311], 's_4_31': [1086], 's_4_32': [4286], 's_4_33': [2543], 's_4_36': [4444], 's_4_39': [1551], 's_4_40': [2091], 's_4_41': [4984], 's_4_42': [2483], 's_5_6': [2211], 's_5_7': [4790], 's_5_9': [5105], 's_5_10': [4175], 's_5_12': [1176], 's_5_14': [2450], 's_5_15': [4955], 's_5_16': [1715], 's_5_19': [4160], 's_5_20': [1641], 's_5_22': [4237], 's_5_23': [4117], 's_5_24': [4354], 's_5_25': [4474], 's_5_26': [2286], 's_5_27': [2090], 's_5_28': [1191], 's_5_29': [1340], 's_5_30': [2420], 's_5_31': [996], 's_5_34': [4833], 's_5_36': [4459], 's_5_37': [1836], 's_5_38': [4104], 's_5_39': [4106], 's_5_40': [2151], 's_5_41': [5059], 's_9_10': [4401], 's_9_11': [5379], 's_9_12': [4445], 's_9_13': [1242], 's_9_14': [1662], 's_9_17': [4735], 's_9_18': [5125], 's_9_19': [4971], 's_9_20': [1811], 's_9_21': [4461], 's_9_24': [1798], 's_9_25': [4596], 's_9_26': [4176], 's_9_27': [4690], 's_9_29': [2036], 's_9_31': [1107], 's_9_32': [4974], 's_9_33': [1765], 's_9_34': [1253], 's_9_35': [1858], 's_9_37': [4641], 's_9_38': [1511], 's_9_39': [1829], 's_9_40': [5108], 's_9_41': [5119], 's_10_7': [1133], 's_10_8': [5305], 's_10_11': [5544], 's_10_12': [4460], 's_10_14': [5470], 's_10_15': [5515], 's_10_17': [5440], 's_10_18': [4975], 's_10_19': [1904], 's_10_21': [1583], 's_10_24': [5276], 's_10_25': [1358], 's_10_29': [5050], 's_10_30': [5065], 's_10_32': [1915], 's_10_33': [1403], 's_10_34': [1643], 's_10_35': [4765], 's_10_36': [4430], 's_10_38': [1947], 's_10_39': [1553], 's_10_41': [1918], 's_12_6': [5532], 's_12_7': [2110], 's_12_8': [5306], 's_12_11': [4344], 's_12_13': [2113], 's_12_14': [5141], 's_12_15': [1784], 's_12_16': [5620], 's_12_17': [4675], 's_12_18': [1582], 's_12_19': [2294], 's_12_20': [4691], 's_12_21': [2153], 's_12_22': [4371], 's_12_23': [4328], 's_12_24': [2174], 's_12_25': [4373], 's_12_30': [5471], 's_12_31': [1642], 's_12_32': [1778], 's_12_33': [4916], 's_12_34': [2033], 's_12_37': [1567], 's_12_38': [4375], 's_12_39': [5528], 's_12_40': [4419], 's_12_41': [2278], 's_12_42': [5591], 's_13_6': [2353], 's_13_7': [4828], 's_13_11': [2008], 's_13_15': [1707], 's_13_18': [1753], 's_13_19': [1438], 's_13_20': [5187], 's_13_21': [822], 's_13_23': [4858], 's_13_24': [5344], 's_13_26': [5391], 's_13_27': [2412], 's_13_28': [2499], 's_13_29': [5053], 's_13_31': [5419], 's_13_32': [5248], 's_13_33': [4678], 's_13_34': [5098], 's_13_36': [1256], 's_13_40': [5347], 's_13_41': [1933], 's_13_42': [2158], 's_14_6': [5172], 's_14_7': [2454], 's_14_8': [2502], 's_14_11': [1931], 's_14_15': [1528], 's_14_16': [5213], 's_14_19': [5557], 's_14_21': [2452], 's_14_22': [1691], 's_14_23': [4992], 's_14_24': [5127], 's_14_25': [5138], 's_14_26': [4183], 's_14_27': [5022], 's_14_28': [4738], 's_14_29': [5186], 's_14_30': [4213], 's_14_32': [4918], 's_14_33': [4573], 's_14_34': [5083], 's_14_36': [5243], 's_14_39': [5348], 's_14_40': [5153], 's_14_41': [2203], 's_14_42': [2156], 's_16_6': [4719], 's_16_7': [5049], 's_16_8': [5229], 's_16_15': [1709], 's_16_17': [5590], 's_16_18': [5064], 's_16_19': [1769], 's_16_21': [1524], 's_16_22': [1255], 's_16_25': [4673], 's_16_26': [1465], 's_16_27': [1794], 's_16_28': [1716], 's_16_29': [1481], 's_16_30': [1760], 's_16_31': [1670], 's_16_32': [4239], 's_16_33': [1330], 's_16_35': [4732], 's_16_36': [4988], 's_16_37': [3954], 's_16_39': [1595], 's_16_41': [1738], 's_16_42': [5651], 's_17_6': [1851], 's_17_7': [2005], 's_17_18': [5485], 's_17_19': [2009], 's_17_20': [1626], 's_17_22': [2035], 's_17_24': [2098, 5545], 's_17_26': [4240], 's_17_27': [4061], 's_17_28': [4255], 's_17_29': [4057], 's_17_30': [1910], 's_17_31': [1611], 's_17_32': [2006], 's_17_35': [4990], 's_17_36': [2065], 's_17_37': [1971], 's_17_38': [4210], 's_17_39': [1895], 's_17_40': [1671], 's_17_41': [5350], 's_17_42': [4871], 's_18_7': [1797], 's_18_11': [1823], 's_18_15': [5514], 's_18_22': [1298], 's_18_24': [5246], 's_18_25': [4884], 's_18_26': [1463], 's_18_28': [4615], 's_18_29': [2022], 's_18_30': [5230], 's_18_33': [4491], 's_18_35': [4750], 's_18_36': [5168], 's_18_37': [1612], 's_18_38': [4494], 's_18_40': [4689], 's_18_41': [1693], 's_19_6': [2354], 's_19_7': [4581], 's_19_8': [5272], 's_19_11': [5559], 's_19_15': [1589], 's_19_20': [2324], 's_19_21': [4761], 's_19_23': [1586], 's_19_24': [5472], 's_19_25': [4987], 's_19_26': [1454], 's_19_27': [2384], 's_19_28': [1161], 's_19_29': [1525], 's_19_32': [5578], 's_19_33': [1301], 's_19_34': [2489], 's_19_35': [4730], 's_19_36': [1163], 's_19_37': [1162], 's_19_38': [1436], 's_19_39': [5558], 's_19_40': [5527], 's_19_41': [1151], 's_19_42': [5561], 's_21_6': [4466], 's_21_7': [1194], 's_21_8': [5209], 's_21_11': [1897], 's_21_15': [4909], 's_21_20': [4748], 's_21_22': [4597], 's_21_23': [1494], 's_21_25': [954], 's_21_26': [4762], 's_21_27': [2183], 's_21_28': [1763], 's_21_29': [4627], 's_21_30': [2288], 's_21_31': [5150], 's_21_34': [2318], 's_21_35': [1254], 's_21_36': [1029], 's_21_37': [1717], 's_21_38': [1928], 's_21_39': [4447], 's_21_40': [4657], 's_21_41': [5074], 's_21_42': [2333], 's_22_6': [4869], 's_22_7': [4821], 's_22_8': [4836], 's_22_15': [4939], 's_22_23': [2470], 's_22_24': [985], 's_22_25': [1299], 's_22_26': [4252], 's_22_28': [1341], 's_22_29': [4417], 's_22_31': [1206], 's_22_32': [1870], 's_22_34': [4924], 's_22_35': [1300], 's_22_37': [4432], 's_22_38': [2080], 's_22_39': [1645], 's_22_40': [1615], 's_22_41': [4792], 's_22_42': [1282], 's_23_6': [1675], 's_23_8': [4851], 's_23_15': [5016], 's_23_20': [4599], 's_23_24': [5029], 's_23_25': [4433], 's_23_26': [1477], 's_23_27': [1584], 's_23_28': [2409], 's_23_29': [4978], 's_23_30': [4902], 's_23_31': [1136], 's_23_32': [4963], 's_23_33': [2260], 's_23_34': [4507], 's_23_36': [2320], 's_23_37': [4403], 's_23_39': [3937], 's_23_40': [4223], 's_23_41': [1497], 's_23_42': [1462], 's_24_7': [4489], 's_24_11': [1859], 's_24_15': [2219], 's_24_20': [5322], 's_24_25': [4595], 's_24_27': [5232], 's_24_28': [4736], 's_24_29': [2201], 's_24_30': [2053], 's_24_31': [966], 's_24_32': [4886, 2095], 's_24_34': [4504], 's_24_36': [4624], 's_24_37': [983, 982], 's_24_38': [5066], 's_24_39': [2189], 's_24_40': [5439, 5438], 's_24_41': [1513], 's_24_42': [2157], 's_25_6': [4794], 's_25_11': [5017], 's_25_20': [1779], 's_25_27': [1629], 's_25_28': [1718], 's_25_30': [2394], 's_25_31': [1104], 's_25_33': [1705], 's_25_34': [1688], 's_25_35': [1587], 's_25_36': [4580], 's_25_37': [1328], 's_25_38': [2078], 's_25_39': [4793], 's_25_40': [4493], 's_25_42': [2453], 's_26_6': [4137], 's_26_7': [1359], 's_26_11': [4195], 's_26_15': [1378], 's_26_20': [1776], 's_26_27': [2061], 's_26_28': [4267], 's_26_29': [4537], 's_26_30': [4258], 's_26_31': [1686], 's_26_32': [2256], 's_26_33': [5227], 's_26_35': [1437], 's_26_36': [4942], 's_26_38': [5137], 's_26_39': [4282], 's_26_40': [2002], 's_26_41': [1393], 's_30_6': [2180], 's_30_7': [5034], 's_30_15': [5516], 's_30_20': [1805], 's_30_28': [1865], 's_30_29': [2411], 's_30_31': [1955], 's_30_32': [5038], 's_30_34': [2273], 's_30_35': [5200], 's_30_38': [5126], 's_30_39': [2390], 's_30_41': [5395], 's_30_42': [5486], 's_33_6': [4438], 's_33_7': [4708], 's_33_11': [1661], 's_33_15': [1225], 's_33_20': [4798], 's_33_27': [4768], 's_33_28': [4961], 's_33_29': [2396], 's_33_32': [4993], 's_33_34': [4873], 's_33_35': [1407], 's_33_36': [1360], 's_33_37': [4626], 's_33_38': [5051], 's_33_39': [1600], 's_33_41': [5166], 's_33_42': [4991], 's_34_7': [4803], 's_34_8': [2472], 's_34_11': [1748], 's_34_27': [5397], 's_34_28': [4509], 's_34_29': [2471], 's_34_32': [5263], 's_34_35': [2018], 's_34_36': [834], 's_34_37': [1793], 's_34_38': [2228], 's_34_40': [1613], 's_34_41': [4969], 's_34_42': [4528], 's_35_7': [1329], 's_35_8': [2023], 's_35_15': [1483], 's_35_20': [4825], 's_35_28': [4720], 's_35_29': [5020], 's_35_31': [1108], 's_35_32': [1972], 's_35_36': [1286], 's_35_37': [5061], 's_35_38': [1961], 's_35_39': [5273], 's_35_41': [5421], 's_35_42': [4465], 's_36_6': [4917], 's_36_7': [4850], 's_36_8': [5062], 's_36_15': [4985], 's_36_27': [2395], 's_36_28': [2274], 's_36_29': [2230], 's_36_31': [1011], 's_36_32': [5063], 's_36_38': [1751], 's_36_39': [4973], 's_36_40': [5212], 's_39_6': [2150], 's_39_7': [4822], 's_39_8': [1648], 's_39_11': [5589], 's_39_20': [1550], 's_39_27': [5607], 's_39_28': [4508], 's_39_32': [4062], 's_39_38': [1647], 's_39_40': [3998], 's_39_41': [2039], 's_39_42': [1552], 's_41_7': [1076], 's_41_8': [4972], 's_41_11': [1963], 's_41_20': [2323], 's_41_27': [2308], 's_41_29': [2293], 's_41_31': [5405], 's_41_32': [2518], 's_41_37': [5271], 's_41_38': [1331], 's_41_40': [5423], 's_6_7': [1884], 's_6_8': [5307], 's_6_11': [4795], 's_6_27': [5592], 's_6_28': [2155], 's_6_29': [5277], 's_6_31': [1970], 's_6_32': [2301], 's_6_37': [2016], 's_6_38': [1940], 's_6_42': [2094], 's_7_8': [4655], 's_7_15': [1030], 's_7_20': [2079], 's_7_27': [4784], 's_7_28': [2200], 's_7_29': [2290], 's_7_31': [4625], 's_7_32': [2545], 's_7_37': [4551], 's_7_38': [4824], 's_7_42': [2603], 's_8_11': [1917], 's_8_29': [4702], 's_8_31': [987], 's_8_32': [2398], 's_8_37': [5346], 's_8_38': [2112], 's_8_40': [5303], 's_8_42': [2097], 's_15_20': [5517], 's_15_27': [2413], 's_15_31': [1016], 's_15_32': [2534], 's_15_37': [5302], 's_15_38': [5152], 's_15_40': [5513], 's_15_42': [2159], 's_20_11': [4554], 's_20_27': [5382], 's_20_28': [1869], 's_20_29': [5247], 's_20_31': [4014], 's_20_32': [2289], 's_20_37': [1821], 's_20_40': [4658], 's_27_11': [1764], 's_27_28': [2109], 's_27_29': [5262], 's_27_31': [2166], 's_27_32': [4241], 's_27_37': [4120], 's_27_42': [4346], 's_28_11': [4420], 's_28_29': [1355], 's_28_31': [1102], 's_28_32': [4676], 's_28_37': [4164], 's_28_38': [2063], 's_28_40': [4283], 's_28_42': [1627], 's_31_32': [2240], 's_31_37': [4326], 's_31_40': [1655], 's_31_42': [1492], 's_32_29': [2306], 's_32_37': [4284], 's_32_40': [2017], 's_32_42': [4301], 's_37_11': [4404], 's_37_38': [4119], 's_37_40': [4133], 's_38_11': [4165], 's_38_29': [5082], 's_40_11': [1644], 's_40_29': [4837], 's_40_42': [1837], 's_42_11': [4600], 's_11_29': [1646]}</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.002856345885634588</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.001963357386762545</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>{0: [4685, 1062, 999, 1000, 1001, 2007, 5185, 5184, 5183, 1181, 5182, 5181, 5179, 5180], 1: [4941, 4662, 4309, 1057, 4752, 2319, 4317, 4602, 2258, 2257, 4316, 4315, 1212, 1211, 1210, 1209, 1208, 1207, 4310, 4311, 4312, 4313, 4314], 's_0_1': [1227], 2: [1123, 1122, 1121, 1120, 4497, 4496, 4495, 1958, 4571, 4570, 4569, 1119, 4566, 4567, 4568], 's_0_2': [5225], 3: [5270, 1167, 4332, 4017, 5331, 2346, 2347, 2348, 2349, 5332, 5333, 5334, 1737, 1736, 5109, 5110, 2188, 2187, 2350, 2351, 5111, 5112, 2352], 's_0_3': [5195], 4: [4331, 4775, 1047, 1046, 1045, 1044, 1043, 1042, 4145, 4146, 2469, 2468, 4422, 4147, 1041, 4148, 4149, 4150, 4423, 4151, 2241, 2242], 's_0_4': [5300], 5: [1071, 1432, 986, 5044, 4834, 4092, 4091, 4090, 4089, 4088, 941, 940, 939, 938, 937, 4220, 4221, 1236, 4086, 1431, 4087], 's_0_5': [942], 9: [1251, 1252, 1237, 1959, 1960, 4915, 4914, 4446, 1238, 1239, 1240, 1241, 1873, 5424, 1828, 1826, 1827, 5120, 5121, 5122, 5124, 5123], 's_0_9': [1137], 10: [4415, 4505, 1117, 1118, 1103, 4475, 4476, 4477, 4478, 1903, 5275, 1902, 1901, 1900, 1899, 5214, 1898, 4479], 's_0_10': [1962], 12: [1888, 5531, 5529, 2047, 1964, 1177, 4341, 4342, 4343, 1702, 4434, 4435, 4436, 2123, 2124, 2125, 2126, 2127, 2128, 2129, 5530], 's_0_12': [5170], 13: [5254, 958, 2455, 4618, 5359, 1603, 2514, 2515, 2516, 5113, 5360, 2456, 1257, 1258, 5361, 5362, 2457, 5367, 5366, 5365, 5364, 5363], 's_0_13': [1002], 14: [1484, 2435, 2436, 5469, 2437, 2438, 2439, 2441, 5143, 5142, 2202, 5468, 1618, 1617, 1616, 5093, 2440, 5094, 5095, 5096], 's_0_14': [2051], 16: [4118, 4881, 3953, 5650, 5649, 1724, 1723, 1722, 1949, 1721, 1720, 1735, 4882, 1480, 4763, 4764, 1734, 1733, 1732, 1731, 1730], 's_0_16': [4880], 17: [4058, 4059, 4060, 1994, 1986, 1987, 4870, 1993, 1992, 1991, 1990, 1989, 1988], 's_0_17': [5140], 18: [4390, 4960, 5484, 1283, 4356, 4357, 4358, 4359, 1853, 1854, 1814, 1855, 1813, 1812, 1856, 5245, 5244, 1857, 5169], 's_0_18': [5155], 19: [2204, 1146, 1147, 1148, 1149, 1150, 4956, 4959, 4958, 4957, 1421, 5577, 5576, 5575, 5574, 5573, 5572, 1424, 1423, 1422], 's_0_19': [5167], 21: [5239, 4464, 4452, 957, 956, 955, 4746, 4747, 4672, 4451, 4745, 4450, 4449, 4448, 4463, 4462, 1433, 1434], 's_0_21': [5014], 22: [4842, 4841, 895, 4864, 4865, 4840, 4839, 4838, 1690, 4191, 1312, 1313, 1314, 1315, 4866, 4867, 4868], 's_0_22': [4686], 23: [4598, 1505, 5030, 1506, 2410, 4857, 4856, 4855, 4854, 4853, 5031, 5032, 1496, 1495, 4327, 1507, 1508, 1509, 1510, 4852], 's_0_23': [1061], 24: [2215, 2216, 2217, 5337, 967, 968, 969, 970, 971, 5231, 2232, 2233, 5456, 5455, 5454, 5453, 5452, 5451, 5450, 1063, 5330, 972], 's_0_24': [4999], 25: [4647, 1571, 1572, 4883, 998, 4718, 1597, 4646, 4644, 4645, 4643, 1598, 1660, 4610, 4611, 1570, 4612, 4613, 1599], 's_0_25': [1059], 26: [5437, 1363, 1852, 5242, 4717, 2421, 4182, 5422, 1453, 1452, 4181, 4180, 4179, 4178, 4177, 1451, 1450, 1449, 1448, 1447], 's_0_26': [1482], 30: [4827, 4542, 3969, 3970, 3971, 2375, 2376, 2068, 2067, 2066, 5035, 3972, 5036, 5037, 2381, 2380, 2379, 2378, 2377], 's_0_30': [5215], 33: [5128, 1795, 2528, 2532, 1388, 2171, 1389, 4926, 1392, 1391, 1390, 4927, 4928, 4929, 4930, 2529, 2530, 2531, 4933, 4932, 4931], 's_0_33': [4925], 34: [5178, 836, 835, 820, 2488, 2487, 819, 818, 4519, 4520, 2486, 4521, 4522, 4523, 4524, 4525, 2485, 2484, 4603, 2423, 4527, 4526], 's_0_34': [4684], 35: [4480, 5255, 1973, 1974, 1975, 1976, 1977, 4731, 1270, 1271, 1272, 1273, 5256, 5257, 5258, 5260, 5259], 's_0_35': [1032], 36: [4699, 1012, 1013, 1014, 1602, 1601, 1467, 1466, 4872, 2275, 5006, 5005, 5004, 5003, 5002, 5001, 5000, 1165, 1164, 4700], 's_0_36': [1074], 39: [1540, 2270, 5606, 5605, 3987, 5604, 5603, 1634, 1633, 1632, 1631, 1630, 4778, 1538, 1539, 3986, 3985, 3984, 3983, 1535, 1536, 1537], 's_0_39': [1541], 41: [1405, 1406, 881, 2038, 5092, 5089, 5090, 5413, 5412, 5411, 5410, 5409, 5408, 5407, 5406, 1288, 1287, 5091], 's_0_41': [882], 's_1_2': [2243], 's_1_3': [2362], 's_1_4': [2467], 's_1_5': [4235], 6: [1825, 4779, 4781, 4029, 4030, 4031, 2181, 2368, 2367, 2366, 4782, 2365, 2364, 2363, 4437, 2272, 4780, 2369, 2271, 4136], 's_1_6': [2229], 7: [1075, 4490, 1782, 1781, 1780, 2604, 4813, 4812, 4811, 4810, 4804, 1178, 1179, 4805, 4806, 4807, 4809, 4808], 's_1_7': [4701], 8: [1872, 4656, 1017, 5285, 1374, 5293, 5292, 5291, 5286, 1376, 5290, 1375, 5289, 5288, 1377, 5287], 's_1_8': [5301], 's_1_9': [4716], 's_1_10': [4280], 's_1_14': [4302], 15: [1015, 4940, 1106, 5498, 4910, 4911, 1316, 1317, 1318, 5503, 5502, 5501, 5500, 5499, 1708, 5378, 5377, 5376], 's_1_15': [5226], 's_1_19': [4325], 20: [4749, 1810, 4073, 4074, 1806, 1807, 1808, 1809, 2339, 2338, 2337, 2336, 4659, 4660, 2335, 4797, 4796, 2020, 4751, 2154, 4661], 's_1_20': [2259], 's_1_22': [4536], 's_1_23': [5015], 's_1_24': [2214], 's_1_25': [1224], 's_1_26': [2212], 27: [2060, 5457, 4105, 4783, 4703, 4196, 2167, 4704, 2168, 2169, 4706, 2429, 4705, 2428, 2106, 2427, 2426, 2425, 2424, 4707], 's_1_27': [4481], 28: [1672, 4265, 4539, 4266, 1673, 1356, 4192, 4194, 4826, 2186, 1868, 4193, 4585, 4586, 1866, 2184, 4723, 4722, 4721, 1867, 2185], 's_1_28': [1822], 's_1_30': [4737], 31: [5060, 3908, 5420, 5315, 1093, 4001, 4000, 3999, 1745, 1746, 1092, 1091, 1090, 1089, 1088, 1087, 4205, 4206, 1297, 4207, 4208, 4209], 's_1_31': [952], 32: [2549, 2046, 1676, 4944, 1777, 4945, 5338, 2548, 2547, 2546, 4948, 4946, 4947, 4270, 2225, 2226, 4271, 4269, 2302, 2303, 2304, 2305], 's_1_32': [2227], 's_1_33': [4663], 's_1_34': [1223], 's_1_35': [5136], 's_1_36': [4400], 37: [5211, 4135, 4134, 1790, 1791, 1347, 1792, 1346, 4385, 4386, 1345, 1344, 1343, 1342, 4389, 4388, 4387], 's_1_37': [1327], 38: [5345, 1197, 5046, 5047, 1361, 4541, 1196, 4540, 2111, 5081, 1941, 5077, 5078, 5079, 5080, 1942, 4976, 1943, 1944, 1945, 1946], 's_1_38': [2199], 40: [1558, 1557, 1656, 1556, 1555, 1554, 1956, 1614, 4226, 4225, 4224, 1657, 1658, 1659, 4688], 's_1_40': [2182], 42: [5336, 4296, 4513, 4512, 4511, 2144, 4297, 4298, 4299, 4300, 2092, 2093, 2143, 2142, 2141, 2140, 2139, 4601], 's_1_42': [2077], 's_2_3': [5240], 's_2_4': [4535], 's_2_6': [4482], 's_2_7': [4670], 's_2_9': [5106], 's_2_10': [1703], 11: [1762, 1747, 4374, 4405, 5335, 1838, 1911, 1912, 4629, 1839, 1844, 1843, 1842, 1913, 5018, 5019, 4628, 1841, 1840], 's_2_11': [2003], 's_2_13': [5151], 's_2_16': [1479], 's_2_17': [4555], 's_2_18': [1284], 's_2_19': [4835], 's_2_20': [4584], 's_2_22': [1135], 's_2_23': [4583], 's_2_26': [1464], 's_2_27': [2034], 's_2_28': [1674], 's_2_30': [2393], 's_2_31': [4895], 's_2_32': [4572], 's_2_33': [4498], 's_2_34': [2408], 's_2_35': [4510], 's_2_36': [4791], 's_2_37': [4582], 's_2_38': [2019], 's_2_41': [5316], 's_2_42': [2138], 's_3_4': [4392], 's_3_5': [2361], 's_3_6': [4212], 's_3_7': [5154], 's_3_8': [1332], 's_3_9': [5304], 's_3_10': [1916], 's_3_11': [5274], 's_3_12': [5156], 's_3_13': [1542], 's_3_14': [1783], 's_3_15': [1243], 's_3_18': [5319], 's_3_20': [4962], 's_3_23': [5007], 's_3_24': [5201], 's_3_26': [4287], 's_3_27': [4887], 's_3_28': [4587], 29: [2247, 4072, 2246, 5068, 5067, 2321, 2021, 2292, 2291, 1416, 4977, 1417, 2245, 4901, 4900, 1418, 1419, 1420, 4897, 4898, 4899], 's_3_29': [5157], 's_3_30': [2255], 's_3_31': [1168], 's_3_33': [1796], 's_3_34': [5217], 's_3_35': [1663], 's_3_37': [1362], 's_3_38': [2081], 's_3_39': [2330], 's_3_40': [5318], 's_3_41': [1678], 's_3_42': [5321], 's_4_5': [1026], 's_4_6': [4257], 's_4_7': [4693], 's_4_8': [5194], 's_4_9': [1031], 's_4_10': [1116], 's_4_11': [1761], 's_4_13': [2513], 's_4_14': [4558], 's_4_15': [1060], 's_4_16': [1701], 's_4_17': [1566], 's_4_19': [4550], 's_4_21': [4849], 's_4_22': [1326], 's_4_23': [1521], 's_4_25': [4639], 's_4_26': [1596], 's_4_27': [2031], 's_4_29': [1311], 's_4_31': [1086], 's_4_32': [4286], 's_4_33': [2543], 's_4_36': [4444], 's_4_39': [1551], 's_4_40': [2091], 's_4_41': [4984], 's_4_42': [2483], 's_5_6': [2211], 's_5_7': [4790], 's_5_9': [5105], 's_5_10': [4175], 's_5_12': [1176], 's_5_14': [2450], 's_5_15': [4955], 's_5_16': [1715], 's_5_19': [4160], 's_5_20': [1641], 's_5_22': [4237], 's_5_23': [4117], 's_5_24': [4354], 's_5_25': [4474], 's_5_26': [2286], 's_5_27': [2090], 's_5_28': [1191], 's_5_29': [1340], 's_5_30': [2420], 's_5_31': [996], 's_5_34': [4833], 's_5_36': [4459], 's_5_37': [1836], 's_5_38': [4104], 's_5_39': [4106], 's_5_40': [2151], 's_5_41': [5059], 's_9_10': [4401], 's_9_11': [5379], 's_9_12': [4445], 's_9_13': [1242], 's_9_14': [1662], 's_9_17': [4735], 's_9_18': [5125], 's_9_19': [4971], 's_9_20': [1811], 's_9_21': [4461], 's_9_24': [1798], 's_9_25': [4596], 's_9_26': [4176], 's_9_27': [4690], 's_9_29': [2036], 's_9_31': [1107], 's_9_32': [4974], 's_9_33': [1765], 's_9_34': [1253], 's_9_35': [1858], 's_9_37': [4641], 's_9_38': [1511], 's_9_39': [1829], 's_9_40': [5108], 's_9_41': [5119], 's_10_7': [1133], 's_10_8': [5305], 's_10_11': [5544], 's_10_12': [4460], 's_10_14': [5470], 's_10_15': [5515], 's_10_17': [5440], 's_10_18': [4975], 's_10_19': [1904], 's_10_21': [1583], 's_10_24': [5276], 's_10_25': [1358], 's_10_29': [5050], 's_10_30': [5065], 's_10_32': [1915], 's_10_33': [1403], 's_10_34': [1643], 's_10_35': [4765], 's_10_36': [4430], 's_10_38': [1947], 's_10_39': [1553], 's_10_41': [1918], 's_12_6': [5532], 's_12_7': [2110], 's_12_8': [5306], 's_12_11': [4344], 's_12_13': [2113], 's_12_14': [5141], 's_12_15': [1784], 's_12_16': [5620], 's_12_17': [4675], 's_12_18': [1582], 's_12_19': [2294], 's_12_20': [4691], 's_12_21': [2153], 's_12_22': [4371], 's_12_23': [4328], 's_12_24': [2174], 's_12_25': [4373], 's_12_30': [5471], 's_12_31': [1642], 's_12_32': [1778], 's_12_33': [4916], 's_12_34': [2033], 's_12_37': [1567], 's_12_38': [4375], 's_12_39': [5528], 's_12_40': [4419], 's_12_41': [2278], 's_12_42': [5591], 's_13_6': [2353], 's_13_7': [4828], 's_13_11': [2008], 's_13_15': [1707], 's_13_18': [1753], 's_13_19': [1438], 's_13_20': [5187], 's_13_21': [822], 's_13_23': [4858], 's_13_24': [5344], 's_13_26': [5391], 's_13_27': [2412], 's_13_28': [2499], 's_13_29': [5053], 's_13_31': [5419], 's_13_32': [5248], 's_13_33': [4678], 's_13_34': [5098], 's_13_36': [1256], 's_13_40': [5347], 's_13_41': [1933], 's_13_42': [2158], 's_14_6': [5172], 's_14_7': [2454], 's_14_8': [2502], 's_14_11': [1931], 's_14_15': [1528], 's_14_16': [5213], 's_14_19': [5557], 's_14_21': [2452], 's_14_22': [1691], 's_14_23': [4992], 's_14_24': [5127], 's_14_25': [5138], 's_14_26': [4183], 's_14_27': [5022], 's_14_28': [4738], 's_14_29': [5186], 's_14_30': [4213], 's_14_32': [4918], 's_14_33': [4573], 's_14_34': [5083], 's_14_36': [5243], 's_14_39': [5348], 's_14_40': [5153], 's_14_41': [2203], 's_14_42': [2156], 's_16_6': [4719], 's_16_7': [5049], 's_16_8': [5229], 's_16_15': [1709], 's_16_17': [5590], 's_16_18': [5064], 's_16_19': [1769], 's_16_21': [1524], 's_16_22': [1255], 's_16_25': [4673], 's_16_26': [1465], 's_16_27': [1794], 's_16_28': [1716], 's_16_29': [1481], 's_16_30': [1760], 's_16_31': [1670], 's_16_32': [4239], 's_16_33': [1330], 's_16_35': [4732], 's_16_36': [4988], 's_16_37': [3954], 's_16_39': [1595], 's_16_41': [1738], 's_16_42': [5651], 's_17_6': [1851], 's_17_7': [2005], 's_17_18': [5485], 's_17_19': [2009], 's_17_20': [1626], 's_17_22': [2035], 's_17_24': [2098, 5545], 's_17_26': [4240], 's_17_27': [4061], 's_17_28': [4255], 's_17_29': [4057], 's_17_30': [1910], 's_17_31': [1611], 's_17_32': [2006], 's_17_35': [4990], 's_17_36': [2065], 's_17_37': [1971], 's_17_38': [4210], 's_17_39': [1895], 's_17_40': [1671], 's_17_41': [5350], 's_17_42': [4871], 's_18_7': [1797], 's_18_11': [1823], 's_18_15': [5514], 's_18_22': [1298], 's_18_24': [5246], 's_18_25': [4884], 's_18_26': [1463], 's_18_28': [4615], 's_18_29': [2022], 's_18_30': [5230], 's_18_33': [4491], 's_18_35': [4750], 's_18_36': [5168], 's_18_37': [1612], 's_18_38': [4494], 's_18_40': [4689], 's_18_41': [1693], 's_19_6': [2354], 's_19_7': [4581], 's_19_8': [5272], 's_19_11': [5559], 's_19_15': [1589], 's_19_20': [2324], 's_19_21': [4761], 's_19_23': [1586], 's_19_24': [5472], 's_19_25': [4987], 's_19_26': [1454], 's_19_27': [2384], 's_19_28': [1161], 's_19_29': [1525], 's_19_32': [5578], 's_19_33': [1301], 's_19_34': [2489], 's_19_35': [4730], 's_19_36': [1163], 's_19_37': [1162], 's_19_38': [1436], 's_19_39': [5558], 's_19_40': [5527], 's_19_41': [1151], 's_19_42': [5561], 's_21_6': [4466], 's_21_7': [1194], 's_21_8': [5209], 's_21_11': [1897], 's_21_15': [4909], 's_21_20': [4748], 's_21_22': [4597], 's_21_23': [1494], 's_21_25': [954], 's_21_26': [4762], 's_21_27': [2183], 's_21_28': [1763], 's_21_29': [4627], 's_21_30': [2288], 's_21_31': [5150], 's_21_34': [2318], 's_21_35': [1254], 's_21_36': [1029], 's_21_37': [1717], 's_21_38': [1928], 's_21_39': [4447], 's_21_40': [4657], 's_21_41': [5074], 's_21_42': [2333], 's_22_6': [4869], 's_22_7': [4821], 's_22_8': [4836], 's_22_15': [4939], 's_22_23': [2470], 's_22_24': [985], 's_22_25': [1299], 's_22_26': [4252], 's_22_28': [1341], 's_22_29': [4417], 's_22_31': [1206], 's_22_32': [1870], 's_22_34': [4924], 's_22_35': [1300], 's_22_37': [4432], 's_22_38': [2080], 's_22_39': [1645], 's_22_40': [1615], 's_22_41': [4792], 's_22_42': [1282], 's_23_6': [1675], 's_23_8': [4851], 's_23_15': [5016], 's_23_20': [4599], 's_23_24': [5029], 's_23_25': [4433], 's_23_26': [1477], 's_23_27': [1584], 's_23_28': [2409], 's_23_29': [4978], 's_23_30': [4902], 's_23_31': [1136], 's_23_32': [4963], 's_23_33': [2260], 's_23_34': [4507], 's_23_36': [2320], 's_23_37': [4403], 's_23_39': [3937], 's_23_40': [4223], 's_23_41': [1497], 's_23_42': [1462], 's_24_7': [4489], 's_24_11': [1859], 's_24_15': [2219], 's_24_20': [5322], 's_24_25': [4595], 's_24_27': [5232], 's_24_28': [4736], 's_24_29': [2201], 's_24_30': [2053], 's_24_31': [966], 's_24_32': [4886, 2095], 's_24_34': [4504], 's_24_36': [4624], 's_24_37': [983, 982], 's_24_38': [5066], 's_24_39': [2189], 's_24_40': [5439, 5438], 's_24_41': [1513], 's_24_42': [2157], 's_25_6': [4794], 's_25_11': [5017], 's_25_20': [1779], 's_25_27': [1629], 's_25_28': [1718], 's_25_30': [2394], 's_25_31': [1104], 's_25_33': [1705], 's_25_34': [1688], 's_25_35': [1587], 's_25_36': [4580], 's_25_37': [1328], 's_25_38': [2078], 's_25_39': [4793], 's_25_40': [4493], 's_25_42': [2453], 's_26_6': [4137], 's_26_7': [1359], 's_26_11': [4195], 's_26_15': [1378], 's_26_20': [1776], 's_26_27': [2061], 's_26_28': [4267], 's_26_29': [4537], 's_26_30': [4258], 's_26_31': [1686], 's_26_32': [2256], 's_26_33': [5227], 's_26_35': [1437], 's_26_36': [4942], 's_26_38': [5137], 's_26_39': [4282], 's_26_40': [2002], 's_26_41': [1393], 's_30_6': [2180], 's_30_7': [5034], 's_30_15': [5516], 's_30_20': [1805], 's_30_28': [1865], 's_30_29': [2411], 's_30_31': [1955], 's_30_32': [5038], 's_30_34': [2273], 's_30_35': [5200], 's_30_38': [5126], 's_30_39': [2390], 's_30_41': [5395], 's_30_42': [5486], 's_33_6': [4438], 's_33_7': [4708], 's_33_11': [1661], 's_33_15': [1225], 's_33_20': [4798], 's_33_27': [4768], 's_33_28': [4961], 's_33_29': [2396], 's_33_32': [4993], 's_33_34': [4873], 's_33_35': [1407], 's_33_36': [1360], 's_33_37': [4626], 's_33_38': [5051], 's_33_39': [1600], 's_33_41': [5166], 's_33_42': [4991], 's_34_7': [4803], 's_34_8': [2472], 's_34_11': [1748], 's_34_27': [5397], 's_34_28': [4509], 's_34_29': [2471], 's_34_32': [5263], 's_34_35': [2018], 's_34_36': [834], 's_34_37': [1793], 's_34_38': [2228], 's_34_40': [1613], 's_34_41': [4969], 's_34_42': [4528], 's_35_7': [1329], 's_35_8': [2023], 's_35_15': [1483], 's_35_20': [4825], 's_35_28': [4720], 's_35_29': [5020], 's_35_31': [1108], 's_35_32': [1972], 's_35_36': [1286], 's_35_37': [5061], 's_35_38': [1961], 's_35_39': [5273], 's_35_41': [5421], 's_35_42': [4465], 's_36_6': [4917], 's_36_7': [4850], 's_36_8': [5062], 's_36_15': [4985], 's_36_27': [2395], 's_36_28': [2274], 's_36_29': [2230], 's_36_31': [1011], 's_36_32': [5063], 's_36_38': [1751], 's_36_39': [4973], 's_36_40': [5212], 's_39_6': [2150], 's_39_7': [4822], 's_39_8': [1648], 's_39_11': [5589], 's_39_20': [1550], 's_39_27': [5607], 's_39_28': [4508], 's_39_32': [4062], 's_39_38': [1647], 's_39_40': [3998], 's_39_41': [2039], 's_39_42': [1552], 's_41_7': [1076], 's_41_8': [4972], 's_41_11': [1963], 's_41_20': [2323], 's_41_27': [2308], 's_41_29': [2293], 's_41_31': [5405], 's_41_32': [2518], 's_41_37': [5271], 's_41_38': [1331], 's_41_40': [5423], 's_6_7': [1884], 's_6_8': [5307], 's_6_11': [4795], 's_6_27': [5592], 's_6_28': [2155], 's_6_29': [5277], 's_6_31': [1970], 's_6_32': [2301], 's_6_37': [2016], 's_6_38': [1940], 's_6_42': [2094], 's_7_8': [4655], 's_7_15': [1030], 's_7_20': [2079], 's_7_27': [4784], 's_7_28': [2200], 's_7_29': [2290], 's_7_31': [4625], 's_7_32': [2545], 's_7_37': [4551], 's_7_38': [4824], 's_7_42': [2603], 's_8_11': [1917], 's_8_29': [4702], 's_8_31': [987], 's_8_32': [2398], 's_8_37': [5346], 's_8_38': [2112], 's_8_40': [5303], 's_8_42': [2097], 's_15_20': [5517], 's_15_27': [2413], 's_15_31': [1016], 's_15_32': [2534], 's_15_37': [5302], 's_15_38': [5152], 's_15_40': [5513], 's_15_42': [2159], 's_20_11': [4554], 's_20_27': [5382], 's_20_28': [1869], 's_20_29': [5247], 's_20_31': [4014], 's_20_32': [2289], 's_20_37': [1821], 's_20_40': [4658], 's_27_11': [1764], 's_27_28': [2109], 's_27_29': [5262], 's_27_31': [2166], 's_27_32': [4241], 's_27_37': [4120], 's_27_42': [4346], 's_28_11': [4420], 's_28_29': [1355], 's_28_31': [1102], 's_28_32': [4676], 's_28_37': [4164], 's_28_38': [2063], 's_28_40': [4283], 's_28_42': [1627], 's_31_32': [2240], 's_31_37': [4326], 's_31_40': [1655], 's_31_42': [1492], 's_32_29': [2306], 's_32_37': [4284], 's_32_40': [2017], 's_32_42': [4301], 's_37_11': [4404], 's_37_38': [4119], 's_37_40': [4133], 's_38_11': [4165], 's_38_29': [5082], 's_40_11': [1644], 's_40_29': [4837], 's_40_42': [1837], 's_42_11': [4600], 's_11_29': [1646]}</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0.002856345885634588</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.001963357386762545</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>{0: [4729, 5345, 5119, 5344, 925, 926, 928, 927], 3: [5252, 1182, 5256, 5253, 5254, 5255], 4: [4760, 958, 955, 957, 956], 5: [804, 1077, 805, 4968, 4970, 1076, 4969], 6: [969, 5059, 970, 5105, 972, 971], 7: [4803, 5240, 5239, 868, 865, 866, 867], 8: [1014, 1015, 1016, 1017, 5358, 5359], 10: [5042, 612, 611, 610, 609, 4773, 4774, 4775, 1075], 11: [1152, 5271, 5267, 687, 5270, 5269, 5268], 13: [5211, 5210, 747, 5209, 5207, 5208], 15: [5329, 1090, 1091, 5330, 1093, 1092], 16: [745, 672, 671, 5045, 5044, 746, 5043], 18: [5072, 1062, 1061, 5073, 5074, 1063, 5075], 21: [1227, 5301, 5298, 5299, 5300], 24: [5015, 1181, 5177, 5178, 5180, 5179], 25: [5225, 5313, 820, 5314, 5224, 821, 822], 27: [583, 582, 5148, 5151, 5150, 5149], 28: [715, 4832, 5360, 1167, 4833, 1166, 1165, 4834, 4835], 29: [4953, 4954, 4956, 1032, 1031, 4955], 30: [626, 1212, 5133, 5134, 5135, 5136], 32: [761, 1197, 1196, 5030, 5028, 5029], 33: [1242, 5286, 5283, 5284, 5285], 34: [4984, 882, 879, 880, 881], 35: [5509, 5420, 5510, 1003, 1002, 1001, 1000], 37: [777, 5192, 5193, 5196, 5195, 5194], 38: [4925, 4924, 792, 791, 790], 39: [4850, 702, 4849, 4848, 701, 700], 40: [789, 733, 732, 731, 730, 4714, 4713], 42: [999, 5419, 898, 897, 4804, 895, 896], 43: [5014, 913, 912, 910, 911], 2: [988, 987, 984, 985, 986], 9: [5405, 5404, 5403, 718, 716, 717, 5164, 1048, 5162, 5163], 14: [4908, 4909, 1123, 1122, 1121, 1060, 4910], 17: [1044, 807, 4745, 4744, 775, 806, 5058, 776], 22: [4653, 4654, 1030, 1138, 1137, 1136, 1135, 4730, 1029], 23: [4940, 4939, 4938, 642, 641, 640], 26: [5087, 763, 762, 5088, 5090, 5089], 31: [834, 4864, 835, 838, 837, 836], 41: [5091, 1257, 1256, 5001, 4998, 4999, 5000], 12: [1150, 1151, 657, 4880, 4879, 656, 655, 4878], 20: [4818, 4819, 4865, 1047, 1046, 1045], 19: [4715, 4894, 4895, 1108, 1107, 1105, 1106], 36: [852, 5013, 5104, 850, 851], 1: [939, 940, 943, 942, 941]}</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.2786656891495601</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.04393543177192406</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>{0: [4729, 5345, 5119, 5344, 925, 926, 928, 927], 3: [5252, 1182, 5256, 5253, 5254, 5255], 4: [4760, 958, 955, 957, 956], 5: [804, 1077, 805, 4968, 4970, 1076, 4969], 6: [969, 5059, 970, 5105, 972, 971], 7: [4803, 5240, 5239, 868, 865, 866, 867], 8: [1014, 1015, 1016, 1017, 5358, 5359], 10: [5042, 612, 611, 610, 609, 4773, 4774, 4775, 1075], 11: [1152, 5271, 5267, 687, 5270, 5269, 5268], 13: [5211, 5210, 747, 5209, 5207, 5208], 15: [5329, 1090, 1091, 5330, 1093, 1092], 16: [745, 672, 671, 5045, 5044, 746, 5043], 18: [5072, 1062, 1061, 5073, 5074, 1063, 5075], 21: [1227, 5301, 5298, 5299, 5300], 24: [5015, 1181, 5177, 5178, 5180, 5179], 25: [5225, 5313, 820, 5314, 5224, 821, 822], 27: [583, 582, 5148, 5151, 5150, 5149], 28: [715, 4832, 5360, 1167, 4833, 1166, 1165, 4834, 4835], 29: [4953, 4954, 4956, 1032, 1031, 4955], 30: [626, 1212, 5133, 5134, 5135, 5136], 32: [761, 1197, 1196, 5030, 5028, 5029], 33: [1242, 5286, 5283, 5284, 5285], 34: [4984, 882, 879, 880, 881], 35: [5509, 5420, 5510, 1003, 1002, 1001, 1000], 37: [777, 5192, 5193, 5196, 5195, 5194], 38: [4925, 4924, 792, 791, 790], 39: [4850, 702, 4849, 4848, 701, 700], 40: [789, 733, 732, 731, 730, 4714, 4713], 42: [999, 5419, 898, 897, 4804, 895, 896], 43: [5014, 913, 912, 910, 911], 2: [988, 987, 984, 985, 986], 9: [5405, 5404, 5403, 718, 716, 717, 5164, 1048, 5162, 5163], 14: [4908, 4909, 1123, 1122, 1121, 1060, 4910], 17: [1044, 807, 4745, 4744, 775, 806, 5058, 776], 22: [4653, 4654, 1030, 1138, 1137, 1136, 1135, 4730, 1029], 23: [4940, 4939, 4938, 642, 641, 640], 26: [5087, 763, 762, 5088, 5090, 5089], 31: [834, 4864, 835, 838, 837, 836], 41: [5091, 1257, 1256, 5001, 4998, 4999, 5000], 12: [1150, 1151, 657, 4880, 4879, 656, 655, 4878], 20: [4818, 4819, 4865, 1047, 1046, 1045], 19: [4715, 4894, 4895, 1108, 1107, 1105, 1106], 36: [852, 5013, 5104, 850, 851], 1: [939, 940, 943, 942, 941]}</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0.2786656891495601</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.04393543177192406</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>{0: [623, 622, 5345, 5344, 560, 561, 958, 957, 956, 955, 954, 953, 562, 4157, 621, 818, 817, 4354, 862, 4278, 4277], 3: [968, 1808, 4389, 4388, 4606, 535, 534, 4387, 4386, 1133, 4607, 473, 4517, 4518, 4519, 4520], 's_0_3': [923], 4: [4937, 4936, 1625, 250, 249, 248, 247, 246, 245, 3930, 3931, 1910, 3939, 3938, 3937, 3936, 3935, 3934, 3933, 3932], 's_0_4': [620], 5: [626, 625, 624, 339, 3819, 3818, 3817, 3816, 3815, 3814, 3813, 4681, 4682, 4683, 803, 744, 743, 799, 800, 801, 802, 4368], 's_0_5': [4638], 6: [4085, 941, 5011, 1206, 5010, 1207, 1208, 1209, 1210, 5012, 5013, 5014, 5015, 1211], 's_0_6': [4925], 7: [1955, 4015, 5028, 4615, 4643, 4644, 2045, 2046, 836, 4270, 5059, 5060, 5061, 5062, 5063, 5064, 1841, 4930, 1945, 1944, 1943, 1942, 4269], 's_0_7': [5029], 8: [5178, 4186, 291, 5361, 4426, 5302, 1212, 5177, 5301, 5300, 5299, 5298, 687, 292, 293, 294, 5303, 295, 4906, 1288, 4907, 566, 567, 5162], 's_0_8': [1047, 5179], 10: [1615, 1614, 323, 322, 1297, 4494, 4493, 1613, 1612, 4231, 4232, 4233, 4234, 996, 4235, 4236, 4237, 4238], 's_0_10': [742], 11: [5004, 3861, 1265, 1266, 4131, 1371, 1372, 1373, 4999, 5000, 5003, 1498, 1497, 1496, 5002, 5001, 1375, 1374], 's_0_11': [4984], 13: [5147, 847, 4045, 4044, 4043, 1476, 1477, 4342, 4341, 5148, 656, 655, 654, 653, 652, 4338, 4339, 4340], 's_0_13': [877], 15: [1777, 1025, 219, 4010, 1957, 4255, 4254, 4515, 233, 218, 217, 4201, 4202, 471, 4247, 4248, 4249, 4253, 4252, 4251, 4250, 1011, 1010], 's_0_15': [952], 16: [4135, 4134, 1806, 4164, 492, 491, 4996, 1805, 4162, 1356, 4461, 1357, 4460, 4163, 1103, 4504, 4503, 4502, 460, 4505, 459, 458], 's_0_16': [563], 18: [1286, 759, 4367, 582, 760, 761, 696, 697, 4383, 578, 579, 580, 1570, 1571, 4958, 581, 4128, 4957, 4956, 4955, 4954, 4953], 's_0_18': [861], 21: [4909, 1014, 1015, 4910, 1165, 4553, 4554, 1167, 1166, 5106, 5107, 5108, 1796, 1795, 1794, 1793, 1792, 5109, 1791, 1790], 's_0_21': [4970], 24: [4473, 4472, 821, 820, 4404, 4848, 700, 699, 4593, 1747, 4103, 4102, 4101, 4100, 4099, 4098, 756, 651, 638, 637, 636, 1746, 4158], 's_0_24': [4262], 25: [4803, 4939, 1146, 791, 790, 789, 1595, 804, 4653, 4654, 939, 938, 1596, 4210, 4209, 4208, 4207, 4206, 4205, 937], 's_0_25': [4684], 27: [4690, 2015, 98, 4671, 4672, 4530, 4532, 4533, 1494, 4534, 4536, 4537, 4538, 4539, 4531, 4540, 2019, 4535, 2018, 2017, 4673, 2016], 's_0_27': [4549], 28: [4720, 943, 4118, 4719, 5253, 1729, 1730, 1731, 1732, 1733, 867, 5254, 5255, 3758, 5256, 5257, 1734, 1735, 1736, 5183, 5182, 1437], 's_0_28': [1152], 29: [4718, 4717, 1039, 1238, 1040, 1041, 4974, 4973, 1421, 4972, 1360, 1359, 1358, 4476, 4475, 4171, 4172, 4173, 4174, 4175, 1087, 1088], 's_0_29': [577], 30: [4622, 4986, 1077, 5285, 5286, 4624, 1460, 4267, 1242, 1241, 1240, 1239, 4625, 3982, 4623, 1520, 1521, 1522, 1523, 4627, 4626], 's_0_30': [5241, 1197], 32: [4150, 2001, 2000, 3850, 522, 521, 520, 4802, 3849, 3848, 3847, 3846, 3845, 3844, 3843, 604, 605, 606, 607, 608, 609], 's_0_32': [4082], 33: [1601, 3889, 1600, 1809, 4704, 4703, 1701, 4141, 920, 921, 4447, 4142, 4143, 4144, 4145, 4146, 4147, 4148, 1686, 1687, 1748, 1599, 1598, 4448], 's_0_33': [501], 34: [4276, 4715, 1225, 4791, 4731, 1234, 456, 4217, 4218, 1164, 4746, 1179, 1178, 1177, 4219, 4220, 1235, 1236, 4221, 1176], 's_0_34': [531], 35: [4449, 5089, 5090, 5091, 3879, 1820, 1821, 1258, 1257, 1256, 1255, 4866, 4867, 4868, 1822, 1823, 1824, 1825, 4869], 's_0_35': [5346], 37: [4245, 4637, 4351, 5093, 5092, 4636, 350, 351, 352, 353, 354, 355, 356, 357, 5191, 5192, 5193, 5194, 5195, 4246, 5196, 1392, 1391], 's_0_37': [1182], 38: [2061, 2060, 3985, 401, 3984, 3983, 1535, 4028, 4027, 400, 399, 398, 397, 396, 4022, 4023, 4026, 4025, 4024], 's_0_38': [591], 39: [3999, 3998, 3997, 3755, 4865, 5150, 1189, 3996, 5149, 1190, 1059, 5315, 1063, 1062, 1191, 1192, 1061, 1060, 4820, 1194, 1193], 's_0_39': [5105], 40: [1629, 1285, 1090, 4756, 940, 4765, 489, 4757, 1630, 4764, 4758, 4759, 4763, 4762, 4761, 4760], 's_0_40': [4714], 42: [967, 4320, 1851, 1852, 4328, 502, 4321, 1510, 1509, 4329, 1508, 1507, 4322, 4323, 4324, 4325, 4326, 4327], 's_0_42': [532], 43: [775, 1719, 4770, 4779, 4778, 1435, 4837, 4771, 4772, 4773, 4774, 4777, 1436, 4776, 340, 4775], 's_0_43': [819], 2: [1057, 1058, 4430, 5284, 1056, 852, 851, 850, 1055, 849, 848, 4429], 's_3_2': [758], 's_3_4': [4591], 's_3_5': [504], 's_3_6': [536], 9: [1451, 199, 200, 201, 5212, 1452, 202, 5152, 5151, 1122, 1121, 1120, 1119, 203, 4440, 4441, 4442, 4443, 832, 4369, 1118, 4370], 's_3_9': [488], 's_3_10': [1237], 's_3_11': [4402], 's_3_13': [4817], 14: [5016, 3923, 1557, 5031, 5032, 3833, 1564, 4012, 4013, 1655, 1656, 1657, 1658, 4508, 1556, 1555, 1554, 1553], 's_3_14': [1628], 's_3_15': [1807], 's_3_16': [4486], 17: [4680, 1688, 4570, 4569, 4568, 4567, 235, 234, 1973, 4561, 4562, 4563, 774, 1253, 4566, 4565, 4564], 's_3_17': [503], 's_3_18': [728], 's_3_21': [4509], 22: [951, 1429, 4055, 4056, 4057, 1430, 1431, 1432, 1318, 3922, 1317, 1316, 1315, 1314, 4582, 1433], 's_3_22': [1313], 23: [552, 5072, 611, 610, 550, 549, 548, 1324, 3895, 3894, 4862, 3893, 3892, 3891, 1130, 3920, 3919, 3918, 3917, 515, 4382, 516, 517], 's_3_23': [551, 4922], 's_3_24': [4847], 's_3_25': [4652], 26: [1148, 1572, 4492, 1147, 3991, 5167, 1467, 1466, 1465, 1464, 1463, 3992, 4357, 4356, 3993, 726, 727, 4308, 4309, 1027, 4355], 's_3_26': [1268], 's_3_27': [263], 's_3_28': [4524], 's_3_29': [4431], 's_3_30': [1582], 31: [4695, 158, 159, 160, 4875, 4876, 4877, 4878, 4885, 4884, 4883, 1405, 4882, 4881, 4880, 4879], 's_3_31': [4605], 's_3_32': [4667], 's_3_33': [4434], 's_3_34': [4521], 's_3_35': [4479], 's_3_37': [4471], 's_3_39': [4401], 's_3_40': [309], 41: [1310, 762, 4981, 4982, 686, 5118, 5119, 5120, 5121, 5122, 5123, 5124, 1781, 3951, 3952, 3953, 1760, 1761, 1762, 4374, 4373, 1673, 1674, 1780, 4794, 1675], 's_3_41': [1537], 's_4_5': [950], 's_4_7': [3970], 's_4_8': [4411], 's_4_9': [4185], 's_4_10': [4260], 12: [822, 4896, 4075, 807, 5329, 5330, 5331, 5332, 5333, 4897, 5334, 1828, 1827, 1826, 1864, 1865, 1866, 1867, 1868, 1869, 4898, 4899, 1870], 's_4_12': [4089], 's_4_14': [1640], 's_4_16': [4995], 's_4_17': [4830], 20: [439, 1076, 440, 1075, 4396, 441, 442, 1074, 1073, 4420, 4419, 4418, 4397, 4398, 4399, 908, 4444, 4445, 4446, 1403, 4417], 's_4_20': [4336, 4335], 's_4_21': [4104], 's_4_22': [965], 's_4_23': [530], 's_4_27': [4500], 's_4_28': [3908], 's_4_30': [1490], 's_4_31': [4860], 's_4_32': [590], 's_4_34': [455], 's_4_37': [276, 4110], 's_4_38': [665], 's_4_40': [4741], 's_4_41': [1280], 's_4_42': [262], 's_4_43': [4921], 's_5_2': [1054], 's_5_6': [596, 4938], 's_5_8': [5087], 's_5_10': [324], 's_5_11': [1174], 's_5_12': [3834], 's_5_13': [682], 's_5_15': [1009], 's_5_16': [4727], 's_5_17': [384], 19: [424, 425, 4598, 4597, 4067, 988, 980, 981, 4068, 711, 987, 986, 985, 984, 4596, 4595, 983, 982, 4294, 4293, 712], 's_5_19': [979], 's_5_20': [773], 's_5_22': [1414], 's_5_23': [5103], 's_5_24': [4039], 's_5_25': [4668], 's_5_26': [785], 's_5_27': [3820], 's_5_28': [1744], 's_5_29': [3860, 1100], 's_5_30': [3832], 's_5_32': [634], 's_5_33': [3828, 3829], 's_5_35': [1684], 36: [4609, 671, 4819, 898, 672, 3964, 5133, 5134, 897, 896, 895, 4639, 890, 891, 892, 893, 894], 's_5_36': [3874], 's_5_37': [627], 's_5_38': [414], 's_5_39': [1219], 's_5_40': [444], 's_5_41': [1295], 's_5_42': [787], 's_5_43': [745], 1: [4180, 4179, 4178, 190, 189, 188, 1145, 1144, 1550, 1549, 187, 186, 3800, 185, 184, 3765, 3766, 3767, 3768, 3772, 1551, 3771, 3770, 3769, 994], 's_6_1': [191], 's_6_2': [4295], 's_6_7': [1001], 's_6_8': [296], 's_6_13': [446], 's_6_14': [5030, 1196], 's_6_15': [1160], 's_6_16': [386], 's_6_17': [4506], 's_6_18': [926], 's_6_19': [4084], 's_6_20': [4985], 's_6_21': [1151], 's_6_22': [4071], 's_6_24': [4894], 's_6_25': [4115], 's_6_26': [1222], 's_6_27': [1223], 's_6_29': [4280], 's_6_30': [4686], 's_6_32': [4788, 730, 731], 's_6_33': [1221], 's_6_34': [1175], 's_6_35': [1016], 's_6_36': [5044], 's_6_37': [5146, 281], 's_6_38': [5026], 's_6_39': [4670], 's_6_40': [4805], 's_6_41': [341], 's_6_43': [325, 326], 's_7_1': [1987], 's_7_2': [866], 's_7_8': [777, 776], 's_7_10': [1898], 's_7_11': [1751], 's_7_12': [4960], 's_7_14': [4642], 's_7_16': [4165], 's_7_17': [1913], 's_7_18': [1106], 's_7_19': [4600, 4599], 's_7_20': [4510, 1988], 's_7_22': [5046], 's_7_23': [1940], 's_7_25': [5058], 's_7_26': [1511], 's_7_28': [1721], 's_7_30': [4628], 's_7_31': [1975], 's_7_32': [1954], 's_7_33': [4629], 's_7_36': [5104], 's_7_37': [1706], 's_7_38': [4000], 's_7_39': [971], 's_7_40': [4750], 's_7_41': [701], 's_7_42': [4240], 's_7_43': [4780], 's_8_2': [928], 's_8_9': [383], 's_8_10': [426], 's_8_11': [1483], 's_8_12': [1303], 's_8_13': [641], 's_8_14': [1453, 5347], 's_8_15': [4305], 's_8_16': [5117], 's_8_17': [4635], 's_8_18': [583], 's_8_19': [972], 's_8_20': [290, 3976], 's_8_21': [4908], 's_8_23': [612], 's_8_24': [5163], 's_8_25': [792], 's_8_26': [306, 305], 's_8_27': [278], 's_8_28': [1362], 's_8_29': [382], 's_8_30': [1243], 's_8_32': [5297], 's_8_33': [4156], 's_8_35': [1377, 5211], 's_8_37': [1393], 's_8_39': [1108], 's_8_40': [279], 's_8_41': [475], 's_8_42': [277], 's_8_43': [310, 4815], 's_10_1': [4275], 's_10_2': [4190], 's_10_9': [4290], 's_10_11': [4296], 's_10_12': [1883], 's_10_13': [1117], 's_10_14': [4733], 's_10_15': [4576], 's_10_16': [4311], 's_10_17': [4313, 4314, 1927, 1928], 's_10_18': [4129], 's_10_20': [1958, 4495], 's_10_21': [4463, 4464, 1778], 's_10_22': [4583], 's_10_23': [487], 's_10_25': [1282], 's_10_26': [1298], 's_10_27': [4230, 172, 173], 's_10_28': [4658], 's_10_29': [1161], 's_10_30': [4613], 's_10_31': [4455], 's_10_33': [4853], 's_10_34': [4176], 's_10_36': [4279], 's_10_37': [1616], 's_10_38': [4501], 's_10_39': [1296], 's_10_40': [4808], 's_10_42': [232], 's_11_1': [1264], 's_11_9': [5153], 's_11_12': [4912], 's_11_13': [1401, 4192], 's_11_14': [5288], 's_11_15': [1341], 's_11_17': [1254, 4656], 's_11_18': [1525], 's_11_19': [970], 's_11_22': [1281], 's_11_23': [3921], 's_11_24': [4998], 's_11_25': [1251], 's_11_27': [1914, 1915], 's_11_28': [5272], 's_11_29': [1690], 's_11_30': [4177], 's_11_31': [1900], 's_11_32': [1115], 's_11_33': [1311], 's_11_34': [3966], 's_11_35': [1495], 's_11_36': [881], 's_11_37': [1376], 's_11_38': [1385, 3906], 's_11_39': [3981], 's_11_40': [1091], 's_11_42': [4507], 's_11_43': [1720], 's_13_1': [4087], 's_13_2': [997], 's_13_9': [1012], 's_13_12': [4030], 's_13_14': [1491], 's_13_15': [1312], 's_13_16': [507], 's_13_17': [4698], 's_13_18': [4263], 's_13_21': [4029], 's_13_22': [4042], 's_13_23': [1925], 's_13_24': [4863], 's_13_25': [4223], 's_13_27': [4046], 's_13_28': [702], 's_13_30': [4073], 's_13_31': [640], 's_13_32': [4292], 's_13_33': [1641], 's_13_34': [772], 's_13_36': [747], 's_13_37': [717], 's_13_38': [1880], 's_13_39': [1836], 's_13_40': [4743], 's_13_41': [4968], 's_15_1': [1837], 's_15_2': [4040], 's_15_9': [4485], 's_15_12': [4390], 's_15_16': [1102], 's_15_17': [4665], 's_15_18': [816], 's_15_20': [4126], 's_15_22': [1417], 's_15_23': [3980], 's_15_24': [4405], 's_15_25': [1911], 's_15_26': [757], 's_15_27': [4360], 's_15_28': [1716], 's_15_29': [3890], 's_15_30': [1506], 's_15_31': [4620], 's_15_32': [1024], 's_15_33': [1116], 's_15_35': [4299], 's_15_37': [261], 's_15_39': [4011], 's_15_41': [4375], 's_15_42': [1642], 's_16_2': [1028], 's_16_9': [533], 's_16_12': [3924], 's_16_14': [1446], 's_16_17': [668], 's_16_18': [4547], 's_16_20': [593], 's_16_21': [3864, 1789], 's_16_22': [4462], 's_16_23': [5237], 's_16_25': [4222], 's_16_26': [1162], 's_16_27': [2031], 's_16_28': [5252], 's_16_29': [1388], 's_16_30': [4266], 's_16_31': [4787, 415], 's_16_32': [5267], 's_16_33': [1386], 's_16_34': [457], 's_16_35': [3909], 's_16_36': [1013], 's_16_37': [5206], 's_16_38': [4816], 's_16_39': [1671], 's_16_40': [4651], 's_16_41': [445], 's_16_42': [1342], 's_16_43': [506, 505], 's_18_9': [4384], 's_18_12': [1481], 's_18_17': [594], 's_18_19': [741], 's_18_20': [667], 's_18_21': [4940, 4941, 1271], 's_18_24': [4833], 's_18_25': [4969], 's_18_26': [4203], 's_18_27': [698], 's_18_29': [1345], 's_18_30': [4971], 's_18_31': [835], 's_18_32': [5027], 's_18_33': [771], 's_18_34': [846], 's_18_35': [1046], 's_18_36': [4924], 's_18_37': [597], 's_18_39': [1150], 's_18_40': [4712], 's_18_41': [5043], 's_18_42': [4928], 's_21_1': [1881, 4284], 's_21_9': [1137], 's_21_12': [4839], 's_21_14': [1703], 's_21_17': [1718], 's_21_19': [1644], 's_21_20': [5075], 's_21_22': [4911, 1301], 's_21_23': [1775], 's_21_24': [4074], 's_21_25': [911], 's_21_27': [1854], 's_21_28': [4929], 's_21_29': [4959], 's_21_30': [5225], 's_21_31': [1331, 1330], 's_21_33': [1839], 's_21_34': [4745], 's_21_35': [4689], 's_21_36': [4669], 's_21_37': [1647], 's_21_38': [3969], 's_21_39': [4849, 1030], 's_21_40': [4749], 's_21_41': [5034], 's_21_42': [4119], 's_21_43': [5017, 1586], 's_24_2': [4488], 's_24_9': [4457], 's_24_12': [4359], 's_24_14': [4298], 's_24_17': [4578], 's_24_19': [4353], 's_24_20': [1717], 's_24_22': [1101], 's_24_23': [4307], 's_24_26': [4113], 's_24_28': [1611], 's_24_29': [876, 4159], 's_24_30': [1505], 's_24_32': [4487], 's_24_34': [4086], 's_24_35': [4059], 's_24_40': [714], 's_24_43': [715], 's_25_1': [4058], 's_25_12': [1926], 's_25_19': [4264], 's_25_22': [1416], 's_25_26': [1462], 's_25_28': [4088], 's_25_29': [4160], 's_25_30': [1029], 's_25_31': [805], 's_25_32': [1594], 's_25_33': [4133], 's_25_34': [4655], 's_25_35': [3878], 's_25_36': [4699], 's_25_38': [1610], 's_25_39': [4610], 's_25_40': [834], 's_25_42': [1627], 's_25_43': [865], 's_27_1': [4575], 's_27_2': [4550], 's_27_12': [4660, 4659], 's_27_14': [4657], 's_27_17': [4450], 's_27_19': [4687, 1419], 's_27_20': [4421], 's_27_23': [1970, 3925], 's_27_28': [1764], 's_27_30': [1284], 's_27_31': [2020], 's_27_32': [3835], 's_27_33': [4688, 1659], 's_27_34': [1344], 's_27_36': [924], 's_27_37': [338], 's_27_38': [3940], 's_27_40': [1899], 's_27_42': [143, 142], 's_27_43': [1329], 's_28_1': [4117], 's_28_2': [5224], 's_28_9': [5137], 's_28_12': [5049], 's_28_17': [1974], 's_28_19': [5404], 's_28_22': [5271], 's_28_23': [1714], 's_28_26': [1587], 's_28_29': [1422], 's_28_30': [5181], 's_28_32': [1609], 's_28_35': [1840], 's_28_36': [5419], 's_28_37': [1662], 's_28_38': [1715], 's_28_39': [1017], 's_28_40': [4823], 's_28_41': [763], 's_28_42': [4149], 's_28_43': [4734], 's_29_1': [3724, 993, 3725], 's_29_2': [3995], 's_29_9': [4416], 's_29_14': [4523, 4522], 's_29_17': [4491], 's_29_19': [4114], 's_29_20': [1283], 's_29_22': [4942], 's_29_23': [3830], 's_29_26': [4702], 's_29_30': [4806], 's_29_32': [4187], 's_29_33': [321], 's_29_35': [4851], 's_29_36': [3965], 's_29_37': [5047], 's_29_38': [3949, 875], 's_29_39': [4265], 's_29_41': [1406], 's_29_42': [1132], 's_29_43': [4987], 's_30_1': [1459, 1444], 's_30_2': [998, 4580], 's_30_9': [5240], 's_30_12': [1123], 's_30_14': [1355], 's_30_17': [1269], 's_30_19': [1584], 's_30_20': [1567, 1568], 's_30_22': [4312], 's_30_23': [1519, 3757], 's_30_31': [4821], 's_30_32': [1475], 's_30_34': [1224], 's_30_35': [5226], 's_30_36': [5136, 5135], 's_30_37': [1032], 's_30_38': [1415], 's_30_39': [5180], 's_30_40': [1389], 's_30_41': [1400], 's_30_42': [4477], 's_32_1': [1069], 's_32_9': [519, 518], 's_32_12': [3865], 's_32_14': [1699], 's_32_19': [619, 546, 545, 3827], 's_32_20': [3842], 's_32_22': [1445], 's_32_23': [3902, 649], 's_32_26': [4053], 's_32_31': [670], 's_32_33': [3859], 's_32_34': [1249], 's_32_35': [1670], 's_32_37': [4832, 4831], 's_32_38': [1835], 's_32_39': [964, 3754], 's_32_41': [4997], 's_32_42': [4352], 's_32_43': [595], 's_33_1': [4140], 's_33_14': [4478], 's_33_17': [4584], 's_33_19': [3979], 's_33_20': [1702], 's_33_22': [1026], 's_33_23': [3904], 's_33_26': [1448], 's_33_31': [1810], 's_33_34': [966], 's_33_35': [4239], 's_33_37': [486, 4111, 366], 's_33_38': [906], 's_33_39': [1626], 's_33_41': [4614], 's_34_1': [3801], 's_34_2': [4490], 's_34_9': [4850], 's_34_17': [4551], 's_34_22': [1071], 's_34_23': [3877, 3876], 's_34_26': [4371], 's_34_31': [1270], 's_34_35': [4926], 's_34_36': [4204], 's_34_37': [4216], 's_34_38': [4041], 's_34_40': [1300], 's_34_41': [1250], 's_34_42': [1267], 's_34_43': [1480, 4732], 's_35_9': [1181], 's_35_12': [1765], 's_35_14': [4224], 's_35_19': [5074], 's_35_20': [1897], 's_35_22': [5376], 's_35_26': [5166], 's_35_31': [1855], 's_35_39': [1092], 's_35_42': [4014], 's_37_1': [289, 3871], 's_37_2': [5208], 's_37_9': [1227], 's_37_12': [1332], 's_37_14': [5197], 's_37_17': [308, 307], 's_37_19': [3916], 's_37_20': [349, 3796], 's_37_22': [5287], 's_37_23': [5071], 's_37_26': [5077], 's_37_31': [369, 370], 's_37_36': [642, 5268], 's_37_38': [4846], 's_37_41': [732], 's_37_42': [4306], 's_38_1': [1536], 's_38_2': [1070], 's_38_12': [4076], 's_38_14': [3968], 's_38_17': [429, 428, 4711], 's_38_19': [710], 's_38_20': [4412], 's_38_23': [413], 's_38_26': [485], 's_38_31': [4861], 's_38_36': [815], 's_38_39': [1220], 's_38_40': [4666], 's_38_41': [416], 's_38_43': [4891], 's_39_9': [5045], 's_39_12': [5316], 's_39_14': [1370], 's_39_19': [5480], 's_39_23': [1325], 's_39_31': [1105], 's_39_36': [882], 's_39_40': [1149], 's_39_41': [1340], 's_39_43': [1045], 's_40_2': [864], 's_40_9': [4730], 's_40_12': [1631], 's_40_14': [1539], 's_40_17': [220], 's_40_19': [1434], 's_40_20': [4835], 's_40_22': [4836], 's_40_23': [4742], 's_40_26': [4747], 's_40_31': [910], 's_40_36': [1044], 's_40_43': [999], 's_42_1': [1552], 's_42_2': [4415], 's_42_9': [367, 368], 's_42_14': [4943], 's_42_19': [4189, 922], 's_42_20': [1853], 's_42_23': [472], 's_42_31': [157], 's_42_36': [4459], 's_42_41': [1597], 's_42_43': [4822], 's_43_1': [205], 's_43_14': [4852], 's_43_17': [264], 's_43_19': [969], 's_43_20': [4790], 's_43_23': [565], 's_43_26': [1450], 's_43_31': [4792], 's_43_36': [4789], 's_43_41': [1660], 's_2_9': [4458], 's_2_12': [837], 's_2_17': [878], 's_2_22': [4070], 's_2_23': [1085, 3875], 's_2_31': [4864], 's_2_26': [4310], 's_2_41': [3950], 's_9_1': [4200], 's_9_14': [1346], 's_9_17': [713], 's_9_19': [4611], 's_9_20': [427], 's_9_22': [4581], 's_9_26': [5227], 's_9_31': [4425], 's_9_36': [4640], 's_9_41': [1272], 's_14_1': [1579], 's_14_12': [1542], 's_14_17': [1583], 's_14_19': [1538], 's_14_20': [1643], 's_14_22': [1461], 's_14_23': [1534], 's_14_26': [4807], 's_14_31': [1540], 's_14_41': [1541], 's_17_1': [4650], 's_17_12': [4435], 's_17_20': [1418], 's_17_23': [4577], 's_17_26': [1252], 's_17_31': [4725, 4726, 385], 's_17_36': [4579], 's_22_1': [4132], 's_22_12': [5317], 's_22_19': [4009], 's_22_20': [4432], 's_22_23': [3786, 3787], 's_22_41': [1565], 's_23_1': [784], 's_23_12': [1879], 's_23_19': [4037], 's_23_20': [4427], 's_23_36': [5207], 's_26_19': [4188], 's_26_20': [1327], 's_26_31': [4927], 's_26_41': [1482], 's_31_1': [4590], 's_31_20': [1404], 's_31_36': [880], 's_31_41': [430], 's_41_12': [4854], 's_41_20': [1838], 's_41_36': [912], 's_12_1': [1941], 's_12_19': [5269], 's_12_20': [4895], 's_12_36': [883], 's_20_1': [3751], 's_20_19': [576, 575, 3858, 3857], 's_20_36': [909], 's_19_1': [470, 469, 454], 's_19_36': [5374]}</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.00318848167539267</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.001961562885761858</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>{0: [623, 622, 5345, 5344, 560, 561, 958, 957, 956, 955, 954, 953, 562, 4157, 621, 818, 817, 4354, 862, 4278, 4277], 3: [968, 1808, 4389, 4388, 4606, 535, 534, 4387, 4386, 1133, 4607, 473, 4517, 4518, 4519, 4520], 's_0_3': [923], 4: [4937, 4936, 1625, 250, 249, 248, 247, 246, 245, 3930, 3931, 1910, 3939, 3938, 3937, 3936, 3935, 3934, 3933, 3932], 's_0_4': [620], 5: [626, 625, 624, 339, 3819, 3818, 3817, 3816, 3815, 3814, 3813, 4681, 4682, 4683, 803, 744, 743, 799, 800, 801, 802, 4368], 's_0_5': [4638], 6: [4085, 941, 5011, 1206, 5010, 1207, 1208, 1209, 1210, 5012, 5013, 5014, 5015, 1211], 's_0_6': [4925], 7: [1955, 4015, 5028, 4615, 4643, 4644, 2045, 2046, 836, 4270, 5059, 5060, 5061, 5062, 5063, 5064, 1841, 4930, 1945, 1944, 1943, 1942, 4269], 's_0_7': [5029], 8: [5178, 4186, 291, 5361, 4426, 5302, 1212, 5177, 5301, 5300, 5299, 5298, 687, 292, 293, 294, 5303, 295, 4906, 1288, 4907, 566, 567, 5162], 's_0_8': [1047, 5179], 10: [1615, 1614, 323, 322, 1297, 4494, 4493, 1613, 1612, 4231, 4232, 4233, 4234, 996, 4235, 4236, 4237, 4238], 's_0_10': [742], 11: [5004, 3861, 1265, 1266, 4131, 1371, 1372, 1373, 4999, 5000, 5003, 1498, 1497, 1496, 5002, 5001, 1375, 1374], 's_0_11': [4984], 13: [5147, 847, 4045, 4044, 4043, 1476, 1477, 4342, 4341, 5148, 656, 655, 654, 653, 652, 4338, 4339, 4340], 's_0_13': [877], 15: [1777, 1025, 219, 4010, 1957, 4255, 4254, 4515, 233, 218, 217, 4201, 4202, 471, 4247, 4248, 4249, 4253, 4252, 4251, 4250, 1011, 1010], 's_0_15': [952], 16: [4135, 4134, 1806, 4164, 492, 491, 4996, 1805, 4162, 1356, 4461, 1357, 4460, 4163, 1103, 4504, 4503, 4502, 460, 4505, 459, 458], 's_0_16': [563], 18: [1286, 759, 4367, 582, 760, 761, 696, 697, 4383, 578, 579, 580, 1570, 1571, 4958, 581, 4128, 4957, 4956, 4955, 4954, 4953], 's_0_18': [861], 21: [4909, 1014, 1015, 4910, 1165, 4553, 4554, 1167, 1166, 5106, 5107, 5108, 1796, 1795, 1794, 1793, 1792, 5109, 1791, 1790], 's_0_21': [4970], 24: [4473, 4472, 821, 820, 4404, 4848, 700, 699, 4593, 1747, 4103, 4102, 4101, 4100, 4099, 4098, 756, 651, 638, 637, 636, 1746, 4158], 's_0_24': [4262], 25: [4803, 4939, 1146, 791, 790, 789, 1595, 804, 4653, 4654, 939, 938, 1596, 4210, 4209, 4208, 4207, 4206, 4205, 937], 's_0_25': [4684], 27: [4690, 2015, 98, 4671, 4672, 4530, 4532, 4533, 1494, 4534, 4536, 4537, 4538, 4539, 4531, 4540, 2019, 4535, 2018, 2017, 4673, 2016], 's_0_27': [4549], 28: [4720, 943, 4118, 4719, 5253, 1729, 1730, 1731, 1732, 1733, 867, 5254, 5255, 3758, 5256, 5257, 1734, 1735, 1736, 5183, 5182, 1437], 's_0_28': [1152], 29: [4718, 4717, 1039, 1238, 1040, 1041, 4974, 4973, 1421, 4972, 1360, 1359, 1358, 4476, 4475, 4171, 4172, 4173, 4174, 4175, 1087, 1088], 's_0_29': [577], 30: [4622, 4986, 1077, 5285, 5286, 4624, 1460, 4267, 1242, 1241, 1240, 1239, 4625, 3982, 4623, 1520, 1521, 1522, 1523, 4627, 4626], 's_0_30': [5241, 1197], 32: [4150, 2001, 2000, 3850, 522, 521, 520, 4802, 3849, 3848, 3847, 3846, 3845, 3844, 3843, 604, 605, 606, 607, 608, 609], 's_0_32': [4082], 33: [1601, 3889, 1600, 1809, 4704, 4703, 1701, 4141, 920, 921, 4447, 4142, 4143, 4144, 4145, 4146, 4147, 4148, 1686, 1687, 1748, 1599, 1598, 4448], 's_0_33': [501], 34: [4276, 4715, 1225, 4791, 4731, 1234, 456, 4217, 4218, 1164, 4746, 1179, 1178, 1177, 4219, 4220, 1235, 1236, 4221, 1176], 's_0_34': [531], 35: [4449, 5089, 5090, 5091, 3879, 1820, 1821, 1258, 1257, 1256, 1255, 4866, 4867, 4868, 1822, 1823, 1824, 1825, 4869], 's_0_35': [5346], 37: [4245, 4637, 4351, 5093, 5092, 4636, 350, 351, 352, 353, 354, 355, 356, 357, 5191, 5192, 5193, 5194, 5195, 4246, 5196, 1392, 1391], 's_0_37': [1182], 38: [2061, 2060, 3985, 401, 3984, 3983, 1535, 4028, 4027, 400, 399, 398, 397, 396, 4022, 4023, 4026, 4025, 4024], 's_0_38': [591], 39: [3999, 3998, 3997, 3755, 4865, 5150, 1189, 3996, 5149, 1190, 1059, 5315, 1063, 1062, 1191, 1192, 1061, 1060, 4820, 1194, 1193], 's_0_39': [5105], 40: [1629, 1285, 1090, 4756, 940, 4765, 489, 4757, 1630, 4764, 4758, 4759, 4763, 4762, 4761, 4760], 's_0_40': [4714], 42: [967, 4320, 1851, 1852, 4328, 502, 4321, 1510, 1509, 4329, 1508, 1507, 4322, 4323, 4324, 4325, 4326, 4327], 's_0_42': [532], 43: [775, 1719, 4770, 4779, 4778, 1435, 4837, 4771, 4772, 4773, 4774, 4777, 1436, 4776, 340, 4775], 's_0_43': [819], 2: [1057, 1058, 4430, 5284, 1056, 852, 851, 850, 1055, 849, 848, 4429], 's_3_2': [758], 's_3_4': [4591], 's_3_5': [504], 's_3_6': [536], 9: [1451, 199, 200, 201, 5212, 1452, 202, 5152, 5151, 1122, 1121, 1120, 1119, 203, 4440, 4441, 4442, 4443, 832, 4369, 1118, 4370], 's_3_9': [488], 's_3_10': [1237], 's_3_11': [4402], 's_3_13': [4817], 14: [5016, 3923, 1557, 5031, 5032, 3833, 1564, 4012, 4013, 1655, 1656, 1657, 1658, 4508, 1556, 1555, 1554, 1553], 's_3_14': [1628], 's_3_15': [1807], 's_3_16': [4486], 17: [4680, 1688, 4570, 4569, 4568, 4567, 235, 234, 1973, 4561, 4562, 4563, 774, 1253, 4566, 4565, 4564], 's_3_17': [503], 's_3_18': [728], 's_3_21': [4509], 22: [951, 1429, 4055, 4056, 4057, 1430, 1431, 1432, 1318, 3922, 1317, 1316, 1315, 1314, 4582, 1433], 's_3_22': [1313], 23: [552, 5072, 611, 610, 550, 549, 548, 1324, 3895, 3894, 4862, 3893, 3892, 3891, 1130, 3920, 3919, 3918, 3917, 515, 4382, 516, 517], 's_3_23': [551, 4922], 's_3_24': [4847], 's_3_25': [4652], 26: [1148, 1572, 4492, 1147, 3991, 5167, 1467, 1466, 1465, 1464, 1463, 3992, 4357, 4356, 3993, 726, 727, 4308, 4309, 1027, 4355], 's_3_26': [1268], 's_3_27': [263], 's_3_28': [4524], 's_3_29': [4431], 's_3_30': [1582], 31: [4695, 158, 159, 160, 4875, 4876, 4877, 4878, 4885, 4884, 4883, 1405, 4882, 4881, 4880, 4879], 's_3_31': [4605], 's_3_32': [4667], 's_3_33': [4434], 's_3_34': [4521], 's_3_35': [4479], 's_3_37': [4471], 's_3_39': [4401], 's_3_40': [309], 41: [1310, 762, 4981, 4982, 686, 5118, 5119, 5120, 5121, 5122, 5123, 5124, 1781, 3951, 3952, 3953, 1760, 1761, 1762, 4374, 4373, 1673, 1674, 1780, 4794, 1675], 's_3_41': [1537], 's_4_5': [950], 's_4_7': [3970], 's_4_8': [4411], 's_4_9': [4185], 's_4_10': [4260], 12: [822, 4896, 4075, 807, 5329, 5330, 5331, 5332, 5333, 4897, 5334, 1828, 1827, 1826, 1864, 1865, 1866, 1867, 1868, 1869, 4898, 4899, 1870], 's_4_12': [4089], 's_4_14': [1640], 's_4_16': [4995], 's_4_17': [4830], 20: [439, 1076, 440, 1075, 4396, 441, 442, 1074, 1073, 4420, 4419, 4418, 4397, 4398, 4399, 908, 4444, 4445, 4446, 1403, 4417], 's_4_20': [4336, 4335], 's_4_21': [4104], 's_4_22': [965], 's_4_23': [530], 's_4_27': [4500], 's_4_28': [3908], 's_4_30': [1490], 's_4_31': [4860], 's_4_32': [590], 's_4_34': [455], 's_4_37': [276, 4110], 's_4_38': [665], 's_4_40': [4741], 's_4_41': [1280], 's_4_42': [262], 's_4_43': [4921], 's_5_2': [1054], 's_5_6': [596, 4938], 's_5_8': [5087], 's_5_10': [324], 's_5_11': [1174], 's_5_12': [3834], 's_5_13': [682], 's_5_15': [1009], 's_5_16': [4727], 's_5_17': [384], 19: [424, 425, 4598, 4597, 4067, 988, 980, 981, 4068, 711, 987, 986, 985, 984, 4596, 4595, 983, 982, 4294, 4293, 712], 's_5_19': [979], 's_5_20': [773], 's_5_22': [1414], 's_5_23': [5103], 's_5_24': [4039], 's_5_25': [4668], 's_5_26': [785], 's_5_27': [3820], 's_5_28': [1744], 's_5_29': [3860, 1100], 's_5_30': [3832], 's_5_32': [634], 's_5_33': [3828, 3829], 's_5_35': [1684], 36: [4609, 671, 4819, 898, 672, 3964, 5133, 5134, 897, 896, 895, 4639, 890, 891, 892, 893, 894], 's_5_36': [3874], 's_5_37': [627], 's_5_38': [414], 's_5_39': [1219], 's_5_40': [444], 's_5_41': [1295], 's_5_42': [787], 's_5_43': [745], 1: [4180, 4179, 4178, 190, 189, 188, 1145, 1144, 1550, 1549, 187, 186, 3800, 185, 184, 3765, 3766, 3767, 3768, 3772, 1551, 3771, 3770, 3769, 994], 's_6_1': [191], 's_6_2': [4295], 's_6_7': [1001], 's_6_8': [296], 's_6_13': [446], 's_6_14': [5030, 1196], 's_6_15': [1160], 's_6_16': [386], 's_6_17': [4506], 's_6_18': [926], 's_6_19': [4084], 's_6_20': [4985], 's_6_21': [1151], 's_6_22': [4071], 's_6_24': [4894], 's_6_25': [4115], 's_6_26': [1222], 's_6_27': [1223], 's_6_29': [4280], 's_6_30': [4686], 's_6_32': [4788, 730, 731], 's_6_33': [1221], 's_6_34': [1175], 's_6_35': [1016], 's_6_36': [5044], 's_6_37': [5146, 281], 's_6_38': [5026], 's_6_39': [4670], 's_6_40': [4805], 's_6_41': [341], 's_6_43': [325, 326], 's_7_1': [1987], 's_7_2': [866], 's_7_8': [777, 776], 's_7_10': [1898], 's_7_11': [1751], 's_7_12': [4960], 's_7_14': [4642], 's_7_16': [4165], 's_7_17': [1913], 's_7_18': [1106], 's_7_19': [4600, 4599], 's_7_20': [4510, 1988], 's_7_22': [5046], 's_7_23': [1940], 's_7_25': [5058], 's_7_26': [1511], 's_7_28': [1721], 's_7_30': [4628], 's_7_31': [1975], 's_7_32': [1954], 's_7_33': [4629], 's_7_36': [5104], 's_7_37': [1706], 's_7_38': [4000], 's_7_39': [971], 's_7_40': [4750], 's_7_41': [701], 's_7_42': [4240], 's_7_43': [4780], 's_8_2': [928], 's_8_9': [383], 's_8_10': [426], 's_8_11': [1483], 's_8_12': [1303], 's_8_13': [641], 's_8_14': [1453, 5347], 's_8_15': [4305], 's_8_16': [5117], 's_8_17': [4635], 's_8_18': [583], 's_8_19': [972], 's_8_20': [290, 3976], 's_8_21': [4908], 's_8_23': [612], 's_8_24': [5163], 's_8_25': [792], 's_8_26': [306, 305], 's_8_27': [278], 's_8_28': [1362], 's_8_29': [382], 's_8_30': [1243], 's_8_32': [5297], 's_8_33': [4156], 's_8_35': [1377, 5211], 's_8_37': [1393], 's_8_39': [1108], 's_8_40': [279], 's_8_41': [475], 's_8_42': [277], 's_8_43': [310, 4815], 's_10_1': [4275], 's_10_2': [4190], 's_10_9': [4290], 's_10_11': [4296], 's_10_12': [1883], 's_10_13': [1117], 's_10_14': [4733], 's_10_15': [4576], 's_10_16': [4311], 's_10_17': [4313, 4314, 1927, 1928], 's_10_18': [4129], 's_10_20': [1958, 4495], 's_10_21': [4463, 4464, 1778], 's_10_22': [4583], 's_10_23': [487], 's_10_25': [1282], 's_10_26': [1298], 's_10_27': [4230, 172, 173], 's_10_28': [4658], 's_10_29': [1161], 's_10_30': [4613], 's_10_31': [4455], 's_10_33': [4853], 's_10_34': [4176], 's_10_36': [4279], 's_10_37': [1616], 's_10_38': [4501], 's_10_39': [1296], 's_10_40': [4808], 's_10_42': [232], 's_11_1': [1264], 's_11_9': [5153], 's_11_12': [4912], 's_11_13': [1401, 4192], 's_11_14': [5288], 's_11_15': [1341], 's_11_17': [1254, 4656], 's_11_18': [1525], 's_11_19': [970], 's_11_22': [1281], 's_11_23': [3921], 's_11_24': [4998], 's_11_25': [1251], 's_11_27': [1914, 1915], 's_11_28': [5272], 's_11_29': [1690], 's_11_30': [4177], 's_11_31': [1900], 's_11_32': [1115], 's_11_33': [1311], 's_11_34': [3966], 's_11_35': [1495], 's_11_36': [881], 's_11_37': [1376], 's_11_38': [1385, 3906], 's_11_39': [3981], 's_11_40': [1091], 's_11_42': [4507], 's_11_43': [1720], 's_13_1': [4087], 's_13_2': [997], 's_13_9': [1012], 's_13_12': [4030], 's_13_14': [1491], 's_13_15': [1312], 's_13_16': [507], 's_13_17': [4698], 's_13_18': [4263], 's_13_21': [4029], 's_13_22': [4042], 's_13_23': [1925], 's_13_24': [4863], 's_13_25': [4223], 's_13_27': [4046], 's_13_28': [702], 's_13_30': [4073], 's_13_31': [640], 's_13_32': [4292], 's_13_33': [1641], 's_13_34': [772], 's_13_36': [747], 's_13_37': [717], 's_13_38': [1880], 's_13_39': [1836], 's_13_40': [4743], 's_13_41': [4968], 's_15_1': [1837], 's_15_2': [4040], 's_15_9': [4485], 's_15_12': [4390], 's_15_16': [1102], 's_15_17': [4665], 's_15_18': [816], 's_15_20': [4126], 's_15_22': [1417], 's_15_23': [3980], 's_15_24': [4405], 's_15_25': [1911], 's_15_26': [757], 's_15_27': [4360], 's_15_28': [1716], 's_15_29': [3890], 's_15_30': [1506], 's_15_31': [4620], 's_15_32': [1024], 's_15_33': [1116], 's_15_35': [4299], 's_15_37': [261], 's_15_39': [4011], 's_15_41': [4375], 's_15_42': [1642], 's_16_2': [1028], 's_16_9': [533], 's_16_12': [3924], 's_16_14': [1446], 's_16_17': [668], 's_16_18': [4547], 's_16_20': [593], 's_16_21': [3864, 1789], 's_16_22': [4462], 's_16_23': [5237], 's_16_25': [4222], 's_16_26': [1162], 's_16_27': [2031], 's_16_28': [5252], 's_16_29': [1388], 's_16_30': [4266], 's_16_31': [4787, 415], 's_16_32': [5267], 's_16_33': [1386], 's_16_34': [457], 's_16_35': [3909], 's_16_36': [1013], 's_16_37': [5206], 's_16_38': [4816], 's_16_39': [1671], 's_16_40': [4651], 's_16_41': [445], 's_16_42': [1342], 's_16_43': [506, 505], 's_18_9': [4384], 's_18_12': [1481], 's_18_17': [594], 's_18_19': [741], 's_18_20': [667], 's_18_21': [4940, 4941, 1271], 's_18_24': [4833], 's_18_25': [4969], 's_18_26': [4203], 's_18_27': [698], 's_18_29': [1345], 's_18_30': [4971], 's_18_31': [835], 's_18_32': [5027], 's_18_33': [771], 's_18_34': [846], 's_18_35': [1046], 's_18_36': [4924], 's_18_37': [597], 's_18_39': [1150], 's_18_40': [4712], 's_18_41': [5043], 's_18_42': [4928], 's_21_1': [1881, 4284], 's_21_9': [1137], 's_21_12': [4839], 's_21_14': [1703], 's_21_17': [1718], 's_21_19': [1644], 's_21_20': [5075], 's_21_22': [4911, 1301], 's_21_23': [1775], 's_21_24': [4074], 's_21_25': [911], 's_21_27': [1854], 's_21_28': [4929], 's_21_29': [4959], 's_21_30': [5225], 's_21_31': [1331, 1330], 's_21_33': [1839], 's_21_34': [4745], 's_21_35': [4689], 's_21_36': [4669], 's_21_37': [1647], 's_21_38': [3969], 's_21_39': [4849, 1030], 's_21_40': [4749], 's_21_41': [5034], 's_21_42': [4119], 's_21_43': [5017, 1586], 's_24_2': [4488], 's_24_9': [4457], 's_24_12': [4359], 's_24_14': [4298], 's_24_17': [4578], 's_24_19': [4353], 's_24_20': [1717], 's_24_22': [1101], 's_24_23': [4307], 's_24_26': [4113], 's_24_28': [1611], 's_24_29': [876, 4159], 's_24_30': [1505], 's_24_32': [4487], 's_24_34': [4086], 's_24_35': [4059], 's_24_40': [714], 's_24_43': [715], 's_25_1': [4058], 's_25_12': [1926], 's_25_19': [4264], 's_25_22': [1416], 's_25_26': [1462], 's_25_28': [4088], 's_25_29': [4160], 's_25_30': [1029], 's_25_31': [805], 's_25_32': [1594], 's_25_33': [4133], 's_25_34': [4655], 's_25_35': [3878], 's_25_36': [4699], 's_25_38': [1610], 's_25_39': [4610], 's_25_40': [834], 's_25_42': [1627], 's_25_43': [865], 's_27_1': [4575], 's_27_2': [4550], 's_27_12': [4660, 4659], 's_27_14': [4657], 's_27_17': [4450], 's_27_19': [4687, 1419], 's_27_20': [4421], 's_27_23': [1970, 3925], 's_27_28': [1764], 's_27_30': [1284], 's_27_31': [2020], 's_27_32': [3835], 's_27_33': [4688, 1659], 's_27_34': [1344], 's_27_36': [924], 's_27_37': [338], 's_27_38': [3940], 's_27_40': [1899], 's_27_42': [143, 142], 's_27_43': [1329], 's_28_1': [4117], 's_28_2': [5224], 's_28_9': [5137], 's_28_12': [5049], 's_28_17': [1974], 's_28_19': [5404], 's_28_22': [5271], 's_28_23': [1714], 's_28_26': [1587], 's_28_29': [1422], 's_28_30': [5181], 's_28_32': [1609], 's_28_35': [1840], 's_28_36': [5419], 's_28_37': [1662], 's_28_38': [1715], 's_28_39': [1017], 's_28_40': [4823], 's_28_41': [763], 's_28_42': [4149], 's_28_43': [4734], 's_29_1': [3724, 993, 3725], 's_29_2': [3995], 's_29_9': [4416], 's_29_14': [4523, 4522], 's_29_17': [4491], 's_29_19': [4114], 's_29_20': [1283], 's_29_22': [4942], 's_29_23': [3830], 's_29_26': [4702], 's_29_30': [4806], 's_29_32': [4187], 's_29_33': [321], 's_29_35': [4851], 's_29_36': [3965], 's_29_37': [5047], 's_29_38': [3949, 875], 's_29_39': [4265], 's_29_41': [1406], 's_29_42': [1132], 's_29_43': [4987], 's_30_1': [1459, 1444], 's_30_2': [998, 4580], 's_30_9': [5240], 's_30_12': [1123], 's_30_14': [1355], 's_30_17': [1269], 's_30_19': [1584], 's_30_20': [1567, 1568], 's_30_22': [4312], 's_30_23': [1519, 3757], 's_30_31': [4821], 's_30_32': [1475], 's_30_34': [1224], 's_30_35': [5226], 's_30_36': [5136, 5135], 's_30_37': [1032], 's_30_38': [1415], 's_30_39': [5180], 's_30_40': [1389], 's_30_41': [1400], 's_30_42': [4477], 's_32_1': [1069], 's_32_9': [519, 518], 's_32_12': [3865], 's_32_14': [1699], 's_32_19': [619, 546, 545, 3827], 's_32_20': [3842], 's_32_22': [1445], 's_32_23': [3902, 649], 's_32_26': [4053], 's_32_31': [670], 's_32_33': [3859], 's_32_34': [1249], 's_32_35': [1670], 's_32_37': [4832, 4831], 's_32_38': [1835], 's_32_39': [964, 3754], 's_32_41': [4997], 's_32_42': [4352], 's_32_43': [595], 's_33_1': [4140], 's_33_14': [4478], 's_33_17': [4584], 's_33_19': [3979], 's_33_20': [1702], 's_33_22': [1026], 's_33_23': [3904], 's_33_26': [1448], 's_33_31': [1810], 's_33_34': [966], 's_33_35': [4239], 's_33_37': [486, 4111, 366], 's_33_38': [906], 's_33_39': [1626], 's_33_41': [4614], 's_34_1': [3801], 's_34_2': [4490], 's_34_9': [4850], 's_34_17': [4551], 's_34_22': [1071], 's_34_23': [3877, 3876], 's_34_26': [4371], 's_34_31': [1270], 's_34_35': [4926], 's_34_36': [4204], 's_34_37': [4216], 's_34_38': [4041], 's_34_40': [1300], 's_34_41': [1250], 's_34_42': [1267], 's_34_43': [1480, 4732], 's_35_9': [1181], 's_35_12': [1765], 's_35_14': [4224], 's_35_19': [5074], 's_35_20': [1897], 's_35_22': [5376], 's_35_26': [5166], 's_35_31': [1855], 's_35_39': [1092], 's_35_42': [4014], 's_37_1': [289, 3871], 's_37_2': [5208], 's_37_9': [1227], 's_37_12': [1332], 's_37_14': [5197], 's_37_17': [308, 307], 's_37_19': [3916], 's_37_20': [349, 3796], 's_37_22': [5287], 's_37_23': [5071], 's_37_26': [5077], 's_37_31': [369, 370], 's_37_36': [642, 5268], 's_37_38': [4846], 's_37_41': [732], 's_37_42': [4306], 's_38_1': [1536], 's_38_2': [1070], 's_38_12': [4076], 's_38_14': [3968], 's_38_17': [429, 428, 4711], 's_38_19': [710], 's_38_20': [4412], 's_38_23': [413], 's_38_26': [485], 's_38_31': [4861], 's_38_36': [815], 's_38_39': [1220], 's_38_40': [4666], 's_38_41': [416], 's_38_43': [4891], 's_39_9': [5045], 's_39_12': [5316], 's_39_14': [1370], 's_39_19': [5480], 's_39_23': [1325], 's_39_31': [1105], 's_39_36': [882], 's_39_40': [1149], 's_39_41': [1340], 's_39_43': [1045], 's_40_2': [864], 's_40_9': [4730], 's_40_12': [1631], 's_40_14': [1539], 's_40_17': [220], 's_40_19': [1434], 's_40_20': [4835], 's_40_22': [4836], 's_40_23': [4742], 's_40_26': [4747], 's_40_31': [910], 's_40_36': [1044], 's_40_43': [999], 's_42_1': [1552], 's_42_2': [4415], 's_42_9': [367, 368], 's_42_14': [4943], 's_42_19': [4189, 922], 's_42_20': [1853], 's_42_23': [472], 's_42_31': [157], 's_42_36': [4459], 's_42_41': [1597], 's_42_43': [4822], 's_43_1': [205], 's_43_14': [4852], 's_43_17': [264], 's_43_19': [969], 's_43_20': [4790], 's_43_23': [565], 's_43_26': [1450], 's_43_31': [4792], 's_43_36': [4789], 's_43_41': [1660], 's_2_9': [4458], 's_2_12': [837], 's_2_17': [878], 's_2_22': [4070], 's_2_23': [1085, 3875], 's_2_31': [4864], 's_2_26': [4310], 's_2_41': [3950], 's_9_1': [4200], 's_9_14': [1346], 's_9_17': [713], 's_9_19': [4611], 's_9_20': [427], 's_9_22': [4581], 's_9_26': [5227], 's_9_31': [4425], 's_9_36': [4640], 's_9_41': [1272], 's_14_1': [1579], 's_14_12': [1542], 's_14_17': [1583], 's_14_19': [1538], 's_14_20': [1643], 's_14_22': [1461], 's_14_23': [1534], 's_14_26': [4807], 's_14_31': [1540], 's_14_41': [1541], 's_17_1': [4650], 's_17_12': [4435], 's_17_20': [1418], 's_17_23': [4577], 's_17_26': [1252], 's_17_31': [4725, 4726, 385], 's_17_36': [4579], 's_22_1': [4132], 's_22_12': [5317], 's_22_19': [4009], 's_22_20': [4432], 's_22_23': [3786, 3787], 's_22_41': [1565], 's_23_1': [784], 's_23_12': [1879], 's_23_19': [4037], 's_23_20': [4427], 's_23_36': [5207], 's_26_19': [4188], 's_26_20': [1327], 's_26_31': [4927], 's_26_41': [1482], 's_31_1': [4590], 's_31_20': [1404], 's_31_36': [880], 's_31_41': [430], 's_41_12': [4854], 's_41_20': [1838], 's_41_36': [912], 's_12_1': [1941], 's_12_19': [5269], 's_12_20': [4895], 's_12_36': [883], 's_20_1': [3751], 's_20_19': [576, 575, 3858, 3857], 's_20_36': [909], 's_19_1': [470, 469, 454], 's_19_36': [5374]}</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0.00318848167539267</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.001961562885761858</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>{0: [4464, 1774, 1775, 1778, 1777, 1776], 1: [2003, 2002, 3895, 2001, 3834, 3835, 2000], 2: [1986, 4298, 4299, 4300, 1987], 3: [4227, 2226, 1371, 4147, 4148, 4150, 4151, 4149], 5: [1701, 4163, 4166, 4165, 4164], 6: [4388, 4389, 4390, 1940, 1941, 1942], 8: [3952, 1895, 3970, 1566, 1565, 3968, 3969], 9: [2137, 2136, 4061, 4059, 4060], 13: [4449, 1625, 4448, 1628, 1627, 1626], 14: [1729, 4014, 1732, 1731, 1730], 15: [4106, 1596, 4105, 4104, 4103], 16: [4373, 4374, 4375, 1928, 1925, 1926, 1927], 17: [4226, 4225, 1672, 4223, 4224], 18: [2015, 2017, 3998, 3999, 2016, 4000], 20: [4509, 1748, 1744, 1747, 1745, 1746], 24: [1789, 4329, 1792, 1790, 1791], 25: [4420, 4419, 3789, 1717, 1716, 1714, 1715], 26: [2121, 4193, 4194, 2182, 4196, 4195], 27: [3937, 1640, 3938, 3939, 3940, 2091, 4090, 2090], 28: [1551, 4253, 4254, 4256, 4255], 29: [1624, 3803, 3804, 4270, 1864, 1865, 4269, 1866], 30: [1808, 1805, 1807, 1806], 31: [3878, 3879, 1823, 1820, 1822, 1821], 33: [3863, 1957, 1956, 1955, 1954, 3865, 3864], 34: [3924, 3714, 3923, 1759, 1760, 1762, 1761], 35: [4403, 4404, 1970, 1971, 1972, 4405], 36: [1492, 4208, 4209, 2076, 4211, 4210], 38: [1641, 1687, 1686, 4089, 4088, 1684, 1685], 39: [1477, 4177, 4180, 4178, 4181, 4179], 40: [4031, 1657, 4030, 1656, 4029], 41: [1506, 2181, 4117, 4121, 4120, 4119, 4118], 43: [1534, 4435, 4434, 1702, 3983, 1535, 1536, 1537, 4328], 44: [4479, 1853, 1850, 1852, 1851], 4: [2060, 2061, 4313, 4314, 4315, 2062], 7: [3985, 1881, 1880, 3984], 10: [2045, 4343, 4344, 4345, 2046, 2047], 12: [4058, 3954, 1612, 1611, 1610, 3953, 3833, 1655], 19: [4222, 1416, 4135, 1671, 4134, 4132, 4133], 22: [3925, 3818, 2032, 3819, 2031, 2030, 3820], 23: [2152, 4073, 2151, 4076, 4075, 4074], 42: [4015, 1912, 1910, 1911, 4283, 4284], 11: [4346, 2107, 2106, 2105, 1670, 3908, 3909, 3910], 21: [3848, 3849, 3850, 1837, 1836, 3880, 1835], 32: [4241, 1520, 1521, 4240, 4239, 1597, 4238], 37: [2167, 2166, 4043, 4044, 4045, 4046]}</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.4280193236714976</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.03518041375931328</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>{0: [4464, 1774, 1775, 1778, 1777, 1776], 1: [2003, 2002, 3895, 2001, 3834, 3835, 2000], 2: [1986, 4298, 4299, 4300, 1987], 3: [4227, 2226, 1371, 4147, 4148, 4150, 4151, 4149], 5: [1701, 4163, 4166, 4165, 4164], 6: [4388, 4389, 4390, 1940, 1941, 1942], 8: [3952, 1895, 3970, 1566, 1565, 3968, 3969], 9: [2137, 2136, 4061, 4059, 4060], 13: [4449, 1625, 4448, 1628, 1627, 1626], 14: [1729, 4014, 1732, 1731, 1730], 15: [4106, 1596, 4105, 4104, 4103], 16: [4373, 4374, 4375, 1928, 1925, 1926, 1927], 17: [4226, 4225, 1672, 4223, 4224], 18: [2015, 2017, 3998, 3999, 2016, 4000], 20: [4509, 1748, 1744, 1747, 1745, 1746], 24: [1789, 4329, 1792, 1790, 1791], 25: [4420, 4419, 3789, 1717, 1716, 1714, 1715], 26: [2121, 4193, 4194, 2182, 4196, 4195], 27: [3937, 1640, 3938, 3939, 3940, 2091, 4090, 2090], 28: [1551, 4253, 4254, 4256, 4255], 29: [1624, 3803, 3804, 4270, 1864, 1865, 4269, 1866], 30: [1808, 1805, 1807, 1806], 31: [3878, 3879, 1823, 1820, 1822, 1821], 33: [3863, 1957, 1956, 1955, 1954, 3865, 3864], 34: [3924, 3714, 3923, 1759, 1760, 1762, 1761], 35: [4403, 4404, 1970, 1971, 1972, 4405], 36: [1492, 4208, 4209, 2076, 4211, 4210], 38: [1641, 1687, 1686, 4089, 4088, 1684, 1685], 39: [1477, 4177, 4180, 4178, 4181, 4179], 40: [4031, 1657, 4030, 1656, 4029], 41: [1506, 2181, 4117, 4121, 4120, 4119, 4118], 43: [1534, 4435, 4434, 1702, 3983, 1535, 1536, 1537, 4328], 44: [4479, 1853, 1850, 1852, 1851], 4: [2060, 2061, 4313, 4314, 4315, 2062], 7: [3985, 1881, 1880, 3984], 10: [2045, 4343, 4344, 4345, 2046, 2047], 12: [4058, 3954, 1612, 1611, 1610, 3953, 3833, 1655], 19: [4222, 1416, 4135, 1671, 4134, 4132, 4133], 22: [3925, 3818, 2032, 3819, 2031, 2030, 3820], 23: [2152, 4073, 2151, 4076, 4075, 4074], 42: [4015, 1912, 1910, 1911, 4283, 4284], 11: [4346, 2107, 2106, 2105, 1670, 3908, 3909, 3910], 21: [3848, 3849, 3850, 1837, 1836, 3880, 1835], 32: [4241, 1520, 1521, 4240, 4239, 1597, 4238], 37: [2167, 2166, 4043, 4044, 4045, 4046]}</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0.4280193236714976</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.03518041375931328</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>{0: [1440, 3052, 3053, 1725, 1726, 2221, 2167, 1822, 3279, 3280, 4299, 4300, 2258, 2257, 4301, 2212, 2211, 2210, 3281, 2207, 2208, 2209], 1: [3504, 4317, 4325, 3473, 4316, 4315, 3833, 4326, 4314, 4313, 1652, 1658, 1653, 1654, 1655, 1656, 4327, 4328, 1657], 's_0_1': [2092], 2: [2481, 2315, 2078, 4526, 1817, 3972, 2300, 4183, 4182, 2301, 2198, 2197, 2196, 4091, 4090, 1818, 1819, 4092, 1820, 1821, 4089], 's_0_2': [4077], 3: [2161, 3238, 4042, 1355, 1354, 3237, 3236, 3235, 3234, 3233, 1636, 1353, 3414, 3575, 3576, 3577, 3578, 1638, 3413, 1637], 's_0_3': [2131], 5: [1869, 4765, 4766, 3987, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 2341, 3327, 2124, 2123, 2122, 2121, 2120, 3896, 3897, 2345, 2344, 2342, 2343], 's_0_5': [3342], 6: [1119, 3775, 4239, 1907, 3399, 802, 4609, 4610, 4611, 4612, 4613, 4614, 4690, 4689, 1809, 1802, 3774, 1803, 1804, 1805, 1806, 803, 1807, 1808], 's_0_6': [4284], 8: [2617, 2616, 2567, 2615, 2568, 2569, 2570, 3958, 3957, 3956, 2180, 2179, 3791, 3790, 3789, 3788, 3787, 862, 861, 860, 859, 3784, 3785, 3786], 's_0_8': [3746], 9: [2522, 3883, 845, 844, 843, 3604, 3605, 2525, 2524, 2523, 3613, 1744, 1743, 3606, 3607, 3608, 3612, 3611, 3610, 3609], 's_0_9': [3626], 13: [3119, 3118, 3984, 1505, 3117, 3116, 3983, 3529, 3530, 3531, 3532, 3982, 1445, 2250, 3115, 3114, 3113, 3112, 1441, 1442, 1443, 1444], 's_0_13': [2220], 14: [3277, 2348, 1532, 2091, 3970, 3488, 1472, 1473, 4376, 1474, 4393, 4392, 2543, 2227, 2226, 3698, 3699, 4121, 3700, 1924, 3820, 4120, 2016, 2015], 's_0_14': [4331], 15: [3574, 3560, 3559, 4084, 4269, 4270, 4130, 4129, 918, 919, 920, 921, 922, 923, 924, 1957, 1958, 1959, 4735, 4734, 4645, 4733, 4732, 4731, 4730, 1044, 4624], 's_0_15': [2107], 16: [4339, 4340, 4341, 4342, 1419, 1418, 1417, 4372, 4371, 1298, 1297, 4207, 1756, 1757, 4208, 3625, 3624, 1758, 1759, 1760, 1761, 4209], 's_0_16': [3294], 17: [2115, 3266, 1534, 3907, 1053, 1460, 1059, 1058, 1057, 1056, 1055, 1054, 2116, 2117, 2119, 2118, 3851, 3850, 3845, 3846, 3849, 3848, 3847], 's_0_17': [3806], 18: [3683, 2719, 1592, 1593, 2153, 2152, 1594, 4388, 1595, 1596, 1597, 4343, 4344, 4345, 4346, 2720, 2721, 2722, 4349, 4348, 4347], 's_0_18': [2047], 20: [2086, 3373, 1186, 4617, 4618, 3426, 3427, 3428, 1622, 1187, 3368, 3369, 3370, 3371, 3372, 2423, 2422, 2421, 2420, 2419, 2418, 2417, 2416], 's_0_20': [3386], 24: [3484, 3485, 1037, 1036, 3866, 2074, 3595, 2693, 2692, 2691, 2690, 2689, 2688, 3599, 3598, 3597, 3596, 2073, 2163, 3461, 3460, 1967, 3260, 3261, 3262, 3263, 3264, 3265, 1966], 's_0_24': [1741], 25: [4162, 4296, 3936, 1191, 1253, 1252, 1254, 3929, 3928, 2449, 3927, 4265, 4266, 1312, 2347, 1370, 1371, 4222, 4223, 4224, 4225, 4226, 4212, 4211, 2151, 2150, 3926], 's_0_25': [3971], 26: [2063, 1531, 3217, 3216, 3215, 4587, 4586, 4585, 4584, 4055, 1066, 3320, 932, 933, 934, 935, 936, 4070, 1546, 4071, 1703, 1702, 4298, 1612, 1611, 4073, 4072], 's_0_26': [4572], 27: [3620, 3772, 1337, 1745, 1038, 3650, 3651, 2181, 3771, 1448, 1446, 1338, 1339, 1340, 4032, 4031, 4030, 1447, 4029, 4028, 4027], 's_0_27': [4166], 28: [3509, 1396, 3508, 3507, 1397, 1491, 1490, 3472, 1488, 1489, 3727, 3728, 3729, 3506, 2087, 2088, 3730], 's_0_28': [2193], 29: [1776, 4179, 4559, 4088, 4558, 4557, 4556, 4555, 4554, 4174, 1763, 1713, 1714, 1715, 1716, 1717, 4175, 4176, 4177, 4178, 1686, 1687, 4434], 's_0_29': [2273], 30: [4288, 1788, 3669, 3670, 3305, 3306, 3671, 2542, 2541, 2540, 2539, 2164, 3673, 3672, 2238, 2237, 3307, 3308, 3309, 3310, 3311, 2162, 3401], 's_0_30': [2146], 31: [4641, 1358, 4507, 4508, 2610, 1791, 1792, 1793, 4509, 2611, 4510, 4640, 4511, 4512, 3164, 4513, 4514, 2663, 2662, 2661, 2660, 2659, 2658, 3553, 2612], 's_0_31': [2168], 33: [3799, 2389, 1624, 2434, 965, 964, 3754, 3755, 3756, 3823, 3757, 1174, 3762, 3761, 3760, 3759, 3758], 's_0_33': [2194], 34: [983, 3665, 4220, 977, 978, 979, 4424, 980, 981, 982, 4423, 4422, 4421, 4420, 4419, 4418, 4417, 4415, 4416], 's_0_34': [2077], 35: [1831, 1832, 1833, 1834, 1835, 1041, 4145, 4146, 4147, 4150, 4148, 1837, 1836, 4149], 's_0_35': [1847], 36: [3491, 4251, 4252, 1462, 1463, 4357, 3492, 1629, 1628, 4358, 2325, 4360, 4361, 2242, 2326, 2327, 2328, 2329, 3852, 2239, 4151, 2240, 4359, 2241], 's_0_36': [3821], 38: [4521, 4522, 1861, 3537, 3536, 3535, 1862, 4255, 4523, 4524, 1863, 1864, 1868, 1867, 1866, 1865], 's_0_38': [3522], 39: [1434, 2288, 4497, 3487, 1427, 4496, 3667, 4495, 4494, 4493, 1428, 1429, 1430, 1431, 1432, 4492, 1433], 's_0_39': [4527], 40: [2613, 4369, 4370, 3719, 3718, 2042, 2043, 1147, 3717, 3716, 3715, 1146, 1145, 1144, 1143, 3711, 1384, 3714, 3713, 3712], 's_0_40': [3702], 41: [3335, 3336, 1232, 3567, 4040, 4041, 1235, 1236, 2267, 3566, 3565, 3564, 3563, 1234, 1233, 3561, 3562], 's_0_41': [3416], 43: [2005, 2004, 3297, 4390, 2003, 3296, 3985, 3890, 3891, 3892, 3893, 3894, 3895, 2002, 2001, 3295, 1997, 1998, 1999, 2000], 's_0_43': [1927], 44: [4451, 2529, 4588, 3988, 3490, 3352, 2483, 3340, 3353, 3354, 3355, 1952, 3430, 3431, 3432, 4452, 2437, 4333, 2557, 2556, 2555, 2554, 2553, 2552, 3433], 's_0_44': [2012], 's_1_2': [3519], 's_1_3': [1651], 4: [4079, 4599, 1659, 4671, 1359, 1850, 2706, 4139, 4138, 4137, 4136, 4702, 4703, 1719, 4704, 1854, 1853, 1852, 1851, 4134, 4135], 's_1_4': [4133], 7: [1411, 3938, 4059, 1412, 2585, 3937, 4003, 1599, 3398, 4643, 4002, 4001, 4000, 3397, 3999, 1727, 1728, 1517, 1729, 1733, 1732, 1731, 1730], 's_1_7': [4389], 's_1_9': [3623], 10: [2572, 2573, 2574, 1974, 1899, 4708, 4707, 4706, 3381, 3380, 1082, 1083, 1084, 1913, 1085, 1086, 1087, 1088, 4625, 4626, 4628, 4629, 4627, 1944, 1089, 4705], 's_1_10': [2454, 2453, 2452], 12: [4012, 1328, 3725, 1218, 1219, 1220, 4011, 1325, 1326, 4467, 4466, 4465, 4464, 4463, 4462, 4461, 1327], 's_1_12': [1522], 's_1_14': [2287], 's_1_16': [1642], 's_1_18': [2377], 19: [2280, 4762, 2272, 4475, 4476, 2281, 2282, 1073, 2283, 3627, 1855, 2268, 2269, 2270, 2271, 4286, 2137, 2138, 2139, 4751, 4750, 4749, 4748, 4747, 1404, 1403], 's_1_19': [1268, 4386, 1177], 's_1_20': [3278], 22: [1111, 3230, 3229, 3880, 1285, 3879, 1284, 1699, 3817, 1283, 3818, 1265, 1006, 1282, 1007, 1008, 1009, 1280, 3815, 1281, 3816], 's_1_22': [1564], 23: [4264, 1479, 890, 1575, 1576, 1613, 4538, 4537, 4536, 1577, 1578, 1373, 1579, 3863, 3862, 3861, 3860, 950, 3904, 1025, 1026, 1027, 1028, 4535], 's_1_23': [1625], 's_1_25': [4297, 1567], 's_1_26': [4404], 's_1_27': [2182], 's_1_28': [1492], 's_1_30': [4318], 's_1_31': [1777], 's_1_33': [1549], 's_1_34': [1342], 's_1_35': [4163], 's_1_36': [1357], 's_1_39': [4312], 's_1_40': [997], 's_1_41': [1697], 42: [3628, 1877, 1081, 2311, 4483, 3474, 1772, 3185, 1771, 3186, 2603, 2602, 2601, 2600, 2599, 3793, 2479, 3187, 3188, 3268, 3189, 3190, 3191, 3192, 2478, 2477, 2476], 's_1_42': [1787], 's_1_43': [1684], 's_1_44': [2482], 's_2_3': [3579], 's_2_4': [2451], 's_2_5': [2360], 's_2_6': [3804], 's_2_9': [2375], 11: [947, 3859, 4198, 4197, 4196, 1250, 3439, 827, 4195, 4194, 4193, 1551, 828, 829, 830, 3964, 3965, 3966, 3967, 3968, 1550], 's_2_11': [2362], 's_2_13': [1816], 's_2_15': [1956], 's_2_16': [3534], 's_2_18': [4571], 's_2_20': [3384], 21: [2030, 4657, 4658, 4540, 2505, 4659, 2034, 2033, 2032, 4104, 4105, 4106, 2136, 2031, 4046, 2135, 3911, 3912, 2506, 2507, 2508, 2509, 4660, 3853, 2404], 's_2_21': [2079], 's_2_22': [3864], 's_2_25': [2331], 's_2_27': [4047], 's_2_28': [3744], 's_2_29': [4044], 's_2_30': [4228, 2511], 32: [875, 1292, 3291, 3410, 1895, 3949, 3954, 3953, 3952, 3951, 1201, 1209, 1208, 1207, 1206, 1202, 1203, 1204, 1205, 3950], 's_2_32': [1910], 's_2_33': [2390], 's_2_34': [4437], 's_2_35': [3444], 's_2_36': [2195], 37: [3588, 3643, 2465, 2464, 3732, 2374, 3589, 3644, 2312, 993, 888, 2313, 3642, 3640, 3590, 3591, 1368, 3652, 3653, 3641, 3654, 3655], 's_2_37': [2466], 's_2_40': [2314], 's_2_42': [2586], 's_2_43': [1986], 's_2_44': [4153], 's_3_5': [2026], 's_3_7': [3232], 's_3_8': [2401, 3313, 3314], 's_3_9': [1323], 's_3_10': [1098], 's_3_11': [1415], 's_3_12': [4101], 's_3_13': [1113], 's_3_15': [3469, 3470, 3471, 1263], 's_3_16': [3203], 's_3_17': [2176, 3251], 's_3_18': [3518], 's_3_19': [3252, 2371], 's_3_20': [1906], 's_3_21': [3223], 's_3_23': [3458], 's_3_25': [1369], 's_3_26': [3248], 's_3_27': [3682], 's_3_30': [1667], 's_3_31': [2641], 's_3_32': [1400], 's_3_35': [1981, 3160], 's_3_36': [3222], 's_3_37': [1383], 's_3_38': [1876], 's_3_39': [1398], 's_3_40': [1548], 's_3_41': [1623], 's_3_43': [2296], 's_5_4': [2346], 's_5_7': [1410], 's_5_8': [2330], 's_5_9': [3328], 's_5_10': [4675, 2019], 's_5_11': [4181], 's_5_12': [4450], 's_5_13': [3102], 's_5_14': [4061], 's_5_15': [2109], 's_5_17': [3326], 's_5_18': [4241], 's_5_19': [4601], 's_5_20': [3657], 's_5_21': [3133], 's_5_22': [3125, 1005], 's_5_23': [1560], 's_5_24': [1965], 's_5_26': [1530], 's_5_27': [2285], 's_5_28': [1395, 1380], 's_5_30': [2236], 's_5_31': [3179, 3178, 3177], 's_5_37': [3747], 's_5_38': [2358], 's_5_39': [2108], 's_5_41': [2266], 's_5_42': [1140], 's_5_43': [1996], 's_5_44': [2357], 's_6_4': [3924], 's_6_7': [1734], 's_6_10': [4691], 's_6_12': [1823], 's_6_13': [1801], 's_6_14': [1774], 's_6_16': [4338], 's_6_17': [1954], 's_6_18': [4283, 1672], 's_6_19': [1914], 's_6_20': [3429], 's_6_21': [1884], 's_6_23': [1029], 's_6_24': [3865, 1939], 's_6_25': [1239], 's_6_27': [1449], 's_6_29': [1839], 's_6_31': [4074], 's_6_32': [3939], 's_6_33': [1894], 's_6_34': [4414], 's_6_35': [4240], 's_6_36': [4598], 's_6_37': [1984], 's_6_39': [1508], 's_6_40': [4368], 's_6_41': [1892], 's_6_42': [3489], 's_6_44': [3400], 's_8_4': [2571], 's_8_10': [4409], 's_8_11': [4054], 's_8_12': [4468], 's_8_13': [753, 754, 3783], 's_8_14': [4394], 's_8_15': [4189, 952, 4279], 's_8_16': [847], 's_8_17': [4384, 4385, 1072], 's_8_18': [4184], 's_8_19': [3792], 's_8_20': [3941, 3942], 's_8_21': [3403], 's_8_22': [1249], 's_8_23': [4010, 4009], 's_8_24': [2643, 3524], 's_8_25': [2825, 3959], 's_8_26': [4159], 's_8_27': [3801], 's_8_29': [2618], 's_8_30': [3733], 's_8_31': [3388], 's_8_32': [874], 's_8_33': [2224], 's_8_37': [1669], 's_8_38': [1879], 's_8_39': [1309], 's_8_40': [3704], 's_8_41': [4039], 's_8_42': [4259], 's_8_44': [3583], 's_9_7': [3973], 's_9_11': [3768], 's_9_12': [1188], 's_9_15': [3664], 's_9_18': [1608], 's_9_19': [3687, 3688], 's_9_20': [3898], 's_9_21': [3418], 's_9_23': [3874], 's_9_24': [2583], 's_9_26': [948], 's_9_27': [3621], 's_9_28': [2028], 's_9_29': [3933, 815, 816], 's_9_30': [2526], 's_9_31': [3614], 's_9_32': [4024], 's_9_33': [3753], 's_9_34': [3829], 's_9_35': [1848], 's_9_36': [3882], 's_9_37': [1278], 's_9_38': [1878], 's_9_39': [3622], 's_9_40': [2223], 's_9_41': [2373], 's_9_42': [3523], 's_9_44': [3884], 's_13_10': [1366, 3247], 's_13_11': [858, 3573], 's_13_12': [1385], 's_13_14': [3382], 's_13_15': [797, 798, 3709], 's_13_16': [1506], 's_13_17': [2100, 2101, 3220], 's_13_19': [3162], 's_13_21': [2490], 's_13_22': [3981], 's_13_25': [3997], 's_13_26': [3097, 1471], 's_13_27': [1565], 's_13_28': [3172], 's_13_29': [1685], 's_13_30': [3322], 's_13_31': [2580], 's_13_32': [1293], 's_13_34': [962], 's_13_35': [3099], 's_13_36': [3087], 's_13_37': [768], 's_13_38': [1860], 's_13_39': [3877], 's_13_41': [1458, 3502], 's_13_42': [2011], 's_13_43': [1775], 's_13_44': [2551], 's_14_4': [2046], 's_14_11': [1971], 's_14_12': [2393], 's_14_15': [2076], 's_14_16': [1893], 's_14_17': [1789], 's_14_18': [1609], 's_14_19': [4227], 's_14_20': [2228], 's_14_21': [3881], 's_14_23': [3592], 's_14_24': [3910], 's_14_25': [4257], 's_14_26': [1547], 's_14_27': [2225], 's_14_28': [1639], 's_14_30': [1923], 's_14_31': [4528], 's_14_32': [1475], 's_14_34': [2528], 's_14_35': [4119], 's_14_36': [4271], 's_14_37': [2014], 's_14_39': [3637], 's_14_43': [3805], 's_14_44': [2512], 's_15_4': [4405], 's_15_7': [1749], 's_15_10': [1090], 's_15_11': [1881], 's_15_12': [3545], 's_15_16': [4324], 's_15_17': [4715], 's_15_18': [2017], 's_15_19': [1660], 's_15_20': [1172], 's_15_22': [1270], 's_15_23': [4534], 's_15_24': [917, 3259, 916], 's_15_25': [1911], 's_15_26': [4144], 's_15_27': [3769, 1024, 1023], 's_15_29': [891], 's_15_31': [4639], 's_15_32': [4115], 's_15_33': [3979], 's_15_34': [4444], 's_15_35': [4114], 's_15_36': [1630], 's_15_37': [3649], 's_15_38': [4615], 's_15_39': [4480], 's_15_40': [4354], 's_15_41': [4131], 's_16_7': [4014], 's_16_10': [4642], 's_16_11': [1701], 's_16_12': [4237], 's_16_18': [3773], 's_16_19': [1103, 1102], 's_16_20': [1742], 's_16_21': [4672], 's_16_24': [1968], 's_16_26': [4478, 4477], 's_16_27': [1341], 's_16_29': [3593], 's_16_30': [2058], 's_16_34': [1192], 's_16_35': [1521], 's_16_37': [1908], 's_16_39': [4282], 's_16_40': [877], 's_16_41': [4206], 's_16_43': [4210], 's_17_7': [1535], 's_17_10': [4700], 's_17_11': [1670], 's_17_12': [1069], 's_17_19': [4430], 's_17_22': [1640], 's_17_23': [994], 's_17_24': [2104, 3745], 's_17_26': [1071], 's_17_27': [3515], 's_17_28': [3446], 's_17_29': [3908], 's_17_31': [1074], 's_17_32': [4100], 's_17_33': [2089], 's_17_34': [3695], 's_17_36': [1461], 's_17_37': [1068], 's_17_38': [4520], 's_17_39': [3922], 's_17_40': [4295], 's_17_41': [1052], 's_17_42': [3267], 's_17_43': [2071], 's_18_4': [4169], 's_18_7': [1607], 's_18_10': [4363, 2467, 4272], 's_18_19': [2154], 's_18_20': [3383], 's_18_21': [4256], 's_18_23': [3533], 's_18_24': [3779], 's_18_25': [3989, 2750], 's_18_26': [4403], 's_18_27': [4043], 's_18_28': [1502, 3503], 's_18_29': [4238, 1627], 's_18_31': [4154], 's_18_33': [3824], 's_18_34': [1537], 's_18_36': [1582], 's_18_37': [3689, 2628], 's_18_38': [1598], 's_18_40': [3839, 2614], 's_18_41': [3548], 's_18_42': [3794], 's_18_43': [1972], 's_18_44': [3854], 's_20_10': [2304], 's_20_11': [2406], 's_20_12': [1217], 's_20_19': [4647, 4646, 4631], 's_20_21': [2405], 's_20_23': [3443], 's_20_24': [1621], 's_20_25': [2316, 2317, 4377], 's_20_26': [3338], 's_20_27': [4033, 2376], 's_20_28': [2102], 's_20_29': [2408], 's_20_30': [2177], 's_20_31': [4574, 4573], 's_20_32': [1277], 's_20_36': [3477], 's_20_37': [3402], 's_20_39': [3367], 's_20_40': [2041], 's_20_42': [3538], 's_24_4': [4109], 's_24_7': [1426], 's_24_10': [1321], 's_24_11': [4199, 2676], 's_24_19': [3581], 's_24_21': [3925], 's_24_22': [3245], 's_24_25': [3914], 's_24_26': [1051], 's_24_27': [2075], 's_24_28': [2703], 's_24_29': [2678], 's_24_30': [1216, 3321], 's_24_31': [4544], 's_24_33': [2388], 's_24_34': [4439], 's_24_36': [3836], 's_24_37': [3659], 's_24_41': [2057], 's_24_42': [3175, 1905], 's_24_43': [1936], 's_25_4': [2705], 's_25_10': [4565, 4566], 's_25_12': [4311], 's_25_19': [1118, 4431], 's_25_21': [4076], 's_25_22': [4656], 's_25_23': [1372], 's_25_26': [1311], 's_25_27': [4192], 's_25_28': [1416, 4102], 's_25_29': [1117], 's_25_30': [4213], 's_25_31': [4491], 's_25_33': [2149], 's_25_34': [4236, 4235], 's_25_35': [1401], 's_25_36': [1132], 's_25_37': [3808, 3809, 2734], 's_25_38': [4506], 's_25_39': [4267], 's_25_40': [1161], 's_25_41': [4191], 's_25_42': [2480], 's_25_43': [1295], 's_25_44': [2407, 4302, 4438], 's_26_4': [4570], 's_26_7': [4103], 's_26_10': [3350], 's_26_11': [4069], 's_26_12': [4448], 's_26_21': [4583, 1538, 1539], 's_26_22': [3379], 's_26_23': [1561], 's_26_28': [1352, 1351], 's_26_29': [2184], 's_26_30': [1141], 's_26_31': [2243], 's_26_32': [995], 's_26_34': [3424], 's_26_35': [1641], 's_26_36': [4553], 's_26_37': [3634], 's_26_39': [2048], 's_26_41': [3214, 961], 's_26_42': [3200], 's_26_43': [3875], 's_26_44': [2318], 's_27_4': [4045], 's_27_10': [1099], 's_27_11': [3906], 's_27_12': [4446, 4447], 's_27_19': [2255], 's_27_21': [2090], 's_27_22': [1279], 's_27_23': [1039], 's_27_28': [4058, 4057], 's_27_29': [1626], 's_27_31': [1388, 4432], 's_27_32': [1790], 's_27_34': [3680], 's_27_36': [4402], 's_27_37': [3544], 's_27_38': [1880], 's_27_39': [4387], 's_27_41': [3636], 's_27_43': [2060], 's_28_7': [3396], 's_28_10': [3366, 1307], 's_28_11': [4117], 's_28_12': [3726], 's_28_19': [3731], 's_28_21': [2492], 's_28_22': [1414], 's_28_23': [3668], 's_28_29': [4087], 's_28_30': [3686], 's_28_31': [2627], 's_28_35': [1476], 's_28_36': [2222], 's_28_38': [2178], 's_28_39': [3832], 's_28_40': [3580], 's_28_41': [3411], 's_28_42': [3201], 's_28_43': [3415], 's_28_44': [2447], 's_29_4': [3834], 's_29_7': [4118], 's_29_10': [2559], 's_29_21': [4541], 's_29_22': [3923], 's_29_30': [3684], 's_29_31': [1718], 's_29_32': [876], 's_29_33': [966], 's_29_34': [2303], 's_29_35': [996], 's_29_37': [3639], 's_29_38': [4254], 's_29_40': [4190], 's_29_41': [1712], 's_29_42': [2633], 's_29_44': [4543], 's_30_4': [1849], 's_30_10': [1097], 's_30_11': [2527], 's_30_19': [2253], 's_30_21': [3913], 's_30_22': [991], 's_30_23': [3323], 's_30_31': [3674], 's_30_32': [1262], 's_30_33': [3776], 's_30_35': [3594], 's_30_37': [3658], 's_30_38': [3549], 's_30_40': [3701], 's_30_41': [1127], 's_30_42': [1246], 's_30_43': [1921], 's_30_44': [3341], 's_31_4': [4019], 's_31_7': [3943], 's_31_10': [4589], 's_31_12': [1928], 's_31_21': [3208], 's_31_22': [1269], 's_31_32': [1224], 's_31_34': [4364, 2723], 's_31_35': [4329], 's_31_36': [3043, 3042], 's_31_38': [4164], 's_31_42': [3869], 's_31_44': [3568], 's_33_7': [3743], 's_33_10': [3920], 's_33_11': [3876], 's_33_12': [1114], 's_33_21': [2029], 's_33_22': [1264], 's_33_23': [3919], 's_33_32': [1175], 's_33_34': [3994], 's_33_36': [2299], 's_33_37': [3777], 's_33_39': [1294], 's_33_40': [1969], 's_33_43': [1504], 's_33_44': [3838], 's_34_4': [4435], 's_34_10': [4205], 's_34_11': [3814], 's_34_12': [1313], 's_34_19': [4436], 's_34_21': [2018], 's_34_22': [3500], 's_34_23': [4099], 's_34_32': [3409], 's_34_35': [1011], 's_34_36': [2183], 's_34_37': [3739], 's_34_39': [1643], 's_34_40': [1133], 's_34_41': [1237, 1238], 's_34_42': [2558], 's_34_44': [2378], 's_35_4': [1941], 's_35_7': [3819], 's_35_11': [2061], 's_35_21': [4165], 's_35_22': [1266], 's_35_23': [4160], 's_35_36': [1356], 's_35_41': [1101], 's_35_42': [3204], 's_35_43': [4075], 's_35_44': [3505], 's_36_4': [4673], 's_36_7': [4374], 's_36_10': [4250], 's_36_12': [2062], 's_36_19': [2254], 's_36_21': [3807], 's_36_22': [4356], 's_36_23': [4568], 's_36_32': [1222], 's_36_38': [2072], 's_36_39': [2213], 's_36_41': [2013], 's_36_42': [3493], 's_36_43': [3986], 's_38_7': [3969], 's_38_10': [4600], 's_38_11': [1987], 's_38_12': [4449], 's_38_19': [4644, 1779], 's_38_23': [1568], 's_38_32': [1223], 's_38_37': [2298], 's_38_40': [3521], 's_38_41': [2133], 's_38_44': [3685, 1953], 's_39_4': [4479], 's_39_7': [3457], 's_39_19': [4481], 's_39_21': [1943], 's_39_23': [3412], 's_39_32': [3486], 's_39_37': [1459, 3802], 's_39_40': [3666], 's_39_41': [1367], 's_39_43': [1988], 's_39_44': [2438], 's_40_7': [1518], 's_40_11': [1251, 4221], 's_40_12': [1173], 's_40_19': [4474, 953], 's_40_22': [1698], 's_40_23': [1148], 's_40_32': [4085], 's_40_37': [3697], 's_40_41': [4026], 's_40_42': [2494], 's_40_43': [3445], 's_41_7': [1413], 's_41_10': [1171], 's_41_11': [1160], 's_41_12': [4086], 's_41_19': [3447], 's_41_22': [4116], 's_41_23': [4025], 's_41_32': [4056], 's_41_37': [1938], 's_41_42': [1231], 's_41_43': [1040], 's_43_7': [1925], 's_43_10': [1898, 4525], 's_43_11': [1070], 's_43_12': [1912], 's_43_19': [3282], 's_43_22': [1909], 's_43_23': [1130], 's_43_32': [1115], 's_43_37': [3357, 2251], 's_43_44': [2027], 's_44_4': [2436], 's_44_7': [1487], 's_44_10': [2484], 's_44_12': [2363], 's_44_19': [4332], 's_44_21': [3463], 's_44_23': [1562], 's_44_32': [3351], 's_44_37': [3462, 2297], 's_44_42': [4168], 's_4_7': [2166], 's_4_11': [2496], 's_4_12': [1838], 's_4_19': [4719], 's_4_21': [1464], 's_4_22': [4701], 's_4_23': [1614], 's_4_42': [4064], 's_7_10': [1674], 's_7_12': [1520], 's_7_19': [4763], 's_7_21': [2045], 's_7_23': [1644], 's_7_32': [1940], 's_7_37': [4018], 's_7_42': [4034], 's_10_11': [3980], 's_10_12': [2469, 2468], 's_10_19': [4795], 's_10_21': [2049], 's_10_23': [1523], 's_10_32': [1112], 's_10_37': [3635], 's_10_42': [4633], 's_12_11': [1190], 's_12_19': [4460], 's_12_21': [1973], 's_12_22': [4281], 's_12_23': [1343], 's_12_32': [1221], 's_12_37': [3724], 's_19_11': [2256], 's_19_23': [4597], 's_19_32': [4761], 's_19_42': [3206, 3207, 2430], 's_22_11': [1310, 3921], 's_22_23': [3803], 's_22_32': [4686], 's_22_37': [992], 's_23_11': [3903], 's_23_21': [1824, 4539], 's_23_32': [905], 's_23_37': [889], 's_23_42': [3202], 's_42_21': [3343], 's_42_32': [1291], 's_42_37': [3552], 's_11_21': [1926, 4180], 's_11_32': [1010], 's_11_37': [3619], 's_21_37': [2493], 's_32_37': [1158, 3696]}</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.003466069142125481</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.002001354955550367</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>{0: [1440, 3052, 3053, 1725, 1726, 2221, 2167, 1822, 3279, 3280, 4299, 4300, 2258, 2257, 4301, 2212, 2211, 2210, 3281, 2207, 2208, 2209], 1: [3504, 4317, 4325, 3473, 4316, 4315, 3833, 4326, 4314, 4313, 1652, 1658, 1653, 1654, 1655, 1656, 4327, 4328, 1657], 's_0_1': [2092], 2: [2481, 2315, 2078, 4526, 1817, 3972, 2300, 4183, 4182, 2301, 2198, 2197, 2196, 4091, 4090, 1818, 1819, 4092, 1820, 1821, 4089], 's_0_2': [4077], 3: [2161, 3238, 4042, 1355, 1354, 3237, 3236, 3235, 3234, 3233, 1636, 1353, 3414, 3575, 3576, 3577, 3578, 1638, 3413, 1637], 's_0_3': [2131], 5: [1869, 4765, 4766, 3987, 3126, 3127, 3128, 3129, 3130, 3131, 3132, 2341, 3327, 2124, 2123, 2122, 2121, 2120, 3896, 3897, 2345, 2344, 2342, 2343], 's_0_5': [3342], 6: [1119, 3775, 4239, 1907, 3399, 802, 4609, 4610, 4611, 4612, 4613, 4614, 4690, 4689, 1809, 1802, 3774, 1803, 1804, 1805, 1806, 803, 1807, 1808], 's_0_6': [4284], 8: [2617, 2616, 2567, 2615, 2568, 2569, 2570, 3958, 3957, 3956, 2180, 2179, 3791, 3790, 3789, 3788, 3787, 862, 861, 860, 859, 3784, 3785, 3786], 's_0_8': [3746], 9: [2522, 3883, 845, 844, 843, 3604, 3605, 2525, 2524, 2523, 3613, 1744, 1743, 3606, 3607, 3608, 3612, 3611, 3610, 3609], 's_0_9': [3626], 13: [3119, 3118, 3984, 1505, 3117, 3116, 3983, 3529, 3530, 3531, 3532, 3982, 1445, 2250, 3115, 3114, 3113, 3112, 1441, 1442, 1443, 1444], 's_0_13': [2220], 14: [3277, 2348, 1532, 2091, 3970, 3488, 1472, 1473, 4376, 1474, 4393, 4392, 2543, 2227, 2226, 3698, 3699, 4121, 3700, 1924, 3820, 4120, 2016, 2015], 's_0_14': [4331], 15: [3574, 3560, 3559, 4084, 4269, 4270, 4130, 4129, 918, 919, 920, 921, 922, 923, 924, 1957, 1958, 1959, 4735, 4734, 4645, 4733, 4732, 4731, 4730, 1044, 4624], 's_0_15': [2107], 16: [4339, 4340, 4341, 4342, 1419, 1418, 1417, 4372, 4371, 1298, 1297, 4207, 1756, 1757, 4208, 3625, 3624, 1758, 1759, 1760, 1761, 4209], 's_0_16': [3294], 17: [2115, 3266, 1534, 3907, 1053, 1460, 1059, 1058, 1057, 1056, 1055, 1054, 2116, 2117, 2119, 2118, 3851, 3850, 3845, 3846, 3849, 3848, 3847], 's_0_17': [3806], 18: [3683, 2719, 1592, 1593, 2153, 2152, 1594, 4388, 1595, 1596, 1597, 4343, 4344, 4345, 4346, 2720, 2721, 2722, 4349, 4348, 4347], 's_0_18': [2047], 20: [2086, 3373, 1186, 4617, 4618, 3426, 3427, 3428, 1622, 1187, 3368, 3369, 3370, 3371, 3372, 2423, 2422, 2421, 2420, 2419, 2418, 2417, 2416], 's_0_20': [3386], 24: [3484, 3485, 1037, 1036, 3866, 2074, 3595, 2693, 2692, 2691, 2690, 2689, 2688, 3599, 3598, 3597, 3596, 2073, 2163, 3461, 3460, 1967, 3260, 3261, 3262, 3263, 3264, 3265, 1966], 's_0_24': [1741], 25: [4162, 4296, 3936, 1191, 1253, 1252, 1254, 3929, 3928, 2449, 3927, 4265, 4266, 1312, 2347, 1370, 1371, 4222, 4223, 4224, 4225, 4226, 4212, 4211, 2151, 2150, 3926], 's_0_25': [3971], 26: [2063, 1531, 3217, 3216, 3215, 4587, 4586, 4585, 4584, 4055, 1066, 3320, 932, 933, 934, 935, 936, 4070, 1546, 4071, 1703, 1702, 4298, 1612, 1611, 4073, 4072], 's_0_26': [4572], 27: [3620, 3772, 1337, 1745, 1038, 3650, 3651, 2181, 3771, 1448, 1446, 1338, 1339, 1340, 4032, 4031, 4030, 1447, 4029, 4028, 4027], 's_0_27': [4166], 28: [3509, 1396, 3508, 3507, 1397, 1491, 1490, 3472, 1488, 1489, 3727, 3728, 3729, 3506, 2087, 2088, 3730], 's_0_28': [2193], 29: [1776, 4179, 4559, 4088, 4558, 4557, 4556, 4555, 4554, 4174, 1763, 1713, 1714, 1715, 1716, 1717, 4175, 4176, 4177, 4178, 1686, 1687, 4434], 's_0_29': [2273], 30: [4288, 1788, 3669, 3670, 3305, 3306, 3671, 2542, 2541, 2540, 2539, 2164, 3673, 3672, 2238, 2237, 3307, 3308, 3309, 3310, 3311, 2162, 3401], 's_0_30': [2146], 31: [4641, 1358, 4507, 4508, 2610, 1791, 1792, 1793, 4509, 2611, 4510, 4640, 4511, 4512, 3164, 4513, 4514, 2663, 2662, 2661, 2660, 2659, 2658, 3553, 2612], 's_0_31': [2168], 33: [3799, 2389, 1624, 2434, 965, 964, 3754, 3755, 3756, 3823, 3757, 1174, 3762, 3761, 3760, 3759, 3758], 's_0_33': [2194], 34: [983, 3665, 4220, 977, 978, 979, 4424, 980, 981, 982, 4423, 4422, 4421, 4420, 4419, 4418, 4417, 4415, 4416], 's_0_34': [2077], 35: [1831, 1832, 1833, 1834, 1835, 1041, 4145, 4146, 4147, 4150, 4148, 1837, 1836, 4149], 's_0_35': [1847], 36: [3491, 4251, 4252, 1462, 1463, 4357, 3492, 1629, 1628, 4358, 2325, 4360, 4361, 2242, 2326, 2327, 2328, 2329, 3852, 2239, 4151, 2240, 4359, 2241], 's_0_36': [3821], 38: [4521, 4522, 1861, 3537, 3536, 3535, 1862, 4255, 4523, 4524, 1863, 1864, 1868, 1867, 1866, 1865], 's_0_38': [3522], 39: [1434, 2288, 4497, 3487, 1427, 4496, 3667, 4495, 4494, 4493, 1428, 1429, 1430, 1431, 1432, 4492, 1433], 's_0_39': [4527], 40: [2613, 4369, 4370, 3719, 3718, 2042, 2043, 1147, 3717, 3716, 3715, 1146, 1145, 1144, 1143, 3711, 1384, 3714, 3713, 3712], 's_0_40': [3702], 41: [3335, 3336, 1232, 3567, 4040, 4041, 1235, 1236, 2267, 3566, 3565, 3564, 3563, 1234, 1233, 3561, 3562], 's_0_41': [3416], 43: [2005, 2004, 3297, 4390, 2003, 3296, 3985, 3890, 3891, 3892, 3893, 3894, 3895, 2002, 2001, 3295, 1997, 1998, 1999, 2000], 's_0_43': [1927], 44: [4451, 2529, 4588, 3988, 3490, 3352, 2483, 3340, 3353, 3354, 3355, 1952, 3430, 3431, 3432, 4452, 2437, 4333, 2557, 2556, 2555, 2554, 2553, 2552, 3433], 's_0_44': [2012], 's_1_2': [3519], 's_1_3': [1651], 4: [4079, 4599, 1659, 4671, 1359, 1850, 2706, 4139, 4138, 4137, 4136, 4702, 4703, 1719, 4704, 1854, 1853, 1852, 1851, 4134, 4135], 's_1_4': [4133], 7: [1411, 3938, 4059, 1412, 2585, 3937, 4003, 1599, 3398, 4643, 4002, 4001, 4000, 3397, 3999, 1727, 1728, 1517, 1729, 1733, 1732, 1731, 1730], 's_1_7': [4389], 's_1_9': [3623], 10: [2572, 2573, 2574, 1974, 1899, 4708, 4707, 4706, 3381, 3380, 1082, 1083, 1084, 1913, 1085, 1086, 1087, 1088, 4625, 4626, 4628, 4629, 4627, 1944, 1089, 4705], 's_1_10': [2454, 2453, 2452], 12: [4012, 1328, 3725, 1218, 1219, 1220, 4011, 1325, 1326, 4467, 4466, 4465, 4464, 4463, 4462, 4461, 1327], 's_1_12': [1522], 's_1_14': [2287], 's_1_16': [1642], 's_1_18': [2377], 19: [2280, 4762, 2272, 4475, 4476, 2281, 2282, 1073, 2283, 3627, 1855, 2268, 2269, 2270, 2271, 4286, 2137, 2138, 2139, 4751, 4750, 4749, 4748, 4747, 1404, 1403], 's_1_19': [1268, 4386, 1177], 's_1_20': [3278], 22: [1111, 3230, 3229, 3880, 1285, 3879, 1284, 1699, 3817, 1283, 3818, 1265, 1006, 1282, 1007, 1008, 1009, 1280, 3815, 1281, 3816], 's_1_22': [1564], 23: [4264, 1479, 890, 1575, 1576, 1613, 4538, 4537, 4536, 1577, 1578, 1373, 1579, 3863, 3862, 3861, 3860, 950, 3904, 1025, 1026, 1027, 1028, 4535], 's_1_23': [1625], 's_1_25': [4297, 1567], 's_1_26': [4404], 's_1_27': [2182], 's_1_28': [1492], 's_1_30': [4318], 's_1_31': [1777], 's_1_33': [1549], 's_1_34': [1342], 's_1_35': [4163], 's_1_36': [1357], 's_1_39': [4312], 's_1_40': [997], 's_1_41': [1697], 42: [3628, 1877, 1081, 2311, 4483, 3474, 1772, 3185, 1771, 3186, 2603, 2602, 2601, 2600, 2599, 3793, 2479, 3187, 3188, 3268, 3189, 3190, 3191, 3192, 2478, 2477, 2476], 's_1_42': [1787], 's_1_43': [1684], 's_1_44': [2482], 's_2_3': [3579], 's_2_4': [2451], 's_2_5': [2360], 's_2_6': [3804], 's_2_9': [2375], 11: [947, 3859, 4198, 4197, 4196, 1250, 3439, 827, 4195, 4194, 4193, 1551, 828, 829, 830, 3964, 3965, 3966, 3967, 3968, 1550], 's_2_11': [2362], 's_2_13': [1816], 's_2_15': [1956], 's_2_16': [3534], 's_2_18': [4571], 's_2_20': [3384], 21: [2030, 4657, 4658, 4540, 2505, 4659, 2034, 2033, 2032, 4104, 4105, 4106, 2136, 2031, 4046, 2135, 3911, 3912, 2506, 2507, 2508, 2509, 4660, 3853, 2404], 's_2_21': [2079], 's_2_22': [3864], 's_2_25': [2331], 's_2_27': [4047], 's_2_28': [3744], 's_2_29': [4044], 's_2_30': [4228, 2511], 32: [875, 1292, 3291, 3410, 1895, 3949, 3954, 3953, 3952, 3951, 1201, 1209, 1208, 1207, 1206, 1202, 1203, 1204, 1205, 3950], 's_2_32': [1910], 's_2_33': [2390], 's_2_34': [4437], 's_2_35': [3444], 's_2_36': [2195], 37: [3588, 3643, 2465, 2464, 3732, 2374, 3589, 3644, 2312, 993, 888, 2313, 3642, 3640, 3590, 3591, 1368, 3652, 3653, 3641, 3654, 3655], 's_2_37': [2466], 's_2_40': [2314], 's_2_42': [2586], 's_2_43': [1986], 's_2_44': [4153], 's_3_5': [2026], 's_3_7': [3232], 's_3_8': [2401, 3313, 3314], 's_3_9': [1323], 's_3_10': [1098], 's_3_11': [1415], 's_3_12': [4101], 's_3_13': [1113], 's_3_15': [3469, 3470, 3471, 1263], 's_3_16': [3203], 's_3_17': [2176, 3251], 's_3_18': [3518], 's_3_19': [3252, 2371], 's_3_20': [1906], 's_3_21': [3223], 's_3_23': [3458], 's_3_25': [1369], 's_3_26': [3248], 's_3_27': [3682], 's_3_30': [1667], 's_3_31': [2641], 's_3_32': [1400], 's_3_35': [1981, 3160], 's_3_36': [3222], 's_3_37': [1383], 's_3_38': [1876], 's_3_39': [1398], 's_3_40': [1548], 's_3_41': [1623], 's_3_43': [2296], 's_5_4': [2346], 's_5_7': [1410], 's_5_8': [2330], 's_5_9': [3328], 's_5_10': [4675, 2019], 's_5_11': [4181], 's_5_12': [4450], 's_5_13': [3102], 's_5_14': [4061], 's_5_15': [2109], 's_5_17': [3326], 's_5_18': [4241], 's_5_19': [4601], 's_5_20': [3657], 's_5_21': [3133], 's_5_22': [3125, 1005], 's_5_23': [1560], 's_5_24': [1965], 's_5_26': [1530], 's_5_27': [2285], 's_5_28': [1395, 1380], 's_5_30': [2236], 's_5_31': [3179, 3178, 3177], 's_5_37': [3747], 's_5_38': [2358], 's_5_39': [2108], 's_5_41': [2266], 's_5_42': [1140], 's_5_43': [1996], 's_5_44': [2357], 's_6_4': [3924], 's_6_7': [1734], 's_6_10': [4691], 's_6_12': [1823], 's_6_13': [1801], 's_6_14': [1774], 's_6_16': [4338], 's_6_17': [1954], 's_6_18': [4283, 1672], 's_6_19': [1914], 's_6_20': [3429], 's_6_21': [1884], 's_6_23': [1029], 's_6_24': [3865, 1939], 's_6_25': [1239], 's_6_27': [1449], 's_6_29': [1839], 's_6_31': [4074], 's_6_32': [3939], 's_6_33': [1894], 's_6_34': [4414], 's_6_35': [4240], 's_6_36': [4598], 's_6_37': [1984], 's_6_39': [1508], 's_6_40': [4368], 's_6_41': [1892], 's_6_42': [3489], 's_6_44': [3400], 's_8_4': [2571], 's_8_10': [4409], 's_8_11': [4054], 's_8_12': [4468], 's_8_13': [753, 754, 3783], 's_8_14': [4394], 's_8_15': [4189, 952, 4279], 's_8_16': [847], 's_8_17': [4384, 4385, 1072], 's_8_18': [4184], 's_8_19': [3792], 's_8_20': [3941, 3942], 's_8_21': [3403], 's_8_22': [1249], 's_8_23': [4010, 4009], 's_8_24': [2643, 3524], 's_8_25': [2825, 3959], 's_8_26': [4159], 's_8_27': [3801], 's_8_29': [2618], 's_8_30': [3733], 's_8_31': [3388], 's_8_32': [874], 's_8_33': [2224], 's_8_37': [1669], 's_8_38': [1879], 's_8_39': [1309], 's_8_40': [3704], 's_8_41': [4039], 's_8_42': [4259], 's_8_44': [3583], 's_9_7': [3973], 's_9_11': [3768], 's_9_12': [1188], 's_9_15': [3664], 's_9_18': [1608], 's_9_19': [3687, 3688], 's_9_20': [3898], 's_9_21': [3418], 's_9_23': [3874], 's_9_24': [2583], 's_9_26': [948], 's_9_27': [3621], 's_9_28': [2028], 's_9_29': [3933, 815, 816], 's_9_30': [2526], 's_9_31': [3614], 's_9_32': [4024], 's_9_33': [3753], 's_9_34': [3829], 's_9_35': [1848], 's_9_36': [3882], 's_9_37': [1278], 's_9_38': [1878], 's_9_39': [3622], 's_9_40': [2223], 's_9_41': [2373], 's_9_42': [3523], 's_9_44': [3884], 's_13_10': [1366, 3247], 's_13_11': [858, 3573], 's_13_12': [1385], 's_13_14': [3382], 's_13_15': [797, 798, 3709], 's_13_16': [1506], 's_13_17': [2100, 2101, 3220], 's_13_19': [3162], 's_13_21': [2490], 's_13_22': [3981], 's_13_25': [3997], 's_13_26': [3097, 1471], 's_13_27': [1565], 's_13_28': [3172], 's_13_29': [1685], 's_13_30': [3322], 's_13_31': [2580], 's_13_32': [1293], 's_13_34': [962], 's_13_35': [3099], 's_13_36': [3087], 's_13_37': [768], 's_13_38': [1860], 's_13_39': [3877], 's_13_41': [1458, 3502], 's_13_42': [2011], 's_13_43': [1775], 's_13_44': [2551], 's_14_4': [2046], 's_14_11': [1971], 's_14_12': [2393], 's_14_15': [2076], 's_14_16': [1893], 's_14_17': [1789], 's_14_18': [1609], 's_14_19': [4227], 's_14_20': [2228], 's_14_21': [3881], 's_14_23': [3592], 's_14_24': [3910], 's_14_25': [4257], 's_14_26': [1547], 's_14_27': [2225], 's_14_28': [1639], 's_14_30': [1923], 's_14_31': [4528], 's_14_32': [1475], 's_14_34': [2528], 's_14_35': [4119], 's_14_36': [4271], 's_14_37': [2014], 's_14_39': [3637], 's_14_43': [3805], 's_14_44': [2512], 's_15_4': [4405], 's_15_7': [1749], 's_15_10': [1090], 's_15_11': [1881], 's_15_12': [3545], 's_15_16': [4324], 's_15_17': [4715], 's_15_18': [2017], 's_15_19': [1660], 's_15_20': [1172], 's_15_22': [1270], 's_15_23': [4534], 's_15_24': [917, 3259, 916], 's_15_25': [1911], 's_15_26': [4144], 's_15_27': [3769, 1024, 1023], 's_15_29': [891], 's_15_31': [4639], 's_15_32': [4115], 's_15_33': [3979], 's_15_34': [4444], 's_15_35': [4114], 's_15_36': [1630], 's_15_37': [3649], 's_15_38': [4615], 's_15_39': [4480], 's_15_40': [4354], 's_15_41': [4131], 's_16_7': [4014], 's_16_10': [4642], 's_16_11': [1701], 's_16_12': [4237], 's_16_18': [3773], 's_16_19': [1103, 1102], 's_16_20': [1742], 's_16_21': [4672], 's_16_24': [1968], 's_16_26': [4478, 4477], 's_16_27': [1341], 's_16_29': [3593], 's_16_30': [2058], 's_16_34': [1192], 's_16_35': [1521], 's_16_37': [1908], 's_16_39': [4282], 's_16_40': [877], 's_16_41': [4206], 's_16_43': [4210], 's_17_7': [1535], 's_17_10': [4700], 's_17_11': [1670], 's_17_12': [1069], 's_17_19': [4430], 's_17_22': [1640], 's_17_23': [994], 's_17_24': [2104, 3745], 's_17_26': [1071], 's_17_27': [3515], 's_17_28': [3446], 's_17_29': [3908], 's_17_31': [1074], 's_17_32': [4100], 's_17_33': [2089], 's_17_34': [3695], 's_17_36': [1461], 's_17_37': [1068], 's_17_38': [4520], 's_17_39': [3922], 's_17_40': [4295], 's_17_41': [1052], 's_17_42': [3267], 's_17_43': [2071], 's_18_4': [4169], 's_18_7': [1607], 's_18_10': [4363, 2467, 4272], 's_18_19': [2154], 's_18_20': [3383], 's_18_21': [4256], 's_18_23': [3533], 's_18_24': [3779], 's_18_25': [3989, 2750], 's_18_26': [4403], 's_18_27': [4043], 's_18_28': [1502, 3503], 's_18_29': [4238, 1627], 's_18_31': [4154], 's_18_33': [3824], 's_18_34': [1537], 's_18_36': [1582], 's_18_37': [3689, 2628], 's_18_38': [1598], 's_18_40': [3839, 2614], 's_18_41': [3548], 's_18_42': [3794], 's_18_43': [1972], 's_18_44': [3854], 's_20_10': [2304], 's_20_11': [2406], 's_20_12': [1217], 's_20_19': [4647, 4646, 4631], 's_20_21': [2405], 's_20_23': [3443], 's_20_24': [1621], 's_20_25': [2316, 2317, 4377], 's_20_26': [3338], 's_20_27': [4033, 2376], 's_20_28': [2102], 's_20_29': [2408], 's_20_30': [2177], 's_20_31': [4574, 4573], 's_20_32': [1277], 's_20_36': [3477], 's_20_37': [3402], 's_20_39': [3367], 's_20_40': [2041], 's_20_42': [3538], 's_24_4': [4109], 's_24_7': [1426], 's_24_10': [1321], 's_24_11': [4199, 2676], 's_24_19': [3581], 's_24_21': [3925], 's_24_22': [3245], 's_24_25': [3914], 's_24_26': [1051], 's_24_27': [2075], 's_24_28': [2703], 's_24_29': [2678], 's_24_30': [1216, 3321], 's_24_31': [4544], 's_24_33': [2388], 's_24_34': [4439], 's_24_36': [3836], 's_24_37': [3659], 's_24_41': [2057], 's_24_42': [3175, 1905], 's_24_43': [1936], 's_25_4': [2705], 's_25_10': [4565, 4566], 's_25_12': [4311], 's_25_19': [1118, 4431], 's_25_21': [4076], 's_25_22': [4656], 's_25_23': [1372], 's_25_26': [1311], 's_25_27': [4192], 's_25_28': [1416, 4102], 's_25_29': [1117], 's_25_30': [4213], 's_25_31': [4491], 's_25_33': [2149], 's_25_34': [4236, 4235], 's_25_35': [1401], 's_25_36': [1132], 's_25_37': [3808, 3809, 2734], 's_25_38': [4506], 's_25_39': [4267], 's_25_40': [1161], 's_25_41': [4191], 's_25_42': [2480], 's_25_43': [1295], 's_25_44': [2407, 4302, 4438], 's_26_4': [4570], 's_26_7': [4103], 's_26_10': [3350], 's_26_11': [4069], 's_26_12': [4448], 's_26_21': [4583, 1538, 1539], 's_26_22': [3379], 's_26_23': [1561], 's_26_28': [1352, 1351], 's_26_29': [2184], 's_26_30': [1141], 's_26_31': [2243], 's_26_32': [995], 's_26_34': [3424], 's_26_35': [1641], 's_26_36': [4553], 's_26_37': [3634], 's_26_39': [2048], 's_26_41': [3214, 961], 's_26_42': [3200], 's_26_43': [3875], 's_26_44': [2318], 's_27_4': [4045], 's_27_10': [1099], 's_27_11': [3906], 's_27_12': [4446, 4447], 's_27_19': [2255], 's_27_21': [2090], 's_27_22': [1279], 's_27_23': [1039], 's_27_28': [4058, 4057], 's_27_29': [1626], 's_27_31': [1388, 4432], 's_27_32': [1790], 's_27_34': [3680], 's_27_36': [4402], 's_27_37': [3544], 's_27_38': [1880], 's_27_39': [4387], 's_27_41': [3636], 's_27_43': [2060], 's_28_7': [3396], 's_28_10': [3366, 1307], 's_28_11': [4117], 's_28_12': [3726], 's_28_19': [3731], 's_28_21': [2492], 's_28_22': [1414], 's_28_23': [3668], 's_28_29': [4087], 's_28_30': [3686], 's_28_31': [2627], 's_28_35': [1476], 's_28_36': [2222], 's_28_38': [2178], 's_28_39': [3832], 's_28_40': [3580], 's_28_41': [3411], 's_28_42': [3201], 's_28_43': [3415], 's_28_44': [2447], 's_29_4': [3834], 's_29_7': [4118], 's_29_10': [2559], 's_29_21': [4541], 's_29_22': [3923], 's_29_30': [3684], 's_29_31': [1718], 's_29_32': [876], 's_29_33': [966], 's_29_34': [2303], 's_29_35': [996], 's_29_37': [3639], 's_29_38': [4254], 's_29_40': [4190], 's_29_41': [1712], 's_29_42': [2633], 's_29_44': [4543], 's_30_4': [1849], 's_30_10': [1097], 's_30_11': [2527], 's_30_19': [2253], 's_30_21': [3913], 's_30_22': [991], 's_30_23': [3323], 's_30_31': [3674], 's_30_32': [1262], 's_30_33': [3776], 's_30_35': [3594], 's_30_37': [3658], 's_30_38': [3549], 's_30_40': [3701], 's_30_41': [1127], 's_30_42': [1246], 's_30_43': [1921], 's_30_44': [3341], 's_31_4': [4019], 's_31_7': [3943], 's_31_10': [4589], 's_31_12': [1928], 's_31_21': [3208], 's_31_22': [1269], 's_31_32': [1224], 's_31_34': [4364, 2723], 's_31_35': [4329], 's_31_36': [3043, 3042], 's_31_38': [4164], 's_31_42': [3869], 's_31_44': [3568], 's_33_7': [3743], 's_33_10': [3920], 's_33_11': [3876], 's_33_12': [1114], 's_33_21': [2029], 's_33_22': [1264], 's_33_23': [3919], 's_33_32': [1175], 's_33_34': [3994], 's_33_36': [2299], 's_33_37': [3777], 's_33_39': [1294], 's_33_40': [1969], 's_33_43': [1504], 's_33_44': [3838], 's_34_4': [4435], 's_34_10': [4205], 's_34_11': [3814], 's_34_12': [1313], 's_34_19': [4436], 's_34_21': [2018], 's_34_22': [3500], 's_34_23': [4099], 's_34_32': [3409], 's_34_35': [1011], 's_34_36': [2183], 's_34_37': [3739], 's_34_39': [1643], 's_34_40': [1133], 's_34_41': [1237, 1238], 's_34_42': [2558], 's_34_44': [2378], 's_35_4': [1941], 's_35_7': [3819], 's_35_11': [2061], 's_35_21': [4165], 's_35_22': [1266], 's_35_23': [4160], 's_35_36': [1356], 's_35_41': [1101], 's_35_42': [3204], 's_35_43': [4075], 's_35_44': [3505], 's_36_4': [4673], 's_36_7': [4374], 's_36_10': [4250], 's_36_12': [2062], 's_36_19': [2254], 's_36_21': [3807], 's_36_22': [4356], 's_36_23': [4568], 's_36_32': [1222], 's_36_38': [2072], 's_36_39': [2213], 's_36_41': [2013], 's_36_42': [3493], 's_36_43': [3986], 's_38_7': [3969], 's_38_10': [4600], 's_38_11': [1987], 's_38_12': [4449], 's_38_19': [4644, 1779], 's_38_23': [1568], 's_38_32': [1223], 's_38_37': [2298], 's_38_40': [3521], 's_38_41': [2133], 's_38_44': [3685, 1953], 's_39_4': [4479], 's_39_7': [3457], 's_39_19': [4481], 's_39_21': [1943], 's_39_23': [3412], 's_39_32': [3486], 's_39_37': [1459, 3802], 's_39_40': [3666], 's_39_41': [1367], 's_39_43': [1988], 's_39_44': [2438], 's_40_7': [1518], 's_40_11': [1251, 4221], 's_40_12': [1173], 's_40_19': [4474, 953], 's_40_22': [1698], 's_40_23': [1148], 's_40_32': [4085], 's_40_37': [3697], 's_40_41': [4026], 's_40_42': [2494], 's_40_43': [3445], 's_41_7': [1413], 's_41_10': [1171], 's_41_11': [1160], 's_41_12': [4086], 's_41_19': [3447], 's_41_22': [4116], 's_41_23': [4025], 's_41_32': [4056], 's_41_37': [1938], 's_41_42': [1231], 's_41_43': [1040], 's_43_7': [1925], 's_43_10': [1898, 4525], 's_43_11': [1070], 's_43_12': [1912], 's_43_19': [3282], 's_43_22': [1909], 's_43_23': [1130], 's_43_32': [1115], 's_43_37': [3357, 2251], 's_43_44': [2027], 's_44_4': [2436], 's_44_7': [1487], 's_44_10': [2484], 's_44_12': [2363], 's_44_19': [4332], 's_44_21': [3463], 's_44_23': [1562], 's_44_32': [3351], 's_44_37': [3462, 2297], 's_44_42': [4168], 's_4_7': [2166], 's_4_11': [2496], 's_4_12': [1838], 's_4_19': [4719], 's_4_21': [1464], 's_4_22': [4701], 's_4_23': [1614], 's_4_42': [4064], 's_7_10': [1674], 's_7_12': [1520], 's_7_19': [4763], 's_7_21': [2045], 's_7_23': [1644], 's_7_32': [1940], 's_7_37': [4018], 's_7_42': [4034], 's_10_11': [3980], 's_10_12': [2469, 2468], 's_10_19': [4795], 's_10_21': [2049], 's_10_23': [1523], 's_10_32': [1112], 's_10_37': [3635], 's_10_42': [4633], 's_12_11': [1190], 's_12_19': [4460], 's_12_21': [1973], 's_12_22': [4281], 's_12_23': [1343], 's_12_32': [1221], 's_12_37': [3724], 's_19_11': [2256], 's_19_23': [4597], 's_19_32': [4761], 's_19_42': [3206, 3207, 2430], 's_22_11': [1310, 3921], 's_22_23': [3803], 's_22_32': [4686], 's_22_37': [992], 's_23_11': [3903], 's_23_21': [1824, 4539], 's_23_32': [905], 's_23_37': [889], 's_23_42': [3202], 's_42_21': [3343], 's_42_32': [1291], 's_42_37': [3552], 's_11_21': [1926, 4180], 's_11_32': [1010], 's_11_37': [3619], 's_21_37': [2493], 's_32_37': [1158, 3696]}</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0.003466069142125481</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.002001354955550367</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>{0: [964, 3952, 3951, 965, 3949, 3950], 2: [4220, 4221, 1248, 1249, 1250, 1251], 3: [4009, 4010, 1414, 1415, 4012, 4011], 4: [3667, 3666, 3665, 1101, 1100, 1099], 5: [3893, 3890, 3892, 3891], 7: [4159, 1383, 3682, 936, 935, 934, 3681, 3680], 9: [4129, 4114, 1023, 4160, 1024, 1026, 1025], 10: [3649, 1311, 1310, 3650, 3651, 1309], 11: [3861, 3862, 3574, 3575, 3576, 1370, 1368, 1369], 12: [3983, 1490, 3979, 3980, 1505, 3982, 3981], 14: [3606, 1236, 3530, 3531, 1235, 1234, 1233], 15: [948, 952, 949, 951, 950, 3860], 16: [4099, 4100, 4101, 3848, 3847, 1296, 1295], 17: [1446, 3967, 3695, 3696, 1294, 1445, 1444, 3697], 18: [4190, 4191, 4192, 1428, 1429, 1430, 1431], 19: [1056, 1053, 1054, 1055], 20: [1113, 1114, 3830, 1117, 1116, 1115], 22: [1579, 1130, 1129, 3754, 3757, 3756, 3755], 23: [4146, 4205, 1203, 1204, 1205, 4206, 1206], 24: [3814, 1625, 3818, 3815, 3816, 3817], 25: [3635, 3590, 1175, 1174, 3636, 1173], 27: [3799, 1520, 1519, 3802, 1279, 3800, 3801], 28: [1041, 1038, 1039, 1040], 29: [3996, 1340, 3620, 3621, 1338, 1339], 30: [3833, 3832, 3739, 1385, 3740, 3741, 1384], 31: [3605, 1161, 1160, 1158, 1159], 32: [979, 4027, 980, 4026, 4025], 33: [1191, 3934, 3935, 1188, 1189, 1190], 35: [4055, 4056, 4057, 4058, 1566, 1564, 1565, 3907], 36: [1218, 1219, 1220, 4130, 1221], 38: [1007, 1011, 3965, 1008, 1010, 1009], 39: [1459, 1460, 4070, 4071, 4072, 1461], 40: [978, 3710, 1475, 3711, 3712, 3713, 1474], 41: [3788, 1534, 4084, 4085, 4086, 4087, 1535], 42: [3878, 3877, 3875, 3876], 43: [1297, 4176, 993, 994, 4175, 996, 995], 44: [4264, 4265, 1143, 1144, 1146, 1145], 1: [1267, 4115, 4116, 1264, 1265, 1266], 6: [3906, 3937, 1281, 3936, 3845, 3846, 1280], 21: [1489, 1354, 3772, 3771, 3769, 3770], 37: [1083, 4145, 1087, 1084, 1085, 1086], 45: [3919, 3920, 1549, 3922, 3921], 8: [1324, 1325, 4040, 4041, 4042], 13: [3995, 1071, 1068, 1069, 1070], 26: [3727, 1401, 1400, 3724, 3725, 3726, 1399], 34: [3784, 3785, 1504, 3786, 3787]}</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.2871147843671693</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.03973721251360623</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>{0: [964, 3952, 3951, 965, 3949, 3950], 2: [4220, 4221, 1248, 1249, 1250, 1251], 3: [4009, 4010, 1414, 1415, 4012, 4011], 4: [3667, 3666, 3665, 1101, 1100, 1099], 5: [3893, 3890, 3892, 3891], 7: [4159, 1383, 3682, 936, 935, 934, 3681, 3680], 9: [4129, 4114, 1023, 4160, 1024, 1026, 1025], 10: [3649, 1311, 1310, 3650, 3651, 1309], 11: [3861, 3862, 3574, 3575, 3576, 1370, 1368, 1369], 12: [3983, 1490, 3979, 3980, 1505, 3982, 3981], 14: [3606, 1236, 3530, 3531, 1235, 1234, 1233], 15: [948, 952, 949, 951, 950, 3860], 16: [4099, 4100, 4101, 3848, 3847, 1296, 1295], 17: [1446, 3967, 3695, 3696, 1294, 1445, 1444, 3697], 18: [4190, 4191, 4192, 1428, 1429, 1430, 1431], 19: [1056, 1053, 1054, 1055], 20: [1113, 1114, 3830, 1117, 1116, 1115], 22: [1579, 1130, 1129, 3754, 3757, 3756, 3755], 23: [4146, 4205, 1203, 1204, 1205, 4206, 1206], 24: [3814, 1625, 3818, 3815, 3816, 3817], 25: [3635, 3590, 1175, 1174, 3636, 1173], 27: [3799, 1520, 1519, 3802, 1279, 3800, 3801], 28: [1041, 1038, 1039, 1040], 29: [3996, 1340, 3620, 3621, 1338, 1339], 30: [3833, 3832, 3739, 1385, 3740, 3741, 1384], 31: [3605, 1161, 1160, 1158, 1159], 32: [979, 4027, 980, 4026, 4025], 33: [1191, 3934, 3935, 1188, 1189, 1190], 35: [4055, 4056, 4057, 4058, 1566, 1564, 1565, 3907], 36: [1218, 1219, 1220, 4130, 1221], 38: [1007, 1011, 3965, 1008, 1010, 1009], 39: [1459, 1460, 4070, 4071, 4072, 1461], 40: [978, 3710, 1475, 3711, 3712, 3713, 1474], 41: [3788, 1534, 4084, 4085, 4086, 4087, 1535], 42: [3878, 3877, 3875, 3876], 43: [1297, 4176, 993, 994, 4175, 996, 995], 44: [4264, 4265, 1143, 1144, 1146, 1145], 1: [1267, 4115, 4116, 1264, 1265, 1266], 6: [3906, 3937, 1281, 3936, 3845, 3846, 1280], 21: [1489, 1354, 3772, 3771, 3769, 3770], 37: [1083, 4145, 1087, 1084, 1085, 1086], 45: [3919, 3920, 1549, 3922, 3921], 8: [1324, 1325, 4040, 4041, 4042], 13: [3995, 1071, 1068, 1069, 1070], 26: [3727, 1401, 1400, 3724, 3725, 3726, 1399], 34: [3784, 3785, 1504, 3786, 3787]}</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0.2871147843671693</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.03973721251360623</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>{0: [4097, 4595, 3865, 3864, 4594, 747, 3863, 879, 3862, 3861, 3860, 3859, 3858, 604, 605, 606, 607, 746, 745, 744, 4593, 608], 2: [1284, 1884, 338, 4561, 4562, 4563, 4564, 909, 4674, 4673, 4672, 4671, 4670, 4669], 's_0_2': [774], 3: [4325, 4324, 3832, 1025, 1414, 1415, 5133, 656, 655, 654, 4622, 4042, 4041, 4040, 653, 652, 4323, 4039, 771, 772], 's_0_3': [1579, 3727, 3728, 3729, 1939], 4: [4045, 5179, 2000, 3940, 1165, 1167, 1955, 1166, 5180, 1227, 5256, 5257, 1956, 5258, 5259, 1977, 1957, 1958, 1959, 1960, 1961, 1962, 5260], 's_0_4': [1954], 5: [4585, 4584, 4576, 4577, 5170, 5169, 5168, 683, 4578, 4579, 4580, 4581, 4582, 4583, 1644, 1645, 1646, 1647], 's_0_5': [638], 7: [381, 4036, 236, 235, 234, 233, 232, 1926, 4089, 4088, 1656, 4013, 4012, 4011, 4010, 4009, 4008, 4007, 4006, 4005, 231], 's_0_7': [1280, 1281], 9: [4971, 4447, 5377, 1453, 4972, 1452, 1451, 3847, 1445, 1446, 1447, 1448, 1450, 1449], 's_0_9': [1429], 10: [4936, 294, 295, 4975, 4974, 4973, 1525, 1524, 4794, 4861, 4862, 4863, 4793, 4792, 1315, 4866, 4864, 4865], 's_0_10': [700, 4938], 11: [4219, 898, 3964, 815, 204, 5254, 897, 896, 4969, 819, 818, 820, 816, 817, 4458, 4530, 158, 4455, 4456, 4457], 's_0_11': [4442], 12: [4980, 265, 264, 4359, 1909, 3924, 1763, 1762, 1760, 263, 262, 261, 4140, 4360, 3923, 3922, 3921, 3920, 3919, 3918, 3917, 1761, 3916, 3915, 200, 201], 's_0_12': [590], 14: [864, 1901, 1900, 4851, 4853, 4852, 1104, 1105, 4854, 4610, 4608, 4855, 4609, 4850, 4607, 1902], 's_0_14': [579], 15: [1687, 5065, 366, 4126, 4390, 4128, 4930, 2005, 2004, 2003, 786, 4249, 2006, 4250, 4375, 4373, 1042, 4374, 4370, 4127, 4371, 4372], 's_0_15': [4112], 16: [4411, 4412, 4413, 717, 716, 715, 4803, 4030, 1986, 760, 1987, 1988, 4465, 4464, 4463, 4462, 4461, 4460, 4459, 893, 4414, 758, 759, 4683], 's_0_16': [4848], 17: [1176, 2169, 952, 2168, 2167, 4181, 4180, 4179, 4178, 4177, 4176, 4175, 4174, 4173, 4172, 431, 486, 487, 488, 489, 430, 4846, 490], 's_0_17': [621], 18: [1797, 5072, 5073, 777, 4027, 5119, 5120, 5121, 5122, 5123, 5124, 1796, 1795, 1341, 4266, 4267, 1340, 1536, 1537, 4418, 4419, 1793, 1794], 's_0_18': [5163, 791], 19: [1029, 4834, 1030, 1866, 1867, 1868, 4539, 1840, 4538, 1841, 1842, 1843, 1839, 5409, 5408, 5407, 5406, 5405, 1033, 1031, 1032], 's_0_19': [880], 20: [5229, 5228, 1602, 1601, 1600, 1599, 4598, 1508, 4486, 4487, 1296, 1297, 1298, 1043, 4493, 4488, 4489, 4490, 4491, 4492], 's_0_20': [803], 22: [1482, 2032, 4075, 1991, 1992, 5087, 5088, 2030, 5089, 5090, 5091, 5092, 5093, 5094, 5095, 5096, 2141, 2140, 2139, 2138, 2137, 2136, 4076, 2031], 's_0_22': [732], 23: [4231, 4233, 5155, 4235, 4236, 4685, 5154, 4232, 5153, 5152, 1346, 1345, 1344, 4686, 4234, 1267, 1268, 1269], 's_0_23': [4596], 24: [1481, 500, 4202, 985, 4912, 4911, 4910, 4909, 4146, 4145, 4144, 4143, 4142, 4908, 4907, 505, 504, 503, 502, 501], 's_0_24': [3992], 25: [748, 5225, 5418, 5419, 958, 5285, 1062, 1115, 3950, 1190, 1191, 1192, 1193, 1194, 1061, 1060, 4805], 's_0_25': [1159, 3891], 27: [4402, 940, 4131, 4745, 4281, 3910, 4026, 1014, 3909, 3908, 3907, 3906, 1250, 1013, 1012, 4400, 4401, 1252, 1251], 's_0_27': [1549], 28: [953, 4430, 4436, 4435, 4921, 386, 4434, 4433, 4432, 4431, 1253, 5040, 5041, 5042, 5043, 1254, 5044, 5045, 5046, 1256, 1255], 's_0_28': [5058], 29: [2046, 4165, 4630, 1910, 1911, 1912, 1557, 1556, 1555, 1554, 4697, 4698, 4699, 4700, 4701, 4702, 4703, 1614, 4628, 4629, 1913], 's_0_29': [894], 30: [339, 2016, 2017, 2018, 2019, 4690, 1914, 1915, 4945, 4944, 4943, 4942, 4941, 4756, 4757, 4758, 4759, 4760, 4761, 1135, 1136], 's_0_30': [699], 31: [3888, 3889, 875, 876, 5363, 877, 4384, 1737, 4385, 1736, 1735, 4480, 4479, 1734, 1733, 4478, 4477, 1089, 1088, 4475, 4476], 's_0_31': [874], 32: [1854, 5149, 1850, 1851, 1852, 1853, 1553, 836, 835, 834, 833, 4509, 4508, 4507, 4504, 4505, 4506], 's_0_32': [3850], 33: [1774, 1775, 1776, 5146, 387, 5206, 5207, 5208, 1360, 1777, 1361, 1778, 1780, 1781, 5109, 5108, 1497, 852, 5239, 5240, 5241, 5242, 1779, 1362], 's_0_33': [3849], 35: [4103, 5002, 5003, 883, 5344, 3757, 3758, 4524, 1714, 1715, 1716, 1717, 1718, 1719, 4988, 1720, 1721, 1722, 5348, 5347, 5346, 5345], 's_0_35': [1744], 36: [237, 4981, 341, 326, 5101, 4599, 4600, 1944, 1945, 1946, 1947, 5214, 5102, 5213, 5212, 5211, 5210, 5103, 1092, 5105, 928, 927, 5104], 's_0_36': [5118], 38: [3814, 964, 4158, 1048, 965, 4159, 966, 967, 968, 5255, 1047, 1046, 1045, 4790, 969], 's_0_38': [979], 39: [1827, 1826, 1825, 1824, 4098, 4099, 4100, 1086, 1087, 4310, 4311, 4312, 4313, 1823, 4404, 1640, 3953, 1685, 1686, 4283, 4344, 1747], 's_0_39': [3848, 1475], 40: [4550, 4549, 923, 924, 5020, 5019, 5018, 5017, 5016, 5015, 4771, 4772, 4773, 4774, 925, 926, 5014], 's_0_40': [609], 41: [1746, 671, 670, 4666, 4210, 4667, 669, 668, 667, 4338, 4339, 4209, 4208, 4207, 4206, 1132, 4340], 's_0_41': [4398], 42: [1990, 727, 728, 455, 456, 457, 458, 4517, 4518, 4519, 4520, 1163, 4566, 4567, 4568, 4569, 4571, 4570, 1989], 's_0_42': [4428, 622], 43: [4023, 5196, 710, 711, 713, 714, 4819, 5423, 5422, 5421, 1183, 1182, 5195, 712, 5194, 912, 4713, 4714, 910, 911], 's_0_43': [575, 3873], 44: [566, 5330, 4216, 1120, 367, 368, 1017, 1016, 369, 1121, 5030, 5029, 4995, 4996, 5028, 370, 521, 371, 5026, 5027], 's_0_44': [731], 1: [695, 3933, 3934, 4641, 3935, 3995, 1160, 1161, 1162, 4416, 4537, 5300, 5301, 5302, 1407, 5299, 1406, 1405, 1404, 1403, 4417], 's_2_1': [1389], 's_2_3': [564], 6: [1437, 5272, 532, 4275, 4276, 4277, 4278, 4279, 4280, 5332, 1318, 187, 5271, 1212, 1211, 1210, 1209, 1208, 1207, 4326], 's_2_6': [4655], 's_2_7': [4635, 219], 's_2_10': [1539], 's_2_11': [248], 's_2_12': [4426], 's_2_16': [4668], 's_2_17': [4675, 4676], 's_2_19': [4809], 21: [4270, 4796, 1206, 470, 4067, 4068, 4795, 2020, 2096, 4069, 4070, 4071, 4072, 1461, 4132, 4133, 4134, 4135, 2091, 2092, 2093, 2094, 2095, 4840], 's_2_21': [1869], 's_2_23': [4551], 's_2_24': [4441], 's_2_25': [1149], 's_2_27': [4565], 's_2_28': [4536], 's_2_29': [1329], 's_2_30': [1179], 's_2_32': [878], 's_2_33': [4824], 's_2_35': [4734], 's_2_36': [4765], 37: [1476, 4521, 4147, 1356, 4925, 4926, 1357, 5136, 4523, 4522, 1358, 1242, 1241, 1240, 4821, 1359], 's_2_37': [1374], 's_2_39': [4719], 's_2_40': [1044, 4639], 's_2_42': [518], 's_2_43': [698], 's_2_44': [4501], 45: [4898, 5313, 4869, 4868, 5314, 5315, 5138, 4222, 3892, 1430, 1431, 5317, 1432, 1433, 1434, 1435, 4837, 5316, 1540, 1541, 1542, 1633, 5318], 's_2_45': [1419], 's_3_1': [845], 's_3_5': [684, 4652], 's_3_6': [4322, 4321, 4320], 's_3_7': [830, 4024], 8: [311, 1520, 310, 4060, 4059, 4741, 4058, 4057, 4056, 4055, 4054, 4053, 309, 308, 307, 306, 4051, 4052], 's_3_8': [4043], 's_3_9': [1384], 's_3_10': [610, 4982], 's_3_11': [4308], 's_3_12': [665, 4038], 13: [763, 657, 1000, 866, 4954, 3947, 3946, 350, 351, 352, 4336, 442, 443, 444, 5268, 4955, 687, 686, 4953, 4952, 445, 4922], 's_3_13': [5012], 's_3_14': [594], 's_3_15': [651], 's_3_16': [5148], 's_3_17': [5177, 5176], 's_3_18': [1370], 's_3_20': [623], 's_3_21': [800], 's_3_22': [611], 's_3_23': [4292, 547], 's_3_25': [3949], 26: [4875, 4239, 4238, 2065, 4884, 4883, 1582, 1583, 1584, 4763, 415, 4885, 4876, 4877, 4878, 4879, 4880, 4881, 1480, 4882], 's_3_26': [4832, 4831, 400], 's_3_27': [3834, 3833, 1820], 's_3_28': [626], 's_3_29': [519], 's_3_30': [4802, 595], 's_3_31': [3904], 's_3_35': [3773, 3772], 's_3_36': [597], 's_3_38': [3875], 's_3_39': [1145], 's_3_40': [4788], 's_3_42': [773], 's_3_43': [4383], 's_3_45': [3952], 's_4_1': [1288], 's_4_6': [1332], 's_4_10': [4960], 's_4_11': [4999, 5000], 's_4_12': [3880], 's_4_15': [4660], 's_4_16': [4195], 's_4_17': [1971], 's_4_18': [5125], 's_4_19': [5274, 1813], 's_4_21': [5185], 's_4_22': [5245], 's_4_23': [1932], 's_4_25': [5226], 's_4_26': [1975], 's_4_28': [5060], 's_4_29': [4015, 2060], 's_4_30': [4031, 2045], 's_4_31': [1678], 's_4_32': [4240], 34: [4351, 1610, 4148, 1611, 1612, 1660, 1659, 4358, 1313, 4352, 4353, 1658, 4354, 4355, 4300, 4299, 4298, 4297, 1522, 4357, 4356], 's_4_34': [4315], 's_4_37': [5151], 's_4_40': [1976], 's_4_41': [4225], 's_4_43': [1228], 's_4_44': [1196], 's_4_45': [1572], 's_5_1': [1314], 's_5_6': [1223], 's_5_8': [323], 's_5_9': [1299, 4597], 's_5_10': [4748], 's_5_11': [353], 's_5_13': [4472, 563, 4427], 's_5_14': [729], 's_5_15': [2007], 's_5_16': [1028], 's_5_18': [1662], 's_5_19': [4624, 939], 's_5_20': [4688], 's_5_21': [4586], 's_5_22': [2022], 's_5_23': [1752], 's_5_24': [4548, 4547], 's_5_25': [1178], 's_5_26': [2066], 's_5_27': [998], 's_5_28': [1973], 's_5_29': [4718], 's_5_30': [1631], 's_5_31': [1928], 's_5_32': [1238], 's_5_34': [4823], 's_5_35': [5183, 1767, 5304], 's_5_36': [1809], 's_5_37': [1538], 's_5_39': [1748], 's_5_40': [2051], 's_5_41': [549, 4637], 's_5_42': [1373], 's_5_43': [1648], 's_5_44': [1119], 's_5_45': [5063], 's_7_1': [1070], 's_7_6': [172, 4350], 's_7_8': [1355], 's_7_9': [1505, 4087], 's_7_10': [4800], 's_7_11': [4620], 's_7_12': [4606], 's_7_13': [380], 's_7_15': [1927], 's_7_17': [4845], 's_7_18': [4163], 's_7_20': [1311], 's_7_21': [4066], 's_7_22': [4150], 's_7_24': [4141], 's_7_25': [3981, 1325], 's_7_26': [220], 's_7_27': [1220], 's_7_28': [5055], 's_7_30': [4000, 3999, 1865], 's_7_32': [4104], 's_7_35': [1806, 4044], 's_7_36': [5025, 221], 's_7_37': [1491], 's_7_38': [756], 's_7_39': [1655], 's_7_40': [4680, 249], 's_7_41': [1596], 's_7_42': [4110, 4111], 's_7_43': [3993], 's_7_44': [4381], 's_7_45': [3982, 1400], 's_9_1': [5047], 's_9_6': [5286, 5287], 's_9_8': [3967], 's_9_10': [4687], 's_9_12': [1460], 's_9_14': [1375], 's_9_15': [4327, 1507], 's_9_16': [4448], 's_9_17': [4192], 's_9_18': [1421], 's_9_19': [1568], 's_9_21': [3997], 's_9_22': [5167], 's_9_23': [4777], 's_9_24': [1330], 's_9_26': [1465], 's_9_27': [4282], 's_9_28': [1552], 's_9_29': [1558], 's_9_30': [1316], 's_9_32': [4642], 's_9_33': [5182], 's_9_34': [4342], 's_9_35': [1423], 's_9_36': [5197], 's_9_39': [3878, 3877], 's_9_40': [1436], 's_9_41': [1462], 's_9_43': [1513], 's_9_44': [4956], 's_9_45': [3937], 's_10_1': [4732], 's_10_8': [325, 4815], 's_10_11': [4650], 's_10_12': [280], 's_10_13': [865], 's_10_14': [4867, 1510], 's_10_15': [1931], 's_10_16': [850], 's_10_17': [4891], 's_10_19': [1856], 's_10_21': [4976], 's_10_24': [625], 's_10_25': [1090], 's_10_26': [580], 's_10_28': [4951], 's_10_29': [4657], 's_10_30': [4928], 's_10_31': [4778, 4779], 's_10_32': [1523], 's_10_33': [296], 's_10_34': [1661], 's_10_35': [1570, 1571], 's_10_37': [1300], 's_10_40': [340], 's_10_41': [640, 4847], 's_10_43': [895], 's_10_44': [4681], 's_11_1': [5284], 's_11_6': [4335, 247], 's_11_8': [159, 4665], 's_11_12': [4500], 's_11_14': [4653], 's_11_15': [922], 's_11_16': [4429], 's_11_17': [4502, 593], 's_11_18': [776], 's_11_20': [398], 's_11_21': [920, 921], 's_11_23': [4220, 996], 's_11_24': [805], 's_11_25': [972], 's_11_26': [205], 's_11_28': [761], 's_11_29': [4684], 's_11_30': [4755, 4695, 174], 's_11_31': [4113, 4114], 's_11_32': [4998], 's_11_33': [822, 5449, 823], 's_11_34': [413], 's_11_35': [5389], 's_11_36': [851], 's_11_38': [5479, 5480], 's_11_39': [980, 4025], 's_11_40': [4534], 's_11_41': [4204, 4205], 's_11_42': [471, 472], 's_11_45': [5329], 's_12_1': [1130], 's_12_6': [202, 4290], 's_12_8': [4080], 's_12_13': [439, 440], 's_12_15': [1792], 's_12_16': [3835, 1985], 's_12_17': [485], 's_12_18': [1385], 's_12_20': [1295], 's_12_21': [1972], 's_12_23': [246], 's_12_24': [3870, 3871, 3872], 's_12_25': [1189], 's_12_26': [4860], 's_12_27': [1625], 's_12_28': [176], 's_12_29': [1764], 's_12_30': [4591], 's_12_31': [890], 's_12_32': [4329], 's_12_33': [4074], 's_12_34': [1595], 's_12_35': [1519], 's_12_36': [266], 's_12_38': [935], 's_12_39': [1745], 's_12_41': [4224], 's_12_42': [530, 3977], 's_12_43': [3978, 680], 's_12_44': [161], 's_12_45': [1354], 's_14_6': [4625], 's_14_13': [1106], 's_14_15': [5050], 's_14_17': [2184, 2185, 4856], 's_14_18': [5034], 's_14_19': [5320], 's_14_20': [428], 's_14_21': [2125], 's_14_22': [5080], 's_14_23': [1075, 1074], 's_14_25': [4835], 's_14_26': [2035], 's_14_27': [4730], 's_14_29': [1059], 's_14_30': [4915], 's_14_31': [4640], 's_14_32': [4623], 's_14_33': [4839], 's_14_34': [1675], 's_14_35': [4838], 's_14_36': [5305, 1872], 's_14_38': [4775], 's_14_39': [5184], 's_14_40': [1916], 's_14_41': [399], 's_14_43': [4820], 's_14_45': [4899, 1870], 's_15_6': [847], 's_15_16': [1147], 's_15_17': [4188], 's_15_19': [4750], 's_15_21': [411], 's_15_22': [5005], 's_15_24': [561], 's_15_26': [4900], 's_15_27': [4251], 's_15_28': [1808], 's_15_30': [4495], 's_15_32': [1103], 's_15_34': [1942], 's_15_35': [1838], 's_15_37': [1628], 's_15_38': [861], 's_15_39': [4389], 's_15_41': [787], 's_15_42': [4825], 's_15_43': [741], 's_15_44': [336], 's_15_45': [1417], 's_16_1': [5298], 's_16_8': [1880], 's_16_13': [5013], 's_16_17': [4466], 's_16_18': [5178], 's_16_19': [4833], 's_16_20': [1643], 's_16_21': [2062, 2061, 4120], 's_16_22': [1895], 's_16_23': [1283], 's_16_24': [4728, 4727], 's_16_25': [733, 5253], 's_16_27': [1925], 's_16_28': [1327], 's_16_29': [4682], 's_16_32': [4255], 's_16_33': [702], 's_16_34': [2002], 's_16_35': [4525], 's_16_36': [1943], 's_16_37': [1598], 's_16_39': [4029], 's_16_40': [1073], 's_16_41': [4968], 's_16_42': [2108], 's_16_43': [804], 's_16_44': [701], 's_16_45': [718], 's_17_6': [577], 's_17_8': [516], 's_17_13': [4937], 's_17_18': [1521], 's_17_19': [1881], 's_17_20': [4532, 473], 's_17_21': [4271], 's_17_23': [981], 's_17_24': [4892], 's_17_25': [4191], 's_17_26': [550, 4742], 's_17_27': [1236], 's_17_28': [2241, 2242, 4437], 's_17_29': [4631], 's_17_30': [4651], 's_17_31': [4189], 's_17_32': [1837], 's_17_33': [5147, 446], 's_17_35': [4194], 's_17_36': [475], 's_17_38': [681], 's_17_39': [1807], 's_17_40': [4787], 's_17_41': [1672], 's_17_42': [4217], 's_17_43': [4712], 's_17_45': [4162, 1506], 's_18_1': [3936], 's_18_8': [5071], 's_18_13': [881], 's_18_20': [4101], 's_18_22': [1467], 's_18_23': [1282], 's_18_24': [1326], 's_18_26': [4328], 's_18_27': [3966], 's_18_28': [1702], 's_18_30': [5004], 's_18_32': [4494], 's_18_34': [4343], 's_18_35': [5289], 's_18_36': [5199], 's_18_37': [1272], 's_18_40': [1181], 's_18_41': [1312], 's_18_43': [1302], 's_18_44': [806], 's_18_45': [1339], 's_19_1': [1093], 's_19_6': [1438], 's_19_20': [1629], 's_19_22': [5110], 's_19_23': [1857], 's_19_24': [4895], 's_19_25': [5150], 's_19_29': [1688], 's_19_30': [4540], 's_19_32': [4269], 's_19_35': [1123], 's_19_36': [4780, 1855], 's_19_37': [970], 's_19_38': [5450], 's_19_39': [5244], 's_19_40': [955, 954], 's_19_42': [4615], 's_19_43': [5424, 1873], 's_19_45': [1078], 's_20_1': [5303], 's_20_8': [4485], 's_20_22': [1616], 's_20_23': [1617], 's_20_24': [4958], 's_20_25': [3996], 's_20_26': [4807, 1509], 's_20_28': [1388], 's_20_29': [5288], 's_20_31': [1058], 's_20_32': [4627], 's_20_33': [5243], 's_20_35': [4808], 's_20_36': [4613, 4614, 1749], 's_20_37': [4252], 's_20_38': [4474], 's_20_39': [4913, 4914], 's_20_40': [863], 's_20_42': [983], 's_20_43': [1603], 's_20_44': [4471], 's_22_1': [1391], 's_22_6': [5076], 's_22_13': [506], 's_22_21': [4331], 's_22_23': [1691], 's_22_24': [986, 5074], 's_22_27': [3925], 's_22_28': [491], 's_22_29': [4226], 's_22_30': [4046], 's_22_31': [4554, 4555, 4556, 4541], 's_22_34': [4301], 's_22_38': [5075], 's_22_39': [5079], 's_22_40': [1331], 's_22_42': [2153], 's_22_43': [957], 's_22_44': [1001], 's_22_45': [1511], 's_23_1': [5181], 's_23_8': [322], 's_23_13': [441], 's_23_24': [412], 's_23_25': [4731], 's_23_26': [4762], 's_23_27': [892, 4399], 's_23_30': [1270], 's_23_31': [1027, 4294], 's_23_32': [1343], 's_23_33': [1782], 's_23_34': [517], 's_23_35': [5139], 's_23_36': [5166, 1317], 's_23_38': [801], 's_23_39': [1812], 's_23_40': [5031], 's_23_44': [382], 's_23_45': [4836], 's_24_1': [1390, 4927], 's_24_6': [426], 's_24_8': [1101], 's_24_21': [546], 's_24_26': [1496, 1495], 's_24_27': [1011], 's_24_28': [4896], 's_24_29': [984], 's_24_32': [4894], 's_24_34': [4367], 's_24_35': [1466], 's_24_37': [1271], 's_24_38': [4849], 's_24_39': [4160], 's_24_40': [535], 's_24_41': [1146], 's_24_42': [4261], 's_24_43': [4203], 's_24_44': [4291], 's_24_45': [4897], 's_25_1': [4295], 's_25_8': [1056, 4130], 's_25_13': [4970], 's_25_21': [1205], 's_25_26': [1225], 's_25_27': [3951], 's_25_28': [4806], 's_25_29': [1164], 's_25_31': [4386], 's_25_33': [5224, 942], 's_25_34': [1177], 's_25_35': [1063], 's_25_36': [1107], 's_25_38': [3815], 's_25_39': [4115], 's_25_40': [4804], 's_25_43': [1002], 's_25_44': [5270], 's_25_45': [673], 's_27_8': [1116], 's_27_21': [1266], 's_27_28': [938], 's_27_30': [2015], 's_27_31': [982], 's_27_32': [1836, 1835], 's_27_33': [1790], 's_27_34': [1222], 's_27_35': [1729], 's_27_37': [4296], 's_27_38': [4654], 's_27_39': [1684], 's_27_41': [1057], 's_27_42': [1133], 's_27_43': [4715], 's_27_45': [1324], 's_28_6': [4791], 's_28_8': [281, 5086], 's_28_13': [581], 's_28_21': [2077], 's_28_29': [1239], 's_28_32': [5059], 's_28_33': [251], 's_28_34': [2047], 's_28_35': [4986, 4987], 's_28_37': [5061], 's_28_38': [4415], 's_28_40': [941], 's_28_42': [1118], 's_28_43': [1257], 's_28_45': [1418], 's_29_1': [1494], 's_29_6': [1224], 's_29_8': [4696], 's_29_21': [4256], 's_29_30': [4420, 4421], 's_29_31': [4643], 's_29_32': [4510], 's_29_33': [4644], 's_29_35': [5362], 's_29_36': [2109, 4601], 's_29_37': [4822], 's_29_39': [4345], 's_29_40': [789], 's_29_41': [459], 's_29_42': [4645], 's_29_43': [849], 's_29_45': [5273], 's_30_6': [4985], 's_30_8': [4061], 's_30_13': [4726], 's_30_21': [4720], 's_30_26': [1930], 's_30_31': [4689], 's_30_33': [1137], 's_30_35': [4929], 's_30_37': [4940], 's_30_38': [999], 's_30_39': [4659], 's_30_40': [279], 's_30_41': [534], 's_30_42': [2034], 's_30_43': [730], 's_30_44': [4636], 's_30_45': [1615], 's_31_1': [3994], 's_31_6': [1072], 's_31_8': [891], 's_31_21': [2078], 's_31_33': [5064], 's_31_34': [4749], 's_31_35': [1753], 's_31_36': [5198, 1707], 's_31_37': [1463], 's_31_38': [3979], 's_31_39': [4704], 's_31_40': [1148], 's_31_41': [802], 's_31_43': [1663], 's_32_1': [1328], 's_32_13': [867], 's_32_21': [4119], 's_32_26': [4553], 's_32_33': [4284], 's_32_34': [4314], 's_32_35': [3984], 's_32_36': [762], 's_32_37': [4924], 's_32_38': [4729], 's_32_39': [4405], 's_32_40': [4939], 's_32_41': [832], 's_32_42': [848], 's_32_43': [4789], 's_32_44': [821], 's_32_45': [837], 's_33_1': [792], 's_33_6': [1197], 's_33_13': [5161, 5162], 's_33_21': [1791], 's_33_26': [4253, 4254], 's_33_35': [3789], 's_33_36': [567], 's_33_38': [1152], 's_33_39': [4449], 's_33_40': [1751], 's_33_41': [672], 's_33_43': [882], 's_33_44': [372], 's_33_45': [1632], 's_35_6': [5361], 's_35_8': [1671], 's_35_21': [4118], 's_35_26': [1705], 's_35_34': [1641], 's_35_36': [1377], 's_35_37': [1243], 's_35_38': [5374], 's_35_39': [4959], 's_35_40': [1676], 's_35_41': [4164], 's_35_42': [1883], 's_35_43': [5360], 's_35_44': [1108], 's_35_45': [1393], 's_36_1': [1392], 's_36_6': [1347], 's_36_8': [4966], 's_36_13': [460], 's_36_21': [4735, 4736, 2170], 's_36_34': [1674], 's_36_37': [1091], 's_36_40': [1076], 's_36_42': [4705], 's_36_43': [1287], 's_36_44': [971], 's_36_45': [1587], 's_38_6': [636], 's_38_8': [936], 's_38_21': [906], 's_38_37': [5135], 's_38_42': [4157], 's_38_43': [1077], 's_38_44': [5359], 's_39_6': [4265], 's_39_8': [1026], 's_39_21': [846], 's_39_26': [1597], 's_39_34': [3998], 's_39_37': [1673], 's_39_40': [1811], 's_39_41': [1731], 's_39_45': [1810], 's_40_1': [4445, 4444], 's_40_6': [5137, 1376], 's_40_13': [956], 's_40_21': [5035], 's_40_26': [355], 's_40_34': [908], 's_40_37': [1151], 's_40_42': [4535], 's_40_43': [4984], 's_40_44': [385], 's_40_45': [5032], 's_41_1': [4190], 's_41_6': [4307], 's_41_8': [666], 's_41_13': [4997], 's_41_21': [1701], 's_41_26': [1657], 's_41_34': [1642], 's_41_37': [1401], 's_41_42': [742], 's_41_43': [4503], 's_41_44': [384], 's_41_45': [1371], 's_42_1': [1464], 's_42_6': [4247, 562], 's_42_8': [726], 's_42_13': [4397], 's_42_21': [3931], 's_42_26': [1479], 's_42_34': [4248, 682], 's_42_37': [1703], 's_42_43': [4293], 's_42_45': [4870], 's_43_1': [913], 's_43_6': [1483], 's_43_8': [620], 's_43_21': [696], 's_43_26': [775], 's_43_34': [4368], 's_43_37': [1122], 's_43_44': [5209], 's_43_45': [1618], 's_44_6': [4746], 's_44_8': [4171], 's_44_13': [596], 's_44_26': [4801], 's_44_34': [383], 's_44_37': [4776], 's_1_6': [5227], 's_1_8': [1175], 's_1_13': [3932], 's_1_21': [995], 's_1_26': [4717], 's_1_34': [1372], 's_1_37': [5001], 's_1_45': [807], 's_6_8': [4305], 's_6_13': [337], 's_6_21': [531], 's_6_26': [1285, 4716], 's_6_45': [5331], 's_21_8': [591], 's_21_13': [425], 's_21_26': [4931], 's_21_34': [1566], 's_21_45': [4117], 's_37_13': [1015], 's_37_34': [1613], 's_37_45': [4747], 's_45_8': [1386], 's_45_13': [688], 's_45_26': [4237], 's_45_34': [3893], 's_8_26': [4711], 's_8_34': [1626], 's_13_26': [4816], 's_13_34': [4366], 's_26_34': [1492]}</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.002725961538461538</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.001757512404528345</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>{0: [4097, 4595, 3865, 3864, 4594, 747, 3863, 879, 3862, 3861, 3860, 3859, 3858, 604, 605, 606, 607, 746, 745, 744, 4593, 608], 2: [1284, 1884, 338, 4561, 4562, 4563, 4564, 909, 4674, 4673, 4672, 4671, 4670, 4669], 's_0_2': [774], 3: [4325, 4324, 3832, 1025, 1414, 1415, 5133, 656, 655, 654, 4622, 4042, 4041, 4040, 653, 652, 4323, 4039, 771, 772], 's_0_3': [1579, 3727, 3728, 3729, 1939], 4: [4045, 5179, 2000, 3940, 1165, 1167, 1955, 1166, 5180, 1227, 5256, 5257, 1956, 5258, 5259, 1977, 1957, 1958, 1959, 1960, 1961, 1962, 5260], 's_0_4': [1954], 5: [4585, 4584, 4576, 4577, 5170, 5169, 5168, 683, 4578, 4579, 4580, 4581, 4582, 4583, 1644, 1645, 1646, 1647], 's_0_5': [638], 7: [381, 4036, 236, 235, 234, 233, 232, 1926, 4089, 4088, 1656, 4013, 4012, 4011, 4010, 4009, 4008, 4007, 4006, 4005, 231], 's_0_7': [1280, 1281], 9: [4971, 4447, 5377, 1453, 4972, 1452, 1451, 3847, 1445, 1446, 1447, 1448, 1450, 1449], 's_0_9': [1429], 10: [4936, 294, 295, 4975, 4974, 4973, 1525, 1524, 4794, 4861, 4862, 4863, 4793, 4792, 1315, 4866, 4864, 4865], 's_0_10': [700, 4938], 11: [4219, 898, 3964, 815, 204, 5254, 897, 896, 4969, 819, 818, 820, 816, 817, 4458, 4530, 158, 4455, 4456, 4457], 's_0_11': [4442], 12: [4980, 265, 264, 4359, 1909, 3924, 1763, 1762, 1760, 263, 262, 261, 4140, 4360, 3923, 3922, 3921, 3920, 3919, 3918, 3917, 1761, 3916, 3915, 200, 201], 's_0_12': [590], 14: [864, 1901, 1900, 4851, 4853, 4852, 1104, 1105, 4854, 4610, 4608, 4855, 4609, 4850, 4607, 1902], 's_0_14': [579], 15: [1687, 5065, 366, 4126, 4390, 4128, 4930, 2005, 2004, 2003, 786, 4249, 2006, 4250, 4375, 4373, 1042, 4374, 4370, 4127, 4371, 4372], 's_0_15': [4112], 16: [4411, 4412, 4413, 717, 716, 715, 4803, 4030, 1986, 760, 1987, 1988, 4465, 4464, 4463, 4462, 4461, 4460, 4459, 893, 4414, 758, 759, 4683], 's_0_16': [4848], 17: [1176, 2169, 952, 2168, 2167, 4181, 4180, 4179, 4178, 4177, 4176, 4175, 4174, 4173, 4172, 431, 486, 487, 488, 489, 430, 4846, 490], 's_0_17': [621], 18: [1797, 5072, 5073, 777, 4027, 5119, 5120, 5121, 5122, 5123, 5124, 1796, 1795, 1341, 4266, 4267, 1340, 1536, 1537, 4418, 4419, 1793, 1794], 's_0_18': [5163, 791], 19: [1029, 4834, 1030, 1866, 1867, 1868, 4539, 1840, 4538, 1841, 1842, 1843, 1839, 5409, 5408, 5407, 5406, 5405, 1033, 1031, 1032], 's_0_19': [880], 20: [5229, 5228, 1602, 1601, 1600, 1599, 4598, 1508, 4486, 4487, 1296, 1297, 1298, 1043, 4493, 4488, 4489, 4490, 4491, 4492], 's_0_20': [803], 22: [1482, 2032, 4075, 1991, 1992, 5087, 5088, 2030, 5089, 5090, 5091, 5092, 5093, 5094, 5095, 5096, 2141, 2140, 2139, 2138, 2137, 2136, 4076, 2031], 's_0_22': [732], 23: [4231, 4233, 5155, 4235, 4236, 4685, 5154, 4232, 5153, 5152, 1346, 1345, 1344, 4686, 4234, 1267, 1268, 1269], 's_0_23': [4596], 24: [1481, 500, 4202, 985, 4912, 4911, 4910, 4909, 4146, 4145, 4144, 4143, 4142, 4908, 4907, 505, 504, 503, 502, 501], 's_0_24': [3992], 25: [748, 5225, 5418, 5419, 958, 5285, 1062, 1115, 3950, 1190, 1191, 1192, 1193, 1194, 1061, 1060, 4805], 's_0_25': [1159, 3891], 27: [4402, 940, 4131, 4745, 4281, 3910, 4026, 1014, 3909, 3908, 3907, 3906, 1250, 1013, 1012, 4400, 4401, 1252, 1251], 's_0_27': [1549], 28: [953, 4430, 4436, 4435, 4921, 386, 4434, 4433, 4432, 4431, 1253, 5040, 5041, 5042, 5043, 1254, 5044, 5045, 5046, 1256, 1255], 's_0_28': [5058], 29: [2046, 4165, 4630, 1910, 1911, 1912, 1557, 1556, 1555, 1554, 4697, 4698, 4699, 4700, 4701, 4702, 4703, 1614, 4628, 4629, 1913], 's_0_29': [894], 30: [339, 2016, 2017, 2018, 2019, 4690, 1914, 1915, 4945, 4944, 4943, 4942, 4941, 4756, 4757, 4758, 4759, 4760, 4761, 1135, 1136], 's_0_30': [699], 31: [3888, 3889, 875, 876, 5363, 877, 4384, 1737, 4385, 1736, 1735, 4480, 4479, 1734, 1733, 4478, 4477, 1089, 1088, 4475, 4476], 's_0_31': [874], 32: [1854, 5149, 1850, 1851, 1852, 1853, 1553, 836, 835, 834, 833, 4509, 4508, 4507, 4504, 4505, 4506], 's_0_32': [3850], 33: [1774, 1775, 1776, 5146, 387, 5206, 5207, 5208, 1360, 1777, 1361, 1778, 1780, 1781, 5109, 5108, 1497, 852, 5239, 5240, 5241, 5242, 1779, 1362], 's_0_33': [3849], 35: [4103, 5002, 5003, 883, 5344, 3757, 3758, 4524, 1714, 1715, 1716, 1717, 1718, 1719, 4988, 1720, 1721, 1722, 5348, 5347, 5346, 5345], 's_0_35': [1744], 36: [237, 4981, 341, 326, 5101, 4599, 4600, 1944, 1945, 1946, 1947, 5214, 5102, 5213, 5212, 5211, 5210, 5103, 1092, 5105, 928, 927, 5104], 's_0_36': [5118], 38: [3814, 964, 4158, 1048, 965, 4159, 966, 967, 968, 5255, 1047, 1046, 1045, 4790, 969], 's_0_38': [979], 39: [1827, 1826, 1825, 1824, 4098, 4099, 4100, 1086, 1087, 4310, 4311, 4312, 4313, 1823, 4404, 1640, 3953, 1685, 1686, 4283, 4344, 1747], 's_0_39': [3848, 1475], 40: [4550, 4549, 923, 924, 5020, 5019, 5018, 5017, 5016, 5015, 4771, 4772, 4773, 4774, 925, 926, 5014], 's_0_40': [609], 41: [1746, 671, 670, 4666, 4210, 4667, 669, 668, 667, 4338, 4339, 4209, 4208, 4207, 4206, 1132, 4340], 's_0_41': [4398], 42: [1990, 727, 728, 455, 456, 457, 458, 4517, 4518, 4519, 4520, 1163, 4566, 4567, 4568, 4569, 4571, 4570, 1989], 's_0_42': [4428, 622], 43: [4023, 5196, 710, 711, 713, 714, 4819, 5423, 5422, 5421, 1183, 1182, 5195, 712, 5194, 912, 4713, 4714, 910, 911], 's_0_43': [575, 3873], 44: [566, 5330, 4216, 1120, 367, 368, 1017, 1016, 369, 1121, 5030, 5029, 4995, 4996, 5028, 370, 521, 371, 5026, 5027], 's_0_44': [731], 1: [695, 3933, 3934, 4641, 3935, 3995, 1160, 1161, 1162, 4416, 4537, 5300, 5301, 5302, 1407, 5299, 1406, 1405, 1404, 1403, 4417], 's_2_1': [1389], 's_2_3': [564], 6: [1437, 5272, 532, 4275, 4276, 4277, 4278, 4279, 4280, 5332, 1318, 187, 5271, 1212, 1211, 1210, 1209, 1208, 1207, 4326], 's_2_6': [4655], 's_2_7': [4635, 219], 's_2_10': [1539], 's_2_11': [248], 's_2_12': [4426], 's_2_16': [4668], 's_2_17': [4675, 4676], 's_2_19': [4809], 21: [4270, 4796, 1206, 470, 4067, 4068, 4795, 2020, 2096, 4069, 4070, 4071, 4072, 1461, 4132, 4133, 4134, 4135, 2091, 2092, 2093, 2094, 2095, 4840], 's_2_21': [1869], 's_2_23': [4551], 's_2_24': [4441], 's_2_25': [1149], 's_2_27': [4565], 's_2_28': [4536], 's_2_29': [1329], 's_2_30': [1179], 's_2_32': [878], 's_2_33': [4824], 's_2_35': [4734], 's_2_36': [4765], 37: [1476, 4521, 4147, 1356, 4925, 4926, 1357, 5136, 4523, 4522, 1358, 1242, 1241, 1240, 4821, 1359], 's_2_37': [1374], 's_2_39': [4719], 's_2_40': [1044, 4639], 's_2_42': [518], 's_2_43': [698], 's_2_44': [4501], 45: [4898, 5313, 4869, 4868, 5314, 5315, 5138, 4222, 3892, 1430, 1431, 5317, 1432, 1433, 1434, 1435, 4837, 5316, 1540, 1541, 1542, 1633, 5318], 's_2_45': [1419], 's_3_1': [845], 's_3_5': [684, 4652], 's_3_6': [4322, 4321, 4320], 's_3_7': [830, 4024], 8: [311, 1520, 310, 4060, 4059, 4741, 4058, 4057, 4056, 4055, 4054, 4053, 309, 308, 307, 306, 4051, 4052], 's_3_8': [4043], 's_3_9': [1384], 's_3_10': [610, 4982], 's_3_11': [4308], 's_3_12': [665, 4038], 13: [763, 657, 1000, 866, 4954, 3947, 3946, 350, 351, 352, 4336, 442, 443, 444, 5268, 4955, 687, 686, 4953, 4952, 445, 4922], 's_3_13': [5012], 's_3_14': [594], 's_3_15': [651], 's_3_16': [5148], 's_3_17': [5177, 5176], 's_3_18': [1370], 's_3_20': [623], 's_3_21': [800], 's_3_22': [611], 's_3_23': [4292, 547], 's_3_25': [3949], 26: [4875, 4239, 4238, 2065, 4884, 4883, 1582, 1583, 1584, 4763, 415, 4885, 4876, 4877, 4878, 4879, 4880, 4881, 1480, 4882], 's_3_26': [4832, 4831, 400], 's_3_27': [3834, 3833, 1820], 's_3_28': [626], 's_3_29': [519], 's_3_30': [4802, 595], 's_3_31': [3904], 's_3_35': [3773, 3772], 's_3_36': [597], 's_3_38': [3875], 's_3_39': [1145], 's_3_40': [4788], 's_3_42': [773], 's_3_43': [4383], 's_3_45': [3952], 's_4_1': [1288], 's_4_6': [1332], 's_4_10': [4960], 's_4_11': [4999, 5000], 's_4_12': [3880], 's_4_15': [4660], 's_4_16': [4195], 's_4_17': [1971], 's_4_18': [5125], 's_4_19': [5274, 1813], 's_4_21': [5185], 's_4_22': [5245], 's_4_23': [1932], 's_4_25': [5226], 's_4_26': [1975], 's_4_28': [5060], 's_4_29': [4015, 2060], 's_4_30': [4031, 2045], 's_4_31': [1678], 's_4_32': [4240], 34: [4351, 1610, 4148, 1611, 1612, 1660, 1659, 4358, 1313, 4352, 4353, 1658, 4354, 4355, 4300, 4299, 4298, 4297, 1522, 4357, 4356], 's_4_34': [4315], 's_4_37': [5151], 's_4_40': [1976], 's_4_41': [4225], 's_4_43': [1228], 's_4_44': [1196], 's_4_45': [1572], 's_5_1': [1314], 's_5_6': [1223], 's_5_8': [323], 's_5_9': [1299, 4597], 's_5_10': [4748], 's_5_11': [353], 's_5_13': [4472, 563, 4427], 's_5_14': [729], 's_5_15': [2007], 's_5_16': [1028], 's_5_18': [1662], 's_5_19': [4624, 939], 's_5_20': [4688], 's_5_21': [4586], 's_5_22': [2022], 's_5_23': [1752], 's_5_24': [4548, 4547], 's_5_25': [1178], 's_5_26': [2066], 's_5_27': [998], 's_5_28': [1973], 's_5_29': [4718], 's_5_30': [1631], 's_5_31': [1928], 's_5_32': [1238], 's_5_34': [4823], 's_5_35': [5183, 1767, 5304], 's_5_36': [1809], 's_5_37': [1538], 's_5_39': [1748], 's_5_40': [2051], 's_5_41': [549, 4637], 's_5_42': [1373], 's_5_43': [1648], 's_5_44': [1119], 's_5_45': [5063], 's_7_1': [1070], 's_7_6': [172, 4350], 's_7_8': [1355], 's_7_9': [1505, 4087], 's_7_10': [4800], 's_7_11': [4620], 's_7_12': [4606], 's_7_13': [380], 's_7_15': [1927], 's_7_17': [4845], 's_7_18': [4163], 's_7_20': [1311], 's_7_21': [4066], 's_7_22': [4150], 's_7_24': [4141], 's_7_25': [3981, 1325], 's_7_26': [220], 's_7_27': [1220], 's_7_28': [5055], 's_7_30': [4000, 3999, 1865], 's_7_32': [4104], 's_7_35': [1806, 4044], 's_7_36': [5025, 221], 's_7_37': [1491], 's_7_38': [756], 's_7_39': [1655], 's_7_40': [4680, 249], 's_7_41': [1596], 's_7_42': [4110, 4111], 's_7_43': [3993], 's_7_44': [4381], 's_7_45': [3982, 1400], 's_9_1': [5047], 's_9_6': [5286, 5287], 's_9_8': [3967], 's_9_10': [4687], 's_9_12': [1460], 's_9_14': [1375], 's_9_15': [4327, 1507], 's_9_16': [4448], 's_9_17': [4192], 's_9_18': [1421], 's_9_19': [1568], 's_9_21': [3997], 's_9_22': [5167], 's_9_23': [4777], 's_9_24': [1330], 's_9_26': [1465], 's_9_27': [4282], 's_9_28': [1552], 's_9_29': [1558], 's_9_30': [1316], 's_9_32': [4642], 's_9_33': [5182], 's_9_34': [4342], 's_9_35': [1423], 's_9_36': [5197], 's_9_39': [3878, 3877], 's_9_40': [1436], 's_9_41': [1462], 's_9_43': [1513], 's_9_44': [4956], 's_9_45': [3937], 's_10_1': [4732], 's_10_8': [325, 4815], 's_10_11': [4650], 's_10_12': [280], 's_10_13': [865], 's_10_14': [4867, 1510], 's_10_15': [1931], 's_10_16': [850], 's_10_17': [4891], 's_10_19': [1856], 's_10_21': [4976], 's_10_24': [625], 's_10_25': [1090], 's_10_26': [580], 's_10_28': [4951], 's_10_29': [4657], 's_10_30': [4928], 's_10_31': [4778, 4779], 's_10_32': [1523], 's_10_33': [296], 's_10_34': [1661], 's_10_35': [1570, 1571], 's_10_37': [1300], 's_10_40': [340], 's_10_41': [640, 4847], 's_10_43': [895], 's_10_44': [4681], 's_11_1': [5284], 's_11_6': [4335, 247], 's_11_8': [159, 4665], 's_11_12': [4500], 's_11_14': [4653], 's_11_15': [922], 's_11_16': [4429], 's_11_17': [4502, 593], 's_11_18': [776], 's_11_20': [398], 's_11_21': [920, 921], 's_11_23': [4220, 996], 's_11_24': [805], 's_11_25': [972], 's_11_26': [205], 's_11_28': [761], 's_11_29': [4684], 's_11_30': [4755, 4695, 174], 's_11_31': [4113, 4114], 's_11_32': [4998], 's_11_33': [822, 5449, 823], 's_11_34': [413], 's_11_35': [5389], 's_11_36': [851], 's_11_38': [5479, 5480], 's_11_39': [980, 4025], 's_11_40': [4534], 's_11_41': [4204, 4205], 's_11_42': [471, 472], 's_11_45': [5329], 's_12_1': [1130], 's_12_6': [202, 4290], 's_12_8': [4080], 's_12_13': [439, 440], 's_12_15': [1792], 's_12_16': [3835, 1985], 's_12_17': [485], 's_12_18': [1385], 's_12_20': [1295], 's_12_21': [1972], 's_12_23': [246], 's_12_24': [3870, 3871, 3872], 's_12_25': [1189], 's_12_26': [4860], 's_12_27': [1625], 's_12_28': [176], 's_12_29': [1764], 's_12_30': [4591], 's_12_31': [890], 's_12_32': [4329], 's_12_33': [4074], 's_12_34': [1595], 's_12_35': [1519], 's_12_36': [266], 's_12_38': [935], 's_12_39': [1745], 's_12_41': [4224], 's_12_42': [530, 3977], 's_12_43': [3978, 680], 's_12_44': [161], 's_12_45': [1354], 's_14_6': [4625], 's_14_13': [1106], 's_14_15': [5050], 's_14_17': [2184, 2185, 4856], 's_14_18': [5034], 's_14_19': [5320], 's_14_20': [428], 's_14_21': [2125], 's_14_22': [5080], 's_14_23': [1075, 1074], 's_14_25': [4835], 's_14_26': [2035], 's_14_27': [4730], 's_14_29': [1059], 's_14_30': [4915], 's_14_31': [4640], 's_14_32': [4623], 's_14_33': [4839], 's_14_34': [1675], 's_14_35': [4838], 's_14_36': [5305, 1872], 's_14_38': [4775], 's_14_39': [5184], 's_14_40': [1916], 's_14_41': [399], 's_14_43': [4820], 's_14_45': [4899, 1870], 's_15_6': [847], 's_15_16': [1147], 's_15_17': [4188], 's_15_19': [4750], 's_15_21': [411], 's_15_22': [5005], 's_15_24': [561], 's_15_26': [4900], 's_15_27': [4251], 's_15_28': [1808], 's_15_30': [4495], 's_15_32': [1103], 's_15_34': [1942], 's_15_35': [1838], 's_15_37': [1628], 's_15_38': [861], 's_15_39': [4389], 's_15_41': [787], 's_15_42': [4825], 's_15_43': [741], 's_15_44': [336], 's_15_45': [1417], 's_16_1': [5298], 's_16_8': [1880], 's_16_13': [5013], 's_16_17': [4466], 's_16_18': [5178], 's_16_19': [4833], 's_16_20': [1643], 's_16_21': [2062, 2061, 4120], 's_16_22': [1895], 's_16_23': [1283], 's_16_24': [4728, 4727], 's_16_25': [733, 5253], 's_16_27': [1925], 's_16_28': [1327], 's_16_29': [4682], 's_16_32': [4255], 's_16_33': [702], 's_16_34': [2002], 's_16_35': [4525], 's_16_36': [1943], 's_16_37': [1598], 's_16_39': [4029], 's_16_40': [1073], 's_16_41': [4968], 's_16_42': [2108], 's_16_43': [804], 's_16_44': [701], 's_16_45': [718], 's_17_6': [577], 's_17_8': [516], 's_17_13': [4937], 's_17_18': [1521], 's_17_19': [1881], 's_17_20': [4532, 473], 's_17_21': [4271], 's_17_23': [981], 's_17_24': [4892], 's_17_25': [4191], 's_17_26': [550, 4742], 's_17_27': [1236], 's_17_28': [2241, 2242, 4437], 's_17_29': [4631], 's_17_30': [4651], 's_17_31': [4189], 's_17_32': [1837], 's_17_33': [5147, 446], 's_17_35': [4194], 's_17_36': [475], 's_17_38': [681], 's_17_39': [1807], 's_17_40': [4787], 's_17_41': [1672], 's_17_42': [4217], 's_17_43': [4712], 's_17_45': [4162, 1506], 's_18_1': [3936], 's_18_8': [5071], 's_18_13': [881], 's_18_20': [4101], 's_18_22': [1467], 's_18_23': [1282], 's_18_24': [1326], 's_18_26': [4328], 's_18_27': [3966], 's_18_28': [1702], 's_18_30': [5004], 's_18_32': [4494], 's_18_34': [4343], 's_18_35': [5289], 's_18_36': [5199], 's_18_37': [1272], 's_18_40': [1181], 's_18_41': [1312], 's_18_43': [1302], 's_18_44': [806], 's_18_45': [1339], 's_19_1': [1093], 's_19_6': [1438], 's_19_20': [1629], 's_19_22': [5110], 's_19_23': [1857], 's_19_24': [4895], 's_19_25': [5150], 's_19_29': [1688], 's_19_30': [4540], 's_19_32': [4269], 's_19_35': [1123], 's_19_36': [4780, 1855], 's_19_37': [970], 's_19_38': [5450], 's_19_39': [5244], 's_19_40': [955, 954], 's_19_42': [4615], 's_19_43': [5424, 1873], 's_19_45': [1078], 's_20_1': [5303], 's_20_8': [4485], 's_20_22': [1616], 's_20_23': [1617], 's_20_24': [4958], 's_20_25': [3996], 's_20_26': [4807, 1509], 's_20_28': [1388], 's_20_29': [5288], 's_20_31': [1058], 's_20_32': [4627], 's_20_33': [5243], 's_20_35': [4808], 's_20_36': [4613, 4614, 1749], 's_20_37': [4252], 's_20_38': [4474], 's_20_39': [4913, 4914], 's_20_40': [863], 's_20_42': [983], 's_20_43': [1603], 's_20_44': [4471], 's_22_1': [1391], 's_22_6': [5076], 's_22_13': [506], 's_22_21': [4331], 's_22_23': [1691], 's_22_24': [986, 5074], 's_22_27': [3925], 's_22_28': [491], 's_22_29': [4226], 's_22_30': [4046], 's_22_31': [4554, 4555, 4556, 4541], 's_22_34': [4301], 's_22_38': [5075], 's_22_39': [5079], 's_22_40': [1331], 's_22_42': [2153], 's_22_43': [957], 's_22_44': [1001], 's_22_45': [1511], 's_23_1': [5181], 's_23_8': [322], 's_23_13': [441], 's_23_24': [412], 's_23_25': [4731], 's_23_26': [4762], 's_23_27': [892, 4399], 's_23_30': [1270], 's_23_31': [1027, 4294], 's_23_32': [1343], 's_23_33': [1782], 's_23_34': [517], 's_23_35': [5139], 's_23_36': [5166, 1317], 's_23_38': [801], 's_23_39': [1812], 's_23_40': [5031], 's_23_44': [382], 's_23_45': [4836], 's_24_1': [1390, 4927], 's_24_6': [426], 's_24_8': [1101], 's_24_21': [546], 's_24_26': [1496, 1495], 's_24_27': [1011], 's_24_28': [4896], 's_24_29': [984], 's_24_32': [4894], 's_24_34': [4367], 's_24_35': [1466], 's_24_37': [1271], 's_24_38': [4849], 's_24_39': [4160], 's_24_40': [535], 's_24_41': [1146], 's_24_42': [4261], 's_24_43': [4203], 's_24_44': [4291], 's_24_45': [4897], 's_25_1': [4295], 's_25_8': [1056, 4130], 's_25_13': [4970], 's_25_21': [1205], 's_25_26': [1225], 's_25_27': [3951], 's_25_28': [4806], 's_25_29': [1164], 's_25_31': [4386], 's_25_33': [5224, 942], 's_25_34': [1177], 's_25_35': [1063], 's_25_36': [1107], 's_25_38': [3815], 's_25_39': [4115], 's_25_40': [4804], 's_25_43': [1002], 's_25_44': [5270], 's_25_45': [673], 's_27_8': [1116], 's_27_21': [1266], 's_27_28': [938], 's_27_30': [2015], 's_27_31': [982], 's_27_32': [1836, 1835], 's_27_33': [1790], 's_27_34': [1222], 's_27_35': [1729], 's_27_37': [4296], 's_27_38': [4654], 's_27_39': [1684], 's_27_41': [1057], 's_27_42': [1133], 's_27_43': [4715], 's_27_45': [1324], 's_28_6': [4791], 's_28_8': [281, 5086], 's_28_13': [581], 's_28_21': [2077], 's_28_29': [1239], 's_28_32': [5059], 's_28_33': [251], 's_28_34': [2047], 's_28_35': [4986, 4987], 's_28_37': [5061], 's_28_38': [4415], 's_28_40': [941], 's_28_42': [1118], 's_28_43': [1257], 's_28_45': [1418], 's_29_1': [1494], 's_29_6': [1224], 's_29_8': [4696], 's_29_21': [4256], 's_29_30': [4420, 4421], 's_29_31': [4643], 's_29_32': [4510], 's_29_33': [4644], 's_29_35': [5362], 's_29_36': [2109, 4601], 's_29_37': [4822], 's_29_39': [4345], 's_29_40': [789], 's_29_41': [459], 's_29_42': [4645], 's_29_43': [849], 's_29_45': [5273], 's_30_6': [4985], 's_30_8': [4061], 's_30_13': [4726], 's_30_21': [4720], 's_30_26': [1930], 's_30_31': [4689], 's_30_33': [1137], 's_30_35': [4929], 's_30_37': [4940], 's_30_38': [999], 's_30_39': [4659], 's_30_40': [279], 's_30_41': [534], 's_30_42': [2034], 's_30_43': [730], 's_30_44': [4636], 's_30_45': [1615], 's_31_1': [3994], 's_31_6': [1072], 's_31_8': [891], 's_31_21': [2078], 's_31_33': [5064], 's_31_34': [4749], 's_31_35': [1753], 's_31_36': [5198, 1707], 's_31_37': [1463], 's_31_38': [3979], 's_31_39': [4704], 's_31_40': [1148], 's_31_41': [802], 's_31_43': [1663], 's_32_1': [1328], 's_32_13': [867], 's_32_21': [4119], 's_32_26': [4553], 's_32_33': [4284], 's_32_34': [4314], 's_32_35': [3984], 's_32_36': [762], 's_32_37': [4924], 's_32_38': [4729], 's_32_39': [4405], 's_32_40': [4939], 's_32_41': [832], 's_32_42': [848], 's_32_43': [4789], 's_32_44': [821], 's_32_45': [837], 's_33_1': [792], 's_33_6': [1197], 's_33_13': [5161, 5162], 's_33_21': [1791], 's_33_26': [4253, 4254], 's_33_35': [3789], 's_33_36': [567], 's_33_38': [1152], 's_33_39': [4449], 's_33_40': [1751], 's_33_41': [672], 's_33_43': [882], 's_33_44': [372], 's_33_45': [1632], 's_35_6': [5361], 's_35_8': [1671], 's_35_21': [4118], 's_35_26': [1705], 's_35_34': [1641], 's_35_36': [1377], 's_35_37': [1243], 's_35_38': [5374], 's_35_39': [4959], 's_35_40': [1676], 's_35_41': [4164], 's_35_42': [1883], 's_35_43': [5360], 's_35_44': [1108], 's_35_45': [1393], 's_36_1': [1392], 's_36_6': [1347], 's_36_8': [4966], 's_36_13': [460], 's_36_21': [4735, 4736, 2170], 's_36_34': [1674], 's_36_37': [1091], 's_36_40': [1076], 's_36_42': [4705], 's_36_43': [1287], 's_36_44': [971], 's_36_45': [1587], 's_38_6': [636], 's_38_8': [936], 's_38_21': [906], 's_38_37': [5135], 's_38_42': [4157], 's_38_43': [1077], 's_38_44': [5359], 's_39_6': [4265], 's_39_8': [1026], 's_39_21': [846], 's_39_26': [1597], 's_39_34': [3998], 's_39_37': [1673], 's_39_40': [1811], 's_39_41': [1731], 's_39_45': [1810], 's_40_1': [4445, 4444], 's_40_6': [5137, 1376], 's_40_13': [956], 's_40_21': [5035], 's_40_26': [355], 's_40_34': [908], 's_40_37': [1151], 's_40_42': [4535], 's_40_43': [4984], 's_40_44': [385], 's_40_45': [5032], 's_41_1': [4190], 's_41_6': [4307], 's_41_8': [666], 's_41_13': [4997], 's_41_21': [1701], 's_41_26': [1657], 's_41_34': [1642], 's_41_37': [1401], 's_41_42': [742], 's_41_43': [4503], 's_41_44': [384], 's_41_45': [1371], 's_42_1': [1464], 's_42_6': [4247, 562], 's_42_8': [726], 's_42_13': [4397], 's_42_21': [3931], 's_42_26': [1479], 's_42_34': [4248, 682], 's_42_37': [1703], 's_42_43': [4293], 's_42_45': [4870], 's_43_1': [913], 's_43_6': [1483], 's_43_8': [620], 's_43_21': [696], 's_43_26': [775], 's_43_34': [4368], 's_43_37': [1122], 's_43_44': [5209], 's_43_45': [1618], 's_44_6': [4746], 's_44_8': [4171], 's_44_13': [596], 's_44_26': [4801], 's_44_34': [383], 's_44_37': [4776], 's_1_6': [5227], 's_1_8': [1175], 's_1_13': [3932], 's_1_21': [995], 's_1_26': [4717], 's_1_34': [1372], 's_1_37': [5001], 's_1_45': [807], 's_6_8': [4305], 's_6_13': [337], 's_6_21': [531], 's_6_26': [1285, 4716], 's_6_45': [5331], 's_21_8': [591], 's_21_13': [425], 's_21_26': [4931], 's_21_34': [1566], 's_21_45': [4117], 's_37_13': [1015], 's_37_34': [1613], 's_37_45': [4747], 's_45_8': [1386], 's_45_13': [688], 's_45_26': [4237], 's_45_34': [3893], 's_8_26': [4711], 's_8_34': [1626], 's_13_26': [4816], 's_13_34': [4366], 's_26_34': [1492]}</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0.002725961538461538</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.001757512404528345</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>{0: [4144, 4143, 769, 770, 771], 2: [829, 530, 3871, 3872, 634, 3875, 3874, 3873], 3: [1039, 3754, 3751, 3753, 3752], 4: [697, 4055, 934, 742, 935, 936, 937, 4309, 4308], 5: [3588, 738, 3678, 741, 3677, 739, 3589, 740], 6: [4204, 891, 888, 889, 890], 8: [802, 801, 800, 3514, 797, 799, 3618, 798], 10: [3648, 918, 3649, 922, 921, 920, 919], 11: [335, 3904, 3903, 334, 3902, 3901], 12: [4021, 350, 3799, 3798, 349, 3796, 3797], 13: [3842, 605, 603, 3845, 3844, 3843, 604], 14: [678, 4189, 679, 4188, 680, 681], 15: [484, 3964, 3963, 485, 3961, 3962], 16: [847, 846, 843, 844, 845], 17: [876, 875, 873, 874], 18: [4114, 754, 757, 4113, 755, 756], 20: [379, 380, 3946, 3949, 3948, 3947], 21: [3811, 3750, 319, 3781, 3784, 3783, 3782], 23: [949, 950, 364, 3934, 3933, 3932, 365, 3931], 24: [3979, 727, 726, 724, 3978, 725], 25: [3695, 3694, 3691, 3692, 3693], 26: [529, 3812, 4219, 545, 4218, 546, 4112, 651], 30: [244, 3765, 3766, 3769, 544, 3768, 3767], 31: [4128, 696, 693, 695, 694], 32: [3572, 3574, 783, 787, 786, 784, 3573, 785], 34: [574, 575, 4069, 4068, 4248, 577, 576], 36: [828, 3724, 3721, 3722, 3723], 37: [711, 708, 3739, 3738, 710, 709], 38: [3706, 3710, 3707, 3709, 3708], 39: [3619, 862, 861, 858, 859, 860], 41: [409, 410, 3890, 3889, 3888, 3887], 43: [438, 4099, 439, 440, 4098, 4097, 4096], 44: [3994, 664, 3992, 665, 3993], 45: [3991, 4054, 4053, 4052, 425, 423, 424], 46: [4025, 394, 396, 4024, 395, 4023, 4022], 1: [304, 469, 3828, 3826, 3829, 3827], 9: [621, 620, 3665, 619, 618, 3664, 3663], 19: [682, 4262, 4263, 4264, 978, 979, 980, 981], 22: [3632, 4174, 589, 590, 4173, 666, 4127, 591], 27: [4159, 499, 500, 501, 4157, 4158], 28: [455, 3603, 3604, 3602, 453, 454], 35: [3916, 3813, 3917, 649, 3634, 3633, 648], 40: [4038, 4039, 4040, 993, 994, 4037, 3919, 965, 964], 29: [813, 3918, 816, 3814, 815, 814], 33: [3856, 3857, 3860, 3859, 3858], 42: [906, 4009, 514, 515, 4008, 4007], 7: [3977, 4084, 4082, 561, 559, 4083, 560]}</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.3816542766811929</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.03587813625683315</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>{0: [4144, 4143, 769, 770, 771], 2: [829, 530, 3871, 3872, 634, 3875, 3874, 3873], 3: [1039, 3754, 3751, 3753, 3752], 4: [697, 4055, 934, 742, 935, 936, 937, 4309, 4308], 5: [3588, 738, 3678, 741, 3677, 739, 3589, 740], 6: [4204, 891, 888, 889, 890], 8: [802, 801, 800, 3514, 797, 799, 3618, 798], 10: [3648, 918, 3649, 922, 921, 920, 919], 11: [335, 3904, 3903, 334, 3902, 3901], 12: [4021, 350, 3799, 3798, 349, 3796, 3797], 13: [3842, 605, 603, 3845, 3844, 3843, 604], 14: [678, 4189, 679, 4188, 680, 681], 15: [484, 3964, 3963, 485, 3961, 3962], 16: [847, 846, 843, 844, 845], 17: [876, 875, 873, 874], 18: [4114, 754, 757, 4113, 755, 756], 20: [379, 380, 3946, 3949, 3948, 3947], 21: [3811, 3750, 319, 3781, 3784, 3783, 3782], 23: [949, 950, 364, 3934, 3933, 3932, 365, 3931], 24: [3979, 727, 726, 724, 3978, 725], 25: [3695, 3694, 3691, 3692, 3693], 26: [529, 3812, 4219, 545, 4218, 546, 4112, 651], 30: [244, 3765, 3766, 3769, 544, 3768, 3767], 31: [4128, 696, 693, 695, 694], 32: [3572, 3574, 783, 787, 786, 784, 3573, 785], 34: [574, 575, 4069, 4068, 4248, 577, 576], 36: [828, 3724, 3721, 3722, 3723], 37: [711, 708, 3739, 3738, 710, 709], 38: [3706, 3710, 3707, 3709, 3708], 39: [3619, 862, 861, 858, 859, 860], 41: [409, 410, 3890, 3889, 3888, 3887], 43: [438, 4099, 439, 440, 4098, 4097, 4096], 44: [3994, 664, 3992, 665, 3993], 45: [3991, 4054, 4053, 4052, 425, 423, 424], 46: [4025, 394, 396, 4024, 395, 4023, 4022], 1: [304, 469, 3828, 3826, 3829, 3827], 9: [621, 620, 3665, 619, 618, 3664, 3663], 19: [682, 4262, 4263, 4264, 978, 979, 980, 981], 22: [3632, 4174, 589, 590, 4173, 666, 4127, 591], 27: [4159, 499, 500, 501, 4157, 4158], 28: [455, 3603, 3604, 3602, 453, 454], 35: [3916, 3813, 3917, 649, 3634, 3633, 648], 40: [4038, 4039, 4040, 993, 994, 4037, 3919, 965, 964], 29: [813, 3918, 816, 3814, 815, 814], 33: [3856, 3857, 3860, 3859, 3858], 42: [906, 4009, 514, 515, 4008, 4007], 7: [3977, 4084, 4082, 561, 559, 4083, 560]}</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0.3816542766811929</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.03587813625683315</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>{0: [4821, 4822, 4823, 4819, 1719, 1718, 4820, 2528, 4528, 1818, 1819, 3759, 1879, 1880, 4014, 1806, 4527, 4526, 4525, 4524, 1808, 1807], 2: [4540, 3403, 3509, 3773, 2597, 3774, 1909, 1910, 1911, 1928, 1927, 4269, 4270, 2598, 2599, 4570, 2600, 2601, 4273, 4272, 4093, 4271], 's_0_2': [4479], 3: [2273, 2374, 2375, 2376, 2377, 2378, 4512, 2182, 2183, 4511, 803, 4503, 4504, 4505, 4506, 4507, 4508, 4509, 4510], 's_0_3': [2318], 4: [3293, 3172, 3173, 1561, 1562, 4420, 4419, 1563, 1564, 1660, 1659, 4553, 1688, 1687, 1685, 1686, 3835, 3834, 3833, 1684], 's_0_4': [1674, 4658], 5: [2390, 2450, 1238, 1239, 4716, 4717, 4718, 1675, 4749, 4750, 4751, 3957, 3958, 2660, 2661, 2662, 2663, 2664, 4754, 4753, 4752], 's_0_5': [4808], 6: [4454, 4453, 2513, 2514, 3933, 3934, 2618, 995, 996, 997, 998, 4638, 4639, 4640, 4648, 4535, 4647, 4646, 4645, 3949, 4644, 4643, 4642, 4641], 's_0_6': [999], 8: [4405, 1906, 3515, 1972, 1907, 4018, 2270, 4167, 4152, 4151, 4150, 1157, 4017, 4060, 1971, 3941, 3940, 1970, 1969, 3516, 3517, 3518, 3519, 3520, 1968], 's_0_8': [1865], 10: [949, 950, 2554, 3875, 3876, 3877, 3878, 3879, 1775, 1776, 2555, 2556, 4138, 4137, 4136, 4135, 4134], 's_0_10': [1790], 11: [4736, 1661, 4737, 4974, 4975, 3305, 4976, 4977, 2366, 2365, 2364, 3306, 3307, 3308, 1622, 3428, 3429, 1877, 3535, 3536, 3537, 2363, 2362, 2361, 2360, 2359, 2358, 3522], 's_0_11': [2348], 12: [3657, 2200, 4227, 909, 908, 2297, 2298, 4369, 4370, 4371, 2299, 2300, 2301, 2302, 4377, 4372, 4373, 4374, 2199, 2198, 4376, 4375], 's_0_12': [1853], 13: [3584, 2718, 2494, 3494, 4219, 2389, 2388, 4189, 861, 2492, 3493, 3492, 2178, 3491, 3490, 2493, 3489, 3488, 3487, 3486, 3485, 3484, 4039, 860, 859, 858, 857, 3334], 's_0_13': [3504], 14: [4304, 1366, 784, 3783, 694, 693, 692, 691, 781, 2767, 2766, 2765, 4019, 3228, 3229, 3230, 3744, 3446, 3231, 3232, 3233, 3745, 3234, 3235, 3236, 2236, 2645, 2644, 3748, 3747, 3746, 2238, 2237], 's_0_14': [1878], 15: [3754, 1553, 4494, 3755, 4493, 3200, 4492, 4491, 1201, 1202, 1203, 1204, 1205, 1206, 4418, 4417, 1313, 4356, 1208, 1207], 's_0_15': [1763], 16: [3459, 1742, 773, 1591, 700, 699, 698, 3383, 1592, 1593, 4368, 697, 696, 695, 3978, 3979, 3980, 3981, 3982, 1594, 1595, 3983], 's_0_16': [4818], 17: [2380, 2379, 2476, 1568, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 1495, 1494, 4583, 4584, 4585, 4586, 4587, 4588], 's_0_17': [1480], 18: [1054, 3500, 3501, 1128, 4078, 2420, 1264, 1263, 1053, 3605, 3606, 3607, 1473, 1472, 3412, 3413, 2419, 3414, 3808, 3807, 3806, 3805, 1924, 3681, 1923, 3445, 1922], 's_0_18': [3549], 20: [4054, 876, 4581, 3372, 3371, 2147, 2148, 2149, 2150, 4046, 4045, 1147, 4309, 3373, 4310, 4311, 4312, 1477, 1476, 877, 4043, 1148, 4044], 's_0_20': [1851], 21: [3335, 2151, 4394, 1006, 1007, 1010, 4055, 4056, 4057, 2678, 2677, 2676, 1386, 1009, 4184, 2152, 4182, 4183, 4181, 4179, 1008, 4180, 4178, 4177], 's_0_21': [2573], 23: [3441, 4629, 1232, 4630, 1383, 3997, 1382, 1385, 1384, 1446, 1381, 4117, 4119, 3381, 4118, 4120, 2229, 4121, 2227, 2226, 2228, 4631], 's_0_23': [1809], 24: [1638, 1164, 1893, 1623, 3578, 3579, 4670, 3580, 3581, 3582, 3583, 2628, 2629, 2630, 2631, 4604, 4671, 4672, 2632, 4673, 4674, 4675, 2019, 4571, 4572, 4573, 4574, 2633], 's_0_24': [2333], 25: [4947, 1944, 1945, 1103, 1233, 2080, 4946, 4793, 1600, 4945, 886, 887, 4475, 4474, 3576, 3575, 3574, 4944, 4943, 4942, 4941, 4940, 985, 888, 889, 984, 983, 890, 891, 4174, 981, 982], 's_0_25': [1210], 26: [1854, 3278, 3279, 4495, 3923, 3924, 1832, 1960, 1959, 1833, 3922, 1834, 4602, 4601, 3894, 3895, 4600, 1989, 1988, 1987, 3893, 1986, 1835, 1836, 4075], 's_0_26': [3624], 30: [3611, 3612, 3995, 1101, 3719, 1102, 4338, 4339, 4340, 4341, 3613, 2583, 2584, 2585, 2586, 2587, 4348, 4347, 4342, 4343, 4344, 4345, 4346], 's_0_30': [2588], 31: [4484, 2693, 4544, 4543, 843, 3679, 3680, 1038, 1039, 1040, 1041, 4190, 4191, 4192, 2454, 2452, 4303, 4302, 2453, 4301, 4300, 4299, 4298, 4297, 1447], 's_0_31': [2438], 32: [3723, 2164, 3724, 3725, 3726, 1539, 3672, 1538, 1537, 1536, 1461, 1460, 3671, 4132, 3670, 3669, 1654, 3728, 3727, 1459], 's_0_32': [1554], 34: [2086, 2499, 2498, 2087, 3565, 3566, 3567, 2463, 2464, 939, 938, 4430, 2465, 2466, 2467, 2468, 4431, 4432, 1552, 4433, 4434, 4435, 4436, 4437, 4438], 's_0_34': [940], 36: [1795, 4615, 4613, 2647, 4318, 4317, 4316, 4614, 2104, 2105, 2106, 2107, 4315, 4313, 1942, 1794, 1793, 1792, 4314], 's_0_36': [4719], 37: [4762, 1113, 1112, 1352, 1351, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 4763, 4764, 4765, 4766, 2154, 2153, 4466, 4467, 2543, 4468, 2617, 2616, 2615, 2614, 2613, 2612, 3418, 3417, 2357], 's_0_37': [2558], 38: [3431, 4781, 2094, 2221, 4091, 2093, 4210, 2222, 2223, 2224, 2225, 4106, 2136, 4226, 2091, 4384, 4385, 4386, 4387, 4388, 4389, 4211, 1823, 4464, 4465, 2092], 's_0_38': [4404], 39: [3444, 1711, 3548, 1712, 1713, 1714, 1715, 1716, 4443, 4444, 4445, 4446, 4447, 4448, 1749, 1748, 4463, 1717], 's_0_39': [4599], 41: [4796, 2079, 3385, 1744, 2071, 3771, 3817, 2072, 2073, 1579, 3818, 1354, 3819, 3820, 4556, 2078, 2077, 2076, 2075, 2074, 3821], 's_0_41': [1789], 43: [1044, 1067, 1068, 1069, 712, 2020, 1883, 1884, 4735, 4734, 4733, 4732, 4731, 4730, 4729, 834, 4668, 729, 3710, 3709, 3708, 679, 680, 681, 682, 4398, 728], 's_0_43': [4824], 44: [829, 3852, 3851, 3850, 3849, 3848, 3844, 3845, 3847, 4537, 4536, 1284, 1283, 1282, 1281, 1280, 3846], 's_0_44': [1939], 45: [3869, 2723, 2722, 2721, 4333, 2527, 2526, 2673, 2674, 2675, 4034, 4033, 4032, 4031, 4490, 1088, 1086, 4025, 4026, 1087, 4027, 4028, 4029, 4030], 's_0_45': [1760], 46: [1866, 2512, 4274, 3682, 4248, 4249, 4250, 1309, 1310, 1311, 1312, 2692, 952, 4259, 4258, 4257, 4256, 4255, 4251, 4349, 4252, 4253, 4254], 's_0_46': [1822], 1: [3757, 3772, 1519, 1520, 4806, 1374, 3214, 961, 1373, 962, 1372, 1371, 3454, 3455, 1098, 1099, 1100, 3935, 3937, 3936, 1370], 's_2_1': [3758], 's_2_3': [2167], 's_2_4': [1864], 's_2_5': [4123], 's_2_8': [4195], 9: [4514, 709, 708, 3543, 3545, 1186, 3277, 3384, 3342, 3343, 3544, 1516, 1187, 3368, 3369, 1891, 3280, 3281, 3367, 3282, 3276, 2708, 2707, 2706, 2705, 2704, 2703, 2702, 3314, 3313, 2387], 's_2_9': [3404], 's_2_10': [3880], 's_2_11': [3462, 3463], 's_2_12': [4286], 's_2_13': [2687], 's_2_15': [1913], 's_2_17': [3433], 19: [3861, 1487, 1698, 1488, 1489, 1490, 3913, 1697, 2315, 3912, 3911, 2180, 3862, 3863, 3866, 3865, 1699, 3864], 's_2_19': [1894], 's_2_20': [2642], 's_2_21': [2197], 22: [4229, 2557, 4548, 2195, 2194, 4549, 4198, 4618, 1464, 2179, 3761, 3762, 2434, 2435, 2436, 4213, 2392, 2393, 2394, 4692, 4691, 4690, 4689, 4688, 4687, 4686, 4685, 1089, 4550], 's_2_22': [2196, 4001, 4000], 's_2_23': [1881], 's_2_24': [3674], 's_2_26': [2004], 27: [3740, 2525, 1608, 3523, 4012, 1141, 1400, 1399, 1398, 2523, 2524, 3704, 3703, 3290, 1082, 1083, 3590, 1173, 3702, 3701, 2014, 3640, 3636, 3637, 3638, 3639], 's_2_27': [3793], 28: [2057, 2058, 2060, 4838, 1629, 4089, 4073, 2059, 4090, 4088, 4568, 1598, 4567, 1597, 4098, 4099, 1630, 4100, 4102, 4101, 4103, 1596], 's_2_28': [1926], 's_2_34': [4003], 35: [1627, 1954, 848, 847, 4263, 4264, 4265, 4223, 1953, 1984, 3685, 4266, 4267, 1668, 3684, 1669, 1670, 1671, 4163, 1551], 's_2_35': [3790], 's_2_36': [2212], 's_2_39': [1729], 40: [3891, 3892, 1837, 1567, 1043, 1042, 4279, 4278, 757, 4323, 4324, 4326, 1777, 4329, 4328, 4327, 1432, 1431, 1430, 3204, 3203, 4325, 3202, 1426, 1427, 1428, 1732, 1429], 's_2_40': [4284], 's_2_41': [4555], 's_2_43': [4539], 's_2_44': [1774], 's_2_45': [3539], 's_2_46': [4240], 's_3_1': [1358], 's_3_5': [4521], 's_3_6': [1328], 's_3_8': [3987], 's_3_11': [2313, 3642], 's_3_12': [4451], 's_3_13': [3718], 's_3_15': [1418], 's_3_16': [743], 's_3_18': [3792], 's_3_19': [4002], 's_3_21': [4197], 's_3_22': [638], 's_3_23': [2184], 's_3_24': [2258], 's_3_25': [923], 's_3_26': [1898], 's_3_27': [3688], 's_3_28': [1508], 29: [1532, 3528, 1389, 3473, 3472, 3471, 723, 4656, 4655, 3667, 1104, 4565, 1236, 1322, 1323, 1324, 1325, 1326, 724, 725, 726, 4113, 4114, 1013, 1012, 1011, 4145, 4147, 4146], 's_3_29': [4657, 1434, 1433], 's_3_30': [2373], 's_3_31': [4497], 's_3_32': [4523], 33: [4354, 3563, 3562, 3561, 1277, 3336, 1247, 1248, 818, 817, 1250, 1249, 3786, 816, 815, 814, 3784, 3785], 's_3_33': [4623], 's_3_35': [4564], 's_3_36': [1943], 's_3_37': [2213], 's_3_38': [1973], 's_3_40': [1838], 's_3_41': [4196], 42: [1209, 1952, 3355, 3354, 3353, 4611, 4610, 968, 967, 3352, 3351, 966, 965, 964, 3799, 919, 1097, 3350, 3349, 917, 918], 's_3_42': [4609], 's_3_43': [804], 's_3_45': [1178], 's_3_46': [4408], 's_4_1': [1565], 's_4_5': [4794], 7: [1840, 3264, 1340, 1846, 1848, 1849, 1850, 4160, 4579, 4580, 3954, 3953, 3952, 3951, 4869, 4868, 4867, 4866, 1847, 4865, 1060, 1059, 1058, 1057, 1056, 3950, 1055], 's_4_7': [4883], 's_4_8': [2003], 's_4_9': [3116, 3114, 3113, 3117, 3115, 1545, 2386, 3187, 1441], 's_4_10': [4224], 's_4_11': [1546, 3338], 's_4_12': [1897], 's_4_13': [3503], 's_4_15': [3171], 's_4_16': [3158], 's_4_18': [3382], 's_4_20': [3836], 's_4_22': [3971, 3970, 2000], 's_4_24': [1637], 's_4_26': [1549], 's_4_27': [1578], 's_4_29': [3668], 's_4_30': [1702], 's_4_31': [1867], 's_4_32': [3653], 's_4_33': [1337, 1336, 1335], 's_4_34': [1958], 's_4_35': [3623], 's_4_36': [4779], 's_4_37': [1599, 4628], 's_4_38': [4209], 's_4_39': [3294], 's_4_40': [1500], 's_4_41': [1759], 's_4_42': [3263, 1681], 's_4_43': [4554], 's_4_44': [1640], 's_4_45': [1821, 4074], 's_4_46': [1701], 's_5_6': [2619], 's_5_7': [1855], 's_5_8': [2510], 's_5_9': [4199], 's_5_10': [2570, 3899], 's_5_11': [2259], 's_5_12': [2215], 's_5_13': [2495], 's_5_14': [2751, 4169], 's_5_15': [4551], 's_5_17': [4092], 's_5_18': [4079], 's_5_20': [3956], 's_5_21': [2679], 's_5_22': [4693, 2589], 's_5_24': [4064], 's_5_27': [2659], 's_5_28': [4853], 's_5_29': [1390, 4792, 1465], 's_5_30': [4049], 's_5_31': [2439], 's_5_34': [2469], 's_5_36': [4379], 's_5_37': [2544, 2545], 's_5_38': [2049], 's_5_39': [4461], 's_5_42': [4746], 's_5_43': [1194], 's_5_44': [1285], 's_5_45': [2724, 2725, 4769], 's_6_1': [1314, 4612], 's_6_7': [4595], 's_6_9': [4529], 's_6_10': [1025], 's_6_11': [2304], 's_6_13': [4637, 608, 607, 605, 4082, 606, 4083], 's_6_14': [2768, 4649], 's_6_16': [845], 's_6_17': [2423], 's_6_20': [1163], 's_6_21': [4559], 's_6_22': [2484], 's_6_23': [2289], 's_6_24': [2603], 's_6_25': [4084], 's_6_26': [2319], 's_6_28': [1644], 's_6_29': [4129], 's_6_32': [4627], 's_6_33': [3948], 's_6_34': [954], 's_6_36': [1703], 's_6_37': [4498], 's_6_39': [893, 894], 's_6_40': [1733], 's_6_42': [4489], 's_6_43': [710, 3993], 's_6_44': [4626], 's_6_46': [4205], 's_8_1': [933], 's_8_7': [3265], 's_8_9': [3295], 's_8_10': [2001], 's_8_11': [1862], 's_8_12': [4077], 's_8_13': [977], 's_8_14': [3219], 's_8_16': [3533], 's_8_17': [4168], 's_8_18': [3942], 's_8_19': [3910], 's_8_21': [2406], 's_8_24': [1803], 's_8_25': [3514], 's_8_27': [2015], 's_8_29': [3532, 1458], 's_8_30': [1912], 's_8_31': [3529, 3530], 's_8_32': [2165], 's_8_33': [1129, 3666, 1218], 's_8_35': [1788], 's_8_36': [4061], 's_8_37': [3470], 's_8_38': [2121], 's_8_39': [1653], 's_8_40': [4225], 's_8_41': [3925], 's_8_44': [2030], 's_8_45': [2541], 's_8_46': [1413], 's_10_7': [3965, 1130], 's_10_11': [4122], 's_10_12': [2286], 's_10_14': [3884], 's_10_16': [3984], 's_10_17': [3643], 's_10_18': [2569], 's_10_19': [3928], 's_10_22': [2331, 4212], 's_10_24': [3943], 's_10_27': [3838, 2509], 's_10_28': [2031], 's_10_29': [951], 's_10_30': [2256, 2257], 's_10_31': [3904], 's_10_34': [3988], 's_10_35': [4133], 's_10_36': [1791], 's_10_37': [3778], 's_10_38': [2211], 's_10_39': [3969], 's_10_40': [1295], 's_10_41': [1820], 's_10_42': [3964], 's_10_43': [934, 935], 's_10_44': [1265], 's_10_45': [2571], 's_10_46': [2421], 's_11_1': [1036], 's_11_7': [1690], 's_11_9': [1171], 's_11_12': [4392], 's_11_13': [1547], 's_11_14': [1246], 's_11_15': [1051], 's_11_16': [1772], 's_11_17': [4287], 's_11_19': [3897], 's_11_21': [3320], 's_11_22': [4662, 2409], 's_11_23': [1396], 's_11_26': [1961], 's_11_28': [1735], 's_11_29': [3502, 1412, 3397, 1577], 's_11_30': [4332], 's_11_31': [2455, 5007], 's_11_33': [1727], 's_11_34': [3732], 's_11_35': [1998, 3625], 's_11_38': [3507], 's_11_41': [3521], 's_11_42': [976], 's_11_43': [2021], 's_11_44': [2345], 's_11_45': [2346], 's_11_46': [2347], 's_12_7': [924], 's_12_9': [2296], 's_12_13': [3627], 's_12_14': [3447], 's_12_15': [1673], 's_12_16': [4429], 's_12_17': [4228], 's_12_19': [2316], 's_12_20': [3926], 's_12_21': [2241], 's_12_22': [3731], 's_12_23': [4826], 's_12_24': [2018], 's_12_25': [4871], 's_12_26': [2033], 's_12_27': [2284], 's_12_28': [4358], 's_12_30': [2317], 's_12_31': [2137], 's_12_32': [3687], 's_12_33': [832], 's_12_34': [1448], 's_12_35': [1628], 's_12_36': [2122], 's_12_38': [3432], 's_12_39': [1357], 's_12_41': [2214], 's_12_42': [4459], 's_12_45': [2285], 's_12_46': [1957], 's_13_1': [842], 's_13_7': [4159], 's_13_14': [946, 947, 3409, 3408], 's_13_15': [3753], 's_13_17': [2447, 3402], 's_13_19': [3868, 2449], 's_13_20': [3388, 2552], 's_13_21': [4220, 1026], 's_13_22': [3777, 2404], 's_13_23': [1397], 's_13_24': [3598], 's_13_25': [4144], 's_13_26': [3505], 's_13_27': [1172], 's_13_28': [846], 's_13_29': [3903], 's_13_30': [2538], 's_13_31': [3634], 's_13_32': [2163], 's_13_33': [3814], 's_13_34': [3461, 2208], 's_13_35': [785, 786], 's_13_37': [2312, 2311], 's_13_38': [2102], 's_13_39': [1682], 's_13_40': [4204], 's_13_41': [1967], 's_13_42': [4070, 4069], 's_13_43': [844], 's_13_44': [3859], 's_13_45': [3628, 3629], 's_13_46': [801], 's_14_7': [1726], 's_14_9': [3262, 3261, 3260, 3259, 901], 's_14_15': [1216], 's_14_16': [1741], 's_14_18': [1921], 's_14_19': [2119], 's_14_20': [3401, 2177], 's_14_21': [2782, 2781], 's_14_22': [3973, 3974, 3989], 's_14_24': [2448], 's_14_25': [782, 783, 3694], 's_14_26': [1876], 's_14_27': [2043], 's_14_29': [3663], 's_14_30': [2268], 's_14_31': [3678], 's_14_32': [2253], 's_14_33': [3291, 1321, 3246], 's_14_34': [3476], 's_14_35': [1804], 's_14_36': [2646], 's_14_38': [3266], 's_14_40': [1636], 's_14_42': [1861, 3249, 1756], 's_14_43': [3227, 647, 646, 648, 3722], 's_14_44': [2314], 's_14_45': [3839], 's_14_46': [4364], 's_15_1': [1220], 's_15_7': [4460], 's_15_9': [3215, 1096], 's_15_18': [3801], 's_15_20': [1192], 's_15_21': [4071], 's_15_23': [3201], 's_15_25': [3651], 's_15_26': [1868], 's_15_27': [1140], 's_15_28': [1221], 's_15_29': [3621], 's_15_32': [4477], 's_15_33': [1219], 's_15_34': [1658], 's_15_36': [1523], 's_15_38': [1463], 's_15_39': [1253], 's_15_40': [1237], 's_15_42': [3410], 's_15_43': [3711], 's_15_44': [1343], 's_15_45': [4280], 's_15_46': [4236], 's_16_7': [774], 's_16_9': [1652], 's_16_18': [1667], 's_16_19': [3908], 's_16_21': [980], 's_16_22': [4533], 's_16_23': [3998], 's_16_24': [3608], 's_16_25': [875], 's_16_26': [1415], 's_16_27': [1607], 's_16_28': [711], 's_16_29': [3888], 's_16_32': [1609], 's_16_33': [4128], 's_16_37': [1606], 's_16_38': [758], 's_16_39': [4458], 's_16_40': [3188], 's_16_41': [1445], 's_16_43': [714], 's_16_44': [755], 's_16_45': [1190], 's_16_46': [667], 's_17_7': [4880, 4881, 4882], 's_17_9': [2461], 's_17_18': [3898], 's_17_20': [2462], 's_17_21': [4589], 's_17_22': [4423], 's_17_23': [1824], 's_17_24': [3597], 's_17_26': [2349], 's_17_27': [3508], 's_17_28': [4778], 's_17_30': [3823], 's_17_32': [4807], 's_17_36': [1778], 's_17_37': [2303], 's_17_38': [2123], 's_17_39': [1583], 's_17_40': [1522, 4462], 's_17_41': [2169], 's_17_44': [1479], 's_17_45': [4153], 's_17_46': [4363], 's_18_1': [1022], 's_18_7': [3715], 's_18_9': [2012], 's_18_19': [2269], 's_18_21': [2511], 's_18_22': [3927], 's_18_24': [3809], 's_18_25': [948], 's_18_26': [3594], 's_18_27': [3635], 's_18_29': [3457], 's_18_30': [2418], 's_18_31': [993], 's_18_32': [2029], 's_18_34': [2042], 's_18_35': [1938], 's_18_36': [3791], 's_18_37': [1457], 's_18_39': [3804], 's_18_40': [1471], 's_18_41': [1982], 's_18_42': [1442], 's_18_43': [1052], 's_18_44': [2329], 's_18_46': [3741], 's_20_1': [4162], 's_20_7': [1745], 's_20_9': [2446], 's_20_19': [4047], 's_20_21': [4058], 's_20_23': [2166], 's_20_25': [878], 's_20_26': [1940], 's_20_27': [2134], 's_20_28': [1505], 's_20_29': [1146], 's_20_30': [2133], 's_20_31': [4221, 4222, 1117], 's_20_32': [3686], 's_20_33': [4308], 's_20_34': [1177], 's_20_35': [1462], 's_20_36': [2120], 's_20_37': [2507], 's_20_38': [3776], 's_20_39': [1730], 's_20_40': [1222], 's_20_41': [3656], 's_20_42': [4625], 's_20_44': [4566], 's_20_45': [1193], 's_20_46': [1132], 's_21_1': [4116], 's_21_9': [4124], 's_21_22': [2496], 's_21_23': [1521], 's_21_25': [3589], 's_21_27': [3620], 's_21_28': [1116], 's_21_30': [4010], 's_21_31': [1672], 's_21_32': [4193], 's_21_33': [4041, 1175], 's_21_34': [4439], 's_21_35': [1642], 's_21_37': [4424], 's_21_38': [4241], 's_21_40': [1731], 's_21_42': [3769, 994], 's_21_43': [3830], 's_21_45': [1296], 's_21_46': [2752], 's_23_1': [3456], 's_23_7': [1355], 's_23_9': [3247], 's_23_19': [3442], 's_23_24': [2109], 's_23_25': [2230], 's_23_26': [4617], 's_23_27': [3591], 's_23_29': [3396], 's_23_32': [3712], 's_23_33': [3411], 's_23_35': [1611], 's_23_36': [1779], 's_23_37': [1307], 's_23_40': [3697], 's_23_41': [4361], 's_23_43': [1974], 's_23_44': [3921], 's_23_45': [1656], 's_23_46': [1506], 's_24_7': [4700], 's_24_9': [4154], 's_24_22': [4619, 2709], 's_24_26': [1839], 's_24_27': [1639], 's_24_29': [1014, 4775, 4776], 's_24_30': [3614, 2658], 's_24_31': [4603], 's_24_32': [2118], 's_24_33': [1758], 's_24_34': [2343], 's_24_35': [1863], 's_24_36': [4659], 's_24_37': [1899, 4705], 's_24_38': [4660], 's_24_41': [2243], 's_24_42': [1254], 's_24_43': [1614], 's_24_44': [1269], 's_24_45': [4288], 's_24_46': [4244], 's_25_1': [872], 's_25_7': [4520], 's_25_9': [3573], 's_25_22': [1073], 's_25_26': [4720], 's_25_27': [1143], 's_25_28': [4839], 's_25_30': [3994], 's_25_31': [3619], 's_25_32': [1188], 's_25_34': [4699], 's_25_35': [922], 's_25_36': [4854], 's_25_38': [953], 's_25_39': [1133], 's_25_40': [1159, 1158], 's_25_41': [1234], 's_25_42': [3289], 's_25_43': [4795], 's_25_44': [874], 's_25_45': [4415], 's_26_1': [3907], 's_26_7': [4870], 's_26_9': [1531], 's_26_19': [1504], 's_26_27': [3700], 's_26_28': [1941], 's_26_31': [2047, 2048], 's_26_32': [1655], 's_26_34': [2108], 's_26_35': [1955], 's_26_37': [2139], 's_26_38': [4825], 's_26_39': [3609], 's_26_41': [4480], 's_26_42': [1501, 3217, 1576], 's_26_43': [4840], 's_26_44': [1625], 's_26_46': [2002], 's_30_1': [1160], 's_30_7': [4040], 's_30_9': [3689], 's_30_22': [4214], 's_30_27': [2508], 's_30_28': [1145], 's_30_29': [4115], 's_30_31': [2272], 's_30_32': [2283], 's_30_33': [862], 's_30_34': [2407], 's_30_35': [1297], 's_30_36': [2032], 's_30_37': [2602, 4409], 's_30_38': [1162], 's_30_39': [1507], 's_30_40': [637], 's_30_41': [4331], 's_30_42': [4235], 's_30_43': [727], 's_30_44': [4401, 1252], 's_30_45': [2437], 's_30_46': [2017], 's_31_1': [3815], 's_31_9': [873, 3664], 's_31_22': [4482], 's_31_28': [1251], 's_31_29': [1191], 's_31_32': [828], 's_31_33': [813], 's_31_34': [4393], 's_31_37': [4452], 's_31_39': [1341, 1342], 's_31_40': [4282, 4283, 1747], 's_31_42': [3649], 's_31_43': [3695], 's_31_44': [4207, 4206], 's_31_45': [2572], 's_32_1': [4042], 's_32_7': [1540], 's_32_19': [3967], 's_32_22': [2209], 's_32_29': [4131], 's_32_34': [3673], 's_32_35': [4208], 's_32_36': [4598], 's_32_37': [1114], 's_32_39': [3714], 's_32_40': [1416], 's_32_41': [1294], 's_32_42': [3800, 1084], 's_32_43': [3693, 739], 's_32_46': [1338], 's_34_7': [3564], 's_34_9': [4513], 's_34_27': [2417], 's_34_29': [4624], 's_34_33': [4534], 's_34_35': [3550], 's_34_36': [2062], 's_34_38': [1643], 's_34_39': [1327], 's_34_40': [937], 's_34_41': [4421], 's_34_42': [3400], 's_34_44': [4476, 1388], 's_34_45': [4063], 's_36_7': [4884], 's_36_22': [2542], 's_36_27': [3716], 's_36_35': [3775], 's_36_38': [1852], 's_36_39': [4239], 's_36_40': [1657], 's_36_43': [1764], 's_36_45': [2497], 's_36_46': [4319], 's_37_1': [1329], 's_37_7': [1810], 's_37_9': [3357, 2282], 's_37_19': [1696], 's_37_22': [2170, 4811, 2274], 's_37_27': [2432], 's_37_28': [1645], 's_37_29': [4747], 's_37_33': [3560], 's_37_38': [2185], 's_37_39': [3309], 's_37_40': [1411], 's_37_41': [2138], 's_37_42': [1262], 's_37_43': [1869], 's_37_45': [3644], 's_37_46': [4378], 's_38_1': [4402], 's_38_9': [2162], 's_38_19': [3882], 's_38_22': [3641], 's_38_27': [3717], 's_38_28': [4403], 's_38_40': [1582], 's_38_41': [2125], 's_38_42': [3430], 's_38_43': [4383], 's_38_44': [1268], 's_38_45': [2240], 's_38_46': [1072], 's_39_7': [863], 's_39_9': [1787], 's_39_19': [3547], 's_39_22': [713], 's_39_27': [1743], 's_39_28': [4569], 's_39_29': [3474], 's_39_33': [802, 4414], 's_39_40': [4359], 's_39_41': [3699], 's_39_42': [1802], 's_39_43': [593, 4442], 's_39_44': [1403], 's_39_45': [1118], 's_41_1': [3832], 's_41_7': [1805], 's_41_9': [2056], 's_41_19': [3743], 's_41_27': [2088], 's_41_28': [4105], 's_41_33': [3787], 's_41_35': [3730], 's_41_42': [1997], 's_41_43': [2035], 's_41_44': [2210], 's_41_45': [2090], 's_41_46': [3756], 's_43_1': [1270], 's_43_7': [4805, 1090], 's_43_9': [678, 3557, 3558, 3559, 992], 's_43_22': [1509], 's_43_27': [3380], 's_43_28': [4097], 's_43_29': [3858], 's_43_33': [819], 's_43_35': [4262], 's_43_40': [4188], 's_43_42': [3798], 's_43_46': [652, 651], 's_44_1': [1115], 's_44_7': [1085], 's_44_19': [1985], 's_44_22': [4702, 4701], 's_44_27': [1279], 's_44_28': [4538], 's_44_29': [3843], 's_44_33': [3816], 's_44_35': [4281], 's_44_40': [1174], 's_44_42': [920], 's_44_45': [1223], 's_44_46': [4011], 's_45_1': [1235], 's_45_7': [1895], 's_45_9': [4469], 's_45_22': [4048], 's_45_28': [1626], 's_45_29': [4400], 's_45_33': [4024], 's_45_35': [1641], 's_46_1': [4237], 's_46_7': [4072], 's_46_9': [4334], 's_46_19': [3683], 's_46_27': [1368], 's_46_28': [1612], 's_46_29': [1176], 's_46_35': [1027], 's_46_40': [1417], 's_46_42': [4294], 's_1_7': [3920], 's_1_19': [1475], 's_1_22': [1359], 's_1_28': [4582], 's_1_29': [1344], 's_1_33': [1144, 3770], 's_1_35': [1356], 's_1_40': [1414], 's_1_42': [3890], 's_9_7': [3310], 's_9_22': [3854, 3853], 's_9_29': [3738], 's_9_33': [3366], 's_9_40': [1936], 's_9_42': [1757], 's_9_27': [3524], 's_19_7': [1339], 's_19_27': [3652], 's_19_29': [1444, 3802], 's_19_40': [3427], 's_22_7': [759], 's_22_27': [2344], 's_22_28': [1299], 's_22_29': [4597], 's_22_33': [833], 's_22_35': [3760], 's_22_40': [1028], 's_22_42': [1029], 's_27_7': [3654], 's_27_35': [3593], 's_27_40': [3622], 's_27_42': [3365], 's_28_7': [1765], 's_28_29': [921], 's_28_33': [830], 's_28_35': [1550], 's_28_40': [1566], 's_35_7': [1161], 's_35_33': [4399], 's_35_42': [4519], 's_40_7': [3189, 1801], 's_40_29': [756], 's_40_33': [4234], 's_40_42': [3337], 's_29_7': [1105, 4835], 's_29_42': [1292, 3426], 's_33_42': [4009], 's_42_7': [1951, 3175, 1831]}</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.004137731481481481</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.002042545359226053</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>{0: [4821, 4822, 4823, 4819, 1719, 1718, 4820, 2528, 4528, 1818, 1819, 3759, 1879, 1880, 4014, 1806, 4527, 4526, 4525, 4524, 1808, 1807], 2: [4540, 3403, 3509, 3773, 2597, 3774, 1909, 1910, 1911, 1928, 1927, 4269, 4270, 2598, 2599, 4570, 2600, 2601, 4273, 4272, 4093, 4271], 's_0_2': [4479], 3: [2273, 2374, 2375, 2376, 2377, 2378, 4512, 2182, 2183, 4511, 803, 4503, 4504, 4505, 4506, 4507, 4508, 4509, 4510], 's_0_3': [2318], 4: [3293, 3172, 3173, 1561, 1562, 4420, 4419, 1563, 1564, 1660, 1659, 4553, 1688, 1687, 1685, 1686, 3835, 3834, 3833, 1684], 's_0_4': [1674, 4658], 5: [2390, 2450, 1238, 1239, 4716, 4717, 4718, 1675, 4749, 4750, 4751, 3957, 3958, 2660, 2661, 2662, 2663, 2664, 4754, 4753, 4752], 's_0_5': [4808], 6: [4454, 4453, 2513, 2514, 3933, 3934, 2618, 995, 996, 997, 998, 4638, 4639, 4640, 4648, 4535, 4647, 4646, 4645, 3949, 4644, 4643, 4642, 4641], 's_0_6': [999], 8: [4405, 1906, 3515, 1972, 1907, 4018, 2270, 4167, 4152, 4151, 4150, 1157, 4017, 4060, 1971, 3941, 3940, 1970, 1969, 3516, 3517, 3518, 3519, 3520, 1968], 's_0_8': [1865], 10: [949, 950, 2554, 3875, 3876, 3877, 3878, 3879, 1775, 1776, 2555, 2556, 4138, 4137, 4136, 4135, 4134], 's_0_10': [1790], 11: [4736, 1661, 4737, 4974, 4975, 3305, 4976, 4977, 2366, 2365, 2364, 3306, 3307, 3308, 1622, 3428, 3429, 1877, 3535, 3536, 3537, 2363, 2362, 2361, 2360, 2359, 2358, 3522], 's_0_11': [2348], 12: [3657, 2200, 4227, 909, 908, 2297, 2298, 4369, 4370, 4371, 2299, 2300, 2301, 2302, 4377, 4372, 4373, 4374, 2199, 2198, 4376, 4375], 's_0_12': [1853], 13: [3584, 2718, 2494, 3494, 4219, 2389, 2388, 4189, 861, 2492, 3493, 3492, 2178, 3491, 3490, 2493, 3489, 3488, 3487, 3486, 3485, 3484, 4039, 860, 859, 858, 857, 3334], 's_0_13': [3504], 14: [4304, 1366, 784, 3783, 694, 693, 692, 691, 781, 2767, 2766, 2765, 4019, 3228, 3229, 3230, 3744, 3446, 3231, 3232, 3233, 3745, 3234, 3235, 3236, 2236, 2645, 2644, 3748, 3747, 3746, 2238, 2237], 's_0_14': [1878], 15: [3754, 1553, 4494, 3755, 4493, 3200, 4492, 4491, 1201, 1202, 1203, 1204, 1205, 1206, 4418, 4417, 1313, 4356, 1208, 1207], 's_0_15': [1763], 16: [3459, 1742, 773, 1591, 700, 699, 698, 3383, 1592, 1593, 4368, 697, 696, 695, 3978, 3979, 3980, 3981, 3982, 1594, 1595, 3983], 's_0_16': [4818], 17: [2380, 2379, 2476, 1568, 2477, 2478, 2479, 2480, 2481, 2482, 2483, 1495, 1494, 4583, 4584, 4585, 4586, 4587, 4588], 's_0_17': [1480], 18: [1054, 3500, 3501, 1128, 4078, 2420, 1264, 1263, 1053, 3605, 3606, 3607, 1473, 1472, 3412, 3413, 2419, 3414, 3808, 3807, 3806, 3805, 1924, 3681, 1923, 3445, 1922], 's_0_18': [3549], 20: [4054, 876, 4581, 3372, 3371, 2147, 2148, 2149, 2150, 4046, 4045, 1147, 4309, 3373, 4310, 4311, 4312, 1477, 1476, 877, 4043, 1148, 4044], 's_0_20': [1851], 21: [3335, 2151, 4394, 1006, 1007, 1010, 4055, 4056, 4057, 2678, 2677, 2676, 1386, 1009, 4184, 2152, 4182, 4183, 4181, 4179, 1008, 4180, 4178, 4177], 's_0_21': [2573], 23: [3441, 4629, 1232, 4630, 1383, 3997, 1382, 1385, 1384, 1446, 1381, 4117, 4119, 3381, 4118, 4120, 2229, 4121, 2227, 2226, 2228, 4631], 's_0_23': [1809], 24: [1638, 1164, 1893, 1623, 3578, 3579, 4670, 3580, 3581, 3582, 3583, 2628, 2629, 2630, 2631, 4604, 4671, 4672, 2632, 4673, 4674, 4675, 2019, 4571, 4572, 4573, 4574, 2633], 's_0_24': [2333], 25: [4947, 1944, 1945, 1103, 1233, 2080, 4946, 4793, 1600, 4945, 886, 887, 4475, 4474, 3576, 3575, 3574, 4944, 4943, 4942, 4941, 4940, 985, 888, 889, 984, 983, 890, 891, 4174, 981, 982], 's_0_25': [1210], 26: [1854, 3278, 3279, 4495, 3923, 3924, 1832, 1960, 1959, 1833, 3922, 1834, 4602, 4601, 3894, 3895, 4600, 1989, 1988, 1987, 3893, 1986, 1835, 1836, 4075], 's_0_26': [3624], 30: [3611, 3612, 3995, 1101, 3719, 1102, 4338, 4339, 4340, 4341, 3613, 2583, 2584, 2585, 2586, 2587, 4348, 4347, 4342, 4343, 4344, 4345, 4346], 's_0_30': [2588], 31: [4484, 2693, 4544, 4543, 843, 3679, 3680, 1038, 1039, 1040, 1041, 4190, 4191, 4192, 2454, 2452, 4303, 4302, 2453, 4301, 4300, 4299, 4298, 4297, 1447], 's_0_31': [2438], 32: [3723, 2164, 3724, 3725, 3726, 1539, 3672, 1538, 1537, 1536, 1461, 1460, 3671, 4132, 3670, 3669, 1654, 3728, 3727, 1459], 's_0_32': [1554], 34: [2086, 2499, 2498, 2087, 3565, 3566, 3567, 2463, 2464, 939, 938, 4430, 2465, 2466, 2467, 2468, 4431, 4432, 1552, 4433, 4434, 4435, 4436, 4437, 4438], 's_0_34': [940], 36: [1795, 4615, 4613, 2647, 4318, 4317, 4316, 4614, 2104, 2105, 2106, 2107, 4315, 4313, 1942, 1794, 1793, 1792, 4314], 's_0_36': [4719], 37: [4762, 1113, 1112, 1352, 1351, 3321, 3322, 3323, 3324, 3325, 3326, 3327, 4763, 4764, 4765, 4766, 2154, 2153, 4466, 4467, 2543, 4468, 2617, 2616, 2615, 2614, 2613, 2612, 3418, 3417, 2357], 's_0_37': [2558], 38: [3431, 4781, 2094, 2221, 4091, 2093, 4210, 2222, 2223, 2224, 2225, 4106, 2136, 4226, 2091, 4384, 4385, 4386, 4387, 4388, 4389, 4211, 1823, 4464, 4465, 2092], 's_0_38': [4404], 39: [3444, 1711, 3548, 1712, 1713, 1714, 1715, 1716, 4443, 4444, 4445, 4446, 4447, 4448, 1749, 1748, 4463, 1717], 's_0_39': [4599], 41: [4796, 2079, 3385, 1744, 2071, 3771, 3817, 2072, 2073, 1579, 3818, 1354, 3819, 3820, 4556, 2078, 2077, 2076, 2075, 2074, 3821], 's_0_41': [1789], 43: [1044, 1067, 1068, 1069, 712, 2020, 1883, 1884, 4735, 4734, 4733, 4732, 4731, 4730, 4729, 834, 4668, 729, 3710, 3709, 3708, 679, 680, 681, 682, 4398, 728], 's_0_43': [4824], 44: [829, 3852, 3851, 3850, 3849, 3848, 3844, 3845, 3847, 4537, 4536, 1284, 1283, 1282, 1281, 1280, 3846], 's_0_44': [1939], 45: [3869, 2723, 2722, 2721, 4333, 2527, 2526, 2673, 2674, 2675, 4034, 4033, 4032, 4031, 4490, 1088, 1086, 4025, 4026, 1087, 4027, 4028, 4029, 4030], 's_0_45': [1760], 46: [1866, 2512, 4274, 3682, 4248, 4249, 4250, 1309, 1310, 1311, 1312, 2692, 952, 4259, 4258, 4257, 4256, 4255, 4251, 4349, 4252, 4253, 4254], 's_0_46': [1822], 1: [3757, 3772, 1519, 1520, 4806, 1374, 3214, 961, 1373, 962, 1372, 1371, 3454, 3455, 1098, 1099, 1100, 3935, 3937, 3936, 1370], 's_2_1': [3758], 's_2_3': [2167], 's_2_4': [1864], 's_2_5': [4123], 's_2_8': [4195], 9: [4514, 709, 708, 3543, 3545, 1186, 3277, 3384, 3342, 3343, 3544, 1516, 1187, 3368, 3369, 1891, 3280, 3281, 3367, 3282, 3276, 2708, 2707, 2706, 2705, 2704, 2703, 2702, 3314, 3313, 2387], 's_2_9': [3404], 's_2_10': [3880], 's_2_11': [3462, 3463], 's_2_12': [4286], 's_2_13': [2687], 's_2_15': [1913], 's_2_17': [3433], 19: [3861, 1487, 1698, 1488, 1489, 1490, 3913, 1697, 2315, 3912, 3911, 2180, 3862, 3863, 3866, 3865, 1699, 3864], 's_2_19': [1894], 's_2_20': [2642], 's_2_21': [2197], 22: [4229, 2557, 4548, 2195, 2194, 4549, 4198, 4618, 1464, 2179, 3761, 3762, 2434, 2435, 2436, 4213, 2392, 2393, 2394, 4692, 4691, 4690, 4689, 4688, 4687, 4686, 4685, 1089, 4550], 's_2_22': [2196, 4001, 4000], 's_2_23': [1881], 's_2_24': [3674], 's_2_26': [2004], 27: [3740, 2525, 1608, 3523, 4012, 1141, 1400, 1399, 1398, 2523, 2524, 3704, 3703, 3290, 1082, 1083, 3590, 1173, 3702, 3701, 2014, 3640, 3636, 3637, 3638, 3639], 's_2_27': [3793], 28: [2057, 2058, 2060, 4838, 1629, 4089, 4073, 2059, 4090, 4088, 4568, 1598, 4567, 1597, 4098, 4099, 1630, 4100, 4102, 4101, 4103, 1596], 's_2_28': [1926], 's_2_34': [4003], 35: [1627, 1954, 848, 847, 4263, 4264, 4265, 4223, 1953, 1984, 3685, 4266, 4267, 1668, 3684, 1669, 1670, 1671, 4163, 1551], 's_2_35': [3790], 's_2_36': [2212], 's_2_39': [1729], 40: [3891, 3892, 1837, 1567, 1043, 1042, 4279, 4278, 757, 4323, 4324, 4326, 1777, 4329, 4328, 4327, 1432, 1431, 1430, 3204, 3203, 4325, 3202, 1426, 1427, 1428, 1732, 1429], 's_2_40': [4284], 's_2_41': [4555], 's_2_43': [4539], 's_2_44': [1774], 's_2_45': [3539], 's_2_46': [4240], 's_3_1': [1358], 's_3_5': [4521], 's_3_6': [1328], 's_3_8': [3987], 's_3_11': [2313, 3642], 's_3_12': [4451], 's_3_13': [3718], 's_3_15': [1418], 's_3_16': [743], 's_3_18': [3792], 's_3_19': [4002], 's_3_21': [4197], 's_3_22': [638], 's_3_23': [2184], 's_3_24': [2258], 's_3_25': [923], 's_3_26': [1898], 's_3_27': [3688], 's_3_28': [1508], 29: [1532, 3528, 1389, 3473, 3472, 3471, 723, 4656, 4655, 3667, 1104, 4565, 1236, 1322, 1323, 1324, 1325, 1326, 724, 725, 726, 4113, 4114, 1013, 1012, 1011, 4145, 4147, 4146], 's_3_29': [4657, 1434, 1433], 's_3_30': [2373], 's_3_31': [4497], 's_3_32': [4523], 33: [4354, 3563, 3562, 3561, 1277, 3336, 1247, 1248, 818, 817, 1250, 1249, 3786, 816, 815, 814, 3784, 3785], 's_3_33': [4623], 's_3_35': [4564], 's_3_36': [1943], 's_3_37': [2213], 's_3_38': [1973], 's_3_40': [1838], 's_3_41': [4196], 42: [1209, 1952, 3355, 3354, 3353, 4611, 4610, 968, 967, 3352, 3351, 966, 965, 964, 3799, 919, 1097, 3350, 3349, 917, 918], 's_3_42': [4609], 's_3_43': [804], 's_3_45': [1178], 's_3_46': [4408], 's_4_1': [1565], 's_4_5': [4794], 7: [1840, 3264, 1340, 1846, 1848, 1849, 1850, 4160, 4579, 4580, 3954, 3953, 3952, 3951, 4869, 4868, 4867, 4866, 1847, 4865, 1060, 1059, 1058, 1057, 1056, 3950, 1055], 's_4_7': [4883], 's_4_8': [2003], 's_4_9': [3116, 3114, 3113, 3117, 3115, 1545, 2386, 3187, 1441], 's_4_10': [4224], 's_4_11': [1546, 3338], 's_4_12': [1897], 's_4_13': [3503], 's_4_15': [3171], 's_4_16': [3158], 's_4_18': [3382], 's_4_20': [3836], 's_4_22': [3971, 3970, 2000], 's_4_24': [1637], 's_4_26': [1549], 's_4_27': [1578], 's_4_29': [3668], 's_4_30': [1702], 's_4_31': [1867], 's_4_32': [3653], 's_4_33': [1337, 1336, 1335], 's_4_34': [1958], 's_4_35': [3623], 's_4_36': [4779], 's_4_37': [1599, 4628], 's_4_38': [4209], 's_4_39': [3294], 's_4_40': [1500], 's_4_41': [1759], 's_4_42': [3263, 1681], 's_4_43': [4554], 's_4_44': [1640], 's_4_45': [1821, 4074], 's_4_46': [1701], 's_5_6': [2619], 's_5_7': [1855], 's_5_8': [2510], 's_5_9': [4199], 's_5_10': [2570, 3899], 's_5_11': [2259], 's_5_12': [2215], 's_5_13': [2495], 's_5_14': [2751, 4169], 's_5_15': [4551], 's_5_17': [4092], 's_5_18': [4079], 's_5_20': [3956], 's_5_21': [2679], 's_5_22': [4693, 2589], 's_5_24': [4064], 's_5_27': [2659], 's_5_28': [4853], 's_5_29': [1390, 4792, 1465], 's_5_30': [4049], 's_5_31': [2439], 's_5_34': [2469], 's_5_36': [4379], 's_5_37': [2544, 2545], 's_5_38': [2049], 's_5_39': [4461], 's_5_42': [4746], 's_5_43': [1194], 's_5_44': [1285], 's_5_45': [2724, 2725, 4769], 's_6_1': [1314, 4612], 's_6_7': [4595], 's_6_9': [4529], 's_6_10': [1025], 's_6_11': [2304], 's_6_13': [4637, 608, 607, 605, 4082, 606, 4083], 's_6_14': [2768, 4649], 's_6_16': [845], 's_6_17': [2423], 's_6_20': [1163], 's_6_21': [4559], 's_6_22': [2484], 's_6_23': [2289], 's_6_24': [2603], 's_6_25': [4084], 's_6_26': [2319], 's_6_28': [1644], 's_6_29': [4129], 's_6_32': [4627], 's_6_33': [3948], 's_6_34': [954], 's_6_36': [1703], 's_6_37': [4498], 's_6_39': [893, 894], 's_6_40': [1733], 's_6_42': [4489], 's_6_43': [710, 3993], 's_6_44': [4626], 's_6_46': [4205], 's_8_1': [933], 's_8_7': [3265], 's_8_9': [3295], 's_8_10': [2001], 's_8_11': [1862], 's_8_12': [4077], 's_8_13': [977], 's_8_14': [3219], 's_8_16': [3533], 's_8_17': [4168], 's_8_18': [3942], 's_8_19': [3910], 's_8_21': [2406], 's_8_24': [1803], 's_8_25': [3514], 's_8_27': [2015], 's_8_29': [3532, 1458], 's_8_30': [1912], 's_8_31': [3529, 3530], 's_8_32': [2165], 's_8_33': [1129, 3666, 1218], 's_8_35': [1788], 's_8_36': [4061], 's_8_37': [3470], 's_8_38': [2121], 's_8_39': [1653], 's_8_40': [4225], 's_8_41': [3925], 's_8_44': [2030], 's_8_45': [2541], 's_8_46': [1413], 's_10_7': [3965, 1130], 's_10_11': [4122], 's_10_12': [2286], 's_10_14': [3884], 's_10_16': [3984], 's_10_17': [3643], 's_10_18': [2569], 's_10_19': [3928], 's_10_22': [2331, 4212], 's_10_24': [3943], 's_10_27': [3838, 2509], 's_10_28': [2031], 's_10_29': [951], 's_10_30': [2256, 2257], 's_10_31': [3904], 's_10_34': [3988], 's_10_35': [4133], 's_10_36': [1791], 's_10_37': [3778], 's_10_38': [2211], 's_10_39': [3969], 's_10_40': [1295], 's_10_41': [1820], 's_10_42': [3964], 's_10_43': [934, 935], 's_10_44': [1265], 's_10_45': [2571], 's_10_46': [2421], 's_11_1': [1036], 's_11_7': [1690], 's_11_9': [1171], 's_11_12': [4392], 's_11_13': [1547], 's_11_14': [1246], 's_11_15': [1051], 's_11_16': [1772], 's_11_17': [4287], 's_11_19': [3897], 's_11_21': [3320], 's_11_22': [4662, 2409], 's_11_23': [1396], 's_11_26': [1961], 's_11_28': [1735], 's_11_29': [3502, 1412, 3397, 1577], 's_11_30': [4332], 's_11_31': [2455, 5007], 's_11_33': [1727], 's_11_34': [3732], 's_11_35': [1998, 3625], 's_11_38': [3507], 's_11_41': [3521], 's_11_42': [976], 's_11_43': [2021], 's_11_44': [2345], 's_11_45': [2346], 's_11_46': [2347], 's_12_7': [924], 's_12_9': [2296], 's_12_13': [3627], 's_12_14': [3447], 's_12_15': [1673], 's_12_16': [4429], 's_12_17': [4228], 's_12_19': [2316], 's_12_20': [3926], 's_12_21': [2241], 's_12_22': [3731], 's_12_23': [4826], 's_12_24': [2018], 's_12_25': [4871], 's_12_26': [2033], 's_12_27': [2284], 's_12_28': [4358], 's_12_30': [2317], 's_12_31': [2137], 's_12_32': [3687], 's_12_33': [832], 's_12_34': [1448], 's_12_35': [1628], 's_12_36': [2122], 's_12_38': [3432], 's_12_39': [1357], 's_12_41': [2214], 's_12_42': [4459], 's_12_45': [2285], 's_12_46': [1957], 's_13_1': [842], 's_13_7': [4159], 's_13_14': [946, 947, 3409, 3408], 's_13_15': [3753], 's_13_17': [2447, 3402], 's_13_19': [3868, 2449], 's_13_20': [3388, 2552], 's_13_21': [4220, 1026], 's_13_22': [3777, 2404], 's_13_23': [1397], 's_13_24': [3598], 's_13_25': [4144], 's_13_26': [3505], 's_13_27': [1172], 's_13_28': [846], 's_13_29': [3903], 's_13_30': [2538], 's_13_31': [3634], 's_13_32': [2163], 's_13_33': [3814], 's_13_34': [3461, 2208], 's_13_35': [785, 786], 's_13_37': [2312, 2311], 's_13_38': [2102], 's_13_39': [1682], 's_13_40': [4204], 's_13_41': [1967], 's_13_42': [4070, 4069], 's_13_43': [844], 's_13_44': [3859], 's_13_45': [3628, 3629], 's_13_46': [801], 's_14_7': [1726], 's_14_9': [3262, 3261, 3260, 3259, 901], 's_14_15': [1216], 's_14_16': [1741], 's_14_18': [1921], 's_14_19': [2119], 's_14_20': [3401, 2177], 's_14_21': [2782, 2781], 's_14_22': [3973, 3974, 3989], 's_14_24': [2448], 's_14_25': [782, 783, 3694], 's_14_26': [1876], 's_14_27': [2043], 's_14_29': [3663], 's_14_30': [2268], 's_14_31': [3678], 's_14_32': [2253], 's_14_33': [3291, 1321, 3246], 's_14_34': [3476], 's_14_35': [1804], 's_14_36': [2646], 's_14_38': [3266], 's_14_40': [1636], 's_14_42': [1861, 3249, 1756], 's_14_43': [3227, 647, 646, 648, 3722], 's_14_44': [2314], 's_14_45': [3839], 's_14_46': [4364], 's_15_1': [1220], 's_15_7': [4460], 's_15_9': [3215, 1096], 's_15_18': [3801], 's_15_20': [1192], 's_15_21': [4071], 's_15_23': [3201], 's_15_25': [3651], 's_15_26': [1868], 's_15_27': [1140], 's_15_28': [1221], 's_15_29': [3621], 's_15_32': [4477], 's_15_33': [1219], 's_15_34': [1658], 's_15_36': [1523], 's_15_38': [1463], 's_15_39': [1253], 's_15_40': [1237], 's_15_42': [3410], 's_15_43': [3711], 's_15_44': [1343], 's_15_45': [4280], 's_15_46': [4236], 's_16_7': [774], 's_16_9': [1652], 's_16_18': [1667], 's_16_19': [3908], 's_16_21': [980], 's_16_22': [4533], 's_16_23': [3998], 's_16_24': [3608], 's_16_25': [875], 's_16_26': [1415], 's_16_27': [1607], 's_16_28': [711], 's_16_29': [3888], 's_16_32': [1609], 's_16_33': [4128], 's_16_37': [1606], 's_16_38': [758], 's_16_39': [4458], 's_16_40': [3188], 's_16_41': [1445], 's_16_43': [714], 's_16_44': [755], 's_16_45': [1190], 's_16_46': [667], 's_17_7': [4880, 4881, 4882], 's_17_9': [2461], 's_17_18': [3898], 's_17_20': [2462], 's_17_21': [4589], 's_17_22': [4423], 's_17_23': [1824], 's_17_24': [3597], 's_17_26': [2349], 's_17_27': [3508], 's_17_28': [4778], 's_17_30': [3823], 's_17_32': [4807], 's_17_36': [1778], 's_17_37': [2303], 's_17_38': [2123], 's_17_39': [1583], 's_17_40': [1522, 4462], 's_17_41': [2169], 's_17_44': [1479], 's_17_45': [4153], 's_17_46': [4363], 's_18_1': [1022], 's_18_7': [3715], 's_18_9': [2012], 's_18_19': [2269], 's_18_21': [2511], 's_18_22': [3927], 's_18_24': [3809], 's_18_25': [948], 's_18_26': [3594], 's_18_27': [3635], 's_18_29': [3457], 's_18_30': [2418], 's_18_31': [993], 's_18_32': [2029], 's_18_34': [2042], 's_18_35': [1938], 's_18_36': [3791], 's_18_37': [1457], 's_18_39': [3804], 's_18_40': [1471], 's_18_41': [1982], 's_18_42': [1442], 's_18_43': [1052], 's_18_44': [2329], 's_18_46': [3741], 's_20_1': [4162], 's_20_7': [1745], 's_20_9': [2446], 's_20_19': [4047], 's_20_21': [4058], 's_20_23': [2166], 's_20_25': [878], 's_20_26': [1940], 's_20_27': [2134], 's_20_28': [1505], 's_20_29': [1146], 's_20_30': [2133], 's_20_31': [4221, 4222, 1117], 's_20_32': [3686], 's_20_33': [4308], 's_20_34': [1177], 's_20_35': [1462], 's_20_36': [2120], 's_20_37': [2507], 's_20_38': [3776], 's_20_39': [1730], 's_20_40': [1222], 's_20_41': [3656], 's_20_42': [4625], 's_20_44': [4566], 's_20_45': [1193], 's_20_46': [1132], 's_21_1': [4116], 's_21_9': [4124], 's_21_22': [2496], 's_21_23': [1521], 's_21_25': [3589], 's_21_27': [3620], 's_21_28': [1116], 's_21_30': [4010], 's_21_31': [1672], 's_21_32': [4193], 's_21_33': [4041, 1175], 's_21_34': [4439], 's_21_35': [1642], 's_21_37': [4424], 's_21_38': [4241], 's_21_40': [1731], 's_21_42': [3769, 994], 's_21_43': [3830], 's_21_45': [1296], 's_21_46': [2752], 's_23_1': [3456], 's_23_7': [1355], 's_23_9': [3247], 's_23_19': [3442], 's_23_24': [2109], 's_23_25': [2230], 's_23_26': [4617], 's_23_27': [3591], 's_23_29': [3396], 's_23_32': [3712], 's_23_33': [3411], 's_23_35': [1611], 's_23_36': [1779], 's_23_37': [1307], 's_23_40': [3697], 's_23_41': [4361], 's_23_43': [1974], 's_23_44': [3921], 's_23_45': [1656], 's_23_46': [1506], 's_24_7': [4700], 's_24_9': [4154], 's_24_22': [4619, 2709], 's_24_26': [1839], 's_24_27': [1639], 's_24_29': [1014, 4775, 4776], 's_24_30': [3614, 2658], 's_24_31': [4603], 's_24_32': [2118], 's_24_33': [1758], 's_24_34': [2343], 's_24_35': [1863], 's_24_36': [4659], 's_24_37': [1899, 4705], 's_24_38': [4660], 's_24_41': [2243], 's_24_42': [1254], 's_24_43': [1614], 's_24_44': [1269], 's_24_45': [4288], 's_24_46': [4244], 's_25_1': [872], 's_25_7': [4520], 's_25_9': [3573], 's_25_22': [1073], 's_25_26': [4720], 's_25_27': [1143], 's_25_28': [4839], 's_25_30': [3994], 's_25_31': [3619], 's_25_32': [1188], 's_25_34': [4699], 's_25_35': [922], 's_25_36': [4854], 's_25_38': [953], 's_25_39': [1133], 's_25_40': [1159, 1158], 's_25_41': [1234], 's_25_42': [3289], 's_25_43': [4795], 's_25_44': [874], 's_25_45': [4415], 's_26_1': [3907], 's_26_7': [4870], 's_26_9': [1531], 's_26_19': [1504], 's_26_27': [3700], 's_26_28': [1941], 's_26_31': [2047, 2048], 's_26_32': [1655], 's_26_34': [2108], 's_26_35': [1955], 's_26_37': [2139], 's_26_38': [4825], 's_26_39': [3609], 's_26_41': [4480], 's_26_42': [1501, 3217, 1576], 's_26_43': [4840], 's_26_44': [1625], 's_26_46': [2002], 's_30_1': [1160], 's_30_7': [4040], 's_30_9': [3689], 's_30_22': [4214], 's_30_27': [2508], 's_30_28': [1145], 's_30_29': [4115], 's_30_31': [2272], 's_30_32': [2283], 's_30_33': [862], 's_30_34': [2407], 's_30_35': [1297], 's_30_36': [2032], 's_30_37': [2602, 4409], 's_30_38': [1162], 's_30_39': [1507], 's_30_40': [637], 's_30_41': [4331], 's_30_42': [4235], 's_30_43': [727], 's_30_44': [4401, 1252], 's_30_45': [2437], 's_30_46': [2017], 's_31_1': [3815], 's_31_9': [873, 3664], 's_31_22': [4482], 's_31_28': [1251], 's_31_29': [1191], 's_31_32': [828], 's_31_33': [813], 's_31_34': [4393], 's_31_37': [4452], 's_31_39': [1341, 1342], 's_31_40': [4282, 4283, 1747], 's_31_42': [3649], 's_31_43': [3695], 's_31_44': [4207, 4206], 's_31_45': [2572], 's_32_1': [4042], 's_32_7': [1540], 's_32_19': [3967], 's_32_22': [2209], 's_32_29': [4131], 's_32_34': [3673], 's_32_35': [4208], 's_32_36': [4598], 's_32_37': [1114], 's_32_39': [3714], 's_32_40': [1416], 's_32_41': [1294], 's_32_42': [3800, 1084], 's_32_43': [3693, 739], 's_32_46': [1338], 's_34_7': [3564], 's_34_9': [4513], 's_34_27': [2417], 's_34_29': [4624], 's_34_33': [4534], 's_34_35': [3550], 's_34_36': [2062], 's_34_38': [1643], 's_34_39': [1327], 's_34_40': [937], 's_34_41': [4421], 's_34_42': [3400], 's_34_44': [4476, 1388], 's_34_45': [4063], 's_36_7': [4884], 's_36_22': [2542], 's_36_27': [3716], 's_36_35': [3775], 's_36_38': [1852], 's_36_39': [4239], 's_36_40': [1657], 's_36_43': [1764], 's_36_45': [2497], 's_36_46': [4319], 's_37_1': [1329], 's_37_7': [1810], 's_37_9': [3357, 2282], 's_37_19': [1696], 's_37_22': [2170, 4811, 2274], 's_37_27': [2432], 's_37_28': [1645], 's_37_29': [4747], 's_37_33': [3560], 's_37_38': [2185], 's_37_39': [3309], 's_37_40': [1411], 's_37_41': [2138], 's_37_42': [1262], 's_37_43': [1869], 's_37_45': [3644], 's_37_46': [4378], 's_38_1': [4402], 's_38_9': [2162], 's_38_19': [3882], 's_38_22': [3641], 's_38_27': [3717], 's_38_28': [4403], 's_38_40': [1582], 's_38_41': [2125], 's_38_42': [3430], 's_38_43': [4383], 's_38_44': [1268], 's_38_45': [2240], 's_38_46': [1072], 's_39_7': [863], 's_39_9': [1787], 's_39_19': [3547], 's_39_22': [713], 's_39_27': [1743], 's_39_28': [4569], 's_39_29': [3474], 's_39_33': [802, 4414], 's_39_40': [4359], 's_39_41': [3699], 's_39_42': [1802], 's_39_43': [593, 4442], 's_39_44': [1403], 's_39_45': [1118], 's_41_1': [3832], 's_41_7': [1805], 's_41_9': [2056], 's_41_19': [3743], 's_41_27': [2088], 's_41_28': [4105], 's_41_33': [3787], 's_41_35': [3730], 's_41_42': [1997], 's_41_43': [2035], 's_41_44': [2210], 's_41_45': [2090], 's_41_46': [3756], 's_43_1': [1270], 's_43_7': [4805, 1090], 's_43_9': [678, 3557, 3558, 3559, 992], 's_43_22': [1509], 's_43_27': [3380], 's_43_28': [4097], 's_43_29': [3858], 's_43_33': [819], 's_43_35': [4262], 's_43_40': [4188], 's_43_42': [3798], 's_43_46': [652, 651], 's_44_1': [1115], 's_44_7': [1085], 's_44_19': [1985], 's_44_22': [4702, 4701], 's_44_27': [1279], 's_44_28': [4538], 's_44_29': [3843], 's_44_33': [3816], 's_44_35': [4281], 's_44_40': [1174], 's_44_42': [920], 's_44_45': [1223], 's_44_46': [4011], 's_45_1': [1235], 's_45_7': [1895], 's_45_9': [4469], 's_45_22': [4048], 's_45_28': [1626], 's_45_29': [4400], 's_45_33': [4024], 's_45_35': [1641], 's_46_1': [4237], 's_46_7': [4072], 's_46_9': [4334], 's_46_19': [3683], 's_46_27': [1368], 's_46_28': [1612], 's_46_29': [1176], 's_46_35': [1027], 's_46_40': [1417], 's_46_42': [4294], 's_1_7': [3920], 's_1_19': [1475], 's_1_22': [1359], 's_1_28': [4582], 's_1_29': [1344], 's_1_33': [1144, 3770], 's_1_35': [1356], 's_1_40': [1414], 's_1_42': [3890], 's_9_7': [3310], 's_9_22': [3854, 3853], 's_9_29': [3738], 's_9_33': [3366], 's_9_40': [1936], 's_9_42': [1757], 's_9_27': [3524], 's_19_7': [1339], 's_19_27': [3652], 's_19_29': [1444, 3802], 's_19_40': [3427], 's_22_7': [759], 's_22_27': [2344], 's_22_28': [1299], 's_22_29': [4597], 's_22_33': [833], 's_22_35': [3760], 's_22_40': [1028], 's_22_42': [1029], 's_27_7': [3654], 's_27_35': [3593], 's_27_40': [3622], 's_27_42': [3365], 's_28_7': [1765], 's_28_29': [921], 's_28_33': [830], 's_28_35': [1550], 's_28_40': [1566], 's_35_7': [1161], 's_35_33': [4399], 's_35_42': [4519], 's_40_7': [3189, 1801], 's_40_29': [756], 's_40_33': [4234], 's_40_42': [3337], 's_29_7': [1105, 4835], 's_29_42': [1292, 3426], 's_33_42': [4009], 's_42_7': [1951, 3175, 1831]}</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0.004137731481481481</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.002042545359226053</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>{0: [1590, 3172, 1593, 3173, 1592, 1591], 2: [3080, 3081, 3037, 1502, 1501, 1500, 3082], 3: [1112, 1232, 2978, 2977, 2976, 1230, 1231, 3290, 3291], 4: [932, 3320, 3324, 3323, 3321, 3322], 6: [3667, 1428, 1425, 1426, 1427], 7: [3188, 3156, 1248, 1247, 3187, 3186, 1246], 8: [1414, 1410, 1411, 3562, 1413, 1412], 11: [3548, 1489, 3547, 1486, 1487, 1488], 12: [3276, 3398, 1263, 1261, 1262, 3397, 3396], 13: [3590, 3593, 3592, 1366, 1367, 1368, 3591], 14: [3143, 1293, 1292, 1291, 3142], 15: [1455, 1459, 1458, 1456, 1457], 16: [3158, 1620, 1624, 1621, 1623, 1622], 18: [3293, 3470, 1113, 1531, 1532, 3531, 3532, 3533], 19: [3023, 1563, 3022, 1560, 3473, 1562, 1561], 22: [1005, 3530, 1006, 3518, 3517, 3516, 3515, 1007], 24: [1294, 3203, 3712, 3713, 1636, 1637, 1638, 1639], 25: [1080, 1081, 3578, 3577, 3576, 1082, 1083, 3575], 26: [1712, 1697, 947, 3409, 3410, 3413, 3412, 3411], 28: [3354, 3353, 3350, 3351, 3352], 29: [3309, 1097, 3305, 3306, 3308, 3307], 30: [3364, 1126, 3368, 1127, 3367, 3365, 3366], 31: [1696, 3248, 3245, 3246, 3247], 32: [3214, 3218, 3217, 3215, 1321, 3216], 33: [3052, 3053, 1608, 1607, 1606, 1605], 36: [3489, 1066, 1067, 3485, 3486, 3488, 3487], 38: [1141, 991, 1022, 3338, 3335, 3336, 3337], 39: [3007, 1578, 1577, 1576, 1575], 40: [1711, 3383, 3382, 3379, 3380, 3381], 43: [1474, 3608, 1470, 1471, 3607, 1473, 1472], 44: [1053, 1052, 1530, 3202, 3201, 3200, 1051], 45: [3683, 3682, 1338, 1335, 1336, 1337], 47: [3545, 1200, 1201, 3638, 3637, 1202, 3636, 1203], 5: [1668, 1396, 3458, 3456, 1397, 3457], 9: [1485, 3035, 3036, 1353, 1352, 1351, 1350, 3067], 10: [1275, 3623, 1276, 3622, 3621, 1277, 1278, 3606], 17: [1187, 1186, 1185, 3125, 3128, 3127, 1111, 3126], 20: [3534, 1065, 1653, 1652, 3095, 3096, 3097, 1651, 3098], 21: [3424, 3428, 3427, 3425, 3426], 27: [3050, 3113, 3112, 3111, 1218, 1217, 1216, 1215], 34: [3068, 3727, 1548, 1545, 1547, 1546], 35: [1037, 1036, 3500, 3503, 1157, 3502, 3501], 41: [1172, 1171, 3263, 3262, 3260, 3261], 42: [1306, 1322, 3443, 1307, 3441, 3442], 23: [1440, 1441, 1444, 1443, 1442], 37: [3230, 1682, 3231, 3232, 3233, 1681], 46: [1383, 1380, 3278, 3277, 1382, 1381], 1: [3668, 1518, 1515, 3472, 1516, 1517]}</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.3501418084751418</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.03733136061538424</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>{0: [1590, 3172, 1593, 3173, 1592, 1591], 2: [3080, 3081, 3037, 1502, 1501, 1500, 3082], 3: [1112, 1232, 2978, 2977, 2976, 1230, 1231, 3290, 3291], 4: [932, 3320, 3324, 3323, 3321, 3322], 6: [3667, 1428, 1425, 1426, 1427], 7: [3188, 3156, 1248, 1247, 3187, 3186, 1246], 8: [1414, 1410, 1411, 3562, 1413, 1412], 11: [3548, 1489, 3547, 1486, 1487, 1488], 12: [3276, 3398, 1263, 1261, 1262, 3397, 3396], 13: [3590, 3593, 3592, 1366, 1367, 1368, 3591], 14: [3143, 1293, 1292, 1291, 3142], 15: [1455, 1459, 1458, 1456, 1457], 16: [3158, 1620, 1624, 1621, 1623, 1622], 18: [3293, 3470, 1113, 1531, 1532, 3531, 3532, 3533], 19: [3023, 1563, 3022, 1560, 3473, 1562, 1561], 22: [1005, 3530, 1006, 3518, 3517, 3516, 3515, 1007], 24: [1294, 3203, 3712, 3713, 1636, 1637, 1638, 1639], 25: [1080, 1081, 3578, 3577, 3576, 1082, 1083, 3575], 26: [1712, 1697, 947, 3409, 3410, 3413, 3412, 3411], 28: [3354, 3353, 3350, 3351, 3352], 29: [3309, 1097, 3305, 3306, 3308, 3307], 30: [3364, 1126, 3368, 1127, 3367, 3365, 3366], 31: [1696, 3248, 3245, 3246, 3247], 32: [3214, 3218, 3217, 3215, 1321, 3216], 33: [3052, 3053, 1608, 1607, 1606, 1605], 36: [3489, 1066, 1067, 3485, 3486, 3488, 3487], 38: [1141, 991, 1022, 3338, 3335, 3336, 3337], 39: [3007, 1578, 1577, 1576, 1575], 40: [1711, 3383, 3382, 3379, 3380, 3381], 43: [1474, 3608, 1470, 1471, 3607, 1473, 1472], 44: [1053, 1052, 1530, 3202, 3201, 3200, 1051], 45: [3683, 3682, 1338, 1335, 1336, 1337], 47: [3545, 1200, 1201, 3638, 3637, 1202, 3636, 1203], 5: [1668, 1396, 3458, 3456, 1397, 3457], 9: [1485, 3035, 3036, 1353, 1352, 1351, 1350, 3067], 10: [1275, 3623, 1276, 3622, 3621, 1277, 1278, 3606], 17: [1187, 1186, 1185, 3125, 3128, 3127, 1111, 3126], 20: [3534, 1065, 1653, 1652, 3095, 3096, 3097, 1651, 3098], 21: [3424, 3428, 3427, 3425, 3426], 27: [3050, 3113, 3112, 3111, 1218, 1217, 1216, 1215], 34: [3068, 3727, 1548, 1545, 1547, 1546], 35: [1037, 1036, 3500, 3503, 1157, 3502, 3501], 41: [1172, 1171, 3263, 3262, 3260, 3261], 42: [1306, 1322, 3443, 1307, 3441, 3442], 23: [1440, 1441, 1444, 1443, 1442], 37: [3230, 1682, 3231, 3232, 3233, 1681], 46: [1383, 1380, 3278, 3277, 1382, 1381], 1: [3668, 1518, 1515, 3472, 1516, 1517]}</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0.3501418084751418</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.03733136061538424</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>{0: [1135, 4010, 571, 4715, 3528, 1029, 1028, 3901, 1027, 572, 573, 3900, 574, 575, 3902, 3903, 4175, 1026, 1025, 3904], 2: [3473, 4621, 1104, 3757, 578, 4620, 579, 4622, 4624, 4625, 4626, 1358, 1547, 1548, 4623, 1549, 1550, 3998, 1656, 1657, 1658, 4523, 4522], 's_0_2': [4685], 3: [3512, 3511, 242, 4300, 4299, 3706, 243, 245, 246, 247, 4455, 244, 4456, 4457, 4458, 832, 4324, 4325, 4326, 4327, 4328, 1702, 4298], 's_0_3': [3527], 4: [4443, 4957, 4956, 4695, 4955, 4696, 3438, 970, 678, 679, 3828, 3829, 3830, 1144, 4697, 4698, 4699, 969, 968, 967, 4444, 677, 4445, 1145, 1146, 1147], 's_0_4': [3827], 6: [366, 1613, 1748, 1747, 4111, 4112, 4113, 4176, 4114, 1086, 4115, 1192, 4493, 4241, 4240, 4239, 4238, 4237, 4236, 1191], 's_0_6': [1011], 7: [1471, 346, 1894, 1893, 758, 1892, 1891, 4353, 4352, 4351, 4350, 157, 156, 155, 154, 153, 152, 151, 3210, 3219, 3218, 3217, 3216, 3215, 3214, 3213, 3212, 3211], 's_0_7': [170], 8: [3803, 1699, 1250, 3908, 1595, 860, 4538, 1629, 1628, 4036, 1627, 1626, 4043, 440, 4037, 4038, 4039, 4040, 4041, 4042], 's_0_8': [665], 11: [305, 3960, 3961, 3970, 1190, 3962, 3963, 3964, 3969, 3968, 3967, 3966, 3965], 's_0_11': [200], 12: [4757, 459, 3530, 1598, 4682, 4463, 4462, 4461, 4460, 1051, 1053, 1054, 1056, 1052, 953, 4400, 1057, 1059, 4745, 4744, 1058, 4683, 4684, 1055, 849], 's_0_12': [4415], 13: [3405, 996, 3406, 3407, 3408, 827, 828, 3619, 1852, 1851, 1850, 1849, 1848, 3459, 3458, 3457, 1397, 3380, 3379, 932, 995, 994, 3754, 934, 3381, 933], 's_0_13': [617], 14: [5059, 5062, 1160, 4071, 5060, 4072, 1496, 4191, 3442, 1495, 5061, 1427, 4192, 1428, 1429, 1430, 1431, 1432, 1433, 1426, 1434, 4717], 's_0_14': [1161], 15: [3887, 503, 3758, 1790, 3894, 1714, 502, 3578, 3577, 3576, 3575, 501, 500, 499, 498, 3571, 3572, 3573, 890, 889, 1713, 3739, 1008, 3574], 's_0_15': [3812], 16: [4800, 481, 512, 3422, 482, 3497, 3496, 213, 214, 215, 216, 4140, 261, 262, 263, 264, 4771, 355, 4846, 4847, 4848, 4849, 4850, 1150], 's_0_16': [602, 3542], 18: [3331, 2046, 1476, 1475, 3848, 3333, 3334, 3335, 3337, 3338, 1607, 1608, 1609, 2032, 3336, 4226, 2121, 2120, 3332, 2119, 3730, 3729, 3728], 's_0_18': [587], 19: [4773, 1143, 1351, 3874, 652, 610, 609, 608, 607, 4307, 4308, 757, 756, 1352, 1353, 3683, 3682, 3681, 3680, 3679, 754, 755], 's_0_19': [770], 22: [3414, 1808, 1163, 1162, 4401, 4864, 4865, 1802, 1803, 1804, 1805, 1806, 1807, 4254, 1672, 4402, 4403, 4404, 1673, 1674, 1675, 4868, 4867, 4866], 's_0_22': [1120], 24: [4246, 715, 5013, 5012, 5011, 742, 4233, 4863, 4862, 4861, 415, 414, 413, 3302, 4232, 412, 4171, 291, 3886, 290, 289, 288, 287, 3421, 377, 416, 3301], 's_0_24': [320], 25: [4290, 667, 4291, 3892, 1202, 1203, 1204, 3893, 3816, 4297, 1295, 1296, 1297, 4296, 4295, 4294, 4293, 4292], 's_0_25': [1102], 26: [4399, 1465, 871, 872, 3514, 3949, 873, 874, 875, 876, 877, 4762, 4761, 4760, 4763, 4758, 4759, 879, 878], 's_0_26': [4714], 28: [2001, 2002, 2003, 4385, 1036, 349, 1988, 1037, 1038, 1989, 4599, 4598, 1299, 4551, 4597, 4550, 4600, 1043, 1042, 1041, 1040, 3720, 3721, 3722, 3723, 3724, 1039], 's_0_28': [4459], 29: [396, 395, 3490, 1862, 1833, 3977, 3520, 3519, 3518, 3562, 3561, 605, 604, 3843, 3856, 1502, 3857, 3858, 709, 708, 3558, 3559, 3560], 's_0_29': [3888], 30: [331, 3354, 1726, 1461, 3241, 3242, 3243, 3244, 3245, 1460, 1459, 1458, 1457, 1456, 3246, 3249, 3248, 3247], 's_0_30': [586], 31: [1194, 541, 4582, 4581, 1223, 1224, 4655, 542, 543, 544, 545, 1464, 546, 547, 4654, 4653, 4652, 4397, 548, 549], 's_0_31': [1014], 32: [1956, 1955, 1954, 1655, 1654, 3768, 1173, 739, 3715, 3714, 1474, 3637, 3630, 3631, 3632, 3633, 3634, 3635, 3713, 3636], 's_0_32': [589], 33: [698, 1321, 4503, 4504, 1329, 4505, 4506, 1328, 1327, 4224, 4223, 4222, 3396, 1322, 1323, 1324, 1325, 1326], 's_0_33': [4716], 36: [4432, 4836, 4878, 4879, 4880, 4881, 976, 977, 978, 1345, 1344, 1343, 1342, 1341, 1340, 1339, 3801, 1234, 3696, 3695, 3694, 3693, 3692], 's_0_36': [1030], 38: [4278, 4279, 4196, 936, 4195, 4354, 1072, 937, 939, 4579, 938, 3759, 1939, 1940, 1941, 1942, 1943, 1944, 4735, 4734, 4733, 4732, 4731, 4730, 1074, 1073, 4580], 's_0_38': [4309], 39: [3437, 1231, 1232, 527, 1239, 3451, 3452, 347, 3453, 3454, 1238, 1237, 1236, 4101, 1311, 3879, 3878, 3877, 1310, 4701, 3455, 3456, 1293, 1294, 1309], 's_0_39': [632], 40: [4851, 4275, 307, 1405, 1404, 1403, 1246, 1247, 3516, 4491, 4756, 308, 4485, 4486, 4487, 4488, 4489, 4490, 1118, 1117, 309, 1116, 1115, 3846, 1249, 1248], 's_0_40': [4355], 43: [1444, 2078, 2077, 333, 2076, 2075, 2074, 1398, 3775, 2029, 3655, 3654, 2089, 3653, 3652, 3651, 3646, 3647, 3648, 3649, 3650, 1129, 1130], 's_0_43': [693], 44: [1877, 3535, 983, 1284, 3909, 384, 219, 4606, 4607, 4609, 4610, 1907, 1908, 1909, 1910, 1912, 4608, 1913, 4615, 4614, 1911, 1209, 4611, 4612, 1599, 4613], 's_0_44': [1044], 45: [842, 843, 844, 3844, 4943, 4942, 4940, 4941, 1045, 4834, 4384, 920, 921, 926, 925, 4564, 924, 923, 922, 4189, 4188], 's_0_45': [3529], 47: [3287, 1283, 3288, 646, 647, 648, 649, 3917, 515, 516, 1268, 4431, 4430, 4429, 4428, 4427, 518, 517], 's_0_47': [3348], 's_2_4': [369], 5: [744, 759, 863, 4549, 473, 4110, 4548, 4547, 4546, 278, 277, 436, 437, 438, 3616, 273, 274, 275, 276], 's_2_5': [458], 's_2_6': [4313], 's_2_7': [593], 's_2_8': [1688], 9: [1463, 1462, 4449, 4450, 4186, 426, 2033, 4360, 4359, 4358, 1582, 4267, 4266, 4265, 4264, 3933, 800, 801, 4263, 712, 4248, 4247], 's_2_9': [4398], 10: [946, 947, 952, 3781, 3787, 3786, 1264, 1158, 1157, 951, 950, 3489, 3488, 3487, 3486, 3485, 3782, 3783, 3666, 3784, 949, 948], 's_2_10': [1489], 's_2_11': [1685], 's_2_12': [504], 's_2_14': [3472], 's_2_15': [577, 4322], 's_2_16': [248], 17: [880, 1417, 745, 3895, 4726, 444, 4817, 4818, 4819, 4820, 4821, 4822, 4823, 1719, 1718, 4371, 1863, 4816, 1864, 1865, 1866, 4179, 1716, 1717, 4374, 4373, 4372], 's_2_17': [1105], 's_2_18': [3937], 's_2_19': [4472], 20: [1879, 3533, 1578, 3601, 513, 3602, 3603, 3604, 1878, 3609, 3608, 3607, 3606, 3605], 's_2_20': [1577], 21: [1836, 1952, 3250, 2011, 3430, 2012, 4996, 4147, 2013, 2014, 2015, 2016, 4149, 4997, 4150, 4998, 4999, 4148, 1552, 1553, 1554, 1555, 1551, 4987, 4986, 3280, 4985, 4984], 's_2_21': [4178], 's_2_22': [4044], 's_2_25': [3862, 1414], 27: [3994, 3993, 4803, 730, 729, 728, 727, 725, 4132, 4131, 4130, 4129, 4128, 726], 's_2_27': [4383], 's_2_28': [4595, 998], 's_2_29': [3474], 's_2_30': [3997], 's_2_31': [1538, 1539, 4672], 's_2_32': [3833], 's_2_33': [1148], 34: [4021, 3670, 4022, 4023, 1504, 3399, 1922, 1923, 1924, 1925, 3924, 3923, 4024, 4025, 4026, 1235, 3921, 3922], 's_2_34': [3863], 35: [4314, 4366, 2045, 427, 4105, 2019, 4104, 428, 4530, 1791, 1792, 1793, 4555, 4554, 4531, 4532, 564, 4637, 4638, 4639, 4640, 4641, 4642, 4643, 1733], 's_2_35': [1703], 's_2_38': [4578], 's_2_39': [4102], 's_2_40': [354], 41: [772, 771, 4008, 4502, 4007, 5047, 5046, 5045, 5044, 5043, 5042, 4729, 451, 452, 453, 454, 455, 456, 457, 4412, 488, 4728, 4727, 491, 490, 489], 's_2_41': [699], 42: [4944, 1765, 4749, 4028, 4029, 1764, 1763, 1681, 4193, 4194, 1762, 1761, 1760, 1759, 1758, 3423, 3424, 3425, 3426, 3427, 3428, 1682, 3563], 's_2_42': [4434], 's_2_44': [324], 's_2_45': [4563], 's_2_47': [4521], 's_3_4': [4369], 's_3_5': [4095], 's_3_6': [1957], 's_3_7': [3510], 's_3_9': [2062], 's_3_10': [319, 3735], 's_3_12': [1732], 's_3_14': [4342], 's_3_15': [379, 378], 's_3_16': [4440], 's_3_17': [1597], 's_3_18': [2047], 's_3_19': [622], 's_3_21': [2017], 's_3_22': [1612], 23: [1561, 3324, 3800, 339, 3323, 992, 991, 337, 336, 3945, 335, 3946, 3947, 3948, 830, 829, 3799, 3798, 3322, 3321, 3320, 3319, 338, 767, 768, 769], 's_3_23': [4411], 's_3_25': [1267], 's_3_26': [4414], 's_3_27': [743], 's_3_28': [258], 's_3_29': [3513], 's_3_31': [368, 4396], 's_3_32': [3676, 3677, 483], 's_3_35': [1839, 1838, 4390, 1972], 's_3_36': [3691], 37: [217, 4201, 4202, 4205, 4206, 4207, 4208, 4657, 4204, 3369, 3368, 3367, 1562, 1563, 1510, 4203, 1509, 1508, 4568, 1568, 1567, 1564, 1565, 1566], 's_3_37': [4320], 's_3_38': [1987], 's_3_42': [4448], 's_3_43': [4315], 's_3_44': [383], 's_3_45': [817], 46: [4061, 3772, 1519, 3832, 1369, 1370, 4060, 4059, 4058, 4057, 4056, 233, 232, 231, 4051, 4052, 4053, 4054, 4055], 's_3_46': [3990], 's_3_47': [4442], 1: [1715, 4741, 4742, 534, 533, 532, 4089, 531, 561, 1641, 4088, 4087, 4086, 4085, 4084, 4083, 4082], 's_4_1': [249], 's_4_5': [909], 's_4_9': [3934, 905], 's_4_10': [3875, 1009], 's_4_11': [935], 's_4_12': [594], 's_4_14': [3980], 's_4_16': [1015], 's_4_17': [804], 's_4_18': [692], 's_4_19': [784], 's_4_20': [3618], 's_4_21': [1031], 's_4_22': [1000, 4925], 's_4_23': [3709, 859], 's_4_24': [399], 's_4_25': [3861], 's_4_26': [797], 's_4_27': [789], 's_4_28': [664], 's_4_29': [634], 's_4_31': [684], 's_4_32': [3663], 's_4_34': [3876], 's_4_35': [204], 's_4_36': [4972, 1360], 's_4_37': [4958], 's_4_38': [4565], 's_4_39': [4416], 's_4_40': [3815, 1069], 's_4_42': [707], 's_4_43': [3950], 's_4_44': [4680], 's_4_45': [1301], 's_4_46': [234], 's_4_47': [752], 's_6_5': [4141], 's_6_8': [4418], 's_6_9': [1087], 's_6_10': [4251, 4250], 's_6_11': [1085], 's_6_13': [1837], 's_6_14': [1221], 's_6_15': [4126], 's_6_17': [4584], 's_6_18': [2106, 2107], 's_6_19': [606], 's_6_21': [1536], 's_6_22': [4419], 's_6_23': [351, 352], 's_6_25': [666], 's_6_26': [1614], 's_6_29': [4156], 's_6_33': [4146], 's_6_37': [4253], 's_6_38': [2182], 's_6_39': [1312], 's_6_40': [1193], 's_6_41': [471], 's_6_42': [2152, 4526, 4525, 2153, 4524], 's_6_43': [4256], 's_6_44': [4255], 's_6_45': [981], 's_6_46': [711], 's_6_47': [4217, 486], 's_7_1': [1895], 's_7_9': [4368], 's_7_10': [3780], 's_7_13': [3274, 811], 's_7_14': [3187], 's_7_15': [3570], 's_7_16': [212, 3420], 's_7_17': [3774], 's_7_18': [286], 's_7_19': [802], 's_7_21': [3640], 's_7_22': [3564], 's_7_23': [856], 's_7_24': [227, 3435], 's_7_25': [637], 's_7_27': [4518], 's_7_28': [3811, 3810], 's_7_30': [3097], 's_7_33': [1336], 's_7_34': [3340], 's_7_35': [158], 's_7_36': [3229], 's_7_37': [4200], 's_7_38': [3790], 's_7_39': [3450], 's_7_40': [188], 's_7_42': [1696], 's_7_44': [3445], 's_7_45': [841], 's_7_47': [787], 's_8_1': [530], 's_8_5': [3991], 's_8_9': [1583], 's_8_11': [1415], 's_8_12': [1643], 's_8_14': [4507, 4508], 's_8_15': [1684], 's_8_17': [4283], 's_8_18': [4073, 1611, 4133], 's_8_19': [3889], 's_8_21': [4583], 's_8_22': [4553], 's_8_24': [441], 's_8_25': [3906], 's_8_26': [980], 's_8_27': [710], 's_8_28': [1644], 's_8_30': [4027], 's_8_31': [4537], 's_8_32': [1594], 's_8_34': [1266], 's_8_36': [4433], 's_8_38': [1630], 's_8_39': [1640], 's_8_41': [3931], 's_8_42': [4478], 's_8_45': [3979], 's_8_46': [1520], 's_11_1': [1535], 's_11_5': [186, 185], 's_11_9': [815], 's_11_12': [1070], 's_11_13': [1835], 's_11_14': [1175], 's_11_15': [1745], 's_11_16': [3975], 's_11_17': [1985], 's_11_23': [590], 's_11_25': [3936, 1280], 's_11_26': [4009, 845], 's_11_27': [1101, 1100], 's_11_28': [2000], 's_11_29': [380], 's_11_30': [1445], 's_11_34': [470], 's_11_35': [1971, 1970], 's_11_36': [1189], 's_11_37': [3983], 's_11_40': [1265], 's_11_43': [3971], 's_11_46': [2060], 's_11_47': [560], 's_12_1': [4100], 's_12_5': [4519], 's_12_9': [4492, 1418], 's_12_10': [3170], 's_12_13': [3860], 's_12_14': [4447], 's_12_15': [1068], 's_12_17': [1372], 's_12_18': [1067], 's_12_21': [1090, 1091], 's_12_22': [1313], 's_12_23': [3515], 's_12_24': [790, 4954, 835, 834], 's_12_25': [1507], 's_12_26': [984], 's_12_27': [4668], 's_12_28': [3155], 's_12_29': [3545], 's_12_30': [1066], 's_12_31': [1208], 's_12_32': [3725], 's_12_33': [1088], 's_12_34': [3920], 's_12_35': [894], 's_12_36': [850], 's_12_37': [4220], 's_12_39': [4746], 's_12_40': [4145], 's_12_41': [864], 's_12_43': [3935], 's_12_44': [4670], 's_12_46': [4070], 's_12_47': [1012], 's_13_1': [1010], 's_13_5': [422], 's_13_9': [1853], 's_13_10': [1382], 's_13_14': [3382], 's_13_15': [1443], 's_13_16': [257], 's_13_18': [1277], 's_13_20': [3502, 3503, 1623, 3593, 3594], 's_13_21': [3460], 's_13_22': [1818, 1819, 1820, 3939], 's_13_23': [3409, 902], 's_13_24': [316, 317], 's_13_25': [3365], 's_13_26': [3364, 1006], 's_13_27': [4158, 4159, 4160], 's_13_28': [3919], 's_13_29': [1653], 's_13_33': [3366], 's_13_34': [3865], 's_13_35': [4134], 's_13_36': [3289], 's_13_37': [1847], 's_13_38': [4284], 's_13_40': [4190], 's_13_41': [467], 's_13_42': [1697], 's_13_43': [332], 's_13_44': [4045], 's_13_45': [3753], 's_13_47': [737, 3318], 's_14_1': [1251], 's_14_9': [4177], 's_14_10': [1517], 's_14_17': [1447, 1448], 's_14_20': [3592], 's_14_22': [4718, 1660, 4794], 's_14_23': [1472], 's_14_25': [3817], 's_14_26': [4837], 's_14_27': [1206], 's_14_28': [1419], 's_14_29': [1413], 's_14_31': [1374, 4687], 's_14_32': [3727], 's_14_33': [4747], 's_14_34': [4012, 4011], 's_14_35': [1494], 's_14_38': [1450], 's_14_40': [4912], 's_14_41': [1481], 's_14_42': [3397, 3398], 's_14_43': [3532], 's_14_45': [4928, 1600], 's_14_46': [1355, 3982], 's_15_1': [4172], 's_15_9': [4187], 's_15_10': [3710], 's_15_17': [3984], 's_15_18': [3743], 's_15_19': [3590], 's_15_22': [4014], 's_15_23': [365, 3916], 's_15_24': [4382], 's_15_27': [3992], 's_15_28': [3751], 's_15_29': [918], 's_15_31': [3707], 's_15_32': [663], 's_15_34': [1729], 's_15_36': [813], 's_15_39': [363], 's_15_41': [3617], 's_15_42': [3789], 's_15_43': [1743], 's_15_44': [1775], 's_15_47': [3872], 's_16_1': [535], 's_16_5': [3615], 's_16_17': [370], 's_16_18': [302, 3346], 's_16_20': [3600], 's_16_21': [625], 's_16_22': [1075], 's_16_24': [4801], 's_16_27': [700], 's_16_28': [3841], 's_16_30': [3257, 616], 's_16_31': [557], 's_16_32': [229], 's_16_35': [4545], 's_16_36': [670], 's_16_37': [382, 4231], 's_16_39': [272], 's_16_40': [310], 's_16_41': [1151], 's_16_42': [3376, 3377, 662], 's_16_44': [4665], 's_16_45': [955], 's_16_46': [4185], 's_16_47': [3362, 631], 's_18_1': [1491], 's_18_5': [421], 's_18_9': [1477], 's_18_10': [1592], 's_18_17': [3834, 1789], 's_18_19': [1366], 's_18_20': [1579], 's_18_21': [3896], 's_18_22': [1606, 3279, 3278], 's_18_24': [271], 's_18_27': [4117], 's_18_28': [4270], 's_18_29': [3623, 1638], 's_18_30': [3952], 's_18_31': [3347], 's_18_33': [1262], 's_18_34': [1984], 's_18_35': [2031, 4135], 's_18_36': [961], 's_18_37': [3443], 's_18_38': [1774], 's_18_39': [1625], 's_18_40': [3351], 's_18_41': [466], 's_18_42': [1610], 's_18_43': [2043], 's_18_44': [3744], 's_18_46': [3773], 's_18_47': [781], 's_19_5': [4517], 's_19_17': [4788], 's_19_20': [1593], 's_19_21': [4982], 's_19_24': [4938], 's_19_25': [682], 's_19_26': [753], 's_19_27': [4173], 's_19_28': [1023], 's_19_29': [3738], 's_19_30': [3667], 's_19_32': [3668], 's_19_33': [3307], 's_19_36': [4877], 's_19_37': [562], 's_19_39': [3726], 's_19_40': [3411], 's_19_41': [4892], 's_19_42': [1367], 's_19_43': [1639], 's_19_44': [4593], 's_19_45': [4249], 's_19_46': [1368], 's_19_47': [4367], 's_22_9': [1778, 4509], 's_22_10': [3504], 's_22_17': [1823], 's_22_20': [3624], 's_22_21': [4164], 's_22_23': [1817], 's_22_24': [4908, 985, 4909], 's_22_25': [1207], 's_22_26': [1270], 's_22_28': [1809], 's_22_29': [3549], 's_22_30': [1801], 's_22_31': [4566], 's_22_32': [3699], 's_22_33': [1133], 's_22_34': [3429, 1832], 's_22_35': [4479], 's_22_36': [4896, 1225], 's_22_38': [1645], 's_22_39': [4596], 's_22_40': [4475], 's_22_44': [4494], 's_22_45': [865, 4939], 's_22_46': [1821], 's_24_1': [400], 's_24_5': [4080], 's_24_9': [321], 's_24_10': [3796], 's_24_17': [4876, 445], 's_24_20': [3661, 318], 's_24_21': [776], 's_24_25': [4306], 's_24_27': [4833], 's_24_28': [4006, 350], 's_24_29': [259], 's_24_30': [301], 's_24_31': [655, 654], 's_24_34': [411], 's_24_36': [805], 's_24_37': [621], 's_24_38': [821, 820, 819, 818, 4534], 's_24_40': [4471], 's_24_41': [5026], 's_24_43': [3526], 's_24_44': [4681], 's_24_45': [5014], 's_24_46': [4216], 's_24_47': [4577], 's_25_5': [862], 's_25_9': [1222], 's_25_10': [3501], 's_25_17': [1252], 's_25_20': [3621], 's_25_21': [1537], 's_25_26': [892], 's_25_27': [4338], 's_25_28': [4341, 4340], 's_25_31': [1178, 1177], 's_25_32': [1218], 's_25_34': [1205], 's_25_35': [668, 669], 's_25_36': [4310, 4311], 's_25_37': [1492], 's_25_38': [847], 's_25_39': [1400], 's_25_40': [3531], 's_25_41': [4323, 697], 's_25_43': [3755], 's_25_46': [3847], 's_25_47': [1282], 's_26_1': [775, 4713, 4712], 's_26_5': [4594], 's_26_9': [4219], 's_26_10': [3394], 's_26_17': [4764], 's_26_20': [888], 's_26_21': [1466], 's_26_23': [3484], 's_26_28': [3199], 's_26_29': [812], 's_26_30': [886], 's_26_31': [1164], 's_26_33': [4777], 's_26_34': [965], 's_26_35': [1389], 's_26_36': [1315], 's_26_37': [4852], 's_26_38': [1480], 's_26_39': [3469], 's_26_40': [1359, 4792], 's_26_41': [595], 's_26_42': [782], 's_26_44': [714], 's_26_45': [3349], 's_26_46': [4069], 's_28_1': [4090], 's_28_5': [439, 3826], 's_28_9': [4495], 's_28_10': [529], 's_28_20': [993], 's_28_23': [1021], 's_28_27': [3995], 's_28_29': [304], 's_28_30': [3260], 's_28_31': [1089], 's_28_32': [783], 's_28_33': [4671], 's_28_34': [4015], 's_28_35': [4675], 's_28_36': [3589], 's_28_37': [1479], 's_28_39': [1022], 's_28_40': [4386], 's_28_41': [3736], 's_28_42': [1749], 's_28_43': [4630], 's_28_44': [4510], 's_28_46': [1986], 's_28_47': [997], 's_29_1': [4097], 's_29_5': [3976], 's_29_10': [619], 's_29_17': [3579, 1773], 's_29_21': [3521], 's_29_23': [740], 's_29_27': [3873], 's_29_30': [1861], 's_29_31': [3842], 's_29_32': [1233], 's_29_34': [1968], 's_29_36': [3544], 's_29_37': [3412], 's_29_40': [1172], 's_29_41': [620], 's_29_42': [1007], 's_29_43': [3491, 2028], 's_29_44': [3505], 's_29_45': [3543], 's_29_46': [4068], 's_30_5': [3256], 's_30_10': [931], 's_30_20': [3547], 's_30_21': [4162], 's_30_27': [1446], 's_30_31': [556], 's_30_33': [3697], 's_30_34': [3907], 's_30_36': [3259], 's_30_39': [3517], 's_30_40': [3261], 's_30_42': [3263], 's_30_43': [3622], 's_30_47': [661], 's_31_1': [4277], 's_31_5': [3662], 's_31_10': [3797], 's_31_17': [1149], 's_31_20': [558], 's_31_23': [3273, 3272, 511, 3317], 's_31_27': [4127], 's_31_32': [3767], 's_31_33': [4656], 's_31_34': [4142, 576], 's_31_35': [1449], 's_31_36': [4536], 's_31_37': [4702], 's_31_38': [1119, 4700], 's_31_39': [1253, 1254], 's_31_40': [1373], 's_31_43': [559], 's_31_44': [4651], 's_31_45': [4669], 's_31_47': [442], 's_32_5': [423], 's_32_10': [3788], 's_32_20': [603], 's_32_23': [1114], 's_32_33': [3712], 's_32_34': [1999], 's_32_36': [409], 's_32_37': [3698], 's_32_38': [1834], 's_32_39': [528], 's_32_42': [3864], 's_32_43': [1084], 's_32_44': [3700], 's_32_45': [814], 's_32_46': [3802], 's_32_47': [3708], 's_33_5': [713], 's_33_9': [1356], 's_33_17': [1746], 's_33_20': [1338], 's_33_21': [1686], 's_33_23': [1307], 's_33_34': [3996], 's_33_35': [1776], 's_33_36': [4417], 's_33_37': [1442, 3352], 's_33_38': [4225], 's_33_39': [3741], 's_33_40': [3276], 's_33_41': [773], 's_33_42': [1642], 's_33_44': [1013], 's_33_46': [1596], 's_33_47': [893], 's_36_5': [760], 's_36_9': [4477, 4476], 's_36_10': [694], 's_36_17': [1357], 's_36_20': [798], 's_36_21': [1330], 's_36_23': [3500], 's_36_35': [4387, 1523, 1522, 4388], 's_36_37': [1390, 4882], 's_36_40': [1406, 5001], 's_36_41': [910], 's_36_42': [962], 's_36_43': [633], 's_36_44': [1285], 's_36_45': [4927], 's_36_47': [4446], 's_38_5': [954], 's_38_9': [1867, 1868, 4629], 's_38_17': [1734], 's_38_21': [3835], 's_38_34': [4030], 's_38_35': [4690], 's_38_39': [1179], 's_38_40': [4370], 's_38_41': [940], 's_38_42': [1825], 's_38_43': [3760], 's_38_44': [4405], 's_38_45': [4339], 's_38_46': [2136], 's_38_47': [848], 's_39_5': [3482], 's_39_9': [4281], 's_39_17': [4356], 's_39_20': [738], 's_39_27': [4116], 's_39_34': [1385], 's_39_35': [1314], 's_39_37': [4221], 's_39_40': [3171], 's_39_41': [3361], 's_39_42': [857], 's_39_43': [1128], 's_39_44': [3880], 's_39_46': [1534], 's_39_47': [3468], 's_40_1': [235], 's_40_5': [683], 's_40_9': [4280], 's_40_10': [1263], 's_40_17': [443], 's_40_20': [1278], 's_40_23': [3845, 964], 's_40_35': [323], 's_40_37': [1132], 's_40_41': [4501], 's_40_42': [1187], 's_40_43': [3591], 's_40_44': [220], 's_40_45': [4474], 's_40_46': [3771], 's_40_47': [398], 's_43_5': [3586], 's_43_9': [4480], 's_43_10': [394], 's_43_21': [2030], 's_43_23': [334], 's_43_35': [4556], 's_43_45': [919], 's_43_46': [2090], 's_44_1': [3954, 3953], 's_44_5': [293], 's_44_9': [1958, 4570, 1883], 's_44_17': [1777, 4269], 's_44_21': [4000], 's_44_23': [4591], 's_44_34': [3820], 's_44_35': [1824], 's_44_41': [623], 's_44_42': [1779], 's_44_45': [1210], 's_44_47': [1269], 's_45_1': [861], 's_45_5': [774], 's_45_9': [816], 's_45_10': [4174], 's_45_17': [1420], 's_45_20': [858], 's_45_21': [1316], 's_45_23': [3393], 's_45_27': [4804], 's_45_35': [833], 's_45_37': [1525], 's_45_41': [1271], 's_45_42': [3439], 's_45_46': [696], 's_45_47': [908], 's_47_1': [4157], 's_47_9': [3932], 's_47_10': [514], 's_47_17': [4666, 4667, 519], 's_47_20': [3587], 's_47_27': [3918], 's_47_34': [680], 's_47_41': [4413], 's_47_42': [722], 's_47_46': [4426], 's_5_1': [4562], 's_5_9': [397, 4321], 's_5_17': [279, 4815], 's_5_27': [4473], 's_5_35': [653], 's_5_37': [4260], 's_5_41': [3226], 's_5_46': [4305], 's_9_1': [785], 's_9_10': [799], 's_9_23': [4098], 's_9_27': [4143, 651], 's_9_35': [1973], 's_9_41': [4234], 's_9_46': [4125, 306], 's_10_1': [4099], 's_10_20': [1488], 's_10_23': [1159], 's_10_27': [724], 's_10_34': [1772], 's_10_37': [1787], 's_10_41': [469], 's_10_42': [1712], 's_17_1': [4772, 550], 's_17_20': [3639], 's_17_21': [746], 's_17_23': [340], 's_17_27': [4743], 's_17_35': [4389], 's_17_37': [1524], 's_17_41': [4787], 's_17_42': [4673], 's_20_34': [3610], 's_20_37': [3638], 's_20_23': [1097, 1098], 's_21_1': [1416], 's_21_27': [1371], 's_21_34': [3925], 's_21_35': [1880, 1881], 's_21_37': [4793], 's_21_41': [1241], 's_21_42': [1701], 's_21_46': [1671], 's_27_35': [4533], 's_27_37': [786], 's_27_41': [580, 4802], 's_27_46': [1401], 's_34_1': [741], 's_34_23': [425], 's_34_37': [3384], 's_34_41': [485], 's_34_42': [3669], 's_34_46': [1354], 's_35_1': [1928, 1927, 1926], 's_35_23': [4636], 's_35_41': [4592], 's_35_42': [4628], 's_41_1': [591], 's_41_37': [1511], 's_41_23': [4081], 's_41_46': [4067], 's_42_1': [4103], 's_42_37': [1757], 's_42_23': [1292], 's_23_37': [1531], 's_23_46': [260, 4066], 's_37_1': [1386], 's_37_46': [681], 's_46_1': [1730]}</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.003254041570438799</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.001829033696072875</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>{0: [1135, 4010, 571, 4715, 3528, 1029, 1028, 3901, 1027, 572, 573, 3900, 574, 575, 3902, 3903, 4175, 1026, 1025, 3904], 2: [3473, 4621, 1104, 3757, 578, 4620, 579, 4622, 4624, 4625, 4626, 1358, 1547, 1548, 4623, 1549, 1550, 3998, 1656, 1657, 1658, 4523, 4522], 's_0_2': [4685], 3: [3512, 3511, 242, 4300, 4299, 3706, 243, 245, 246, 247, 4455, 244, 4456, 4457, 4458, 832, 4324, 4325, 4326, 4327, 4328, 1702, 4298], 's_0_3': [3527], 4: [4443, 4957, 4956, 4695, 4955, 4696, 3438, 970, 678, 679, 3828, 3829, 3830, 1144, 4697, 4698, 4699, 969, 968, 967, 4444, 677, 4445, 1145, 1146, 1147], 's_0_4': [3827], 6: [366, 1613, 1748, 1747, 4111, 4112, 4113, 4176, 4114, 1086, 4115, 1192, 4493, 4241, 4240, 4239, 4238, 4237, 4236, 1191], 's_0_6': [1011], 7: [1471, 346, 1894, 1893, 758, 1892, 1891, 4353, 4352, 4351, 4350, 157, 156, 155, 154, 153, 152, 151, 3210, 3219, 3218, 3217, 3216, 3215, 3214, 3213, 3212, 3211], 's_0_7': [170], 8: [3803, 1699, 1250, 3908, 1595, 860, 4538, 1629, 1628, 4036, 1627, 1626, 4043, 440, 4037, 4038, 4039, 4040, 4041, 4042], 's_0_8': [665], 11: [305, 3960, 3961, 3970, 1190, 3962, 3963, 3964, 3969, 3968, 3967, 3966, 3965], 's_0_11': [200], 12: [4757, 459, 3530, 1598, 4682, 4463, 4462, 4461, 4460, 1051, 1053, 1054, 1056, 1052, 953, 4400, 1057, 1059, 4745, 4744, 1058, 4683, 4684, 1055, 849], 's_0_12': [4415], 13: [3405, 996, 3406, 3407, 3408, 827, 828, 3619, 1852, 1851, 1850, 1849, 1848, 3459, 3458, 3457, 1397, 3380, 3379, 932, 995, 994, 3754, 934, 3381, 933], 's_0_13': [617], 14: [5059, 5062, 1160, 4071, 5060, 4072, 1496, 4191, 3442, 1495, 5061, 1427, 4192, 1428, 1429, 1430, 1431, 1432, 1433, 1426, 1434, 4717], 's_0_14': [1161], 15: [3887, 503, 3758, 1790, 3894, 1714, 502, 3578, 3577, 3576, 3575, 501, 500, 499, 498, 3571, 3572, 3573, 890, 889, 1713, 3739, 1008, 3574], 's_0_15': [3812], 16: [4800, 481, 512, 3422, 482, 3497, 3496, 213, 214, 215, 216, 4140, 261, 262, 263, 264, 4771, 355, 4846, 4847, 4848, 4849, 4850, 1150], 's_0_16': [602, 3542], 18: [3331, 2046, 1476, 1475, 3848, 3333, 3334, 3335, 3337, 3338, 1607, 1608, 1609, 2032, 3336, 4226, 2121, 2120, 3332, 2119, 3730, 3729, 3728], 's_0_18': [587], 19: [4773, 1143, 1351, 3874, 652, 610, 609, 608, 607, 4307, 4308, 757, 756, 1352, 1353, 3683, 3682, 3681, 3680, 3679, 754, 755], 's_0_19': [770], 22: [3414, 1808, 1163, 1162, 4401, 4864, 4865, 1802, 1803, 1804, 1805, 1806, 1807, 4254, 1672, 4402, 4403, 4404, 1673, 1674, 1675, 4868, 4867, 4866], 's_0_22': [1120], 24: [4246, 715, 5013, 5012, 5011, 742, 4233, 4863, 4862, 4861, 415, 414, 413, 3302, 4232, 412, 4171, 291, 3886, 290, 289, 288, 287, 3421, 377, 416, 3301], 's_0_24': [320], 25: [4290, 667, 4291, 3892, 1202, 1203, 1204, 3893, 3816, 4297, 1295, 1296, 1297, 4296, 4295, 4294, 4293, 4292], 's_0_25': [1102], 26: [4399, 1465, 871, 872, 3514, 3949, 873, 874, 875, 876, 877, 4762, 4761, 4760, 4763, 4758, 4759, 879, 878], 's_0_26': [4714], 28: [2001, 2002, 2003, 4385, 1036, 349, 1988, 1037, 1038, 1989, 4599, 4598, 1299, 4551, 4597, 4550, 4600, 1043, 1042, 1041, 1040, 3720, 3721, 3722, 3723, 3724, 1039], 's_0_28': [4459], 29: [396, 395, 3490, 1862, 1833, 3977, 3520, 3519, 3518, 3562, 3561, 605, 604, 3843, 3856, 1502, 3857, 3858, 709, 708, 3558, 3559, 3560], 's_0_29': [3888], 30: [331, 3354, 1726, 1461, 3241, 3242, 3243, 3244, 3245, 1460, 1459, 1458, 1457, 1456, 3246, 3249, 3248, 3247], 's_0_30': [586], 31: [1194, 541, 4582, 4581, 1223, 1224, 4655, 542, 543, 544, 545, 1464, 546, 547, 4654, 4653, 4652, 4397, 548, 549], 's_0_31': [1014], 32: [1956, 1955, 1954, 1655, 1654, 3768, 1173, 739, 3715, 3714, 1474, 3637, 3630, 3631, 3632, 3633, 3634, 3635, 3713, 3636], 's_0_32': [589], 33: [698, 1321, 4503, 4504, 1329, 4505, 4506, 1328, 1327, 4224, 4223, 4222, 3396, 1322, 1323, 1324, 1325, 1326], 's_0_33': [4716], 36: [4432, 4836, 4878, 4879, 4880, 4881, 976, 977, 978, 1345, 1344, 1343, 1342, 1341, 1340, 1339, 3801, 1234, 3696, 3695, 3694, 3693, 3692], 's_0_36': [1030], 38: [4278, 4279, 4196, 936, 4195, 4354, 1072, 937, 939, 4579, 938, 3759, 1939, 1940, 1941, 1942, 1943, 1944, 4735, 4734, 4733, 4732, 4731, 4730, 1074, 1073, 4580], 's_0_38': [4309], 39: [3437, 1231, 1232, 527, 1239, 3451, 3452, 347, 3453, 3454, 1238, 1237, 1236, 4101, 1311, 3879, 3878, 3877, 1310, 4701, 3455, 3456, 1293, 1294, 1309], 's_0_39': [632], 40: [4851, 4275, 307, 1405, 1404, 1403, 1246, 1247, 3516, 4491, 4756, 308, 4485, 4486, 4487, 4488, 4489, 4490, 1118, 1117, 309, 1116, 1115, 3846, 1249, 1248], 's_0_40': [4355], 43: [1444, 2078, 2077, 333, 2076, 2075, 2074, 1398, 3775, 2029, 3655, 3654, 2089, 3653, 3652, 3651, 3646, 3647, 3648, 3649, 3650, 1129, 1130], 's_0_43': [693], 44: [1877, 3535, 983, 1284, 3909, 384, 219, 4606, 4607, 4609, 4610, 1907, 1908, 1909, 1910, 1912, 4608, 1913, 4615, 4614, 1911, 1209, 4611, 4612, 1599, 4613], 's_0_44': [1044], 45: [842, 843, 844, 3844, 4943, 4942, 4940, 4941, 1045, 4834, 4384, 920, 921, 926, 925, 4564, 924, 923, 922, 4189, 4188], 's_0_45': [3529], 47: [3287, 1283, 3288, 646, 647, 648, 649, 3917, 515, 516, 1268, 4431, 4430, 4429, 4428, 4427, 518, 517], 's_0_47': [3348], 's_2_4': [369], 5: [744, 759, 863, 4549, 473, 4110, 4548, 4547, 4546, 278, 277, 436, 437, 438, 3616, 273, 274, 275, 276], 's_2_5': [458], 's_2_6': [4313], 's_2_7': [593], 's_2_8': [1688], 9: [1463, 1462, 4449, 4450, 4186, 426, 2033, 4360, 4359, 4358, 1582, 4267, 4266, 4265, 4264, 3933, 800, 801, 4263, 712, 4248, 4247], 's_2_9': [4398], 10: [946, 947, 952, 3781, 3787, 3786, 1264, 1158, 1157, 951, 950, 3489, 3488, 3487, 3486, 3485, 3782, 3783, 3666, 3784, 949, 948], 's_2_10': [1489], 's_2_11': [1685], 's_2_12': [504], 's_2_14': [3472], 's_2_15': [577, 4322], 's_2_16': [248], 17: [880, 1417, 745, 3895, 4726, 444, 4817, 4818, 4819, 4820, 4821, 4822, 4823, 1719, 1718, 4371, 1863, 4816, 1864, 1865, 1866, 4179, 1716, 1717, 4374, 4373, 4372], 's_2_17': [1105], 's_2_18': [3937], 's_2_19': [4472], 20: [1879, 3533, 1578, 3601, 513, 3602, 3603, 3604, 1878, 3609, 3608, 3607, 3606, 3605], 's_2_20': [1577], 21: [1836, 1952, 3250, 2011, 3430, 2012, 4996, 4147, 2013, 2014, 2015, 2016, 4149, 4997, 4150, 4998, 4999, 4148, 1552, 1553, 1554, 1555, 1551, 4987, 4986, 3280, 4985, 4984], 's_2_21': [4178], 's_2_22': [4044], 's_2_25': [3862, 1414], 27: [3994, 3993, 4803, 730, 729, 728, 727, 725, 4132, 4131, 4130, 4129, 4128, 726], 's_2_27': [4383], 's_2_28': [4595, 998], 's_2_29': [3474], 's_2_30': [3997], 's_2_31': [1538, 1539, 4672], 's_2_32': [3833], 's_2_33': [1148], 34: [4021, 3670, 4022, 4023, 1504, 3399, 1922, 1923, 1924, 1925, 3924, 3923, 4024, 4025, 4026, 1235, 3921, 3922], 's_2_34': [3863], 35: [4314, 4366, 2045, 427, 4105, 2019, 4104, 428, 4530, 1791, 1792, 1793, 4555, 4554, 4531, 4532, 564, 4637, 4638, 4639, 4640, 4641, 4642, 4643, 1733], 's_2_35': [1703], 's_2_38': [4578], 's_2_39': [4102], 's_2_40': [354], 41: [772, 771, 4008, 4502, 4007, 5047, 5046, 5045, 5044, 5043, 5042, 4729, 451, 452, 453, 454, 455, 456, 457, 4412, 488, 4728, 4727, 491, 490, 489], 's_2_41': [699], 42: [4944, 1765, 4749, 4028, 4029, 1764, 1763, 1681, 4193, 4194, 1762, 1761, 1760, 1759, 1758, 3423, 3424, 3425, 3426, 3427, 3428, 1682, 3563], 's_2_42': [4434], 's_2_44': [324], 's_2_45': [4563], 's_2_47': [4521], 's_3_4': [4369], 's_3_5': [4095], 's_3_6': [1957], 's_3_7': [3510], 's_3_9': [2062], 's_3_10': [319, 3735], 's_3_12': [1732], 's_3_14': [4342], 's_3_15': [379, 378], 's_3_16': [4440], 's_3_17': [1597], 's_3_18': [2047], 's_3_19': [622], 's_3_21': [2017], 's_3_22': [1612], 23: [1561, 3324, 3800, 339, 3323, 992, 991, 337, 336, 3945, 335, 3946, 3947, 3948, 830, 829, 3799, 3798, 3322, 3321, 3320, 3319, 338, 767, 768, 769], 's_3_23': [4411], 's_3_25': [1267], 's_3_26': [4414], 's_3_27': [743], 's_3_28': [258], 's_3_29': [3513], 's_3_31': [368, 4396], 's_3_32': [3676, 3677, 483], 's_3_35': [1839, 1838, 4390, 1972], 's_3_36': [3691], 37: [217, 4201, 4202, 4205, 4206, 4207, 4208, 4657, 4204, 3369, 3368, 3367, 1562, 1563, 1510, 4203, 1509, 1508, 4568, 1568, 1567, 1564, 1565, 1566], 's_3_37': [4320], 's_3_38': [1987], 's_3_42': [4448], 's_3_43': [4315], 's_3_44': [383], 's_3_45': [817], 46: [4061, 3772, 1519, 3832, 1369, 1370, 4060, 4059, 4058, 4057, 4056, 233, 232, 231, 4051, 4052, 4053, 4054, 4055], 's_3_46': [3990], 's_3_47': [4442], 1: [1715, 4741, 4742, 534, 533, 532, 4089, 531, 561, 1641, 4088, 4087, 4086, 4085, 4084, 4083, 4082], 's_4_1': [249], 's_4_5': [909], 's_4_9': [3934, 905], 's_4_10': [3875, 1009], 's_4_11': [935], 's_4_12': [594], 's_4_14': [3980], 's_4_16': [1015], 's_4_17': [804], 's_4_18': [692], 's_4_19': [784], 's_4_20': [3618], 's_4_21': [1031], 's_4_22': [1000, 4925], 's_4_23': [3709, 859], 's_4_24': [399], 's_4_25': [3861], 's_4_26': [797], 's_4_27': [789], 's_4_28': [664], 's_4_29': [634], 's_4_31': [684], 's_4_32': [3663], 's_4_34': [3876], 's_4_35': [204], 's_4_36': [4972, 1360], 's_4_37': [4958], 's_4_38': [4565], 's_4_39': [4416], 's_4_40': [3815, 1069], 's_4_42': [707], 's_4_43': [3950], 's_4_44': [4680], 's_4_45': [1301], 's_4_46': [234], 's_4_47': [752], 's_6_5': [4141], 's_6_8': [4418], 's_6_9': [1087], 's_6_10': [4251, 4250], 's_6_11': [1085], 's_6_13': [1837], 's_6_14': [1221], 's_6_15': [4126], 's_6_17': [4584], 's_6_18': [2106, 2107], 's_6_19': [606], 's_6_21': [1536], 's_6_22': [4419], 's_6_23': [351, 352], 's_6_25': [666], 's_6_26': [1614], 's_6_29': [4156], 's_6_33': [4146], 's_6_37': [4253], 's_6_38': [2182], 's_6_39': [1312], 's_6_40': [1193], 's_6_41': [471], 's_6_42': [2152, 4526, 4525, 2153, 4524], 's_6_43': [4256], 's_6_44': [4255], 's_6_45': [981], 's_6_46': [711], 's_6_47': [4217, 486], 's_7_1': [1895], 's_7_9': [4368], 's_7_10': [3780], 's_7_13': [3274, 811], 's_7_14': [3187], 's_7_15': [3570], 's_7_16': [212, 3420], 's_7_17': [3774], 's_7_18': [286], 's_7_19': [802], 's_7_21': [3640], 's_7_22': [3564], 's_7_23': [856], 's_7_24': [227, 3435], 's_7_25': [637], 's_7_27': [4518], 's_7_28': [3811, 3810], 's_7_30': [3097], 's_7_33': [1336], 's_7_34': [3340], 's_7_35': [158], 's_7_36': [3229], 's_7_37': [4200], 's_7_38': [3790], 's_7_39': [3450], 's_7_40': [188], 's_7_42': [1696], 's_7_44': [3445], 's_7_45': [841], 's_7_47': [787], 's_8_1': [530], 's_8_5': [3991], 's_8_9': [1583], 's_8_11': [1415], 's_8_12': [1643], 's_8_14': [4507, 4508], 's_8_15': [1684], 's_8_17': [4283], 's_8_18': [4073, 1611, 4133], 's_8_19': [3889], 's_8_21': [4583], 's_8_22': [4553], 's_8_24': [441], 's_8_25': [3906], 's_8_26': [980], 's_8_27': [710], 's_8_28': [1644], 's_8_30': [4027], 's_8_31': [4537], 's_8_32': [1594], 's_8_34': [1266], 's_8_36': [4433], 's_8_38': [1630], 's_8_39': [1640], 's_8_41': [3931], 's_8_42': [4478], 's_8_45': [3979], 's_8_46': [1520], 's_11_1': [1535], 's_11_5': [186, 185], 's_11_9': [815], 's_11_12': [1070], 's_11_13': [1835], 's_11_14': [1175], 's_11_15': [1745], 's_11_16': [3975], 's_11_17': [1985], 's_11_23': [590], 's_11_25': [3936, 1280], 's_11_26': [4009, 845], 's_11_27': [1101, 1100], 's_11_28': [2000], 's_11_29': [380], 's_11_30': [1445], 's_11_34': [470], 's_11_35': [1971, 1970], 's_11_36': [1189], 's_11_37': [3983], 's_11_40': [1265], 's_11_43': [3971], 's_11_46': [2060], 's_11_47': [560], 's_12_1': [4100], 's_12_5': [4519], 's_12_9': [4492, 1418], 's_12_10': [3170], 's_12_13': [3860], 's_12_14': [4447], 's_12_15': [1068], 's_12_17': [1372], 's_12_18': [1067], 's_12_21': [1090, 1091], 's_12_22': [1313], 's_12_23': [3515], 's_12_24': [790, 4954, 835, 834], 's_12_25': [1507], 's_12_26': [984], 's_12_27': [4668], 's_12_28': [3155], 's_12_29': [3545], 's_12_30': [1066], 's_12_31': [1208], 's_12_32': [3725], 's_12_33': [1088], 's_12_34': [3920], 's_12_35': [894], 's_12_36': [850], 's_12_37': [4220], 's_12_39': [4746], 's_12_40': [4145], 's_12_41': [864], 's_12_43': [3935], 's_12_44': [4670], 's_12_46': [4070], 's_12_47': [1012], 's_13_1': [1010], 's_13_5': [422], 's_13_9': [1853], 's_13_10': [1382], 's_13_14': [3382], 's_13_15': [1443], 's_13_16': [257], 's_13_18': [1277], 's_13_20': [3502, 3503, 1623, 3593, 3594], 's_13_21': [3460], 's_13_22': [1818, 1819, 1820, 3939], 's_13_23': [3409, 902], 's_13_24': [316, 317], 's_13_25': [3365], 's_13_26': [3364, 1006], 's_13_27': [4158, 4159, 4160], 's_13_28': [3919], 's_13_29': [1653], 's_13_33': [3366], 's_13_34': [3865], 's_13_35': [4134], 's_13_36': [3289], 's_13_37': [1847], 's_13_38': [4284], 's_13_40': [4190], 's_13_41': [467], 's_13_42': [1697], 's_13_43': [332], 's_13_44': [4045], 's_13_45': [3753], 's_13_47': [737, 3318], 's_14_1': [1251], 's_14_9': [4177], 's_14_10': [1517], 's_14_17': [1447, 1448], 's_14_20': [3592], 's_14_22': [4718, 1660, 4794], 's_14_23': [1472], 's_14_25': [3817], 's_14_26': [4837], 's_14_27': [1206], 's_14_28': [1419], 's_14_29': [1413], 's_14_31': [1374, 4687], 's_14_32': [3727], 's_14_33': [4747], 's_14_34': [4012, 4011], 's_14_35': [1494], 's_14_38': [1450], 's_14_40': [4912], 's_14_41': [1481], 's_14_42': [3397, 3398], 's_14_43': [3532], 's_14_45': [4928, 1600], 's_14_46': [1355, 3982], 's_15_1': [4172], 's_15_9': [4187], 's_15_10': [3710], 's_15_17': [3984], 's_15_18': [3743], 's_15_19': [3590], 's_15_22': [4014], 's_15_23': [365, 3916], 's_15_24': [4382], 's_15_27': [3992], 's_15_28': [3751], 's_15_29': [918], 's_15_31': [3707], 's_15_32': [663], 's_15_34': [1729], 's_15_36': [813], 's_15_39': [363], 's_15_41': [3617], 's_15_42': [3789], 's_15_43': [1743], 's_15_44': [1775], 's_15_47': [3872], 's_16_1': [535], 's_16_5': [3615], 's_16_17': [370], 's_16_18': [302, 3346], 's_16_20': [3600], 's_16_21': [625], 's_16_22': [1075], 's_16_24': [4801], 's_16_27': [700], 's_16_28': [3841], 's_16_30': [3257, 616], 's_16_31': [557], 's_16_32': [229], 's_16_35': [4545], 's_16_36': [670], 's_16_37': [382, 4231], 's_16_39': [272], 's_16_40': [310], 's_16_41': [1151], 's_16_42': [3376, 3377, 662], 's_16_44': [4665], 's_16_45': [955], 's_16_46': [4185], 's_16_47': [3362, 631], 's_18_1': [1491], 's_18_5': [421], 's_18_9': [1477], 's_18_10': [1592], 's_18_17': [3834, 1789], 's_18_19': [1366], 's_18_20': [1579], 's_18_21': [3896], 's_18_22': [1606, 3279, 3278], 's_18_24': [271], 's_18_27': [4117], 's_18_28': [4270], 's_18_29': [3623, 1638], 's_18_30': [3952], 's_18_31': [3347], 's_18_33': [1262], 's_18_34': [1984], 's_18_35': [2031, 4135], 's_18_36': [961], 's_18_37': [3443], 's_18_38': [1774], 's_18_39': [1625], 's_18_40': [3351], 's_18_41': [466], 's_18_42': [1610], 's_18_43': [2043], 's_18_44': [3744], 's_18_46': [3773], 's_18_47': [781], 's_19_5': [4517], 's_19_17': [4788], 's_19_20': [1593], 's_19_21': [4982], 's_19_24': [4938], 's_19_25': [682], 's_19_26': [753], 's_19_27': [4173], 's_19_28': [1023], 's_19_29': [3738], 's_19_30': [3667], 's_19_32': [3668], 's_19_33': [3307], 's_19_36': [4877], 's_19_37': [562], 's_19_39': [3726], 's_19_40': [3411], 's_19_41': [4892], 's_19_42': [1367], 's_19_43': [1639], 's_19_44': [4593], 's_19_45': [4249], 's_19_46': [1368], 's_19_47': [4367], 's_22_9': [1778, 4509], 's_22_10': [3504], 's_22_17': [1823], 's_22_20': [3624], 's_22_21': [4164], 's_22_23': [1817], 's_22_24': [4908, 985, 4909], 's_22_25': [1207], 's_22_26': [1270], 's_22_28': [1809], 's_22_29': [3549], 's_22_30': [1801], 's_22_31': [4566], 's_22_32': [3699], 's_22_33': [1133], 's_22_34': [3429, 1832], 's_22_35': [4479], 's_22_36': [4896, 1225], 's_22_38': [1645], 's_22_39': [4596], 's_22_40': [4475], 's_22_44': [4494], 's_22_45': [865, 4939], 's_22_46': [1821], 's_24_1': [400], 's_24_5': [4080], 's_24_9': [321], 's_24_10': [3796], 's_24_17': [4876, 445], 's_24_20': [3661, 318], 's_24_21': [776], 's_24_25': [4306], 's_24_27': [4833], 's_24_28': [4006, 350], 's_24_29': [259], 's_24_30': [301], 's_24_31': [655, 654], 's_24_34': [411], 's_24_36': [805], 's_24_37': [621], 's_24_38': [821, 820, 819, 818, 4534], 's_24_40': [4471], 's_24_41': [5026], 's_24_43': [3526], 's_24_44': [4681], 's_24_45': [5014], 's_24_46': [4216], 's_24_47': [4577], 's_25_5': [862], 's_25_9': [1222], 's_25_10': [3501], 's_25_17': [1252], 's_25_20': [3621], 's_25_21': [1537], 's_25_26': [892], 's_25_27': [4338], 's_25_28': [4341, 4340], 's_25_31': [1178, 1177], 's_25_32': [1218], 's_25_34': [1205], 's_25_35': [668, 669], 's_25_36': [4310, 4311], 's_25_37': [1492], 's_25_38': [847], 's_25_39': [1400], 's_25_40': [3531], 's_25_41': [4323, 697], 's_25_43': [3755], 's_25_46': [3847], 's_25_47': [1282], 's_26_1': [775, 4713, 4712], 's_26_5': [4594], 's_26_9': [4219], 's_26_10': [3394], 's_26_17': [4764], 's_26_20': [888], 's_26_21': [1466], 's_26_23': [3484], 's_26_28': [3199], 's_26_29': [812], 's_26_30': [886], 's_26_31': [1164], 's_26_33': [4777], 's_26_34': [965], 's_26_35': [1389], 's_26_36': [1315], 's_26_37': [4852], 's_26_38': [1480], 's_26_39': [3469], 's_26_40': [1359, 4792], 's_26_41': [595], 's_26_42': [782], 's_26_44': [714], 's_26_45': [3349], 's_26_46': [4069], 's_28_1': [4090], 's_28_5': [439, 3826], 's_28_9': [4495], 's_28_10': [529], 's_28_20': [993], 's_28_23': [1021], 's_28_27': [3995], 's_28_29': [304], 's_28_30': [3260], 's_28_31': [1089], 's_28_32': [783], 's_28_33': [4671], 's_28_34': [4015], 's_28_35': [4675], 's_28_36': [3589], 's_28_37': [1479], 's_28_39': [1022], 's_28_40': [4386], 's_28_41': [3736], 's_28_42': [1749], 's_28_43': [4630], 's_28_44': [4510], 's_28_46': [1986], 's_28_47': [997], 's_29_1': [4097], 's_29_5': [3976], 's_29_10': [619], 's_29_17': [3579, 1773], 's_29_21': [3521], 's_29_23': [740], 's_29_27': [3873], 's_29_30': [1861], 's_29_31': [3842], 's_29_32': [1233], 's_29_34': [1968], 's_29_36': [3544], 's_29_37': [3412], 's_29_40': [1172], 's_29_41': [620], 's_29_42': [1007], 's_29_43': [3491, 2028], 's_29_44': [3505], 's_29_45': [3543], 's_29_46': [4068], 's_30_5': [3256], 's_30_10': [931], 's_30_20': [3547], 's_30_21': [4162], 's_30_27': [1446], 's_30_31': [556], 's_30_33': [3697], 's_30_34': [3907], 's_30_36': [3259], 's_30_39': [3517], 's_30_40': [3261], 's_30_42': [3263], 's_30_43': [3622], 's_30_47': [661], 's_31_1': [4277], 's_31_5': [3662], 's_31_10': [3797], 's_31_17': [1149], 's_31_20': [558], 's_31_23': [3273, 3272, 511, 3317], 's_31_27': [4127], 's_31_32': [3767], 's_31_33': [4656], 's_31_34': [4142, 576], 's_31_35': [1449], 's_31_36': [4536], 's_31_37': [4702], 's_31_38': [1119, 4700], 's_31_39': [1253, 1254], 's_31_40': [1373], 's_31_43': [559], 's_31_44': [4651], 's_31_45': [4669], 's_31_47': [442], 's_32_5': [423], 's_32_10': [3788], 's_32_20': [603], 's_32_23': [1114], 's_32_33': [3712], 's_32_34': [1999], 's_32_36': [409], 's_32_37': [3698], 's_32_38': [1834], 's_32_39': [528], 's_32_42': [3864], 's_32_43': [1084], 's_32_44': [3700], 's_32_45': [814], 's_32_46': [3802], 's_32_47': [3708], 's_33_5': [713], 's_33_9': [1356], 's_33_17': [1746], 's_33_20': [1338], 's_33_21': [1686], 's_33_23': [1307], 's_33_34': [3996], 's_33_35': [1776], 's_33_36': [4417], 's_33_37': [1442, 3352], 's_33_38': [4225], 's_33_39': [3741], 's_33_40': [3276], 's_33_41': [773], 's_33_42': [1642], 's_33_44': [1013], 's_33_46': [1596], 's_33_47': [893], 's_36_5': [760], 's_36_9': [4477, 4476], 's_36_10': [694], 's_36_17': [1357], 's_36_20': [798], 's_36_21': [1330], 's_36_23': [3500], 's_36_35': [4387, 1523, 1522, 4388], 's_36_37': [1390, 4882], 's_36_40': [1406, 5001], 's_36_41': [910], 's_36_42': [962], 's_36_43': [633], 's_36_44': [1285], 's_36_45': [4927], 's_36_47': [4446], 's_38_5': [954], 's_38_9': [1867, 1868, 4629], 's_38_17': [1734], 's_38_21': [3835], 's_38_34': [4030], 's_38_35': [4690], 's_38_39': [1179], 's_38_40': [4370], 's_38_41': [940], 's_38_42': [1825], 's_38_43': [3760], 's_38_44': [4405], 's_38_45': [4339], 's_38_46': [2136], 's_38_47': [848], 's_39_5': [3482], 's_39_9': [4281], 's_39_17': [4356], 's_39_20': [738], 's_39_27': [4116], 's_39_34': [1385], 's_39_35': [1314], 's_39_37': [4221], 's_39_40': [3171], 's_39_41': [3361], 's_39_42': [857], 's_39_43': [1128], 's_39_44': [3880], 's_39_46': [1534], 's_39_47': [3468], 's_40_1': [235], 's_40_5': [683], 's_40_9': [4280], 's_40_10': [1263], 's_40_17': [443], 's_40_20': [1278], 's_40_23': [3845, 964], 's_40_35': [323], 's_40_37': [1132], 's_40_41': [4501], 's_40_42': [1187], 's_40_43': [3591], 's_40_44': [220], 's_40_45': [4474], 's_40_46': [3771], 's_40_47': [398], 's_43_5': [3586], 's_43_9': [4480], 's_43_10': [394], 's_43_21': [2030], 's_43_23': [334], 's_43_35': [4556], 's_43_45': [919], 's_43_46': [2090], 's_44_1': [3954, 3953], 's_44_5': [293], 's_44_9': [1958, 4570, 1883], 's_44_17': [1777, 4269], 's_44_21': [4000], 's_44_23': [4591], 's_44_34': [3820], 's_44_35': [1824], 's_44_41': [623], 's_44_42': [1779], 's_44_45': [1210], 's_44_47': [1269], 's_45_1': [861], 's_45_5': [774], 's_45_9': [816], 's_45_10': [4174], 's_45_17': [1420], 's_45_20': [858], 's_45_21': [1316], 's_45_23': [3393], 's_45_27': [4804], 's_45_35': [833], 's_45_37': [1525], 's_45_41': [1271], 's_45_42': [3439], 's_45_46': [696], 's_45_47': [908], 's_47_1': [4157], 's_47_9': [3932], 's_47_10': [514], 's_47_17': [4666, 4667, 519], 's_47_20': [3587], 's_47_27': [3918], 's_47_34': [680], 's_47_41': [4413], 's_47_42': [722], 's_47_46': [4426], 's_5_1': [4562], 's_5_9': [397, 4321], 's_5_17': [279, 4815], 's_5_27': [4473], 's_5_35': [653], 's_5_37': [4260], 's_5_41': [3226], 's_5_46': [4305], 's_9_1': [785], 's_9_10': [799], 's_9_23': [4098], 's_9_27': [4143, 651], 's_9_35': [1973], 's_9_41': [4234], 's_9_46': [4125, 306], 's_10_1': [4099], 's_10_20': [1488], 's_10_23': [1159], 's_10_27': [724], 's_10_34': [1772], 's_10_37': [1787], 's_10_41': [469], 's_10_42': [1712], 's_17_1': [4772, 550], 's_17_20': [3639], 's_17_21': [746], 's_17_23': [340], 's_17_27': [4743], 's_17_35': [4389], 's_17_37': [1524], 's_17_41': [4787], 's_17_42': [4673], 's_20_34': [3610], 's_20_37': [3638], 's_20_23': [1097, 1098], 's_21_1': [1416], 's_21_27': [1371], 's_21_34': [3925], 's_21_35': [1880, 1881], 's_21_37': [4793], 's_21_41': [1241], 's_21_42': [1701], 's_21_46': [1671], 's_27_35': [4533], 's_27_37': [786], 's_27_41': [580, 4802], 's_27_46': [1401], 's_34_1': [741], 's_34_23': [425], 's_34_37': [3384], 's_34_41': [485], 's_34_42': [3669], 's_34_46': [1354], 's_35_1': [1928, 1927, 1926], 's_35_23': [4636], 's_35_41': [4592], 's_35_42': [4628], 's_41_1': [591], 's_41_37': [1511], 's_41_23': [4081], 's_41_46': [4067], 's_42_1': [4103], 's_42_37': [1757], 's_42_23': [1292], 's_23_37': [1531], 's_23_46': [260, 4066], 's_37_1': [1386], 's_37_46': [681], 's_46_1': [1730]}</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0.003254041570438799</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.001829033696072875</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>{0: [4423, 2257, 2306, 2305, 2304, 2303, 2333, 4422], 1: [4724, 1991, 4723, 4722, 4721, 4720, 1990], 2: [4678, 2606, 4527, 4528, 2603, 2605, 2604], 4: [4587, 2531, 2528, 4588, 2530, 2529], 6: [2258, 4693, 4691, 2260, 2259, 4692], 7: [4363, 4362, 2396, 2393, 2395, 2394], 8: [2497, 2498, 2501, 2500, 4768, 2499], 10: [4844, 4843, 4842, 4840, 4841], 11: [2141, 4796, 2140, 4874, 4873, 4871, 4872], 12: [2618, 2619, 2620, 4855, 4856, 4857, 4858], 14: [4814, 2319, 4810, 2321, 4811, 4813, 4812, 2320], 15: [4513, 2171, 2170, 2169, 2168, 4512, 4511, 2183], 16: [2680, 2845, 4829, 4828, 4827, 4825, 4826], 17: [5021, 5023, 5022, 2366, 2364, 2365], 18: [2694, 4900, 2695, 4904, 4902, 2576, 4901, 4903], 19: [4437, 2486, 2485, 4438, 2483, 2484], 20: [4378, 4377, 2272, 2275, 2274, 2273], 22: [4601, 4602, 2711, 2710, 2709, 4604, 4603], 24: [2726, 4556, 4557, 4558, 2574, 2725, 2724, 4619], 27: [4467, 4347, 2422, 2426, 2425, 2423, 2424], 28: [2800, 4990, 4994, 4993, 4992, 4991], 30: [2336, 4885, 4886, 2335, 4889, 4888, 4887], 31: [2111, 4738, 2108, 4737, 4736, 2110, 2109], 32: [4573, 2317, 2318, 2243, 2021, 2020, 2019, 4571, 4572], 33: [4945, 4946, 4949, 2245, 4948, 4947], 34: [4961, 2589, 2590, 2561, 4964, 4962, 4963], 35: [4797, 2291, 2290, 4798, 2287, 2288, 2289], 36: [2214, 2666, 2665, 2664, 4646, 4647, 4648], 38: [2635, 2634, 2078, 4663, 4662, 4661, 4660, 2079], 39: [2350, 2349, 5036, 2348, 5038, 5037, 2351], 40: [4451, 4452, 2452, 2455, 2454, 2453], 41: [4555, 2004, 2005, 4870, 2065, 4979, 4978, 4977, 4976], 43: [4317, 4272, 2377, 2378, 2381, 2380, 2379], 44: [5113, 2471, 4302, 2470, 2467, 2468, 2469], 45: [4542, 4541, 4466, 2156, 2155, 2154, 4543, 2153], 46: [2441, 2437, 2440, 2439, 2438], 47: [4408, 4332, 2407, 2411, 2410, 2409, 2408], 48: [4739, 4481, 4482, 4483, 2648, 2649, 2651, 2650], 3: [4780, 2516, 2515, 4781, 4782, 4784, 4783], 5: [4393, 4392, 2201, 2200, 2199, 2198], 13: [2456, 4676, 5068, 5066, 5067, 2184, 2186, 2185], 21: [2216, 2215, 4751, 4754, 4753, 4752], 23: [2363, 2588, 2036, 4498, 4497, 4496, 2138, 2139, 4766, 2035], 25: [1960, 1961, 5009, 5005, 5006, 5008, 5007], 26: [5083, 2547, 2546, 2543, 2544, 2545], 29: [2769, 2770, 4915, 4916, 4919, 4918, 4917], 42: [2230, 2229, 4618, 4617, 4526, 2228], 37: [2559, 4708, 2093, 2095, 2094, 4707, 4706], 9: [2125, 4934, 2080, 4933, 4931, 4932]}</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.4535797925727668</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.03236328162632172</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>{0: [4423, 2257, 2306, 2305, 2304, 2303, 2333, 4422], 1: [4724, 1991, 4723, 4722, 4721, 4720, 1990], 2: [4678, 2606, 4527, 4528, 2603, 2605, 2604], 4: [4587, 2531, 2528, 4588, 2530, 2529], 6: [2258, 4693, 4691, 2260, 2259, 4692], 7: [4363, 4362, 2396, 2393, 2395, 2394], 8: [2497, 2498, 2501, 2500, 4768, 2499], 10: [4844, 4843, 4842, 4840, 4841], 11: [2141, 4796, 2140, 4874, 4873, 4871, 4872], 12: [2618, 2619, 2620, 4855, 4856, 4857, 4858], 14: [4814, 2319, 4810, 2321, 4811, 4813, 4812, 2320], 15: [4513, 2171, 2170, 2169, 2168, 4512, 4511, 2183], 16: [2680, 2845, 4829, 4828, 4827, 4825, 4826], 17: [5021, 5023, 5022, 2366, 2364, 2365], 18: [2694, 4900, 2695, 4904, 4902, 2576, 4901, 4903], 19: [4437, 2486, 2485, 4438, 2483, 2484], 20: [4378, 4377, 2272, 2275, 2274, 2273], 22: [4601, 4602, 2711, 2710, 2709, 4604, 4603], 24: [2726, 4556, 4557, 4558, 2574, 2725, 2724, 4619], 27: [4467, 4347, 2422, 2426, 2425, 2423, 2424], 28: [2800, 4990, 4994, 4993, 4992, 4991], 30: [2336, 4885, 4886, 2335, 4889, 4888, 4887], 31: [2111, 4738, 2108, 4737, 4736, 2110, 2109], 32: [4573, 2317, 2318, 2243, 2021, 2020, 2019, 4571, 4572], 33: [4945, 4946, 4949, 2245, 4948, 4947], 34: [4961, 2589, 2590, 2561, 4964, 4962, 4963], 35: [4797, 2291, 2290, 4798, 2287, 2288, 2289], 36: [2214, 2666, 2665, 2664, 4646, 4647, 4648], 38: [2635, 2634, 2078, 4663, 4662, 4661, 4660, 2079], 39: [2350, 2349, 5036, 2348, 5038, 5037, 2351], 40: [4451, 4452, 2452, 2455, 2454, 2453], 41: [4555, 2004, 2005, 4870, 2065, 4979, 4978, 4977, 4976], 43: [4317, 4272, 2377, 2378, 2381, 2380, 2379], 44: [5113, 2471, 4302, 2470, 2467, 2468, 2469], 45: [4542, 4541, 4466, 2156, 2155, 2154, 4543, 2153], 46: [2441, 2437, 2440, 2439, 2438], 47: [4408, 4332, 2407, 2411, 2410, 2409, 2408], 48: [4739, 4481, 4482, 4483, 2648, 2649, 2651, 2650], 3: [4780, 2516, 2515, 4781, 4782, 4784, 4783], 5: [4393, 4392, 2201, 2200, 2199, 2198], 13: [2456, 4676, 5068, 5066, 5067, 2184, 2186, 2185], 21: [2216, 2215, 4751, 4754, 4753, 4752], 23: [2363, 2588, 2036, 4498, 4497, 4496, 2138, 2139, 4766, 2035], 25: [1960, 1961, 5009, 5005, 5006, 5008, 5007], 26: [5083, 2547, 2546, 2543, 2544, 2545], 29: [2769, 2770, 4915, 4916, 4919, 4918, 4917], 42: [2230, 2229, 4618, 4617, 4526, 2228], 37: [2559, 4708, 2093, 2095, 2094, 4707, 4706], 9: [2125, 4934, 2080, 4933, 4931, 4932]}</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0.4535797925727668</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.03236328162632172</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>{0: [4975, 4165, 515, 1946, 1945, 546, 231, 4021, 4022, 4023, 4024, 906, 4009, 4010, 1944, 1943, 1942, 1941, 4104, 4103, 4102, 1505, 4011, 4012], 1: [830, 4455, 277, 3964, 980, 981, 1617, 982, 983, 5003, 1616, 4322, 1615, 1614, 4613, 4612, 4324, 4611, 4321, 4323, 4610], 's_0_1': [860], 2: [350, 1030, 1029, 3931, 3940, 3932, 3939, 3938, 3937, 3936, 3935, 1028, 1027, 1026, 1025, 3933, 3934], 's_0_2': [1715], 4: [744, 1093, 708, 1092, 709, 3875, 3874, 3873, 4203, 1091, 710, 711, 712, 713, 1090, 707, 1089, 4580, 4579, 4578], 's_0_4': [845], 6: [263, 262, 261, 260, 259, 3765, 3766, 3767, 1977, 3768, 3769, 4591, 3770, 1976, 1975, 1974, 4645, 2093, 2092, 2091, 2090, 2089, 3775, 3774, 3773, 3772, 3771], 's_0_6': [4885, 1930], 7: [4659, 1014, 2139, 475, 4803, 1795, 715, 4925, 2140, 1076, 1869, 4781, 1539, 4780, 4779, 4778, 4777, 4936, 4937, 4938, 4939, 4940, 1075, 4775, 4776], 's_0_7': [4809], 8: [1862, 1863, 1497, 1496, 1864, 3895, 3894, 3893, 1475, 1476, 4897, 1360, 1359, 4597, 1358, 1357, 4327, 1477], 's_0_8': [4028], 10: [402, 401, 400, 399, 4562, 3640, 3639, 648, 533, 532, 531, 530, 3917, 3638, 3637, 1459, 3802, 1999, 3801, 3800, 3799, 3798, 649], 's_0_10': [4007], 11: [3516, 3588, 3465, 873, 872, 1157, 4421, 2110, 2109, 2108, 2107, 4241, 2062, 2061, 2060, 2059, 3790, 3789, 3788, 3466, 3467, 723, 3468, 3469, 3470, 3471, 3472, 3473, 1668, 1669], 's_0_11': [4345], 12: [1916, 1915, 4761, 4446, 4839, 3620, 1525, 1158, 4838, 4837, 4836, 4581, 1270, 3681, 1264, 1265, 1266, 4266, 1269, 1268, 1267], 's_0_12': [3996], 14: [4164, 3488, 3654, 3653, 4459, 3443, 1547, 1548, 1549, 1550, 5106, 1212, 4149, 1211, 1210, 1209, 1208, 4460, 4461, 4148, 1551, 1552, 4462], 's_0_14': [4073], 15: [548, 4966, 2138, 1103, 1403, 4511, 356, 355, 354, 4636, 458, 4510, 1868, 4509, 4508, 4507, 4506, 4505, 4502, 4503, 4504], 's_0_15': [1926, 1927, 1928], 16: [4470, 1523, 4471, 4472, 4473, 4474, 4475, 4476, 4477, 4479, 848, 4480, 3455, 3456, 3457, 3458, 188, 4478, 3459, 3460, 2028, 2029, 2030, 2031, 2032, 1524, 2033], 's_0_16': [4180], 17: [3967, 753, 4147, 3678, 3945, 3618, 663, 3708, 664, 665, 1659, 4494, 4493, 1658, 1657, 4193, 4192, 1356, 3946, 3947, 695, 3948, 3949, 1660, 3950, 3951, 1355], 's_0_17': [275], 18: [3961, 636, 4440, 1582, 4037, 4877, 518, 4876, 385, 384, 383, 4427, 1341, 4238, 4237, 4236, 4235, 4234, 4441, 442, 4561, 293, 292, 291, 4186, 440, 4233, 4232, 441], 's_0_18': [381, 4111], 19: [4819, 865, 1504, 4817, 4818, 804, 1894, 802, 801, 800, 799, 3751, 803, 3752, 3753, 3759, 3757, 3865, 3758, 3756, 3755, 3754], 's_0_19': [4008], 20: [3579, 4140, 3816, 4141, 4142, 3578, 3577, 3576, 1248, 1249, 1250, 683, 682, 681, 4143, 951, 4025, 4144, 4026], 's_0_20': [756], 22: [5314, 5315, 5316, 5152, 1414, 4061, 4060, 4059, 4058, 5317, 4051, 4052, 4053, 4054, 1423, 1422, 1415, 4055, 4056, 4057, 1416, 1417, 1421, 1420, 1419, 1418], 's_0_22': [1776], 24: [2027, 3430, 3813, 4864, 4744, 1833, 1832, 4743, 4742, 1502, 3429, 3428, 3427, 3426, 3425, 3424, 4741, 3556, 925, 3557, 3558, 827, 324, 323, 322, 321, 4156, 4157, 4158, 771, 770, 769, 3709, 828], 's_0_24': [320], 27: [1901, 1122, 3497, 3781, 408, 409, 410, 654, 411, 412, 413, 414, 415, 4831, 4832, 655, 656, 5088, 5089, 5090, 5095, 5094, 5093, 5092, 5091], 's_0_27': [5110], 28: [4984, 5078, 1571, 4985, 4986, 4987, 4988, 1751, 5064, 1811, 1810, 1337, 3532, 3533, 3534, 1743, 1744, 1745, 1746, 4118, 1701, 4254, 1807, 1808, 1809], 's_0_28': [5049, 5050], 30: [1149, 4736, 4735, 4734, 4733, 4732, 4731, 1194, 4670, 4669, 4668, 214, 215, 216, 217, 218, 219, 4665, 4666, 4667], 's_0_30': [4720], 31: [3544, 3785, 5286, 5285, 1032, 3980, 5179, 1083, 5239, 912, 5119, 4114, 4205, 3530, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 4849, 895, 896], 's_0_31': [921], 32: [5060, 1046, 3409, 4999, 4998, 4997, 4996, 4995, 250, 1101, 3412, 3411, 3410, 1067, 249, 248, 247, 246, 245, 244, 243, 242, 3511, 3512, 3513, 3514, 3515, 1068, 1069, 1070, 4040], 's_0_32': [4005], 33: [956, 1542, 574, 575, 576, 577, 4697, 5229, 5228, 5227, 5226, 5225, 5224, 4384, 4383, 578, 579, 580, 581, 5012, 686, 5058, 822, 821, 5059], 's_0_33': [3962], 34: [1519, 4519, 878, 877, 1517, 4217, 4218, 4219, 876, 875, 1518, 3727, 3726, 3725, 3724, 874], 's_0_34': [470, 471], 35: [1196, 4563, 1481, 5032, 4089, 4413, 3864, 1655, 1656, 4088, 5031, 5030, 4594, 4593, 4087, 4086, 4085, 4084, 4083, 726, 5029, 1759, 5028, 731, 730, 729, 728, 727], 's_0_35': [1641], 36: [611, 4517, 5103, 4211, 4210, 4209, 5102, 1521, 506, 505, 504, 503, 502, 4261, 1520, 1102, 4208, 4207, 4206, 606, 4262, 4263, 4264, 1191, 4265], 's_0_36': [1791], 38: [3835, 3736, 4822, 453, 3602, 3603, 3604, 3605, 1405, 4792, 4793, 4794, 1719, 4825, 4600, 4823, 4824, 1914, 1913, 1912, 1911, 1910, 1909, 1908, 3610, 3609, 3608, 3607, 1218, 3606], 's_0_38': [4150], 39: [369, 4546, 4547, 4548, 5137, 5136, 5151, 4549, 954, 5147, 5148, 5149, 955, 4790, 5199, 1842, 1841, 1839, 1840, 4854, 4853, 4852, 4851, 4850, 1060, 1061, 1062, 5150], 's_0_39': [4765], 40: [1537, 1371, 4808, 1401, 4282, 4177, 3398, 1727, 1728, 1729, 1730, 4915, 4914, 1462, 4312, 4313, 5166, 5167, 5168, 1731, 1732, 1733, 1734, 5270, 5271, 5272, 5273, 5274, 1737, 1736, 1735], 's_0_40': [1430, 1431], 41: [1491, 1017, 4120, 1564, 3698, 2095, 3683, 1835, 4855, 5300, 5301, 5302, 5303, 5304, 5305, 1962, 1961, 1487, 1488, 1489, 1490, 3878, 3879, 3880, 1960, 1959, 1958, 1957, 1956, 1971, 1970], 's_0_41': [5080], 43: [4251, 1160, 1161, 4115, 4906, 430, 429, 4726, 4727, 4728, 4729, 879, 2124, 1176, 1177, 1178, 2004, 4630, 4629, 4628, 4627, 4626, 4625, 4624], 's_0_43': [4615], 44: [1853, 1852, 1851, 4045, 1955, 457, 428, 427, 4291, 367, 366, 1954, 3669, 3668, 3667, 3666, 365, 364, 1953, 3665, 3664, 3663, 3662, 3670, 3661], 's_0_44': [4284], 45: [851, 5074, 5046, 1923, 1924, 4745, 4014, 4703, 3985, 1256, 1255, 1254, 4746, 1224, 4701, 4702, 1494, 4583, 5076, 1598, 4448, 4449, 3564, 1867, 1866, 1865, 3954, 5075, 1925], 's_0_45': [4255], 46: [3738, 3739, 978, 979, 3919, 1220, 4239, 1782, 1781, 1780, 3920, 3982, 1779, 4614, 1688, 1687, 3981, 1686, 1685, 3983], 's_0_46': [4674], 47: [1205, 1206, 4221, 1132, 999, 1000, 4971, 926, 4894, 4895, 4896, 847, 4339, 3760, 1241, 1984, 1985, 1986, 1987, 1988, 4435, 4434, 4433, 4432, 4340, 1147, 4431, 4866, 1240, 1239, 1238], 's_0_47': [2001], 48: [1136, 987, 971, 596, 3886, 5045, 758, 759, 760, 761, 724, 986, 5044, 5042, 5041, 5043, 258, 3723, 544, 3722, 3721, 311, 310, 309, 308, 307, 306, 305, 304, 3720], 's_0_48': [4110], 's_1_2': [920], 3: [3690, 1252, 3691, 3692, 3693, 3923, 3694, 3695, 3922, 3696, 1278, 3921, 4385, 4386, 1192, 4326, 1282, 1281, 1280, 1279], 's_1_3': [967], 's_1_4': [998], 5: [4650, 4651, 489, 4586, 2019, 4607, 4608, 1972, 1973, 4540, 5118, 701, 700, 699, 4623, 833, 4534, 1718, 4539, 4538, 4537, 4536, 4535], 's_1_5': [4643], 's_1_6': [4305], 's_1_8': [1343], 's_1_12': [5002], 13: [4396, 4101, 3396, 1322, 1315, 4397, 4398, 4399, 4400, 4401, 4402, 1314, 1323, 1324, 3877, 1310, 1311, 1312, 1313], 's_1_13': [4381], 's_1_14': [4444], 's_1_16': [173], 's_1_18': [892], 's_1_19': [4609], 21: [4913, 4912, 1451, 1317, 4307, 1316, 4957, 484, 3812, 3857, 560, 561, 562, 4487, 563, 564, 565, 4956, 4955, 4954, 4953, 625, 595, 4862], 's_1_21': [637], 's_1_22': [5153], 23: [3505, 3826, 3965, 1115, 3830, 3501, 1056, 3502, 1055, 3503, 1059, 3829, 3827, 3828, 1114, 3504, 1113, 1057, 1164, 1058, 4730], 's_1_23': [4595], 's_1_24': [4290], 25: [3444, 1712, 4787, 820, 3519, 3518, 969, 1398, 3517, 1399, 1400, 4042, 4041, 1116, 4788, 4789, 4684, 4685, 819, 1119, 1118, 1117], 's_1_25': [1074], 26: [2106, 1556, 829, 3904, 964, 3859, 3860, 3861, 1555, 3862, 3863, 1625, 1626, 4135, 4134, 4718, 3902, 4719, 1764, 1763, 1762, 1554, 1761, 3903, 4133], 's_1_26': [4763], 29: [3916, 2154, 1777, 4601, 2048, 2047, 4171, 500, 501, 4172, 4173, 4174, 4175, 1087, 4295, 4300, 4299, 4298, 4297, 4296], 's_1_29': [952], 's_1_31': [4099], 's_1_33': [5288], 's_1_34': [3994], 's_1_35': [742], 's_1_36': [517], 's_1_38': [1600], 's_1_39': [5004], 's_1_40': [5198], 42: [4146, 5212, 5213, 5214, 996, 995, 2082, 2081, 2080, 2079, 4691, 994, 993, 3589, 3590, 3591, 3592, 3593, 1878, 3700, 4145, 3701, 2134, 3594, 5210, 2185, 2184, 2183, 5211, 2182, 5215, 4196, 2136, 2135], 's_1_42': [4070], 's_1_43': [1538], 's_1_44': [352], 's_1_46': [890], 's_1_47': [5016, 1331, 5181, 5182, 5183], 's_2_4': [3963, 755], 's_2_7': [4910], 's_2_8': [1790], 's_2_11': [2045], 's_2_12': [4565, 4566, 1148], 's_2_13': [1385], 's_2_14': [1535], 's_2_15': [4430], 's_2_16': [2015], 's_2_17': [3930], 's_2_18': [351], 's_2_20': [936, 935], 's_2_21': [485], 's_2_23': [3995], 's_2_24': [4834], 's_2_25': [4804], 's_2_26': [545], 's_2_27': [3976], 's_2_28': [1760], 's_2_29': [455, 4096], 's_2_32': [3871], 's_2_33': [620, 3977], 's_2_34': [4279], 's_2_35': [1895], 's_2_36': [4190], 37: [1593, 4178, 1566, 4132, 4038, 4717, 741, 740, 3542, 678, 679, 3541, 3843, 3844, 1594, 3848, 1450, 1449, 1448, 1447, 1446, 1445, 3845, 3846, 3847], 's_2_37': [1595], 's_2_39': [4639], 's_2_40': [3953], 's_2_41': [1670], 's_2_42': [3941], 's_2_43': [1175], 's_2_44': [3901], 's_2_45': [1805], 's_2_47': [2074, 2075], 's_2_48': [3991], 's_4_5': [774], 's_4_6': [634], 's_4_7': [5105], 's_4_10': [3888], 's_4_11': [692], 's_4_12': [3876], 's_4_13': [697], 's_4_15': [608], 's_4_16': [863], 's_4_17': [3783], 's_4_18': [651], 's_4_19': [4443], 's_4_20': [4248], 's_4_21': [4353, 667], 's_4_22': [4068], 's_4_23': [3890], 's_4_24': [3573, 738], 's_4_25': [849, 4638], 's_4_26': [814], 's_4_28': [1106], 's_4_29': [3872], 's_4_30': [714], 's_4_31': [4204], 's_4_32': [3408], 's_4_33': [5240], 's_4_34': [3889], 's_4_35': [743], 's_4_36': [621], 's_4_37': [1085], 's_4_39': [5015], 's_4_40': [1108], 's_4_41': [5330], 's_4_42': [5195], 's_4_43': [939], 's_4_44': [693], 's_4_45': [1105], 's_4_46': [1100], 's_4_47': [4293], 's_6_5': [4541], 's_6_8': [1699], 's_6_10': [2014], 's_6_13': [1354], 's_6_14': [1804], 's_6_15': [4556], 's_6_17': [3915, 155], 's_6_18': [4231], 's_6_19': [754], 's_6_21': [424], 's_6_23': [154, 3825], 's_6_24': [4216, 336], 's_6_25': [1384], 's_6_26': [2046, 4256], 's_6_27': [1857, 5125], 's_6_28': [3699, 1774], 's_6_30': [204, 4590], 's_6_31': [1144], 's_6_32': [3810], 's_6_33': [5230], 's_6_34': [1084], 's_6_35': [4412, 4411], 's_6_36': [4226], 's_6_37': [1174], 's_6_38': [454], 's_6_39': [5140], 's_6_40': [5005, 2065], 's_6_41': [1947, 5260], 's_6_42': [5020], 's_6_43': [340, 339], 's_6_44': [394], 's_6_46': [1009], 's_6_47': [2119], 's_6_48': [3900], 's_7_8': [4942, 1390], 9: [5019, 2003, 4308, 4883, 4458, 4361, 5018, 4360, 4359, 4358, 1676, 1675, 4366, 787, 4673, 1674, 1673, 4373, 4367, 4368, 4369, 4370, 4371, 4372], 's_7_9': [4944], 's_7_11': [4901], 's_7_12': [1630], 's_7_13': [1300], 's_7_14': [4820], 's_7_15': [221], 's_7_17': [4688], 's_7_18': [610], 's_7_19': [850], 's_7_21': [460], 's_7_22': [1435], 's_7_23': [1135], 's_7_27': [416], 's_7_28': [1015], 's_7_29': [2049], 's_7_30': [2094], 's_7_31': [4880], 's_7_32': [4802, 4800, 670, 4801, 4878, 790], 's_7_33': [4773], 's_7_35': [776], 's_7_36': [4907], 's_7_37': [1465], 's_7_38': [2035], 's_7_39': [4835], 's_7_40': [1077], 's_7_41': [4916], 's_7_42': [4661], 's_7_45': [984], 's_7_46': [4869], 's_7_47': [880, 4924], 's_7_48': [566], 's_8_3': [3907], 's_8_5': [4582, 1388], 's_8_11': [3896], 's_8_12': [4311], 's_8_13': [4641], 's_8_14': [4117], 's_8_15': [1328], 's_8_16': [1373], 's_8_17': [4328], 's_8_18': [4253], 's_8_19': [3924], 's_8_21': [5001], 's_8_22': [4762], 's_8_23': [3490], 's_8_25': [4043, 1610], 's_8_26': [5108], 's_8_27': [5077], 's_8_28': [3834], 's_8_29': [1492], 's_8_30': [4655, 4656, 1389], 's_8_33': [5242], 's_8_34': [1474], 's_8_35': [5062], 's_8_36': [4223], 's_8_37': [1404], 's_8_38': [4927], 's_8_39': [1510], 's_8_40': [1361], 's_8_41': [3910, 3909], 's_8_42': [5197], 's_8_43': [1434], 's_8_45': [3549], 's_8_47': [4806], 's_10_5': [5117], 's_10_11': [1639], 's_10_13': [3682], 's_10_15': [5086], 's_10_16': [3730], 's_10_17': [3633], 's_10_18': [4187], 's_10_19': [2000], 's_10_20': [4112], 's_10_21': [4757], 's_10_22': [516], 's_10_23': [1998], 's_10_24': [859], 's_10_25': [1758], 's_10_26': [3918], 's_10_27': [398], 's_10_28': [1428], 's_10_29': [3887], 's_10_31': [934, 933], 's_10_32': [4577, 4576], 's_10_33': [4532, 4531], 's_10_35': [4082], 's_10_36': [446, 5071], 's_10_38': [3636, 3635, 1023], 's_10_39': [5132], 's_10_41': [1834], 's_10_43': [4891], 's_10_44': [443], 's_10_45': [3655], 's_10_46': [949], 's_10_47': [3685], 's_10_48': [844], 's_11_3': [1684], 's_11_5': [4675], 's_11_9': [2152], 's_11_12': [1263], 's_11_13': [1397], 's_11_14': [1638], 's_11_15': [2123], 's_11_16': [1052], 's_11_17': [768], 's_11_19': [1969], 's_11_20': [1293], 's_11_22': [4076], 's_11_23': [3531], 's_11_25': [1623], 's_11_27': [393], 's_11_28': [3804], 's_11_29': [2122], 's_11_30': [4721], 's_11_31': [3559], 's_11_32': [812], 's_11_34': [1579], 's_11_37': [3743], 's_11_40': [3489], 's_11_41': [4886], 's_11_43': [2125], 's_11_44': [363], 's_11_45': [4420], 's_11_47': [4375], 's_11_48': [257], 's_12_3': [1143], 's_12_5': [1284], 's_12_9': [1540], 's_12_13': [3966], 's_12_14': [1253], 's_12_15': [4491], 's_12_16': [1193], 's_12_17': [4281], 's_12_19': [1129], 's_12_22': [4267], 's_12_23': [3650], 's_12_25': [4416], 's_12_26': [4928], 's_12_27': [1900], 's_12_28': [1691, 1690], 's_12_29': [1297], 's_12_30': [1645], 's_12_32': [1098], 's_12_35': [4943], 's_12_38': [3575], 's_12_39': [1570], 's_12_40': [1720], 's_12_42': [1128], 's_12_43': [4116], 's_12_44': [1053], 's_14_3': [1012], 's_14_5': [1568], 's_14_9': [1507], 's_14_13': [1372], 's_14_16': [1607], 's_14_17': [1536], 's_14_18': [4403], 's_14_19': [1849], 's_14_20': [1773], 's_14_21': [5241], 's_14_23': [1697], 's_14_24': [1622], 's_14_26': [1534], 's_14_27': [1137], 's_14_28': [1716], 's_14_29': [1162], 's_14_30': [4805], 's_14_35': [1181], 's_14_36': [1596], 's_14_37': [3713], 's_14_38': [1698], 's_14_40': [1652], 's_14_41': [3803], 's_14_42': [997], 's_14_43': [4445], 's_14_44': [1819], 's_14_45': [4911], 's_15_3': [1088], 's_15_9': [773], 's_15_16': [2018], 's_15_17': [1823], 's_15_20': [4442], 's_15_21': [668], 's_15_22': [4522], 's_15_23': [1073], 's_15_25': [4520], 's_15_27': [4486], 's_15_28': [4554], 's_15_31': [4415], 's_15_32': [341], 's_15_33': [4637], 's_15_34': [938], 's_15_35': [818], 's_15_36': [4816], 's_15_38': [4570], 's_15_39': [473], 's_15_40': [4524], 's_15_41': [4450, 4451], 's_15_42': [2137], 's_15_43': [4967], 's_15_44': [4501], 's_15_47': [4417], 's_15_48': [5101], 's_16_3': [1283], 's_16_9': [698], 's_16_13': [1382], 's_16_17': [1628], 's_16_18': [278], 's_16_20': [1473], 's_16_21': [653], 's_16_22': [4672], 's_16_23': [1187], 's_16_24': [1772], 's_16_25': [1352], 's_16_26': [1553], 's_16_29': [2034], 's_16_30': [4500], 's_16_31': [1037], 's_16_32': [4350], 's_16_33': [593], 's_16_34': [908], 's_16_35': [4090], 's_16_36': [233, 4260, 232], 's_16_37': [4492], 's_16_38': [1907], 's_16_39': [338], 's_16_40': [1757], 's_16_41': [3925], 's_16_44': [3595], 's_16_45': [4568], 's_16_46': [1703], 's_16_47': [3970], 's_16_48': [4488], 's_17_3': [633], 's_17_5': [4599], 's_17_13': [1386], 's_17_18': [290], 's_17_21': [590], 's_17_22': [815], 's_17_23': [380], 's_17_24': [3679], 's_17_25': [1340], 's_17_26': [4194], 's_17_27': [3677], 's_17_28': [1611], 's_17_30': [3960, 200], 's_17_31': [3543], 's_17_34': [696], 's_17_36': [1506], 's_17_37': [588, 3587], 's_17_38': [3617], 's_17_39': [4585, 1883], 's_17_41': [3952], 's_17_44': [603], 's_17_45': [1613], 's_17_47': [1643], 's_17_48': [694], 's_18_3': [1072], 's_18_9': [487], 's_18_13': [368], 's_18_19': [439], 's_18_22': [425], 's_18_24': [4426], 's_18_25': [520], 's_18_27': [397], 's_18_29': [547], 's_18_30': [4635], 's_18_31': [937], 's_18_32': [4185], 's_18_33': [862], 's_18_36': [382, 4306], 's_18_39': [353], 's_18_40': [1432], 's_18_42': [1326], 's_18_43': [4861], 's_18_44': [4351], 's_18_46': [4343], 's_18_48': [4771], 's_19_3': [589], 's_19_5': [4713], 's_19_9': [4414], 's_19_20': [1339], 's_19_21': [469], 's_19_22': [1429], 's_19_23': [784], 's_19_24': [4039], 's_19_25': [834], 's_19_26': [1624], 's_19_27': [334], 's_19_29': [499], 's_19_30': [3750], 's_19_32': [805], 's_19_33': [4698], 's_19_34': [919], 's_19_35': [785], 's_19_36': [786], 's_19_37': [4128], 's_19_38': [379], 's_19_39': [4879], 's_19_41': [3819, 1789], 's_19_42': [1879], 's_19_44': [798], 's_19_45': [3820], 's_19_48': [559], 's_20_3': [1204], 's_20_9': [4457], 's_20_13': [3561], 's_20_21': [4097], 's_20_24': [4127, 591], 's_20_25': [3817], 's_20_26': [1219], 's_20_27': [396], 's_20_28': [1458], 's_20_29': [816], 's_20_30': [4155], 's_20_31': [4129], 's_20_32': [965], 's_20_34': [4159], 's_20_35': [861], 's_20_36': [456], 's_20_37': [4027], 's_20_38': [1938], 's_20_40': [1713], 's_20_41': [1608], 's_20_42': [1443], 's_20_43': [684], 's_20_44': [1383], 's_20_46': [1190], 's_20_47': [846], 's_20_48': [4533], 's_22_3': [4387], 's_22_5': [1433], 's_22_9': [5017], 's_22_13': [4567], 's_22_21': [1318], 's_22_23': [1071], 's_22_25': [3787], 's_22_27': [1376], 's_22_28': [1671], 's_22_29': [666], 's_22_32': [1086], 's_22_33': [5347], 's_22_34': [891], 's_22_38': [4882], 's_22_39': [1437], 's_22_40': [1302], 's_22_41': [1303], 's_22_42': [1332], 's_22_43': [1145], 's_22_44': [4075], 's_22_45': [4447], 's_22_46': [1221], 's_22_47': [4972], 's_22_48': [4066], 's_24_3': [3814, 3815, 1024], 's_24_5': [669], 's_24_13': [1262], 's_24_21': [550], 's_24_23': [1112], 's_24_25': [1682], 's_24_26': [725], 's_24_27': [467], 's_24_28': [1367], 's_24_29': [486], 's_24_30': [534], 's_24_31': [3454, 962], 's_24_32': [902], 's_24_33': [4758], 's_24_35': [4863], 's_24_36': [772], 's_24_37': [632], 's_24_38': [452], 's_24_40': [1667], 's_24_41': [1501, 3353], 's_24_42': [992], 's_24_43': [444], 's_24_45': [1877], 's_24_46': [3649], 's_24_47': [970], 's_24_48': [4246], 's_27_3': [319], 's_27_5': [4908], 's_27_9': [1721], 's_27_13': [4382], 's_27_23': [289], 's_27_25': [4833, 745], 's_27_28': [5079], 's_27_31': [836], 's_27_32': [640], 's_27_33': [582, 5162], 's_27_35': [5133, 732], 's_27_36': [5072, 5073, 762], 's_27_37': [558], 's_27_39': [957], 's_27_41': [2007, 2008], 's_27_42': [1827, 5169, 5170], 's_27_43': [371, 370], 's_27_44': [3631], 's_27_45': [1166], 's_27_46': [5034], 's_27_47': [927], 's_27_48': [4830], 's_28_5': [1824], 's_28_13': [3441], 's_28_21': [1436], 's_28_23': [1165], 's_28_26': [3908], 's_28_32': [985], 's_28_33': [1662, 1661], 's_28_34': [3728], 's_28_35': [1391], 's_28_36': [4224], 's_28_37': [3849], 's_28_39': [5000], 's_28_40': [3984], 's_28_41': [3684], 's_28_42': [1752], 's_28_43': [4644], 's_28_44': [3535], 's_28_45': [3969], 's_28_46': [1747], 's_28_47': [1345], 's_28_48': [1031], 's_30_3': [3795, 199], 's_30_9': [1599], 's_30_13': [4716], 's_30_21': [4652], 's_30_25': [4653, 789], 's_30_26': [1884], 's_30_29': [4170], 's_30_31': [4715], 's_30_32': [4695], 's_30_33': [519], 's_30_35': [864], 's_30_36': [4277, 4276, 4275], 's_30_37': [1509], 's_30_43': [295, 294], 's_30_44': [4336, 4335], 's_30_46': [1794], 's_30_47': [1150], 's_30_48': [3645], 's_31_3': [1099], 's_31_9': [4309], 's_31_13': [3786], 's_31_26': [3784], 's_31_29': [966], 's_31_33': [837], 's_31_35': [791], 's_31_37': [4113], 's_31_38': [3560], 's_31_39': [882], 's_31_40': [1273], 's_31_41': [1227], 's_31_42': [5209], 's_31_43': [4699, 4700], 's_31_45': [1257], 's_31_46': [3574], 's_31_47': [5014], 's_31_48': [866], 's_32_3': [287, 288, 3706], 's_32_5': [4606], 's_32_13': [1292], 's_32_23': [1202], 's_32_25': [4100], 's_32_26': [888, 889], 's_32_33': [1047], 's_32_35': [746], 's_32_36': [521], 's_32_37': [528], 's_32_38': [498], 's_32_39': [1001], 's_32_41': [1472], 's_32_42': [948], 's_32_43': [4160], 's_32_44': [303], 's_32_45': [1016], 's_32_46': [977], 's_32_47': [941], 's_32_48': [3570], 's_33_5': [5208, 747], 's_33_9': [832], 's_33_25': [609], 's_33_26': [1541, 5063], 's_33_34': [923], 's_33_35': [5013], 's_33_36': [5057], 's_33_37': [573], 's_33_39': [852], 's_33_40': [1407], 's_33_41': [5299], 's_33_42': [1572], 's_33_43': [459], 's_33_44': [4621, 4622], 's_33_46': [5244], 's_33_48': [4982], 's_34_3': [1188], 's_34_5': [893], 's_34_9': [4354], 's_34_13': [1309], 's_34_21': [4202], 's_34_23': [1054], 's_34_25': [3652], 's_34_29': [4294], 's_34_36': [922], 's_34_38': [1008], 's_34_39': [968], 's_34_41': [3547], 's_34_43': [4250, 4249], 's_34_48': [4518], 's_35_3': [1714], 's_35_5': [4848], 's_35_9': [4338], 's_35_13': [652], 's_35_21': [1286], 's_35_23': [1010], 's_35_25': [1370], 's_35_26': [4163], 's_35_36': [4968, 716], 's_35_37': [1461], 's_35_38': [1480], 's_35_40': [4074], 's_35_41': [1820], 's_35_42': [1296], 's_35_45': [4044, 1821], 's_35_46': [3998], 's_35_47': [911], 's_36_3': [1222], 's_36_5': [597], 's_36_23': [4325], 's_36_25': [4772], 's_36_26': [1881], 's_36_37': [4222], 's_36_39': [567], 's_36_40': [1642], 's_36_41': [2076], 's_36_42': [2167], 's_36_43': [4846], 's_36_44': [426], 's_36_46': [1672], 's_36_47': [4225], 's_36_48': [536], 's_38_3': [438], 's_38_5': [2020], 's_38_13': [3651], 's_38_21': [1406], 's_38_25': [1818], 's_38_26': [1825], 's_38_37': [4807], 's_38_39': [4795], 's_38_40': [4658], 's_38_41': [1578], 's_38_42': [3624], 's_38_43': [1898], 's_38_44': [1968], 's_38_45': [3744], 's_38_46': [3619], 's_38_47': [1897], 's_38_48': [3632], 's_39_5': [626], 's_39_9': [4884], 's_39_13': [953], 's_39_21': [623], 's_39_23': [4760], 's_39_26': [4689], 's_39_37': [4867, 1375], 's_39_40': [1467], 's_39_41': [1887], 's_39_42': [1902], 's_39_43': [4654], 's_39_44': [1838], 's_39_45': [1107], 's_39_46': [5184], 's_39_47': [1271, 1272], 's_39_48': [1151], 's_40_3': [4131], 's_40_5': [4584], 's_40_9': [1706], 's_40_13': [4176], 's_40_23': [1592], 's_40_29': [1567], 's_40_37': [1463], 's_40_41': [1678], 's_40_42': [1287], 's_40_43': [4252], 's_40_44': [4179], 's_40_45': [1346], 's_40_46': [5154], 's_40_47': [1242], 's_41_3': [1565], 's_41_5': [4315], 's_41_13': [3397], 's_41_23': [3338, 1562], 's_41_25': [3622, 1413, 3562], 's_41_26': [4119], 's_41_37': [3833], 's_41_42': [4976], 's_41_43': [2005], 's_41_44': [4015], 's_41_45': [4000], 's_41_46': [1640], 's_41_48': [972], 's_43_3': [4356], 's_43_5': [1013], 's_43_9': [1644], 's_43_13': [1299], 's_43_21': [4712], 's_43_23': [4130], 's_43_25': [909, 910], 's_43_29': [1146], 's_43_37': [1464], 's_43_42': [4766], 's_43_44': [1854], 's_43_45': [940], 's_43_46': [1159], 's_43_47': [4521], 's_43_48': [4681], 's_44_5': [4405], 's_44_9': [4374], 's_44_13': [337], 's_44_23': [1952, 3445, 1892], 's_44_25': [3520], 's_44_26': [1836], 's_44_29': [1837], 's_44_37': [1444], 's_44_42': [1353], 's_44_45': [3850], 's_44_46': [3680], 's_44_47': [3745], 's_45_5': [4390], 's_45_9': [4523], 's_45_21': [5061], 's_45_23': [4640], 's_45_25': [4596], 's_45_26': [1806], 's_45_42': [3986], 's_45_46': [4704], 's_45_47': [4926], 's_46_3': [783], 's_46_9': [4389], 's_46_13': [1325], 's_46_23': [3891], 's_46_25': [3906, 1235], 's_46_26': [4283], 's_46_29': [4463, 4464, 1778], 's_46_47': [4419], 's_46_48': [813], 's_47_3': [4341], 's_47_5': [4270], 's_47_13': [4881], 's_47_21': [835], 's_47_25': [4969], 's_47_26': [1748], 's_47_29': [2002], 's_47_37': [4687, 4686], 's_47_42': [2104], 's_47_48': [4941, 1121], 's_48_3': [529], 's_48_5': [4564], 's_48_9': [4429], 's_48_21': [3797], 's_48_23': [274], 's_48_25': [4683], 's_48_29': [757], 's_3_9': [1327], 's_3_21': [3707], 's_3_23': [3711], 's_3_25': [4071], 's_3_29': [1237], 's_3_37': [1295], 's_3_42': [1251], 's_5_9': [4553], 's_5_13': [4551], 's_5_21': [671], 's_5_23': [4550], 's_5_26': [1584, 1583], 's_5_29': [4571], 's_5_37': [4642, 1479], 's_5_42': [2169], 's_13_9': [1342], 's_13_23': [1247], 's_13_25': [3892], 's_13_26': [1369], 's_13_29': [1207], 's_13_37': [1374, 4821], 's_13_42': [1338], 's_21_9': [622], 's_21_23': [395], 's_21_25': [624], 's_21_26': [4958], 's_21_42': [5196], 's_23_9': [4355], 's_23_25': [1803], 's_23_26': [619], 's_23_29': [4310], 's_25_9': [1133], 's_25_26': [1460, 3832], 's_25_37': [3997], 's_25_42': [1788], 's_26_29': [4329], 's_26_37': [950], 's_26_42': [2121], 's_29_37': [4342, 1522], 's_29_42': [4301], 's_42_9': [4376], 's_37_9': [4357]}</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.004409237379162191</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.002052646754754227</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>{0: [4975, 4165, 515, 1946, 1945, 546, 231, 4021, 4022, 4023, 4024, 906, 4009, 4010, 1944, 1943, 1942, 1941, 4104, 4103, 4102, 1505, 4011, 4012], 1: [830, 4455, 277, 3964, 980, 981, 1617, 982, 983, 5003, 1616, 4322, 1615, 1614, 4613, 4612, 4324, 4611, 4321, 4323, 4610], 's_0_1': [860], 2: [350, 1030, 1029, 3931, 3940, 3932, 3939, 3938, 3937, 3936, 3935, 1028, 1027, 1026, 1025, 3933, 3934], 's_0_2': [1715], 4: [744, 1093, 708, 1092, 709, 3875, 3874, 3873, 4203, 1091, 710, 711, 712, 713, 1090, 707, 1089, 4580, 4579, 4578], 's_0_4': [845], 6: [263, 262, 261, 260, 259, 3765, 3766, 3767, 1977, 3768, 3769, 4591, 3770, 1976, 1975, 1974, 4645, 2093, 2092, 2091, 2090, 2089, 3775, 3774, 3773, 3772, 3771], 's_0_6': [4885, 1930], 7: [4659, 1014, 2139, 475, 4803, 1795, 715, 4925, 2140, 1076, 1869, 4781, 1539, 4780, 4779, 4778, 4777, 4936, 4937, 4938, 4939, 4940, 1075, 4775, 4776], 's_0_7': [4809], 8: [1862, 1863, 1497, 1496, 1864, 3895, 3894, 3893, 1475, 1476, 4897, 1360, 1359, 4597, 1358, 1357, 4327, 1477], 's_0_8': [4028], 10: [402, 401, 400, 399, 4562, 3640, 3639, 648, 533, 532, 531, 530, 3917, 3638, 3637, 1459, 3802, 1999, 3801, 3800, 3799, 3798, 649], 's_0_10': [4007], 11: [3516, 3588, 3465, 873, 872, 1157, 4421, 2110, 2109, 2108, 2107, 4241, 2062, 2061, 2060, 2059, 3790, 3789, 3788, 3466, 3467, 723, 3468, 3469, 3470, 3471, 3472, 3473, 1668, 1669], 's_0_11': [4345], 12: [1916, 1915, 4761, 4446, 4839, 3620, 1525, 1158, 4838, 4837, 4836, 4581, 1270, 3681, 1264, 1265, 1266, 4266, 1269, 1268, 1267], 's_0_12': [3996], 14: [4164, 3488, 3654, 3653, 4459, 3443, 1547, 1548, 1549, 1550, 5106, 1212, 4149, 1211, 1210, 1209, 1208, 4460, 4461, 4148, 1551, 1552, 4462], 's_0_14': [4073], 15: [548, 4966, 2138, 1103, 1403, 4511, 356, 355, 354, 4636, 458, 4510, 1868, 4509, 4508, 4507, 4506, 4505, 4502, 4503, 4504], 's_0_15': [1926, 1927, 1928], 16: [4470, 1523, 4471, 4472, 4473, 4474, 4475, 4476, 4477, 4479, 848, 4480, 3455, 3456, 3457, 3458, 188, 4478, 3459, 3460, 2028, 2029, 2030, 2031, 2032, 1524, 2033], 's_0_16': [4180], 17: [3967, 753, 4147, 3678, 3945, 3618, 663, 3708, 664, 665, 1659, 4494, 4493, 1658, 1657, 4193, 4192, 1356, 3946, 3947, 695, 3948, 3949, 1660, 3950, 3951, 1355], 's_0_17': [275], 18: [3961, 636, 4440, 1582, 4037, 4877, 518, 4876, 385, 384, 383, 4427, 1341, 4238, 4237, 4236, 4235, 4234, 4441, 442, 4561, 293, 292, 291, 4186, 440, 4233, 4232, 441], 's_0_18': [381, 4111], 19: [4819, 865, 1504, 4817, 4818, 804, 1894, 802, 801, 800, 799, 3751, 803, 3752, 3753, 3759, 3757, 3865, 3758, 3756, 3755, 3754], 's_0_19': [4008], 20: [3579, 4140, 3816, 4141, 4142, 3578, 3577, 3576, 1248, 1249, 1250, 683, 682, 681, 4143, 951, 4025, 4144, 4026], 's_0_20': [756], 22: [5314, 5315, 5316, 5152, 1414, 4061, 4060, 4059, 4058, 5317, 4051, 4052, 4053, 4054, 1423, 1422, 1415, 4055, 4056, 4057, 1416, 1417, 1421, 1420, 1419, 1418], 's_0_22': [1776], 24: [2027, 3430, 3813, 4864, 4744, 1833, 1832, 4743, 4742, 1502, 3429, 3428, 3427, 3426, 3425, 3424, 4741, 3556, 925, 3557, 3558, 827, 324, 323, 322, 321, 4156, 4157, 4158, 771, 770, 769, 3709, 828], 's_0_24': [320], 27: [1901, 1122, 3497, 3781, 408, 409, 410, 654, 411, 412, 413, 414, 415, 4831, 4832, 655, 656, 5088, 5089, 5090, 5095, 5094, 5093, 5092, 5091], 's_0_27': [5110], 28: [4984, 5078, 1571, 4985, 4986, 4987, 4988, 1751, 5064, 1811, 1810, 1337, 3532, 3533, 3534, 1743, 1744, 1745, 1746, 4118, 1701, 4254, 1807, 1808, 1809], 's_0_28': [5049, 5050], 30: [1149, 4736, 4735, 4734, 4733, 4732, 4731, 1194, 4670, 4669, 4668, 214, 215, 216, 217, 218, 219, 4665, 4666, 4667], 's_0_30': [4720], 31: [3544, 3785, 5286, 5285, 1032, 3980, 5179, 1083, 5239, 912, 5119, 4114, 4205, 3530, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 4849, 895, 896], 's_0_31': [921], 32: [5060, 1046, 3409, 4999, 4998, 4997, 4996, 4995, 250, 1101, 3412, 3411, 3410, 1067, 249, 248, 247, 246, 245, 244, 243, 242, 3511, 3512, 3513, 3514, 3515, 1068, 1069, 1070, 4040], 's_0_32': [4005], 33: [956, 1542, 574, 575, 576, 577, 4697, 5229, 5228, 5227, 5226, 5225, 5224, 4384, 4383, 578, 579, 580, 581, 5012, 686, 5058, 822, 821, 5059], 's_0_33': [3962], 34: [1519, 4519, 878, 877, 1517, 4217, 4218, 4219, 876, 875, 1518, 3727, 3726, 3725, 3724, 874], 's_0_34': [470, 471], 35: [1196, 4563, 1481, 5032, 4089, 4413, 3864, 1655, 1656, 4088, 5031, 5030, 4594, 4593, 4087, 4086, 4085, 4084, 4083, 726, 5029, 1759, 5028, 731, 730, 729, 728, 727], 's_0_35': [1641], 36: [611, 4517, 5103, 4211, 4210, 4209, 5102, 1521, 506, 505, 504, 503, 502, 4261, 1520, 1102, 4208, 4207, 4206, 606, 4262, 4263, 4264, 1191, 4265], 's_0_36': [1791], 38: [3835, 3736, 4822, 453, 3602, 3603, 3604, 3605, 1405, 4792, 4793, 4794, 1719, 4825, 4600, 4823, 4824, 1914, 1913, 1912, 1911, 1910, 1909, 1908, 3610, 3609, 3608, 3607, 1218, 3606], 's_0_38': [4150], 39: [369, 4546, 4547, 4548, 5137, 5136, 5151, 4549, 954, 5147, 5148, 5149, 955, 4790, 5199, 1842, 1841, 1839, 1840, 4854, 4853, 4852, 4851, 4850, 1060, 1061, 1062, 5150], 's_0_39': [4765], 40: [1537, 1371, 4808, 1401, 4282, 4177, 3398, 1727, 1728, 1729, 1730, 4915, 4914, 1462, 4312, 4313, 5166, 5167, 5168, 1731, 1732, 1733, 1734, 5270, 5271, 5272, 5273, 5274, 1737, 1736, 1735], 's_0_40': [1430, 1431], 41: [1491, 1017, 4120, 1564, 3698, 2095, 3683, 1835, 4855, 5300, 5301, 5302, 5303, 5304, 5305, 1962, 1961, 1487, 1488, 1489, 1490, 3878, 3879, 3880, 1960, 1959, 1958, 1957, 1956, 1971, 1970], 's_0_41': [5080], 43: [4251, 1160, 1161, 4115, 4906, 430, 429, 4726, 4727, 4728, 4729, 879, 2124, 1176, 1177, 1178, 2004, 4630, 4629, 4628, 4627, 4626, 4625, 4624], 's_0_43': [4615], 44: [1853, 1852, 1851, 4045, 1955, 457, 428, 427, 4291, 367, 366, 1954, 3669, 3668, 3667, 3666, 365, 364, 1953, 3665, 3664, 3663, 3662, 3670, 3661], 's_0_44': [4284], 45: [851, 5074, 5046, 1923, 1924, 4745, 4014, 4703, 3985, 1256, 1255, 1254, 4746, 1224, 4701, 4702, 1494, 4583, 5076, 1598, 4448, 4449, 3564, 1867, 1866, 1865, 3954, 5075, 1925], 's_0_45': [4255], 46: [3738, 3739, 978, 979, 3919, 1220, 4239, 1782, 1781, 1780, 3920, 3982, 1779, 4614, 1688, 1687, 3981, 1686, 1685, 3983], 's_0_46': [4674], 47: [1205, 1206, 4221, 1132, 999, 1000, 4971, 926, 4894, 4895, 4896, 847, 4339, 3760, 1241, 1984, 1985, 1986, 1987, 1988, 4435, 4434, 4433, 4432, 4340, 1147, 4431, 4866, 1240, 1239, 1238], 's_0_47': [2001], 48: [1136, 987, 971, 596, 3886, 5045, 758, 759, 760, 761, 724, 986, 5044, 5042, 5041, 5043, 258, 3723, 544, 3722, 3721, 311, 310, 309, 308, 307, 306, 305, 304, 3720], 's_0_48': [4110], 's_1_2': [920], 3: [3690, 1252, 3691, 3692, 3693, 3923, 3694, 3695, 3922, 3696, 1278, 3921, 4385, 4386, 1192, 4326, 1282, 1281, 1280, 1279], 's_1_3': [967], 's_1_4': [998], 5: [4650, 4651, 489, 4586, 2019, 4607, 4608, 1972, 1973, 4540, 5118, 701, 700, 699, 4623, 833, 4534, 1718, 4539, 4538, 4537, 4536, 4535], 's_1_5': [4643], 's_1_6': [4305], 's_1_8': [1343], 's_1_12': [5002], 13: [4396, 4101, 3396, 1322, 1315, 4397, 4398, 4399, 4400, 4401, 4402, 1314, 1323, 1324, 3877, 1310, 1311, 1312, 1313], 's_1_13': [4381], 's_1_14': [4444], 's_1_16': [173], 's_1_18': [892], 's_1_19': [4609], 21: [4913, 4912, 1451, 1317, 4307, 1316, 4957, 484, 3812, 3857, 560, 561, 562, 4487, 563, 564, 565, 4956, 4955, 4954, 4953, 625, 595, 4862], 's_1_21': [637], 's_1_22': [5153], 23: [3505, 3826, 3965, 1115, 3830, 3501, 1056, 3502, 1055, 3503, 1059, 3829, 3827, 3828, 1114, 3504, 1113, 1057, 1164, 1058, 4730], 's_1_23': [4595], 's_1_24': [4290], 25: [3444, 1712, 4787, 820, 3519, 3518, 969, 1398, 3517, 1399, 1400, 4042, 4041, 1116, 4788, 4789, 4684, 4685, 819, 1119, 1118, 1117], 's_1_25': [1074], 26: [2106, 1556, 829, 3904, 964, 3859, 3860, 3861, 1555, 3862, 3863, 1625, 1626, 4135, 4134, 4718, 3902, 4719, 1764, 1763, 1762, 1554, 1761, 3903, 4133], 's_1_26': [4763], 29: [3916, 2154, 1777, 4601, 2048, 2047, 4171, 500, 501, 4172, 4173, 4174, 4175, 1087, 4295, 4300, 4299, 4298, 4297, 4296], 's_1_29': [952], 's_1_31': [4099], 's_1_33': [5288], 's_1_34': [3994], 's_1_35': [742], 's_1_36': [517], 's_1_38': [1600], 's_1_39': [5004], 's_1_40': [5198], 42: [4146, 5212, 5213, 5214, 996, 995, 2082, 2081, 2080, 2079, 4691, 994, 993, 3589, 3590, 3591, 3592, 3593, 1878, 3700, 4145, 3701, 2134, 3594, 5210, 2185, 2184, 2183, 5211, 2182, 5215, 4196, 2136, 2135], 's_1_42': [4070], 's_1_43': [1538], 's_1_44': [352], 's_1_46': [890], 's_1_47': [5016, 1331, 5181, 5182, 5183], 's_2_4': [3963, 755], 's_2_7': [4910], 's_2_8': [1790], 's_2_11': [2045], 's_2_12': [4565, 4566, 1148], 's_2_13': [1385], 's_2_14': [1535], 's_2_15': [4430], 's_2_16': [2015], 's_2_17': [3930], 's_2_18': [351], 's_2_20': [936, 935], 's_2_21': [485], 's_2_23': [3995], 's_2_24': [4834], 's_2_25': [4804], 's_2_26': [545], 's_2_27': [3976], 's_2_28': [1760], 's_2_29': [455, 4096], 's_2_32': [3871], 's_2_33': [620, 3977], 's_2_34': [4279], 's_2_35': [1895], 's_2_36': [4190], 37: [1593, 4178, 1566, 4132, 4038, 4717, 741, 740, 3542, 678, 679, 3541, 3843, 3844, 1594, 3848, 1450, 1449, 1448, 1447, 1446, 1445, 3845, 3846, 3847], 's_2_37': [1595], 's_2_39': [4639], 's_2_40': [3953], 's_2_41': [1670], 's_2_42': [3941], 's_2_43': [1175], 's_2_44': [3901], 's_2_45': [1805], 's_2_47': [2074, 2075], 's_2_48': [3991], 's_4_5': [774], 's_4_6': [634], 's_4_7': [5105], 's_4_10': [3888], 's_4_11': [692], 's_4_12': [3876], 's_4_13': [697], 's_4_15': [608], 's_4_16': [863], 's_4_17': [3783], 's_4_18': [651], 's_4_19': [4443], 's_4_20': [4248], 's_4_21': [4353, 667], 's_4_22': [4068], 's_4_23': [3890], 's_4_24': [3573, 738], 's_4_25': [849, 4638], 's_4_26': [814], 's_4_28': [1106], 's_4_29': [3872], 's_4_30': [714], 's_4_31': [4204], 's_4_32': [3408], 's_4_33': [5240], 's_4_34': [3889], 's_4_35': [743], 's_4_36': [621], 's_4_37': [1085], 's_4_39': [5015], 's_4_40': [1108], 's_4_41': [5330], 's_4_42': [5195], 's_4_43': [939], 's_4_44': [693], 's_4_45': [1105], 's_4_46': [1100], 's_4_47': [4293], 's_6_5': [4541], 's_6_8': [1699], 's_6_10': [2014], 's_6_13': [1354], 's_6_14': [1804], 's_6_15': [4556], 's_6_17': [3915, 155], 's_6_18': [4231], 's_6_19': [754], 's_6_21': [424], 's_6_23': [154, 3825], 's_6_24': [4216, 336], 's_6_25': [1384], 's_6_26': [2046, 4256], 's_6_27': [1857, 5125], 's_6_28': [3699, 1774], 's_6_30': [204, 4590], 's_6_31': [1144], 's_6_32': [3810], 's_6_33': [5230], 's_6_34': [1084], 's_6_35': [4412, 4411], 's_6_36': [4226], 's_6_37': [1174], 's_6_38': [454], 's_6_39': [5140], 's_6_40': [5005, 2065], 's_6_41': [1947, 5260], 's_6_42': [5020], 's_6_43': [340, 339], 's_6_44': [394], 's_6_46': [1009], 's_6_47': [2119], 's_6_48': [3900], 's_7_8': [4942, 1390], 9: [5019, 2003, 4308, 4883, 4458, 4361, 5018, 4360, 4359, 4358, 1676, 1675, 4366, 787, 4673, 1674, 1673, 4373, 4367, 4368, 4369, 4370, 4371, 4372], 's_7_9': [4944], 's_7_11': [4901], 's_7_12': [1630], 's_7_13': [1300], 's_7_14': [4820], 's_7_15': [221], 's_7_17': [4688], 's_7_18': [610], 's_7_19': [850], 's_7_21': [460], 's_7_22': [1435], 's_7_23': [1135], 's_7_27': [416], 's_7_28': [1015], 's_7_29': [2049], 's_7_30': [2094], 's_7_31': [4880], 's_7_32': [4802, 4800, 670, 4801, 4878, 790], 's_7_33': [4773], 's_7_35': [776], 's_7_36': [4907], 's_7_37': [1465], 's_7_38': [2035], 's_7_39': [4835], 's_7_40': [1077], 's_7_41': [4916], 's_7_42': [4661], 's_7_45': [984], 's_7_46': [4869], 's_7_47': [880, 4924], 's_7_48': [566], 's_8_3': [3907], 's_8_5': [4582, 1388], 's_8_11': [3896], 's_8_12': [4311], 's_8_13': [4641], 's_8_14': [4117], 's_8_15': [1328], 's_8_16': [1373], 's_8_17': [4328], 's_8_18': [4253], 's_8_19': [3924], 's_8_21': [5001], 's_8_22': [4762], 's_8_23': [3490], 's_8_25': [4043, 1610], 's_8_26': [5108], 's_8_27': [5077], 's_8_28': [3834], 's_8_29': [1492], 's_8_30': [4655, 4656, 1389], 's_8_33': [5242], 's_8_34': [1474], 's_8_35': [5062], 's_8_36': [4223], 's_8_37': [1404], 's_8_38': [4927], 's_8_39': [1510], 's_8_40': [1361], 's_8_41': [3910, 3909], 's_8_42': [5197], 's_8_43': [1434], 's_8_45': [3549], 's_8_47': [4806], 's_10_5': [5117], 's_10_11': [1639], 's_10_13': [3682], 's_10_15': [5086], 's_10_16': [3730], 's_10_17': [3633], 's_10_18': [4187], 's_10_19': [2000], 's_10_20': [4112], 's_10_21': [4757], 's_10_22': [516], 's_10_23': [1998], 's_10_24': [859], 's_10_25': [1758], 's_10_26': [3918], 's_10_27': [398], 's_10_28': [1428], 's_10_29': [3887], 's_10_31': [934, 933], 's_10_32': [4577, 4576], 's_10_33': [4532, 4531], 's_10_35': [4082], 's_10_36': [446, 5071], 's_10_38': [3636, 3635, 1023], 's_10_39': [5132], 's_10_41': [1834], 's_10_43': [4891], 's_10_44': [443], 's_10_45': [3655], 's_10_46': [949], 's_10_47': [3685], 's_10_48': [844], 's_11_3': [1684], 's_11_5': [4675], 's_11_9': [2152], 's_11_12': [1263], 's_11_13': [1397], 's_11_14': [1638], 's_11_15': [2123], 's_11_16': [1052], 's_11_17': [768], 's_11_19': [1969], 's_11_20': [1293], 's_11_22': [4076], 's_11_23': [3531], 's_11_25': [1623], 's_11_27': [393], 's_11_28': [3804], 's_11_29': [2122], 's_11_30': [4721], 's_11_31': [3559], 's_11_32': [812], 's_11_34': [1579], 's_11_37': [3743], 's_11_40': [3489], 's_11_41': [4886], 's_11_43': [2125], 's_11_44': [363], 's_11_45': [4420], 's_11_47': [4375], 's_11_48': [257], 's_12_3': [1143], 's_12_5': [1284], 's_12_9': [1540], 's_12_13': [3966], 's_12_14': [1253], 's_12_15': [4491], 's_12_16': [1193], 's_12_17': [4281], 's_12_19': [1129], 's_12_22': [4267], 's_12_23': [3650], 's_12_25': [4416], 's_12_26': [4928], 's_12_27': [1900], 's_12_28': [1691, 1690], 's_12_29': [1297], 's_12_30': [1645], 's_12_32': [1098], 's_12_35': [4943], 's_12_38': [3575], 's_12_39': [1570], 's_12_40': [1720], 's_12_42': [1128], 's_12_43': [4116], 's_12_44': [1053], 's_14_3': [1012], 's_14_5': [1568], 's_14_9': [1507], 's_14_13': [1372], 's_14_16': [1607], 's_14_17': [1536], 's_14_18': [4403], 's_14_19': [1849], 's_14_20': [1773], 's_14_21': [5241], 's_14_23': [1697], 's_14_24': [1622], 's_14_26': [1534], 's_14_27': [1137], 's_14_28': [1716], 's_14_29': [1162], 's_14_30': [4805], 's_14_35': [1181], 's_14_36': [1596], 's_14_37': [3713], 's_14_38': [1698], 's_14_40': [1652], 's_14_41': [3803], 's_14_42': [997], 's_14_43': [4445], 's_14_44': [1819], 's_14_45': [4911], 's_15_3': [1088], 's_15_9': [773], 's_15_16': [2018], 's_15_17': [1823], 's_15_20': [4442], 's_15_21': [668], 's_15_22': [4522], 's_15_23': [1073], 's_15_25': [4520], 's_15_27': [4486], 's_15_28': [4554], 's_15_31': [4415], 's_15_32': [341], 's_15_33': [4637], 's_15_34': [938], 's_15_35': [818], 's_15_36': [4816], 's_15_38': [4570], 's_15_39': [473], 's_15_40': [4524], 's_15_41': [4450, 4451], 's_15_42': [2137], 's_15_43': [4967], 's_15_44': [4501], 's_15_47': [4417], 's_15_48': [5101], 's_16_3': [1283], 's_16_9': [698], 's_16_13': [1382], 's_16_17': [1628], 's_16_18': [278], 's_16_20': [1473], 's_16_21': [653], 's_16_22': [4672], 's_16_23': [1187], 's_16_24': [1772], 's_16_25': [1352], 's_16_26': [1553], 's_16_29': [2034], 's_16_30': [4500], 's_16_31': [1037], 's_16_32': [4350], 's_16_33': [593], 's_16_34': [908], 's_16_35': [4090], 's_16_36': [233, 4260, 232], 's_16_37': [4492], 's_16_38': [1907], 's_16_39': [338], 's_16_40': [1757], 's_16_41': [3925], 's_16_44': [3595], 's_16_45': [4568], 's_16_46': [1703], 's_16_47': [3970], 's_16_48': [4488], 's_17_3': [633], 's_17_5': [4599], 's_17_13': [1386], 's_17_18': [290], 's_17_21': [590], 's_17_22': [815], 's_17_23': [380], 's_17_24': [3679], 's_17_25': [1340], 's_17_26': [4194], 's_17_27': [3677], 's_17_28': [1611], 's_17_30': [3960, 200], 's_17_31': [3543], 's_17_34': [696], 's_17_36': [1506], 's_17_37': [588, 3587], 's_17_38': [3617], 's_17_39': [4585, 1883], 's_17_41': [3952], 's_17_44': [603], 's_17_45': [1613], 's_17_47': [1643], 's_17_48': [694], 's_18_3': [1072], 's_18_9': [487], 's_18_13': [368], 's_18_19': [439], 's_18_22': [425], 's_18_24': [4426], 's_18_25': [520], 's_18_27': [397], 's_18_29': [547], 's_18_30': [4635], 's_18_31': [937], 's_18_32': [4185], 's_18_33': [862], 's_18_36': [382, 4306], 's_18_39': [353], 's_18_40': [1432], 's_18_42': [1326], 's_18_43': [4861], 's_18_44': [4351], 's_18_46': [4343], 's_18_48': [4771], 's_19_3': [589], 's_19_5': [4713], 's_19_9': [4414], 's_19_20': [1339], 's_19_21': [469], 's_19_22': [1429], 's_19_23': [784], 's_19_24': [4039], 's_19_25': [834], 's_19_26': [1624], 's_19_27': [334], 's_19_29': [499], 's_19_30': [3750], 's_19_32': [805], 's_19_33': [4698], 's_19_34': [919], 's_19_35': [785], 's_19_36': [786], 's_19_37': [4128], 's_19_38': [379], 's_19_39': [4879], 's_19_41': [3819, 1789], 's_19_42': [1879], 's_19_44': [798], 's_19_45': [3820], 's_19_48': [559], 's_20_3': [1204], 's_20_9': [4457], 's_20_13': [3561], 's_20_21': [4097], 's_20_24': [4127, 591], 's_20_25': [3817], 's_20_26': [1219], 's_20_27': [396], 's_20_28': [1458], 's_20_29': [816], 's_20_30': [4155], 's_20_31': [4129], 's_20_32': [965], 's_20_34': [4159], 's_20_35': [861], 's_20_36': [456], 's_20_37': [4027], 's_20_38': [1938], 's_20_40': [1713], 's_20_41': [1608], 's_20_42': [1443], 's_20_43': [684], 's_20_44': [1383], 's_20_46': [1190], 's_20_47': [846], 's_20_48': [4533], 's_22_3': [4387], 's_22_5': [1433], 's_22_9': [5017], 's_22_13': [4567], 's_22_21': [1318], 's_22_23': [1071], 's_22_25': [3787], 's_22_27': [1376], 's_22_28': [1671], 's_22_29': [666], 's_22_32': [1086], 's_22_33': [5347], 's_22_34': [891], 's_22_38': [4882], 's_22_39': [1437], 's_22_40': [1302], 's_22_41': [1303], 's_22_42': [1332], 's_22_43': [1145], 's_22_44': [4075], 's_22_45': [4447], 's_22_46': [1221], 's_22_47': [4972], 's_22_48': [4066], 's_24_3': [3814, 3815, 1024], 's_24_5': [669], 's_24_13': [1262], 's_24_21': [550], 's_24_23': [1112], 's_24_25': [1682], 's_24_26': [725], 's_24_27': [467], 's_24_28': [1367], 's_24_29': [486], 's_24_30': [534], 's_24_31': [3454, 962], 's_24_32': [902], 's_24_33': [4758], 's_24_35': [4863], 's_24_36': [772], 's_24_37': [632], 's_24_38': [452], 's_24_40': [1667], 's_24_41': [1501, 3353], 's_24_42': [992], 's_24_43': [444], 's_24_45': [1877], 's_24_46': [3649], 's_24_47': [970], 's_24_48': [4246], 's_27_3': [319], 's_27_5': [4908], 's_27_9': [1721], 's_27_13': [4382], 's_27_23': [289], 's_27_25': [4833, 745], 's_27_28': [5079], 's_27_31': [836], 's_27_32': [640], 's_27_33': [582, 5162], 's_27_35': [5133, 732], 's_27_36': [5072, 5073, 762], 's_27_37': [558], 's_27_39': [957], 's_27_41': [2007, 2008], 's_27_42': [1827, 5169, 5170], 's_27_43': [371, 370], 's_27_44': [3631], 's_27_45': [1166], 's_27_46': [5034], 's_27_47': [927], 's_27_48': [4830], 's_28_5': [1824], 's_28_13': [3441], 's_28_21': [1436], 's_28_23': [1165], 's_28_26': [3908], 's_28_32': [985], 's_28_33': [1662, 1661], 's_28_34': [3728], 's_28_35': [1391], 's_28_36': [4224], 's_28_37': [3849], 's_28_39': [5000], 's_28_40': [3984], 's_28_41': [3684], 's_28_42': [1752], 's_28_43': [4644], 's_28_44': [3535], 's_28_45': [3969], 's_28_46': [1747], 's_28_47': [1345], 's_28_48': [1031], 's_30_3': [3795, 199], 's_30_9': [1599], 's_30_13': [4716], 's_30_21': [4652], 's_30_25': [4653, 789], 's_30_26': [1884], 's_30_29': [4170], 's_30_31': [4715], 's_30_32': [4695], 's_30_33': [519], 's_30_35': [864], 's_30_36': [4277, 4276, 4275], 's_30_37': [1509], 's_30_43': [295, 294], 's_30_44': [4336, 4335], 's_30_46': [1794], 's_30_47': [1150], 's_30_48': [3645], 's_31_3': [1099], 's_31_9': [4309], 's_31_13': [3786], 's_31_26': [3784], 's_31_29': [966], 's_31_33': [837], 's_31_35': [791], 's_31_37': [4113], 's_31_38': [3560], 's_31_39': [882], 's_31_40': [1273], 's_31_41': [1227], 's_31_42': [5209], 's_31_43': [4699, 4700], 's_31_45': [1257], 's_31_46': [3574], 's_31_47': [5014], 's_31_48': [866], 's_32_3': [287, 288, 3706], 's_32_5': [4606], 's_32_13': [1292], 's_32_23': [1202], 's_32_25': [4100], 's_32_26': [888, 889], 's_32_33': [1047], 's_32_35': [746], 's_32_36': [521], 's_32_37': [528], 's_32_38': [498], 's_32_39': [1001], 's_32_41': [1472], 's_32_42': [948], 's_32_43': [4160], 's_32_44': [303], 's_32_45': [1016], 's_32_46': [977], 's_32_47': [941], 's_32_48': [3570], 's_33_5': [5208, 747], 's_33_9': [832], 's_33_25': [609], 's_33_26': [1541, 5063], 's_33_34': [923], 's_33_35': [5013], 's_33_36': [5057], 's_33_37': [573], 's_33_39': [852], 's_33_40': [1407], 's_33_41': [5299], 's_33_42': [1572], 's_33_43': [459], 's_33_44': [4621, 4622], 's_33_46': [5244], 's_33_48': [4982], 's_34_3': [1188], 's_34_5': [893], 's_34_9': [4354], 's_34_13': [1309], 's_34_21': [4202], 's_34_23': [1054], 's_34_25': [3652], 's_34_29': [4294], 's_34_36': [922], 's_34_38': [1008], 's_34_39': [968], 's_34_41': [3547], 's_34_43': [4250, 4249], 's_34_48': [4518], 's_35_3': [1714], 's_35_5': [4848], 's_35_9': [4338], 's_35_13': [652], 's_35_21': [1286], 's_35_23': [1010], 's_35_25': [1370], 's_35_26': [4163], 's_35_36': [4968, 716], 's_35_37': [1461], 's_35_38': [1480], 's_35_40': [4074], 's_35_41': [1820], 's_35_42': [1296], 's_35_45': [4044, 1821], 's_35_46': [3998], 's_35_47': [911], 's_36_3': [1222], 's_36_5': [597], 's_36_23': [4325], 's_36_25': [4772], 's_36_26': [1881], 's_36_37': [4222], 's_36_39': [567], 's_36_40': [1642], 's_36_41': [2076], 's_36_42': [2167], 's_36_43': [4846], 's_36_44': [426], 's_36_46': [1672], 's_36_47': [4225], 's_36_48': [536], 's_38_3': [438], 's_38_5': [2020], 's_38_13': [3651], 's_38_21': [1406], 's_38_25': [1818], 's_38_26': [1825], 's_38_37': [4807], 's_38_39': [4795], 's_38_40': [4658], 's_38_41': [1578], 's_38_42': [3624], 's_38_43': [1898], 's_38_44': [1968], 's_38_45': [3744], 's_38_46': [3619], 's_38_47': [1897], 's_38_48': [3632], 's_39_5': [626], 's_39_9': [4884], 's_39_13': [953], 's_39_21': [623], 's_39_23': [4760], 's_39_26': [4689], 's_39_37': [4867, 1375], 's_39_40': [1467], 's_39_41': [1887], 's_39_42': [1902], 's_39_43': [4654], 's_39_44': [1838], 's_39_45': [1107], 's_39_46': [5184], 's_39_47': [1271, 1272], 's_39_48': [1151], 's_40_3': [4131], 's_40_5': [4584], 's_40_9': [1706], 's_40_13': [4176], 's_40_23': [1592], 's_40_29': [1567], 's_40_37': [1463], 's_40_41': [1678], 's_40_42': [1287], 's_40_43': [4252], 's_40_44': [4179], 's_40_45': [1346], 's_40_46': [5154], 's_40_47': [1242], 's_41_3': [1565], 's_41_5': [4315], 's_41_13': [3397], 's_41_23': [3338, 1562], 's_41_25': [3622, 1413, 3562], 's_41_26': [4119], 's_41_37': [3833], 's_41_42': [4976], 's_41_43': [2005], 's_41_44': [4015], 's_41_45': [4000], 's_41_46': [1640], 's_41_48': [972], 's_43_3': [4356], 's_43_5': [1013], 's_43_9': [1644], 's_43_13': [1299], 's_43_21': [4712], 's_43_23': [4130], 's_43_25': [909, 910], 's_43_29': [1146], 's_43_37': [1464], 's_43_42': [4766], 's_43_44': [1854], 's_43_45': [940], 's_43_46': [1159], 's_43_47': [4521], 's_43_48': [4681], 's_44_5': [4405], 's_44_9': [4374], 's_44_13': [337], 's_44_23': [1952, 3445, 1892], 's_44_25': [3520], 's_44_26': [1836], 's_44_29': [1837], 's_44_37': [1444], 's_44_42': [1353], 's_44_45': [3850], 's_44_46': [3680], 's_44_47': [3745], 's_45_5': [4390], 's_45_9': [4523], 's_45_21': [5061], 's_45_23': [4640], 's_45_25': [4596], 's_45_26': [1806], 's_45_42': [3986], 's_45_46': [4704], 's_45_47': [4926], 's_46_3': [783], 's_46_9': [4389], 's_46_13': [1325], 's_46_23': [3891], 's_46_25': [3906, 1235], 's_46_26': [4283], 's_46_29': [4463, 4464, 1778], 's_46_47': [4419], 's_46_48': [813], 's_47_3': [4341], 's_47_5': [4270], 's_47_13': [4881], 's_47_21': [835], 's_47_25': [4969], 's_47_26': [1748], 's_47_29': [2002], 's_47_37': [4687, 4686], 's_47_42': [2104], 's_47_48': [4941, 1121], 's_48_3': [529], 's_48_5': [4564], 's_48_9': [4429], 's_48_21': [3797], 's_48_23': [274], 's_48_25': [4683], 's_48_29': [757], 's_3_9': [1327], 's_3_21': [3707], 's_3_23': [3711], 's_3_25': [4071], 's_3_29': [1237], 's_3_37': [1295], 's_3_42': [1251], 's_5_9': [4553], 's_5_13': [4551], 's_5_21': [671], 's_5_23': [4550], 's_5_26': [1584, 1583], 's_5_29': [4571], 's_5_37': [4642, 1479], 's_5_42': [2169], 's_13_9': [1342], 's_13_23': [1247], 's_13_25': [3892], 's_13_26': [1369], 's_13_29': [1207], 's_13_37': [1374, 4821], 's_13_42': [1338], 's_21_9': [622], 's_21_23': [395], 's_21_25': [624], 's_21_26': [4958], 's_21_42': [5196], 's_23_9': [4355], 's_23_25': [1803], 's_23_26': [619], 's_23_29': [4310], 's_25_9': [1133], 's_25_26': [1460, 3832], 's_25_37': [3997], 's_25_42': [1788], 's_26_29': [4329], 's_26_37': [950], 's_26_42': [2121], 's_29_37': [4342, 1522], 's_29_42': [4301], 's_42_9': [4376], 's_37_9': [4357]}</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0.004409237379162191</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.002052646754754227</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>{0: [215, 212, 3466, 3465, 214, 213], 1: [305, 304, 303, 3331, 302], 4: [3709, 3708, 139, 3707, 3705, 3706], 5: [123, 754, 3645, 3646, 3648, 3647], 6: [858, 859, 469, 3765, 3768, 3767, 3766], 8: [573, 3975, 574, 575, 3977, 3976], 10: [530, 3795, 3798, 3796, 529, 3797], 11: [3603, 783, 844, 3723, 3720, 3721, 3722], 12: [290, 286, 287, 289, 288], 14: [256, 3916, 257, 258, 259, 3915], 16: [500, 499, 3542, 3540, 3541, 498], 17: [3931, 3930, 197, 198, 199, 200], 18: [3826, 380, 377, 378, 379], 19: [3827, 3420, 3421, 3422, 619, 618, 617], 20: [4006, 482, 425, 421, 3391, 424, 423, 422], 21: [3932, 515, 514, 3481, 3482, 513, 512], 22: [724, 3694, 3693, 3691, 3692], 23: [3467, 451, 3495, 3496, 454, 453, 452, 3497], 25: [3631, 407, 410, 408, 409], 26: [3679, 3678, 3675, 3676, 559, 3677], 29: [3377, 3450, 572, 271, 154, 153, 3376, 3375, 152], 30: [331, 335, 334, 332, 333], 31: [3256, 3961, 316, 320, 319, 317, 318], 32: [485, 3632, 483, 3735, 3736, 484], 33: [3390, 272, 273, 275, 274], 36: [34, 3889, 3888, 3887, 3886, 3885, 35], 37: [436, 3451, 437, 440, 439, 438], 38: [3873, 665, 664, 663, 3360, 3361, 3362, 662], 39: [784, 3783, 3780, 3781, 3782], 40: [648, 649, 3750, 3753, 3752, 3751], 41: [3525, 3526, 3527, 3528, 739, 738, 723], 42: [590, 589, 588, 528, 3600, 3601, 3602], 43: [3300, 545, 544, 543, 542, 3302, 227, 3301], 44: [3902, 3901, 168, 169, 170, 3900], 45: [3615, 3616, 799, 798, 3618, 3617], 46: [242, 245, 3872, 243, 3871, 244], 47: [3286, 392, 395, 394, 393], 48: [3510, 694, 693, 3511, 3512, 3513], 49: [3555, 3556, 709, 708, 3557, 3558], 2: [108, 109, 560, 3810, 3811, 3812, 3813], 3: [3859, 3858, 3855, 3856, 3857], 7: [228, 229, 3630, 94, 3436, 3435, 92, 93], 9: [769, 770, 3844, 3843, 3840, 3841, 3842], 15: [3437, 604, 603, 3405, 3406, 3407, 3452, 602], 24: [336, 4051, 3316, 366, 362, 365, 363, 364], 27: [679, 678, 3663, 3660, 3661, 3662], 28: [558, 634, 633, 3570, 3571, 3572], 34: [346, 347, 348, 349, 350, 4021], 35: [814, 3585, 3586, 813, 3587, 3588], 13: [3690, 3480, 3946, 182, 3945, 183, 184, 185]}</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.4809663865546218</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.02914594766162653</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>{0: [215, 212, 3466, 3465, 214, 213], 1: [305, 304, 303, 3331, 302], 4: [3709, 3708, 139, 3707, 3705, 3706], 5: [123, 754, 3645, 3646, 3648, 3647], 6: [858, 859, 469, 3765, 3768, 3767, 3766], 8: [573, 3975, 574, 575, 3977, 3976], 10: [530, 3795, 3798, 3796, 529, 3797], 11: [3603, 783, 844, 3723, 3720, 3721, 3722], 12: [290, 286, 287, 289, 288], 14: [256, 3916, 257, 258, 259, 3915], 16: [500, 499, 3542, 3540, 3541, 498], 17: [3931, 3930, 197, 198, 199, 200], 18: [3826, 380, 377, 378, 379], 19: [3827, 3420, 3421, 3422, 619, 618, 617], 20: [4006, 482, 425, 421, 3391, 424, 423, 422], 21: [3932, 515, 514, 3481, 3482, 513, 512], 22: [724, 3694, 3693, 3691, 3692], 23: [3467, 451, 3495, 3496, 454, 453, 452, 3497], 25: [3631, 407, 410, 408, 409], 26: [3679, 3678, 3675, 3676, 559, 3677], 29: [3377, 3450, 572, 271, 154, 153, 3376, 3375, 152], 30: [331, 335, 334, 332, 333], 31: [3256, 3961, 316, 320, 319, 317, 318], 32: [485, 3632, 483, 3735, 3736, 484], 33: [3390, 272, 273, 275, 274], 36: [34, 3889, 3888, 3887, 3886, 3885, 35], 37: [436, 3451, 437, 440, 439, 438], 38: [3873, 665, 664, 663, 3360, 3361, 3362, 662], 39: [784, 3783, 3780, 3781, 3782], 40: [648, 649, 3750, 3753, 3752, 3751], 41: [3525, 3526, 3527, 3528, 739, 738, 723], 42: [590, 589, 588, 528, 3600, 3601, 3602], 43: [3300, 545, 544, 543, 542, 3302, 227, 3301], 44: [3902, 3901, 168, 169, 170, 3900], 45: [3615, 3616, 799, 798, 3618, 3617], 46: [242, 245, 3872, 243, 3871, 244], 47: [3286, 392, 395, 394, 393], 48: [3510, 694, 693, 3511, 3512, 3513], 49: [3555, 3556, 709, 708, 3557, 3558], 2: [108, 109, 560, 3810, 3811, 3812, 3813], 3: [3859, 3858, 3855, 3856, 3857], 7: [228, 229, 3630, 94, 3436, 3435, 92, 93], 9: [769, 770, 3844, 3843, 3840, 3841, 3842], 15: [3437, 604, 603, 3405, 3406, 3407, 3452, 602], 24: [336, 4051, 3316, 366, 362, 365, 363, 364], 27: [679, 678, 3663, 3660, 3661, 3662], 28: [558, 634, 633, 3570, 3571, 3572], 34: [346, 347, 348, 349, 350, 4021], 35: [814, 3585, 3586, 813, 3587, 3588], 13: [3690, 3480, 3946, 182, 3945, 183, 184, 185]}</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0.4809663865546218</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02914594766162653</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>{0: [4110, 4111, 4741, 5321, 456, 457, 458, 4532, 5320, 5319, 5317, 5316, 5315, 5314, 5313, 598, 5318, 597, 596, 594, 595, 4743, 4742], 1: [4620, 4721, 1632, 1631, 1630, 354, 4621, 4622, 4623, 4719, 4718, 4717, 1101, 4720, 1103, 1102, 1404, 4626, 4624, 4625, 1104], 's_0_1': [519], 4: [4260, 1399, 1400, 1401, 4782, 4781, 4780, 4125, 4126, 5155, 5154, 4779, 261, 4778, 5153, 1511, 1510, 4127, 4128, 4129, 4130, 4131, 4132, 1509, 1508, 1507, 1506], 's_0_4': [4112], 5: [1625, 3819, 3818, 3817, 5259, 5258, 5257, 1438, 3768, 844, 3814, 3815, 3816, 1295, 1296, 1297, 5182, 1437, 5152, 1376, 1298, 1299, 1300, 1301, 1069, 5031], 's_0_5': [1648, 1587, 5273], 6: [801, 800, 455, 3977, 680, 3978, 3979, 5260, 1947, 1946, 1945, 1944, 3980, 1943, 1942, 4269, 1866, 1865, 1235, 3981, 3982, 3983, 3984], 's_0_6': [2038], 8: [5370, 2213, 262, 263, 4606, 2214, 927, 2215, 2216, 2217, 2218, 5381, 5380, 5379, 5378, 5377, 5376, 5375, 5374, 928, 5373, 4937, 4936, 5372, 369, 370, 371, 372, 373, 5371], 's_0_8': [868], 10: [418, 5291, 1420, 1421, 1422, 698, 1662, 5198, 1707, 4653, 940, 2008, 941, 942, 943, 699, 700, 5282, 5290, 5289, 5288, 5287, 5286, 701, 702, 5283, 5285, 5284], 's_0_10': [703], 11: [1000, 520, 4816, 4817, 4818, 2089, 5001, 5000, 2090, 2091, 4241, 4240, 4239, 4238, 4999, 1372, 1371, 4237, 4236, 4235, 4234, 892, 893, 894, 4744, 804, 805, 4998], 's_0_11': [4878, 640, 4982], 12: [487, 1841, 1840, 368, 4351, 4362, 4361, 4360, 1839, 1838, 4359, 1567, 4358, 4352, 4353, 4354, 4355, 4356, 4357], 's_0_12': [4471], 14: [5184, 2122, 416, 2319, 1451, 2107, 4932, 2109, 2110, 4931, 4952, 2108, 4953, 1690, 4954, 4955, 4956, 4957, 4958, 2320, 1827, 1826, 4960, 4959, 1661, 4930, 4929, 686, 1780], 's_0_14': [4938, 746], 16: [5543, 5544, 4141, 4142, 4143, 4144, 4145, 4146, 4147, 4149, 4150, 2046, 2047, 1903, 5455, 5456, 2048, 2049, 4796, 2140, 2143, 4148, 2142, 5125, 5126, 2141], 's_0_16': [1933, 5440, 2024], 17: [4041, 4042, 4043, 3588, 3589, 3590, 3591, 3592, 1548, 1549, 1550, 1798, 1797, 1796, 1795, 4631, 4630, 4629, 1809, 1794, 4614, 1703, 1702, 1701, 4133, 1626, 4028], 's_0_17': [5334], 18: [469, 470, 4851, 440, 4067, 531, 532, 820, 533, 4850, 4849, 4848, 4847, 535, 821, 534], 's_0_18': [4412], 19: [663, 2032, 3633, 778, 4257, 4256, 3889, 2001, 2002, 4255, 769, 4254, 4253, 4252, 4251, 4250, 777, 770, 771, 776, 775, 774, 773, 772, 4249], 's_0_19': [5329], 20: [5277, 1148, 1149, 3956, 2254, 2255, 2292, 2291, 2290, 4787, 4789, 4790, 4791, 4792, 1435, 4821, 4822, 2256, 4788, 2257, 2258, 2259, 4826, 4825, 4824, 4823], 's_0_20': [730], 21: [4635, 3874, 5327, 568, 3875, 3881, 4548, 4636, 1595, 3879, 567, 566, 565, 564, 4637, 638, 4503, 4504, 4505, 4506, 1253, 1252, 1251, 1250, 3876, 3877, 3878, 3938, 3880, 1639, 1640], 's_0_21': [5387], 22: [1990, 5350, 1991, 1192, 1193, 4551, 1167, 4414, 4415, 1043, 4550, 1163, 1164, 1165, 1993, 1992, 5110, 5109, 5108, 5107, 5106, 1166], 's_0_22': [2023, 5410], 23: [1393, 1392, 5135, 5136, 5137, 5139, 5140, 5141, 5138, 1414, 2173, 2172, 2171, 2170, 2169, 2168, 2167, 2166, 2165, 3866, 3697, 3699, 3700, 1939, 3698, 3835, 2030], 's_0_23': [2188], 25: [666, 1090, 1089, 1403, 4472, 4217, 4218, 742, 743, 4542, 4541, 4540, 4555, 1928, 4479, 4478, 397, 4473, 4474, 1088, 4475, 4477, 4476], 's_0_25': [396], 26: [1353, 1814, 1813, 1812, 439, 438, 3572, 3573, 3571, 3574, 3575, 3576, 3577, 3578, 3579, 1811, 5004, 1915, 4885, 2020, 2019, 2018, 2017, 2016, 2015, 3820, 1924, 1923], 's_0_26': [1917, 5199], 29: [4095, 4797, 1221, 1925, 4263, 4602, 605, 1222, 4382, 4000, 4383, 4096, 4097, 697, 4098, 4099, 4100, 4101, 4102, 696, 4103, 4104, 1926, 4180, 4181, 4182, 2362, 2363, 2365, 2364], 's_0_29': [593], 30: [3725, 1053, 5042, 5043, 5044, 3740, 1054, 1055, 4010, 1153, 1152, 1151, 5045, 1121, 1120, 1119, 1116, 1117, 1118], 's_0_30': [5057], 31: [5017, 1454, 3967, 1453, 5360, 5361, 5362, 1542, 4311, 3754, 4328, 3755, 3756, 3757, 1489, 1541, 1540, 4327, 1539, 1538, 1537, 4312, 1492, 1491, 1490], 's_0_31': [1423], 32: [5061, 1520, 3997, 1196, 412, 5015, 926, 4698, 5014, 5013, 761, 4728, 760, 759, 758, 1383, 1384, 1385, 1386, 4207, 4206, 4205, 4291, 4292, 4293, 757, 4204], 's_0_32': [472], 33: [4643, 4642, 4641, 1254, 318, 3811, 319, 1255, 1256, 1257, 5256, 320, 5255, 321, 322, 323, 324, 325, 326, 327, 5251, 5252, 5253, 5254], 's_0_33': [583, 5417], 36: [3786, 3785, 1009, 5439, 1723, 4940, 5499, 5498, 5497, 5496, 5495, 1003, 3933, 1294, 3934, 1010, 1011, 1012, 5524, 1018, 1017, 1013, 1014, 1015, 1016], 's_0_36': [1573, 1574], 37: [4806, 2231, 1552, 4297, 5066, 5065, 4294, 4295, 4296, 1357, 1358, 1359, 1360, 1361, 5363, 1618, 1617, 5064, 5062, 5063, 1615, 1616], 's_0_37': [1603, 5453], 38: [4696, 4527, 2288, 4666, 4451, 500, 501, 502, 4450, 1988, 4405, 4404, 4403, 4402, 414, 413, 4397, 4398, 4399, 4400, 4401], 's_0_38': [294], 39: [1749, 1029, 1315, 1910, 4284, 1911, 1912, 1913, 4600, 1558, 1178, 1179, 4730, 4731, 4732, 4733, 4734, 5408, 5409, 1858, 1857, 1856, 1854, 1855], 's_0_39': [1678], 40: [657, 933, 4802, 3724, 1059, 4445, 1058, 1057, 658, 4801, 1056, 4160, 934, 935, 936, 846, 4159, 656, 655, 654, 653, 652, 651, 4158], 's_0_40': [5192], 41: [896, 897, 898, 4084, 4083, 4082, 4081, 4080, 156, 157, 158, 159, 161, 162, 5250, 252, 5470, 160, 5469, 5468, 5467, 5466, 5465, 5464, 5463, 5462, 5461, 253], 's_0_41': [673], 42: [4691, 619, 2124, 1283, 1284, 4676, 4675, 4674, 4673, 882, 880, 879, 4672, 4671, 620, 621, 622, 623, 881, 4608, 714, 4670, 4669, 819, 4668], 's_0_42': [4758], 43: [3775, 3774, 3773, 3772, 1326, 1534, 1535, 5420, 5421, 1273, 1272, 579, 4178, 1536, 4267, 4266, 1271, 1270, 4746, 1239, 4578, 4579, 4580, 4581, 1238, 1333, 1237], 's_0_43': [1138], 44: [1032, 1031, 634, 1496, 4912, 1210, 4911, 3965, 3964, 3963, 665, 3902, 3901, 4910, 1030, 4865, 4864, 4863, 4862, 380, 381, 1286, 382, 383, 384, 385, 4861], 's_0_44': [1033], 45: [3834, 4463, 5146, 1061, 5147, 5148, 5149, 912, 5074, 5075, 5076, 5077, 5078, 5215, 5214, 5213, 1601, 4988, 1720, 1719, 1718, 1717, 1602, 1716, 4164, 1821, 1820, 3849, 1744], 's_0_45': [2067], 46: [3654, 1205, 3865, 1849, 1850, 1851, 1852, 4344, 1206, 1207, 832, 4339, 4340, 4343, 1347, 1346, 1345, 1344, 1343, 1342, 4341, 4342], 's_0_46': [5332], 47: [1115, 4006, 4113, 711, 5276, 4007, 4008, 710, 3918, 3919, 3920, 3921, 3922, 3923, 3924, 2082, 2081, 2080, 2079, 2078, 2077, 2076, 2075, 2074, 3925], 's_0_47': [2097], 48: [1638, 3515, 5209, 1483, 3516, 5210, 5211, 5212, 3517, 3518, 3520, 1953, 1954, 1955, 2005, 1482, 1481, 1480, 1479, 4583, 4584, 3519, 1956, 1957, 1958, 2004, 4585], 's_0_48': [972], 49: [309, 308, 4440, 577, 174, 173, 172, 4275, 4166, 4276, 4277, 4278, 4279, 4280, 4281, 4282, 1551, 4208, 4209, 2121, 4210, 4211], 's_0_49': [4740], 2: [1792, 4909, 970, 969, 4493, 4422, 4549, 968, 967, 4385, 4386, 2303, 4496, 4495, 4494, 1808, 4389, 4388, 4387], 's_1_2': [818], 3: [4842, 395, 394, 3662, 3663, 3664, 4841, 2230, 2229, 2228, 4331, 2227, 2226, 2225, 2224, 2223, 3596, 3595, 3893, 3894, 3665, 3666, 3667, 3668, 1655, 1654, 3669, 1788, 3594], 's_1_3': [2185], 's_1_4': [1647], 's_1_5': [1100], 's_1_6': [4735], 7: [3969, 852, 747, 4598, 4599, 1760, 1761, 1762, 4901, 506, 5103, 5104, 851, 850, 5102, 4894, 4900, 4895, 1763, 1764, 1765, 4899, 4898, 4897, 4896], 's_1_7': [1599], 9: [5183, 3860, 2119, 3760, 3759, 3758, 4627, 4628, 3953, 3861, 3862, 3863, 3864, 1729, 1730, 1738, 1737, 1736, 1735, 1734, 1733, 1732, 1731], 's_1_9': [4838], 's_1_10': [4638], 's_1_11': [1373], 's_1_12': [353, 4441], 's_1_14': [1646, 4943], 15: [5096, 1181, 1182, 4757, 4531, 2198, 2199, 2200, 2201, 2202, 5231, 399, 400, 401, 5229, 5228, 5227, 5226, 4981, 5345, 1063, 1062, 5225, 5224, 5230, 265, 4980, 5223, 5222, 5221, 312, 311], 's_1_15': [443], 's_1_16': [2094], 's_1_17': [1779], 's_1_19': [4040, 4039], 's_1_20': [1899], 's_1_21': [684], 's_1_22': [4685], 24: [5161, 2135, 446, 4436, 5117, 5118, 5119, 5120, 1406, 2136, 2137, 2138, 2034, 4690, 4689, 4688, 4586, 5121, 5122, 1436, 5002, 1555, 1554], 's_1_24': [4702, 4703, 1644], 's_1_26': [5003], 27: [1448, 1447, 1446, 3909, 3908, 3907, 1430, 4027, 4026, 4025, 4024, 432, 424, 1894, 431, 430, 429, 428, 427, 426, 425, 4022, 4023], 's_1_27': [4711], 28: [1002, 514, 1130, 732, 1084, 3992, 817, 4324, 4323, 5240, 5239, 867, 5134, 5133, 611, 610, 609, 608, 607, 1085, 3830, 3829, 3828, 3827, 560, 561, 562, 4322], 's_1_28': [1086], 's_1_30': [4520], 's_1_31': [4748], 's_1_33': [1269], 34: [4569, 4568, 1553, 4492, 1418, 1419, 3722, 4597, 4596, 4595, 983, 4519, 544, 545, 546, 547, 4518, 551, 550, 549, 548, 4517], 's_1_34': [1328], 35: [4175, 5404, 1190, 1105, 1281, 4056, 3603, 3604, 978, 979, 980, 4055, 958, 3602, 957, 956, 955, 4745, 1074, 1073, 1072, 1071], 's_1_35': [4565], 's_1_36': [4639], 's_1_37': [5168], 's_1_38': [489], 's_1_39': [4762], 's_1_40': [4220], 's_1_41': [4085], 's_1_42': [669], 's_1_43': [1209], 's_1_44': [4726], 's_1_45': [5093, 1706], 's_1_46': [4747], 's_1_48': [4763, 1495], 's_1_49': [4591, 4590], 's_4_2': [966], 's_4_3': [2350], 's_4_7': [1525], 's_4_8': [220, 219, 218, 221, 217, 216, 4051, 260], 's_4_9': [4794], 's_4_10': [1767], 's_4_11': [1477, 4177], 's_4_12': [4372], 13: [4031, 5020, 3796, 1978, 1977, 1976, 1975, 1974, 1973, 1972, 3797, 3798, 3799, 3800, 3801, 3802, 3803, 3804, 3805, 2059, 2060, 2212, 4271, 4270, 2061], 's_4_13': [1962, 5185], 's_4_14': [2335], 's_4_15': [1572], 's_4_16': [4140, 201], 's_4_17': [1505], 's_4_20': [1570], 's_4_21': [4507], 's_4_22': [1691], 's_4_23': [1752], 's_4_24': [4807], 's_4_25': [4522, 1433], 's_4_26': [3712], 's_4_28': [576], 's_4_29': [591], 's_4_30': [3741], 's_4_32': [891], 's_4_33': [4201], 's_4_34': [636, 4262], 's_4_36': [4114], 's_4_37': [4928], 's_4_39': [1524], 's_4_41': [351], 's_4_42': [2274], 's_4_43': [4223], 's_4_44': [4246], 's_4_45': [4973], 's_4_46': [4115], 's_4_47': [5156], 's_4_48': [5047], 's_4_49': [171], 's_5_6': [920], 's_5_7': [1316], 's_5_8': [1843], 's_5_9': [1265], 's_5_10': [1377], 's_5_11': [4417], 's_5_13': [1249], 's_5_14': [4942], 's_5_15': [5151], 's_5_19': [724, 3648], 's_5_20': [999, 4716, 4715], 's_5_21': [905], 's_5_23': [5272], 's_5_24': [4972], 's_5_25': [4567], 's_5_26': [859, 858], 's_5_28': [694], 's_5_29': [1311], 's_5_30': [1204], 's_5_31': [5347], 's_5_32': [3936], 's_5_33': [5181], 's_5_34': [3767], 's_5_37': [4432], 's_5_38': [1313], 's_5_40': [3784], 's_5_42': [4491], 's_5_43': [4191], 's_5_44': [709, 3783], 's_5_45': [1872], 's_5_47': [950], 's_5_48': [5167], 's_6_2': [4314], 's_6_3': [1670], 's_6_7': [4029, 4030], 's_6_9': [4014], 's_6_10': [5305, 1902], 's_6_11': [1927], 's_6_12': [4854], 's_6_13': [4765], 's_6_14': [1931], 's_6_15': [5245], 's_6_16': [5261], 's_6_19': [4060], 's_6_20': [1930], 's_6_21': [1565], 's_6_22': [5275], 's_6_23': [1940, 3954], 's_6_25': [1867, 4449], 's_6_27': [815], 's_6_28': [515], 's_6_30': [1070], 's_6_31': [1445], 's_6_32': [4072, 1340], 's_6_34': [3947], 's_6_35': [965], 's_6_36': [890], 's_6_37': [5050], 's_6_38': [4525], 's_6_39': [5019], 's_6_41': [681], 's_6_42': [590, 3917], 's_6_44': [3873], 's_6_45': [4179], 's_6_46': [1835], 's_6_47': [3931, 3930, 290], 's_6_48': [4570], 's_6_49': [1941], 's_8_2': [4572], 's_8_3': [4962], 's_8_9': [5393], 's_8_10': [5179], 's_8_12': [293, 292], 's_8_13': [1963], 's_8_15': [2187, 5201], 's_8_16': [2098], 's_8_17': [5394], 's_8_18': [278, 277, 276, 275, 3976], 's_8_19': [5388], 's_8_20': [5006], 's_8_21': [508], 's_8_22': [5395], 's_8_23': [5351], 's_8_24': [5056], 's_8_27': [4891], 's_8_29': [4381], 's_8_30': [5390], 's_8_31': [1228], 's_8_32': [4290], 's_8_33': [5071], 's_8_35': [5389], 's_8_36': [973], 's_8_37': [1633], 's_8_38': [4396], 's_8_39': [1708], 's_8_40': [643], 's_8_41': [1948], 's_8_42': [4736], 's_8_43': [1048], 's_8_44': [4561], 's_8_45': [5131], 's_8_47': [5246], 's_8_48': [5392], 's_8_49': [4605], 's_10_2': [4819], 's_10_7': [507], 's_10_11': [4683], 's_10_13': [5425], 's_10_14': [1828], 's_10_16': [2009], 's_10_17': [1782], 's_10_18': [822], 's_10_19': [4713], 's_10_20': [834], 's_10_21': [447], 's_10_23': [1932], 's_10_24': [1407], 's_10_25': [4760], 's_10_26': [5304], 's_10_27': [5297], 's_10_31': [5359], 's_10_33': [522], 's_10_36': [944], 's_10_39': [1663], 's_10_42': [4984], 's_10_43': [1288], 's_10_44': [5105], 's_10_45': [5303], 's_10_46': [5302], 's_10_48': [1332], 's_11_7': [4969], 's_11_9': [3851], 's_11_12': [847], 's_11_13': [3910], 's_11_14': [911], 's_11_15': [4922], 's_11_16': [4120], 's_11_18': [1330], 's_11_19': [4803], 's_11_20': [670], 's_11_21': [521, 5072], 's_11_22': [1391], 's_11_23': [2164, 3656, 2088], 's_11_24': [4196], 's_11_25': [1462, 1463], 's_11_26': [4046], 's_11_27': [1356, 1355, 4012], 's_11_29': [2182], 's_11_31': [1642], 's_11_32': [4774], 's_11_33': [4986], 's_11_34': [4534], 's_11_35': [4714], 's_11_37': [4461], 's_11_38': [1582], 's_11_39': [1822], 's_11_40': [505], 's_11_41': [4815], 's_11_42': [4684, 849], 's_11_44': [715], 's_11_45': [4985], 's_11_46': [1627], 's_11_47': [3821], 's_11_48': [3940], 's_11_49': [4105], 's_12_2': [1823], 's_12_3': [2152], 's_12_7': [4554], 's_12_9': [4374], 's_12_13': [4375], 's_12_14': [4480, 2003], 's_12_16': [4795], 's_12_17': [5034], 's_12_18': [4367], 's_12_19': [1777], 's_12_20': [2272], 's_12_21': [938], 's_12_22': [953], 's_12_23': [4376], 's_12_24': [2062], 's_12_25': [578], 's_12_26': [5049], 's_12_27': [4486], 's_12_29': [4368], 's_12_31': [1327], 's_12_32': [667], 's_12_33': [307], 's_12_34': [923], 's_12_36': [4370], 's_12_38': [728], 's_12_39': [4644], 's_12_40': [637], 's_12_42': [4659], 's_12_43': [1432], 's_12_46': [1597], 's_12_47': [2092], 's_12_49': [4350], 's_14_2': [835], 's_14_3': [4346], 's_14_7': [4869], 's_14_9': [5079], 's_14_13': [4855], 's_14_15': [4947], 's_14_16': [4916], 's_14_17': [5169], 's_14_18': [4927, 1390], 's_14_19': [5088], 's_14_20': [1675, 4883, 4882], 's_14_21': [5012], 's_14_22': [5095, 1961], 's_14_23': [4706], 's_14_25': [4645, 2063], 's_14_26': [1900], 's_14_27': [445], 's_14_28': [687, 5177], 's_14_29': [2366], 's_14_30': [4971], 's_14_31': [4913], 's_14_32': [1136], 's_14_34': [5027], 's_14_35': [4970], 's_14_36': [985], 's_14_37': [1586], 's_14_38': [2123], 's_14_40': [4968], 's_14_41': [4950, 4951], 's_14_42': [4766], 's_14_45': [4974], 's_14_47': [4810], 's_14_48': [4868, 4867], 's_14_49': [2106], 's_16_3': [1656], 's_16_7': [4044, 1671], 's_16_9': [5529, 5528], 's_16_13': [2051], 's_16_15': [5127], 's_16_17': [1783, 1784], 's_16_18': [516], 's_16_19': [4315], 's_16_20': [2035], 's_16_21': [1236], 's_16_23': [4946], 's_16_24': [4571], 's_16_26': [2021, 5005, 2111, 2112, 2113, 2114, 5530], 's_16_27': [411], 's_16_29': [336], 's_16_31': [1476], 's_16_32': [727, 726, 741], 's_16_34': [4157], 's_16_35': [1191], 's_16_36': [1754], 's_16_37': [2156], 's_16_38': [4510], 's_16_39': [5542], 's_16_41': [1994], 's_16_43': [1611], 's_16_44': [4156], 's_16_45': [4118, 4117, 1566], 's_16_46': [1806, 4119], 's_16_47': [2157], 's_16_49': [1791], 's_17_2': [1793], 's_17_3': [1563, 3638], 's_17_7': [4749], 's_17_15': [4646], 's_17_19': [799, 798], 's_17_21': [1173, 1174], 's_17_23': [1518], 's_17_24': [2139], 's_17_26': [1338], 's_17_27': [1610], 's_17_29': [4088], 's_17_30': [1143, 3635], 's_17_31': [4508], 's_17_32': [1398], 's_17_33': [1688], 's_17_34': [3587, 603], 's_17_35': [3621, 1248, 3620, 3618, 3619, 3617], 's_17_36': [5424], 's_17_37': [5364], 's_17_38': [2289], 's_17_39': [4839], 's_17_40': [3500, 3501, 1263], 's_17_41': [5484], 's_17_42': [2154], 's_17_43': [3833], 's_17_45': [4194, 4193], 's_17_46': [1686, 1687], 's_17_47': [814, 813, 3694], 's_17_48': [1293], 's_17_49': [4224], 's_18_2': [4879], 's_18_7': [4924], 's_18_15': [4562], 's_18_19': [4833], 's_18_20': [1225], 's_18_22': [1150], 's_18_24': [1405], 's_18_25': [518], 's_18_26': [3842], 's_18_27': [4772], 's_18_28': [4547], 's_18_29': [4068], 's_18_30': [536], 's_18_33': [4066], 's_18_34': [4877], 's_18_35': [4835], 's_18_37': [1375], 's_18_38': [4592], 's_18_39': [1285], 's_18_40': [4487], 's_18_41': [5059], 's_18_42': [4187], 's_18_43': [4667], 's_18_44': [4846], 's_18_45': [836], 's_18_46': [4836], 's_18_49': [441], 's_19_3': [708], 's_19_7': [5193], 's_19_9': [3859], 's_19_13': [739], 's_19_15': [2197], 's_19_20': [2271], 's_19_21': [4533], 's_19_22': [4459, 908, 4384], 's_19_23': [2000], 's_19_26': [648], 's_19_27': [860], 's_19_28': [5178], 's_19_29': [2347], 's_19_30': [731, 5028], 's_19_31': [3753, 754], 's_19_32': [4564], 's_19_34': [4594], 's_19_35': [3903, 3904], 's_19_36': [755], 's_19_39': [4195], 's_19_40': [5403], 's_19_41': [779], 's_19_42': [4759], 's_19_43': [1672], 's_19_44': [1145, 1146], 's_19_46': [4429], 's_19_47': [3993, 695], 's_19_48': [5208, 837], 's_19_49': [816], 's_20_2': [4587], 's_20_3': [4227], 's_20_9': [3761], 's_20_13': [2305, 4660, 4661, 2304], 's_20_15': [4811], 's_20_21': [2180], 's_20_22': [5035, 5036], 's_20_23': [3836, 2210], 's_20_24': [3911], 's_20_26': [1810, 4809], 's_20_27': [444], 's_20_28': [4773], 's_20_29': [4692], 's_20_30': [866, 865], 's_20_32': [745], 's_20_33': [1240], 's_20_35': [1075], 's_20_36': [4775], 's_20_37': [2186, 5021], 's_20_38': [415], 's_20_39': [4777], 's_20_40': [490], 's_20_42': [1374], 's_20_43': [580], 's_20_44': [1135], 's_20_45': [5216], 's_20_46': [1329], 's_20_47': [5292, 2247], 's_20_48': [4837], 's_21_2': [1268], 's_21_3': [1775], 's_21_7': [552], 's_21_9': [1594], 's_21_13': [829], 's_21_15': [477], 's_21_22': [863], 's_21_23': [1985], 's_21_24': [3896], 's_21_27': [1460], 's_21_28': [4832], 's_21_29': [4087, 4086], 's_21_31': [1339], 's_21_34': [803], 's_21_35': [4071], 's_21_36': [1040], 's_21_39': [4536], 's_21_40': [4566, 1223], 's_21_41': [523], 's_21_42': [473, 4502], 's_21_43': [683], 's_21_45': [3998, 3999], 's_21_46': [4326], 's_21_48': [3895], 's_22_7': [2006], 's_22_9': [5124], 's_22_13': [5170], 's_22_15': [5195], 's_22_24': [1241], 's_22_25': [4820], 's_22_26': [1781], 's_22_28': [4413], 's_22_30': [4611], 's_22_31': [5123], 's_22_32': [1211], 's_22_33': [4776], 's_22_34': [878], 's_22_37': [1571], 's_22_38': [4431, 1162], 's_22_39': [1028], 's_22_40': [4430], 's_22_42': [4416], 's_22_43': [998], 's_22_46': [787, 4458], 's_22_47': [5111], 's_22_48': [1497], 's_23_3': [1624], 's_23_9': [1819], 's_23_13': [1804], 's_23_24': [3926], 's_23_26': [3850], 's_23_27': [1429], 's_23_28': [1077], 's_23_29': [2241, 2240, 3986], 's_23_30': [1122], 's_23_31': [3696, 1279], 's_23_32': [3787], 's_23_33': [1212], 's_23_35': [5150], 's_23_36': [1394], 's_23_37': [2096], 's_23_38': [2183], 's_23_39': [1842], 's_23_41': [5482], 's_23_43': [1474], 's_23_45': [1721], 's_23_46': [3744], 's_23_47': [5051], 's_23_48': [5422], 's_23_49': [2181], 's_25_2': [2333], 's_25_3': [2379, 2380], 's_25_7': [1748], 's_25_9': [1778, 4524], 's_25_13': [4615, 1868], 's_25_15': [398], 's_25_24': [4556], 's_25_27': [4171], 's_25_29': [2349], 's_25_30': [4535], 's_25_31': [1658, 4523], 's_25_32': [4173], 's_25_34': [668], 's_25_35': [4700], 's_25_36': [4490, 4489], 's_25_37': [4537, 1494], 's_25_38': [2408], 's_25_39': [4805], 's_25_40': [4233], 's_25_42': [606], 's_25_43': [713], 's_25_44': [1091], 's_25_45': [1613], 's_25_46': [4443], 's_25_48': [1523], 's_25_49': [471], 's_26_2': [2033], 's_26_7': [4914], 's_26_13': [4945], 's_26_15': [5244], 's_26_24': [4421], 's_26_29': [2031], 's_26_30': [1158], 's_26_32': [3607], 's_26_33': [3646], 's_26_35': [738], 's_26_36': [5514], 's_26_38': [3887], 's_26_39': [3970], 's_26_40': [1008, 3605, 1128], 's_26_41': [1649, 5573, 5574, 1859], 's_26_42': [618], 's_26_43': [2014], 's_26_46': [3670], 's_26_47': [1323, 1324], 's_26_48': [1038], 's_26_49': [4226], 's_29_2': [2348], 's_29_3': [2425, 4872], 's_29_9': [1685], 's_29_13': [2045], 's_29_15': [4407], 's_29_24': [2151, 4106], 's_29_27': [1431], 's_29_31': [1370], 's_29_32': [1026], 's_29_33': [442, 4336], 's_29_34': [563, 4457], 's_29_37': [4264, 922], 's_29_38': [2273], 's_29_39': [4601], 's_29_40': [921], 's_29_41': [876], 's_29_42': [4053], 's_29_44': [1160], 's_29_45': [4134], 's_29_46': [4089], 's_29_47': [786], 's_29_48': [4045], 's_30_3': [1188], 's_30_13': [1114], 's_30_24': [671], 's_30_28': [3890], 's_30_31': [3770], 's_30_32': [3726], 's_30_34': [4640, 1224], 's_30_36': [5435], 's_30_39': [4761], 's_30_40': [3739], 's_30_41': [5040, 5041], 's_30_42': [4655], 's_30_43': [1168, 5540], 's_30_44': [5060], 's_30_45': [5090], 's_30_46': [3950], 's_30_47': [1025], 's_30_48': [3531, 3530], 's_30_49': [4265], 's_31_2': [4433, 1643], 's_31_3': [1459], 's_31_7': [4313, 1747], 's_31_9': [1219], 's_31_15': [5196, 5197, 1317], 's_31_24': [4852], 's_31_27': [1475], 's_31_28': [874], 's_31_32': [3832], 's_31_33': [1197], 's_31_35': [3769], 's_31_37': [4793], 's_31_38': [1417], 's_31_39': [1557], 's_31_40': [4310], 's_31_41': [1243], 's_31_43': [1657], 's_31_44': [3966], 's_31_45': [4539, 4538, 1583], 's_31_46': [1282], 's_31_47': [1504], 's_31_48': [5032], 's_31_49': [1521, 1522], 's_32_2': [4699], 's_32_3': [1428, 3637], 's_32_7': [791, 5163], 's_32_9': [3847], 's_32_13': [1234, 3771], 's_32_15': [5030], 's_32_24': [1001], 's_32_27': [4306], 's_32_28': [4727], 's_32_33': [4321, 352], 's_32_36': [996], 's_32_37': [952], 's_32_41': [367, 366], 's_32_42': [729], 's_32_44': [4186], 's_32_46': [1341], 's_32_47': [3906], 's_32_48': [3532], 's_32_49': [337, 4231, 4230], 's_33_3': [3631, 409], 's_33_7': [1629], 's_33_9': [1674], 's_33_13': [274], 's_33_15': [807], 's_33_24': [5116], 's_33_27': [4366], 's_33_28': [3991], 's_33_34': [1314], 's_33_35': [3601], 's_33_36': [5270], 's_33_37': [1614], 's_33_39': [1584], 's_33_40': [4800], 's_33_41': [4920, 4921], 's_33_42': [4701], 's_33_43': [5301], 's_33_44': [310], 's_33_45': [5091], 's_33_46': [4881], 's_36_7': [1106], 's_36_9': [5454], 's_36_15': [1183], 's_36_24': [986, 5029], 's_36_27': [785], 's_36_28': [3932], 's_36_34': [4610], 's_36_35': [3949], 's_36_37': [4309], 's_36_39': [5513], 's_36_43': [1258, 1259], 's_36_44': [845], 's_36_46': [997], 's_36_47': [3888, 725], 's_37_3': [2036, 4976, 4977], 's_37_7': [1466], 's_37_9': [4808], 's_37_13': [2066], 's_37_15': [2246, 5157], 's_37_35': [1312, 4176], 's_37_38': [1042], 's_37_39': [1753], 's_37_40': [937], 's_37_41': [1768], 's_37_45': [5243], 's_37_46': [4612], 's_37_48': [4582, 1449], 's_37_49': [1267], 's_38_2': [1628], 's_38_3': [3872], 's_38_13': [499], 's_38_15': [4546], 's_38_24': [2153], 's_38_27': [4037], 's_38_28': [862], 's_38_34': [4427, 488], 's_38_39': [1853, 4420], 's_38_40': [459], 's_38_41': [4665], 's_38_43': [4697], 's_38_44': [339, 4756], 's_38_46': [4345, 1897], 's_38_47': [485], 's_38_48': [4390], 's_38_49': [232, 234, 233, 279, 4650], 's_39_2': [4299], 's_39_7': [4884], 's_39_13': [3985], 's_39_24': [1046, 1045, 1044], 's_39_34': [1434], 's_39_40': [1177], 's_39_41': [1873], 's_39_42': [1989], 's_39_44': [4866], 's_39_45': [4283], 's_39_46': [3939], 's_39_48': [5407], 's_39_49': [1837], 's_40_3': [3680], 's_40_7': [641], 's_40_13': [949], 's_40_15': [672, 5162], 's_40_24': [5058, 716], 's_40_27': [906], 's_40_28': [3845], 's_40_34': [4997], 's_40_35': [3649], 's_40_41': [756], 's_40_42': [4428], 's_40_43': [4652], 's_40_45': [5073], 's_40_46': [1147], 's_40_47': [861], 's_40_48': [993, 992], 's_40_49': [1161, 4189, 4190], 's_41_7': [5010, 5011], 's_41_13': [5485], 's_41_15': [4845], 's_41_35': [951], 's_41_42': [5089], 's_41_43': [1198], 's_41_44': [4830, 295], 's_41_45': [251], 's_41_47': [155, 4005], 's_41_49': [4545], 's_42_2': [4654], 's_42_3': [3752, 589], 's_42_13': [604], 's_42_15': [4607], 's_42_24': [2184], 's_42_28': [624], 's_42_35': [4521, 1208, 4460], 's_42_44': [3843], 's_42_45': [4658], 's_42_46': [4371], 's_42_47': [4751], 's_42_48': [1824], 's_42_49': [4248], 's_43_2': [939], 's_43_3': [1684], 's_43_7': [1759], 's_43_9': [3848], 's_43_13': [1999], 's_43_15': [987, 5330, 5331], 's_43_24': [5016], 's_43_28': [744, 4593], 's_43_34': [4682], 's_43_35': [4116], 's_43_44': [4941], 's_43_45': [4163], 's_43_46': [4686], 's_43_47': [1714], 's_43_48': [1969], 's_43_49': [1596], 's_44_2': [4925], 's_44_3': [3916], 's_44_7': [5026, 386], 's_44_13': [454], 's_44_15': [4860], 's_44_24': [1287], 's_44_27': [4651], 's_44_28': [3961, 3962], 's_44_34': [633], 's_44_35': [5300], 's_44_46': [5046], 's_44_47': [4038], 's_44_48': [5194], 's_44_49': [4261], 's_45_2': [4419], 's_45_7': [1715], 's_45_9': [4944], 's_45_13': [5200], 's_45_15': [402], 's_45_28': [806], 's_45_35': [1060, 4880], 's_45_47': [1805], 's_45_48': [1598], 's_46_2': [1612], 's_46_3': [3639], 's_46_13': [3789], 's_46_15': [5346], 's_46_24': [1331], 's_46_27': [1879], 's_46_28': [4308], 's_46_34': [982], 's_46_35': [4011], 's_46_47': [1864], 's_46_48': [1848], 's_46_49': [877], 's_47_3': [2105, 3971], 's_47_7': [1790], 's_47_9': [2120], 's_47_15': [2232], 's_47_27': [1415], 's_47_28': [530], 's_47_34': [784, 783, 3723], 's_48_2': [1883], 's_48_3': [1968], 's_48_7': [4613], 's_48_9': [3745], 's_48_13': [4465], 's_48_15': [1242], 's_48_24': [5092], 's_48_28': [1083], 's_48_35': [977], 's_48_49': [4165], 's_49_3': [4212], 's_49_7': [1746], 's_49_13': [1987], 's_49_15': [4530], 's_49_24': [4151], 's_49_28': [517], 's_49_34': [4307], 's_49_35': [981], 's_2_3': [4437], 's_2_7': [4939, 895], 's_2_9': [4434], 's_2_15': [4481], 's_2_24': [4466], 's_2_28': [4369], 's_2_34': [954], 's_3_7': [2155], 's_3_9': [3593, 1608, 1609], 's_3_13': [1699], 's_3_15': [4617], 's_3_24': [4091], 's_3_27': [3766], 's_3_28': [1099], 's_3_35': [828], 's_7_9': [4448], 's_7_13': [4915], 's_7_15': [762], 's_7_24': [491], 's_7_27': [1745], 's_7_28': [5269], 's_7_34': [4967], 's_7_35': [853], 's_9_13': [2029], 's_9_15': [1722], 's_9_28': [1159], 's_9_34': [1464], 's_15_13': [5080, 5081], 's_15_24': [1107, 5180], 's_15_27': [4681], 's_15_34': [460, 4892], 's_15_35': [5344], 's_24_13': [4435], 's_24_27': [5176], 's_24_28': [626], 's_27_13': [1909], 's_27_28': [5132], 's_27_34': [4577], 's_27_35': [1266], 's_28_13': [529], 's_28_35': [3710], 's_34_13': [664], 's_35_13': [1189]}</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E97" t="n">
         <v>0.004325842696629213</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F97" t="n">
         <v>0.001891139046742047</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G97" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H97" t="inlineStr">
         <is>
           <t>{0: [4110, 4111, 4741, 5321, 456, 457, 458, 4532, 5320, 5319, 5317, 5316, 5315, 5314, 5313, 598, 5318, 597, 596, 594, 595, 4743, 4742], 1: [4620, 4721, 1632, 1631, 1630, 354, 4621, 4622, 4623, 4719, 4718, 4717, 1101, 4720, 1103, 1102, 1404, 4626, 4624, 4625, 1104], 's_0_1': [519], 4: [4260, 1399, 1400, 1401, 4782, 4781, 4780, 4125, 4126, 5155, 5154, 4779, 261, 4778, 5153, 1511, 1510, 4127, 4128, 4129, 4130, 4131, 4132, 1509, 1508, 1507, 1506], 's_0_4': [4112], 5: [1625, 3819, 3818, 3817, 5259, 5258, 5257, 1438, 3768, 844, 3814, 3815, 3816, 1295, 1296, 1297, 5182, 1437, 5152, 1376, 1298, 1299, 1300, 1301, 1069, 5031], 's_0_5': [1648, 1587, 5273], 6: [801, 800, 455, 3977, 680, 3978, 3979, 5260, 1947, 1946, 1945, 1944, 3980, 1943, 1942, 4269, 1866, 1865, 1235, 3981, 3982, 3983, 3984], 's_0_6': [2038], 8: [5370, 2213, 262, 263, 4606, 2214, 927, 2215, 2216, 2217, 2218, 5381, 5380, 5379, 5378, 5377, 5376, 5375, 5374, 928, 5373, 4937, 4936, 5372, 369, 370, 371, 372, 373, 5371], 's_0_8': [868], 10: [418, 5291, 1420, 1421, 1422, 698, 1662, 5198, 1707, 4653, 940, 2008, 941, 942, 943, 699, 700, 5282, 5290, 5289, 5288, 5287, 5286, 701, 702, 5283, 5285, 5284], 's_0_10': [703], 11: [1000, 520, 4816, 4817, 4818, 2089, 5001, 5000, 2090, 2091, 4241, 4240, 4239, 4238, 4999, 1372, 1371, 4237, 4236, 4235, 4234, 892, 893, 894, 4744, 804, 805, 4998], 's_0_11': [4878, 640, 4982], 12: [487, 1841, 1840, 368, 4351, 4362, 4361, 4360, 1839, 1838, 4359, 1567, 4358, 4352, 4353, 4354, 4355, 4356, 4357], 's_0_12': [4471], 14: [5184, 2122, 416, 2319, 1451, 2107, 4932, 2109, 2110, 4931, 4952, 2108, 4953, 1690, 4954, 4955, 4956, 4957, 4958, 2320, 1827, 1826, 4960, 4959, 1661, 4930, 4929, 686, 1780], 's_0_14': [4938, 746], 16: [5543, 5544, 4141, 4142, 4143, 4144, 4145, 4146, 4147, 4149, 4150, 2046, 2047, 1903, 5455, 5456, 2048, 2049, 4796, 2140, 2143, 4148, 2142, 5125, 5126, 2141], 's_0_16': [1933, 5440, 2024], 17: [4041, 4042, 4043, 3588, 3589, 3590, 3591, 3592, 1548, 1549, 1550, 1798, 1797, 1796, 1795, 4631, 4630, 4629, 1809, 1794, 4614, 1703, 1702, 1701, 4133, 1626, 4028], 's_0_17': [5334], 18: [469, 470, 4851, 440, 4067, 531, 532, 820, 533, 4850, 4849, 4848, 4847, 535, 821, 534], 's_0_18': [4412], 19: [663, 2032, 3633, 778, 4257, 4256, 3889, 2001, 2002, 4255, 769, 4254, 4253, 4252, 4251, 4250, 777, 770, 771, 776, 775, 774, 773, 772, 4249], 's_0_19': [5329], 20: [5277, 1148, 1149, 3956, 2254, 2255, 2292, 2291, 2290, 4787, 4789, 4790, 4791, 4792, 1435, 4821, 4822, 2256, 4788, 2257, 2258, 2259, 4826, 4825, 4824, 4823], 's_0_20': [730], 21: [4635, 3874, 5327, 568, 3875, 3881, 4548, 4636, 1595, 3879, 567, 566, 565, 564, 4637, 638, 4503, 4504, 4505, 4506, 1253, 1252, 1251, 1250, 3876, 3877, 3878, 3938, 3880, 1639, 1640], 's_0_21': [5387], 22: [1990, 5350, 1991, 1192, 1193, 4551, 1167, 4414, 4415, 1043, 4550, 1163, 1164, 1165, 1993, 1992, 5110, 5109, 5108, 5107, 5106, 1166], 's_0_22': [2023, 5410], 23: [1393, 1392, 5135, 5136, 5137, 5139, 5140, 5141, 5138, 1414, 2173, 2172, 2171, 2170, 2169, 2168, 2167, 2166, 2165, 3866, 3697, 3699, 3700, 1939, 3698, 3835, 2030], 's_0_23': [2188], 25: [666, 1090, 1089, 1403, 4472, 4217, 4218, 742, 743, 4542, 4541, 4540, 4555, 1928, 4479, 4478, 397, 4473, 4474, 1088, 4475, 4477, 4476], 's_0_25': [396], 26: [1353, 1814, 1813, 1812, 439, 438, 3572, 3573, 3571, 3574, 3575, 3576, 3577, 3578, 3579, 1811, 5004, 1915, 4885, 2020, 2019, 2018, 2017, 2016, 2015, 3820, 1924, 1923], 's_0_26': [1917, 5199], 29: [4095, 4797, 1221, 1925, 4263, 4602, 605, 1222, 4382, 4000, 4383, 4096, 4097, 697, 4098, 4099, 4100, 4101, 4102, 696, 4103, 4104, 1926, 4180, 4181, 4182, 2362, 2363, 2365, 2364], 's_0_29': [593], 30: [3725, 1053, 5042, 5043, 5044, 3740, 1054, 1055, 4010, 1153, 1152, 1151, 5045, 1121, 1120, 1119, 1116, 1117, 1118], 's_0_30': [5057], 31: [5017, 1454, 3967, 1453, 5360, 5361, 5362, 1542, 4311, 3754, 4328, 3755, 3756, 3757, 1489, 1541, 1540, 4327, 1539, 1538, 1537, 4312, 1492, 1491, 1490], 's_0_31': [1423], 32: [5061, 1520, 3997, 1196, 412, 5015, 926, 4698, 5014, 5013, 761, 4728, 760, 759, 758, 1383, 1384, 1385, 1386, 4207, 4206, 4205, 4291, 4292, 4293, 757, 4204], 's_0_32': [472], 33: [4643, 4642, 4641, 1254, 318, 3811, 319, 1255, 1256, 1257, 5256, 320, 5255, 321, 322, 323, 324, 325, 326, 327, 5251, 5252, 5253, 5254], 's_0_33': [583, 5417], 36: [3786, 3785, 1009, 5439, 1723, 4940, 5499, 5498, 5497, 5496, 5495, 1003, 3933, 1294, 3934, 1010, 1011, 1012, 5524, 1018, 1017, 1013, 1014, 1015, 1016], 's_0_36': [1573, 1574], 37: [4806, 2231, 1552, 4297, 5066, 5065, 4294, 4295, 4296, 1357, 1358, 1359, 1360, 1361, 5363, 1618, 1617, 5064, 5062, 5063, 1615, 1616], 's_0_37': [1603, 5453], 38: [4696, 4527, 2288, 4666, 4451, 500, 501, 502, 4450, 1988, 4405, 4404, 4403, 4402, 414, 413, 4397, 4398, 4399, 4400, 4401], 's_0_38': [294], 39: [1749, 1029, 1315, 1910, 4284, 1911, 1912, 1913, 4600, 1558, 1178, 1179, 4730, 4731, 4732, 4733, 4734, 5408, 5409, 1858, 1857, 1856, 1854, 1855], 's_0_39': [1678], 40: [657, 933, 4802, 3724, 1059, 4445, 1058, 1057, 658, 4801, 1056, 4160, 934, 935, 936, 846, 4159, 656, 655, 654, 653, 652, 651, 4158], 's_0_40': [5192], 41: [896, 897, 898, 4084, 4083, 4082, 4081, 4080, 156, 157, 158, 159, 161, 162, 5250, 252, 5470, 160, 5469, 5468, 5467, 5466, 5465, 5464, 5463, 5462, 5461, 253], 's_0_41': [673], 42: [4691, 619, 2124, 1283, 1284, 4676, 4675, 4674, 4673, 882, 880, 879, 4672, 4671, 620, 621, 622, 623, 881, 4608, 714, 4670, 4669, 819, 4668], 's_0_42': [4758], 43: [3775, 3774, 3773, 3772, 1326, 1534, 1535, 5420, 5421, 1273, 1272, 579, 4178, 1536, 4267, 4266, 1271, 1270, 4746, 1239, 4578, 4579, 4580, 4581, 1238, 1333, 1237], 's_0_43': [1138], 44: [1032, 1031, 634, 1496, 4912, 1210, 4911, 3965, 3964, 3963, 665, 3902, 3901, 4910, 1030, 4865, 4864, 4863, 4862, 380, 381, 1286, 382, 383, 384, 385, 4861], 's_0_44': [1033], 45: [3834, 4463, 5146, 1061, 5147, 5148, 5149, 912, 5074, 5075, 5076, 5077, 5078, 5215, 5214, 5213, 1601, 4988, 1720, 1719, 1718, 1717, 1602, 1716, 4164, 1821, 1820, 3849, 1744], 's_0_45': [2067], 46: [3654, 1205, 3865, 1849, 1850, 1851, 1852, 4344, 1206, 1207, 832, 4339, 4340, 4343, 1347, 1346, 1345, 1344, 1343, 1342, 4341, 4342], 's_0_46': [5332], 47: [1115, 4006, 4113, 711, 5276, 4007, 4008, 710, 3918, 3919, 3920, 3921, 3922, 3923, 3924, 2082, 2081, 2080, 2079, 2078, 2077, 2076, 2075, 2074, 3925], 's_0_47': [2097], 48: [1638, 3515, 5209, 1483, 3516, 5210, 5211, 5212, 3517, 3518, 3520, 1953, 1954, 1955, 2005, 1482, 1481, 1480, 1479, 4583, 4584, 3519, 1956, 1957, 1958, 2004, 4585], 's_0_48': [972], 49: [309, 308, 4440, 577, 174, 173, 172, 4275, 4166, 4276, 4277, 4278, 4279, 4280, 4281, 4282, 1551, 4208, 4209, 2121, 4210, 4211], 's_0_49': [4740], 2: [1792, 4909, 970, 969, 4493, 4422, 4549, 968, 967, 4385, 4386, 2303, 4496, 4495, 4494, 1808, 4389, 4388, 4387], 's_1_2': [818], 3: [4842, 395, 394, 3662, 3663, 3664, 4841, 2230, 2229, 2228, 4331, 2227, 2226, 2225, 2224, 2223, 3596, 3595, 3893, 3894, 3665, 3666, 3667, 3668, 1655, 1654, 3669, 1788, 3594], 's_1_3': [2185], 's_1_4': [1647], 's_1_5': [1100], 's_1_6': [4735], 7: [3969, 852, 747, 4598, 4599, 1760, 1761, 1762, 4901, 506, 5103, 5104, 851, 850, 5102, 4894, 4900, 4895, 1763, 1764, 1765, 4899, 4898, 4897, 4896], 's_1_7': [1599], 9: [5183, 3860, 2119, 3760, 3759, 3758, 4627, 4628, 3953, 3861, 3862, 3863, 3864, 1729, 1730, 1738, 1737, 1736, 1735, 1734, 1733, 1732, 1731], 's_1_9': [4838], 's_1_10': [4638], 's_1_11': [1373], 's_1_12': [353, 4441], 's_1_14': [1646, 4943], 15: [5096, 1181, 1182, 4757, 4531, 2198, 2199, 2200, 2201, 2202, 5231, 399, 400, 401, 5229, 5228, 5227, 5226, 4981, 5345, 1063, 1062, 5225, 5224, 5230, 265, 4980, 5223, 5222, 5221, 312, 311], 's_1_15': [443], 's_1_16': [2094], 's_1_17': [1779], 's_1_19': [4040, 4039], 's_1_20': [1899], 's_1_21': [684], 's_1_22': [4685], 24: [5161, 2135, 446, 4436, 5117, 5118, 5119, 5120, 1406, 2136, 2137, 2138, 2034, 4690, 4689, 4688, 4586, 5121, 5122, 1436, 5002, 1555, 1554], 's_1_24': [4702, 4703, 1644], 's_1_26': [5003], 27: [1448, 1447, 1446, 3909, 3908, 3907, 1430, 4027, 4026, 4025, 4024, 432, 424, 1894, 431, 430, 429, 428, 427, 426, 425, 4022, 4023], 's_1_27': [4711], 28: [1002, 514, 1130, 732, 1084, 3992, 817, 4324, 4323, 5240, 5239, 867, 5134, 5133, 611, 610, 609, 608, 607, 1085, 3830, 3829, 3828, 3827, 560, 561, 562, 4322], 's_1_28': [1086], 's_1_30': [4520], 's_1_31': [4748], 's_1_33': [1269], 34: [4569, 4568, 1553, 4492, 1418, 1419, 3722, 4597, 4596, 4595, 983, 4519, 544, 545, 546, 547, 4518, 551, 550, 549, 548, 4517], 's_1_34': [1328], 35: [4175, 5404, 1190, 1105, 1281, 4056, 3603, 3604, 978, 979, 980, 4055, 958, 3602, 957, 956, 955, 4745, 1074, 1073, 1072, 1071], 's_1_35': [4565], 's_1_36': [4639], 's_1_37': [5168], 's_1_38': [489], 's_1_39': [4762], 's_1_40': [4220], 's_1_41': [4085], 's_1_42': [669], 's_1_43': [1209], 's_1_44': [4726], 's_1_45': [5093, 1706], 's_1_46': [4747], 's_1_48': [4763, 1495], 's_1_49': [4591, 4590], 's_4_2': [966], 's_4_3': [2350], 's_4_7': [1525], 's_4_8': [220, 219, 218, 221, 217, 216, 4051, 260], 's_4_9': [4794], 's_4_10': [1767], 's_4_11': [1477, 4177], 's_4_12': [4372], 13: [4031, 5020, 3796, 1978, 1977, 1976, 1975, 1974, 1973, 1972, 3797, 3798, 3799, 3800, 3801, 3802, 3803, 3804, 3805, 2059, 2060, 2212, 4271, 4270, 2061], 's_4_13': [1962, 5185], 's_4_14': [2335], 's_4_15': [1572], 's_4_16': [4140, 201], 's_4_17': [1505], 's_4_20': [1570], 's_4_21': [4507], 's_4_22': [1691], 's_4_23': [1752], 's_4_24': [4807], 's_4_25': [4522, 1433], 's_4_26': [3712], 's_4_28': [576], 's_4_29': [591], 's_4_30': [3741], 's_4_32': [891], 's_4_33': [4201], 's_4_34': [636, 4262], 's_4_36': [4114], 's_4_37': [4928], 's_4_39': [1524], 's_4_41': [351], 's_4_42': [2274], 's_4_43': [4223], 's_4_44': [4246], 's_4_45': [4973], 's_4_46': [4115], 's_4_47': [5156], 's_4_48': [5047], 's_4_49': [171], 's_5_6': [920], 's_5_7': [1316], 's_5_8': [1843], 's_5_9': [1265], 's_5_10': [1377], 's_5_11': [4417], 's_5_13': [1249], 's_5_14': [4942], 's_5_15': [5151], 's_5_19': [724, 3648], 's_5_20': [999, 4716, 4715], 's_5_21': [905], 's_5_23': [5272], 's_5_24': [4972], 's_5_25': [4567], 's_5_26': [859, 858], 's_5_28': [694], 's_5_29': [1311], 's_5_30': [1204], 's_5_31': [5347], 's_5_32': [3936], 's_5_33': [5181], 's_5_34': [3767], 's_5_37': [4432], 's_5_38': [1313], 's_5_40': [3784], 's_5_42': [4491], 's_5_43': [4191], 's_5_44': [709, 3783], 's_5_45': [1872], 's_5_47': [950], 's_5_48': [5167], 's_6_2': [4314], 's_6_3': [1670], 's_6_7': [4029, 4030], 's_6_9': [4014], 's_6_10': [5305, 1902], 's_6_11': [1927], 's_6_12': [4854], 's_6_13': [4765], 's_6_14': [1931], 's_6_15': [5245], 's_6_16': [5261], 's_6_19': [4060], 's_6_20': [1930], 's_6_21': [1565], 's_6_22': [5275], 's_6_23': [1940, 3954], 's_6_25': [1867, 4449], 's_6_27': [815], 's_6_28': [515], 's_6_30': [1070], 's_6_31': [1445], 's_6_32': [4072, 1340], 's_6_34': [3947], 's_6_35': [965], 's_6_36': [890], 's_6_37': [5050], 's_6_38': [4525], 's_6_39': [5019], 's_6_41': [681], 's_6_42': [590, 3917], 's_6_44': [3873], 's_6_45': [4179], 's_6_46': [1835], 's_6_47': [3931, 3930, 290], 's_6_48': [4570], 's_6_49': [1941], 's_8_2': [4572], 's_8_3': [4962], 's_8_9': [5393], 's_8_10': [5179], 's_8_12': [293, 292], 's_8_13': [1963], 's_8_15': [2187, 5201], 's_8_16': [2098], 's_8_17': [5394], 's_8_18': [278, 277, 276, 275, 3976], 's_8_19': [5388], 's_8_20': [5006], 's_8_21': [508], 's_8_22': [5395], 's_8_23': [5351], 's_8_24': [5056], 's_8_27': [4891], 's_8_29': [4381], 's_8_30': [5390], 's_8_31': [1228], 's_8_32': [4290], 's_8_33': [5071], 's_8_35': [5389], 's_8_36': [973], 's_8_37': [1633], 's_8_38': [4396], 's_8_39': [1708], 's_8_40': [643], 's_8_41': [1948], 's_8_42': [4736], 's_8_43': [1048], 's_8_44': [4561], 's_8_45': [5131], 's_8_47': [5246], 's_8_48': [5392], 's_8_49': [4605], 's_10_2': [4819], 's_10_7': [507], 's_10_11': [4683], 's_10_13': [5425], 's_10_14': [1828], 's_10_16': [2009], 's_10_17': [1782], 's_10_18': [822], 's_10_19': [4713], 's_10_20': [834], 's_10_21': [447], 's_10_23': [1932], 's_10_24': [1407], 's_10_25': [4760], 's_10_26': [5304], 's_10_27': [5297], 's_10_31': [5359], 's_10_33': [522], 's_10_36': [944], 's_10_39': [1663], 's_10_42': [4984], 's_10_43': [1288], 's_10_44': [5105], 's_10_45': [5303], 's_10_46': [5302], 's_10_48': [1332], 's_11_7': [4969], 's_11_9': [3851], 's_11_12': [847], 's_11_13': [3910], 's_11_14': [911], 's_11_15': [4922], 's_11_16': [4120], 's_11_18': [1330], 's_11_19': [4803], 's_11_20': [670], 's_11_21': [521, 5072], 's_11_22': [1391], 's_11_23': [2164, 3656, 2088], 's_11_24': [4196], 's_11_25': [1462, 1463], 's_11_26': [4046], 's_11_27': [1356, 1355, 4012], 's_11_29': [2182], 's_11_31': [1642], 's_11_32': [4774], 's_11_33': [4986], 's_11_34': [4534], 's_11_35': [4714], 's_11_37': [4461], 's_11_38': [1582], 's_11_39': [1822], 's_11_40': [505], 's_11_41': [4815], 's_11_42': [4684, 849], 's_11_44': [715], 's_11_45': [4985], 's_11_46': [1627], 's_11_47': [3821], 's_11_48': [3940], 's_11_49': [4105], 's_12_2': [1823], 's_12_3': [2152], 's_12_7': [4554], 's_12_9': [4374], 's_12_13': [4375], 's_12_14': [4480, 2003], 's_12_16': [4795], 's_12_17': [5034], 's_12_18': [4367], 's_12_19': [1777], 's_12_20': [2272], 's_12_21': [938], 's_12_22': [953], 's_12_23': [4376], 's_12_24': [2062], 's_12_25': [578], 's_12_26': [5049], 's_12_27': [4486], 's_12_29': [4368], 's_12_31': [1327], 's_12_32': [667], 's_12_33': [307], 's_12_34': [923], 's_12_36': [4370], 's_12_38': [728], 's_12_39': [4644], 's_12_40': [637], 's_12_42': [4659], 's_12_43': [1432], 's_12_46': [1597], 's_12_47': [2092], 's_12_49': [4350], 's_14_2': [835], 's_14_3': [4346], 's_14_7': [4869], 's_14_9': [5079], 's_14_13': [4855], 's_14_15': [4947], 's_14_16': [4916], 's_14_17': [5169], 's_14_18': [4927, 1390], 's_14_19': [5088], 's_14_20': [1675, 4883, 4882], 's_14_21': [5012], 's_14_22': [5095, 1961], 's_14_23': [4706], 's_14_25': [4645, 2063], 's_14_26': [1900], 's_14_27': [445], 's_14_28': [687, 5177], 's_14_29': [2366], 's_14_30': [4971], 's_14_31': [4913], 's_14_32': [1136], 's_14_34': [5027], 's_14_35': [4970], 's_14_36': [985], 's_14_37': [1586], 's_14_38': [2123], 's_14_40': [4968], 's_14_41': [4950, 4951], 's_14_42': [4766], 's_14_45': [4974], 's_14_47': [4810], 's_14_48': [4868, 4867], 's_14_49': [2106], 's_16_3': [1656], 's_16_7': [4044, 1671], 's_16_9': [5529, 5528], 's_16_13': [2051], 's_16_15': [5127], 's_16_17': [1783, 1784], 's_16_18': [516], 's_16_19': [4315], 's_16_20': [2035], 's_16_21': [1236], 's_16_23': [4946], 's_16_24': [4571], 's_16_26': [2021, 5005, 2111, 2112, 2113, 2114, 5530], 's_16_27': [411], 's_16_29': [336], 's_16_31': [1476], 's_16_32': [727, 726, 741], 's_16_34': [4157], 's_16_35': [1191], 's_16_36': [1754], 's_16_37': [2156], 's_16_38': [4510], 's_16_39': [5542], 's_16_41': [1994], 's_16_43': [1611], 's_16_44': [4156], 's_16_45': [4118, 4117, 1566], 's_16_46': [1806, 4119], 's_16_47': [2157], 's_16_49': [1791], 's_17_2': [1793], 's_17_3': [1563, 3638], 's_17_7': [4749], 's_17_15': [4646], 's_17_19': [799, 798], 's_17_21': [1173, 1174], 's_17_23': [1518], 's_17_24': [2139], 's_17_26': [1338], 's_17_27': [1610], 's_17_29': [4088], 's_17_30': [1143, 3635], 's_17_31': [4508], 's_17_32': [1398], 's_17_33': [1688], 's_17_34': [3587, 603], 's_17_35': [3621, 1248, 3620, 3618, 3619, 3617], 's_17_36': [5424], 's_17_37': [5364], 's_17_38': [2289], 's_17_39': [4839], 's_17_40': [3500, 3501, 1263], 's_17_41': [5484], 's_17_42': [2154], 's_17_43': [3833], 's_17_45': [4194, 4193], 's_17_46': [1686, 1687], 's_17_47': [814, 813, 3694], 's_17_48': [1293], 's_17_49': [4224], 's_18_2': [4879], 's_18_7': [4924], 's_18_15': [4562], 's_18_19': [4833], 's_18_20': [1225], 's_18_22': [1150], 's_18_24': [1405], 's_18_25': [518], 's_18_26': [3842], 's_18_27': [4772], 's_18_28': [4547], 's_18_29': [4068], 's_18_30': [536], 's_18_33': [4066], 's_18_34': [4877], 's_18_35': [4835], 's_18_37': [1375], 's_18_38': [4592], 's_18_39': [1285], 's_18_40': [4487], 's_18_41': [5059], 's_18_42': [4187], 's_18_43': [4667], 's_18_44': [4846], 's_18_45': [836], 's_18_46': [4836], 's_18_49': [441], 's_19_3': [708], 's_19_7': [5193], 's_19_9': [3859], 's_19_13': [739], 's_19_15': [2197], 's_19_20': [2271], 's_19_21': [4533], 's_19_22': [4459, 908, 4384], 's_19_23': [2000], 's_19_26': [648], 's_19_27': [860], 's_19_28': [5178], 's_19_29': [2347], 's_19_30': [731, 5028], 's_19_31': [3753, 754], 's_19_32': [4564], 's_19_34': [4594], 's_19_35': [3903, 3904], 's_19_36': [755], 's_19_39': [4195], 's_19_40': [5403], 's_19_41': [779], 's_19_42': [4759], 's_19_43': [1672], 's_19_44': [1145, 1146], 's_19_46': [4429], 's_19_47': [3993, 695], 's_19_48': [5208, 837], 's_19_49': [816], 's_20_2': [4587], 's_20_3': [4227], 's_20_9': [3761], 's_20_13': [2305, 4660, 4661, 2304], 's_20_15': [4811], 's_20_21': [2180], 's_20_22': [5035, 5036], 's_20_23': [3836, 2210], 's_20_24': [3911], 's_20_26': [1810, 4809], 's_20_27': [444], 's_20_28': [4773], 's_20_29': [4692], 's_20_30': [866, 865], 's_20_32': [745], 's_20_33': [1240], 's_20_35': [1075], 's_20_36': [4775], 's_20_37': [2186, 5021], 's_20_38': [415], 's_20_39': [4777], 's_20_40': [490], 's_20_42': [1374], 's_20_43': [580], 's_20_44': [1135], 's_20_45': [5216], 's_20_46': [1329], 's_20_47': [5292, 2247], 's_20_48': [4837], 's_21_2': [1268], 's_21_3': [1775], 's_21_7': [552], 's_21_9': [1594], 's_21_13': [829], 's_21_15': [477], 's_21_22': [863], 's_21_23': [1985], 's_21_24': [3896], 's_21_27': [1460], 's_21_28': [4832], 's_21_29': [4087, 4086], 's_21_31': [1339], 's_21_34': [803], 's_21_35': [4071], 's_21_36': [1040], 's_21_39': [4536], 's_21_40': [4566, 1223], 's_21_41': [523], 's_21_42': [473, 4502], 's_21_43': [683], 's_21_45': [3998, 3999], 's_21_46': [4326], 's_21_48': [3895], 's_22_7': [2006], 's_22_9': [5124], 's_22_13': [5170], 's_22_15': [5195], 's_22_24': [1241], 's_22_25': [4820], 's_22_26': [1781], 's_22_28': [4413], 's_22_30': [4611], 's_22_31': [5123], 's_22_32': [1211], 's_22_33': [4776], 's_22_34': [878], 's_22_37': [1571], 's_22_38': [4431, 1162], 's_22_39': [1028], 's_22_40': [4430], 's_22_42': [4416], 's_22_43': [998], 's_22_46': [787, 4458], 's_22_47': [5111], 's_22_48': [1497], 's_23_3': [1624], 's_23_9': [1819], 's_23_13': [1804], 's_23_24': [3926], 's_23_26': [3850], 's_23_27': [1429], 's_23_28': [1077], 's_23_29': [2241, 2240, 3986], 's_23_30': [1122], 's_23_31': [3696, 1279], 's_23_32': [3787], 's_23_33': [1212], 's_23_35': [5150], 's_23_36': [1394], 's_23_37': [2096], 's_23_38': [2183], 's_23_39': [1842], 's_23_41': [5482], 's_23_43': [1474], 's_23_45': [1721], 's_23_46': [3744], 's_23_47': [5051], 's_23_48': [5422], 's_23_49': [2181], 's_25_2': [2333], 's_25_3': [2379, 2380], 's_25_7': [1748], 's_25_9': [1778, 4524], 's_25_13': [4615, 1868], 's_25_15': [398], 's_25_24': [4556], 's_25_27': [4171], 's_25_29': [2349], 's_25_30': [4535], 's_25_31': [1658, 4523], 's_25_32': [4173], 's_25_34': [668], 's_25_35': [4700], 's_25_36': [4490, 4489], 's_25_37': [4537, 1494], 's_25_38': [2408], 's_25_39': [4805], 's_25_40': [4233], 's_25_42': [606], 's_25_43': [713], 's_25_44': [1091], 's_25_45': [1613], 's_25_46': [4443], 's_25_48': [1523], 's_25_49': [471], 's_26_2': [2033], 's_26_7': [4914], 's_26_13': [4945], 's_26_15': [5244], 's_26_24': [4421], 's_26_29': [2031], 's_26_30': [1158], 's_26_32': [3607], 's_26_33': [3646], 's_26_35': [738], 's_26_36': [5514], 's_26_38': [3887], 's_26_39': [3970], 's_26_40': [1008, 3605, 1128], 's_26_41': [1649, 5573, 5574, 1859], 's_26_42': [618], 's_26_43': [2014], 's_26_46': [3670], 's_26_47': [1323, 1324], 's_26_48': [1038], 's_26_49': [4226], 's_29_2': [2348], 's_29_3': [2425, 4872], 's_29_9': [1685], 's_29_13': [2045], 's_29_15': [4407], 's_29_24': [2151, 4106], 's_29_27': [1431], 's_29_31': [1370], 's_29_32': [1026], 's_29_33': [442, 4336], 's_29_34': [563, 4457], 's_29_37': [4264, 922], 's_29_38': [2273], 's_29_39': [4601], 's_29_40': [921], 's_29_41': [876], 's_29_42': [4053], 's_29_44': [1160], 's_29_45': [4134], 's_29_46': [4089], 's_29_47': [786], 's_29_48': [4045], 's_30_3': [1188], 's_30_13': [1114], 's_30_24': [671], 's_30_28': [3890], 's_30_31': [3770], 's_30_32': [3726], 's_30_34': [4640, 1224], 's_30_36': [5435], 's_30_39': [4761], 's_30_40': [3739], 's_30_41': [5040, 5041], 's_30_42': [4655], 's_30_43': [1168, 5540], 's_30_44': [5060], 's_30_45': [5090], 's_30_46': [3950], 's_30_47': [1025], 's_30_48': [3531, 3530], 's_30_49': [4265], 's_31_2': [4433, 1643], 's_31_3': [1459], 's_31_7': [4313, 1747], 's_31_9': [1219], 's_31_15': [5196, 5197, 1317], 's_31_24': [4852], 's_31_27': [1475], 's_31_28': [874], 's_31_32': [3832], 's_31_33': [1197], 's_31_35': [3769], 's_31_37': [4793], 's_31_38': [1417], 's_31_39': [1557], 's_31_40': [4310], 's_31_41': [1243], 's_31_43': [1657], 's_31_44': [3966], 's_31_45': [4539, 4538, 1583], 's_31_46': [1282], 's_31_47': [1504], 's_31_48': [5032], 's_31_49': [1521, 1522], 's_32_2': [4699], 's_32_3': [1428, 3637], 's_32_7': [791, 5163], 's_32_9': [3847], 's_32_13': [1234, 3771], 's_32_15': [5030], 's_32_24': [1001], 's_32_27': [4306], 's_32_28': [4727], 's_32_33': [4321, 352], 's_32_36': [996], 's_32_37': [952], 's_32_41': [367, 366], 's_32_42': [729], 's_32_44': [4186], 's_32_46': [1341], 's_32_47': [3906], 's_32_48': [3532], 's_32_49': [337, 4231, 4230], 's_33_3': [3631, 409], 's_33_7': [1629], 's_33_9': [1674], 's_33_13': [274], 's_33_15': [807], 's_33_24': [5116], 's_33_27': [4366], 's_33_28': [3991], 's_33_34': [1314], 's_33_35': [3601], 's_33_36': [5270], 's_33_37': [1614], 's_33_39': [1584], 's_33_40': [4800], 's_33_41': [4920, 4921], 's_33_42': [4701], 's_33_43': [5301], 's_33_44': [310], 's_33_45': [5091], 's_33_46': [4881], 's_36_7': [1106], 's_36_9': [5454], 's_36_15': [1183], 's_36_24': [986, 5029], 's_36_27': [785], 's_36_28': [3932], 's_36_34': [4610], 's_36_35': [3949], 's_36_37': [4309], 's_36_39': [5513], 's_36_43': [1258, 1259], 's_36_44': [845], 's_36_46': [997], 's_36_47': [3888, 725], 's_37_3': [2036, 4976, 4977], 's_37_7': [1466], 's_37_9': [4808], 's_37_13': [2066], 's_37_15': [2246, 5157], 's_37_35': [1312, 4176], 's_37_38': [1042], 's_37_39': [1753], 's_37_40': [937], 's_37_41': [1768], 's_37_45': [5243], 's_37_46': [4612], 's_37_48': [4582, 1449], 's_37_49': [1267], 's_38_2': [1628], 's_38_3': [3872], 's_38_13': [499], 's_38_15': [4546], 's_38_24': [2153], 's_38_27': [4037], 's_38_28': [862], 's_38_34': [4427, 488], 's_38_39': [1853, 4420], 's_38_40': [459], 's_38_41': [4665], 's_38_43': [4697], 's_38_44': [339, 4756], 's_38_46': [4345, 1897], 's_38_47': [485], 's_38_48': [4390], 's_38_49': [232, 234, 233, 279, 4650], 's_39_2': [4299], 's_39_7': [4884], 's_39_13': [3985], 's_39_24': [1046, 1045, 1044], 's_39_34': [1434], 's_39_40': [1177], 's_39_41': [1873], 's_39_42': [1989], 's_39_44': [4866], 's_39_45': [4283], 's_39_46': [3939], 's_39_48': [5407], 's_39_49': [1837], 's_40_3': [3680], 's_40_7': [641], 's_40_13': [949], 's_40_15': [672, 5162], 's_40_24': [5058, 716], 's_40_27': [906], 's_40_28': [3845], 's_40_34': [4997], 's_40_35': [3649], 's_40_41': [756], 's_40_42': [4428], 's_40_43': [4652], 's_40_45': [5073], 's_40_46': [1147], 's_40_47': [861], 's_40_48': [993, 992], 's_40_49': [1161, 4189, 4190], 's_41_7': [5010, 5011], 's_41_13': [5485], 's_41_15': [4845], 's_41_35': [951], 's_41_42': [5089], 's_41_43': [1198], 's_41_44': [4830, 295], 's_41_45': [251], 's_41_47': [155, 4005], 's_41_49': [4545], 's_42_2': [4654], 's_42_3': [3752, 589], 's_42_13': [604], 's_42_15': [4607], 's_42_24': [2184], 's_42_28': [624], 's_42_35': [4521, 1208, 4460], 's_42_44': [3843], 's_42_45': [4658], 's_42_46': [4371], 's_42_47': [4751], 's_42_48': [1824], 's_42_49': [4248], 's_43_2': [939], 's_43_3': [1684], 's_43_7': [1759], 's_43_9': [3848], 's_43_13': [1999], 's_43_15': [987, 5330, 5331], 's_43_24': [5016], 's_43_28': [744, 4593], 's_43_34': [4682], 's_43_35': [4116], 's_43_44': [4941], 's_43_45': [4163], 's_43_46': [4686], 's_43_47': [1714], 's_43_48': [1969], 's_43_49': [1596], 's_44_2': [4925], 's_44_3': [3916], 's_44_7': [5026, 386], 's_44_13': [454], 's_44_15': [4860], 's_44_24': [1287], 's_44_27': [4651], 's_44_28': [3961, 3962], 's_44_34': [633], 's_44_35': [5300], 's_44_46': [5046], 's_44_47': [4038], 's_44_48': [5194], 's_44_49': [4261], 's_45_2': [4419], 's_45_7': [1715], 's_45_9': [4944], 's_45_13': [5200], 's_45_15': [402], 's_45_28': [806], 's_45_35': [1060, 4880], 's_45_47': [1805], 's_45_48': [1598], 's_46_2': [1612], 's_46_3': [3639], 's_46_13': [3789], 's_46_15': [5346], 's_46_24': [1331], 's_46_27': [1879], 's_46_28': [4308], 's_46_34': [982], 's_46_35': [4011], 's_46_47': [1864], 's_46_48': [1848], 's_46_49': [877], 's_47_3': [2105, 3971], 's_47_7': [1790], 's_47_9': [2120], 's_47_15': [2232], 's_47_27': [1415], 's_47_28': [530], 's_47_34': [784, 783, 3723], 's_48_2': [1883], 's_48_3': [1968], 's_48_7': [4613], 's_48_9': [3745], 's_48_13': [4465], 's_48_15': [1242], 's_48_24': [5092], 's_48_28': [1083], 's_48_35': [977], 's_48_49': [4165], 's_49_3': [4212], 's_49_7': [1746], 's_49_13': [1987], 's_49_15': [4530], 's_49_24': [4151], 's_49_28': [517], 's_49_34': [4307], 's_49_35': [981], 's_2_3': [4437], 's_2_7': [4939, 895], 's_2_9': [4434], 's_2_15': [4481], 's_2_24': [4466], 's_2_28': [4369], 's_2_34': [954], 's_3_7': [2155], 's_3_9': [3593, 1608, 1609], 's_3_13': [1699], 's_3_15': [4617], 's_3_24': [4091], 's_3_27': [3766], 's_3_28': [1099], 's_3_35': [828], 's_7_9': [4448], 's_7_13': [4915], 's_7_15': [762], 's_7_24': [491], 's_7_27': [1745], 's_7_28': [5269], 's_7_34': [4967], 's_7_35': [853], 's_9_13': [2029], 's_9_15': [1722], 's_9_28': [1159], 's_9_34': [1464], 's_15_13': [5080, 5081], 's_15_24': [1107, 5180], 's_15_27': [4681], 's_15_34': [460, 4892], 's_15_35': [5344], 's_24_13': [4435], 's_24_27': [5176], 's_24_28': [626], 's_27_13': [1909], 's_27_28': [5132], 's_27_34': [4577], 's_27_35': [1266], 's_28_13': [529], 's_28_35': [3710], 's_34_13': [664], 's_35_13': [1189]}</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I97" t="n">
         <v>0.004325842696629213</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J97" t="n">
         <v>0.001891139046742047</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K97" t="n">
         <v>0.001</v>
       </c>
     </row>
